--- a/data/S_P500_DATA.xlsx
+++ b/data/S_P500_DATA.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Prasham Jain\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\Weekly Refresh\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BF82480-C6E9-4AA3-B3A2-A07CFF7628CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5AC2BD2-042D-462E-86C2-3ACECABF4369}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="13546" firstSheet="1" activeTab="1" xr2:uid="{19CD61F6-541F-45D6-8B66-0D7732FB4E79}"/>
   </bookViews>
@@ -40,7 +40,7 @@
     <author>Prasham Jain</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{3CC86513-9550-4CC1-A379-EDCBDB8F9209}">
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{81C7D75E-E639-4791-B49C-6BFD7FB610D4}">
       <text>
         <r>
           <rPr>
@@ -48,13 +48,13 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
+            <charset val="1"/>
           </rPr>
-          <t>&lt;?xml version="1.0" encoding="utf-8"?&gt;&lt;Schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" Version="2" Timestamp="1771242778"&gt;&lt;FQL&gt;&lt;Q&gt;ZTS^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.3748&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ZTS^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ZION^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.76&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ZION^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ZBRA^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.382&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ZBRA^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ZBH^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.7&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ZBH^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;YUM^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.91&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;YUM^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;XYL^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.3718&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;XYL^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;XOM^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.53&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;XOM^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;XEL^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.95&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;XEL^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;WYNN^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.82&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;WYNN^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;WY^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.1025&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;WY^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;WTW^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;7.62&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;WTW^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;WST^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.82&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;WST^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;WRB^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.13&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;WRB^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;WMT^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.7668&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;WMT^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;45961&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;WMB^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;0&lt;/R&gt;&lt;C&gt;0&lt;/C&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;WMB^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;WM^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.8344&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;WM^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;WFC^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.62&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;WFC^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;WELL^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;-1.859&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;WELL^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;WEC^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.97&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;WEC^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;WDC^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;4.7297&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;WDC^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;WBD^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;-0.0597&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;WBD^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;45930&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;WBA^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;-0.2023&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;WBA^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;45807&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;WAT^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;3.77&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;WAT^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;WAB^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.1813&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;WAB^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;VZ^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.55&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;VZ^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;VTRS^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;-0.1101&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;VTRS^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;45930&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;VTR^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.146&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;VTR^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;VST^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.7506&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;VST^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;45930&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;VRTX^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;4.6509&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;VRTX^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;VRSN^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.2268&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;VRSN^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;VRSK^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.6114&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;VRSK^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;45930&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;VMC^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.8209&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;VMC^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;45930&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;VLTO^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.01&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;VLTO^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;VLO^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;3.73&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;VLO^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;VICI^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.7133&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;VICI^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;45930&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;V^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;3.0021&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;V^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;USB^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.2628&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;USB^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;URI^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;10.2673&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;URI^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;UPS^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.1&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;UPS^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;UNP^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;3.1137&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;UNP^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;UNH^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.011&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;UNH^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ULTA^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;5.1426&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ULTA^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;45961&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;UHS^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;5.8583&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;UHS^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;45930&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;UDR^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.6665&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;UDR^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;UBER^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.142&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;UBER^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;UAL^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;3.1927&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;UAL^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;TYL^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.5&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;TYL^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;TXT^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.3268&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;TXT^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;TXN^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.2689&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;TXN^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;TTWO^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;-0.5022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;TTWO^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;TT^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.6445&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;TT^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;TSN^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.2464&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;TSN^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;TSLA^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.2374&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;TSLA^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;TSCO^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.43&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;TSCO^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;TRV^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;11.058&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;TRV^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;TROW^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.9881&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;TROW^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;TRMB^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.65&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;TRMB^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;TRGP^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.2014&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;TRGP^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;45930&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;TPR^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.6753999999999998&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;TPR^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;TMUS^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.8821&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;TMUS^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;TMO^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;5.21&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;TMO^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;TJX^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.2806&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;TJX^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;45961&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;TGT^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.5139&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;TGT^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;45961&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;TFX^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;-9.2432&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;TFX^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;45930&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;TFC^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;TFC^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;TER^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.63&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;TER^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;TEL^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.5253&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;TEL^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;TECH^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.2421&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;TECH^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;TDY^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;5.839&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;TDY^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;TDG^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;6.6323&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;TDG^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;TAP^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;-14.7933&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;TAP^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;45930&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;T^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.5283&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;T^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;SYY^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.8093&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;SYY^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;SYK^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.1966&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;SYK^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;SYF^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.0414&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;SYF^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;SWKS^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.5262&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;SWKS^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;SWK^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.0398&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;SWK^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;STZ^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.8795&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;STZ^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;45989&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;STX^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.6009&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;STX^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;STT^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.42&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;STT^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;STLD^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.82&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;STLD^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;STE^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.9564&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;STE^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;SRE^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.1177&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;SRE^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;45930&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;SPGI^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;3.7537&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;SPGI^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;SPG^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.5601&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;SPG^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;SO^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.5414&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;SO^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;45930&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;SNPS^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.393&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;SNPS^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;45961&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;SNA^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;4.9375&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;SNA^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;SMCI^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.603&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;SMCI^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;SLB^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.5453&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;SLB^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;SJM^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.2615&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;SJM^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;45961&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;SHW^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.92&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;SHW^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;SEE^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.2573&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;SEE^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;45930&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;SCHW^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.33&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;SCHW^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;SBUX^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.2568&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;SBUX^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;SBAC^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.2017&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;SBAC^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;45930&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;RVTY^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.8459&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;RVTY^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;RTX^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.1912&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;RTX^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;RSG^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.7628&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;RSG^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;45930&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ROST^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.5835&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ROST^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;45961&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ROP^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;3.974&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ROP^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ROL^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.2412&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ROL^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ROK^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.6926&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ROK^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;RMD^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.6822&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;RMD^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;RL^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;5.8135&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;RL^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;RJF^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.7855&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;RJF^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;RF^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.58&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;RF^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;REGN^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;7.8567&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;REGN^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;REG^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.0871&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;REG^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;RE^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;10.77&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;RE^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;RCL^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.7619&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;RCL^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;QRVO^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.7533&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;QRVO^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;QCOM^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.7841&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;QCOM^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;PYPL^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.5304&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;PYPL^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;PXD^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;4.5732&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;PXD^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;45379&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;PWR^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.2405&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;PWR^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;45930&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;PVH^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.0877&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;PVH^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;45961&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;PTC^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.3878&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;PTC^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;PSX^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;7.17&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;PSX^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;PSA^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.5986&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;PSA^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;PRU^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.5506&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;PRU^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;PPL^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.4272&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;PPL^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;45930&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;PPG^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.33&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;PPG^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;POOL^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;3.3954&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;POOL^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;45930&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;PODD^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.2397&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;PODD^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;45930&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;PNW^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;3.3882&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;PNW^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;45930&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;PNR^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.01&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;PNR^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;PNC^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;4.8782&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;PNC^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;PM^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.3704&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;PM^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;PLTR^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.24&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;PLTR^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;PLD^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.4946&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;PLD^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;PKG^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.1284&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;PKG^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;PHM^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.5621&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;PHM^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;PH^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;6.5964&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;PH^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;PGR^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;0&lt;/R&gt;&lt;C&gt;0&lt;/C&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;PGR^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;PG^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.7818&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;PG^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;PFG^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.3246&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;PFG^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;PFE^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;-0.2898&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;PFE^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;PEP^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.8527&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;PEP^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;PEG^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.2415&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;PEG^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;45930&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;PEAK^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.1638&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;PEAK^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;PCG^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.2921&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;PCG^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;PCAR^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.0571&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;PCAR^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;PAYX^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.0971&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;PAYX^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;45989&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;PAYC^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.0653&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;PAYC^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;PARA^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;-0.2341&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;PARA^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;45930&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;OXY^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.655&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;OXY^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;45930&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;OTIS^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.9546&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;OTIS^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ORLY^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.71&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ORLY^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ORCL^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.0996&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ORCL^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;45989&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ON^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.4519&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ON^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;OMC^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.7512&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;OMC^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;45930&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;OKE^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.4869&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;OKE^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;45930&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ODFL^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.09&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ODFL^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;O^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.345&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;O^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;45930&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;NXPI^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.8017&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;NXPI^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;NWSA^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.3434&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;NWSA^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;NWS^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.3434&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;NWS^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;NVR^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;121.5553&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;NVR^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;NVDA^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.3034&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;NVDA^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;45961&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;NUE^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.64&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;NUE^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;NTRS^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.42&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;NTRS^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;NTAP^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.5099&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;NTAP^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;45961&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;NSC^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.8652&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;NSC^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;NRG^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.6923&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;NRG^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;45930&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;NOW^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.383&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;NOW^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;NOC^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;10.0495&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;NOC^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;NKE^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.5348&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;NKE^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;45989&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;NI^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.5349&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;NI^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;NFLX^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.5602&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;NFLX^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;NEM^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.6654&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;NEM^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;45930&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;NEE^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.7348&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;NEE^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;NDSN^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.6877&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;NDSN^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;45961&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;NDAQ^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.9003&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;NDAQ^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;NCLH^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.8458&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;NCLH^JULIAN(FF</t>
+          <t>&lt;?xml version="1.0" encoding="utf-8"?&gt;&lt;Schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" Version="2" Timestamp="1771582627"&gt;&lt;FQL&gt;&lt;Q&gt;ZTS^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.48&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ZBRA^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;XYL^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.3718&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;WYNN^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.17&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;WTW^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;WMT^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.53&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;WFC^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.62&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;WEC^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;WBA^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;-0.2023&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ZTS^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.3748&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ZBH^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.42&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;XYL^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;WYNN^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.82&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;WST^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.04&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;WMT^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46052&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;WFC^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.62&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;WDC^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.13&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;WBA^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;45807&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;VZ^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.5529&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;VST^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.7472291&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;VRSN^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;VLTO^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.01&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;V^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;3.17&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ZTS^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;XEL^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;WRB^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.13&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;WAB^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.1813&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;VST^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.7506&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;VRSK^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;VICI^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.71&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;URI^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ULTA^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;5.14&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;TXT^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.3268&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;TT^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;TRGP^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;0&lt;/R&gt;&lt;C&gt;0&lt;/C&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;TFX^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;45930&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;TECH^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.2421&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;SYK^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;STLD^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.82&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;SPGI^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;SJM^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.1&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;SCHW^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.33&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ROP^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;5.21&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;RF^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.58&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;RCL^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.8&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;PVH^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.0877&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;POOL^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.84&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;PNR^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.01&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;PHM^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;PFG^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.19&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;PCAR^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ORCL^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.26&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;OKE^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;45930&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;NVDA^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.3&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;NOW^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;NFLX^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.56&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;MU^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;4.6046&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;MTB^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;MRK^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.1909&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;MNST^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;45930&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;MKTX^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.51&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;MDT^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46052&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;MAR^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.6518&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;LYV^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;45930&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;LOW^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;3.06&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;LLY^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;7.0237&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;YUM^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.91&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;WYNN^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;WM^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;WBD^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;-0.06&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;UPS^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.38&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;UBER^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.142&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;TSN^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.97&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;TRV^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;11.058&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;TMO^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;TFC^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;TAP^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;STZ^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;3.06&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;STLD^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;SNA^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;4.94&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;SCHW^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;RTX^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.55&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;RMD^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.6822&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;RF^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;PYPL^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.5304&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;PSA^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;POOL^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.85&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;PLTR^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;PFG^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.3246&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;PEG^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;45930&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;OXY^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.31&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ORCL^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.0996&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;NWSA^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.4&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;NTAP^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.5099&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;NOC^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;7.23&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;NDSN^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.38&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;MSI^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;4.59&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;MS^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.68&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;MOS^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;45930&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;MMM^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.83&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;MGM^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;MCHP^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.44&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;MAR^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;LUV^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.58&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;LLY^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;LH^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;4.07&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;LDOS^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;KR^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;-2.0168&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;KMI^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.39&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;KLAC^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;KEYS^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.3237&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;K^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.93&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;JNPR^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;45838&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;JCI^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.8534&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;J^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.53&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ITW^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;IRM^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.2992&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;IPG^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.75&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;INVH^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;INCY^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.4616&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;IEX^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.1&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ICE^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;HUM^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;-6.6146&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;HST^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.2&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;HRL^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;45961&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;HON^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.462&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;HCA^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;8.01&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;HAS^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;GS^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;14.01&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;GPC^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.55&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;GOOG^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;GLW^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.62&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;GILD^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.86&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;GEN^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;GDDY^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.5136&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;FTNT^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.81&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;FRT^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;FMC^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;-13.7444&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;FIS^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.51&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;FI^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;FDX^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;4.0466&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;FCNCA^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;51.27&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;FANG^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;45930&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;EXPE^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.5986&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;EW^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.58&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ETR^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ES^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.12&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;EQIX^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.69&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;EOG^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;45930&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;EMN^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.9138&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;EFX^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.09&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ZION^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.76&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;WRB^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.13&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;WFC^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;WAB^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;VST^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;45930&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;VMC^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.7&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;VICI^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.7133&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ULTA^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;5.1426&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;TXT^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;TSN^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.2464&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;TRGP^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;TFC^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;TECH^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;SYF^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.04&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;STZ^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.8795&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;SPG^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;9.35&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;SJM^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.2615&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;SBUX^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.56&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ROP^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;3.97&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;REGN^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;11.44&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;RCL^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.7619&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;PVH^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;45961&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;PRU^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;3.3&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;PNR^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;PH^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;7.65&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;PFG^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;PAYX^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.26&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ORCL^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;45989&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ODFL^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.09&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;NVDA^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.3034&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;NTAP^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;45961&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;NFLX^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.5602&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;MU^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;45989&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;MSI^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;3.8608&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;MRK^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;MMM^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.0705&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;MKTX^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;MDLZ^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.72&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;MCHP^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.064&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;LYB^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;-0.26&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;LOW^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.8786&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;LKQ^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.59&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;XOM^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.71&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;WTW^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;8.12&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;WDC^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;VRTX^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;URI^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;11.09&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ULTA^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;45961&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;UAL^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;TSCO^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.43&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;TGT^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.78&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;TER^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;TDG^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;SNPS^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.9&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;SLB^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;SBUX^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.2568&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;RSG^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.76&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;PSX^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;7.17&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;PPG^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.51&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;PLD^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.4946&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;PCAR^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.0571&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;OXY^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ON^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;O^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.345&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;NSC^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;3.22&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;NEM^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;45930&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;NCLH^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;45930&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;MTB^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;4.6711&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;MRO^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;0&lt;/R&gt;&lt;C&gt;0&lt;/C&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;MPC^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;4.07&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;MLM^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;MCO^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;3.4135&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;MAS^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.82&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;LYV^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.73&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;LUV^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.6219&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;KR^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.05&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;KMI^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;KDP^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.54&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;IVZ^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.62&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;IQV^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.9901&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;INTU^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;3.34&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;IDXX^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;3.08&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;HSY^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;HPQ^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.8386&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;HBAN^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;GNRC^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;GEN^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.64&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;GDDY^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;45930&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;FOX^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.82&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;FI^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.5102&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;FDS^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;4.51&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;EXR^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.7811&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;EQT^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.0769&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;EMR^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;EFX^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.44&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;EBAY^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.15&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;DVN^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.9035&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;DTE^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.7762&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;DOW^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;-0.34&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;DLTR^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;45961&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;DHI^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.028&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;DFS^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;0&lt;/R&gt;&lt;C&gt;0&lt;/C&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;DE^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46052&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;DAL^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.8582&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CVX^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.52&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CTVA^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CTLT^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;-0.7088&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CSGP^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.23&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CRWD^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;45961&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CPT^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.4335&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CPAY^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;6.04&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;COR^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;COF^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;4.8257&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CMS^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.95&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CMG^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CMA^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.27&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CINF^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;3.37&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CHTR^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CFG^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.1265&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CE^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.67&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ZION^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.76&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;WM^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.93&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;WBD^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;-0.0597&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;VTRS^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.67&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;VLO^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;3.73&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;URI^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;10.2673&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;TYL^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.64&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;TTWO^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;TSCO^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;TPR^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.69&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;TAP^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.21&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;STX^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.6009&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;SRE^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.11&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ROK^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.6926&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;RF^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.57&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;RCL^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;PXD^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;4.5732&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;PLD^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;PGR^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;PEP^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.8527&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;OTIS^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.03&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;O^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;45930&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;NVR^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;NSC^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.8652&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;NKE^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.53&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;NEE^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.54&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;MPC^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;5.12&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;MNST^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.56&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;MKTX^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.68&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;META^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;8.8764&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;LYV^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.731&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;LNT^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;45930&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;LIN^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;3.26&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;LDOS^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.76&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;KR^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;45961&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;KHC^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.67&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;JNPR^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.21&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;JBL^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.85&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ISRG^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.2053&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ILMN^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.1688&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;HWM^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;HST^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.1955&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;HOLX^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;GS^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;14.01&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;GPC^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;GIS^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.1&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;FSLR^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;4.24&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;FITB^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.0446&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;FFIV^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;4.45&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;FAST^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.2556&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;EXC^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ETN^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.91&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;EPAM^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;XOM^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.534&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;WTW^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;7.62&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;VRSN^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.23&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;UPS^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.0996&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;UHS^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;5.69&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;TRV^FE_ESTIMATE(</t>
         </r>
       </text>
     </comment>
-    <comment ref="A2" authorId="0" shapeId="0" xr:uid="{F86AB448-8C75-4580-894A-9C7F7701B2AE}">
+    <comment ref="A2" authorId="0" shapeId="0" xr:uid="{EE9F3909-3893-48FF-9F16-FD8FDB55DC61}">
       <text>
         <r>
           <rPr>
@@ -62,13 +62,13 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
+            <charset val="1"/>
           </rPr>
-          <t>_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;45930&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;MU^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;4.6046&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;MU^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;45989&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;MTD^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;13.9776&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;MTD^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;MTCH^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.83&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;MTCH^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;MTB^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;4.67&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;MTB^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;MSI^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;3.8608&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;MSI^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;MSFT^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;5.1552&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;MSFT^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;MSCI^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;3.811&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;MSCI^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;MS^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.68&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;MS^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;MRO^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.5089&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;MRO^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;45565&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;MRNA^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;-2.1071&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;MRNA^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;MRK^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.1909&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;MRK^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;MPWR^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;3.46&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;MPWR^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;MPC^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;5.12&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;MPC^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;MOS^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.288&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;MOS^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;45930&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;MOH^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;-3.1372&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;MOH^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;MO^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.6643&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;MO^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;MNST^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.5325&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;MNST^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;45930&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;MMM^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.0705&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;MMM^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;MMC^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.6755&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;MMC^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;MLM^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;4.62&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;MLM^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;MKTX^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.51&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;MKTX^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;MKC^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.8414&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;MKC^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;45989&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;MHK^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.6785&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;MHK^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;MGM^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.112&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;MGM^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;META^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;8.8764&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;META^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;MET^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.1749&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;MET^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;MDT^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.0668&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;MDT^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;45961&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;MDLZ^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.5147&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;MDLZ^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;MCO^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;3.5969&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;MCO^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;45930&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;MCK^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;9.5877&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;MCK^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;MCHP^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.064&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;MCHP^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;MCD^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;3.03&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;MCD^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;MAS^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.7971&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;MAS^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;MAR^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.6518&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;MAR^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;MAA^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.4835&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;MAA^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;MA^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;4.5212&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;MA^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;LYV^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.731&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;LYV^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;45930&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;LYB^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;-0.4348&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;LYB^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;LW^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.4448&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;LW^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;45989&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;LVS^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.5826&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;LVS^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;LUV^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.6219&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;LUV^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;LULU^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.5882&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;LULU^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;45961&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;LRCX^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.2633&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;LRCX^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;LOW^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.8786&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;LOW^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;45961&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;LNT^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.09&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;LNT^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;45930&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;LMT^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;5.7956&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;LMT^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;LLY^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;7.0237&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;LLY^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;LKQ^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.6996&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;LKQ^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;45930&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;LIN^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;3.26&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;LIN^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;LHX^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.594&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;LHX^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;LH^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;3.1195&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;LH^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;45930&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;LEN^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.9278&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;LEN^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;45989&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;LDOS^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.8231&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;LDOS^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;45930&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;L^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.9439&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;L^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;KVUE^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.207&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;KVUE^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;45930&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;KR^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;-2.0168&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;KR^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;45961&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;KO^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.5266&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;KO^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;KMX^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.4265&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;KMX^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;45989&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;KMI^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.4454&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;KMI^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;KMB^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.4981&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;KMB^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;KLAC^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;8.7271&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;KLAC^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;KIM^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.2121&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;KIM^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;KHC^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.5484&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;KHC^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;KEYS^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.3237&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;KEYS^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;45961&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;KEY^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.43&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;KEY^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;KDP^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.4857&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;KDP^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;45930&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;K^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.8829&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;K^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;45930&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;JPM^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;4.6302&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;JPM^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;JNPR^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.21&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;JNPR^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;45838&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;JNJ^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.0976&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;JNJ^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;JKHY^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.7216&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;JKHY^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;JCI^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.8534&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;JCI^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;JBL^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.3481&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;JBL^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;45989&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;JBHT^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.8959&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;JBHT^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;J^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.1192&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;J^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;IVZ^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;-2.629&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;IVZ^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ITW^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.7223&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ITW^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;IT^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;3.3578&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;IT^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ISRG^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.2053&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ISRG^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;IRM^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.2992&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;IRM^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;IR^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.67&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;IR^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;IQV^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.99&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;IQV^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;IPG^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.3375&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;IPG^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;45930&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;IP^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;-4.52&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;IP^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;INVH^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.1484&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;INVH^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;45930&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;INTU^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.5872&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;INTU^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;45961&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;INTC^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;-0.1217&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;INTC^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;INCY^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.4616&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;INCY^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ILMN^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.1688&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ILMN^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;IFF^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.07&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;IFF^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;IEX^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.7152&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;IEX^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;IDXX^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;3.08&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;IDXX^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ICE^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.4878&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ICE^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;IBM^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;5.88&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;IBM^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;HWM^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.9208&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;HWM^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;HUM^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;-6.6146&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;HUM^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;HUBB^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;4.1832&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;HUBB^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;HSY^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.57&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;HSY^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;HST^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.2335&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;HST^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;45930&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;HSIC^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.8345&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;HSIC^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;45930&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;HRL^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;-0.102&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;HRL^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;45961&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;HPQ^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.8386&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;HPQ^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;45961&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;HPE^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.1073&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;HPE^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;45961&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;HON^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.462&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;HON^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;HOLX^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.7929&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;HOLX^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;HD^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;3.6191&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;HD^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;45961&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;HCA^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;8.1401&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;HCA^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;HBAN^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.3032&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;HBAN^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;HAS^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.41&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;HAS^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;HAL^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.7012&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;HAL^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;GWW^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;9.44&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;GWW^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;GS^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;14.01&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;GS^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;GRMN^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.0752&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;GRMN^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;45930&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;GPN^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.6448&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;GPN^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;45930&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;GPC^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.6224&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;GPC^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;45930&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;GOOGL^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.8177&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;GOOGL^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;GOOG^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.8177&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;GOOG^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;GNRC^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;-0.4196&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;GNRC^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;GM^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;-3.6&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;GM^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;GLW^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.62&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;GLW^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;GL^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;3.29&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;GL^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;GIS^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.7687&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;GIS^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;45989&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;GILD^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.74&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;GILD^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;GEV^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;13.3723&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;GEV^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;GEN^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.3107&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;GEN^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;GEHC^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.2888&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;GEHC^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;GE^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.3887&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;GE^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;GDDY^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.5136&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;GDDY^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;45930&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;GD^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;4.1731&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;GD^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;FTV^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.58&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;FTV^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;FTNT^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.6765&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;FTNT^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;FSLR^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;4.2398&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;FSLR^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;45930&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;FRT^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.4812&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;FRT^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;FOXA^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.5193&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;FOXA^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;FOX^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.5193&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;FOX^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;FMC^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;-13.7444&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;FMC^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;FLT^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;3.75&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;FLT^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;FITB^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.0446&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;FITB^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;FIS^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.5048&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;FIS^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;45930&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;FICO^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;6.6104&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;FICO^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;FI^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.5102&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;FI^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;FFIV^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;3.0956&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;FFIV^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;FE^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.763&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;FE^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;45930&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;FDX^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;4.0466&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;FDX^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;45989&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;FDS^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;4.0564&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;FDS^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;45989&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;FCX^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.2814&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;FCX^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;FCNCA^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;45.7817&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;FCNCA^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;FAST^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.2556&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;FAST^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;FANG^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;3.5108&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;FANG^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;45930&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;F^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;-2.6286&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;F^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;EXR^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.7811&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;EXR^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;45930&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;EXPE^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.5986&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;EXPE^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;EXPD^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.6429&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;EXPD^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;45930&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;EXC^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.5848&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;EXC^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;EW^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.1568&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;EW^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;EVRG^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.029&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;EVRG^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;45930&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ETR^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.51&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ETR^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ETN^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.91&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ETN^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ESS^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.2507&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ESS^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ES^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.12&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ES^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;EQT^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.5345&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;EQT^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;45930&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;EQR^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.982&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;EQR^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;EQIX^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.6937&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;EQIX^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;EPAM^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.9137&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;EPAM^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;45930&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;EOG^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.704&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;EOG^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;45930&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ENPH^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.29&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ENPH^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;EMR^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.0725&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;EMR^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;EMN^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.9138&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;EMN^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;EL^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.4441&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;EL^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;EIX^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.1554&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;EIX^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;45930&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;EFX^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.44&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;EFX^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ED^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.9011&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ED^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;45930&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ECL^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.98&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ECL^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;EBAY^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.3533&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;EBAY^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;45930&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;EA^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.3478&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;EA^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:lon</t>
+          <t>EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;11.13&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;TGT^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.5139&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;TEL^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.72&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;SYF^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.0414&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;SNPS^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.393&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;SJM^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;45961&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;SBUX^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;RSG^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.7598&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;PXD^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;45379&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;PSX^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;PPG^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.33&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;PNC^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;4.88&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;PKG^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.32&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;PEP^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;OTIS^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.9546&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;OMC^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.59&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;NXPI^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;3.35&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;NEE^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.7348&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;MU^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;4.78&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;MSI^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;MRO^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.5089&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;MCO^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;MAS^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.7971&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;LUV^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;KMB^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.86&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;KDP^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.4857&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;JNJ^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.46&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;IVZ^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;-2.629&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;IQV^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;INTU^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.5872&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;IDXX^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;HPQ^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;45961&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;HAS^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.51&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;GS^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;GM^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.51&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;GEN^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.3107&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ZBRA^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;4.33&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;WST^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;WELL^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.14&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;WBA^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;0&lt;/R&gt;&lt;C&gt;0&lt;/C&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;VTRS^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;45930&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;VICI^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;45930&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;UHS^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;45930&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;TYL^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;TT^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.6445&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;TROW^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.44&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;TMUS^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.88&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;TEL^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;SWKS^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.5262&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;STT^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.97&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;SPGI^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;4.3&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;SNA^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;4.9375&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ROST^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.5835&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;RMD^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.81&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;REGN^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;QRVO^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.7533&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;PKG^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;PG^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.7818&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;PEAK^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.16&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;PAYX^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;45989&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;NXPI^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;NUE^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.73&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;NRG^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.78&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;NKE^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;45989&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;MTD^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;13.9776&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;MRNA^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;-2.11&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;MOS^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.04&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;MMM^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;MKC^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.8414&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;MET^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.1749&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;MAR^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.58&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;LULU^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;45961&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;LMT^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;5.7956&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;LHX^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.594&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;KO^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.5266&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;KHC^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;K^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.8829&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;JBL^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;45989&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;IRM^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.61&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;IPG^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;45930&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;IFF^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.8&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;HSIC^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.38&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;HD^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;3.6191&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;HAL^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.69&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;GOOGL^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.8177&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;GIS^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;45989&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;GEHC^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.2888&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;FSLR^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;45930&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;FFIV^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;FANG^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;3.08&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;EXPE^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ESS^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.25&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;EOG^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.704&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;EL^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.87&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;XEL^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.96&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;WAT^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;4.53&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;VRSK^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.4176&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;V^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;3.0021&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;UNP^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.86&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;UDR^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.67&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;TMUS^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.8821&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;TFX^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;3.67&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;TECH^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.46&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;T^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.5283&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;SPGI^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;3.7537&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;SHW^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;SBAC^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.2017&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;RMD^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;PWR^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;PSA^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.5986&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;PODD^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.55&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;PNC^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;PAYC^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.45&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ORLY^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.71&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;OMC^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;NWSA^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.3434&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;NUE^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.64&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;NI^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.51&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;NDSN^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.37&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;MTD^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;MSFT^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;5.1552&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;MRNA^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;-2.1071&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;MET^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;MCK^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;9.5877&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;MAA^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.48&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;LYB^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;LHX^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;L^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.9439&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;KMB^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;JNJ^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ITW^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.72&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;IRM^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;INTC^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.15&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ICE^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.4878&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;HUBB^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;4.73&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;HPE^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.1073&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;GRMN^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.7283&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;GM^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;GILD^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.74&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;GD^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;FMC^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.2&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;FIS^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;45930&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;FCX^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.47&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;EVRG^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.42&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;EQR^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.982&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ENPH^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.71&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ED^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.9011&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;EA^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.3478&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;DVA^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.9359&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;DRI^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.0326&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;DOV^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.51&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;DIS^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;DGX^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.18&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;DECK^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;3.33&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;DD^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;D^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.1632&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CVS^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.09&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CTSH^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CTAS^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.2148&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CSCO^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.04&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CRM^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;45961&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CPRT^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.4132&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;COST^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;4.5&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ZION^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;WY^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;-0.09&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;WMB^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;VRTX^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;4.6509&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;V^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;UNH^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;TXT^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.73&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;TPR^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;TAP^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.2177&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;STE^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;SMCI^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.603&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;SCHW^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.39&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;RJF^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.7855&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;QRVO^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;PTC^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.3878&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;POOL^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;PLTR^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.25&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;PG^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.88&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;OXY^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;-0.0688&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;NEM^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.71&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;MSCI^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;MMC^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;META^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;MCD^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;3.12&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;MA^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;LRCX^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.2633&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;L^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;KMX^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;45989&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;KEYS^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.91&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;IT^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;3.3578&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;IPG^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.3375&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;INTC^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;HPQ^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.93&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;HCA^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;8.1401&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;GWW^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;9.44&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;GOOGL^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;FTV^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.58&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;FOXA^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;FIS^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.5048&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;EXPE^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;3.78&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;EVRG^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;EQT^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.9&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ECL^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;DVN^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;DHR^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;DD^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;-0.3046&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;D^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;45930&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CTLT^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;0&lt;/R&gt;&lt;C&gt;0&lt;/C&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CPB^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.77&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CCI^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.2723&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CB^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;8.0958&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;BXP^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.56&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;BRK.B^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;45930&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;BKNG^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;44.2201&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;WM^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.8344&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;WAT^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;TSLA^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;TER^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.8&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;T^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.52&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;SWK^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.0398&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;SRE^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.1177&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;SMCI^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;QCOM^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;3.5&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;PTC^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;PCG^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.36&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ODFL^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.09&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;NVR^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;121.5553&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;NRG^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;45930&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;MTCH^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.83&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;MS^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.68&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;MOS^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.288&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;MET^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.49&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;LIN^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;4.200359&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;KMI^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.4454&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;KEYS^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;45961&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;JPM^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;JBHT^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.9&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;HUBB^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;GL^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;3.29&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;GEHC^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;FE^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;FAST^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.26&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;EXPD^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.64&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;EIX^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.86&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;EBAY^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.41&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;DOV^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;DFS^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;4.2421&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CTVA^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.22&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CSGP^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;45930&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CRL^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.39&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;COR^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.8653&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;COF^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;45930&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CMS^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CME^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CLX^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CI^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CHD^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CEG^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;45930&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CDNS^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CCI^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CAH^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.9705&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;BSX^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.8&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;BLK^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;BIIB^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;-0.3333&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;BBWI^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.35&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;AXP^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ATO^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.4433&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;APH^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.9277&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ANET^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.82&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;AME^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ALGN^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.8919&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;AFL^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.57&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ADP^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ABT^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.0166&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ZBH^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Zimmer Biomet Holdings, Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;WRB^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;W. R. Berkley Corporation&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;VRSN^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;VeriSign, Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;TYL^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Tyler Technologies, Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;TFX^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Teleflex Incorporated&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;STLD^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Steel Dynamics, Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;RTX^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;RTX Corporation&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;PXD^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Pioneer Natural Resources Company&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;PKG^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Packaging Corporation of America&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;PEAK^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Healthpeak Properties, Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;NWS^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;News Corporation Class B&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;NCLH^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Norwegian Cruise Line Holdings Ltd.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;MNST^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Monster Beverage Corporation&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;MAR^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Marriott International, Inc. Class A&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;LH^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Labcorp Holdings Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;JPM^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;JPMorgan Chase &amp;amp; Co.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;INVH^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Invitation Homes, Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;IBM^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;International Business Machines Corporation&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;GWW^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;W.W. Grainger, Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;GDDY^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;GoDaddy, Inc. Class A&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ZBRA^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.382&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;WY^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.1025&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;VRSN^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.2268&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;USB^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.26&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;TXN^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.27&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;TMUS^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;SRE^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;45930&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ROP^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;RJF^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;QCOM^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.7841&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;PSX^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.47&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;PODD^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.4406&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;PLTR^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.2365&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;PG^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;PCG^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.2921&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;OTIS^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;NEM^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.6654&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;MS^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;MOH^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;-2.75&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;MLM^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;3.85&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;MCD^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;3.03&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;LYB^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;-0.4348&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;LRCX^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;LIN^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;KVUE^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.27&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;IT^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;IP^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;-0.08&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;INCY^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.8&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ICE^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.71&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;HCA^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;GWW^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;GOOG^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:</t>
         </r>
       </text>
     </comment>
-    <comment ref="A3" authorId="0" shapeId="0" xr:uid="{363DFAD1-08ED-411C-8A48-AFF98DC889C7}">
+    <comment ref="A3" authorId="0" shapeId="0" xr:uid="{F7505DB4-3348-4521-B935-806BDEB779E3}">
       <text>
         <r>
           <rPr>
@@ -76,13 +76,13 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
+            <charset val="1"/>
           </rPr>
-          <t>g"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;DXCM^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.6761&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;DXCM^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;DVN^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.0922&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;DVN^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;45930&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;DVA^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.9359&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;DVA^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;DUK^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.5026&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;DUK^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;DTE^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.0193&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;DTE^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;45930&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;DRI^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.0326&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;DRI^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;45989&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;DPZ^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;4.08&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;DPZ^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;45898&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;DOW^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;-2.1512&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;DOW^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;DOV^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.0616&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;DOV^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;DLTR^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.2002&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;DLTR^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;45961&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;DIS^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.3396&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;DIS^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;DHR^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.68&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;DHR^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;DHI^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.028&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;DHI^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;DGX^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.18&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;DGX^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;DG^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.2792&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;DG^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;45961&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;DFS^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;4.2421&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;DFS^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;45747&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;DECK^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;3.3346&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;DECK^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;DE^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;3.9284&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;DE^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;45961&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;DD^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;-0.3046&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;DD^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;DAY^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;-1.2315&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;DAY^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;45930&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;DAL^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.8582&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;DAL^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;D^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.1632&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;D^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;45930&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CZR^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;-0.2657&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CZR^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;45930&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CVX^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.39&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CVX^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CVS^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.3046&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CVS^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CTVA^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;-0.8181&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CTVA^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CTSH^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.3444&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CTSH^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CTRA^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.4185&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CTRA^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;45930&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CTLT^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;-0.7088&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CTLT^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;45565&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CTAS^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.2148&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CTAS^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;45989&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CSX^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.3863&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CSX^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CSGP^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;-0.0736&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CSGP^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;45930&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CSCO^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.8&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CSCO^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46052&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CRWD^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;-0.1353&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CRWD^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;45961&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CRM^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.1912&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CRM^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;45961&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CRL^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.1011&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CRL^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;45930&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CPT^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.4335&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CPT^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CPRT^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.4132&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CPRT^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;45961&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CPB^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.6488&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CPB^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;45961&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CPAY^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;3.75&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CPAY^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;COST^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;4.5015&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;COST^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;45989&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;COR^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.8653&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;COR^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;COP^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.1686&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;COP^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;COO^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.4271&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;COO^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;45961&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;COF^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;4.8257&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;COF^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;45930&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CNP^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.4466&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CNP^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;45930&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CNC^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;-2.2399&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CNC^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CMS^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.9352&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CMS^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CMI^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;4.2662&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CMI^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CMG^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.2507&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CMG^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CME^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;3.24&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CME^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CMCSA^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.5963&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CMCSA^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CMA^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.27&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CMA^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CLX^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.2878&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CLX^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CL^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;-0.046&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CL^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CINF^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;4.29&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CINF^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CI^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;4.6444&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CI^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CHTR^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;10.3314&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CHTR^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CHRW^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.1205&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CHRW^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CHD^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.5989&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CHD^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CFG^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.1265&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CFG^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CF^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.1898&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CF^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;45930&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CEG^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.9712&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CEG^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;45930&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CE^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;-12.3852&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CE^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;45930&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CDW^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.14&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CDW^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CDNS^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.0487&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CDNS^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;45930&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CDAY^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;0&lt;/R&gt;&lt;C&gt;0&lt;/C&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CDAY^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;0&lt;/R&gt;&lt;C&gt;0&lt;/C&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CCL^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.3136&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CCL^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;45989&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CCI^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.2723&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CCI^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CBRE^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.3873&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CBRE^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CBOE^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.97&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CBOE^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CB^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;8.0958&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CB^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CAT^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;5.1215&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CAT^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CARR^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.0626&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CARR^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CAH^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.9705&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CAH^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CAG^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;-1.3854&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CAG^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;45989&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;C^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.1938&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;C^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;BXP^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.5617&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;BXP^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;BX^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.2962&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;BX^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;BWA^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;-1.2654&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;BWA^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;BSX^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.4493&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;BSX^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;BRO^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.59&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;BRO^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;BRK.B^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;14.275&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;BRK.B^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;45930&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;BR^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.418&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;BR^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;BMY^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.5326&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;BMY^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;BLK^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;7.16&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;BLK^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;BLDR^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.1032&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;BLDR^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;45930&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;BKR^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.8813&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;BKR^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;BKNG^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;84.4032&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;BKNG^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;45930&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;BK^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.02&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;BK^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;BIO^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;26.6548&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;BIO^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;BIIB^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;-0.3333&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;BIIB^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;BG^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.4872&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;BG^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;BF.B^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.474&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;BF.B^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;45961&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;BEN^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.4617&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;BEN^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;BDX^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.3364&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;BDX^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;BBY^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.6601&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;BBY^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;45961&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;BBWI^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.3738&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;BBWI^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;45961&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;BAX^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;-2.1595&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;BAX^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;BAC^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.98&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;BAC^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;BA^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;10.1182&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;BA^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;AZO^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;31.0386&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;AZO^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;45989&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;AXP^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;3.5305&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;AXP^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;AWK^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.9436&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;AWK^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;45930&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;AVY^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.1499&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;AVY^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;AVGO^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.7423&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;AVGO^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;45961&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;AVB^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.1602&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;AVB^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ATVI^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.7393&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ATVI^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;45107&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ATO^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.4433&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ATO^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ARE^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;-6.349&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ARE^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;APTV^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;-1.6329&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;APTV^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;45930&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;APH^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.9277&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;APH^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;APD^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;3.0426&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;APD^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;APA^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.5726&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;APA^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;45930&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;AOS^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.8961&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;AOS^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;AON^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;7.8199&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;AON^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ANSS^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.5885&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ANSS^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;45747&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ANET^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.75&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ANET^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;AMZN^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.9508&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;AMZN^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;AMT^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.8192&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;AMT^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;45930&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;AMP^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;10.47&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;AMP^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;AMGN^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.4549&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;AMGN^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;AME^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.73&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;AME^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;AMD^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.9163&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;AMD^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;AMCR^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.3816&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;AMCR^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;AMAT^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.54&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;AMAT^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46052&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ALLE^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.178&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ALLE^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;45930&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ALL^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;14.3672&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ALL^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ALGN^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.8919&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ALGN^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ALB^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;-3.8731&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ALB^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;AKAM^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.968&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;AKAM^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;45930&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;AJG^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.5802&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;AJG^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;AIZ^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;4.41&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;AIZ^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;AIG^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.3452&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;AIG^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;AFL^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.64&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;AFL^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;AES^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.9398&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;AES^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;45930&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;AEP^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.0714&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;AEP^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;AEE^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.92&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;AEE^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ADSK^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.5954&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ADSK^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;45961&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ADP^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.6242&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ADP^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ADM^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.9422&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ADM^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ADI^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.5971&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ADI^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;45961&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ADBE^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;4.4508&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ADBE^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;45989&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ACN^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;3.5359&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ACN^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;45989&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ACGL^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;3.3497&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ACGL^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ABT^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.0166&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ABT^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ABNB^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.5554&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ABNB^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ABBV^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.0237&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ABBV^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;AAPL^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.8424&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;AAPL^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;A^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.5282&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;A^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;45961&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ZTS^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Zoetis, Inc. Class A&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ZION^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Zions Bancorporation NA&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ZBRA^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Zebra Technologies Corporation Class A&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ZBH^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Zimmer Biomet Holdings, Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;YUM^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Yum! Brands, Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;XYL^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Xylem Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;XOM^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Exxon Mobil Corporation&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;XEL^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Xcel Energy Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;WYNN^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Wynn Resorts, Limited&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;WY^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Weyerhaeuser Company&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;WTW^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Willis Towers Watson Public Limited Company&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;WST^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;West Pharmaceutical Services, Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;WRB^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;W. R. Berkley Corporation&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;WMT^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Walmart Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;WMB^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Williams Companies, Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;WM^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Waste Management, Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;WFC^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Wells Fargo &amp;amp; Company&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;WELL^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Welltower Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;WEC^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;WEC Energy Group Inc&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;WDC^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Western Digital Corporation&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;WBD^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Warner Bros. Discovery, Inc. Series A&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;WBA^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Walgreens Boots Alliance, Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;WAT^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Waters Corporation&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;WAB^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Westinghouse Air Brake Technologies Corporation&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;VZ^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Verizon Communications Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;VTRS^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Viatris, Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;VTR^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Ventas, Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;VST^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Vistra Corp.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;VRTX^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Vertex Pharmaceuticals Incorporated&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;VRSN^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;VeriSign, Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;VRSK^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Verisk Analytics, Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;VMC^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Vulcan Materials Company&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;VLTO^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Veralto Corporation&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;VLO^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Valero Energy Corporation&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;VICI^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;VICI Properties Inc&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;V^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Visa Inc. Class A&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;USB^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;U.S. Bancorp&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;URI^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;United Rentals, Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;UPS^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;United Parcel Service, Inc. Class B&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;UNP^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Union Pacific Corporation&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;UNH^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;UnitedHealth Group Incorporated&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ULTA^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Ulta Beauty Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;UHS^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Universal Health Services, Inc. Class B&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;UDR^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;UDR, Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;UBER^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Uber Technologies, Inc.&lt;</t>
+          <t>type="xsd:double"&gt;2.82&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;FTV^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;FOX^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.5193&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;FICO^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;7.33&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ETR^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.51&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;EQT^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ENPH^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.2956&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;DVA^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;3.4&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;DRI^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;45989&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;DHI^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.03&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CZR^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;-1.23&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CTLT^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;45565&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CPB^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.6488&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;DAY^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.37&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CB^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;BXP^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.5617&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;BR^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.59&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;BKNG^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;BEN^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.4617&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;BA^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;9.92&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;AVGO^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;45961&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ATO^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;AOS^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.8961&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;AMP^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;10.83&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;AMAT^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46052&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;AJG^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.5802&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ZBH^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.7&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;WELL^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;-1.859&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;WAB^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.1&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;VRSK^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.82&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;TXN^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.2689&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;TSCO^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.43&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;TER^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.63&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;T^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;SWK^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;SLB^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.78&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;SBAC^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.2&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;REGN^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;7.8567&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;QCOM^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;PLD^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.49&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;PCG^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ODFL^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;NVDA^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;45961&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;NOW^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.92&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;MTCH^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.83&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;MOH^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;-3.1372&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;MDT^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.36&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;LHX^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.86&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;KEY^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.43&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;JNPR^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;0&lt;/R&gt;&lt;C&gt;0&lt;/C&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;JBHT^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.8959&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;INCY^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;IBM^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;4.52&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;HSY^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.71&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;HPE^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.62&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;GL^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;GE^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.57&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;FTNT^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.6765&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;FDX^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;4.82&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;FAST^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;EXPD^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.6429&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;EIX^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;4.8001&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;EBAY^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;DLTR^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.21&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;DFS^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;45747&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CTVA^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;-0.8181&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CRL^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;-5.6192&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;WY^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;USB^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.2628&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;UHS^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;5.8583&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ZBH^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;WELL^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;VZ^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.09&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;UDR^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.6665&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;SYY^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.8093&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;STX^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;3.11&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;SPG^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.5601&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;SLB^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.5453&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;SBAC^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;45930&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ROL^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.2412&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;REG^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.09&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;PYPL^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.23&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;PSA^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.6&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;PKG^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.1284&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;O^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.35&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;NOC^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;10.0495&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;NDSN^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46052&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;MTCH^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;MRO^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;45565&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;MO^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.3&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;MKC^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.86&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;MDT^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.89&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;LW^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.4448&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;LNT^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.12&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;KEY^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.43&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;JNJ^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.0976&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;JBHT^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ISRG^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ILMN^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.35&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;IBM^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;5.88&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;HSY^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.575&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;WST^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.8171&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;VZ^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;VMC^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.9076&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;USB^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;TTWO^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.2280473&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;TROW^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.9881&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;TMO^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;5.21&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;TEL^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.5253&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;SYY^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;STX^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;YUM^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.73&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;WEC^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.42&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;VTRS^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;-0.1101&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;UDR^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;TJX^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.28&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;SPG^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;SHW^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.23&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;RVTY^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.8459&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ROK^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.75&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;REG^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.0871&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;PRU^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;PNW^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;3.3882&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;PHM^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.56&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;NXPI^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.8017&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;NOC^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;NDAQ^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.96&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;MTB^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;4.67&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;MO^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.6643&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;MKC^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;45989&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;MAS^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;LVS^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.85&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;LMT^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;5.8&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;KEY^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;JKHY^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.72&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;IBM^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;HST^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;HON^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.59&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;GNRC^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;-0.4196&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;GILD^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;GE^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;FSLR^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;4.2398&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;FLT^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;6.04&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;EXC^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.59&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ETN^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;EQIX^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.6937&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;DUK^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.5026&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;DIS^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.63&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;DAY^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;45930&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CTSH^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.3444&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CTAS^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;45989&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CPT^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.44&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;COP^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CNP^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CMI^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CMCSA^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CL^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CHRW^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.23&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CF^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.724529&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CDW^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.57&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CBRE^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CAG^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;-1.3854&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;BRO^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.93&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;BLDR^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;BG^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.4872&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;BDX^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.3364&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;AZO^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;31.04&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;AVB^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;APD^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;3.0426&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;AMZN^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.95&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;XYL^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.42&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;WDC^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;4.7297&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;VLTO^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;UBER^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;TRMB^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.65&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;TDY^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;5.839&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;XOM^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;WMB^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.55&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;WBD^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;45930&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;VTR^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;XEL^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.95&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;YUM^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;VTR^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.15&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;UNP^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;SWKS^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;SO^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.3719&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;RL^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;PXD^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;0&lt;/R&gt;&lt;C&gt;0&lt;/C&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;PCAR^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.06&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;NTRS^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.42&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;NFLX^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;MSFT^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;4.14&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;MOH^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;MGM^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.6&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;LRCX^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.27&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;LEN^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.9278&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;KMB^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.4981&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;J^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;IQV^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;3.42&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;IFF^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;GRMN^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.79&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;GM^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;-3.6&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;GEHC^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.44&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;FRT^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.48&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;FDS^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;45989&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;EIX^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;DXCM^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.6761&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;DPZ^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;4.08&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;DG^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;45961&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;DAL^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.55&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CMCSA^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.5963&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CE^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CCL^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.3136&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CAG^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.45&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;BX^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;BRK.B^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;14.275&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;BLDR^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.284&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;BA^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;AOS^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ALGN^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;3.29&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ADM^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ACN^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;45989&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ABNB^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;A^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;45961&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;WYNN^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Wynn Resorts, Limited&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;WELL^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Welltower Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;VTR^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Ventas, Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;V^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Visa Inc. Class A&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;SYY^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Sysco Corporation&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;STE^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;STERIS plc&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;SJM^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;J.M. Smucker Company&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ROST^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Ross Stores, Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;NDSN^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Nordson Corporation&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;MSCI^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;MSCI Inc. Class A&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;MO^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Altria Group, Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;META^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Meta Platforms Inc Class A&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;KIM^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Kimco Realty Corporation&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;JKHY^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Jack Henry &amp;amp; Associates, Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;IRM^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Iron Mountain, Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ILMN^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Illumina, Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;HSY^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Hershey Company&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;HCA^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;HCA Healthcare Inc&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;GOOGL^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Alphabet Inc. Class A&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;GEN^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Gen Digital Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CB^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Chubb Limited&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;BWA^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;BorgWarner Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;BDX^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Becton, Dickinson and Company&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;APH^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Amphenol Corporation Class A&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ALL^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Allstate Corporation&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ACN^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Accenture Plc Class A&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;DAL^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ADI^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.46&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;TFC^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Truist Financial Corporation&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;SHW^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Sherwin-Williams Company&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;VTR^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.146&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;UNH^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.11&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;TSLA^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.2374&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;TFC^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;SO^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;RVTY^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.7&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;PWR^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;3.16&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;PPG^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;PH^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;6.5964&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;PAYX^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.0971&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;OMC^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;-4.02&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;MAA^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.4835&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;KLAC^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;8.85&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;JPM^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;4.63&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;IEX^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.7152&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;HOLX^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.7929&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;FITB^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;EXR^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;45930&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;EPAM^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.98&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;EFX^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;DXCM^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CVS^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CSX^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.39&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CRM^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.1912&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CPAY^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;3.75&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;COO^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.4271&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CMS^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.9352&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CINF^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CHD^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.5989&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CB^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;7.52&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;BIO^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;26.6548&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;BF.B^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;45961&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;BBWI^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.3738&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;AVY^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.1499&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ATVI^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;45107&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;APH^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.97&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;AMZN^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.9508&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;AMGN^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;AMAT^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.38&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;AJG^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;AFL^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;AEE^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;USB^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;U.S. Bancorp&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;UAL^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;United Airlines Holdings, Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;TRV^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Travelers Companies, Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ROP^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Roper Technologies, Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;RE^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Everest Group, Ltd.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;PSX^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Phillips 66&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;PNC^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;PNC Financial Services Group, Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;PFG^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Principal Financial Group, Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;PARA^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Paramount Skydance Corporation Class B&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;O^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Realty Income Corporation&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;NSC^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Norfolk Southern Corporation&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;MET^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;MetLife, Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;MAA^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Mid-America Apartment Communities, Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;LOW^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Lowe's Companies, Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;LDOS^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Leidos Holdings, Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;GEHC^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;GE Healthcare Technologies Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;FOX^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Fox Corporation Class B&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;FE^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;FirstEnergy Corp.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;EXR^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Extra Space Storage Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ESS^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Essex Property Trust, Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;EMR^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Emerson Electric Co.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;EA^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Electronic Arts Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;DOW^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Dow, Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;DFS^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Discover Financial Services&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CVX^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Chevron Corporation&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CSGP^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;CoStar Group, Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CPAY^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Corpay, Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CMS^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;CMS Energy Corporation&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CINF^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Cincinnati Financial Corporation&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CE^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Celanese Corporation&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;BKR^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Baker Hughes Company Class A&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;AWK^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;American Water Works Company, Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;AMT^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/</t>
         </r>
       </text>
     </comment>
-    <comment ref="A4" authorId="0" shapeId="0" xr:uid="{B8981948-4DEB-479C-BCA9-F1FD77326E59}">
+    <comment ref="A4" authorId="0" shapeId="0" xr:uid="{A0EA86A5-99D5-4BEA-9F86-B4D0A1AE3AFA}">
       <text>
         <r>
           <rPr>
@@ -90,13 +90,13 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
+            <charset val="1"/>
           </rPr>
-          <t>/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;UAL^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;United Airlines Holdings, Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;TYL^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Tyler Technologies, Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;TXT^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Textron Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;TXN^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Texas Instruments Incorporated&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;TTWO^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Take-Two Interactive Software, Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;TT^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Trane Technologies plc&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;TSN^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Tyson Foods, Inc. Class A&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;TSLA^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Tesla, Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;TSCO^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Tractor Supply Company&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;TRV^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Travelers Companies, Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;TROW^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;T. Rowe Price Group, Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;TRMB^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Trimble Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;TRGP^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Targa Resources Corp.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;TPR^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Tapestry, Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;TMUS^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;T-Mobile US, Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;TMO^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Thermo Fisher Scientific Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;TJX^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;TJX Companies Inc&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;TGT^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Target Corporation&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;TFX^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Teleflex Incorporated&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;TFC^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Truist Financial Corporation&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;TER^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Teradyne, Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;TEL^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;TE Connectivity plc&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;TECH^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Bio-Techne Corporation&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;TDY^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Teledyne Technologies Incorporated&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;TDG^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;TransDigm Group Incorporated&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;TAP^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Molson Coors Beverage Company Class B&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;T^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;AT&amp;amp;T Inc&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;SYY^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Sysco Corporation&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;SYK^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Stryker Corporation&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;SYF^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Synchrony Financial&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;SWKS^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Skyworks Solutions, Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;SWK^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Stanley Black &amp;amp; Decker, Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;STZ^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Constellation Brands, Inc. Class A&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;STX^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Seagate Technology Holdings PLC&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;STT^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;State Street Corporation&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;STLD^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Steel Dynamics, Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;STE^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;STERIS plc&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;SRE^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Sempra&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;SPGI^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;S&amp;amp;P Global, Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;SPG^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Simon Property Group, Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;SO^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Southern Company&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;SNPS^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Synopsys, Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;SNA^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Snap-on Incorporated&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;SMCI^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Super Micro Computer, Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;SLB^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;SLB Limited&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;SJM^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;J.M. Smucker Company&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;SHW^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Sherwin-Williams Company&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;SEE^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Sealed Air Corporation&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;SCHW^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Charles Schwab Corp&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;SBUX^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Starbucks Corporation&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;SBAC^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;SBA Communications Corp. Class A&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;RVTY^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Revvity, Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;RTX^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;RTX Corporation&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;RSG^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Republic Services, Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ROST^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Ross Stores, Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ROP^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Roper Technologies, Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ROL^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Rollins, Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ROK^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Rockwell Automation, Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;RMD^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;ResMed Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;RL^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Ralph Lauren Corporation Class A&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;RJF^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Raymond James Financial, Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;RF^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Regions Financial Corporation&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;REGN^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Regeneron Pharmaceuticals, Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;REG^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Regency Centers Corporation&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;RE^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Everest Group, Ltd.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;RCL^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Royal Caribbean Group&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;QRVO^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Qorvo, Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;QCOM^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;QUALCOMM Incorporated&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;PYPL^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;PayPal Holdings, Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;PXD^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Pioneer Natural Resources Company&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;PWR^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Quanta Services, Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;PVH^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;PVH Corp.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;PTC^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;PTC Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;PSX^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Phillips 66&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;PSA^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Public Storage&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;PRU^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Prudential Financial, Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;PPL^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;PPL Corporation&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;PPG^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;PPG Industries, Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;POOL^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Pool Corporation&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;PODD^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Insulet Corporation&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;PNW^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Pinnacle West Capital Corp&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;PNR^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Pentair plc&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;PNC^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;PNC Financial Services Group, Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;PM^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Philip Morris International Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;PLTR^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Palantir Technologies Inc. Class A&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;PLD^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Prologis, Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;PKG^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Packaging Corporation of America&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;PHM^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;PulteGroup, Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;PH^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Parker-Hannifin Corporation&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;PGR^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Progressive Corporation&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;PG^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Procter &amp;amp; Gamble Company&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;PFG^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Principal Financial Group, Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;PFE^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Pfizer Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;PEP^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;PepsiCo, Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;PEG^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Public Service Enterprise Group Inc&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;PEAK^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Healthpeak Properties, Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;PCG^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;PG&amp;amp;E Corporation&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;PCAR^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;PACCAR Inc&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;PAYX^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Paychex, Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;PAYC^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Paycom Software, Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;PARA^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Paramount Skydance Corporation Class B&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;OXY^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Occidental Petroleum Corporation&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;OTIS^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Otis Worldwide Corporation&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ORLY^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;O'Reilly Automotive, Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ORCL^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Oracle Corporation&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ON^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;ON Semiconductor Corporation&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;OMC^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Omnicom Group Inc&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;OKE^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;ONEOK, Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ODFL^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Old Dominion Freight Line, Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;O^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Realty Income Corporation&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;NXPI^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;NXP Semiconductors NV&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;NWSA^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;News Corporation Class A&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;NWS^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;News Corporation Class B&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;NVR^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;NVR, Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;NVDA^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;NVIDIA Corporation&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;NUE^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Nucor Corporation&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;NTRS^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Northern Trust Corporation&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;NTAP^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;NetApp, Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;NSC^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Norfolk Southern Corporation&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;NRG^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;NRG Energy, Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;NOW^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;ServiceNow, Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;NOC^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Northrop Grumman Corp.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;NKE^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;NIKE, Inc. Class B&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;NI^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;NiSource Inc&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;NFLX^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Netflix, Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;NEM^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Newmont Corporation&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;NEE^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;NextEra Energy, Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;NDSN^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Nordson Corporation&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;NDAQ^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Nasdaq, Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;NCLH^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Norwegian Cruise Line Holdings Ltd.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;MU^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Micron Technology, Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;MTD^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Mettler-Toledo International Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;MTCH^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Match Group, Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;MTB^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;M&amp;amp;T Bank Corporation&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;MSI^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Motorola Solutions, Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;MSFT^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Microsoft Corporation&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;MSCI^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;MSCI Inc. Class A&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;MS^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Morgan Stanley&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;MRO^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Marathon Oil Corporation&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;MRNA^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Moderna, Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;MRK^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Merck &amp;amp; Co., Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;MPWR^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Monolithic Power Systems, Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;MPC^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Marathon Petroleum Corporation&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;MOS^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Mosaic Company&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;MOH^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Molina Healthcare, Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;MO^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Altria Group, Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;MNST^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Monster Beverage Corporation&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;MMM^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;3M Company&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;MMC^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Marsh &amp;amp; McLennan Companies, Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;MLM^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Martin Marietta Materials, Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;MKTX^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;MarketAxess Holdings Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;MKC^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;McCormick &amp;amp; Company, Incorporated&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;MHK^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Mohawk Industries, Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;MGM^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;MGM Resorts International&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;META^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Meta Platforms Inc Class A&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;MET^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;MetLife, Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;MDT^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Medtronic Plc&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;MDLZ^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Mondelez International, Inc. Class A&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;MCO^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Moody's Corporation&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;MCK^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;McKesson Corporation&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;MCHP^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Microchip Technology Incorporated&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;MCD^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;McDonald's Corporation&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;MAS^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Masco Corporation&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;MAR^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Marriott International, Inc. Class A&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;MAA^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Mid-America Apartment Communities, Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;MA^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Mastercard Incorporated Class A&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;LYV^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Live Nation Entertainment, Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;LYB^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;LyondellBasell Industries NV&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;LW^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Lamb Weston Holdings, Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;LVS^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Las Vegas Sands Corp.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;LUV^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Southwest Airlines Co.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;LULU^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;lululemon athletica inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;LRCX^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Lam Research Corporation&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;LOW^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Lowe's Companies, Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;LNT^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Alliant Energy Corporation&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;LMT^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Lockheed Martin Corporation&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;LLY^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Eli Lilly and Company&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;LKQ^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;LKQ Corporation&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;LIN^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Linde plc&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;LHX^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;L3Harris Technologies Inc&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;LH^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Labcorp Holdings Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;LEN^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Lennar Corporation Class A&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;LDOS^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Leidos Holdings, Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;L^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Loews Corporation&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;KVUE^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Kenvue, Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;KR^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Kroger Co.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;KO^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Coca-Cola Company&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;KMX^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;CarMax, Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;KMI^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Kinder Morgan Inc Class P&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;KMB^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Kimberly-Clark Corporation&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;KLAC^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;KLA Corporation&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;KIM^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Kimco Realty Corporation&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;KHC^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Kraft Heinz Company&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;KEYS^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Keysight Technologies Inc&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;KEY^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;KeyCorp&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;KDP^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Keurig Dr Pepper Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;K^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Kellanova&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;JPM^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;JPMorgan Chase &amp;amp; Co.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;JNPR^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Juniper Networks, Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;JNJ^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Johnson &amp;amp; Johnson&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;JKHY^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Jack Henry &amp;amp; Associates, Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;JCI^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Johnson Controls International plc&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;JBL^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Jabil Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;JBHT^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;J.B. Hunt Transport Services, Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;J^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Jacobs Solutions Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;IVZ^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Invesco Ltd.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ITW^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Illinois Tool Works Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;IT^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Gartner, Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ISRG^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Intuitive Surgical, Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;IRM^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Iron Mountain, Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;IR^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Ingersoll Rand Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;IQV^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;IQVIA Holdings Inc&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;IPG^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Interpublic Group of Companies, Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;IP^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;International Paper Company&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;INVH^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Invitation Homes, Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;INTU^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Intuit Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;INTC^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Intel Corporation&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;INCY^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Incyte Corporation&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ILMN^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Illumina, Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;IFF^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;International Flavors &amp;amp; Fragrances Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;IEX^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;IDEX Corporation&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;IDXX^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;IDEXX Laboratories, Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ICE^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Intercontinental Exchange, Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;IBM^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;International Business Machines Corporation&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;HWM^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Howmet Aerospace Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;HUM^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Humana Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;HUBB^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Hubbell Incorporated&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;HSY^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Hershey Company&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;HST^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Host Hotels &amp;amp; Resorts, Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;HSIC^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Henry Schein, Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;HRL^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Hormel Foods Corporation&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;HPQ^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;HP Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;HPE^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Hewlett Packard Enterprise Co.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;HON^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Honeywell International Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;HOLX^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Hologic, Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;HD^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Home Depot, Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;HCA^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;HCA Healthcare Inc&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;HBAN^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Huntington Bancshares Incorporated&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;HAS^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Hasbro, Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;HAL^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Halliburton Company&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;GWW^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;W.W. Grainger, Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;GS^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Goldman Sachs Group, Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;GRMN^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Garmin Ltd.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;GPN^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Global Payments Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;GPC^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Genuine Parts Company&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;GOOGL^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Alphabet Inc. Class A&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;GOOG^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Alphabet Inc. Class C&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;GNRC^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Generac Holdings Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;GM^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;General Motors Company&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;GLW^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Corning Inc&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;GL^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Globe Life Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;GIS^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;General Mills, Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;GILD^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Gilead Sciences, Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;GEV^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;GE Vernova Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;GEN^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Gen Digital Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;GEHC^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;GE Healthcare Technologies Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;GE^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;GE Aerospace&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;GDDY^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;GoDaddy, Inc. Class A&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;GD^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;General Dynamics Corporation&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;FTV^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Fortive Corp.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;FTNT^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Fortinet, Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;FSLR^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;First Solar, Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;FRT^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Federal Realty Investment Trust&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;FOXA^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Fox Corporation Class A&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;FOX^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Fox Corporation Class B&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;FMC^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;FMC Corporation&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;FLT^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Corpay, Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;FITB^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Fifth Third Bancorp&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;FIS^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Fidelity National Information Services, Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;FICO^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Fair Isaac Corporation&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;FI^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Fiserv, Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;FFIV^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;F5, Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;FE^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;FirstEnergy Corp.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;FDX^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;FedEx Corporation&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;FDS^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;FactSet Research Systems Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;FCX^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Freeport-McMoRan, Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;FCNCA^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;First Citizens BancShares, Inc. Class A&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;FAST^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Fastenal Company&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;FANG^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Diamondback Energy, Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;F^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Ford Motor Company&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;EXR^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Extra Space Storage Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;EXPE^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Expedia Group, Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;EXPD^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Expeditors International of Washington, Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;EXC^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Exelon Corporation&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;EW^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Edwards Lifesciences Corporation&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;EVRG^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Evergy, Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ETR^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Entergy Corporation&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ETN^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Eaton Corp. Plc&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ESS^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Essex Property Trust, Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ES^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Eversource Energy&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;EQT^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;EQT Corporation&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;EQR^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Equity Residential&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;EQIX^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Equinix, Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;EPAM^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;EPAM Systems, Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;EOG^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;EOG Resources, Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ENPH^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Enphase Energy, Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;EMR^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Emerson Electric Co.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;EMN^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Eastman Chemical Company&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;EL^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Estee Lauder Companies Inc. Class A&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;EIX^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Edison International&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;EFX^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Equifax Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ED^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Consolidated Edison, Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ECL^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Ecolab Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;EBAY^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;eBay Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;EA^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Electronic Arts Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;DXCM^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;DexCom, Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;DVN^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Devon Energy Corporation&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;DVA^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;DaVita Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;DUK^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Duke Energy Corporation&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;DTE^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;DTE Energy Company&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;DRI^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Darden Restaurants, Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;DPZ^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Domino's Pizza, Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;DOW^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Dow, Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;DOV^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Dover Corporation&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;DLTR^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Dollar Tree, Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;DIS^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Walt Disney Company&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;DHR^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"</t>
+          <t>C&gt;&lt;D xsi:type="xsd:string"&gt;American Tower Corporation&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;AES^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;AES Corporation&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;AME^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.01&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ADSK^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.67&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ACGL^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.98&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ZTS^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Zoetis, Inc. Class A&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;WEC^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;WEC Energy Group Inc&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;TROW^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;T. Rowe Price Group, Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;SYK^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Stryker Corporation&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;SRE^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Sempra&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;NRG^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;NRG Energy, Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;NDAQ^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Nasdaq, Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;UNH^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.011&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;TRV^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;SWK^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.41&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;RVTY^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;RJF^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.86&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;PWR^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.08&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;PODD^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;PH^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;PAYC^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.0653&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;OKE^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.49&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;NTRS^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;NEE^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;MSFT^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;MGM^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.112&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;LOW^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;45961&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;LEN^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;45989&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;KLAC^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;8.7271&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;IP^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;-4.52&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;HD^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;3.74&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;GRMN^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;GLW^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.72&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;GE^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.3887&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;FRT^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.4812&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;FICO^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;6.6104&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;FCX^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.2814&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ESS^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.2507&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ED^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.9&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;DPZ^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;4.08&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;DHR^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.23&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CPAY^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CMI^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;5.838345&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CFG^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.13&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CCL^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;45989&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;BWA^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.35&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;APH^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;AON^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;4.85&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ALGN^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ABBV^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.71&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;WY^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Weyerhaeuser Company&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;VST^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Vistra Corp.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;MS^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Morgan Stanley&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;VRTX^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;5.03&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;TROW^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;TDY^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;6.3&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;STZ^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;45989&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;SNPS^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;45961&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;RTX^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.1912&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;PNW^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;3.39&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;PGR^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;4.582925&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;PAYC^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;OKE^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.4869&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;MO^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;META^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;8.88&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;MAA^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;LNT^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.09&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;LDOS^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.5349&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;KIM^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.21&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;JPM^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;4.6302&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;IVZ^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;IP^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;IEX^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;HSIC^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.8345&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;GPN^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;3.18&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;GLW^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;FOXA^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.82&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;EOG^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.71&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;DVN^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.82&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;DPZ^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;45898&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;DECK^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;3.3346&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CTSH^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.35&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CSX^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.3863&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;COO^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;45961&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CMA^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.27&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CI^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;8.08&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CDW^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.14&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CAT^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;5.16&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CAG^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;45989&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;BWA^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;-1.2654&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;BR^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.418&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;BKR^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.78&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;BIO^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;BEN^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.7&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;BBWI^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;45961&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;AZO^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;31.0386&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;AVY^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ATO^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.44&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;AON^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;7.8199&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;AMZN^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;AMAT^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.54&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;AIZ^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;5.61&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;AES^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.75&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;VRTX^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Vertex Pharmaceuticals Incorporated&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;URI^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;United Rentals, Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;SEE^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Sealed Air Corporation&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ROL^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Rollins, Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;RCL^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Royal Caribbean Group&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;PSA^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Public Storage&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;PM^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Philip Morris International Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;PFE^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Pfizer Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;OXY^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Occidental Petroleum Corporation&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;NXPI^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;NXP Semiconductors NV&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;MRO^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Marathon Oil Corporation&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;MMM^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;3M Company&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;MDT^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Medtronic Plc&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;MA^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Mastercard Incorporated Class A&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;LNT^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Alliant Energy Corporation&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;WRB^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;UBER^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.71&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;TRMB^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;STT^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.42&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;SNA^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;PVH^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.83&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;PNW^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;45930&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;NTAP^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.05&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;NDAQ^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.9003&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;MSCI^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;4.66&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;MNST^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.5325&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;L^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.138259&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;INVH^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.24&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;HD^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;45961&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;FICO^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;FCX^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;EXPD^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;45930&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ESS^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ENPH^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;DHR^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.68&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;DECK^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;D^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.06&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CRL^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CMI^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;4.2662&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CFG^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CCI^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.67&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;BKR^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.8813&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;BAX^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.36&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;APD^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;3.16&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;AME^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.7304&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ALB^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;-0.53&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;AES^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.9398&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;WMT^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.74&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;TSLA^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.5&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;TDG^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;6.6323&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ROST^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.58&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;PNC^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;4.8782&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;PEG^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.2415&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;MSCI^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;3.811&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;MLM^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;4.62&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;LKQ^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.2578&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;KMX^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.4265&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;FOXA^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.5193&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;FE^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.53&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;EXR^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.78&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;EQR^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;EL^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CVX^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;COF^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;3.86&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CINF^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;4.29&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CF^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CCL^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.34&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CARR^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.34&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;BX^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.75&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;BAC^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.98&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;AVGO^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.95&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;AMCR^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.3816&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ALB^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ADSK^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;45961&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ADBE^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;4.4508&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ABNB^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.5554&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ZBRA^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Zebra Technologies Corporation Class A&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;WMB^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Williams Companies, Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;VTRS^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Viatris, Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;UNP^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Union Pacific Corporation&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;TT^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Trane Technologies plc&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;TRMB^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;SYY^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.99&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;SO^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.55&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ROST^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;45961&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;PM^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.7&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;PEAK^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.1638&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;NI^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.5349&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;MA^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;4.76&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;JKHY^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;IR^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;HON^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;GPN^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;GEV^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;13.3723&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;DUK^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;DE^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.42&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CSGP^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;-0.0736&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CPRT^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;45961&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CNP^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.45&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CME^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.77&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CI^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;4.6444&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;BX^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.2962&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;BMY^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.5326&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;BK^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.02&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;BDX^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.2868385&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;APTV^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.86&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;AON^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;AMP^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;10.47&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;AMCR^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;AKAM^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.86&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ADBE^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;45989&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;TGT^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Target Corporation&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;SWK^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Stanley Black &amp;amp; Decker, Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;SNA^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Snap-on Incorporated&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;QCOM^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;QUALCOMM Incorporated&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;PODD^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Insulet Corporation&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;PG^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Procter &amp;amp; Gamble Company&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;WMB^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;0&lt;/R&gt;&lt;C&gt;0&lt;/C&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;SYK^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;4.47&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;SMCI^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.69&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ROL^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.24&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;PYPL^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;PM^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.3704&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;NWSA^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;NI^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;MRNA^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;LKQ^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;KIM^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.2121&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;HWM^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.05&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;GPC^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;-4.3879&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;FOX^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;FE^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;-0.0848&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;EQR^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ED^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;45930&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;DIS^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.3396&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CSCO^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.7969&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CHTR^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;10.34&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CEG^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;3.04&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CARR^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.0626&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;BMY^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;BK^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;BAC^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;AVGO^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.7423&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ALLE^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.94&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;AFL^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.64&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ADP^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.62&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ABBV^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.0237&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;YUM^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Yum! Brands, Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;WM^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Waste Management, Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;UNH^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;UnitedHealth Group Incorporated&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;TSN^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Tyson Foods, Inc. Class A&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;TER^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Teradyne, Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;MAS^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Masco Corporation&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;LMT^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Lockheed Martin Corporation&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;K^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Kellanova&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;IFF^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;International Flavors &amp;amp; Fragrances Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;HSIC^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Henry Schein, Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;GL^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Globe Life Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;FTNT^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Fortinet, Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;NTRS^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Northern Trust Corporation&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;MU^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Micron Technology, Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;MPWR^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Monolithic Power Systems, Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;MHK^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Mohawk Industries, Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;KO^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Coca-Cola Company&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;UPS^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;TRGP^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.52&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ROL^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;PM^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;PEAK^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;MRK^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.04&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;MHK^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;MA^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;4.5212&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;LH^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.98&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;JCI^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.89&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;HOLX^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.04&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;GOOGL^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.82&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;GEV^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;FMC^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;FDX^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;45989&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;EXC^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.5848&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;DTE^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.65&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;DD^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.46&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CVS^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.3046&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CNP^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.4044&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CME^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;3.24&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CBRE^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.73&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;BWA^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;BIO^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.51&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;BDX^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;AVB^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.17&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;APTV^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;-1.6329&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ANSS^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;0&lt;/R&gt;&lt;C&gt;0&lt;/C&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;AMP^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;AKAM^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.968&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ACN^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;3.94&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;TSLA^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Tesla, Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;STZ^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Constellation Brands, Inc. Class A&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;SMCI^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Super Micro Computer, Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ROK^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Rockwell Automation, Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;PYPL^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;PayPal Holdings, Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;PNW^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Pinnacle West Capital Corp&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;PEP^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;PepsiCo, Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ON^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;ON Semiconductor Corporation&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;UNP^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;3.1137&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;SYK^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.1966&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ROK^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;PARA^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;-0.05314813&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;NWS^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.4&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;MHK^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.6785&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;LW^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.69&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;LH^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;KIM^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;JCI^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;INVH^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.1466&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;HWM^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.9208&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;HBAN^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.3&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;EW^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.1568&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;EQIX^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ECL^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.08&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;DHI^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CSCO^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46052&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CPB^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;45961&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CMCSA^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.84&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CHTR^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;10.3314&lt;/D&gt;&lt;/FQL&gt;</t>
         </r>
       </text>
     </comment>
-    <comment ref="A5" authorId="0" shapeId="0" xr:uid="{A413115B-B403-4329-BF67-1B9198765895}">
+    <comment ref="A5" authorId="0" shapeId="0" xr:uid="{C23983E9-D20D-413F-922A-499BA965046E}">
       <text>
         <r>
           <rPr>
@@ -104,13 +104,13 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
+            <charset val="1"/>
           </rPr>
-          <t>&gt;Danaher Corporation&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;DHI^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;D.R. Horton, Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;DGX^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Quest Diagnostics Incorporated&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;DG^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Dollar General Corporation&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;DFS^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Discover Financial Services&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;DECK^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Deckers Outdoor Corporation&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;DE^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Deere &amp;amp; Company&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;DD^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;DuPont de Nemours, Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;DAY^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Dayforce, Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;DAL^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Delta Air Lines, Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;D^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Dominion Energy Inc&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CZR^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Caesars Entertainment, Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CVX^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Chevron Corporation&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CVS^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;CVS Health Corporation&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CTVA^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Corteva Inc&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CTSH^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Cognizant Technology Solutions Corporation Class A&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CTRA^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Coterra Energy Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CTLT^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Catalent Inc&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CTAS^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Cintas Corporation&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CSX^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;CSX Corporation&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CSGP^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;CoStar Group, Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CSCO^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Cisco Systems, Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CRWD^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;CrowdStrike Holdings, Inc. Class A&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CRM^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Salesforce, Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CRL^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Charles River Laboratories International, Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CPT^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Camden Property Trust&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CPRT^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Copart, Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CPB^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Campbell's Company&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CPAY^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Corpay, Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;COST^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Costco Wholesale Corporation&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;COR^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Cencora, Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;COP^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;ConocoPhillips&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;COO^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Cooper Companies, Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;COF^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Capital One Financial Corp&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CNP^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;CenterPoint Energy, Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CNC^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Centene Corporation&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CMS^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;CMS Energy Corporation&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CMI^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Cummins Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CMG^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Chipotle Mexican Grill, Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CME^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;CME Group Inc. Class A&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CMCSA^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Comcast Corporation Class A&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CMA^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Comerica Incorporated&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CLX^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Clorox Company&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CL^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Colgate-Palmolive Company&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CINF^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Cincinnati Financial Corporation&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CI^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Cigna Group&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CHTR^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Charter Communications, Inc. Class A&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CHRW^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;C.H. Robinson Worldwide, Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CHD^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Church &amp;amp; Dwight Co., Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CFG^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Citizens Financial Group, Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CF^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;CF Industries Holdings, Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CEG^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Constellation Energy Corporation&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CE^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Celanese Corporation&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CDW^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;CDW Corporation&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CDNS^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Cadence Design Systems, Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CDAY^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;0&lt;/R&gt;&lt;C&gt;0&lt;/C&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CCL^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Carnival Corporation&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CCI^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Crown Castle Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CBRE^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;CBRE Group, Inc. Class A&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CBOE^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Cboe Global Markets Inc&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CB^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Chubb Limited&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CAT^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Caterpillar Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CARR^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Carrier Global Corp.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CAH^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Cardinal Health, Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CAG^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Conagra Brands, Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;C^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Citigroup Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;BXP^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;BXP Inc&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;BX^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Blackstone Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;BWA^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;BorgWarner Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;BSX^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Boston Scientific Corporation&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;BRO^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Brown &amp;amp; Brown, Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;BRK.B^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Berkshire Hathaway Inc. Class B&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;BR^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Broadridge Financial Solutions, Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;BMY^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Bristol-Myers Squibb Company&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;BLK^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;BlackRock, Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;BLDR^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Builders FirstSource, Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;BKR^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Baker Hughes Company Class A&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;BKNG^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Booking Holdings Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;BK^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Bank of New York Mellon Corp&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;BIO^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Bio-Rad Laboratories, Inc. Class A&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;BIIB^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Biogen Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;BG^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Bunge Global SA&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;BF.B^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Brown-Forman Corporation Class B&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;BEN^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Franklin Resources, Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;BDX^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Becton, Dickinson and Company&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;BBY^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Best Buy Co., Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;BBWI^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Bath &amp;amp; Body Works, Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;BAX^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Baxter International Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;BAC^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Bank of America Corp&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;BA^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Boeing Company&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;AZO^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;AutoZone, Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;AXP^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;American Express Company&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;AWK^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;American Water Works Company, Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;AVY^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Avery Dennison Corporation&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;AVGO^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Broadcom Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;AVB^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;AvalonBay Communities, Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ATVI^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Activision Blizzard, Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ATO^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Atmos Energy Corporation&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ARE^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Alexandria Real Estate Equities, Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;APTV^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Aptiv PLC&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;APH^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Amphenol Corporation Class A&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;APD^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Air Products and Chemicals, Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;APA^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;APA Corporation&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;AOS^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;A. O. Smith Corporation&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;AON^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Aon Plc Class A&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ANSS^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;ANSYS, Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ANET^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Arista Networks, Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;AMZN^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Amazon.com, Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;AMT^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;American Tower Corporation&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;AMP^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Ameriprise Financial, Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;AMGN^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Amgen Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;AME^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;AMETEK, Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;AMD^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Advanced Micro Devices, Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;AMCR^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Amcor PLC&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;AMAT^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Applied Materials, Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ALLE^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Allegion Public Limited Company&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ALL^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Allstate Corporation&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ALGN^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Align Technology, Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ALB^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Albemarle Corporation&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;AKAM^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Akamai Technologies, Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;AJG^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Arthur J. Gallagher &amp;amp; Co.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;AIZ^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Assurant, Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;AIG^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;American International Group, Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;AFL^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Aflac Incorporated&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;AES^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;AES Corporation&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;AEP^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;American Electric Power Company, Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;AEE^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Ameren Corporation&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ADSK^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Autodesk, Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ADP^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Automatic Data Processing, Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ADM^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Archer-Daniels-Midland Company&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ADI^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Analog Devices, Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ADBE^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Adobe Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ACN^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Accenture Plc Class A&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ACGL^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Arch Capital Group Ltd.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ABT^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Abbott Laboratories&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ABNB^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Airbnb, Inc. Class A&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ABBV^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;AbbVie, Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;AAPL^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Apple Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;A^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Agilent Technologies, Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CDNS^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,45930,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.7886857&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CDW^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,46022,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.4404464&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CE^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,45930,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.2284882&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CEG^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,45930,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;3.1021173&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CF^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,45930,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.0216787&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CFG^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,46022,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.1074862&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CHD^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,46022,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.83661646&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CHRW^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,46022,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.1178378&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CHTR^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,46022,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;9.948052&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CI^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,46022,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;7.8804274&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CINF^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,46022,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.7139957&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CL^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,46022,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.91472995&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CLX^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,46022,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.4484395&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CMA^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,46022,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.2929132&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CMCSA^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,46022,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.71198916&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CME^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,46022,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.7349758&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CMG^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,46022,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.23879302&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CMI^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,46022,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;4.99384&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CMS^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,46022,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.95534796&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CNC^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,46022,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;-1.2244978&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CNP^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,45930,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.42568487&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;COF^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,45930,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;4.310988&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;COO^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,45961,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.1147298&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;COP^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,46022,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.3214356&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;COR^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,46022,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;4.0407853&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;COST^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,45989,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;4.2772923&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CPAY^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,46022,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;5.9259033&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CPB^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,45961,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.7401611&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CPRT^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,45961,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.39564285&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CPT^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,46022,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.34536937&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CRL^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,45930,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.3403397&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CRM^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,45961,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.8604867&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CRWD^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,45961,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.93807566&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CSCO^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,46052,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.0206699&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CSGP^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,45930,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.17986444&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CSX^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,46022,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.4291265&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CTAS^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,45989,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.1989731&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CTLT^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,45565,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.0451935&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CTRA^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,45930,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.5183079&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CTSH^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,46022,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.3204422&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CTVA^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,46022,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.2193428&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CVS^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,46022,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.9980993&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CVX^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,46022,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.5760484&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CZR^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,45930,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.03640632&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;D^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,45930,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.1389804&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;DAL^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,46022,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.5669245&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;DAY^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,45930,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.54837453&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;DD^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,46022,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.43219268&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;DE^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,45961,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;3.8450356&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;DECK^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,46022,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.758488&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;DFS^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,45747,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;3.350503&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;DG^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,45961,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.93249446&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;DGX^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,46022,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.3615596&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;DHI^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,46022,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.9533095&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;DHR^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,46022,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.1382906&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;DIS^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,46022,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.5741497&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;DLTR^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,45961,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.0844529&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;DOV^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,46022,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.483386&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;DOW^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,46022,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;-0.44776785&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;DPZ^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,45898,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;3.9898982&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;DRI^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,45989,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.1132088&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;DTE^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,45930,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.2583778&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;DUK^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,46022,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.4958827&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;DVA^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,46022,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;3.2419097&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;DVN^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,45930,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.9291371&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;DXCM^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,46022,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.6465793&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;EA^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,46022,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;4.757911&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;EBAY^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,45930,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.3281314&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ECL^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,46022,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.0662205&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ED^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,45930,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.7534811&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;EFX^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,46022,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.0453553&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;EIX^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,45930,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.55867&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;EL^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,46022,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.8261818&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;EMN^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,46022,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.76652694&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;EMR^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,46022,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.4149952&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ENPH^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,46022,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.58141655&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;EOG^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,45930,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.3773432&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;EPAM^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,45930,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;3.0274475&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;EQIX^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,46022,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;3.7419565&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;EQR^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,46022,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.38011184&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;EQT^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,45930,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.45975122&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ES^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,46022,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.1265937&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ESS^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,46022,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.4375539&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ETN^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,46022,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;3.356836&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ETR^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,46022,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.54723483&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;EVRG^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,45930,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.1090457&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;EW^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,46022,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.6193891&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;EXC^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,46022,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.571651&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;EXPD^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,45930,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.3759228&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;EXPE^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,46022,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;3.2917314&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;EXR^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,45930,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.1920859&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;F^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,46022,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.08426199&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;FANG^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,45930,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.8601892&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;FAST^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,46022,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.25979877&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;FCNCA^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,46022,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;44.274242&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;FCX^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,46022,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.23863442&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;FDS^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,45989,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;4.343066&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;FDX^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,45989,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;4.03031&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;FE^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,45930,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.7742965&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;FFIV^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,46022,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;3.6500168&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;FI^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,46022,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.917103&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;FICO^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,46022,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;7.1077433&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;FIS^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,45930,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.4820855&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;FITB^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,46022,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.992989&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;FLT^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,46022,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;5.9259033&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;FMC^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,46022,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.2032044&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;FOX^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,46022,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.49171138&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;FOXA^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,46022,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.49107784&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;FRT^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,46022,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.73715365&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;FSLR^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,45930,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;4.311088&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;FTNT^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,46022,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.7412814&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;FTV^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,46022,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.83954066&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;GD^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,46022,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;4.117339&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;GDDY^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,45930,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.4756762&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;GE^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,46022,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.4481703&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;GEHC^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,46022,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.3875967&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;GEN^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,46022,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.633492&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;GEV^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,46022,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.9331658&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;GILD^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,46022,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.8634428&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;GIS^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,45989,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.0205809&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;GL^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,46022,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;3.4415&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;GLW^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,46022,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.704542&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;GM^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,46022,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.2171707&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;GNRC^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,46022,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.8071194&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;GOOG^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,46022,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.6305645&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;GOOGL^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,46022,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.6304195&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;GPC^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,45930,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.0102766&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;GPN^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,45930,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;3.2302158&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;GRMN^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,45930,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.9784982&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;GS^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,46022,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;11.521218&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;GWW^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,46022,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;9.43801&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;HAL^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,46022,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.5404127&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;HAS^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,46022,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.94781524&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;HBAN^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,46022,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.32988265&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;HCA^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,46022,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;7.4522195&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;HD^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,45961,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;3.8544588&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;HOLX^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,46022,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.0884485&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;HON^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,46022,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.5328736&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;HPE^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,45961,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.5807879&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;HPQ^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,45961,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.922069&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;HRL^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,45961,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.32722223&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;HSIC^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,45930,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.279341&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;HST^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,45930,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.037298143&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;HSY^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,46022,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.3916517&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;HUBB^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,46022,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;4.699473&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;HUM^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,46022,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;-4.0239515&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;HWM^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,46022,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.95869&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;IBM^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,46022,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;4.3181005&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ICE^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,46022,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.6779475&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;IDXX^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,46022,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.9339643&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;IEX^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,46022,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.0421326&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;IFF^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,46022,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.8317844&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ILMN^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,46022,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.2178773&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;INCY^FE_ESTIMATE</t>
+          <t>&lt;FQL&gt;&lt;Q&gt;CEG^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.9712&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CARR^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;BSX^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.4493&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;BLK^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;13.16&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;BIIB^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.99&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;BA^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;10.1182&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;AMGN^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;5.29&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ALLE^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.7032&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;AES^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;45930&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ADP^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.6242&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ACN^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;3.5359&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ABBV^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;XYL^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Xylem Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;WFC^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Wells Fargo &amp;amp; Company&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;VRSK^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Verisk Analytics, Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ULTA^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Ulta Beauty Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;TEL^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;TE Connectivity plc&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;SLB^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;SLB Limited&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;LLY^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Eli Lilly and Company&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;IEX^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;IDEX Corporation&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;HRL^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Hormel Foods Corporation&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;GS^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Goldman Sachs Group, Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;GIS^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;General Mills, Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;FSLR^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;First Solar, Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;AVB^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.1602&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ANSS^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.5885&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;AKAM^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;45930&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;TSCO^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Tractor Supply Company&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;STX^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Seagate Technology Holdings PLC&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;RMD^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;ResMed Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;PNR^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Pentair plc&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;PEG^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Public Service Enterprise Group Inc&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;OMC^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Omnicom Group Inc&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;NTAP^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;NetApp, Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;MPC^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Marathon Petroleum Corporation&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;KMX^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;CarMax, Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;HPQ^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;HP Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;FFIV^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;F5, Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;WEC^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.97&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;TPR^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.6753999999999998&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;SYF^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;SHW^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.92&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;PTC^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.92&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;NWS^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.3434&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;NDAQ^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;MHK^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;LW^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;45989&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;LEN^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.93&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;KHC^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.5484&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;JBL^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.3481&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;HUM^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;-3.96&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;GOOG^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.8177&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;GDDY^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.51&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;FDS^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;4.0564&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;DTE^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CRWD^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.96&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;COST^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;4.5015&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CE^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.173&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CBRE^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.3873&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CAH^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.63&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;BBY^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.4&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;AZO^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;45989&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;APTV^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;45930&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;MTD^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Mettler-Toledo International Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;MGM^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;MGM Resorts International&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;JNPR^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Juniper Networks, Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;IR^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Ingersoll Rand Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;TMO^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;6.57&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;SWKS^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.54&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;RL^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;6.22&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;PARA^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;-0.2341&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;NWS^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;NCLH^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.2&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;MPWR^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;4.79&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;INTU^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;45961&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;HUM^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;HBAN^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.3032&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;GNRC^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.61&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;GD^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;4.17&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;FLT^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;3.75&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;FCNCA^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;45.7817&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;EW^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;EPAM^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;3.26&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ECL^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.98&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;DGX^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.42&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;DAY^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;-1.2315&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CTRA^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.41&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CNC^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;-1.19&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CMA^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CAH^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;UAL^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;3.1&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;TJX^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.2806&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;SEE^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.87&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;RL^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;5.8135&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;PRU^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.5506&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;NVR^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;121.54&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;MDLZ^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.5147&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;LVS^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.5826&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;J^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.1192&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;DRI^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.08&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CRWD^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;-0.1353&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;COST^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;45989&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CHRW^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.1205&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CDW^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;BLDR^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.12&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;BBY^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.6601&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;AXP^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;3.53&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;AJG^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.38&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ADM^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.87&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;AAPL^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.8424&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;WBD^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Warner Bros. Discovery, Inc. Series A&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;TDY^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Teledyne Technologies Incorporated&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;STT^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;State Street Corporation&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;SCHW^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Charles Schwab Corp&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;RL^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Ralph Lauren Corporation Class A&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;PVH^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;PVH Corp.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;PLTR^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Palantir Technologies Inc. Class A&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;UAL^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;3.1927&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;TJX^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;45961&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;STT^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;PHM^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.5621&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;PARA^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;45930&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;NUE^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;NCLH^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.8458&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;MPWR^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;3.46&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;MDLZ^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;KVUE^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.17&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ITW^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.7223&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;INTC^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;-0.1217&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;HUBB^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;4.1832&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;HAS^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.41&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;GD^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;4.1731&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;FLT^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;FCNCA^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;EVRG^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.3661&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;EMR^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.46&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;EA^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;4.875692&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;DOW^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;-2.1512&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;DGX^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CTRA^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.4185&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CNC^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;-2.2399&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CLX^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.39&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CBOE^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;3.06&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;C^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.19&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;BG^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.99&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ATVI^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;0&lt;/R&gt;&lt;C&gt;0&lt;/C&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;APD^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ANET^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.75&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;AMD^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.53&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ALL^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;14.31&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;AIZ^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;4.41&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;AEP^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.0714&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ACGL^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;AAPL^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;XEL^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Xcel Energy Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;WBA^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Walgreens Boots Alliance, Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;VLTO^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Veralto Corporation&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;UDR^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;UDR, Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;TRGP^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Targa Resources Corp.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;MOH^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Molina Healthcare, Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;LIN^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Linde plc&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;KMB^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Kimberly-Clark Corporation&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;JCI^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Johnson Controls International plc&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;IPG^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Interpublic Group of Companies, Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ICE^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Intercontinental Exchange, Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;HON^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Honeywell International Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;GPN^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Global Payments Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;GEV^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;GE Vernova Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;LW^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Lamb Weston Holdings, Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;WAT^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;3.77&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;TYL^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.505&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;TGT^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;45961&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;STLD^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.82&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;SEE^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.2573&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;PPL^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.48&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;PGR^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;0&lt;/R&gt;&lt;C&gt;0&lt;/C&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ORLY^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.71&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;NTRS^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.6365135&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;MPWR^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;MCO^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;3.64&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;LVS^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;KVUE^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;IT^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;3.94&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;HSIC^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;45930&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;HAL^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.7012&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;EMR^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.0725&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CRM^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;3.25&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;COR^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;4.08&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CHRW^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CDNS^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.99&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;BRO^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.59&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;BBY^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;45961&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;AXP^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;3.5305&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ALL^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;14.3672&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;AIZ^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ADM^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.9422&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;UBER^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Uber Technologies, Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;TDG^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;TransDigm Group Incorporated&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;SBUX^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Starbucks Corporation&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;RJF^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Raymond James Financial, Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;PTC^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;PTC Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;PLD^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Prologis, Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;PCAR^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;PACCAR Inc&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ODFL^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Old Dominion Freight Line, Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;NKE^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;NIKE, Inc. Class B&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;MTB^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;M&amp;amp;T Bank Corporation&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;MDLZ^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Mondelez International, Inc. Class A&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;STE^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.53&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;REG^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;PFE^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.66&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ORLY^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;NSC^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;MPC^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;LULU^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.59&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;KO^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.58&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;GL^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;3.39&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;FTV^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.9&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;FITB^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.04&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;FANG^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;3.5108&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ETR^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.51&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;EA^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;DOW^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;DG^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.28&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CTRA^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;45930&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;COP^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.02&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CNC^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CLX^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.2878&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CBOE^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.97&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;C^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.1938&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;BKR^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;BG^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;BAX^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;-2.1595&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ATVI^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.7393&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;APA^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.93&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ANET^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;AMD^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.9163&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;AEP^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ADI^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.6898&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ABT^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.5&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;A^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.59&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;WTW^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Willis Towers Watson Public Limited Company&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;WAT^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Waters Corporation&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;VLO^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Valero Energy Corporation&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;TXT^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Textron Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;TPR^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Tapestry, Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;SPGI^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;S&amp;amp;P Global, Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;RF^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Regions Financial Corporation&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;NWSA^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;News Corporation Class A&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;LHX^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;L3Harris Technologies Inc&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;KLAC^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;KLA Corporation&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;VMC^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;TXN^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;TFX^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;-9.2432&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;SEE^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;45930&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;PPL^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.4272&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;PFE^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;-0.2898&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ON^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.64&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;MTD^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;13.36&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;MCK^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;9.34&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;LULU^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.5882&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;KDP^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;45930&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ISRG^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.53&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ILMN^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;HRL^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.32&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;HAL^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;GIS^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.7687&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;FI^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.99&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;VLTO^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.04&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;TTWO^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;-0.5022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;STE^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.9564&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;RE^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;13.26&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;PFE^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;NRG^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.6923&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;MMC^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.12&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;LMT^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;KO^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;K^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;45930&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;IFF^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.07&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;F^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;-2.6286&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;EMN^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;DXCM^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.68&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;DG^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.2792&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CTAS^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.21&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CPT^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;COP^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.1646&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CBOE^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;BRK.B^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;6.255748&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;BKNG^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;48.8&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;BF.B^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.47&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;BAX^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;AWK^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.2205&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ARE^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;-6.35&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;APA^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.5726&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;AMT^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.82&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;AMD^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ADI^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46052&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;A^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.5282&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;WST^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;West Pharmaceutical Services, Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;WAB^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Westinghouse Air Brake Technologies Corporation&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;VICI^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;VICI Properties Inc&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;TXN^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Texas Instruments Incorporated&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;TMUS^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;T-Mobile US, Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;REGN^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Regeneron Pharmaceuticals, Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;MSFT^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Microsoft Corporation&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;TT^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.86&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;TDY^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;RTX^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;RE^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;10.77&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;PPL^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;45930&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ON^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.4519&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;NOW^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.383&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;MCK^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;IR^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.96&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;HRL^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;-0.102&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;GWW^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;9.44&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;FTNT^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ES^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.12&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;DOV^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.0616&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CZR^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CMG^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.25&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;VLO^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;3.82&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;TSN^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;RE^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;PNR^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.18&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;PEP^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.26&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;MMC^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.6755&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;MCHP^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;LLY^FE_ESTIMATE(EPS,</t>
         </r>
       </text>
     </comment>
-    <comment ref="A6" authorId="0" shapeId="0" xr:uid="{67191654-0352-43BB-A3F8-BEED437F2595}">
+    <comment ref="A6" authorId="0" shapeId="0" xr:uid="{7661CA85-0F58-4BF7-BD8F-1AE3B560C5D2}">
       <text>
         <r>
           <rPr>
@@ -118,13 +118,13 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
+            <charset val="1"/>
           </rPr>
-          <t>(EPS,MEAN,QTR_ROLL,+1,46022,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.9263345&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;INTC^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,46022,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.08038661&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;INTU^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,45961,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;3.0936594&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;INVH^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,45930,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.18165788&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;IP^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,46022,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.28567535&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;IPG^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,45930,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.74028987&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;IQV^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,46022,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;3.3963647&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;IR^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,46022,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.90430015&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;IRM^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,46022,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.5876315&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ISRG^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,46022,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.2487977&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;IT^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,46022,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;3.5124757&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ITW^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,46022,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.6873014&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;IVZ^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,46022,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.5677456&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;J^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,46022,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.502879&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;JBHT^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,46022,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.7816582&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;JBL^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,45989,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.6949706&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;JCI^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,46022,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.8345939&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;JKHY^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,46022,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.4233906&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;JNJ^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,46022,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.522761&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;JNPR^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,45838,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.4866571&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;JPM^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,46022,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;4.965264&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;K^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,45930,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.87302566&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;KDP^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,45930,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.5383025&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;KEY^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,46022,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.38429275&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;KEYS^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,45961,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.8221956&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;KHC^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,46022,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.6127035&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;KIM^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,46022,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.17247322&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;KLAC^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,46022,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;8.794365&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;KMB^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,46022,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.8091729&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;KMI^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,46022,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.3655626&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;KMX^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,45989,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.33359665&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;KO^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,46022,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.56155556&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;KR^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,45961,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.0336485&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;KVUE^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,45930,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.2628097&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;L^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,46022,,,'')&lt;/Q&gt;&lt;R&gt;0&lt;/R&gt;&lt;C&gt;0&lt;/C&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;LDOS^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,45930,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.7021563&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;LEN^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,45989,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.2501302&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;LH^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,45930,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;4.1145377&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;LHX^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,46022,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.777793&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;LIN^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,46022,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;4.1742268&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;LKQ^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,45930,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.755&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;LLY^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,46022,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;7.159231&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;LMT^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,46022,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;6.4900913&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;LNT^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,45930,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.1667808&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;LOW^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,45961,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.9942176&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;LRCX^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,46022,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.1605608&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;LULU^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,45961,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.2105107&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;LUV^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,46022,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.5799313&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;LVS^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,46022,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.7562782&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;LW^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,45989,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.64424443&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;LYB^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,46022,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.27160177&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;LYV^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,45930,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.5898076&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;MA^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,46022,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;4.250696&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;MAA^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,46022,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.9306255&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;MAR^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,46022,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.6113253&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;MAS^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,46022,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.7947275&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;MCD^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,46022,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;3.0306966&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;MCHP^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,46022,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.38886774&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;MCK^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,46022,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;9.1615505&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;MCO^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,45930,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;3.4855804&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;MDLZ^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,46022,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.6998717&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;MDT^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,45961,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.3139782&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;MET^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,46022,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.3586466&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;META^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,46022,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;8.193526&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;MGM^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,46022,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.60244983&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;MHK^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,46022,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.9789584&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;MKC^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,45989,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.8747507&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;MKTX^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,46022,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.7400197&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;MLM^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,46022,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;4.841901&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;MMC^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,46022,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.9799153&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;MMM^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,46022,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.8057345&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;MNST^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,45930,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.47848895&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;MO^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,46022,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.3219452&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;MOH^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,46022,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.3386934&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;MOS^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,45930,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.132501&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;MPC^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,46022,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;3.3983128&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;MPWR^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,46022,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;4.7334146&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;MRK^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,46022,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.053202&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;MRNA^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,46022,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;-2.6305888&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;MRO^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,45565,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.7032796&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;MS^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,46022,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.3966267&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;MSCI^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,46022,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;4.5649056&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;MSFT^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,46022,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;3.9242039&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;MSI^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,46022,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;4.347039&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;MTB^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,46022,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;4.492139&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;MTCH^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,46022,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.7024559&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;MTD^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,46022,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;12.799413&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;MU^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,45989,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;3.794422&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;NCLH^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,45930,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.1568102&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;NDAQ^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,46022,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.91672003&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;NDSN^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,45961,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.930635&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;NEE^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,46022,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.5698826&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;NEM^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,45930,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.3762467&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;NFLX^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,46022,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.55269146&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;NI^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,46022,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.49603102&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;NKE^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,45989,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.36555436&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;NOC^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,46022,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;6.9857254&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;NOW^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,46022,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.8853681&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;NRG^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,45930,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.065378&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;NSC^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,46022,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.8517094&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;NTAP^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,45961,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.8858202&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;NTRS^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,46022,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.342672&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;NUE^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,46022,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.0564806&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;NVDA^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,45961,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.2464687&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;NVR^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,46022,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;106.21392&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;NWS^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,46022,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.36303246&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;NWSA^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,46022,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.35963896&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;NXPI^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,46022,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;3.2939475&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;O^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,45930,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.35825136&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ODFL^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,46022,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.0604336&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;OKE^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,45930,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.4729878&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;OMC^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,45930,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.161949&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ON^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,46022,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.62271297&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ORCL^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,45989,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.6385494&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ORLY^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,46022,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.7219494&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;OTIS^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,46022,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.0457371&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;OXY^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,45930,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.48354894&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;PARA^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,45930,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.41173348&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;PAYC^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,46022,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.4501297&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;PAYX^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,45989,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.2314965&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;PCAR^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,46022,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.0610667&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;PCG^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,46022,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.37346902&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;PEAK^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,46022,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.06874107&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;PEG^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,45930,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.0026195&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;PEP^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,46022,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.237599&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;PFE^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,46022,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.5664796&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;PFG^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,46022,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.2393818&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;PG^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,46022,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.8741784&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;PGR^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,46022,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;4.435026&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;PH^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,46022,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;7.136961&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;PHM^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,46022,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.820516&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;PKG^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,46022,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.4558027&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;PLD^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,46022,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.72926396&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;PLTR^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,46022,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.2296734&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;PM^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,46022,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.700704&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;PNC^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,46022,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;4.1663575&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;PNR^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,46022,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.1577307&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;PNW^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,45930,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.9847898&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;PODD^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,45930,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.1426888&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;POOL^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,45930,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;3.3899257&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;PPG^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,46022,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.5851833&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;PPL^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,45930,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.47038302&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;PRU^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,46022,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;3.3975348&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;PSA^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,46022,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.5040388&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;PSX^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,46022,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.4371586&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;PTC^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,46022,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.5573295&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;PVH^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,45961,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.5390682&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;PWR^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,45930,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;3.2571213&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;PXD^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,45379,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;4.7498255&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;PYPL^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,46022,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.2897654&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;QCOM^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,46022,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;3.393065&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;QRVO^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,46022,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.8584981&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;RCL^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,46022,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.7946541&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;RE^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,46022,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;13.082196&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;REG^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,46022,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.5727576&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;REGN^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,46022,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;10.705121&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;RF^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,46022,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.6110151&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;RJF^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,46022,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.9016213&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;RL^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,46022,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;5.7730694&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;RMD^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,46022,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.7222865&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ROK^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,46022,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.4413993&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ROL^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,46022,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.26487875&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ROP^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,46022,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;5.142787&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ROST^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,45961,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.4103104&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;RSG^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,45930,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.7839756&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;RTX^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,46022,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.4724902&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;RVTY^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,46022,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.5402023&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;SBAC^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,45930,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.1960828&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;SBUX^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,46022,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.59076923&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;SCHW^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,46022,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.3468467&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;SEE^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,45930,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.6987087&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;SHW^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,46022,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.160491&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;SJM^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,45961,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.0985324&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;SLB^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,46022,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.740231&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;SMCI^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,46022,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.489086&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;SNA^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,46022,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;4.93&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;SNPS^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,45961,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.781421&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;SO^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,45930,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.4876121&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;SPG^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,46022,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.8390862&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;SPGI^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,46022,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;4.2764034&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;SRE^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,45930,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.9146607&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;STE^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,46022,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.53&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;STLD^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,46022,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.0347185&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;STT^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,46022,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.8061507&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;STX^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,46022,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.7915044&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;STZ^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,45989,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.6470327&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;SWK^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,46022,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.3081363&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;SWKS^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,46022,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.3981518&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;SYF^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,46022,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.019001&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;SYK^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,46022,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;4.391759&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;SYY^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,46022,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.981201&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;T^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,46022,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.4635569&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;TAP^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,45930,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.7142882&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;TDG^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,46022,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;8.084774&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;TDY^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,46022,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;5.8493876&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;TECH^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,46022,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.43349347&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;TEL^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,46022,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.5424235&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;TER^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,46022,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.355208&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;TFC^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,46022,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.0903805&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;TFX^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,45930,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;3.3791666&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;TGT^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,45961,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.7493774&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;TJX^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,45961,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.2208302&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;TMO^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,46022,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;6.4476833&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;TMUS^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,46022,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.0796297&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;TPR^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,46022,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.1725547&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;TRGP^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,45930,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.067117&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;TRMB^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,46022,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.95966667&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;TROW^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,46022,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.4650104&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;TRV^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,46022,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;8.480643&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;TSCO^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,46022,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.4747725&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;TSLA^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,46022,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.4440281&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;TSN^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,46022,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.9489024&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;TT^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,46022,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.820442&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;TTWO^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,46022,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.8273507&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;TXN^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,46022,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.2819258&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;TXT^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,46022,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.741913&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;TYL^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,46022,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.7265&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;UAL^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,46022,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.967117&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;UBER^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,46022,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.79181135&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;UDR^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,46022,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.15143235&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;UHS^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,45930,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;4.6535373&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ULTA^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,45961,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;4.5203834&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;UNH^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,46022,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.115459&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;UNP^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,46022,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.9093735&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;UPS^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,46022,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.1868563&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;URI^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,46022,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;11.771336&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;USB^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,46022,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.1817878&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;V^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,46022,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;3.1371896&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;VICI^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,45930,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.6894253&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;VLO^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,46022,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;3.1867843&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;VLTO^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,46022,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.9781046&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;VMC^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,45930,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.6826704&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;VRSK^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,45930,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.6984239&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;VRSN^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,46022,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.3457637&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;VRTX^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,46022,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;5.123389&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;VST^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,45930,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;3.4951138&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;VTR^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,46022,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.10073217&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;VTRS^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,45930,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.61967844&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;VZ^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,46022,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.0640094&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;WAB^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,46022,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.0852973&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;WAT^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,46022,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;4.513313&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;WBA^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,45807,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.3257608&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;WBD^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,45930,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;-0.09049152&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;WDC^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,46022,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.9037918&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;WEC^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,46022,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.3800256&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;WELL^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,46022,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.55523807&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;WFC^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,46022,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.6785387&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;WM^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,46022,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.9489739&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;WMB^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,46022,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.5691315&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;WMT^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,45961,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.59840196&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;WRB^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,46022,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.1364958&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;WST^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,46022,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.8344177&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;WTW^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,46022,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;7.958949&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;WY^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,46022,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;-0.124890216&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;WYNN^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,46022,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.4773923&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;XEL^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,46022,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.9617416&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;XOM^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,46022,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.6678938&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;XYL^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,46022,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.4107827&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;YUM^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,46022,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.7632424&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ZBH^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,46022,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.3952546&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ZBRA^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,46022,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;4.329131&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ZION^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,46022,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.560317&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ZTS^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,46022,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.4004004&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;A^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,45961,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.5840831&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;AAPL^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,46022,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.6625004&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ABBV^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,46022,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;3.3511193&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ABNB^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,46022,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.6609718&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ABT^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,46022,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.4967096&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ACGL^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,46022,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.3595505&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ACN^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,45989,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;3.7341044&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ADBE^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,45989,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;5.3975267&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ADI^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,45961,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.2369838&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ADM^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,46022,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.8068116&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ADP^FE_ESTIMATE(EPS,MEAN,QTR_RO</t>
+          <t>MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;7.54&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;KMX^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.43&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;VLO^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;TDG^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;8.23&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;RSG^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;QRVO^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.17&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;PEG^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.13&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;NKE^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.5348&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;MCD^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;JKHY^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.7216&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;IR^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.6723&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;HPE^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;45961&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;GPN^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.9169&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;GEV^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;13.477591&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;DUK^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.5&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;DLTR^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.2002&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;COO^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.15&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;AVY^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.45&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;AMGN^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.4549&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;AEE^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.78&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;UPS^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;United Parcel Service, Inc. Class B&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;SYF^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Synchrony Financial&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;NUE^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Nucor Corporation&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;MRK^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Merck &amp;amp; Co., Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;IP^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;International Paper Company&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;HUBB^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Hubbell Incorporated&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;F^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Ford Motor Company&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;EQR^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Equity Residential&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ECL^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Ecolab Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;DAY^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Dayforce, Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CLX^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Clorox Company&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;C^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Citigroup Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;BKNG^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Booking Holdings Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ARE^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Alexandria Real Estate Equities, Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;AMGN^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Amgen Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;AIZ^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Assurant, Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ACGL^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Arch Capital Group Ltd.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;GE^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;GE Aerospace&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;FIS^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Fidelity National Information Services, Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;EQIX^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Equinix, Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;DLTR^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Dollar Tree, Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;DAL^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Delta Air Lines, Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CSCO^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Cisco Systems, Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CDNS^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Cadence Design Systems, Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;BAC^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Bank of America Corp&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;AME^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;AMETEK, Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;AIG^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;American International Group, Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CZR^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Caesars Entertainment, Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;BIO^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Bio-Rad Laboratories, Inc. Class A&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CL^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;-0.046&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;PWR^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Quanta Services, Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;JBHT^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;J.B. Hunt Transport Services, Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;HPE^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Hewlett Packard Enterprise Co.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CVS^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;CVS Health Corporation&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CNP^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;CenterPoint Energy, Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;AEP^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;American Electric Power Company, Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CVX^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.39&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;WMT^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Walmart Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;MLM^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Martin Marietta Materials, Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CRL^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Charles River Laboratories International, Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;BIIB^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Biogen Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;AMAT^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Applied Materials, Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;FFIV^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;3.0956&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;FDS^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;FactSet Research Systems Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;F^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;APA^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;45930&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;TMO^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Thermo Fisher Scientific Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;MKC^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;McCormick &amp;amp; Company, Incorporated&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;KHC^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Kraft Heinz Company&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;GM^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;General Motors Company&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;EMN^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Eastman Chemical Company&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CFG^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Citizens Financial Group, Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;BF.B^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Brown-Forman Corporation Class B&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ADSK^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Autodesk, Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ITW^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Illinois Tool Works Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;HD^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Home Depot, Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ETR^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Entergy Corporation&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;DTE^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;DTE Energy Company&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;DECK^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Deckers Outdoor Corporation&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ANSS^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;45747&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;VZ^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Verizon Communications Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;RVTY^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Revvity, Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;FMC^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;FMC Corporation&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;FCNCA^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;First Citizens BancShares, Inc. Class A&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CME^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;CME Group Inc. Class A&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;EMN^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.75&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;BMY^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.26&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;PHM^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;PulteGroup, Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;LKQ^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;LKQ Corporation&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CMCSA^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Comcast Corporation Class A&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ATVI^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Activision Blizzard, Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;EL^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.4441&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;AWK^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.22&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;VMC^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Vulcan Materials Company&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;IQV^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;IQVIA Holdings Inc&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;FLT^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Corpay, Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CTLT^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Catalent Inc&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;BLK^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;BlackRock, Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;AKAM^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Akamai Technologies, Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;AIG^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;AAPL^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.84&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;TAP^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Molson Coors Beverage Company Class B&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;MRNA^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Moderna, Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;KDP^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Keurig Dr Pepper Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ED^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Consolidated Edison, Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ATO^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Atmos Energy Corporation&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;DOV^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Dover Corporation&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CAT^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;5.1215&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;BK^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.02&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;AEE^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.9207&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ZION^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Zions Bancorporation NA&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;REG^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Regency Centers Corporation&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;NOW^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;ServiceNow, Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;MOS^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Mosaic Company&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;MCD^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;McDonald's Corporation&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;LEN^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Lennar Corporation Class A&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;JNJ^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Johnson &amp;amp; Johnson&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;GRMN^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Garmin Ltd.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;EXPE^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Expedia Group, Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;COO^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Cooper Companies, Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;APA^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;APA Corporation&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CZR^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;-1.2315&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;FTV^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Fortive Corp.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;DVN^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Devon Energy Corporation&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ORLY^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;O'Reilly Automotive, Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;IDXX^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;IDEXX Laboratories, Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CMG^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Chipotle Mexican Grill, Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CSX^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;OKE^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;ONEOK, Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;AIG^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.96&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;DRI^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Darden Restaurants, Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CDNS^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.4221&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;MCO^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Moody's Corporation&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;IDXX^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;3.08&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CAT^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;BIIB^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ADSK^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.5954&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;UHS^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Universal Health Services, Inc. Class B&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;SWKS^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Skyworks Solutions, Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;PCG^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;PG&amp;amp;E Corporation&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;NOC^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Northrop Grumman Corp.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;L^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Loews Corporation&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;INTU^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Intuit Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;HST^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Host Hotels &amp;amp; Resorts, Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;EBAY^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;eBay Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;D^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Dominion Energy Inc&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CRWD^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;CrowdStrike Holdings, Inc. Class A&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CL^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Colgate-Palmolive Company&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;BXP^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;BXP Inc&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;BK^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Bank of New York Mellon Corp&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;APTV^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Aptiv PLC&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ABT^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Abbott Laboratories&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;AFL^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Aflac Incorporated&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;NFLX^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Netflix, Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;LYB^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;LyondellBasell Industries NV&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;FI^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Fiserv, Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;EXC^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Exelon Corporation&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;DXCM^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;DexCom, Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CRM^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Salesforce, Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;AMCR^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Amcor PLC&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;BF.B^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.474&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ARE^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ALLE^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;TTWO^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Take-Two Interactive Software, Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;LVS^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Las Vegas Sands Corp.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;BSX^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Boston Scientific Corporation&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;BEN^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;GOOG^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Alphabet Inc. Class C&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;EW^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Edwards Lifesciences Corporation&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;AXP^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;American Express Company&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ADBE^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;5.5&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;PPL^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;PPL Corporation&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;KMI^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Kinder Morgan Inc Class P&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;DVA^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;DaVita Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CNC^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Centene Corporation&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;AVY^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Avery Dennison Corporation&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;AEE^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Ameren Corporation&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ALLE^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Allegion Public Limited Company&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;PPG^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;PPG Industries, Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;IVZ^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Invesco Ltd.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CTSH^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Cognizant Technology Solutions Corporation Class A&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;BRK.B^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Berkshire Hathaway Inc. Class B&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;AVGO^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Broadcom Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ETN^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;3.33&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;BAC^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.98&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;SBAC^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;SBA Communications Corp. Class A&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;MTCH^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Match Group, Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;KEYS^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Keysight Technologies Inc&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;BEN^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Franklin Resources, Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ALGN^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Align Technology, Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ES^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ABT^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CPB^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Campbell's Company&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;AIG^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.3452&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;NVR^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;NVR, Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;HWM^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Howmet Aerospace Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;COST^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Costco Wholesale Corporation&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ALB^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Albemarle Corporation&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;BLK^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;7.16&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;MCK^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;McKesson Corporation&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;GILD^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Gilead Sciences, Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ES^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Eversource Energy&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;EFX^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Equifax Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;RSG^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Republic Services, Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;EQT^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;EQT Corporation&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CMA^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Comerica Incorporated&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CMG^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.2507&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;AMCR^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.86&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;XOM^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Exxon Mobil Corporation&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;QRVO^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Qorvo, Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;PAYX^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Paychex, Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;NI^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;NiSource Inc&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;LYV^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Live Nation Entertainment, Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;KVUE^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Kenvue, Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;JBL^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Jabil Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;FICO^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Fair Isaac Corporation&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;EXPD^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Expeditors International of Washington, Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;EPAM^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;EPAM Systems, Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;DIS^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Walt Disney Company&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;COF^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Capital One Financial Corp&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CCL^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Carnival Corporation&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;BX^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Blackstone Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;BA^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Boeing Company&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;APD^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Air Products and Chemicals, Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;AMD^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Advanced Micro Devices, Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;PAYC^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Paycom Software, Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;MMC^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Marsh &amp;amp; McLennan Companies, Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;INTC^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Intel Corporation&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;GPC^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Genuine Parts Company&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;GD^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;General Dynamics Corporation&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;DHR^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Danaher Corporation&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CI^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Cigna Group&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ABNB^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Airbnb, Inc. Class A&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;SO^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Southern Company&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;KR^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Kroger Co.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CCI^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Crown Castle Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;PRU^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Prudential Financial, Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;OTIS^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Otis Worldwide Corporation&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;FDX^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;FedEx Corporation&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CHRW^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;C.H. Robinson Worldwide, Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;TRMB^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Trimble Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;LUV^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Southwest Airlines Co.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;GNRC^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Generac Holdings Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;DGX^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Quest Diagnostics Incorporated&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CTVA^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Corteva Inc&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;AAPL^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Apple Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;BRO^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ANSS^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;ANSYS, Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;AOS^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.9&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;EL^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Estee Lauder Companies Inc. Class A&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CPRT^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Copart, Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ADP^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Automatic Data Processing, Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;BR^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;TJX^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;TJX Companies Inc&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;EIX^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Edison International&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;BR^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Broadridge Financial Solutions, Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ADM^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Archer-Daniels-Midland Company&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ABNB^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.56&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;KEY^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;KeyCorp&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ISRG^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Intuitive Surgical, Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;HBAN^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Huntington Bancshares Incorporated&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;AJG^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Arthur J. Gallagher &amp;amp; Co.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;COP^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;ConocoPhillips&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CAG^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Conagra Brands, Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;DE^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.42&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CL^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.95&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;C^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ARE^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;-6.349&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;SPG^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Simon Property Group, Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;EOG^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;EOG Resources, Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;DHI^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;D.R. Horton, Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CHTR^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Charter Communications, Inc. Class A&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;AZO^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;AutoZone, Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;BXP^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ALL^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;NEM^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Newmont Corporation&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;INCY^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Incyte Corporation&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CBRE^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;CBRE Group, Inc. Class A&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;AOS^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;A. O. Smith Corporation&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ABBV^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;AbbVie, Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;SNPS^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Synopsys, Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;J^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Jacobs Solutions Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ENPH^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Enphase Energy, Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;BRO^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Brown &amp;amp; Brown, Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;AON^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Aon Plc Class A&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;BG^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Bunge Global SA&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;A^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Agilent Technologies, Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ACGL^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;3.3497&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;LULU^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;lululemon athletica inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;FRT^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Federal Realty Investment Trust&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CF^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.59&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;LRCX^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Lam Research Corporation&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;GLW^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Corning Inc&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;FOXA^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Fox Corporation Class A&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CAT^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Caterpillar Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;AVB^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;AvalonBay Communities, Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;MSI^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Motorola Solutions, Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CTRA^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Coterra Energy Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CPRT^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.41&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;BBY^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Best Buy Co., Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;TECH^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Bio-Techne Corporation&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;PH^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Parker-Hannifin Corporation&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;NVDA^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;NVIDIA Corporation&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;DD^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;DuPont de Nemours, Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CAH^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Cardinal Health, Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;FANG^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Diamondback Energy, Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;BAX^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Baxter International Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ANET^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Arista Networks, Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ETN^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Eaton Corp. Plc&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;BMY^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Bristol-Myers Squibb Company&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;FAST^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Fastenal Company&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CEG^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Constellation Energy Corporation&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;AMZN^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Amazon.com, Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;HAS^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Hasbro, Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;COR^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Cencora, Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CSX^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;CSX Corporation&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;F^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.13&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CHD^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.86&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;BSX^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQ</t>
         </r>
       </text>
     </comment>
-    <comment ref="A7" authorId="0" shapeId="0" xr:uid="{C3514615-2E60-4CCD-AC25-53B138594FD7}">
+    <comment ref="A7" authorId="0" shapeId="0" xr:uid="{E5DB12F4-483B-4084-A42A-8B9C26D8D5C0}">
       <text>
         <r>
           <rPr>
@@ -132,37 +132,9 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
+            <charset val="1"/>
           </rPr>
-          <t>LL,+1,46022,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.567729&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ADSK^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,45961,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.4963706&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;AEE^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,46022,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.7695301&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;AEP^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,46022,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.1441585&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;AES^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,45930,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.72946435&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;AFL^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,46022,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.7020967&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;AIG^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,46022,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.8891844&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;AIZ^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,46022,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;5.303068&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;AJG^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,46022,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.396513&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;AKAM^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,45930,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.6383251&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ALB^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,46022,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;-0.5503643&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ALGN^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,46022,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.9654894&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ALL^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,46022,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;8.83377&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ALLE^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,45930,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.2087595&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;AMAT^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,46052,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.2054536&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;AMCR^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,46022,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.84887564&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;AMD^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,46022,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.3108997&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;AME^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,46022,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.9409021&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;AMGN^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,46022,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;4.72625&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;AMP^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,46022,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;10.296391&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;AMT^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,45930,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.6481539&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;AMZN^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,46022,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.9506532&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ANET^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,46022,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.75706756&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ANSS^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,45747,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.7454401&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;AON^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,46022,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;4.7470226&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;AOS^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,46022,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.84305805&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;APA^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,45930,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.79334587&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;APD^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,46022,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;3.0397975&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;APH^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,46022,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.9191758&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;APTV^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,45930,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.7702016&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ARE^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,46022,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.24690983&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ATO^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,46022,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.408363&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ATVI^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,45107,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.87631536&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;AVB^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,46022,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.2635863&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;AVGO^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,45961,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.8651475&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;AVY^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,46022,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.4084048&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;AWK^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,45930,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.8930573&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;AXP^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,46022,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;3.564134&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;AZO^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,45989,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;32.67411&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;BA^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,46022,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;-0.42995498&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;BAC^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,46022,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.9644544&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;BAX^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,46022,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.53507066&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;BBWI^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,45961,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.40561414&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;BBY^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,45961,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.2947387&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;BDX^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,46022,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.209034&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;BEN^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,46022,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.54821324&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;BF.B^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,45961,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.47667477&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;BG^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,46022,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.8980948&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;BIIB^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,46022,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.6508691&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;BIO^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,46022,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.7146823&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;BK^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,46022,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.9489464&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;BKNG^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,45930,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;95.339035&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;BKR^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,46022,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.67139256&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;BLDR^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,45930,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.6570252&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;BLK^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,46022,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;12.64784&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;BMY^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,46022,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.6181803&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;BR^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,46022,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.3581536&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;BRK.B^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,45930,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;5.514015&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;BRO^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,46022,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.9041772&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;BSX^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,46022,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.78072685&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;BWA^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,46022,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.1571455&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;BX^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,46022,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.5287622&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;BXP^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,46022,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.5021134&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;C^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,46022,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.7835945&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CAG^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,45989,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.43963537&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CAH^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,46022,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.2846022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CARR^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,46022,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.38951233&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CAT^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,46022,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;4.6587725&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CB^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,46022,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;6.4937325&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CBOE^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,46022,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.7293184&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CBRE^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,46022,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.6927774&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CCI^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,46022,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.55252534&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CCL^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,45989,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.24916178&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;A^FF_EPS(ANN_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;4.5719&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;A^JULIAN(FF_EPS(ANN_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;45961&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;A^FF_EPS(QTR_R,45961)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.5282&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;A^JULIAN(FF_EPS(QTR_R,45961).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;45961&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;A^FF_EPS(QTR_R,46022)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.5282&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;A^JULIAN(FF_EPS(QTR_R,46022).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;45961&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;A^FE_ACTUAL(ACTUAL,EPS,ANN_ROLL,0,,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;5.59&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;A^JULIAN(FE_ACTUAL(ACTUAL,EPS,ANN_ROLL,0,,,,'').DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46066&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;A^FE_ACTUAL(ACTUAL,EPS,QTR_ROLL,0,,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.59&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;A^JULIAN(FE_ACTUAL(ACTUAL,EPS,QTR_ROLL,0,,,,'').DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46066&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;A^FE_ACTUAL(ACTUAL,EPS,QTR_ROLL,46022,,,,'')&lt;/Q&gt;&lt;R&gt;0&lt;/R&gt;&lt;C&gt;0&lt;/C&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;A^JULIAN(FE_ACTUAL(ACTUAL,EPS,QTR_ROLL,46022,,,,'').DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46066&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;A^FE_ESTIMATE(EPS,MEAN,ANN_ROLL,+1,NOW,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;5.9341817&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;A^JULIAN(FE_ESTIMATE(EPS,MEAN,ANN_ROLL,+1,NOW,,,'').DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46066&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;A^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,NOW,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.3690103&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;A^JULIAN(FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,NOW,,,'').DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46066&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;A^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,46022,NOW,,,'')&lt;/Q&gt;&lt;R&gt;0&lt;/R&gt;&lt;C&gt;0&lt;/C&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;A^JULIAN(FE_ESTIMATE(EPS,MEAN,QTR_ROLL,46022,NOW,,,'').DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46066&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;A^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,0,NOW,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.59&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;A^JULIAN(FE_ESTIMATE(EPS,MEAN,QTR_ROLL,0,NOW,,,'').DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46066&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;A^FE_SURPRISE(AMOUNT,EPS,MEAN,ANN_ROLL,0,NOW,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.016829174&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;A^JULIAN(FE_SURPRISE(AMOUNT,EPS,MEAN,ANN_ROLL,0,NOW,,,'').DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46066&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;A^FE_ESTIMATE_DATE(DATE,,ANN_ROLL,+1,'YYYYMMDD',NOW,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;20260213&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;A^JULIAN(FE_ESTIMATE_DATE(DATE,,ANN_ROLL,+1,'YYYYMMDD',NOW,,,'').DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;#NUM&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;A^FE_ESTIMATE_DATE(DATE,,QTR_ROLL,0,'YYYYMMDD',NOW,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;20260213&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;A^JULIAN(FE_ESTIMATE_DATE(DATE,,QTR_ROLL,0,'YYYYMMDD',NOW,,,'').DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;#NUM&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;A^FE_ESTIMATE_DATE(DATE,,QTR_ROLL,0,'YYYYMMDD',0CQ,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;20251231&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;A^JULIAN(FE_ESTIMATE_DATE(DATE,,QTR_ROLL,0,'YYYYMMDD',0CQ,,,'').DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;#NUM&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;A^FE_ESTIMATE_DATE(DATE,,QTR_ROLL,-1,'YYYYMMDD',0CQ,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;20251231&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;A^JULIAN(FE_ESTIMATE_DATE(DATE,,QTR_ROLL,-1,'YYYYMMDD',0CQ,,,'').DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;#NUM&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ZTS^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.48&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ZION^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.76&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ZBRA^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;4.33&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ZBH^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.42&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;YUM^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.73&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;XYL^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.42&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;XOM^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.71&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;XEL^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.96&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;WYNN^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.17&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;WY^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;-0.09&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;WTW^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;8.12&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;WST^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.04&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;WRB^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.13&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;WMT^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.62&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;WMB^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.55&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;WM^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.93&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;WFC^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.62&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;WELL^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.14&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;WEC^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.42&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;WDC^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.13&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;WBD^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;-0.06&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;WBA^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;0&lt;/R&gt;&lt;C&gt;0&lt;/C&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;WAT^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;4.53&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;WAB^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.1&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;VZ^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.09&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;VTRS^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.67&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;VTR^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.15&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;VST^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.7472291&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;VRTX^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;5.03&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;VRSN^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.23&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;VRSK^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.72&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;VMC^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.84&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;VLTO^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.04&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;VLO^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;3.82&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;VICI^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.71&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;V^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;3.17&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;USB^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.26&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;URI^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;11.09&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;UPS^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.38&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;UNP^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.86&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;UNH^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.11&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ULTA^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;5.14&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;UHS^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;5.69&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;UDR^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.67&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;UBER^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.71&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;UAL^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;3.1&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;TYL^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.64&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;TXT^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.73&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;TXN^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.27&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;TTWO^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.2280473&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;TT^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.86&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;TSN^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.97&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;TSLA^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.5&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;TSCO^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.43&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;TRV^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;11.13&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;TROW^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.44&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;TRMB^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;TRGP^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.2125583&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;TPR^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.69&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;TMUS^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.88&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;TMO^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;6.57&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;TJX^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.28&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;TGT^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.78&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;TFX^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;3.67&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;TFC^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;TER^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.8&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;TEL^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.72&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;TECH^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.46&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;TDY^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;6.3&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;TDG^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;8.23&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;TAP^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.67&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;T^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.52&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;SYY^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.99&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;SYK^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;4.47&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;SYF^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.04&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;SWKS^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.54&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;SWK^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.41&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;STZ^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;3.06&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;STX^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;3.11&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;STT^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.97&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;STLD^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.82&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;STE^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.53&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;SRE^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.11&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;SPGI^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;4.3&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;SPG^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;9.35&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;SO^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.6&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;SNPS^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.9&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;SNA^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;4.94&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;SMCI^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.69&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;SLB^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.78&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;SJM^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.1&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;SHW^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.23&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;SEE^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.87&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;SCHW^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.39&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;SBUX^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.56&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;SBAC^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.2&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;RVTY^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.7&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;RTX^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.55&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;RSG^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.9&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ROST^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.58&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ROP^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;5.21&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ROL^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.24&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ROK^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.75&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;RMD^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.81&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;RL^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;6.22&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;RJF^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.86&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;RF^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.57&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;REGN^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;11.44&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;REG^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.09&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;RE^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;13.26&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;RCL^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.8&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;QRVO^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.17&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;QCOM^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;3.5&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;PYPL^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.23&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;PXD^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;0&lt;/R&gt;&lt;C&gt;0&lt;/C&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;PWR^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;3.33&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;PVH^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.83&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;PTC^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.92&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;PSX^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.47&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;PSA^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.6&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;PRU^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;3.3&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;PPL^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.48&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;PPG^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.51&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;POOL^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;3.39&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;PODD^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.24&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;PNW^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;3.39&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;PNR^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.18&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;PNC^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;4.88&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;PM^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.7&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;PLTR^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.25&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;PLD^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.49&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;PKG^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.32&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;PHM^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.56&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;PH^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;7.65&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;PGR^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;4.582925&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;PG^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.88&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;PFG^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.19&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;PFE^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.66&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;PEP^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.26&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;PEG^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.13&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;PEAK^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.16&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;PCG^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.36&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;PCAR^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.06&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;PAYX^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.26&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;PAYC^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.45&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;PARA^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;-0.05314813&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;OXY^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.64&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;OTIS^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.03&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ORLY^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.71&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ORCL^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.26&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ON^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.64&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;OMC^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.24&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;OKE^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.49&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ODFL^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.09&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;O^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.35&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;NXPI^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;3.35&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;NWSA^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.4&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;NWS^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.4&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;NVR^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;121.54&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;NVDA^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.3&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;NUE^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.73&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;NTRS^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.6365135&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;NTAP^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.05&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;NSC^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;3.22&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;NRG^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.78&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;NOW^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.92&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;NOC^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;7.23&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;NKE^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.53&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;NI^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.51&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;NFLX^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.56&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;NEM^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.71&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;NEE^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.54&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;NDSN^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;3.03&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;NDAQ^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.96&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;NCLH^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.2&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;MU^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;4.78&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;MTD^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;13.36&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;MTCH^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.83&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;MTB^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;4.67&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;MSI^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;4.59&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;MSFT^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;4.14&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;MSCI^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;4.66&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;MS^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.68&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;MRO^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;0&lt;/R&gt;&lt;C&gt;0&lt;/C&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;MRNA^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;-2.11&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;MRK^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="A8" authorId="0" shapeId="0" xr:uid="{0848339F-729D-4727-8A2C-879FAB093D55}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>type="xsd:double"&gt;2.04&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;MPWR^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;4.79&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;MPC^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;4.07&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;MOS^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.04&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;MOH^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;-2.75&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;MO^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.3&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;MNST^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.56&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;MMM^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.83&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;MMC^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.12&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;MLM^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;3.85&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;MKTX^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.68&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;MKC^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.86&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;MHK^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;MGM^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.6&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;META^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;8.88&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;MET^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.49&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;MDT^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.36&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;MDLZ^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.72&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;MCO^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;3.92&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;MCK^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;9.34&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;MCHP^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.44&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;MCD^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;3.12&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;MAS^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.82&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;MAR^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.58&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;MAA^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.48&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;MA^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;4.76&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;LYV^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.73&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;LYB^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;-0.26&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;LW^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.69&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;LVS^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.85&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;LUV^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.58&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;LULU^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.59&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;LRCX^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.27&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;LOW^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;3.06&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;LNT^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.12&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;LMT^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;5.8&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;LLY^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;7.54&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;LKQ^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.84&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;LIN^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;4.20038&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;LHX^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.86&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;LH^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;4.18&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;LEN^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.93&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;LDOS^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;3.05&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;L^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.138259&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;KVUE^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.28&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;KR^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.05&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;KO^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.58&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;KMX^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.43&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;KMI^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.39&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;KMB^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.86&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;KLAC^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;8.85&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;KIM^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.21&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;KHC^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.67&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;KEYS^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.91&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;KEY^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.43&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;KDP^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.54&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;K^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.93&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;JPM^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;4.63&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;JNPR^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;0&lt;/R&gt;&lt;C&gt;0&lt;/C&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;JNJ^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.46&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;JKHY^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.72&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;JCI^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.89&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;JBL^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.85&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;JBHT^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.9&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;J^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.53&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;IVZ^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.62&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ITW^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.72&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;IT^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;3.94&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ISRG^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.53&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;IRM^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.61&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;IR^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.96&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;IQV^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;3.42&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;IPG^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.75&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;IP^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;-0.08&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;INVH^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.22&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;INTU^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;3.34&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;INTC^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.15&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;INCY^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.8&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ILMN^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.35&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;IFF^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.8&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;IEX^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.1&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;IDXX^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;3.08&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ICE^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.71&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;IBM^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;4.52&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;HWM^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.05&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;HUM^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;-3.96&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;HUBB^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;4.73&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;HSY^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.71&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;HST^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.23&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;HSIC^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.38&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;HRL^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.32&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;HPQ^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.93&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;HPE^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.62&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;HON^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.59&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;HOLX^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.04&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;HD^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;3.74&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;HCA^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;8.01&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;HBAN^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.3&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;HAS^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.51&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;HAL^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.69&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;GWW^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;9.44&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;GS^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;14.01&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;GRMN^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.99&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;GPN^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;3.26&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;GPC^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.98&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;GOOGL^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.82&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;GOOG^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.82&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;GNRC^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.61&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;GM^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.51&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;GLW^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.72&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;GL^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;3.39&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;GIS^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.1&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;GILD^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.86&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;GEV^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;13.477591&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;GEN^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.64&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;GEHC^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.44&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;GE^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.57&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;GDDY^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.51&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;GD^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;4.17&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;FTV^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.9&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;FTNT^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.81&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;FSLR^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;4.24&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;FRT^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.48&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;FOXA^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.82&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;FOX^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.82&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;FMC^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.2&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;FLT^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;6.04&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;FITB^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.04&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;FIS^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.51&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;FICO^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;7.33&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;FI^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.99&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;FFIV^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;4.45&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;FE^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.83&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;FDX^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;4.82&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;FDS^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;4.51&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;FCX^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.47&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;FCNCA^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;51.27&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;FAST^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.26&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;FANG^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;3.08&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;F^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.13&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;EXR^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.78&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;EXPE^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;3.78&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;EXPD^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.64&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;EXC^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.59&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;EW^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.58&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;EVRG^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.03&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ETR^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.51&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ETN^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;3.33&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ESS^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.25&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ES^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.12&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;EQT^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.52&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;EQR^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;EQIX^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.69&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;EPAM^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;3.08&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;EOG^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.71&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ENPH^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.71&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;EMR^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.46&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;EMN^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.75&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;EL^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.87&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;EIX^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.34&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;EFX^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.09&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ED^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.9&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ECL^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.08&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;EBAY^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.36&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;EA^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;4.875692&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;DXCM^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.68&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;DVN^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.04&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;DVA^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;3.4&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;DUK^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.5&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;DTE^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.25&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;DRI^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.08&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;DPZ^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;4.08&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;DOW^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;-0.34&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;DOV^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.51&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;DLTR^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.21&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;DIS^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.63&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;DHR^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.23&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;DHI^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.03&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;DGX^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.42&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;DG^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.28&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;DFS^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;0&lt;/R&gt;&lt;C&gt;0&lt;/C&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;DECK^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;3.33&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;DE^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;3.93&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;DD^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.46&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;DAY^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.37&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;DAL^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.55&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;D^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.06&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CZR^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;-0.27&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CVX^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.52&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CVS^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.09&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CTVA^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.22&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CTSH^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.35&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CTRA^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.41&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CTLT^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;0&lt;/R&gt;&lt;C&gt;0&lt;/C&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CTAS^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.21&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CSX^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.39&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CSGP^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.23&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CSCO^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.04&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CRWD^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.96&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CRM^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;3.25&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CRL^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.43&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CPT^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.44&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CPRT^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.41&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CPB^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.77&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CPAY^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;6.04&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;COST^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;4.5&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;COR^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;4.08&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;COP^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.02&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;COO^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.15&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;COF^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;3.86&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CNP^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.5&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CNC^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;-1.19&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CMS^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.95&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CMI^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;5.838345&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CMG^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.25&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CME^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.77&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CMCSA^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.84&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CMA^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.27&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CLX^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.39&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CL^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.95&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CINF^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;3.37&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CI^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;8.08&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CHTR^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;10.34&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CHRW^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.23&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CHD^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.86&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CFG^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.13&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CF^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.276849&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CEG^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;3.04&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CE^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.34&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CDW^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.57&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CDNS^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.93&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CCL^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.34&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CCI^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.67&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CBRE^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.73&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CBOE^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;3.06&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CB^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;7.52&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CAT^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;5.16&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CARR^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.34&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CAH^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.63&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CAG^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.45&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;C^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.19&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;BXP^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.56&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;BX^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.75&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;BWA^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.35&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;BSX^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.8&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;BRO^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.93&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;BRK.B^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;6.255748&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;BR^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.59&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;BMY^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.26&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;BLK^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;13.16&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;BLDR^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.88&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;BKR^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.78&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;BKNG^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;99.5&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;BK^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.02&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;BIO^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.51&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;BIIB^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.99&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;BG^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.99&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;BF.B^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.47&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;BEN^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.7&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;BDX^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.2868385&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;BBY^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.4&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;BBWI^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.35&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;BAX^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.36&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;BAC^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.98&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;BA^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;9.92&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;AZO^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;31.04&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;AXP^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;3.53&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;AWK^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.94&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;AVY^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.45&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;AVGO^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.95&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;AVB^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.17&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ATVI^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;0&lt;/R&gt;&lt;C&gt;0&lt;/C&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ATO^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.44&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ARE^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;-6.35&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;APTV^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.86&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;APH^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.97&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;APD^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;3.16&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;APA^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.93&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;AOS^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.9&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;AON^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;4.85&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ANSS^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;0&lt;/R&gt;&lt;C&gt;0&lt;/C&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ANET^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.82&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;AMZN^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.95&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;AMT^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.82&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;AMP^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;10.83&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;AMGN^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;5.29&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;AME^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.01&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;AMD^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.53&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;AMCR^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.86&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;AMAT^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.38&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ALLE^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.3&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ALL^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;14.31&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ALGN^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;3.29&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ALB^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;-0.53&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;AKAM^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.86&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;AJG^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.38&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;AIZ^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="x</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="A9" authorId="0" shapeId="0" xr:uid="{F96F1AAA-460D-4B14-AD5C-ABB5BF432B66}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>sd:double"&gt;5.61&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;AIG^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.96&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;AFL^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.57&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;AES^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.75&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;AEP^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.19&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;AEE^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.78&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ADSK^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.67&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ADP^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.62&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ADM^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.87&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ADI^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.26&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ADBE^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;5.5&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ACN^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;3.94&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ACGL^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.98&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ABT^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.5&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ABNB^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.56&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ABBV^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.71&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;AAPL^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.84&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;A^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.59&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;A^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.59&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;A^JULIAN(FE_ESTIMATE(EPS,MEAN,QTR_ROLL,0,0,,,'').DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46066&lt;/D&gt;&lt;/FQL&gt;&lt;/Schema&gt;</t>
+          <t>L&gt;&lt;Q&gt;ALB^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;-3.8731&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;WDC^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Western Digital Corporation&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ORCL^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Oracle Corporation&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;NEE^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;NextEra Energy, Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;MKTX^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;MarketAxess Holdings Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;HOLX^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Hologic, Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;EVRG^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Evergy, Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;DUK^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Duke Energy Corporation&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;DG^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Dollar General Corporation&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CPT^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Camden Property Trust&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CMI^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Cummins Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CHD^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Church &amp;amp; Dwight Co., Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CBOE^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Cboe Global Markets Inc&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;FCX^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Freeport-McMoRan, Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;POOL^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Pool Corporation&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;IT^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Gartner, Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CF^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;CF Industries Holdings, Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;DE^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Deere &amp;amp; Company&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CARR^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Carrier Global Corp.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;AMT^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.8192&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;DPZ^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Domino's Pizza, Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;BBWI^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Bath &amp;amp; Body Works, Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ADI^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Analog Devices, Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;HUM^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Humana Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CTAS^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Cintas Corporation&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ADBE^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Adobe Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;BLDR^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Builders FirstSource, Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;DVA^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;AWK^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;AMT^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;45930&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;AEP^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.19&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;T^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;AT&amp;amp;T Inc&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;PGR^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Progressive Corporation&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;MCHP^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Microchip Technology Incorporated&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;HAL^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Halliburton Company&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;FITB^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Fifth Third Bancorp&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CDW^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;CDW Corporation&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;AMP^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Ameriprise Financial, Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;/Schema&gt;</t>
         </r>
       </text>
     </comment>
@@ -1771,7 +1743,7 @@
       <sz val="9"/>
       <color indexed="81"/>
       <name val="Tahoma"/>
-      <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1794,12 +1766,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2114,7 +2085,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C6DEF5E-7515-45F2-A94B-B53144E7C4DC}">
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2131,8 +2102,6 @@
     <row r="5" spans="1:2" x14ac:dyDescent="0.45"/>
     <row r="6" spans="1:2" x14ac:dyDescent="0.45"/>
     <row r="7" spans="1:2" x14ac:dyDescent="0.45"/>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.45"/>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.45"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -2144,7 +2113,7 @@
   <dimension ref="A1:G501"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -2195,11 +2164,11 @@
         <f t="array" ref="E2">_xll.FDS(A2,"FF_EPS(QTR_R,0)")</f>
         <v>1.5282</v>
       </c>
-      <c r="F2" s="3" cm="1">
+      <c r="F2" cm="1">
         <f t="array" ref="F2">_xll.FDS(A2,"FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')")</f>
         <v>1.59</v>
       </c>
-      <c r="G2" s="4"/>
+      <c r="G2" s="3"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
@@ -2220,7 +2189,7 @@
         <f t="array" ref="E3">_xll.FDS(A3,"FF_EPS(QTR_R,0)")</f>
         <v>2.8424</v>
       </c>
-      <c r="F3" s="3" cm="1">
+      <c r="F3" cm="1">
         <f t="array" ref="F3">_xll.FDS(A3,"FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')")</f>
         <v>2.84</v>
       </c>
@@ -2244,7 +2213,7 @@
         <f t="array" ref="E4">_xll.FDS(A4,"FF_EPS(QTR_R,0)")</f>
         <v>1.0237000000000001</v>
       </c>
-      <c r="F4" s="3" cm="1">
+      <c r="F4" cm="1">
         <f t="array" ref="F4">_xll.FDS(A4,"FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')")</f>
         <v>2.71</v>
       </c>
@@ -2268,7 +2237,7 @@
         <f t="array" ref="E5">_xll.FDS(A5,"FF_EPS(QTR_R,0)")</f>
         <v>0.5554</v>
       </c>
-      <c r="F5" s="3" cm="1">
+      <c r="F5" cm="1">
         <f t="array" ref="F5">_xll.FDS(A5,"FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')")</f>
         <v>0.56000000000000005</v>
       </c>
@@ -2292,7 +2261,7 @@
         <f t="array" ref="E6">_xll.FDS(A6,"FF_EPS(QTR_R,0)")</f>
         <v>1.0165999999999999</v>
       </c>
-      <c r="F6" s="3" cm="1">
+      <c r="F6" cm="1">
         <f t="array" ref="F6">_xll.FDS(A6,"FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')")</f>
         <v>1.5</v>
       </c>
@@ -2316,7 +2285,7 @@
         <f t="array" ref="E7">_xll.FDS(A7,"FF_EPS(QTR_R,0)")</f>
         <v>3.3496999999999999</v>
       </c>
-      <c r="F7" s="3" cm="1">
+      <c r="F7" cm="1">
         <f t="array" ref="F7">_xll.FDS(A7,"FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')")</f>
         <v>2.98</v>
       </c>
@@ -2340,7 +2309,7 @@
         <f t="array" ref="E8">_xll.FDS(A8,"FF_EPS(QTR_R,0)")</f>
         <v>3.5358999999999998</v>
       </c>
-      <c r="F8" s="3" cm="1">
+      <c r="F8" cm="1">
         <f t="array" ref="F8">_xll.FDS(A8,"FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')")</f>
         <v>3.94</v>
       </c>
@@ -2364,7 +2333,7 @@
         <f t="array" ref="E9">_xll.FDS(A9,"FF_EPS(QTR_R,0)")</f>
         <v>4.4508000000000001</v>
       </c>
-      <c r="F9" s="3" cm="1">
+      <c r="F9" cm="1">
         <f t="array" ref="F9">_xll.FDS(A9,"FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')")</f>
         <v>5.5</v>
       </c>
@@ -2382,15 +2351,15 @@
       </c>
       <c r="D10" s="2" cm="1">
         <f t="array" ref="D10">_xll.FDS(A10,"JULIAN(FF_EPS(QTR_R,0).dates)")</f>
-        <v>45961</v>
+        <v>46052</v>
       </c>
       <c r="E10" cm="1">
         <f t="array" ref="E10">_xll.FDS(A10,"FF_EPS(QTR_R,0)")</f>
-        <v>1.5971</v>
-      </c>
-      <c r="F10" s="3" cm="1">
+        <v>1.6898</v>
+      </c>
+      <c r="F10" cm="1">
         <f t="array" ref="F10">_xll.FDS(A10,"FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')")</f>
-        <v>2.2599999999999998</v>
+        <v>2.46</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.45">
@@ -2412,7 +2381,7 @@
         <f t="array" ref="E11">_xll.FDS(A11,"FF_EPS(QTR_R,0)")</f>
         <v>0.94220000000000004</v>
       </c>
-      <c r="F11" s="3" cm="1">
+      <c r="F11" cm="1">
         <f t="array" ref="F11">_xll.FDS(A11,"FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')")</f>
         <v>0.87</v>
       </c>
@@ -2436,7 +2405,7 @@
         <f t="array" ref="E12">_xll.FDS(A12,"FF_EPS(QTR_R,0)")</f>
         <v>2.6242000000000001</v>
       </c>
-      <c r="F12" s="3" cm="1">
+      <c r="F12" cm="1">
         <f t="array" ref="F12">_xll.FDS(A12,"FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')")</f>
         <v>2.62</v>
       </c>
@@ -2460,7 +2429,7 @@
         <f t="array" ref="E13">_xll.FDS(A13,"FF_EPS(QTR_R,0)")</f>
         <v>1.5953999999999999</v>
       </c>
-      <c r="F13" s="3" cm="1">
+      <c r="F13" cm="1">
         <f t="array" ref="F13">_xll.FDS(A13,"FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')")</f>
         <v>2.67</v>
       </c>
@@ -2482,9 +2451,9 @@
       </c>
       <c r="E14" cm="1">
         <f t="array" ref="E14">_xll.FDS(A14,"FF_EPS(QTR_R,0)")</f>
-        <v>0.92</v>
-      </c>
-      <c r="F14" s="3" cm="1">
+        <v>0.92069999999999996</v>
+      </c>
+      <c r="F14" cm="1">
         <f t="array" ref="F14">_xll.FDS(A14,"FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')")</f>
         <v>0.78</v>
       </c>
@@ -2508,7 +2477,7 @@
         <f t="array" ref="E15">_xll.FDS(A15,"FF_EPS(QTR_R,0)")</f>
         <v>1.0713999999999999</v>
       </c>
-      <c r="F15" s="3" cm="1">
+      <c r="F15" cm="1">
         <f t="array" ref="F15">_xll.FDS(A15,"FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')")</f>
         <v>1.19</v>
       </c>
@@ -2532,7 +2501,7 @@
         <f t="array" ref="E16">_xll.FDS(A16,"FF_EPS(QTR_R,0)")</f>
         <v>0.93979999999999997</v>
       </c>
-      <c r="F16" s="3" cm="1">
+      <c r="F16" cm="1">
         <f t="array" ref="F16">_xll.FDS(A16,"FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')")</f>
         <v>0.75</v>
       </c>
@@ -2556,7 +2525,7 @@
         <f t="array" ref="E17">_xll.FDS(A17,"FF_EPS(QTR_R,0)")</f>
         <v>2.64</v>
       </c>
-      <c r="F17" s="3" cm="1">
+      <c r="F17" cm="1">
         <f t="array" ref="F17">_xll.FDS(A17,"FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')")</f>
         <v>1.57</v>
       </c>
@@ -2580,7 +2549,7 @@
         <f t="array" ref="E18">_xll.FDS(A18,"FF_EPS(QTR_R,0)")</f>
         <v>1.3452</v>
       </c>
-      <c r="F18" s="3" cm="1">
+      <c r="F18" cm="1">
         <f t="array" ref="F18">_xll.FDS(A18,"FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')")</f>
         <v>1.96</v>
       </c>
@@ -2604,7 +2573,7 @@
         <f t="array" ref="E19">_xll.FDS(A19,"FF_EPS(QTR_R,0)")</f>
         <v>4.41</v>
       </c>
-      <c r="F19" s="3" cm="1">
+      <c r="F19" cm="1">
         <f t="array" ref="F19">_xll.FDS(A19,"FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')")</f>
         <v>5.61</v>
       </c>
@@ -2628,7 +2597,7 @@
         <f t="array" ref="E20">_xll.FDS(A20,"FF_EPS(QTR_R,0)")</f>
         <v>0.58020000000000005</v>
       </c>
-      <c r="F20" s="3" cm="1">
+      <c r="F20" cm="1">
         <f t="array" ref="F20">_xll.FDS(A20,"FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')")</f>
         <v>2.38</v>
       </c>
@@ -2652,7 +2621,7 @@
         <f t="array" ref="E21">_xll.FDS(A21,"FF_EPS(QTR_R,0)")</f>
         <v>0.96799999999999997</v>
       </c>
-      <c r="F21" s="3" cm="1">
+      <c r="F21" cm="1">
         <f t="array" ref="F21">_xll.FDS(A21,"FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')")</f>
         <v>1.86</v>
       </c>
@@ -2676,7 +2645,7 @@
         <f t="array" ref="E22">_xll.FDS(A22,"FF_EPS(QTR_R,0)")</f>
         <v>-3.8731</v>
       </c>
-      <c r="F22" s="3" cm="1">
+      <c r="F22" cm="1">
         <f t="array" ref="F22">_xll.FDS(A22,"FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')")</f>
         <v>-0.53</v>
       </c>
@@ -2700,7 +2669,7 @@
         <f t="array" ref="E23">_xll.FDS(A23,"FF_EPS(QTR_R,0)")</f>
         <v>1.8918999999999999</v>
       </c>
-      <c r="F23" s="3" cm="1">
+      <c r="F23" cm="1">
         <f t="array" ref="F23">_xll.FDS(A23,"FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')")</f>
         <v>3.29</v>
       </c>
@@ -2724,7 +2693,7 @@
         <f t="array" ref="E24">_xll.FDS(A24,"FF_EPS(QTR_R,0)")</f>
         <v>14.3672</v>
       </c>
-      <c r="F24" s="3" cm="1">
+      <c r="F24" cm="1">
         <f t="array" ref="F24">_xll.FDS(A24,"FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')")</f>
         <v>14.31</v>
       </c>
@@ -2742,15 +2711,15 @@
       </c>
       <c r="D25" s="2" cm="1">
         <f t="array" ref="D25">_xll.FDS(A25,"JULIAN(FF_EPS(QTR_R,0).dates)")</f>
-        <v>45930</v>
+        <v>46022</v>
       </c>
       <c r="E25" cm="1">
         <f t="array" ref="E25">_xll.FDS(A25,"FF_EPS(QTR_R,0)")</f>
-        <v>2.1779999999999999</v>
-      </c>
-      <c r="F25" s="3" cm="1">
+        <v>1.7032</v>
+      </c>
+      <c r="F25" cm="1">
         <f t="array" ref="F25">_xll.FDS(A25,"FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')")</f>
-        <v>2.2999999999999998</v>
+        <v>1.94</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.45">
@@ -2772,7 +2741,7 @@
         <f t="array" ref="E26">_xll.FDS(A26,"FF_EPS(QTR_R,0)")</f>
         <v>2.54</v>
       </c>
-      <c r="F26" s="3" cm="1">
+      <c r="F26" cm="1">
         <f t="array" ref="F26">_xll.FDS(A26,"FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')")</f>
         <v>2.38</v>
       </c>
@@ -2796,7 +2765,7 @@
         <f t="array" ref="E27">_xll.FDS(A27,"FF_EPS(QTR_R,0)")</f>
         <v>0.38159999999999999</v>
       </c>
-      <c r="F27" s="3" cm="1">
+      <c r="F27" cm="1">
         <f t="array" ref="F27">_xll.FDS(A27,"FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')")</f>
         <v>0.86</v>
       </c>
@@ -2820,7 +2789,7 @@
         <f t="array" ref="E28">_xll.FDS(A28,"FF_EPS(QTR_R,0)")</f>
         <v>0.9163</v>
       </c>
-      <c r="F28" s="3" cm="1">
+      <c r="F28" cm="1">
         <f t="array" ref="F28">_xll.FDS(A28,"FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')")</f>
         <v>1.53</v>
       </c>
@@ -2842,9 +2811,9 @@
       </c>
       <c r="E29" cm="1">
         <f t="array" ref="E29">_xll.FDS(A29,"FF_EPS(QTR_R,0)")</f>
-        <v>1.73</v>
-      </c>
-      <c r="F29" s="3" cm="1">
+        <v>1.7303999999999999</v>
+      </c>
+      <c r="F29" cm="1">
         <f t="array" ref="F29">_xll.FDS(A29,"FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')")</f>
         <v>2.0099999999999998</v>
       </c>
@@ -2868,7 +2837,7 @@
         <f t="array" ref="E30">_xll.FDS(A30,"FF_EPS(QTR_R,0)")</f>
         <v>2.4548999999999999</v>
       </c>
-      <c r="F30" s="3" cm="1">
+      <c r="F30" cm="1">
         <f t="array" ref="F30">_xll.FDS(A30,"FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')")</f>
         <v>5.29</v>
       </c>
@@ -2892,7 +2861,7 @@
         <f t="array" ref="E31">_xll.FDS(A31,"FF_EPS(QTR_R,0)")</f>
         <v>10.47</v>
       </c>
-      <c r="F31" s="3" cm="1">
+      <c r="F31" cm="1">
         <f t="array" ref="F31">_xll.FDS(A31,"FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')")</f>
         <v>10.83</v>
       </c>
@@ -2916,7 +2885,7 @@
         <f t="array" ref="E32">_xll.FDS(A32,"FF_EPS(QTR_R,0)")</f>
         <v>1.8191999999999999</v>
       </c>
-      <c r="F32" s="3" cm="1">
+      <c r="F32" cm="1">
         <f t="array" ref="F32">_xll.FDS(A32,"FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')")</f>
         <v>1.82</v>
       </c>
@@ -2940,7 +2909,7 @@
         <f t="array" ref="E33">_xll.FDS(A33,"FF_EPS(QTR_R,0)")</f>
         <v>1.9508000000000001</v>
       </c>
-      <c r="F33" s="3" cm="1">
+      <c r="F33" cm="1">
         <f t="array" ref="F33">_xll.FDS(A33,"FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')")</f>
         <v>1.95</v>
       </c>
@@ -2964,7 +2933,7 @@
         <f t="array" ref="E34">_xll.FDS(A34,"FF_EPS(QTR_R,0)")</f>
         <v>0.75</v>
       </c>
-      <c r="F34" s="3" cm="1">
+      <c r="F34" cm="1">
         <f t="array" ref="F34">_xll.FDS(A34,"FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')")</f>
         <v>0.82</v>
       </c>
@@ -2988,7 +2957,7 @@
         <f t="array" ref="E35">_xll.FDS(A35,"FF_EPS(QTR_R,0)")</f>
         <v>0.58850000000000002</v>
       </c>
-      <c r="F35" s="3" t="e" cm="1">
+      <c r="F35" t="e" cm="1">
         <f t="array" ref="F35">_xll.FDS(A35,"FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')")</f>
         <v>#N/A</v>
       </c>
@@ -3012,7 +2981,7 @@
         <f t="array" ref="E36">_xll.FDS(A36,"FF_EPS(QTR_R,0)")</f>
         <v>7.8198999999999996</v>
       </c>
-      <c r="F36" s="3" cm="1">
+      <c r="F36" cm="1">
         <f t="array" ref="F36">_xll.FDS(A36,"FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')")</f>
         <v>4.8499999999999996</v>
       </c>
@@ -3036,7 +3005,7 @@
         <f t="array" ref="E37">_xll.FDS(A37,"FF_EPS(QTR_R,0)")</f>
         <v>0.89610000000000001</v>
       </c>
-      <c r="F37" s="3" cm="1">
+      <c r="F37" cm="1">
         <f t="array" ref="F37">_xll.FDS(A37,"FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')")</f>
         <v>0.9</v>
       </c>
@@ -3060,7 +3029,7 @@
         <f t="array" ref="E38">_xll.FDS(A38,"FF_EPS(QTR_R,0)")</f>
         <v>0.5726</v>
       </c>
-      <c r="F38" s="3" cm="1">
+      <c r="F38" cm="1">
         <f t="array" ref="F38">_xll.FDS(A38,"FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')")</f>
         <v>0.93</v>
       </c>
@@ -3084,7 +3053,7 @@
         <f t="array" ref="E39">_xll.FDS(A39,"FF_EPS(QTR_R,0)")</f>
         <v>3.0426000000000002</v>
       </c>
-      <c r="F39" s="3" cm="1">
+      <c r="F39" cm="1">
         <f t="array" ref="F39">_xll.FDS(A39,"FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')")</f>
         <v>3.16</v>
       </c>
@@ -3108,7 +3077,7 @@
         <f t="array" ref="E40">_xll.FDS(A40,"FF_EPS(QTR_R,0)")</f>
         <v>0.92769999999999997</v>
       </c>
-      <c r="F40" s="3" cm="1">
+      <c r="F40" cm="1">
         <f t="array" ref="F40">_xll.FDS(A40,"FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')")</f>
         <v>0.97</v>
       </c>
@@ -3132,7 +3101,7 @@
         <f t="array" ref="E41">_xll.FDS(A41,"FF_EPS(QTR_R,0)")</f>
         <v>-1.6329</v>
       </c>
-      <c r="F41" s="3" cm="1">
+      <c r="F41" cm="1">
         <f t="array" ref="F41">_xll.FDS(A41,"FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')")</f>
         <v>1.86</v>
       </c>
@@ -3156,7 +3125,7 @@
         <f t="array" ref="E42">_xll.FDS(A42,"FF_EPS(QTR_R,0)")</f>
         <v>-6.3490000000000002</v>
       </c>
-      <c r="F42" s="3" cm="1">
+      <c r="F42" cm="1">
         <f t="array" ref="F42">_xll.FDS(A42,"FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')")</f>
         <v>-6.35</v>
       </c>
@@ -3180,7 +3149,7 @@
         <f t="array" ref="E43">_xll.FDS(A43,"FF_EPS(QTR_R,0)")</f>
         <v>2.4432999999999998</v>
       </c>
-      <c r="F43" s="3" cm="1">
+      <c r="F43" cm="1">
         <f t="array" ref="F43">_xll.FDS(A43,"FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')")</f>
         <v>2.44</v>
       </c>
@@ -3204,7 +3173,7 @@
         <f t="array" ref="E44">_xll.FDS(A44,"FF_EPS(QTR_R,0)")</f>
         <v>0.73929999999999996</v>
       </c>
-      <c r="F44" s="3" t="e" cm="1">
+      <c r="F44" t="e" cm="1">
         <f t="array" ref="F44">_xll.FDS(A44,"FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')")</f>
         <v>#N/A</v>
       </c>
@@ -3228,7 +3197,7 @@
         <f t="array" ref="E45">_xll.FDS(A45,"FF_EPS(QTR_R,0)")</f>
         <v>1.1601999999999999</v>
       </c>
-      <c r="F45" s="3" cm="1">
+      <c r="F45" cm="1">
         <f t="array" ref="F45">_xll.FDS(A45,"FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')")</f>
         <v>1.17</v>
       </c>
@@ -3252,7 +3221,7 @@
         <f t="array" ref="E46">_xll.FDS(A46,"FF_EPS(QTR_R,0)")</f>
         <v>1.7423</v>
       </c>
-      <c r="F46" s="3" cm="1">
+      <c r="F46" cm="1">
         <f t="array" ref="F46">_xll.FDS(A46,"FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')")</f>
         <v>1.95</v>
       </c>
@@ -3276,7 +3245,7 @@
         <f t="array" ref="E47">_xll.FDS(A47,"FF_EPS(QTR_R,0)")</f>
         <v>2.1499000000000001</v>
       </c>
-      <c r="F47" s="3" cm="1">
+      <c r="F47" cm="1">
         <f t="array" ref="F47">_xll.FDS(A47,"FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')")</f>
         <v>2.4500000000000002</v>
       </c>
@@ -3294,15 +3263,15 @@
       </c>
       <c r="D48" s="2" cm="1">
         <f t="array" ref="D48">_xll.FDS(A48,"JULIAN(FF_EPS(QTR_R,0).dates)")</f>
-        <v>45930</v>
+        <v>46022</v>
       </c>
       <c r="E48" cm="1">
         <f t="array" ref="E48">_xll.FDS(A48,"FF_EPS(QTR_R,0)")</f>
-        <v>1.9436</v>
-      </c>
-      <c r="F48" s="3" cm="1">
+        <v>1.2204999999999999</v>
+      </c>
+      <c r="F48" cm="1">
         <f t="array" ref="F48">_xll.FDS(A48,"FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')")</f>
-        <v>1.94</v>
+        <v>1.22</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.45">
@@ -3324,7 +3293,7 @@
         <f t="array" ref="E49">_xll.FDS(A49,"FF_EPS(QTR_R,0)")</f>
         <v>3.5305</v>
       </c>
-      <c r="F49" s="3" cm="1">
+      <c r="F49" cm="1">
         <f t="array" ref="F49">_xll.FDS(A49,"FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')")</f>
         <v>3.53</v>
       </c>
@@ -3348,7 +3317,7 @@
         <f t="array" ref="E50">_xll.FDS(A50,"FF_EPS(QTR_R,0)")</f>
         <v>31.038599999999999</v>
       </c>
-      <c r="F50" s="3" cm="1">
+      <c r="F50" cm="1">
         <f t="array" ref="F50">_xll.FDS(A50,"FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')")</f>
         <v>31.04</v>
       </c>
@@ -3372,7 +3341,7 @@
         <f t="array" ref="E51">_xll.FDS(A51,"FF_EPS(QTR_R,0)")</f>
         <v>10.1182</v>
       </c>
-      <c r="F51" s="3" cm="1">
+      <c r="F51" cm="1">
         <f t="array" ref="F51">_xll.FDS(A51,"FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')")</f>
         <v>9.92</v>
       </c>
@@ -3396,7 +3365,7 @@
         <f t="array" ref="E52">_xll.FDS(A52,"FF_EPS(QTR_R,0)")</f>
         <v>0.98</v>
       </c>
-      <c r="F52" s="3" cm="1">
+      <c r="F52" cm="1">
         <f t="array" ref="F52">_xll.FDS(A52,"FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')")</f>
         <v>0.98</v>
       </c>
@@ -3420,7 +3389,7 @@
         <f t="array" ref="E53">_xll.FDS(A53,"FF_EPS(QTR_R,0)")</f>
         <v>-2.1595</v>
       </c>
-      <c r="F53" s="3" cm="1">
+      <c r="F53" cm="1">
         <f t="array" ref="F53">_xll.FDS(A53,"FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')")</f>
         <v>0.36</v>
       </c>
@@ -3444,7 +3413,7 @@
         <f t="array" ref="E54">_xll.FDS(A54,"FF_EPS(QTR_R,0)")</f>
         <v>0.37380000000000002</v>
       </c>
-      <c r="F54" s="3" cm="1">
+      <c r="F54" cm="1">
         <f t="array" ref="F54">_xll.FDS(A54,"FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')")</f>
         <v>0.35</v>
       </c>
@@ -3468,7 +3437,7 @@
         <f t="array" ref="E55">_xll.FDS(A55,"FF_EPS(QTR_R,0)")</f>
         <v>0.66010000000000002</v>
       </c>
-      <c r="F55" s="3" cm="1">
+      <c r="F55" cm="1">
         <f t="array" ref="F55">_xll.FDS(A55,"FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')")</f>
         <v>1.4</v>
       </c>
@@ -3492,7 +3461,7 @@
         <f t="array" ref="E56">_xll.FDS(A56,"FF_EPS(QTR_R,0)")</f>
         <v>1.3364</v>
       </c>
-      <c r="F56" s="3" cm="1">
+      <c r="F56" cm="1">
         <f t="array" ref="F56">_xll.FDS(A56,"FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')")</f>
         <v>2.2868385</v>
       </c>
@@ -3516,7 +3485,7 @@
         <f t="array" ref="E57">_xll.FDS(A57,"FF_EPS(QTR_R,0)")</f>
         <v>0.4617</v>
       </c>
-      <c r="F57" s="3" cm="1">
+      <c r="F57" cm="1">
         <f t="array" ref="F57">_xll.FDS(A57,"FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')")</f>
         <v>0.7</v>
       </c>
@@ -3540,7 +3509,7 @@
         <f t="array" ref="E58">_xll.FDS(A58,"FF_EPS(QTR_R,0)")</f>
         <v>0.47399999999999998</v>
       </c>
-      <c r="F58" s="3" cm="1">
+      <c r="F58" cm="1">
         <f t="array" ref="F58">_xll.FDS(A58,"FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')")</f>
         <v>0.47</v>
       </c>
@@ -3564,7 +3533,7 @@
         <f t="array" ref="E59">_xll.FDS(A59,"FF_EPS(QTR_R,0)")</f>
         <v>0.48720000000000002</v>
       </c>
-      <c r="F59" s="3" cm="1">
+      <c r="F59" cm="1">
         <f t="array" ref="F59">_xll.FDS(A59,"FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')")</f>
         <v>1.99</v>
       </c>
@@ -3588,7 +3557,7 @@
         <f t="array" ref="E60">_xll.FDS(A60,"FF_EPS(QTR_R,0)")</f>
         <v>-0.33329999999999999</v>
       </c>
-      <c r="F60" s="3" cm="1">
+      <c r="F60" cm="1">
         <f t="array" ref="F60">_xll.FDS(A60,"FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')")</f>
         <v>1.99</v>
       </c>
@@ -3612,7 +3581,7 @@
         <f t="array" ref="E61">_xll.FDS(A61,"FF_EPS(QTR_R,0)")</f>
         <v>26.654800000000002</v>
       </c>
-      <c r="F61" s="3" cm="1">
+      <c r="F61" cm="1">
         <f t="array" ref="F61">_xll.FDS(A61,"FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')")</f>
         <v>2.5099999999999998</v>
       </c>
@@ -3636,7 +3605,7 @@
         <f t="array" ref="E62">_xll.FDS(A62,"FF_EPS(QTR_R,0)")</f>
         <v>2.02</v>
       </c>
-      <c r="F62" s="3" cm="1">
+      <c r="F62" cm="1">
         <f t="array" ref="F62">_xll.FDS(A62,"FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')")</f>
         <v>2.02</v>
       </c>
@@ -3654,15 +3623,15 @@
       </c>
       <c r="D63" s="2" cm="1">
         <f t="array" ref="D63">_xll.FDS(A63,"JULIAN(FF_EPS(QTR_R,0).dates)")</f>
-        <v>45930</v>
+        <v>46022</v>
       </c>
       <c r="E63" cm="1">
         <f t="array" ref="E63">_xll.FDS(A63,"FF_EPS(QTR_R,0)")</f>
-        <v>84.403199999999998</v>
-      </c>
-      <c r="F63" s="3" cm="1">
+        <v>44.220100000000002</v>
+      </c>
+      <c r="F63" cm="1">
         <f t="array" ref="F63">_xll.FDS(A63,"FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')")</f>
-        <v>99.5</v>
+        <v>48.8</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.45">
@@ -3684,7 +3653,7 @@
         <f t="array" ref="E64">_xll.FDS(A64,"FF_EPS(QTR_R,0)")</f>
         <v>0.88129999999999997</v>
       </c>
-      <c r="F64" s="3" cm="1">
+      <c r="F64" cm="1">
         <f t="array" ref="F64">_xll.FDS(A64,"FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')")</f>
         <v>0.78</v>
       </c>
@@ -3702,15 +3671,15 @@
       </c>
       <c r="D65" s="2" cm="1">
         <f t="array" ref="D65">_xll.FDS(A65,"JULIAN(FF_EPS(QTR_R,0).dates)")</f>
-        <v>45930</v>
+        <v>46022</v>
       </c>
       <c r="E65" cm="1">
         <f t="array" ref="E65">_xll.FDS(A65,"FF_EPS(QTR_R,0)")</f>
-        <v>1.1032</v>
-      </c>
-      <c r="F65" s="3" cm="1">
+        <v>0.28399999999999997</v>
+      </c>
+      <c r="F65" cm="1">
         <f t="array" ref="F65">_xll.FDS(A65,"FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')")</f>
-        <v>1.88</v>
+        <v>1.1200000000000001</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.45">
@@ -3732,7 +3701,7 @@
         <f t="array" ref="E66">_xll.FDS(A66,"FF_EPS(QTR_R,0)")</f>
         <v>7.16</v>
       </c>
-      <c r="F66" s="3" cm="1">
+      <c r="F66" cm="1">
         <f t="array" ref="F66">_xll.FDS(A66,"FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')")</f>
         <v>13.16</v>
       </c>
@@ -3756,7 +3725,7 @@
         <f t="array" ref="E67">_xll.FDS(A67,"FF_EPS(QTR_R,0)")</f>
         <v>0.53259999999999996</v>
       </c>
-      <c r="F67" s="3" cm="1">
+      <c r="F67" cm="1">
         <f t="array" ref="F67">_xll.FDS(A67,"FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')")</f>
         <v>1.26</v>
       </c>
@@ -3780,7 +3749,7 @@
         <f t="array" ref="E68">_xll.FDS(A68,"FF_EPS(QTR_R,0)")</f>
         <v>2.4180000000000001</v>
       </c>
-      <c r="F68" s="3" cm="1">
+      <c r="F68" cm="1">
         <f t="array" ref="F68">_xll.FDS(A68,"FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')")</f>
         <v>1.59</v>
       </c>
@@ -3804,7 +3773,7 @@
         <f t="array" ref="E69">_xll.FDS(A69,"FF_EPS(QTR_R,0)")</f>
         <v>14.275</v>
       </c>
-      <c r="F69" s="3" cm="1">
+      <c r="F69" cm="1">
         <f t="array" ref="F69">_xll.FDS(A69,"FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')")</f>
         <v>6.2557479999999996</v>
       </c>
@@ -3828,7 +3797,7 @@
         <f t="array" ref="E70">_xll.FDS(A70,"FF_EPS(QTR_R,0)")</f>
         <v>0.59</v>
       </c>
-      <c r="F70" s="3" cm="1">
+      <c r="F70" cm="1">
         <f t="array" ref="F70">_xll.FDS(A70,"FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')")</f>
         <v>0.93</v>
       </c>
@@ -3852,7 +3821,7 @@
         <f t="array" ref="E71">_xll.FDS(A71,"FF_EPS(QTR_R,0)")</f>
         <v>0.44929999999999998</v>
       </c>
-      <c r="F71" s="3" cm="1">
+      <c r="F71" cm="1">
         <f t="array" ref="F71">_xll.FDS(A71,"FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')")</f>
         <v>0.8</v>
       </c>
@@ -3876,7 +3845,7 @@
         <f t="array" ref="E72">_xll.FDS(A72,"FF_EPS(QTR_R,0)")</f>
         <v>-1.2654000000000001</v>
       </c>
-      <c r="F72" s="3" cm="1">
+      <c r="F72" cm="1">
         <f t="array" ref="F72">_xll.FDS(A72,"FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')")</f>
         <v>1.35</v>
       </c>
@@ -3900,7 +3869,7 @@
         <f t="array" ref="E73">_xll.FDS(A73,"FF_EPS(QTR_R,0)")</f>
         <v>1.2962</v>
       </c>
-      <c r="F73" s="3" cm="1">
+      <c r="F73" cm="1">
         <f t="array" ref="F73">_xll.FDS(A73,"FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')")</f>
         <v>1.75</v>
       </c>
@@ -3924,7 +3893,7 @@
         <f t="array" ref="E74">_xll.FDS(A74,"FF_EPS(QTR_R,0)")</f>
         <v>1.5617000000000001</v>
       </c>
-      <c r="F74" s="3" cm="1">
+      <c r="F74" cm="1">
         <f t="array" ref="F74">_xll.FDS(A74,"FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')")</f>
         <v>1.56</v>
       </c>
@@ -3948,7 +3917,7 @@
         <f t="array" ref="E75">_xll.FDS(A75,"FF_EPS(QTR_R,0)")</f>
         <v>1.1938</v>
       </c>
-      <c r="F75" s="3" cm="1">
+      <c r="F75" cm="1">
         <f t="array" ref="F75">_xll.FDS(A75,"FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')")</f>
         <v>1.19</v>
       </c>
@@ -3972,7 +3941,7 @@
         <f t="array" ref="E76">_xll.FDS(A76,"FF_EPS(QTR_R,0)")</f>
         <v>-1.3854</v>
       </c>
-      <c r="F76" s="3" cm="1">
+      <c r="F76" cm="1">
         <f t="array" ref="F76">_xll.FDS(A76,"FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')")</f>
         <v>0.45</v>
       </c>
@@ -3996,7 +3965,7 @@
         <f t="array" ref="E77">_xll.FDS(A77,"FF_EPS(QTR_R,0)")</f>
         <v>1.9704999999999999</v>
       </c>
-      <c r="F77" s="3" cm="1">
+      <c r="F77" cm="1">
         <f t="array" ref="F77">_xll.FDS(A77,"FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')")</f>
         <v>2.63</v>
       </c>
@@ -4020,7 +3989,7 @@
         <f t="array" ref="E78">_xll.FDS(A78,"FF_EPS(QTR_R,0)")</f>
         <v>6.2600000000000003E-2</v>
       </c>
-      <c r="F78" s="3" cm="1">
+      <c r="F78" cm="1">
         <f t="array" ref="F78">_xll.FDS(A78,"FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')")</f>
         <v>0.34</v>
       </c>
@@ -4044,7 +4013,7 @@
         <f t="array" ref="E79">_xll.FDS(A79,"FF_EPS(QTR_R,0)")</f>
         <v>5.1215000000000002</v>
       </c>
-      <c r="F79" s="3" cm="1">
+      <c r="F79" cm="1">
         <f t="array" ref="F79">_xll.FDS(A79,"FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')")</f>
         <v>5.16</v>
       </c>
@@ -4068,7 +4037,7 @@
         <f t="array" ref="E80">_xll.FDS(A80,"FF_EPS(QTR_R,0)")</f>
         <v>8.0958000000000006</v>
       </c>
-      <c r="F80" s="3" cm="1">
+      <c r="F80" cm="1">
         <f t="array" ref="F80">_xll.FDS(A80,"FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')")</f>
         <v>7.52</v>
       </c>
@@ -4092,7 +4061,7 @@
         <f t="array" ref="E81">_xll.FDS(A81,"FF_EPS(QTR_R,0)")</f>
         <v>2.97</v>
       </c>
-      <c r="F81" s="3" cm="1">
+      <c r="F81" cm="1">
         <f t="array" ref="F81">_xll.FDS(A81,"FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')")</f>
         <v>3.06</v>
       </c>
@@ -4116,7 +4085,7 @@
         <f t="array" ref="E82">_xll.FDS(A82,"FF_EPS(QTR_R,0)")</f>
         <v>1.3873</v>
       </c>
-      <c r="F82" s="3" cm="1">
+      <c r="F82" cm="1">
         <f t="array" ref="F82">_xll.FDS(A82,"FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')")</f>
         <v>2.73</v>
       </c>
@@ -4140,7 +4109,7 @@
         <f t="array" ref="E83">_xll.FDS(A83,"FF_EPS(QTR_R,0)")</f>
         <v>1.2723</v>
       </c>
-      <c r="F83" s="3" cm="1">
+      <c r="F83" cm="1">
         <f t="array" ref="F83">_xll.FDS(A83,"FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')")</f>
         <v>0.67</v>
       </c>
@@ -4164,7 +4133,7 @@
         <f t="array" ref="E84">_xll.FDS(A84,"FF_EPS(QTR_R,0)")</f>
         <v>0.31359999999999999</v>
       </c>
-      <c r="F84" s="3" cm="1">
+      <c r="F84" cm="1">
         <f t="array" ref="F84">_xll.FDS(A84,"FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')")</f>
         <v>0.34</v>
       </c>
@@ -4188,7 +4157,7 @@
         <f t="array" ref="E85">_xll.FDS(A85,"FF_EPS(QTR_R,0)")</f>
         <v>-1.2315</v>
       </c>
-      <c r="F85" s="3" cm="1">
+      <c r="F85" cm="1">
         <f t="array" ref="F85">_xll.FDS(A85,"FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')")</f>
         <v>0.37</v>
       </c>
@@ -4206,15 +4175,15 @@
       </c>
       <c r="D86" s="2" cm="1">
         <f t="array" ref="D86">_xll.FDS(A86,"JULIAN(FF_EPS(QTR_R,0).dates)")</f>
-        <v>45930</v>
+        <v>46022</v>
       </c>
       <c r="E86" cm="1">
         <f t="array" ref="E86">_xll.FDS(A86,"FF_EPS(QTR_R,0)")</f>
-        <v>1.0487</v>
-      </c>
-      <c r="F86" s="3" cm="1">
+        <v>1.4220999999999999</v>
+      </c>
+      <c r="F86" cm="1">
         <f t="array" ref="F86">_xll.FDS(A86,"FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')")</f>
-        <v>1.93</v>
+        <v>1.99</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.45">
@@ -4236,7 +4205,7 @@
         <f t="array" ref="E87">_xll.FDS(A87,"FF_EPS(QTR_R,0)")</f>
         <v>2.14</v>
       </c>
-      <c r="F87" s="3" cm="1">
+      <c r="F87" cm="1">
         <f t="array" ref="F87">_xll.FDS(A87,"FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')")</f>
         <v>2.57</v>
       </c>
@@ -4254,15 +4223,15 @@
       </c>
       <c r="D88" s="2" cm="1">
         <f t="array" ref="D88">_xll.FDS(A88,"JULIAN(FF_EPS(QTR_R,0).dates)")</f>
-        <v>45930</v>
+        <v>46022</v>
       </c>
       <c r="E88" cm="1">
         <f t="array" ref="E88">_xll.FDS(A88,"FF_EPS(QTR_R,0)")</f>
-        <v>-12.385199999999999</v>
-      </c>
-      <c r="F88" s="3" cm="1">
+        <v>0.17299999999999999</v>
+      </c>
+      <c r="F88" cm="1">
         <f t="array" ref="F88">_xll.FDS(A88,"FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')")</f>
-        <v>1.34</v>
+        <v>0.67</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.45">
@@ -4284,7 +4253,7 @@
         <f t="array" ref="E89">_xll.FDS(A89,"FF_EPS(QTR_R,0)")</f>
         <v>2.9712000000000001</v>
       </c>
-      <c r="F89" s="3" cm="1">
+      <c r="F89" cm="1">
         <f t="array" ref="F89">_xll.FDS(A89,"FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')")</f>
         <v>3.04</v>
       </c>
@@ -4302,15 +4271,15 @@
       </c>
       <c r="D90" s="2" cm="1">
         <f t="array" ref="D90">_xll.FDS(A90,"JULIAN(FF_EPS(QTR_R,0).dates)")</f>
-        <v>45930</v>
+        <v>46022</v>
       </c>
       <c r="E90" cm="1">
         <f t="array" ref="E90">_xll.FDS(A90,"FF_EPS(QTR_R,0)")</f>
-        <v>2.1898</v>
-      </c>
-      <c r="F90" s="3" cm="1">
+        <v>2.59</v>
+      </c>
+      <c r="F90" cm="1">
         <f t="array" ref="F90">_xll.FDS(A90,"FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')")</f>
-        <v>2.2768489999999999</v>
+        <v>2.724529</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.45">
@@ -4332,7 +4301,7 @@
         <f t="array" ref="E91">_xll.FDS(A91,"FF_EPS(QTR_R,0)")</f>
         <v>1.1265000000000001</v>
       </c>
-      <c r="F91" s="3" cm="1">
+      <c r="F91" cm="1">
         <f t="array" ref="F91">_xll.FDS(A91,"FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')")</f>
         <v>1.1299999999999999</v>
       </c>
@@ -4356,7 +4325,7 @@
         <f t="array" ref="E92">_xll.FDS(A92,"FF_EPS(QTR_R,0)")</f>
         <v>0.59889999999999999</v>
       </c>
-      <c r="F92" s="3" cm="1">
+      <c r="F92" cm="1">
         <f t="array" ref="F92">_xll.FDS(A92,"FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')")</f>
         <v>0.86</v>
       </c>
@@ -4380,7 +4349,7 @@
         <f t="array" ref="E93">_xll.FDS(A93,"FF_EPS(QTR_R,0)")</f>
         <v>1.1205000000000001</v>
       </c>
-      <c r="F93" s="3" cm="1">
+      <c r="F93" cm="1">
         <f t="array" ref="F93">_xll.FDS(A93,"FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')")</f>
         <v>1.23</v>
       </c>
@@ -4404,7 +4373,7 @@
         <f t="array" ref="E94">_xll.FDS(A94,"FF_EPS(QTR_R,0)")</f>
         <v>10.3314</v>
       </c>
-      <c r="F94" s="3" cm="1">
+      <c r="F94" cm="1">
         <f t="array" ref="F94">_xll.FDS(A94,"FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')")</f>
         <v>10.34</v>
       </c>
@@ -4428,7 +4397,7 @@
         <f t="array" ref="E95">_xll.FDS(A95,"FF_EPS(QTR_R,0)")</f>
         <v>4.6444000000000001</v>
       </c>
-      <c r="F95" s="3" cm="1">
+      <c r="F95" cm="1">
         <f t="array" ref="F95">_xll.FDS(A95,"FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')")</f>
         <v>8.08</v>
       </c>
@@ -4452,7 +4421,7 @@
         <f t="array" ref="E96">_xll.FDS(A96,"FF_EPS(QTR_R,0)")</f>
         <v>4.29</v>
       </c>
-      <c r="F96" s="3" cm="1">
+      <c r="F96" cm="1">
         <f t="array" ref="F96">_xll.FDS(A96,"FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')")</f>
         <v>3.37</v>
       </c>
@@ -4476,7 +4445,7 @@
         <f t="array" ref="E97">_xll.FDS(A97,"FF_EPS(QTR_R,0)")</f>
         <v>-4.5999999999999999E-2</v>
       </c>
-      <c r="F97" s="3" cm="1">
+      <c r="F97" cm="1">
         <f t="array" ref="F97">_xll.FDS(A97,"FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')")</f>
         <v>0.95</v>
       </c>
@@ -4500,7 +4469,7 @@
         <f t="array" ref="E98">_xll.FDS(A98,"FF_EPS(QTR_R,0)")</f>
         <v>1.2878000000000001</v>
       </c>
-      <c r="F98" s="3" cm="1">
+      <c r="F98" cm="1">
         <f t="array" ref="F98">_xll.FDS(A98,"FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')")</f>
         <v>1.39</v>
       </c>
@@ -4524,7 +4493,7 @@
         <f t="array" ref="E99">_xll.FDS(A99,"FF_EPS(QTR_R,0)")</f>
         <v>1.27</v>
       </c>
-      <c r="F99" s="3" cm="1">
+      <c r="F99" cm="1">
         <f t="array" ref="F99">_xll.FDS(A99,"FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')")</f>
         <v>1.27</v>
       </c>
@@ -4548,7 +4517,7 @@
         <f t="array" ref="E100">_xll.FDS(A100,"FF_EPS(QTR_R,0)")</f>
         <v>0.59630000000000005</v>
       </c>
-      <c r="F100" s="3" cm="1">
+      <c r="F100" cm="1">
         <f t="array" ref="F100">_xll.FDS(A100,"FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')")</f>
         <v>0.84</v>
       </c>
@@ -4572,7 +4541,7 @@
         <f t="array" ref="E101">_xll.FDS(A101,"FF_EPS(QTR_R,0)")</f>
         <v>3.24</v>
       </c>
-      <c r="F101" s="3" cm="1">
+      <c r="F101" cm="1">
         <f t="array" ref="F101">_xll.FDS(A101,"FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')")</f>
         <v>2.77</v>
       </c>
@@ -4596,7 +4565,7 @@
         <f t="array" ref="E102">_xll.FDS(A102,"FF_EPS(QTR_R,0)")</f>
         <v>0.25069999999999998</v>
       </c>
-      <c r="F102" s="3" cm="1">
+      <c r="F102" cm="1">
         <f t="array" ref="F102">_xll.FDS(A102,"FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')")</f>
         <v>0.25</v>
       </c>
@@ -4620,7 +4589,7 @@
         <f t="array" ref="E103">_xll.FDS(A103,"FF_EPS(QTR_R,0)")</f>
         <v>4.2662000000000004</v>
       </c>
-      <c r="F103" s="3" cm="1">
+      <c r="F103" cm="1">
         <f t="array" ref="F103">_xll.FDS(A103,"FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')")</f>
         <v>5.8383450000000003</v>
       </c>
@@ -4644,7 +4613,7 @@
         <f t="array" ref="E104">_xll.FDS(A104,"FF_EPS(QTR_R,0)")</f>
         <v>0.93520000000000003</v>
       </c>
-      <c r="F104" s="3" cm="1">
+      <c r="F104" cm="1">
         <f t="array" ref="F104">_xll.FDS(A104,"FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')")</f>
         <v>0.95</v>
       </c>
@@ -4668,7 +4637,7 @@
         <f t="array" ref="E105">_xll.FDS(A105,"FF_EPS(QTR_R,0)")</f>
         <v>-2.2399</v>
       </c>
-      <c r="F105" s="3" cm="1">
+      <c r="F105" cm="1">
         <f t="array" ref="F105">_xll.FDS(A105,"FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')")</f>
         <v>-1.19</v>
       </c>
@@ -4686,15 +4655,15 @@
       </c>
       <c r="D106" s="2" cm="1">
         <f t="array" ref="D106">_xll.FDS(A106,"JULIAN(FF_EPS(QTR_R,0).dates)")</f>
-        <v>45930</v>
+        <v>46022</v>
       </c>
       <c r="E106" cm="1">
         <f t="array" ref="E106">_xll.FDS(A106,"FF_EPS(QTR_R,0)")</f>
-        <v>0.4466</v>
-      </c>
-      <c r="F106" s="3" cm="1">
+        <v>0.40439999999999998</v>
+      </c>
+      <c r="F106" cm="1">
         <f t="array" ref="F106">_xll.FDS(A106,"FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')")</f>
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.45">
@@ -4716,7 +4685,7 @@
         <f t="array" ref="E107">_xll.FDS(A107,"FF_EPS(QTR_R,0)")</f>
         <v>4.8257000000000003</v>
       </c>
-      <c r="F107" s="3" cm="1">
+      <c r="F107" cm="1">
         <f t="array" ref="F107">_xll.FDS(A107,"FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')")</f>
         <v>3.86</v>
       </c>
@@ -4740,7 +4709,7 @@
         <f t="array" ref="E108">_xll.FDS(A108,"FF_EPS(QTR_R,0)")</f>
         <v>0.42709999999999998</v>
       </c>
-      <c r="F108" s="3" cm="1">
+      <c r="F108" cm="1">
         <f t="array" ref="F108">_xll.FDS(A108,"FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')")</f>
         <v>1.1499999999999999</v>
       </c>
@@ -4762,9 +4731,9 @@
       </c>
       <c r="E109" cm="1">
         <f t="array" ref="E109">_xll.FDS(A109,"FF_EPS(QTR_R,0)")</f>
-        <v>1.1686000000000001</v>
-      </c>
-      <c r="F109" s="3" cm="1">
+        <v>1.1646000000000001</v>
+      </c>
+      <c r="F109" cm="1">
         <f t="array" ref="F109">_xll.FDS(A109,"FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')")</f>
         <v>1.02</v>
       </c>
@@ -4788,7 +4757,7 @@
         <f t="array" ref="E110">_xll.FDS(A110,"FF_EPS(QTR_R,0)")</f>
         <v>2.8653</v>
       </c>
-      <c r="F110" s="3" cm="1">
+      <c r="F110" cm="1">
         <f t="array" ref="F110">_xll.FDS(A110,"FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')")</f>
         <v>4.08</v>
       </c>
@@ -4812,7 +4781,7 @@
         <f t="array" ref="E111">_xll.FDS(A111,"FF_EPS(QTR_R,0)")</f>
         <v>4.5015000000000001</v>
       </c>
-      <c r="F111" s="3" cm="1">
+      <c r="F111" cm="1">
         <f t="array" ref="F111">_xll.FDS(A111,"FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')")</f>
         <v>4.5</v>
       </c>
@@ -4836,7 +4805,7 @@
         <f t="array" ref="E112">_xll.FDS(A112,"FF_EPS(QTR_R,0)")</f>
         <v>3.75</v>
       </c>
-      <c r="F112" s="3" cm="1">
+      <c r="F112" cm="1">
         <f t="array" ref="F112">_xll.FDS(A112,"FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')")</f>
         <v>6.04</v>
       </c>
@@ -4860,7 +4829,7 @@
         <f t="array" ref="E113">_xll.FDS(A113,"FF_EPS(QTR_R,0)")</f>
         <v>0.64880000000000004</v>
       </c>
-      <c r="F113" s="3" cm="1">
+      <c r="F113" cm="1">
         <f t="array" ref="F113">_xll.FDS(A113,"FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')")</f>
         <v>0.77</v>
       </c>
@@ -4884,7 +4853,7 @@
         <f t="array" ref="E114">_xll.FDS(A114,"FF_EPS(QTR_R,0)")</f>
         <v>0.41320000000000001</v>
       </c>
-      <c r="F114" s="3" cm="1">
+      <c r="F114" cm="1">
         <f t="array" ref="F114">_xll.FDS(A114,"FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')")</f>
         <v>0.41</v>
       </c>
@@ -4908,7 +4877,7 @@
         <f t="array" ref="E115">_xll.FDS(A115,"FF_EPS(QTR_R,0)")</f>
         <v>1.4335</v>
       </c>
-      <c r="F115" s="3" cm="1">
+      <c r="F115" cm="1">
         <f t="array" ref="F115">_xll.FDS(A115,"FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')")</f>
         <v>1.44</v>
       </c>
@@ -4926,15 +4895,15 @@
       </c>
       <c r="D116" s="2" cm="1">
         <f t="array" ref="D116">_xll.FDS(A116,"JULIAN(FF_EPS(QTR_R,0).dates)")</f>
-        <v>45930</v>
+        <v>46022</v>
       </c>
       <c r="E116" cm="1">
         <f t="array" ref="E116">_xll.FDS(A116,"FF_EPS(QTR_R,0)")</f>
-        <v>1.1011</v>
-      </c>
-      <c r="F116" s="3" cm="1">
+        <v>-5.6192000000000002</v>
+      </c>
+      <c r="F116" cm="1">
         <f t="array" ref="F116">_xll.FDS(A116,"FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')")</f>
-        <v>2.4300000000000002</v>
+        <v>2.39</v>
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.45">
@@ -4956,7 +4925,7 @@
         <f t="array" ref="E117">_xll.FDS(A117,"FF_EPS(QTR_R,0)")</f>
         <v>2.1911999999999998</v>
       </c>
-      <c r="F117" s="3" cm="1">
+      <c r="F117" cm="1">
         <f t="array" ref="F117">_xll.FDS(A117,"FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')")</f>
         <v>3.25</v>
       </c>
@@ -4980,7 +4949,7 @@
         <f t="array" ref="E118">_xll.FDS(A118,"FF_EPS(QTR_R,0)")</f>
         <v>-0.1353</v>
       </c>
-      <c r="F118" s="3" cm="1">
+      <c r="F118" cm="1">
         <f t="array" ref="F118">_xll.FDS(A118,"FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')")</f>
         <v>0.96</v>
       </c>
@@ -5002,9 +4971,9 @@
       </c>
       <c r="E119" cm="1">
         <f t="array" ref="E119">_xll.FDS(A119,"FF_EPS(QTR_R,0)")</f>
-        <v>0.8</v>
-      </c>
-      <c r="F119" s="3" cm="1">
+        <v>0.79690000000000005</v>
+      </c>
+      <c r="F119" cm="1">
         <f t="array" ref="F119">_xll.FDS(A119,"FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')")</f>
         <v>1.04</v>
       </c>
@@ -5028,7 +4997,7 @@
         <f t="array" ref="E120">_xll.FDS(A120,"FF_EPS(QTR_R,0)")</f>
         <v>-7.3599999999999999E-2</v>
       </c>
-      <c r="F120" s="3" cm="1">
+      <c r="F120" cm="1">
         <f t="array" ref="F120">_xll.FDS(A120,"FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')")</f>
         <v>0.23</v>
       </c>
@@ -5052,7 +5021,7 @@
         <f t="array" ref="E121">_xll.FDS(A121,"FF_EPS(QTR_R,0)")</f>
         <v>0.38629999999999998</v>
       </c>
-      <c r="F121" s="3" cm="1">
+      <c r="F121" cm="1">
         <f t="array" ref="F121">_xll.FDS(A121,"FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')")</f>
         <v>0.39</v>
       </c>
@@ -5076,7 +5045,7 @@
         <f t="array" ref="E122">_xll.FDS(A122,"FF_EPS(QTR_R,0)")</f>
         <v>1.2148000000000001</v>
       </c>
-      <c r="F122" s="3" cm="1">
+      <c r="F122" cm="1">
         <f t="array" ref="F122">_xll.FDS(A122,"FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')")</f>
         <v>1.21</v>
       </c>
@@ -5100,7 +5069,7 @@
         <f t="array" ref="E123">_xll.FDS(A123,"FF_EPS(QTR_R,0)")</f>
         <v>-0.70879999999999999</v>
       </c>
-      <c r="F123" s="3" t="e" cm="1">
+      <c r="F123" t="e" cm="1">
         <f t="array" ref="F123">_xll.FDS(A123,"FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')")</f>
         <v>#N/A</v>
       </c>
@@ -5124,7 +5093,7 @@
         <f t="array" ref="E124">_xll.FDS(A124,"FF_EPS(QTR_R,0)")</f>
         <v>0.41849999999999998</v>
       </c>
-      <c r="F124" s="3" cm="1">
+      <c r="F124" cm="1">
         <f t="array" ref="F124">_xll.FDS(A124,"FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')")</f>
         <v>0.41</v>
       </c>
@@ -5148,7 +5117,7 @@
         <f t="array" ref="E125">_xll.FDS(A125,"FF_EPS(QTR_R,0)")</f>
         <v>1.3444</v>
       </c>
-      <c r="F125" s="3" cm="1">
+      <c r="F125" cm="1">
         <f t="array" ref="F125">_xll.FDS(A125,"FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')")</f>
         <v>1.35</v>
       </c>
@@ -5172,7 +5141,7 @@
         <f t="array" ref="E126">_xll.FDS(A126,"FF_EPS(QTR_R,0)")</f>
         <v>-0.81810000000000005</v>
       </c>
-      <c r="F126" s="3" cm="1">
+      <c r="F126" cm="1">
         <f t="array" ref="F126">_xll.FDS(A126,"FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')")</f>
         <v>0.22</v>
       </c>
@@ -5196,7 +5165,7 @@
         <f t="array" ref="E127">_xll.FDS(A127,"FF_EPS(QTR_R,0)")</f>
         <v>2.3046000000000002</v>
       </c>
-      <c r="F127" s="3" cm="1">
+      <c r="F127" cm="1">
         <f t="array" ref="F127">_xll.FDS(A127,"FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')")</f>
         <v>1.0900000000000001</v>
       </c>
@@ -5220,7 +5189,7 @@
         <f t="array" ref="E128">_xll.FDS(A128,"FF_EPS(QTR_R,0)")</f>
         <v>1.39</v>
       </c>
-      <c r="F128" s="3" cm="1">
+      <c r="F128" cm="1">
         <f t="array" ref="F128">_xll.FDS(A128,"FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')")</f>
         <v>1.52</v>
       </c>
@@ -5238,15 +5207,15 @@
       </c>
       <c r="D129" s="2" cm="1">
         <f t="array" ref="D129">_xll.FDS(A129,"JULIAN(FF_EPS(QTR_R,0).dates)")</f>
-        <v>45930</v>
+        <v>46022</v>
       </c>
       <c r="E129" cm="1">
         <f t="array" ref="E129">_xll.FDS(A129,"FF_EPS(QTR_R,0)")</f>
-        <v>-0.26569999999999999</v>
-      </c>
-      <c r="F129" s="3" cm="1">
+        <v>-1.2315</v>
+      </c>
+      <c r="F129" cm="1">
         <f t="array" ref="F129">_xll.FDS(A129,"FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')")</f>
-        <v>-0.27</v>
+        <v>-1.23</v>
       </c>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.45">
@@ -5268,7 +5237,7 @@
         <f t="array" ref="E130">_xll.FDS(A130,"FF_EPS(QTR_R,0)")</f>
         <v>1.1632</v>
       </c>
-      <c r="F130" s="3" cm="1">
+      <c r="F130" cm="1">
         <f t="array" ref="F130">_xll.FDS(A130,"FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')")</f>
         <v>1.06</v>
       </c>
@@ -5292,7 +5261,7 @@
         <f t="array" ref="E131">_xll.FDS(A131,"FF_EPS(QTR_R,0)")</f>
         <v>1.8582000000000001</v>
       </c>
-      <c r="F131" s="3" cm="1">
+      <c r="F131" cm="1">
         <f t="array" ref="F131">_xll.FDS(A131,"FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')")</f>
         <v>1.55</v>
       </c>
@@ -5316,7 +5285,7 @@
         <f t="array" ref="E132">_xll.FDS(A132,"FF_EPS(QTR_R,0)")</f>
         <v>-1.2315</v>
       </c>
-      <c r="F132" s="3" cm="1">
+      <c r="F132" cm="1">
         <f t="array" ref="F132">_xll.FDS(A132,"FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')")</f>
         <v>0.37</v>
       </c>
@@ -5340,7 +5309,7 @@
         <f t="array" ref="E133">_xll.FDS(A133,"FF_EPS(QTR_R,0)")</f>
         <v>-0.30459999999999998</v>
       </c>
-      <c r="F133" s="3" cm="1">
+      <c r="F133" cm="1">
         <f t="array" ref="F133">_xll.FDS(A133,"FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')")</f>
         <v>0.46</v>
       </c>
@@ -5358,15 +5327,15 @@
       </c>
       <c r="D134" s="2" cm="1">
         <f t="array" ref="D134">_xll.FDS(A134,"JULIAN(FF_EPS(QTR_R,0).dates)")</f>
-        <v>45961</v>
+        <v>46052</v>
       </c>
       <c r="E134" cm="1">
         <f t="array" ref="E134">_xll.FDS(A134,"FF_EPS(QTR_R,0)")</f>
-        <v>3.9283999999999999</v>
-      </c>
-      <c r="F134" s="3" cm="1">
+        <v>2.42</v>
+      </c>
+      <c r="F134" cm="1">
         <f t="array" ref="F134">_xll.FDS(A134,"FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')")</f>
-        <v>3.93</v>
+        <v>2.42</v>
       </c>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.45">
@@ -5388,7 +5357,7 @@
         <f t="array" ref="E135">_xll.FDS(A135,"FF_EPS(QTR_R,0)")</f>
         <v>3.3346</v>
       </c>
-      <c r="F135" s="3" cm="1">
+      <c r="F135" cm="1">
         <f t="array" ref="F135">_xll.FDS(A135,"FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')")</f>
         <v>3.33</v>
       </c>
@@ -5412,7 +5381,7 @@
         <f t="array" ref="E136">_xll.FDS(A136,"FF_EPS(QTR_R,0)")</f>
         <v>4.2420999999999998</v>
       </c>
-      <c r="F136" s="3" t="e" cm="1">
+      <c r="F136" t="e" cm="1">
         <f t="array" ref="F136">_xll.FDS(A136,"FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')")</f>
         <v>#N/A</v>
       </c>
@@ -5436,7 +5405,7 @@
         <f t="array" ref="E137">_xll.FDS(A137,"FF_EPS(QTR_R,0)")</f>
         <v>1.2791999999999999</v>
       </c>
-      <c r="F137" s="3" cm="1">
+      <c r="F137" cm="1">
         <f t="array" ref="F137">_xll.FDS(A137,"FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')")</f>
         <v>1.28</v>
       </c>
@@ -5460,7 +5429,7 @@
         <f t="array" ref="E138">_xll.FDS(A138,"FF_EPS(QTR_R,0)")</f>
         <v>2.1800000000000002</v>
       </c>
-      <c r="F138" s="3" cm="1">
+      <c r="F138" cm="1">
         <f t="array" ref="F138">_xll.FDS(A138,"FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')")</f>
         <v>2.42</v>
       </c>
@@ -5484,7 +5453,7 @@
         <f t="array" ref="E139">_xll.FDS(A139,"FF_EPS(QTR_R,0)")</f>
         <v>2.028</v>
       </c>
-      <c r="F139" s="3" cm="1">
+      <c r="F139" cm="1">
         <f t="array" ref="F139">_xll.FDS(A139,"FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')")</f>
         <v>2.0299999999999998</v>
       </c>
@@ -5508,7 +5477,7 @@
         <f t="array" ref="E140">_xll.FDS(A140,"FF_EPS(QTR_R,0)")</f>
         <v>1.68</v>
       </c>
-      <c r="F140" s="3" cm="1">
+      <c r="F140" cm="1">
         <f t="array" ref="F140">_xll.FDS(A140,"FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')")</f>
         <v>2.23</v>
       </c>
@@ -5532,7 +5501,7 @@
         <f t="array" ref="E141">_xll.FDS(A141,"FF_EPS(QTR_R,0)")</f>
         <v>1.3395999999999999</v>
       </c>
-      <c r="F141" s="3" cm="1">
+      <c r="F141" cm="1">
         <f t="array" ref="F141">_xll.FDS(A141,"FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')")</f>
         <v>1.63</v>
       </c>
@@ -5556,7 +5525,7 @@
         <f t="array" ref="E142">_xll.FDS(A142,"FF_EPS(QTR_R,0)")</f>
         <v>1.2001999999999999</v>
       </c>
-      <c r="F142" s="3" cm="1">
+      <c r="F142" cm="1">
         <f t="array" ref="F142">_xll.FDS(A142,"FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')")</f>
         <v>1.21</v>
       </c>
@@ -5580,7 +5549,7 @@
         <f t="array" ref="E143">_xll.FDS(A143,"FF_EPS(QTR_R,0)")</f>
         <v>2.0615999999999999</v>
       </c>
-      <c r="F143" s="3" cm="1">
+      <c r="F143" cm="1">
         <f t="array" ref="F143">_xll.FDS(A143,"FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')")</f>
         <v>2.5099999999999998</v>
       </c>
@@ -5604,7 +5573,7 @@
         <f t="array" ref="E144">_xll.FDS(A144,"FF_EPS(QTR_R,0)")</f>
         <v>-2.1511999999999998</v>
       </c>
-      <c r="F144" s="3" cm="1">
+      <c r="F144" cm="1">
         <f t="array" ref="F144">_xll.FDS(A144,"FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')")</f>
         <v>-0.34</v>
       </c>
@@ -5628,7 +5597,7 @@
         <f t="array" ref="E145">_xll.FDS(A145,"FF_EPS(QTR_R,0)")</f>
         <v>4.08</v>
       </c>
-      <c r="F145" s="3" cm="1">
+      <c r="F145" cm="1">
         <f t="array" ref="F145">_xll.FDS(A145,"FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')")</f>
         <v>4.08</v>
       </c>
@@ -5652,7 +5621,7 @@
         <f t="array" ref="E146">_xll.FDS(A146,"FF_EPS(QTR_R,0)")</f>
         <v>2.0326</v>
       </c>
-      <c r="F146" s="3" cm="1">
+      <c r="F146" cm="1">
         <f t="array" ref="F146">_xll.FDS(A146,"FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')")</f>
         <v>2.08</v>
       </c>
@@ -5670,15 +5639,15 @@
       </c>
       <c r="D147" s="2" cm="1">
         <f t="array" ref="D147">_xll.FDS(A147,"JULIAN(FF_EPS(QTR_R,0).dates)")</f>
-        <v>45930</v>
+        <v>46022</v>
       </c>
       <c r="E147" cm="1">
         <f t="array" ref="E147">_xll.FDS(A147,"FF_EPS(QTR_R,0)")</f>
-        <v>2.0192999999999999</v>
-      </c>
-      <c r="F147" s="3" cm="1">
+        <v>1.7762</v>
+      </c>
+      <c r="F147" cm="1">
         <f t="array" ref="F147">_xll.FDS(A147,"FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')")</f>
-        <v>2.25</v>
+        <v>1.65</v>
       </c>
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.45">
@@ -5700,7 +5669,7 @@
         <f t="array" ref="E148">_xll.FDS(A148,"FF_EPS(QTR_R,0)")</f>
         <v>1.5025999999999999</v>
       </c>
-      <c r="F148" s="3" cm="1">
+      <c r="F148" cm="1">
         <f t="array" ref="F148">_xll.FDS(A148,"FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')")</f>
         <v>1.5</v>
       </c>
@@ -5724,7 +5693,7 @@
         <f t="array" ref="E149">_xll.FDS(A149,"FF_EPS(QTR_R,0)")</f>
         <v>2.9359000000000002</v>
       </c>
-      <c r="F149" s="3" cm="1">
+      <c r="F149" cm="1">
         <f t="array" ref="F149">_xll.FDS(A149,"FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')")</f>
         <v>3.4</v>
       </c>
@@ -5742,15 +5711,15 @@
       </c>
       <c r="D150" s="2" cm="1">
         <f t="array" ref="D150">_xll.FDS(A150,"JULIAN(FF_EPS(QTR_R,0).dates)")</f>
-        <v>45930</v>
+        <v>46022</v>
       </c>
       <c r="E150" cm="1">
         <f t="array" ref="E150">_xll.FDS(A150,"FF_EPS(QTR_R,0)")</f>
-        <v>1.0922000000000001</v>
-      </c>
-      <c r="F150" s="3" cm="1">
+        <v>0.90349999999999997</v>
+      </c>
+      <c r="F150" cm="1">
         <f t="array" ref="F150">_xll.FDS(A150,"FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')")</f>
-        <v>1.04</v>
+        <v>0.82</v>
       </c>
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.45">
@@ -5772,7 +5741,7 @@
         <f t="array" ref="E151">_xll.FDS(A151,"FF_EPS(QTR_R,0)")</f>
         <v>0.67610000000000003</v>
       </c>
-      <c r="F151" s="3" cm="1">
+      <c r="F151" cm="1">
         <f t="array" ref="F151">_xll.FDS(A151,"FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')")</f>
         <v>0.68</v>
       </c>
@@ -5796,7 +5765,7 @@
         <f t="array" ref="E152">_xll.FDS(A152,"FF_EPS(QTR_R,0)")</f>
         <v>0.3478</v>
       </c>
-      <c r="F152" s="3" cm="1">
+      <c r="F152" cm="1">
         <f t="array" ref="F152">_xll.FDS(A152,"FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')")</f>
         <v>4.8756919999999999</v>
       </c>
@@ -5814,15 +5783,15 @@
       </c>
       <c r="D153" s="2" cm="1">
         <f t="array" ref="D153">_xll.FDS(A153,"JULIAN(FF_EPS(QTR_R,0).dates)")</f>
-        <v>45930</v>
+        <v>46022</v>
       </c>
       <c r="E153" cm="1">
         <f t="array" ref="E153">_xll.FDS(A153,"FF_EPS(QTR_R,0)")</f>
-        <v>1.3532999999999999</v>
-      </c>
-      <c r="F153" s="3" cm="1">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="F153" cm="1">
         <f t="array" ref="F153">_xll.FDS(A153,"FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')")</f>
-        <v>1.36</v>
+        <v>1.41</v>
       </c>
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.45">
@@ -5844,7 +5813,7 @@
         <f t="array" ref="E154">_xll.FDS(A154,"FF_EPS(QTR_R,0)")</f>
         <v>1.98</v>
       </c>
-      <c r="F154" s="3" cm="1">
+      <c r="F154" cm="1">
         <f t="array" ref="F154">_xll.FDS(A154,"FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')")</f>
         <v>2.08</v>
       </c>
@@ -5868,7 +5837,7 @@
         <f t="array" ref="E155">_xll.FDS(A155,"FF_EPS(QTR_R,0)")</f>
         <v>1.9011</v>
       </c>
-      <c r="F155" s="3" cm="1">
+      <c r="F155" cm="1">
         <f t="array" ref="F155">_xll.FDS(A155,"FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')")</f>
         <v>1.9</v>
       </c>
@@ -5892,7 +5861,7 @@
         <f t="array" ref="E156">_xll.FDS(A156,"FF_EPS(QTR_R,0)")</f>
         <v>1.44</v>
       </c>
-      <c r="F156" s="3" cm="1">
+      <c r="F156" cm="1">
         <f t="array" ref="F156">_xll.FDS(A156,"FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')")</f>
         <v>2.09</v>
       </c>
@@ -5910,15 +5879,15 @@
       </c>
       <c r="D157" s="2" cm="1">
         <f t="array" ref="D157">_xll.FDS(A157,"JULIAN(FF_EPS(QTR_R,0).dates)")</f>
-        <v>45930</v>
+        <v>46022</v>
       </c>
       <c r="E157" cm="1">
         <f t="array" ref="E157">_xll.FDS(A157,"FF_EPS(QTR_R,0)")</f>
-        <v>2.1554000000000002</v>
-      </c>
-      <c r="F157" s="3" cm="1">
+        <v>4.8000999999999996</v>
+      </c>
+      <c r="F157" cm="1">
         <f t="array" ref="F157">_xll.FDS(A157,"FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')")</f>
-        <v>2.34</v>
+        <v>1.86</v>
       </c>
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.45">
@@ -5940,7 +5909,7 @@
         <f t="array" ref="E158">_xll.FDS(A158,"FF_EPS(QTR_R,0)")</f>
         <v>0.44409999999999999</v>
       </c>
-      <c r="F158" s="3" cm="1">
+      <c r="F158" cm="1">
         <f t="array" ref="F158">_xll.FDS(A158,"FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')")</f>
         <v>0.87</v>
       </c>
@@ -5964,7 +5933,7 @@
         <f t="array" ref="E159">_xll.FDS(A159,"FF_EPS(QTR_R,0)")</f>
         <v>0.91379999999999995</v>
       </c>
-      <c r="F159" s="3" cm="1">
+      <c r="F159" cm="1">
         <f t="array" ref="F159">_xll.FDS(A159,"FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')")</f>
         <v>0.75</v>
       </c>
@@ -5988,7 +5957,7 @@
         <f t="array" ref="E160">_xll.FDS(A160,"FF_EPS(QTR_R,0)")</f>
         <v>1.0725</v>
       </c>
-      <c r="F160" s="3" cm="1">
+      <c r="F160" cm="1">
         <f t="array" ref="F160">_xll.FDS(A160,"FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')")</f>
         <v>1.46</v>
       </c>
@@ -6010,9 +5979,9 @@
       </c>
       <c r="E161" cm="1">
         <f t="array" ref="E161">_xll.FDS(A161,"FF_EPS(QTR_R,0)")</f>
-        <v>0.28999999999999998</v>
-      </c>
-      <c r="F161" s="3" cm="1">
+        <v>0.29559999999999997</v>
+      </c>
+      <c r="F161" cm="1">
         <f t="array" ref="F161">_xll.FDS(A161,"FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')")</f>
         <v>0.71</v>
       </c>
@@ -6036,7 +6005,7 @@
         <f t="array" ref="E162">_xll.FDS(A162,"FF_EPS(QTR_R,0)")</f>
         <v>2.7040000000000002</v>
       </c>
-      <c r="F162" s="3" cm="1">
+      <c r="F162" cm="1">
         <f t="array" ref="F162">_xll.FDS(A162,"FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')")</f>
         <v>2.71</v>
       </c>
@@ -6054,15 +6023,15 @@
       </c>
       <c r="D163" s="2" cm="1">
         <f t="array" ref="D163">_xll.FDS(A163,"JULIAN(FF_EPS(QTR_R,0).dates)")</f>
-        <v>45930</v>
+        <v>46022</v>
       </c>
       <c r="E163" cm="1">
         <f t="array" ref="E163">_xll.FDS(A163,"FF_EPS(QTR_R,0)")</f>
-        <v>1.9137</v>
-      </c>
-      <c r="F163" s="3" cm="1">
+        <v>1.98</v>
+      </c>
+      <c r="F163" cm="1">
         <f t="array" ref="F163">_xll.FDS(A163,"FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')")</f>
-        <v>3.08</v>
+        <v>3.26</v>
       </c>
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.45">
@@ -6084,7 +6053,7 @@
         <f t="array" ref="E164">_xll.FDS(A164,"FF_EPS(QTR_R,0)")</f>
         <v>2.6937000000000002</v>
       </c>
-      <c r="F164" s="3" cm="1">
+      <c r="F164" cm="1">
         <f t="array" ref="F164">_xll.FDS(A164,"FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')")</f>
         <v>2.69</v>
       </c>
@@ -6108,7 +6077,7 @@
         <f t="array" ref="E165">_xll.FDS(A165,"FF_EPS(QTR_R,0)")</f>
         <v>0.98199999999999998</v>
       </c>
-      <c r="F165" s="3" cm="1">
+      <c r="F165" cm="1">
         <f t="array" ref="F165">_xll.FDS(A165,"FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')")</f>
         <v>1</v>
       </c>
@@ -6126,15 +6095,15 @@
       </c>
       <c r="D166" s="2" cm="1">
         <f t="array" ref="D166">_xll.FDS(A166,"JULIAN(FF_EPS(QTR_R,0).dates)")</f>
-        <v>45930</v>
+        <v>46022</v>
       </c>
       <c r="E166" cm="1">
         <f t="array" ref="E166">_xll.FDS(A166,"FF_EPS(QTR_R,0)")</f>
-        <v>0.53449999999999998</v>
-      </c>
-      <c r="F166" s="3" cm="1">
+        <v>1.0769</v>
+      </c>
+      <c r="F166" cm="1">
         <f t="array" ref="F166">_xll.FDS(A166,"FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')")</f>
-        <v>0.52</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.45">
@@ -6156,7 +6125,7 @@
         <f t="array" ref="E167">_xll.FDS(A167,"FF_EPS(QTR_R,0)")</f>
         <v>1.1200000000000001</v>
       </c>
-      <c r="F167" s="3" cm="1">
+      <c r="F167" cm="1">
         <f t="array" ref="F167">_xll.FDS(A167,"FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')")</f>
         <v>1.1200000000000001</v>
       </c>
@@ -6180,7 +6149,7 @@
         <f t="array" ref="E168">_xll.FDS(A168,"FF_EPS(QTR_R,0)")</f>
         <v>1.2506999999999999</v>
       </c>
-      <c r="F168" s="3" cm="1">
+      <c r="F168" cm="1">
         <f t="array" ref="F168">_xll.FDS(A168,"FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')")</f>
         <v>1.25</v>
       </c>
@@ -6204,7 +6173,7 @@
         <f t="array" ref="E169">_xll.FDS(A169,"FF_EPS(QTR_R,0)")</f>
         <v>2.91</v>
       </c>
-      <c r="F169" s="3" cm="1">
+      <c r="F169" cm="1">
         <f t="array" ref="F169">_xll.FDS(A169,"FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')")</f>
         <v>3.33</v>
       </c>
@@ -6228,7 +6197,7 @@
         <f t="array" ref="E170">_xll.FDS(A170,"FF_EPS(QTR_R,0)")</f>
         <v>0.51</v>
       </c>
-      <c r="F170" s="3" cm="1">
+      <c r="F170" cm="1">
         <f t="array" ref="F170">_xll.FDS(A170,"FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')")</f>
         <v>0.51</v>
       </c>
@@ -6246,15 +6215,15 @@
       </c>
       <c r="D171" s="2" cm="1">
         <f t="array" ref="D171">_xll.FDS(A171,"JULIAN(FF_EPS(QTR_R,0).dates)")</f>
-        <v>45930</v>
+        <v>46022</v>
       </c>
       <c r="E171" cm="1">
         <f t="array" ref="E171">_xll.FDS(A171,"FF_EPS(QTR_R,0)")</f>
-        <v>2.0289999999999999</v>
-      </c>
-      <c r="F171" s="3" cm="1">
+        <v>0.36609999999999998</v>
+      </c>
+      <c r="F171" cm="1">
         <f t="array" ref="F171">_xll.FDS(A171,"FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')")</f>
-        <v>2.0299999999999998</v>
+        <v>0.42</v>
       </c>
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.45">
@@ -6276,7 +6245,7 @@
         <f t="array" ref="E172">_xll.FDS(A172,"FF_EPS(QTR_R,0)")</f>
         <v>0.15679999999999999</v>
       </c>
-      <c r="F172" s="3" cm="1">
+      <c r="F172" cm="1">
         <f t="array" ref="F172">_xll.FDS(A172,"FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')")</f>
         <v>0.57999999999999996</v>
       </c>
@@ -6300,7 +6269,7 @@
         <f t="array" ref="E173">_xll.FDS(A173,"FF_EPS(QTR_R,0)")</f>
         <v>0.58479999999999999</v>
       </c>
-      <c r="F173" s="3" cm="1">
+      <c r="F173" cm="1">
         <f t="array" ref="F173">_xll.FDS(A173,"FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')")</f>
         <v>0.59</v>
       </c>
@@ -6324,7 +6293,7 @@
         <f t="array" ref="E174">_xll.FDS(A174,"FF_EPS(QTR_R,0)")</f>
         <v>1.6429</v>
       </c>
-      <c r="F174" s="3" cm="1">
+      <c r="F174" cm="1">
         <f t="array" ref="F174">_xll.FDS(A174,"FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')")</f>
         <v>1.64</v>
       </c>
@@ -6348,7 +6317,7 @@
         <f t="array" ref="E175">_xll.FDS(A175,"FF_EPS(QTR_R,0)")</f>
         <v>1.5986</v>
       </c>
-      <c r="F175" s="3" cm="1">
+      <c r="F175" cm="1">
         <f t="array" ref="F175">_xll.FDS(A175,"FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')")</f>
         <v>3.78</v>
       </c>
@@ -6372,7 +6341,7 @@
         <f t="array" ref="E176">_xll.FDS(A176,"FF_EPS(QTR_R,0)")</f>
         <v>0.78110000000000002</v>
       </c>
-      <c r="F176" s="3" cm="1">
+      <c r="F176" cm="1">
         <f t="array" ref="F176">_xll.FDS(A176,"FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')")</f>
         <v>0.78</v>
       </c>
@@ -6396,7 +6365,7 @@
         <f t="array" ref="E177">_xll.FDS(A177,"FF_EPS(QTR_R,0)")</f>
         <v>-2.6286</v>
       </c>
-      <c r="F177" s="3" cm="1">
+      <c r="F177" cm="1">
         <f t="array" ref="F177">_xll.FDS(A177,"FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')")</f>
         <v>0.13</v>
       </c>
@@ -6420,7 +6389,7 @@
         <f t="array" ref="E178">_xll.FDS(A178,"FF_EPS(QTR_R,0)")</f>
         <v>3.5108000000000001</v>
       </c>
-      <c r="F178" s="3" cm="1">
+      <c r="F178" cm="1">
         <f t="array" ref="F178">_xll.FDS(A178,"FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')")</f>
         <v>3.08</v>
       </c>
@@ -6444,7 +6413,7 @@
         <f t="array" ref="E179">_xll.FDS(A179,"FF_EPS(QTR_R,0)")</f>
         <v>0.25559999999999999</v>
       </c>
-      <c r="F179" s="3" cm="1">
+      <c r="F179" cm="1">
         <f t="array" ref="F179">_xll.FDS(A179,"FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')")</f>
         <v>0.26</v>
       </c>
@@ -6468,7 +6437,7 @@
         <f t="array" ref="E180">_xll.FDS(A180,"FF_EPS(QTR_R,0)")</f>
         <v>45.781700000000001</v>
       </c>
-      <c r="F180" s="3" cm="1">
+      <c r="F180" cm="1">
         <f t="array" ref="F180">_xll.FDS(A180,"FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')")</f>
         <v>51.27</v>
       </c>
@@ -6492,7 +6461,7 @@
         <f t="array" ref="E181">_xll.FDS(A181,"FF_EPS(QTR_R,0)")</f>
         <v>0.28139999999999998</v>
       </c>
-      <c r="F181" s="3" cm="1">
+      <c r="F181" cm="1">
         <f t="array" ref="F181">_xll.FDS(A181,"FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')")</f>
         <v>0.47</v>
       </c>
@@ -6516,7 +6485,7 @@
         <f t="array" ref="E182">_xll.FDS(A182,"FF_EPS(QTR_R,0)")</f>
         <v>4.0564</v>
       </c>
-      <c r="F182" s="3" cm="1">
+      <c r="F182" cm="1">
         <f t="array" ref="F182">_xll.FDS(A182,"FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')")</f>
         <v>4.51</v>
       </c>
@@ -6540,7 +6509,7 @@
         <f t="array" ref="E183">_xll.FDS(A183,"FF_EPS(QTR_R,0)")</f>
         <v>4.0465999999999998</v>
       </c>
-      <c r="F183" s="3" cm="1">
+      <c r="F183" cm="1">
         <f t="array" ref="F183">_xll.FDS(A183,"FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')")</f>
         <v>4.82</v>
       </c>
@@ -6558,15 +6527,15 @@
       </c>
       <c r="D184" s="2" cm="1">
         <f t="array" ref="D184">_xll.FDS(A184,"JULIAN(FF_EPS(QTR_R,0).dates)")</f>
-        <v>45930</v>
+        <v>46022</v>
       </c>
       <c r="E184" cm="1">
         <f t="array" ref="E184">_xll.FDS(A184,"FF_EPS(QTR_R,0)")</f>
-        <v>0.76300000000000001</v>
-      </c>
-      <c r="F184" s="3" cm="1">
+        <v>-8.48E-2</v>
+      </c>
+      <c r="F184" cm="1">
         <f t="array" ref="F184">_xll.FDS(A184,"FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')")</f>
-        <v>0.83</v>
+        <v>0.53</v>
       </c>
     </row>
     <row r="185" spans="1:6" x14ac:dyDescent="0.45">
@@ -6588,7 +6557,7 @@
         <f t="array" ref="E185">_xll.FDS(A185,"FF_EPS(QTR_R,0)")</f>
         <v>3.0956000000000001</v>
       </c>
-      <c r="F185" s="3" cm="1">
+      <c r="F185" cm="1">
         <f t="array" ref="F185">_xll.FDS(A185,"FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')")</f>
         <v>4.45</v>
       </c>
@@ -6612,7 +6581,7 @@
         <f t="array" ref="E186">_xll.FDS(A186,"FF_EPS(QTR_R,0)")</f>
         <v>1.5102</v>
       </c>
-      <c r="F186" s="3" cm="1">
+      <c r="F186" cm="1">
         <f t="array" ref="F186">_xll.FDS(A186,"FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')")</f>
         <v>1.99</v>
       </c>
@@ -6636,7 +6605,7 @@
         <f t="array" ref="E187">_xll.FDS(A187,"FF_EPS(QTR_R,0)")</f>
         <v>6.6104000000000003</v>
       </c>
-      <c r="F187" s="3" cm="1">
+      <c r="F187" cm="1">
         <f t="array" ref="F187">_xll.FDS(A187,"FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')")</f>
         <v>7.33</v>
       </c>
@@ -6660,7 +6629,7 @@
         <f t="array" ref="E188">_xll.FDS(A188,"FF_EPS(QTR_R,0)")</f>
         <v>0.50480000000000003</v>
       </c>
-      <c r="F188" s="3" cm="1">
+      <c r="F188" cm="1">
         <f t="array" ref="F188">_xll.FDS(A188,"FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')")</f>
         <v>1.51</v>
       </c>
@@ -6684,7 +6653,7 @@
         <f t="array" ref="E189">_xll.FDS(A189,"FF_EPS(QTR_R,0)")</f>
         <v>1.0446</v>
       </c>
-      <c r="F189" s="3" cm="1">
+      <c r="F189" cm="1">
         <f t="array" ref="F189">_xll.FDS(A189,"FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')")</f>
         <v>1.04</v>
       </c>
@@ -6708,7 +6677,7 @@
         <f t="array" ref="E190">_xll.FDS(A190,"FF_EPS(QTR_R,0)")</f>
         <v>3.75</v>
       </c>
-      <c r="F190" s="3" cm="1">
+      <c r="F190" cm="1">
         <f t="array" ref="F190">_xll.FDS(A190,"FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')")</f>
         <v>6.04</v>
       </c>
@@ -6732,7 +6701,7 @@
         <f t="array" ref="E191">_xll.FDS(A191,"FF_EPS(QTR_R,0)")</f>
         <v>-13.744400000000001</v>
       </c>
-      <c r="F191" s="3" cm="1">
+      <c r="F191" cm="1">
         <f t="array" ref="F191">_xll.FDS(A191,"FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')")</f>
         <v>1.2</v>
       </c>
@@ -6756,7 +6725,7 @@
         <f t="array" ref="E192">_xll.FDS(A192,"FF_EPS(QTR_R,0)")</f>
         <v>0.51929999999999998</v>
       </c>
-      <c r="F192" s="3" cm="1">
+      <c r="F192" cm="1">
         <f t="array" ref="F192">_xll.FDS(A192,"FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')")</f>
         <v>0.82</v>
       </c>
@@ -6780,7 +6749,7 @@
         <f t="array" ref="E193">_xll.FDS(A193,"FF_EPS(QTR_R,0)")</f>
         <v>0.51929999999999998</v>
       </c>
-      <c r="F193" s="3" cm="1">
+      <c r="F193" cm="1">
         <f t="array" ref="F193">_xll.FDS(A193,"FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')")</f>
         <v>0.82</v>
       </c>
@@ -6804,7 +6773,7 @@
         <f t="array" ref="E194">_xll.FDS(A194,"FF_EPS(QTR_R,0)")</f>
         <v>1.4812000000000001</v>
       </c>
-      <c r="F194" s="3" cm="1">
+      <c r="F194" cm="1">
         <f t="array" ref="F194">_xll.FDS(A194,"FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')")</f>
         <v>1.48</v>
       </c>
@@ -6828,7 +6797,7 @@
         <f t="array" ref="E195">_xll.FDS(A195,"FF_EPS(QTR_R,0)")</f>
         <v>4.2397999999999998</v>
       </c>
-      <c r="F195" s="3" cm="1">
+      <c r="F195" cm="1">
         <f t="array" ref="F195">_xll.FDS(A195,"FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')")</f>
         <v>4.24</v>
       </c>
@@ -6852,7 +6821,7 @@
         <f t="array" ref="E196">_xll.FDS(A196,"FF_EPS(QTR_R,0)")</f>
         <v>0.67649999999999999</v>
       </c>
-      <c r="F196" s="3" cm="1">
+      <c r="F196" cm="1">
         <f t="array" ref="F196">_xll.FDS(A196,"FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')")</f>
         <v>0.81</v>
       </c>
@@ -6876,7 +6845,7 @@
         <f t="array" ref="E197">_xll.FDS(A197,"FF_EPS(QTR_R,0)")</f>
         <v>0.57999999999999996</v>
       </c>
-      <c r="F197" s="3" cm="1">
+      <c r="F197" cm="1">
         <f t="array" ref="F197">_xll.FDS(A197,"FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')")</f>
         <v>0.9</v>
       </c>
@@ -6900,7 +6869,7 @@
         <f t="array" ref="E198">_xll.FDS(A198,"FF_EPS(QTR_R,0)")</f>
         <v>4.1730999999999998</v>
       </c>
-      <c r="F198" s="3" cm="1">
+      <c r="F198" cm="1">
         <f t="array" ref="F198">_xll.FDS(A198,"FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')")</f>
         <v>4.17</v>
       </c>
@@ -6924,7 +6893,7 @@
         <f t="array" ref="E199">_xll.FDS(A199,"FF_EPS(QTR_R,0)")</f>
         <v>1.5136000000000001</v>
       </c>
-      <c r="F199" s="3" cm="1">
+      <c r="F199" cm="1">
         <f t="array" ref="F199">_xll.FDS(A199,"FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')")</f>
         <v>1.51</v>
       </c>
@@ -6948,7 +6917,7 @@
         <f t="array" ref="E200">_xll.FDS(A200,"FF_EPS(QTR_R,0)")</f>
         <v>2.3887</v>
       </c>
-      <c r="F200" s="3" cm="1">
+      <c r="F200" cm="1">
         <f t="array" ref="F200">_xll.FDS(A200,"FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')")</f>
         <v>1.57</v>
       </c>
@@ -6972,7 +6941,7 @@
         <f t="array" ref="E201">_xll.FDS(A201,"FF_EPS(QTR_R,0)")</f>
         <v>1.2887999999999999</v>
       </c>
-      <c r="F201" s="3" cm="1">
+      <c r="F201" cm="1">
         <f t="array" ref="F201">_xll.FDS(A201,"FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')")</f>
         <v>1.44</v>
       </c>
@@ -6996,7 +6965,7 @@
         <f t="array" ref="E202">_xll.FDS(A202,"FF_EPS(QTR_R,0)")</f>
         <v>0.31069999999999998</v>
       </c>
-      <c r="F202" s="3" cm="1">
+      <c r="F202" cm="1">
         <f t="array" ref="F202">_xll.FDS(A202,"FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')")</f>
         <v>0.64</v>
       </c>
@@ -7020,7 +6989,7 @@
         <f t="array" ref="E203">_xll.FDS(A203,"FF_EPS(QTR_R,0)")</f>
         <v>13.372299999999999</v>
       </c>
-      <c r="F203" s="3" cm="1">
+      <c r="F203" cm="1">
         <f t="array" ref="F203">_xll.FDS(A203,"FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')")</f>
         <v>13.477591</v>
       </c>
@@ -7044,7 +7013,7 @@
         <f t="array" ref="E204">_xll.FDS(A204,"FF_EPS(QTR_R,0)")</f>
         <v>1.74</v>
       </c>
-      <c r="F204" s="3" cm="1">
+      <c r="F204" cm="1">
         <f t="array" ref="F204">_xll.FDS(A204,"FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')")</f>
         <v>1.86</v>
       </c>
@@ -7068,7 +7037,7 @@
         <f t="array" ref="E205">_xll.FDS(A205,"FF_EPS(QTR_R,0)")</f>
         <v>0.76870000000000005</v>
       </c>
-      <c r="F205" s="3" cm="1">
+      <c r="F205" cm="1">
         <f t="array" ref="F205">_xll.FDS(A205,"FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')")</f>
         <v>1.1000000000000001</v>
       </c>
@@ -7092,7 +7061,7 @@
         <f t="array" ref="E206">_xll.FDS(A206,"FF_EPS(QTR_R,0)")</f>
         <v>3.29</v>
       </c>
-      <c r="F206" s="3" cm="1">
+      <c r="F206" cm="1">
         <f t="array" ref="F206">_xll.FDS(A206,"FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')")</f>
         <v>3.39</v>
       </c>
@@ -7116,7 +7085,7 @@
         <f t="array" ref="E207">_xll.FDS(A207,"FF_EPS(QTR_R,0)")</f>
         <v>0.62</v>
       </c>
-      <c r="F207" s="3" cm="1">
+      <c r="F207" cm="1">
         <f t="array" ref="F207">_xll.FDS(A207,"FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')")</f>
         <v>0.72</v>
       </c>
@@ -7140,7 +7109,7 @@
         <f t="array" ref="E208">_xll.FDS(A208,"FF_EPS(QTR_R,0)")</f>
         <v>-3.6</v>
       </c>
-      <c r="F208" s="3" cm="1">
+      <c r="F208" cm="1">
         <f t="array" ref="F208">_xll.FDS(A208,"FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')")</f>
         <v>2.5099999999999998</v>
       </c>
@@ -7164,7 +7133,7 @@
         <f t="array" ref="E209">_xll.FDS(A209,"FF_EPS(QTR_R,0)")</f>
         <v>-0.41959999999999997</v>
       </c>
-      <c r="F209" s="3" cm="1">
+      <c r="F209" cm="1">
         <f t="array" ref="F209">_xll.FDS(A209,"FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')")</f>
         <v>1.61</v>
       </c>
@@ -7188,7 +7157,7 @@
         <f t="array" ref="E210">_xll.FDS(A210,"FF_EPS(QTR_R,0)")</f>
         <v>2.8176999999999999</v>
       </c>
-      <c r="F210" s="3" cm="1">
+      <c r="F210" cm="1">
         <f t="array" ref="F210">_xll.FDS(A210,"FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')")</f>
         <v>2.82</v>
       </c>
@@ -7212,7 +7181,7 @@
         <f t="array" ref="E211">_xll.FDS(A211,"FF_EPS(QTR_R,0)")</f>
         <v>2.8176999999999999</v>
       </c>
-      <c r="F211" s="3" cm="1">
+      <c r="F211" cm="1">
         <f t="array" ref="F211">_xll.FDS(A211,"FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')")</f>
         <v>2.82</v>
       </c>
@@ -7230,15 +7199,15 @@
       </c>
       <c r="D212" s="2" cm="1">
         <f t="array" ref="D212">_xll.FDS(A212,"JULIAN(FF_EPS(QTR_R,0).dates)")</f>
-        <v>45930</v>
+        <v>46022</v>
       </c>
       <c r="E212" cm="1">
         <f t="array" ref="E212">_xll.FDS(A212,"FF_EPS(QTR_R,0)")</f>
-        <v>1.6224000000000001</v>
-      </c>
-      <c r="F212" s="3" cm="1">
+        <v>-4.3879000000000001</v>
+      </c>
+      <c r="F212" cm="1">
         <f t="array" ref="F212">_xll.FDS(A212,"FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')")</f>
-        <v>1.98</v>
+        <v>1.55</v>
       </c>
     </row>
     <row r="213" spans="1:6" x14ac:dyDescent="0.45">
@@ -7254,15 +7223,15 @@
       </c>
       <c r="D213" s="2" cm="1">
         <f t="array" ref="D213">_xll.FDS(A213,"JULIAN(FF_EPS(QTR_R,0).dates)")</f>
-        <v>45930</v>
+        <v>46022</v>
       </c>
       <c r="E213" cm="1">
         <f t="array" ref="E213">_xll.FDS(A213,"FF_EPS(QTR_R,0)")</f>
-        <v>2.6448</v>
-      </c>
-      <c r="F213" s="3" cm="1">
+        <v>0.91690000000000005</v>
+      </c>
+      <c r="F213" cm="1">
         <f t="array" ref="F213">_xll.FDS(A213,"FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')")</f>
-        <v>3.26</v>
+        <v>3.18</v>
       </c>
     </row>
     <row r="214" spans="1:6" x14ac:dyDescent="0.45">
@@ -7278,15 +7247,15 @@
       </c>
       <c r="D214" s="2" cm="1">
         <f t="array" ref="D214">_xll.FDS(A214,"JULIAN(FF_EPS(QTR_R,0).dates)")</f>
-        <v>45930</v>
+        <v>46022</v>
       </c>
       <c r="E214" cm="1">
         <f t="array" ref="E214">_xll.FDS(A214,"FF_EPS(QTR_R,0)")</f>
-        <v>2.0752000000000002</v>
-      </c>
-      <c r="F214" s="3" cm="1">
+        <v>2.7282999999999999</v>
+      </c>
+      <c r="F214" cm="1">
         <f t="array" ref="F214">_xll.FDS(A214,"FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')")</f>
-        <v>1.99</v>
+        <v>2.79</v>
       </c>
     </row>
     <row r="215" spans="1:6" x14ac:dyDescent="0.45">
@@ -7308,7 +7277,7 @@
         <f t="array" ref="E215">_xll.FDS(A215,"FF_EPS(QTR_R,0)")</f>
         <v>14.01</v>
       </c>
-      <c r="F215" s="3" cm="1">
+      <c r="F215" cm="1">
         <f t="array" ref="F215">_xll.FDS(A215,"FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')")</f>
         <v>14.01</v>
       </c>
@@ -7332,7 +7301,7 @@
         <f t="array" ref="E216">_xll.FDS(A216,"FF_EPS(QTR_R,0)")</f>
         <v>9.44</v>
       </c>
-      <c r="F216" s="3" cm="1">
+      <c r="F216" cm="1">
         <f t="array" ref="F216">_xll.FDS(A216,"FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')")</f>
         <v>9.44</v>
       </c>
@@ -7356,7 +7325,7 @@
         <f t="array" ref="E217">_xll.FDS(A217,"FF_EPS(QTR_R,0)")</f>
         <v>0.70120000000000005</v>
       </c>
-      <c r="F217" s="3" cm="1">
+      <c r="F217" cm="1">
         <f t="array" ref="F217">_xll.FDS(A217,"FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')")</f>
         <v>0.69</v>
       </c>
@@ -7380,7 +7349,7 @@
         <f t="array" ref="E218">_xll.FDS(A218,"FF_EPS(QTR_R,0)")</f>
         <v>1.41</v>
       </c>
-      <c r="F218" s="3" cm="1">
+      <c r="F218" cm="1">
         <f t="array" ref="F218">_xll.FDS(A218,"FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')")</f>
         <v>1.51</v>
       </c>
@@ -7404,7 +7373,7 @@
         <f t="array" ref="E219">_xll.FDS(A219,"FF_EPS(QTR_R,0)")</f>
         <v>0.30320000000000003</v>
       </c>
-      <c r="F219" s="3" cm="1">
+      <c r="F219" cm="1">
         <f t="array" ref="F219">_xll.FDS(A219,"FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')")</f>
         <v>0.3</v>
       </c>
@@ -7428,7 +7397,7 @@
         <f t="array" ref="E220">_xll.FDS(A220,"FF_EPS(QTR_R,0)")</f>
         <v>8.1401000000000003</v>
       </c>
-      <c r="F220" s="3" cm="1">
+      <c r="F220" cm="1">
         <f t="array" ref="F220">_xll.FDS(A220,"FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')")</f>
         <v>8.01</v>
       </c>
@@ -7452,7 +7421,7 @@
         <f t="array" ref="E221">_xll.FDS(A221,"FF_EPS(QTR_R,0)")</f>
         <v>3.6191</v>
       </c>
-      <c r="F221" s="3" cm="1">
+      <c r="F221" cm="1">
         <f t="array" ref="F221">_xll.FDS(A221,"FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')")</f>
         <v>3.74</v>
       </c>
@@ -7476,7 +7445,7 @@
         <f t="array" ref="E222">_xll.FDS(A222,"FF_EPS(QTR_R,0)")</f>
         <v>0.79290000000000005</v>
       </c>
-      <c r="F222" s="3" cm="1">
+      <c r="F222" cm="1">
         <f t="array" ref="F222">_xll.FDS(A222,"FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')")</f>
         <v>1.04</v>
       </c>
@@ -7500,7 +7469,7 @@
         <f t="array" ref="E223">_xll.FDS(A223,"FF_EPS(QTR_R,0)")</f>
         <v>0.46200000000000002</v>
       </c>
-      <c r="F223" s="3" cm="1">
+      <c r="F223" cm="1">
         <f t="array" ref="F223">_xll.FDS(A223,"FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')")</f>
         <v>2.59</v>
       </c>
@@ -7524,7 +7493,7 @@
         <f t="array" ref="E224">_xll.FDS(A224,"FF_EPS(QTR_R,0)")</f>
         <v>0.10730000000000001</v>
       </c>
-      <c r="F224" s="3" cm="1">
+      <c r="F224" cm="1">
         <f t="array" ref="F224">_xll.FDS(A224,"FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')")</f>
         <v>0.62</v>
       </c>
@@ -7548,7 +7517,7 @@
         <f t="array" ref="E225">_xll.FDS(A225,"FF_EPS(QTR_R,0)")</f>
         <v>0.83860000000000001</v>
       </c>
-      <c r="F225" s="3" cm="1">
+      <c r="F225" cm="1">
         <f t="array" ref="F225">_xll.FDS(A225,"FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')")</f>
         <v>0.93</v>
       </c>
@@ -7572,7 +7541,7 @@
         <f t="array" ref="E226">_xll.FDS(A226,"FF_EPS(QTR_R,0)")</f>
         <v>-0.10199999999999999</v>
       </c>
-      <c r="F226" s="3" cm="1">
+      <c r="F226" cm="1">
         <f t="array" ref="F226">_xll.FDS(A226,"FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')")</f>
         <v>0.32</v>
       </c>
@@ -7596,7 +7565,7 @@
         <f t="array" ref="E227">_xll.FDS(A227,"FF_EPS(QTR_R,0)")</f>
         <v>0.83450000000000002</v>
       </c>
-      <c r="F227" s="3" cm="1">
+      <c r="F227" cm="1">
         <f t="array" ref="F227">_xll.FDS(A227,"FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')")</f>
         <v>1.38</v>
       </c>
@@ -7614,15 +7583,15 @@
       </c>
       <c r="D228" s="2" cm="1">
         <f t="array" ref="D228">_xll.FDS(A228,"JULIAN(FF_EPS(QTR_R,0).dates)")</f>
-        <v>45930</v>
+        <v>46022</v>
       </c>
       <c r="E228" cm="1">
         <f t="array" ref="E228">_xll.FDS(A228,"FF_EPS(QTR_R,0)")</f>
-        <v>0.23350000000000001</v>
-      </c>
-      <c r="F228" s="3" cm="1">
+        <v>0.19550000000000001</v>
+      </c>
+      <c r="F228" cm="1">
         <f t="array" ref="F228">_xll.FDS(A228,"FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')")</f>
-        <v>0.23</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="229" spans="1:6" x14ac:dyDescent="0.45">
@@ -7642,9 +7611,9 @@
       </c>
       <c r="E229" cm="1">
         <f t="array" ref="E229">_xll.FDS(A229,"FF_EPS(QTR_R,0)")</f>
-        <v>1.57</v>
-      </c>
-      <c r="F229" s="3" cm="1">
+        <v>1.575</v>
+      </c>
+      <c r="F229" cm="1">
         <f t="array" ref="F229">_xll.FDS(A229,"FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')")</f>
         <v>1.71</v>
       </c>
@@ -7668,7 +7637,7 @@
         <f t="array" ref="E230">_xll.FDS(A230,"FF_EPS(QTR_R,0)")</f>
         <v>4.1832000000000003</v>
       </c>
-      <c r="F230" s="3" cm="1">
+      <c r="F230" cm="1">
         <f t="array" ref="F230">_xll.FDS(A230,"FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')")</f>
         <v>4.7300000000000004</v>
       </c>
@@ -7692,7 +7661,7 @@
         <f t="array" ref="E231">_xll.FDS(A231,"FF_EPS(QTR_R,0)")</f>
         <v>-6.6146000000000003</v>
       </c>
-      <c r="F231" s="3" cm="1">
+      <c r="F231" cm="1">
         <f t="array" ref="F231">_xll.FDS(A231,"FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')")</f>
         <v>-3.96</v>
       </c>
@@ -7716,7 +7685,7 @@
         <f t="array" ref="E232">_xll.FDS(A232,"FF_EPS(QTR_R,0)")</f>
         <v>0.92079999999999995</v>
       </c>
-      <c r="F232" s="3" cm="1">
+      <c r="F232" cm="1">
         <f t="array" ref="F232">_xll.FDS(A232,"FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')")</f>
         <v>1.05</v>
       </c>
@@ -7740,7 +7709,7 @@
         <f t="array" ref="E233">_xll.FDS(A233,"FF_EPS(QTR_R,0)")</f>
         <v>5.88</v>
       </c>
-      <c r="F233" s="3" cm="1">
+      <c r="F233" cm="1">
         <f t="array" ref="F233">_xll.FDS(A233,"FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')")</f>
         <v>4.5199999999999996</v>
       </c>
@@ -7764,7 +7733,7 @@
         <f t="array" ref="E234">_xll.FDS(A234,"FF_EPS(QTR_R,0)")</f>
         <v>1.4878</v>
       </c>
-      <c r="F234" s="3" cm="1">
+      <c r="F234" cm="1">
         <f t="array" ref="F234">_xll.FDS(A234,"FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')")</f>
         <v>1.71</v>
       </c>
@@ -7788,7 +7757,7 @@
         <f t="array" ref="E235">_xll.FDS(A235,"FF_EPS(QTR_R,0)")</f>
         <v>3.08</v>
       </c>
-      <c r="F235" s="3" cm="1">
+      <c r="F235" cm="1">
         <f t="array" ref="F235">_xll.FDS(A235,"FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')")</f>
         <v>3.08</v>
       </c>
@@ -7812,7 +7781,7 @@
         <f t="array" ref="E236">_xll.FDS(A236,"FF_EPS(QTR_R,0)")</f>
         <v>1.7152000000000001</v>
       </c>
-      <c r="F236" s="3" cm="1">
+      <c r="F236" cm="1">
         <f t="array" ref="F236">_xll.FDS(A236,"FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')")</f>
         <v>2.1</v>
       </c>
@@ -7836,7 +7805,7 @@
         <f t="array" ref="E237">_xll.FDS(A237,"FF_EPS(QTR_R,0)")</f>
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="F237" s="3" cm="1">
+      <c r="F237" cm="1">
         <f t="array" ref="F237">_xll.FDS(A237,"FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')")</f>
         <v>0.8</v>
       </c>
@@ -7860,7 +7829,7 @@
         <f t="array" ref="E238">_xll.FDS(A238,"FF_EPS(QTR_R,0)")</f>
         <v>2.1688000000000001</v>
       </c>
-      <c r="F238" s="3" cm="1">
+      <c r="F238" cm="1">
         <f t="array" ref="F238">_xll.FDS(A238,"FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')")</f>
         <v>1.35</v>
       </c>
@@ -7884,7 +7853,7 @@
         <f t="array" ref="E239">_xll.FDS(A239,"FF_EPS(QTR_R,0)")</f>
         <v>1.4616</v>
       </c>
-      <c r="F239" s="3" cm="1">
+      <c r="F239" cm="1">
         <f t="array" ref="F239">_xll.FDS(A239,"FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')")</f>
         <v>1.8</v>
       </c>
@@ -7908,7 +7877,7 @@
         <f t="array" ref="E240">_xll.FDS(A240,"FF_EPS(QTR_R,0)")</f>
         <v>-0.1217</v>
       </c>
-      <c r="F240" s="3" cm="1">
+      <c r="F240" cm="1">
         <f t="array" ref="F240">_xll.FDS(A240,"FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')")</f>
         <v>0.15</v>
       </c>
@@ -7932,7 +7901,7 @@
         <f t="array" ref="E241">_xll.FDS(A241,"FF_EPS(QTR_R,0)")</f>
         <v>1.5871999999999999</v>
       </c>
-      <c r="F241" s="3" cm="1">
+      <c r="F241" cm="1">
         <f t="array" ref="F241">_xll.FDS(A241,"FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')")</f>
         <v>3.34</v>
       </c>
@@ -7950,15 +7919,15 @@
       </c>
       <c r="D242" s="2" cm="1">
         <f t="array" ref="D242">_xll.FDS(A242,"JULIAN(FF_EPS(QTR_R,0).dates)")</f>
-        <v>45930</v>
+        <v>46022</v>
       </c>
       <c r="E242" cm="1">
         <f t="array" ref="E242">_xll.FDS(A242,"FF_EPS(QTR_R,0)")</f>
-        <v>0.1484</v>
-      </c>
-      <c r="F242" s="3" cm="1">
+        <v>0.14660000000000001</v>
+      </c>
+      <c r="F242" cm="1">
         <f t="array" ref="F242">_xll.FDS(A242,"FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')")</f>
-        <v>0.22</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="243" spans="1:6" x14ac:dyDescent="0.45">
@@ -7980,7 +7949,7 @@
         <f t="array" ref="E243">_xll.FDS(A243,"FF_EPS(QTR_R,0)")</f>
         <v>-4.5199999999999996</v>
       </c>
-      <c r="F243" s="3" cm="1">
+      <c r="F243" cm="1">
         <f t="array" ref="F243">_xll.FDS(A243,"FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')")</f>
         <v>-0.08</v>
       </c>
@@ -8004,7 +7973,7 @@
         <f t="array" ref="E244">_xll.FDS(A244,"FF_EPS(QTR_R,0)")</f>
         <v>0.33750000000000002</v>
       </c>
-      <c r="F244" s="3" cm="1">
+      <c r="F244" cm="1">
         <f t="array" ref="F244">_xll.FDS(A244,"FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')")</f>
         <v>0.75</v>
       </c>
@@ -8026,9 +7995,9 @@
       </c>
       <c r="E245" cm="1">
         <f t="array" ref="E245">_xll.FDS(A245,"FF_EPS(QTR_R,0)")</f>
-        <v>2.99</v>
-      </c>
-      <c r="F245" s="3" cm="1">
+        <v>2.9901</v>
+      </c>
+      <c r="F245" cm="1">
         <f t="array" ref="F245">_xll.FDS(A245,"FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')")</f>
         <v>3.42</v>
       </c>
@@ -8050,9 +8019,9 @@
       </c>
       <c r="E246" cm="1">
         <f t="array" ref="E246">_xll.FDS(A246,"FF_EPS(QTR_R,0)")</f>
-        <v>0.67</v>
-      </c>
-      <c r="F246" s="3" cm="1">
+        <v>0.67230000000000001</v>
+      </c>
+      <c r="F246" cm="1">
         <f t="array" ref="F246">_xll.FDS(A246,"FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')")</f>
         <v>0.96</v>
       </c>
@@ -8076,7 +8045,7 @@
         <f t="array" ref="E247">_xll.FDS(A247,"FF_EPS(QTR_R,0)")</f>
         <v>0.29920000000000002</v>
       </c>
-      <c r="F247" s="3" cm="1">
+      <c r="F247" cm="1">
         <f t="array" ref="F247">_xll.FDS(A247,"FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')")</f>
         <v>0.61</v>
       </c>
@@ -8100,7 +8069,7 @@
         <f t="array" ref="E248">_xll.FDS(A248,"FF_EPS(QTR_R,0)")</f>
         <v>2.2052999999999998</v>
       </c>
-      <c r="F248" s="3" cm="1">
+      <c r="F248" cm="1">
         <f t="array" ref="F248">_xll.FDS(A248,"FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')")</f>
         <v>2.5299999999999998</v>
       </c>
@@ -8124,7 +8093,7 @@
         <f t="array" ref="E249">_xll.FDS(A249,"FF_EPS(QTR_R,0)")</f>
         <v>3.3578000000000001</v>
       </c>
-      <c r="F249" s="3" cm="1">
+      <c r="F249" cm="1">
         <f t="array" ref="F249">_xll.FDS(A249,"FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')")</f>
         <v>3.94</v>
       </c>
@@ -8148,7 +8117,7 @@
         <f t="array" ref="E250">_xll.FDS(A250,"FF_EPS(QTR_R,0)")</f>
         <v>2.7223000000000002</v>
       </c>
-      <c r="F250" s="3" cm="1">
+      <c r="F250" cm="1">
         <f t="array" ref="F250">_xll.FDS(A250,"FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')")</f>
         <v>2.72</v>
       </c>
@@ -8172,7 +8141,7 @@
         <f t="array" ref="E251">_xll.FDS(A251,"FF_EPS(QTR_R,0)")</f>
         <v>-2.629</v>
       </c>
-      <c r="F251" s="3" cm="1">
+      <c r="F251" cm="1">
         <f t="array" ref="F251">_xll.FDS(A251,"FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')")</f>
         <v>0.62</v>
       </c>
@@ -8196,7 +8165,7 @@
         <f t="array" ref="E252">_xll.FDS(A252,"FF_EPS(QTR_R,0)")</f>
         <v>1.1192</v>
       </c>
-      <c r="F252" s="3" cm="1">
+      <c r="F252" cm="1">
         <f t="array" ref="F252">_xll.FDS(A252,"FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')")</f>
         <v>1.53</v>
       </c>
@@ -8220,7 +8189,7 @@
         <f t="array" ref="E253">_xll.FDS(A253,"FF_EPS(QTR_R,0)")</f>
         <v>1.8958999999999999</v>
       </c>
-      <c r="F253" s="3" cm="1">
+      <c r="F253" cm="1">
         <f t="array" ref="F253">_xll.FDS(A253,"FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')")</f>
         <v>1.9</v>
       </c>
@@ -8244,7 +8213,7 @@
         <f t="array" ref="E254">_xll.FDS(A254,"FF_EPS(QTR_R,0)")</f>
         <v>1.3481000000000001</v>
       </c>
-      <c r="F254" s="3" cm="1">
+      <c r="F254" cm="1">
         <f t="array" ref="F254">_xll.FDS(A254,"FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')")</f>
         <v>2.85</v>
       </c>
@@ -8268,7 +8237,7 @@
         <f t="array" ref="E255">_xll.FDS(A255,"FF_EPS(QTR_R,0)")</f>
         <v>0.85340000000000005</v>
       </c>
-      <c r="F255" s="3" cm="1">
+      <c r="F255" cm="1">
         <f t="array" ref="F255">_xll.FDS(A255,"FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')")</f>
         <v>0.89</v>
       </c>
@@ -8292,7 +8261,7 @@
         <f t="array" ref="E256">_xll.FDS(A256,"FF_EPS(QTR_R,0)")</f>
         <v>1.7216</v>
       </c>
-      <c r="F256" s="3" cm="1">
+      <c r="F256" cm="1">
         <f t="array" ref="F256">_xll.FDS(A256,"FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')")</f>
         <v>1.72</v>
       </c>
@@ -8316,7 +8285,7 @@
         <f t="array" ref="E257">_xll.FDS(A257,"FF_EPS(QTR_R,0)")</f>
         <v>2.0975999999999999</v>
       </c>
-      <c r="F257" s="3" cm="1">
+      <c r="F257" cm="1">
         <f t="array" ref="F257">_xll.FDS(A257,"FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')")</f>
         <v>2.46</v>
       </c>
@@ -8340,7 +8309,7 @@
         <f t="array" ref="E258">_xll.FDS(A258,"FF_EPS(QTR_R,0)")</f>
         <v>0.21</v>
       </c>
-      <c r="F258" s="3" t="e" cm="1">
+      <c r="F258" t="e" cm="1">
         <f t="array" ref="F258">_xll.FDS(A258,"FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')")</f>
         <v>#N/A</v>
       </c>
@@ -8364,7 +8333,7 @@
         <f t="array" ref="E259">_xll.FDS(A259,"FF_EPS(QTR_R,0)")</f>
         <v>4.6302000000000003</v>
       </c>
-      <c r="F259" s="3" cm="1">
+      <c r="F259" cm="1">
         <f t="array" ref="F259">_xll.FDS(A259,"FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')")</f>
         <v>4.63</v>
       </c>
@@ -8388,7 +8357,7 @@
         <f t="array" ref="E260">_xll.FDS(A260,"FF_EPS(QTR_R,0)")</f>
         <v>0.88290000000000002</v>
       </c>
-      <c r="F260" s="3" cm="1">
+      <c r="F260" cm="1">
         <f t="array" ref="F260">_xll.FDS(A260,"FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')")</f>
         <v>0.93</v>
       </c>
@@ -8412,7 +8381,7 @@
         <f t="array" ref="E261">_xll.FDS(A261,"FF_EPS(QTR_R,0)")</f>
         <v>0.48570000000000002</v>
       </c>
-      <c r="F261" s="3" cm="1">
+      <c r="F261" cm="1">
         <f t="array" ref="F261">_xll.FDS(A261,"FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')")</f>
         <v>0.54</v>
       </c>
@@ -8436,7 +8405,7 @@
         <f t="array" ref="E262">_xll.FDS(A262,"FF_EPS(QTR_R,0)")</f>
         <v>0.43</v>
       </c>
-      <c r="F262" s="3" cm="1">
+      <c r="F262" cm="1">
         <f t="array" ref="F262">_xll.FDS(A262,"FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')")</f>
         <v>0.43</v>
       </c>
@@ -8460,7 +8429,7 @@
         <f t="array" ref="E263">_xll.FDS(A263,"FF_EPS(QTR_R,0)")</f>
         <v>1.3237000000000001</v>
       </c>
-      <c r="F263" s="3" cm="1">
+      <c r="F263" cm="1">
         <f t="array" ref="F263">_xll.FDS(A263,"FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')")</f>
         <v>1.91</v>
       </c>
@@ -8484,7 +8453,7 @@
         <f t="array" ref="E264">_xll.FDS(A264,"FF_EPS(QTR_R,0)")</f>
         <v>0.5484</v>
       </c>
-      <c r="F264" s="3" cm="1">
+      <c r="F264" cm="1">
         <f t="array" ref="F264">_xll.FDS(A264,"FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')")</f>
         <v>0.67</v>
       </c>
@@ -8508,7 +8477,7 @@
         <f t="array" ref="E265">_xll.FDS(A265,"FF_EPS(QTR_R,0)")</f>
         <v>0.21210000000000001</v>
       </c>
-      <c r="F265" s="3" cm="1">
+      <c r="F265" cm="1">
         <f t="array" ref="F265">_xll.FDS(A265,"FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')")</f>
         <v>0.21</v>
       </c>
@@ -8532,7 +8501,7 @@
         <f t="array" ref="E266">_xll.FDS(A266,"FF_EPS(QTR_R,0)")</f>
         <v>8.7271000000000001</v>
       </c>
-      <c r="F266" s="3" cm="1">
+      <c r="F266" cm="1">
         <f t="array" ref="F266">_xll.FDS(A266,"FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')")</f>
         <v>8.85</v>
       </c>
@@ -8556,7 +8525,7 @@
         <f t="array" ref="E267">_xll.FDS(A267,"FF_EPS(QTR_R,0)")</f>
         <v>1.4981</v>
       </c>
-      <c r="F267" s="3" cm="1">
+      <c r="F267" cm="1">
         <f t="array" ref="F267">_xll.FDS(A267,"FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')")</f>
         <v>1.86</v>
       </c>
@@ -8580,7 +8549,7 @@
         <f t="array" ref="E268">_xll.FDS(A268,"FF_EPS(QTR_R,0)")</f>
         <v>0.44540000000000002</v>
       </c>
-      <c r="F268" s="3" cm="1">
+      <c r="F268" cm="1">
         <f t="array" ref="F268">_xll.FDS(A268,"FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')")</f>
         <v>0.39</v>
       </c>
@@ -8604,7 +8573,7 @@
         <f t="array" ref="E269">_xll.FDS(A269,"FF_EPS(QTR_R,0)")</f>
         <v>0.42649999999999999</v>
       </c>
-      <c r="F269" s="3" cm="1">
+      <c r="F269" cm="1">
         <f t="array" ref="F269">_xll.FDS(A269,"FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')")</f>
         <v>0.43</v>
       </c>
@@ -8628,7 +8597,7 @@
         <f t="array" ref="E270">_xll.FDS(A270,"FF_EPS(QTR_R,0)")</f>
         <v>0.52659999999999996</v>
       </c>
-      <c r="F270" s="3" cm="1">
+      <c r="F270" cm="1">
         <f t="array" ref="F270">_xll.FDS(A270,"FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')")</f>
         <v>0.57999999999999996</v>
       </c>
@@ -8652,7 +8621,7 @@
         <f t="array" ref="E271">_xll.FDS(A271,"FF_EPS(QTR_R,0)")</f>
         <v>-2.0167999999999999</v>
       </c>
-      <c r="F271" s="3" cm="1">
+      <c r="F271" cm="1">
         <f t="array" ref="F271">_xll.FDS(A271,"FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')")</f>
         <v>1.05</v>
       </c>
@@ -8670,15 +8639,15 @@
       </c>
       <c r="D272" s="2" cm="1">
         <f t="array" ref="D272">_xll.FDS(A272,"JULIAN(FF_EPS(QTR_R,0).dates)")</f>
-        <v>45930</v>
+        <v>46022</v>
       </c>
       <c r="E272" cm="1">
         <f t="array" ref="E272">_xll.FDS(A272,"FF_EPS(QTR_R,0)")</f>
-        <v>0.20699999999999999</v>
-      </c>
-      <c r="F272" s="3" cm="1">
+        <v>0.17</v>
+      </c>
+      <c r="F272" cm="1">
         <f t="array" ref="F272">_xll.FDS(A272,"FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')")</f>
-        <v>0.28000000000000003</v>
+        <v>0.27</v>
       </c>
     </row>
     <row r="273" spans="1:6" x14ac:dyDescent="0.45">
@@ -8700,7 +8669,7 @@
         <f t="array" ref="E273">_xll.FDS(A273,"FF_EPS(QTR_R,0)")</f>
         <v>1.9439</v>
       </c>
-      <c r="F273" s="3" cm="1">
+      <c r="F273" cm="1">
         <f t="array" ref="F273">_xll.FDS(A273,"FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')")</f>
         <v>2.1382590000000001</v>
       </c>
@@ -8718,15 +8687,15 @@
       </c>
       <c r="D274" s="2" cm="1">
         <f t="array" ref="D274">_xll.FDS(A274,"JULIAN(FF_EPS(QTR_R,0).dates)")</f>
-        <v>45930</v>
+        <v>46022</v>
       </c>
       <c r="E274" cm="1">
         <f t="array" ref="E274">_xll.FDS(A274,"FF_EPS(QTR_R,0)")</f>
-        <v>2.8231000000000002</v>
-      </c>
-      <c r="F274" s="3" cm="1">
+        <v>2.5348999999999999</v>
+      </c>
+      <c r="F274" cm="1">
         <f t="array" ref="F274">_xll.FDS(A274,"FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')")</f>
-        <v>3.05</v>
+        <v>2.76</v>
       </c>
     </row>
     <row r="275" spans="1:6" x14ac:dyDescent="0.45">
@@ -8748,7 +8717,7 @@
         <f t="array" ref="E275">_xll.FDS(A275,"FF_EPS(QTR_R,0)")</f>
         <v>1.9278</v>
       </c>
-      <c r="F275" s="3" cm="1">
+      <c r="F275" cm="1">
         <f t="array" ref="F275">_xll.FDS(A275,"FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')")</f>
         <v>1.93</v>
       </c>
@@ -8766,15 +8735,15 @@
       </c>
       <c r="D276" s="2" cm="1">
         <f t="array" ref="D276">_xll.FDS(A276,"JULIAN(FF_EPS(QTR_R,0).dates)")</f>
-        <v>45930</v>
+        <v>46022</v>
       </c>
       <c r="E276" cm="1">
         <f t="array" ref="E276">_xll.FDS(A276,"FF_EPS(QTR_R,0)")</f>
-        <v>3.1194999999999999</v>
-      </c>
-      <c r="F276" s="3" cm="1">
+        <v>1.98</v>
+      </c>
+      <c r="F276" cm="1">
         <f t="array" ref="F276">_xll.FDS(A276,"FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')")</f>
-        <v>4.18</v>
+        <v>4.07</v>
       </c>
     </row>
     <row r="277" spans="1:6" x14ac:dyDescent="0.45">
@@ -8796,7 +8765,7 @@
         <f t="array" ref="E277">_xll.FDS(A277,"FF_EPS(QTR_R,0)")</f>
         <v>1.5940000000000001</v>
       </c>
-      <c r="F277" s="3" cm="1">
+      <c r="F277" cm="1">
         <f t="array" ref="F277">_xll.FDS(A277,"FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')")</f>
         <v>2.86</v>
       </c>
@@ -8820,9 +8789,9 @@
         <f t="array" ref="E278">_xll.FDS(A278,"FF_EPS(QTR_R,0)")</f>
         <v>3.26</v>
       </c>
-      <c r="F278" s="3" cm="1">
+      <c r="F278" cm="1">
         <f t="array" ref="F278">_xll.FDS(A278,"FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')")</f>
-        <v>4.20038</v>
+        <v>4.2003589999999997</v>
       </c>
     </row>
     <row r="279" spans="1:6" x14ac:dyDescent="0.45">
@@ -8838,15 +8807,15 @@
       </c>
       <c r="D279" s="2" cm="1">
         <f t="array" ref="D279">_xll.FDS(A279,"JULIAN(FF_EPS(QTR_R,0).dates)")</f>
-        <v>45930</v>
+        <v>46022</v>
       </c>
       <c r="E279" cm="1">
         <f t="array" ref="E279">_xll.FDS(A279,"FF_EPS(QTR_R,0)")</f>
-        <v>0.6996</v>
-      </c>
-      <c r="F279" s="3" cm="1">
+        <v>0.25779999999999997</v>
+      </c>
+      <c r="F279" cm="1">
         <f t="array" ref="F279">_xll.FDS(A279,"FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')")</f>
-        <v>0.84</v>
+        <v>0.59</v>
       </c>
     </row>
     <row r="280" spans="1:6" x14ac:dyDescent="0.45">
@@ -8868,7 +8837,7 @@
         <f t="array" ref="E280">_xll.FDS(A280,"FF_EPS(QTR_R,0)")</f>
         <v>7.0236999999999998</v>
       </c>
-      <c r="F280" s="3" cm="1">
+      <c r="F280" cm="1">
         <f t="array" ref="F280">_xll.FDS(A280,"FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')")</f>
         <v>7.54</v>
       </c>
@@ -8892,7 +8861,7 @@
         <f t="array" ref="E281">_xll.FDS(A281,"FF_EPS(QTR_R,0)")</f>
         <v>5.7956000000000003</v>
       </c>
-      <c r="F281" s="3" cm="1">
+      <c r="F281" cm="1">
         <f t="array" ref="F281">_xll.FDS(A281,"FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')")</f>
         <v>5.8</v>
       </c>
@@ -8916,7 +8885,7 @@
         <f t="array" ref="E282">_xll.FDS(A282,"FF_EPS(QTR_R,0)")</f>
         <v>1.0900000000000001</v>
       </c>
-      <c r="F282" s="3" cm="1">
+      <c r="F282" cm="1">
         <f t="array" ref="F282">_xll.FDS(A282,"FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')")</f>
         <v>1.1200000000000001</v>
       </c>
@@ -8940,7 +8909,7 @@
         <f t="array" ref="E283">_xll.FDS(A283,"FF_EPS(QTR_R,0)")</f>
         <v>2.8786</v>
       </c>
-      <c r="F283" s="3" cm="1">
+      <c r="F283" cm="1">
         <f t="array" ref="F283">_xll.FDS(A283,"FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')")</f>
         <v>3.06</v>
       </c>
@@ -8964,7 +8933,7 @@
         <f t="array" ref="E284">_xll.FDS(A284,"FF_EPS(QTR_R,0)")</f>
         <v>1.2633000000000001</v>
       </c>
-      <c r="F284" s="3" cm="1">
+      <c r="F284" cm="1">
         <f t="array" ref="F284">_xll.FDS(A284,"FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')")</f>
         <v>1.27</v>
       </c>
@@ -8988,7 +8957,7 @@
         <f t="array" ref="E285">_xll.FDS(A285,"FF_EPS(QTR_R,0)")</f>
         <v>2.5882000000000001</v>
       </c>
-      <c r="F285" s="3" cm="1">
+      <c r="F285" cm="1">
         <f t="array" ref="F285">_xll.FDS(A285,"FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')")</f>
         <v>2.59</v>
       </c>
@@ -9012,7 +8981,7 @@
         <f t="array" ref="E286">_xll.FDS(A286,"FF_EPS(QTR_R,0)")</f>
         <v>0.62190000000000001</v>
       </c>
-      <c r="F286" s="3" cm="1">
+      <c r="F286" cm="1">
         <f t="array" ref="F286">_xll.FDS(A286,"FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')")</f>
         <v>0.57999999999999996</v>
       </c>
@@ -9036,7 +9005,7 @@
         <f t="array" ref="E287">_xll.FDS(A287,"FF_EPS(QTR_R,0)")</f>
         <v>0.58260000000000001</v>
       </c>
-      <c r="F287" s="3" cm="1">
+      <c r="F287" cm="1">
         <f t="array" ref="F287">_xll.FDS(A287,"FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')")</f>
         <v>0.85</v>
       </c>
@@ -9060,7 +9029,7 @@
         <f t="array" ref="E288">_xll.FDS(A288,"FF_EPS(QTR_R,0)")</f>
         <v>0.44479999999999997</v>
       </c>
-      <c r="F288" s="3" cm="1">
+      <c r="F288" cm="1">
         <f t="array" ref="F288">_xll.FDS(A288,"FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')")</f>
         <v>0.69</v>
       </c>
@@ -9084,7 +9053,7 @@
         <f t="array" ref="E289">_xll.FDS(A289,"FF_EPS(QTR_R,0)")</f>
         <v>-0.43480000000000002</v>
       </c>
-      <c r="F289" s="3" cm="1">
+      <c r="F289" cm="1">
         <f t="array" ref="F289">_xll.FDS(A289,"FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')")</f>
         <v>-0.26</v>
       </c>
@@ -9108,7 +9077,7 @@
         <f t="array" ref="E290">_xll.FDS(A290,"FF_EPS(QTR_R,0)")</f>
         <v>0.73099999999999998</v>
       </c>
-      <c r="F290" s="3" cm="1">
+      <c r="F290" cm="1">
         <f t="array" ref="F290">_xll.FDS(A290,"FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')")</f>
         <v>0.73</v>
       </c>
@@ -9132,7 +9101,7 @@
         <f t="array" ref="E291">_xll.FDS(A291,"FF_EPS(QTR_R,0)")</f>
         <v>4.5212000000000003</v>
       </c>
-      <c r="F291" s="3" cm="1">
+      <c r="F291" cm="1">
         <f t="array" ref="F291">_xll.FDS(A291,"FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')")</f>
         <v>4.76</v>
       </c>
@@ -9156,7 +9125,7 @@
         <f t="array" ref="E292">_xll.FDS(A292,"FF_EPS(QTR_R,0)")</f>
         <v>0.48349999999999999</v>
       </c>
-      <c r="F292" s="3" cm="1">
+      <c r="F292" cm="1">
         <f t="array" ref="F292">_xll.FDS(A292,"FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')")</f>
         <v>0.48</v>
       </c>
@@ -9180,7 +9149,7 @@
         <f t="array" ref="E293">_xll.FDS(A293,"FF_EPS(QTR_R,0)")</f>
         <v>1.6517999999999999</v>
       </c>
-      <c r="F293" s="3" cm="1">
+      <c r="F293" cm="1">
         <f t="array" ref="F293">_xll.FDS(A293,"FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')")</f>
         <v>2.58</v>
       </c>
@@ -9204,7 +9173,7 @@
         <f t="array" ref="E294">_xll.FDS(A294,"FF_EPS(QTR_R,0)")</f>
         <v>0.79710000000000003</v>
       </c>
-      <c r="F294" s="3" cm="1">
+      <c r="F294" cm="1">
         <f t="array" ref="F294">_xll.FDS(A294,"FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')")</f>
         <v>0.82</v>
       </c>
@@ -9228,7 +9197,7 @@
         <f t="array" ref="E295">_xll.FDS(A295,"FF_EPS(QTR_R,0)")</f>
         <v>3.03</v>
       </c>
-      <c r="F295" s="3" cm="1">
+      <c r="F295" cm="1">
         <f t="array" ref="F295">_xll.FDS(A295,"FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')")</f>
         <v>3.12</v>
       </c>
@@ -9252,7 +9221,7 @@
         <f t="array" ref="E296">_xll.FDS(A296,"FF_EPS(QTR_R,0)")</f>
         <v>6.4000000000000001E-2</v>
       </c>
-      <c r="F296" s="3" cm="1">
+      <c r="F296" cm="1">
         <f t="array" ref="F296">_xll.FDS(A296,"FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')")</f>
         <v>0.44</v>
       </c>
@@ -9276,7 +9245,7 @@
         <f t="array" ref="E297">_xll.FDS(A297,"FF_EPS(QTR_R,0)")</f>
         <v>9.5876999999999999</v>
       </c>
-      <c r="F297" s="3" cm="1">
+      <c r="F297" cm="1">
         <f t="array" ref="F297">_xll.FDS(A297,"FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')")</f>
         <v>9.34</v>
       </c>
@@ -9294,15 +9263,15 @@
       </c>
       <c r="D298" s="2" cm="1">
         <f t="array" ref="D298">_xll.FDS(A298,"JULIAN(FF_EPS(QTR_R,0).dates)")</f>
-        <v>45930</v>
+        <v>46022</v>
       </c>
       <c r="E298" cm="1">
         <f t="array" ref="E298">_xll.FDS(A298,"FF_EPS(QTR_R,0)")</f>
-        <v>3.5969000000000002</v>
-      </c>
-      <c r="F298" s="3" cm="1">
+        <v>3.4135</v>
+      </c>
+      <c r="F298" cm="1">
         <f t="array" ref="F298">_xll.FDS(A298,"FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')")</f>
-        <v>3.92</v>
+        <v>3.64</v>
       </c>
     </row>
     <row r="299" spans="1:6" x14ac:dyDescent="0.45">
@@ -9324,7 +9293,7 @@
         <f t="array" ref="E299">_xll.FDS(A299,"FF_EPS(QTR_R,0)")</f>
         <v>0.51470000000000005</v>
       </c>
-      <c r="F299" s="3" cm="1">
+      <c r="F299" cm="1">
         <f t="array" ref="F299">_xll.FDS(A299,"FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')")</f>
         <v>0.72</v>
       </c>
@@ -9342,13 +9311,13 @@
       </c>
       <c r="D300" s="2" cm="1">
         <f t="array" ref="D300">_xll.FDS(A300,"JULIAN(FF_EPS(QTR_R,0).dates)")</f>
-        <v>45961</v>
+        <v>46052</v>
       </c>
       <c r="E300" cm="1">
         <f t="array" ref="E300">_xll.FDS(A300,"FF_EPS(QTR_R,0)")</f>
-        <v>1.0668</v>
-      </c>
-      <c r="F300" s="3" cm="1">
+        <v>0.89</v>
+      </c>
+      <c r="F300" cm="1">
         <f t="array" ref="F300">_xll.FDS(A300,"FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')")</f>
         <v>1.36</v>
       </c>
@@ -9372,7 +9341,7 @@
         <f t="array" ref="E301">_xll.FDS(A301,"FF_EPS(QTR_R,0)")</f>
         <v>1.1749000000000001</v>
       </c>
-      <c r="F301" s="3" cm="1">
+      <c r="F301" cm="1">
         <f t="array" ref="F301">_xll.FDS(A301,"FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')")</f>
         <v>2.4900000000000002</v>
       </c>
@@ -9396,7 +9365,7 @@
         <f t="array" ref="E302">_xll.FDS(A302,"FF_EPS(QTR_R,0)")</f>
         <v>8.8764000000000003</v>
       </c>
-      <c r="F302" s="3" cm="1">
+      <c r="F302" cm="1">
         <f t="array" ref="F302">_xll.FDS(A302,"FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')")</f>
         <v>8.8800000000000008</v>
       </c>
@@ -9420,7 +9389,7 @@
         <f t="array" ref="E303">_xll.FDS(A303,"FF_EPS(QTR_R,0)")</f>
         <v>1.1120000000000001</v>
       </c>
-      <c r="F303" s="3" cm="1">
+      <c r="F303" cm="1">
         <f t="array" ref="F303">_xll.FDS(A303,"FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')")</f>
         <v>1.6</v>
       </c>
@@ -9444,7 +9413,7 @@
         <f t="array" ref="E304">_xll.FDS(A304,"FF_EPS(QTR_R,0)")</f>
         <v>0.67849999999999999</v>
       </c>
-      <c r="F304" s="3" cm="1">
+      <c r="F304" cm="1">
         <f t="array" ref="F304">_xll.FDS(A304,"FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')")</f>
         <v>2</v>
       </c>
@@ -9468,7 +9437,7 @@
         <f t="array" ref="E305">_xll.FDS(A305,"FF_EPS(QTR_R,0)")</f>
         <v>0.84140000000000004</v>
       </c>
-      <c r="F305" s="3" cm="1">
+      <c r="F305" cm="1">
         <f t="array" ref="F305">_xll.FDS(A305,"FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')")</f>
         <v>0.86</v>
       </c>
@@ -9492,7 +9461,7 @@
         <f t="array" ref="E306">_xll.FDS(A306,"FF_EPS(QTR_R,0)")</f>
         <v>2.5099999999999998</v>
       </c>
-      <c r="F306" s="3" cm="1">
+      <c r="F306" cm="1">
         <f t="array" ref="F306">_xll.FDS(A306,"FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')")</f>
         <v>1.68</v>
       </c>
@@ -9516,7 +9485,7 @@
         <f t="array" ref="E307">_xll.FDS(A307,"FF_EPS(QTR_R,0)")</f>
         <v>4.62</v>
       </c>
-      <c r="F307" s="3" cm="1">
+      <c r="F307" cm="1">
         <f t="array" ref="F307">_xll.FDS(A307,"FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')")</f>
         <v>3.85</v>
       </c>
@@ -9540,7 +9509,7 @@
         <f t="array" ref="E308">_xll.FDS(A308,"FF_EPS(QTR_R,0)")</f>
         <v>1.6755</v>
       </c>
-      <c r="F308" s="3" cm="1">
+      <c r="F308" cm="1">
         <f t="array" ref="F308">_xll.FDS(A308,"FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')")</f>
         <v>2.12</v>
       </c>
@@ -9564,7 +9533,7 @@
         <f t="array" ref="E309">_xll.FDS(A309,"FF_EPS(QTR_R,0)")</f>
         <v>1.0705</v>
       </c>
-      <c r="F309" s="3" cm="1">
+      <c r="F309" cm="1">
         <f t="array" ref="F309">_xll.FDS(A309,"FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')")</f>
         <v>1.83</v>
       </c>
@@ -9588,7 +9557,7 @@
         <f t="array" ref="E310">_xll.FDS(A310,"FF_EPS(QTR_R,0)")</f>
         <v>0.53249999999999997</v>
       </c>
-      <c r="F310" s="3" cm="1">
+      <c r="F310" cm="1">
         <f t="array" ref="F310">_xll.FDS(A310,"FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')")</f>
         <v>0.56000000000000005</v>
       </c>
@@ -9612,7 +9581,7 @@
         <f t="array" ref="E311">_xll.FDS(A311,"FF_EPS(QTR_R,0)")</f>
         <v>0.6643</v>
       </c>
-      <c r="F311" s="3" cm="1">
+      <c r="F311" cm="1">
         <f t="array" ref="F311">_xll.FDS(A311,"FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')")</f>
         <v>1.3</v>
       </c>
@@ -9636,7 +9605,7 @@
         <f t="array" ref="E312">_xll.FDS(A312,"FF_EPS(QTR_R,0)")</f>
         <v>-3.1372</v>
       </c>
-      <c r="F312" s="3" cm="1">
+      <c r="F312" cm="1">
         <f t="array" ref="F312">_xll.FDS(A312,"FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')")</f>
         <v>-2.75</v>
       </c>
@@ -9660,7 +9629,7 @@
         <f t="array" ref="E313">_xll.FDS(A313,"FF_EPS(QTR_R,0)")</f>
         <v>1.288</v>
       </c>
-      <c r="F313" s="3" cm="1">
+      <c r="F313" cm="1">
         <f t="array" ref="F313">_xll.FDS(A313,"FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')")</f>
         <v>1.04</v>
       </c>
@@ -9684,7 +9653,7 @@
         <f t="array" ref="E314">_xll.FDS(A314,"FF_EPS(QTR_R,0)")</f>
         <v>5.12</v>
       </c>
-      <c r="F314" s="3" cm="1">
+      <c r="F314" cm="1">
         <f t="array" ref="F314">_xll.FDS(A314,"FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')")</f>
         <v>4.07</v>
       </c>
@@ -9708,7 +9677,7 @@
         <f t="array" ref="E315">_xll.FDS(A315,"FF_EPS(QTR_R,0)")</f>
         <v>3.46</v>
       </c>
-      <c r="F315" s="3" cm="1">
+      <c r="F315" cm="1">
         <f t="array" ref="F315">_xll.FDS(A315,"FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')")</f>
         <v>4.79</v>
       </c>
@@ -9732,7 +9701,7 @@
         <f t="array" ref="E316">_xll.FDS(A316,"FF_EPS(QTR_R,0)")</f>
         <v>1.1909000000000001</v>
       </c>
-      <c r="F316" s="3" cm="1">
+      <c r="F316" cm="1">
         <f t="array" ref="F316">_xll.FDS(A316,"FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')")</f>
         <v>2.04</v>
       </c>
@@ -9756,7 +9725,7 @@
         <f t="array" ref="E317">_xll.FDS(A317,"FF_EPS(QTR_R,0)")</f>
         <v>-2.1071</v>
       </c>
-      <c r="F317" s="3" cm="1">
+      <c r="F317" cm="1">
         <f t="array" ref="F317">_xll.FDS(A317,"FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')")</f>
         <v>-2.11</v>
       </c>
@@ -9780,7 +9749,7 @@
         <f t="array" ref="E318">_xll.FDS(A318,"FF_EPS(QTR_R,0)")</f>
         <v>0.50890000000000002</v>
       </c>
-      <c r="F318" s="3" t="e" cm="1">
+      <c r="F318" t="e" cm="1">
         <f t="array" ref="F318">_xll.FDS(A318,"FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')")</f>
         <v>#N/A</v>
       </c>
@@ -9804,7 +9773,7 @@
         <f t="array" ref="E319">_xll.FDS(A319,"FF_EPS(QTR_R,0)")</f>
         <v>2.68</v>
       </c>
-      <c r="F319" s="3" cm="1">
+      <c r="F319" cm="1">
         <f t="array" ref="F319">_xll.FDS(A319,"FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')")</f>
         <v>2.68</v>
       </c>
@@ -9828,7 +9797,7 @@
         <f t="array" ref="E320">_xll.FDS(A320,"FF_EPS(QTR_R,0)")</f>
         <v>3.8109999999999999</v>
       </c>
-      <c r="F320" s="3" cm="1">
+      <c r="F320" cm="1">
         <f t="array" ref="F320">_xll.FDS(A320,"FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')")</f>
         <v>4.66</v>
       </c>
@@ -9852,7 +9821,7 @@
         <f t="array" ref="E321">_xll.FDS(A321,"FF_EPS(QTR_R,0)")</f>
         <v>5.1551999999999998</v>
       </c>
-      <c r="F321" s="3" cm="1">
+      <c r="F321" cm="1">
         <f t="array" ref="F321">_xll.FDS(A321,"FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')")</f>
         <v>4.1399999999999997</v>
       </c>
@@ -9876,7 +9845,7 @@
         <f t="array" ref="E322">_xll.FDS(A322,"FF_EPS(QTR_R,0)")</f>
         <v>3.8607999999999998</v>
       </c>
-      <c r="F322" s="3" cm="1">
+      <c r="F322" cm="1">
         <f t="array" ref="F322">_xll.FDS(A322,"FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')")</f>
         <v>4.59</v>
       </c>
@@ -9898,9 +9867,9 @@
       </c>
       <c r="E323" cm="1">
         <f t="array" ref="E323">_xll.FDS(A323,"FF_EPS(QTR_R,0)")</f>
-        <v>4.67</v>
-      </c>
-      <c r="F323" s="3" cm="1">
+        <v>4.6711</v>
+      </c>
+      <c r="F323" cm="1">
         <f t="array" ref="F323">_xll.FDS(A323,"FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')")</f>
         <v>4.67</v>
       </c>
@@ -9924,7 +9893,7 @@
         <f t="array" ref="E324">_xll.FDS(A324,"FF_EPS(QTR_R,0)")</f>
         <v>0.83</v>
       </c>
-      <c r="F324" s="3" cm="1">
+      <c r="F324" cm="1">
         <f t="array" ref="F324">_xll.FDS(A324,"FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')")</f>
         <v>0.83</v>
       </c>
@@ -9948,7 +9917,7 @@
         <f t="array" ref="E325">_xll.FDS(A325,"FF_EPS(QTR_R,0)")</f>
         <v>13.977600000000001</v>
       </c>
-      <c r="F325" s="3" cm="1">
+      <c r="F325" cm="1">
         <f t="array" ref="F325">_xll.FDS(A325,"FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')")</f>
         <v>13.36</v>
       </c>
@@ -9972,7 +9941,7 @@
         <f t="array" ref="E326">_xll.FDS(A326,"FF_EPS(QTR_R,0)")</f>
         <v>4.6045999999999996</v>
       </c>
-      <c r="F326" s="3" cm="1">
+      <c r="F326" cm="1">
         <f t="array" ref="F326">_xll.FDS(A326,"FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')")</f>
         <v>4.78</v>
       </c>
@@ -9996,7 +9965,7 @@
         <f t="array" ref="E327">_xll.FDS(A327,"FF_EPS(QTR_R,0)")</f>
         <v>0.8458</v>
       </c>
-      <c r="F327" s="3" cm="1">
+      <c r="F327" cm="1">
         <f t="array" ref="F327">_xll.FDS(A327,"FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')")</f>
         <v>1.2</v>
       </c>
@@ -10020,7 +9989,7 @@
         <f t="array" ref="E328">_xll.FDS(A328,"FF_EPS(QTR_R,0)")</f>
         <v>0.90029999999999999</v>
       </c>
-      <c r="F328" s="3" cm="1">
+      <c r="F328" cm="1">
         <f t="array" ref="F328">_xll.FDS(A328,"FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')")</f>
         <v>0.96</v>
       </c>
@@ -10038,15 +10007,15 @@
       </c>
       <c r="D329" s="2" cm="1">
         <f t="array" ref="D329">_xll.FDS(A329,"JULIAN(FF_EPS(QTR_R,0).dates)")</f>
-        <v>45961</v>
+        <v>46052</v>
       </c>
       <c r="E329" cm="1">
         <f t="array" ref="E329">_xll.FDS(A329,"FF_EPS(QTR_R,0)")</f>
-        <v>2.6877</v>
-      </c>
-      <c r="F329" s="3" cm="1">
+        <v>2.38</v>
+      </c>
+      <c r="F329" cm="1">
         <f t="array" ref="F329">_xll.FDS(A329,"FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')")</f>
-        <v>3.03</v>
+        <v>2.37</v>
       </c>
     </row>
     <row r="330" spans="1:6" x14ac:dyDescent="0.45">
@@ -10068,7 +10037,7 @@
         <f t="array" ref="E330">_xll.FDS(A330,"FF_EPS(QTR_R,0)")</f>
         <v>0.73480000000000001</v>
       </c>
-      <c r="F330" s="3" cm="1">
+      <c r="F330" cm="1">
         <f t="array" ref="F330">_xll.FDS(A330,"FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')")</f>
         <v>0.54</v>
       </c>
@@ -10092,7 +10061,7 @@
         <f t="array" ref="E331">_xll.FDS(A331,"FF_EPS(QTR_R,0)")</f>
         <v>1.6654</v>
       </c>
-      <c r="F331" s="3" cm="1">
+      <c r="F331" cm="1">
         <f t="array" ref="F331">_xll.FDS(A331,"FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')")</f>
         <v>1.71</v>
       </c>
@@ -10116,7 +10085,7 @@
         <f t="array" ref="E332">_xll.FDS(A332,"FF_EPS(QTR_R,0)")</f>
         <v>0.56020000000000003</v>
       </c>
-      <c r="F332" s="3" cm="1">
+      <c r="F332" cm="1">
         <f t="array" ref="F332">_xll.FDS(A332,"FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')")</f>
         <v>0.56000000000000005</v>
       </c>
@@ -10140,7 +10109,7 @@
         <f t="array" ref="E333">_xll.FDS(A333,"FF_EPS(QTR_R,0)")</f>
         <v>0.53490000000000004</v>
       </c>
-      <c r="F333" s="3" cm="1">
+      <c r="F333" cm="1">
         <f t="array" ref="F333">_xll.FDS(A333,"FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')")</f>
         <v>0.51</v>
       </c>
@@ -10164,7 +10133,7 @@
         <f t="array" ref="E334">_xll.FDS(A334,"FF_EPS(QTR_R,0)")</f>
         <v>0.53480000000000005</v>
       </c>
-      <c r="F334" s="3" cm="1">
+      <c r="F334" cm="1">
         <f t="array" ref="F334">_xll.FDS(A334,"FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')")</f>
         <v>0.53</v>
       </c>
@@ -10188,7 +10157,7 @@
         <f t="array" ref="E335">_xll.FDS(A335,"FF_EPS(QTR_R,0)")</f>
         <v>10.0495</v>
       </c>
-      <c r="F335" s="3" cm="1">
+      <c r="F335" cm="1">
         <f t="array" ref="F335">_xll.FDS(A335,"FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')")</f>
         <v>7.23</v>
       </c>
@@ -10212,7 +10181,7 @@
         <f t="array" ref="E336">_xll.FDS(A336,"FF_EPS(QTR_R,0)")</f>
         <v>0.38300000000000001</v>
       </c>
-      <c r="F336" s="3" cm="1">
+      <c r="F336" cm="1">
         <f t="array" ref="F336">_xll.FDS(A336,"FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')")</f>
         <v>0.92</v>
       </c>
@@ -10236,7 +10205,7 @@
         <f t="array" ref="E337">_xll.FDS(A337,"FF_EPS(QTR_R,0)")</f>
         <v>0.69230000000000003</v>
       </c>
-      <c r="F337" s="3" cm="1">
+      <c r="F337" cm="1">
         <f t="array" ref="F337">_xll.FDS(A337,"FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')")</f>
         <v>2.78</v>
       </c>
@@ -10260,7 +10229,7 @@
         <f t="array" ref="E338">_xll.FDS(A338,"FF_EPS(QTR_R,0)")</f>
         <v>2.8652000000000002</v>
       </c>
-      <c r="F338" s="3" cm="1">
+      <c r="F338" cm="1">
         <f t="array" ref="F338">_xll.FDS(A338,"FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')")</f>
         <v>3.22</v>
       </c>
@@ -10284,7 +10253,7 @@
         <f t="array" ref="E339">_xll.FDS(A339,"FF_EPS(QTR_R,0)")</f>
         <v>1.5099</v>
       </c>
-      <c r="F339" s="3" cm="1">
+      <c r="F339" cm="1">
         <f t="array" ref="F339">_xll.FDS(A339,"FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')")</f>
         <v>2.0499999999999998</v>
       </c>
@@ -10308,7 +10277,7 @@
         <f t="array" ref="E340">_xll.FDS(A340,"FF_EPS(QTR_R,0)")</f>
         <v>2.42</v>
       </c>
-      <c r="F340" s="3" cm="1">
+      <c r="F340" cm="1">
         <f t="array" ref="F340">_xll.FDS(A340,"FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')")</f>
         <v>2.6365135</v>
       </c>
@@ -10332,7 +10301,7 @@
         <f t="array" ref="E341">_xll.FDS(A341,"FF_EPS(QTR_R,0)")</f>
         <v>1.64</v>
       </c>
-      <c r="F341" s="3" cm="1">
+      <c r="F341" cm="1">
         <f t="array" ref="F341">_xll.FDS(A341,"FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')")</f>
         <v>1.73</v>
       </c>
@@ -10356,7 +10325,7 @@
         <f t="array" ref="E342">_xll.FDS(A342,"FF_EPS(QTR_R,0)")</f>
         <v>1.3033999999999999</v>
       </c>
-      <c r="F342" s="3" cm="1">
+      <c r="F342" cm="1">
         <f t="array" ref="F342">_xll.FDS(A342,"FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')")</f>
         <v>1.3</v>
       </c>
@@ -10380,7 +10349,7 @@
         <f t="array" ref="E343">_xll.FDS(A343,"FF_EPS(QTR_R,0)")</f>
         <v>121.5553</v>
       </c>
-      <c r="F343" s="3" cm="1">
+      <c r="F343" cm="1">
         <f t="array" ref="F343">_xll.FDS(A343,"FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')")</f>
         <v>121.54</v>
       </c>
@@ -10404,7 +10373,7 @@
         <f t="array" ref="E344">_xll.FDS(A344,"FF_EPS(QTR_R,0)")</f>
         <v>0.34339999999999998</v>
       </c>
-      <c r="F344" s="3" cm="1">
+      <c r="F344" cm="1">
         <f t="array" ref="F344">_xll.FDS(A344,"FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')")</f>
         <v>0.4</v>
       </c>
@@ -10428,7 +10397,7 @@
         <f t="array" ref="E345">_xll.FDS(A345,"FF_EPS(QTR_R,0)")</f>
         <v>0.34339999999999998</v>
       </c>
-      <c r="F345" s="3" cm="1">
+      <c r="F345" cm="1">
         <f t="array" ref="F345">_xll.FDS(A345,"FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')")</f>
         <v>0.4</v>
       </c>
@@ -10452,7 +10421,7 @@
         <f t="array" ref="E346">_xll.FDS(A346,"FF_EPS(QTR_R,0)")</f>
         <v>1.8017000000000001</v>
       </c>
-      <c r="F346" s="3" cm="1">
+      <c r="F346" cm="1">
         <f t="array" ref="F346">_xll.FDS(A346,"FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')")</f>
         <v>3.35</v>
       </c>
@@ -10476,7 +10445,7 @@
         <f t="array" ref="E347">_xll.FDS(A347,"FF_EPS(QTR_R,0)")</f>
         <v>0.34499999999999997</v>
       </c>
-      <c r="F347" s="3" cm="1">
+      <c r="F347" cm="1">
         <f t="array" ref="F347">_xll.FDS(A347,"FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')")</f>
         <v>0.35</v>
       </c>
@@ -10500,7 +10469,7 @@
         <f t="array" ref="E348">_xll.FDS(A348,"FF_EPS(QTR_R,0)")</f>
         <v>1.0900000000000001</v>
       </c>
-      <c r="F348" s="3" cm="1">
+      <c r="F348" cm="1">
         <f t="array" ref="F348">_xll.FDS(A348,"FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')")</f>
         <v>1.0900000000000001</v>
       </c>
@@ -10524,7 +10493,7 @@
         <f t="array" ref="E349">_xll.FDS(A349,"FF_EPS(QTR_R,0)")</f>
         <v>1.4869000000000001</v>
       </c>
-      <c r="F349" s="3" cm="1">
+      <c r="F349" cm="1">
         <f t="array" ref="F349">_xll.FDS(A349,"FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')")</f>
         <v>1.49</v>
       </c>
@@ -10542,15 +10511,15 @@
       </c>
       <c r="D350" s="2" cm="1">
         <f t="array" ref="D350">_xll.FDS(A350,"JULIAN(FF_EPS(QTR_R,0).dates)")</f>
-        <v>45930</v>
+        <v>46022</v>
       </c>
       <c r="E350" cm="1">
         <f t="array" ref="E350">_xll.FDS(A350,"FF_EPS(QTR_R,0)")</f>
-        <v>1.7512000000000001</v>
-      </c>
-      <c r="F350" s="3" cm="1">
+        <v>-4.0199999999999996</v>
+      </c>
+      <c r="F350" cm="1">
         <f t="array" ref="F350">_xll.FDS(A350,"FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')")</f>
-        <v>2.2400000000000002</v>
+        <v>2.59</v>
       </c>
     </row>
     <row r="351" spans="1:6" x14ac:dyDescent="0.45">
@@ -10572,7 +10541,7 @@
         <f t="array" ref="E351">_xll.FDS(A351,"FF_EPS(QTR_R,0)")</f>
         <v>0.45190000000000002</v>
       </c>
-      <c r="F351" s="3" cm="1">
+      <c r="F351" cm="1">
         <f t="array" ref="F351">_xll.FDS(A351,"FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')")</f>
         <v>0.64</v>
       </c>
@@ -10596,7 +10565,7 @@
         <f t="array" ref="E352">_xll.FDS(A352,"FF_EPS(QTR_R,0)")</f>
         <v>2.0996000000000001</v>
       </c>
-      <c r="F352" s="3" cm="1">
+      <c r="F352" cm="1">
         <f t="array" ref="F352">_xll.FDS(A352,"FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')")</f>
         <v>2.2599999999999998</v>
       </c>
@@ -10620,7 +10589,7 @@
         <f t="array" ref="E353">_xll.FDS(A353,"FF_EPS(QTR_R,0)")</f>
         <v>0.71</v>
       </c>
-      <c r="F353" s="3" cm="1">
+      <c r="F353" cm="1">
         <f t="array" ref="F353">_xll.FDS(A353,"FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')")</f>
         <v>0.71</v>
       </c>
@@ -10644,7 +10613,7 @@
         <f t="array" ref="E354">_xll.FDS(A354,"FF_EPS(QTR_R,0)")</f>
         <v>0.9546</v>
       </c>
-      <c r="F354" s="3" cm="1">
+      <c r="F354" cm="1">
         <f t="array" ref="F354">_xll.FDS(A354,"FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')")</f>
         <v>1.03</v>
       </c>
@@ -10662,15 +10631,15 @@
       </c>
       <c r="D355" s="2" cm="1">
         <f t="array" ref="D355">_xll.FDS(A355,"JULIAN(FF_EPS(QTR_R,0).dates)")</f>
-        <v>45930</v>
+        <v>46022</v>
       </c>
       <c r="E355" cm="1">
         <f t="array" ref="E355">_xll.FDS(A355,"FF_EPS(QTR_R,0)")</f>
-        <v>0.65500000000000003</v>
-      </c>
-      <c r="F355" s="3" cm="1">
+        <v>-6.88E-2</v>
+      </c>
+      <c r="F355" cm="1">
         <f t="array" ref="F355">_xll.FDS(A355,"FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')")</f>
-        <v>0.64</v>
+        <v>0.31</v>
       </c>
     </row>
     <row r="356" spans="1:6" x14ac:dyDescent="0.45">
@@ -10692,7 +10661,7 @@
         <f t="array" ref="E356">_xll.FDS(A356,"FF_EPS(QTR_R,0)")</f>
         <v>-0.2341</v>
       </c>
-      <c r="F356" s="3" cm="1">
+      <c r="F356" cm="1">
         <f t="array" ref="F356">_xll.FDS(A356,"FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')")</f>
         <v>-5.3148130000000002E-2</v>
       </c>
@@ -10716,7 +10685,7 @@
         <f t="array" ref="E357">_xll.FDS(A357,"FF_EPS(QTR_R,0)")</f>
         <v>2.0653000000000001</v>
       </c>
-      <c r="F357" s="3" cm="1">
+      <c r="F357" cm="1">
         <f t="array" ref="F357">_xll.FDS(A357,"FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')")</f>
         <v>2.4500000000000002</v>
       </c>
@@ -10740,7 +10709,7 @@
         <f t="array" ref="E358">_xll.FDS(A358,"FF_EPS(QTR_R,0)")</f>
         <v>1.0971</v>
       </c>
-      <c r="F358" s="3" cm="1">
+      <c r="F358" cm="1">
         <f t="array" ref="F358">_xll.FDS(A358,"FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')")</f>
         <v>1.26</v>
       </c>
@@ -10764,7 +10733,7 @@
         <f t="array" ref="E359">_xll.FDS(A359,"FF_EPS(QTR_R,0)")</f>
         <v>1.0570999999999999</v>
       </c>
-      <c r="F359" s="3" cm="1">
+      <c r="F359" cm="1">
         <f t="array" ref="F359">_xll.FDS(A359,"FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')")</f>
         <v>1.06</v>
       </c>
@@ -10788,7 +10757,7 @@
         <f t="array" ref="E360">_xll.FDS(A360,"FF_EPS(QTR_R,0)")</f>
         <v>0.29210000000000003</v>
       </c>
-      <c r="F360" s="3" cm="1">
+      <c r="F360" cm="1">
         <f t="array" ref="F360">_xll.FDS(A360,"FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')")</f>
         <v>0.36</v>
       </c>
@@ -10812,7 +10781,7 @@
         <f t="array" ref="E361">_xll.FDS(A361,"FF_EPS(QTR_R,0)")</f>
         <v>0.1638</v>
       </c>
-      <c r="F361" s="3" cm="1">
+      <c r="F361" cm="1">
         <f t="array" ref="F361">_xll.FDS(A361,"FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')")</f>
         <v>0.16</v>
       </c>
@@ -10836,7 +10805,7 @@
         <f t="array" ref="E362">_xll.FDS(A362,"FF_EPS(QTR_R,0)")</f>
         <v>1.2415</v>
       </c>
-      <c r="F362" s="3" cm="1">
+      <c r="F362" cm="1">
         <f t="array" ref="F362">_xll.FDS(A362,"FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')")</f>
         <v>1.1299999999999999</v>
       </c>
@@ -10860,7 +10829,7 @@
         <f t="array" ref="E363">_xll.FDS(A363,"FF_EPS(QTR_R,0)")</f>
         <v>1.8527</v>
       </c>
-      <c r="F363" s="3" cm="1">
+      <c r="F363" cm="1">
         <f t="array" ref="F363">_xll.FDS(A363,"FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')")</f>
         <v>2.2599999999999998</v>
       </c>
@@ -10884,7 +10853,7 @@
         <f t="array" ref="E364">_xll.FDS(A364,"FF_EPS(QTR_R,0)")</f>
         <v>-0.2898</v>
       </c>
-      <c r="F364" s="3" cm="1">
+      <c r="F364" cm="1">
         <f t="array" ref="F364">_xll.FDS(A364,"FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')")</f>
         <v>0.66</v>
       </c>
@@ -10908,7 +10877,7 @@
         <f t="array" ref="E365">_xll.FDS(A365,"FF_EPS(QTR_R,0)")</f>
         <v>2.3246000000000002</v>
       </c>
-      <c r="F365" s="3" cm="1">
+      <c r="F365" cm="1">
         <f t="array" ref="F365">_xll.FDS(A365,"FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')")</f>
         <v>2.19</v>
       </c>
@@ -10932,7 +10901,7 @@
         <f t="array" ref="E366">_xll.FDS(A366,"FF_EPS(QTR_R,0)")</f>
         <v>1.7818000000000001</v>
       </c>
-      <c r="F366" s="3" cm="1">
+      <c r="F366" cm="1">
         <f t="array" ref="F366">_xll.FDS(A366,"FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')")</f>
         <v>1.88</v>
       </c>
@@ -10956,7 +10925,7 @@
         <f t="array" ref="E367">_xll.FDS(A367,"FF_EPS(QTR_R,0)")</f>
         <v>#N/A</v>
       </c>
-      <c r="F367" s="3" cm="1">
+      <c r="F367" cm="1">
         <f t="array" ref="F367">_xll.FDS(A367,"FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')")</f>
         <v>4.5829250000000004</v>
       </c>
@@ -10980,7 +10949,7 @@
         <f t="array" ref="E368">_xll.FDS(A368,"FF_EPS(QTR_R,0)")</f>
         <v>6.5964</v>
       </c>
-      <c r="F368" s="3" cm="1">
+      <c r="F368" cm="1">
         <f t="array" ref="F368">_xll.FDS(A368,"FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')")</f>
         <v>7.65</v>
       </c>
@@ -11004,7 +10973,7 @@
         <f t="array" ref="E369">_xll.FDS(A369,"FF_EPS(QTR_R,0)")</f>
         <v>2.5621</v>
       </c>
-      <c r="F369" s="3" cm="1">
+      <c r="F369" cm="1">
         <f t="array" ref="F369">_xll.FDS(A369,"FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')")</f>
         <v>2.56</v>
       </c>
@@ -11028,7 +10997,7 @@
         <f t="array" ref="E370">_xll.FDS(A370,"FF_EPS(QTR_R,0)")</f>
         <v>1.1284000000000001</v>
       </c>
-      <c r="F370" s="3" cm="1">
+      <c r="F370" cm="1">
         <f t="array" ref="F370">_xll.FDS(A370,"FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')")</f>
         <v>2.3199999999999998</v>
       </c>
@@ -11052,7 +11021,7 @@
         <f t="array" ref="E371">_xll.FDS(A371,"FF_EPS(QTR_R,0)")</f>
         <v>1.4945999999999999</v>
       </c>
-      <c r="F371" s="3" cm="1">
+      <c r="F371" cm="1">
         <f t="array" ref="F371">_xll.FDS(A371,"FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')")</f>
         <v>1.49</v>
       </c>
@@ -11074,9 +11043,9 @@
       </c>
       <c r="E372" cm="1">
         <f t="array" ref="E372">_xll.FDS(A372,"FF_EPS(QTR_R,0)")</f>
-        <v>0.24</v>
-      </c>
-      <c r="F372" s="3" cm="1">
+        <v>0.23649999999999999</v>
+      </c>
+      <c r="F372" cm="1">
         <f t="array" ref="F372">_xll.FDS(A372,"FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')")</f>
         <v>0.25</v>
       </c>
@@ -11100,7 +11069,7 @@
         <f t="array" ref="E373">_xll.FDS(A373,"FF_EPS(QTR_R,0)")</f>
         <v>1.3704000000000001</v>
       </c>
-      <c r="F373" s="3" cm="1">
+      <c r="F373" cm="1">
         <f t="array" ref="F373">_xll.FDS(A373,"FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')")</f>
         <v>1.7</v>
       </c>
@@ -11124,7 +11093,7 @@
         <f t="array" ref="E374">_xll.FDS(A374,"FF_EPS(QTR_R,0)")</f>
         <v>4.8781999999999996</v>
       </c>
-      <c r="F374" s="3" cm="1">
+      <c r="F374" cm="1">
         <f t="array" ref="F374">_xll.FDS(A374,"FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')")</f>
         <v>4.88</v>
       </c>
@@ -11148,7 +11117,7 @@
         <f t="array" ref="E375">_xll.FDS(A375,"FF_EPS(QTR_R,0)")</f>
         <v>1.01</v>
       </c>
-      <c r="F375" s="3" cm="1">
+      <c r="F375" cm="1">
         <f t="array" ref="F375">_xll.FDS(A375,"FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')")</f>
         <v>1.18</v>
       </c>
@@ -11172,7 +11141,7 @@
         <f t="array" ref="E376">_xll.FDS(A376,"FF_EPS(QTR_R,0)")</f>
         <v>3.3881999999999999</v>
       </c>
-      <c r="F376" s="3" cm="1">
+      <c r="F376" cm="1">
         <f t="array" ref="F376">_xll.FDS(A376,"FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')")</f>
         <v>3.39</v>
       </c>
@@ -11190,15 +11159,15 @@
       </c>
       <c r="D377" s="2" cm="1">
         <f t="array" ref="D377">_xll.FDS(A377,"JULIAN(FF_EPS(QTR_R,0).dates)")</f>
-        <v>45930</v>
+        <v>46022</v>
       </c>
       <c r="E377" cm="1">
         <f t="array" ref="E377">_xll.FDS(A377,"FF_EPS(QTR_R,0)")</f>
-        <v>1.2397</v>
-      </c>
-      <c r="F377" s="3" cm="1">
+        <v>1.4406000000000001</v>
+      </c>
+      <c r="F377" cm="1">
         <f t="array" ref="F377">_xll.FDS(A377,"FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')")</f>
-        <v>1.24</v>
+        <v>1.55</v>
       </c>
     </row>
     <row r="378" spans="1:6" x14ac:dyDescent="0.45">
@@ -11214,15 +11183,15 @@
       </c>
       <c r="D378" s="2" cm="1">
         <f t="array" ref="D378">_xll.FDS(A378,"JULIAN(FF_EPS(QTR_R,0).dates)")</f>
-        <v>45930</v>
+        <v>46022</v>
       </c>
       <c r="E378" cm="1">
         <f t="array" ref="E378">_xll.FDS(A378,"FF_EPS(QTR_R,0)")</f>
-        <v>3.3954</v>
-      </c>
-      <c r="F378" s="3" cm="1">
+        <v>0.85</v>
+      </c>
+      <c r="F378" cm="1">
         <f t="array" ref="F378">_xll.FDS(A378,"FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')")</f>
-        <v>3.39</v>
+        <v>0.84</v>
       </c>
     </row>
     <row r="379" spans="1:6" x14ac:dyDescent="0.45">
@@ -11244,7 +11213,7 @@
         <f t="array" ref="E379">_xll.FDS(A379,"FF_EPS(QTR_R,0)")</f>
         <v>1.33</v>
       </c>
-      <c r="F379" s="3" cm="1">
+      <c r="F379" cm="1">
         <f t="array" ref="F379">_xll.FDS(A379,"FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')")</f>
         <v>1.51</v>
       </c>
@@ -11268,7 +11237,7 @@
         <f t="array" ref="E380">_xll.FDS(A380,"FF_EPS(QTR_R,0)")</f>
         <v>0.42720000000000002</v>
       </c>
-      <c r="F380" s="3" cm="1">
+      <c r="F380" cm="1">
         <f t="array" ref="F380">_xll.FDS(A380,"FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')")</f>
         <v>0.48</v>
       </c>
@@ -11292,7 +11261,7 @@
         <f t="array" ref="E381">_xll.FDS(A381,"FF_EPS(QTR_R,0)")</f>
         <v>2.5506000000000002</v>
       </c>
-      <c r="F381" s="3" cm="1">
+      <c r="F381" cm="1">
         <f t="array" ref="F381">_xll.FDS(A381,"FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')")</f>
         <v>3.3</v>
       </c>
@@ -11316,7 +11285,7 @@
         <f t="array" ref="E382">_xll.FDS(A382,"FF_EPS(QTR_R,0)")</f>
         <v>2.5985999999999998</v>
       </c>
-      <c r="F382" s="3" cm="1">
+      <c r="F382" cm="1">
         <f t="array" ref="F382">_xll.FDS(A382,"FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')")</f>
         <v>2.6</v>
       </c>
@@ -11340,7 +11309,7 @@
         <f t="array" ref="E383">_xll.FDS(A383,"FF_EPS(QTR_R,0)")</f>
         <v>7.17</v>
       </c>
-      <c r="F383" s="3" cm="1">
+      <c r="F383" cm="1">
         <f t="array" ref="F383">_xll.FDS(A383,"FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')")</f>
         <v>2.4700000000000002</v>
       </c>
@@ -11364,7 +11333,7 @@
         <f t="array" ref="E384">_xll.FDS(A384,"FF_EPS(QTR_R,0)")</f>
         <v>1.3877999999999999</v>
       </c>
-      <c r="F384" s="3" cm="1">
+      <c r="F384" cm="1">
         <f t="array" ref="F384">_xll.FDS(A384,"FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')")</f>
         <v>1.92</v>
       </c>
@@ -11388,7 +11357,7 @@
         <f t="array" ref="E385">_xll.FDS(A385,"FF_EPS(QTR_R,0)")</f>
         <v>8.77E-2</v>
       </c>
-      <c r="F385" s="3" cm="1">
+      <c r="F385" cm="1">
         <f t="array" ref="F385">_xll.FDS(A385,"FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')")</f>
         <v>2.83</v>
       </c>
@@ -11406,15 +11375,15 @@
       </c>
       <c r="D386" s="2" cm="1">
         <f t="array" ref="D386">_xll.FDS(A386,"JULIAN(FF_EPS(QTR_R,0).dates)")</f>
-        <v>45930</v>
+        <v>46022</v>
       </c>
       <c r="E386" cm="1">
         <f t="array" ref="E386">_xll.FDS(A386,"FF_EPS(QTR_R,0)")</f>
-        <v>2.2404999999999999</v>
-      </c>
-      <c r="F386" s="3" cm="1">
+        <v>2.08</v>
+      </c>
+      <c r="F386" cm="1">
         <f t="array" ref="F386">_xll.FDS(A386,"FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')")</f>
-        <v>3.33</v>
+        <v>3.16</v>
       </c>
     </row>
     <row r="387" spans="1:6" x14ac:dyDescent="0.45">
@@ -11436,7 +11405,7 @@
         <f t="array" ref="E387">_xll.FDS(A387,"FF_EPS(QTR_R,0)")</f>
         <v>4.5731999999999999</v>
       </c>
-      <c r="F387" s="3" t="e" cm="1">
+      <c r="F387" t="e" cm="1">
         <f t="array" ref="F387">_xll.FDS(A387,"FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')")</f>
         <v>#N/A</v>
       </c>
@@ -11460,7 +11429,7 @@
         <f t="array" ref="E388">_xll.FDS(A388,"FF_EPS(QTR_R,0)")</f>
         <v>1.5304</v>
       </c>
-      <c r="F388" s="3" cm="1">
+      <c r="F388" cm="1">
         <f t="array" ref="F388">_xll.FDS(A388,"FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')")</f>
         <v>1.23</v>
       </c>
@@ -11484,7 +11453,7 @@
         <f t="array" ref="E389">_xll.FDS(A389,"FF_EPS(QTR_R,0)")</f>
         <v>2.7841</v>
       </c>
-      <c r="F389" s="3" cm="1">
+      <c r="F389" cm="1">
         <f t="array" ref="F389">_xll.FDS(A389,"FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')")</f>
         <v>3.5</v>
       </c>
@@ -11508,7 +11477,7 @@
         <f t="array" ref="E390">_xll.FDS(A390,"FF_EPS(QTR_R,0)")</f>
         <v>1.7533000000000001</v>
       </c>
-      <c r="F390" s="3" cm="1">
+      <c r="F390" cm="1">
         <f t="array" ref="F390">_xll.FDS(A390,"FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')")</f>
         <v>2.17</v>
       </c>
@@ -11532,7 +11501,7 @@
         <f t="array" ref="E391">_xll.FDS(A391,"FF_EPS(QTR_R,0)")</f>
         <v>2.7618999999999998</v>
       </c>
-      <c r="F391" s="3" cm="1">
+      <c r="F391" cm="1">
         <f t="array" ref="F391">_xll.FDS(A391,"FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')")</f>
         <v>2.8</v>
       </c>
@@ -11556,7 +11525,7 @@
         <f t="array" ref="E392">_xll.FDS(A392,"FF_EPS(QTR_R,0)")</f>
         <v>10.77</v>
       </c>
-      <c r="F392" s="3" cm="1">
+      <c r="F392" cm="1">
         <f t="array" ref="F392">_xll.FDS(A392,"FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')")</f>
         <v>13.26</v>
       </c>
@@ -11580,7 +11549,7 @@
         <f t="array" ref="E393">_xll.FDS(A393,"FF_EPS(QTR_R,0)")</f>
         <v>1.0871</v>
       </c>
-      <c r="F393" s="3" cm="1">
+      <c r="F393" cm="1">
         <f t="array" ref="F393">_xll.FDS(A393,"FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')")</f>
         <v>1.0900000000000001</v>
       </c>
@@ -11604,7 +11573,7 @@
         <f t="array" ref="E394">_xll.FDS(A394,"FF_EPS(QTR_R,0)")</f>
         <v>7.8567</v>
       </c>
-      <c r="F394" s="3" cm="1">
+      <c r="F394" cm="1">
         <f t="array" ref="F394">_xll.FDS(A394,"FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')")</f>
         <v>11.44</v>
       </c>
@@ -11628,7 +11597,7 @@
         <f t="array" ref="E395">_xll.FDS(A395,"FF_EPS(QTR_R,0)")</f>
         <v>0.57999999999999996</v>
       </c>
-      <c r="F395" s="3" cm="1">
+      <c r="F395" cm="1">
         <f t="array" ref="F395">_xll.FDS(A395,"FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')")</f>
         <v>0.56999999999999995</v>
       </c>
@@ -11652,7 +11621,7 @@
         <f t="array" ref="E396">_xll.FDS(A396,"FF_EPS(QTR_R,0)")</f>
         <v>2.7854999999999999</v>
       </c>
-      <c r="F396" s="3" cm="1">
+      <c r="F396" cm="1">
         <f t="array" ref="F396">_xll.FDS(A396,"FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')")</f>
         <v>2.86</v>
       </c>
@@ -11676,7 +11645,7 @@
         <f t="array" ref="E397">_xll.FDS(A397,"FF_EPS(QTR_R,0)")</f>
         <v>5.8135000000000003</v>
       </c>
-      <c r="F397" s="3" cm="1">
+      <c r="F397" cm="1">
         <f t="array" ref="F397">_xll.FDS(A397,"FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')")</f>
         <v>6.22</v>
       </c>
@@ -11700,7 +11669,7 @@
         <f t="array" ref="E398">_xll.FDS(A398,"FF_EPS(QTR_R,0)")</f>
         <v>2.6821999999999999</v>
       </c>
-      <c r="F398" s="3" cm="1">
+      <c r="F398" cm="1">
         <f t="array" ref="F398">_xll.FDS(A398,"FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')")</f>
         <v>2.81</v>
       </c>
@@ -11724,7 +11693,7 @@
         <f t="array" ref="E399">_xll.FDS(A399,"FF_EPS(QTR_R,0)")</f>
         <v>2.6926000000000001</v>
       </c>
-      <c r="F399" s="3" cm="1">
+      <c r="F399" cm="1">
         <f t="array" ref="F399">_xll.FDS(A399,"FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')")</f>
         <v>2.75</v>
       </c>
@@ -11748,7 +11717,7 @@
         <f t="array" ref="E400">_xll.FDS(A400,"FF_EPS(QTR_R,0)")</f>
         <v>0.2412</v>
       </c>
-      <c r="F400" s="3" cm="1">
+      <c r="F400" cm="1">
         <f t="array" ref="F400">_xll.FDS(A400,"FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')")</f>
         <v>0.24</v>
       </c>
@@ -11770,9 +11739,9 @@
       </c>
       <c r="E401" cm="1">
         <f t="array" ref="E401">_xll.FDS(A401,"FF_EPS(QTR_R,0)")</f>
-        <v>3.9740000000000002</v>
-      </c>
-      <c r="F401" s="3" cm="1">
+        <v>3.97</v>
+      </c>
+      <c r="F401" cm="1">
         <f t="array" ref="F401">_xll.FDS(A401,"FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')")</f>
         <v>5.21</v>
       </c>
@@ -11796,7 +11765,7 @@
         <f t="array" ref="E402">_xll.FDS(A402,"FF_EPS(QTR_R,0)")</f>
         <v>1.5834999999999999</v>
       </c>
-      <c r="F402" s="3" cm="1">
+      <c r="F402" cm="1">
         <f t="array" ref="F402">_xll.FDS(A402,"FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')")</f>
         <v>1.58</v>
       </c>
@@ -11814,15 +11783,15 @@
       </c>
       <c r="D403" s="2" cm="1">
         <f t="array" ref="D403">_xll.FDS(A403,"JULIAN(FF_EPS(QTR_R,0).dates)")</f>
-        <v>45930</v>
+        <v>46022</v>
       </c>
       <c r="E403" cm="1">
         <f t="array" ref="E403">_xll.FDS(A403,"FF_EPS(QTR_R,0)")</f>
-        <v>1.7627999999999999</v>
-      </c>
-      <c r="F403" s="3" cm="1">
+        <v>1.7598</v>
+      </c>
+      <c r="F403" cm="1">
         <f t="array" ref="F403">_xll.FDS(A403,"FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')")</f>
-        <v>1.9</v>
+        <v>1.76</v>
       </c>
     </row>
     <row r="404" spans="1:6" x14ac:dyDescent="0.45">
@@ -11844,7 +11813,7 @@
         <f t="array" ref="E404">_xll.FDS(A404,"FF_EPS(QTR_R,0)")</f>
         <v>1.1912</v>
       </c>
-      <c r="F404" s="3" cm="1">
+      <c r="F404" cm="1">
         <f t="array" ref="F404">_xll.FDS(A404,"FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')")</f>
         <v>1.55</v>
       </c>
@@ -11868,7 +11837,7 @@
         <f t="array" ref="E405">_xll.FDS(A405,"FF_EPS(QTR_R,0)")</f>
         <v>0.84589999999999999</v>
       </c>
-      <c r="F405" s="3" cm="1">
+      <c r="F405" cm="1">
         <f t="array" ref="F405">_xll.FDS(A405,"FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')")</f>
         <v>1.7</v>
       </c>
@@ -11892,7 +11861,7 @@
         <f t="array" ref="E406">_xll.FDS(A406,"FF_EPS(QTR_R,0)")</f>
         <v>2.2017000000000002</v>
       </c>
-      <c r="F406" s="3" cm="1">
+      <c r="F406" cm="1">
         <f t="array" ref="F406">_xll.FDS(A406,"FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')")</f>
         <v>2.2000000000000002</v>
       </c>
@@ -11916,7 +11885,7 @@
         <f t="array" ref="E407">_xll.FDS(A407,"FF_EPS(QTR_R,0)")</f>
         <v>0.25679999999999997</v>
       </c>
-      <c r="F407" s="3" cm="1">
+      <c r="F407" cm="1">
         <f t="array" ref="F407">_xll.FDS(A407,"FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')")</f>
         <v>0.56000000000000005</v>
       </c>
@@ -11940,7 +11909,7 @@
         <f t="array" ref="E408">_xll.FDS(A408,"FF_EPS(QTR_R,0)")</f>
         <v>1.33</v>
       </c>
-      <c r="F408" s="3" cm="1">
+      <c r="F408" cm="1">
         <f t="array" ref="F408">_xll.FDS(A408,"FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')")</f>
         <v>1.39</v>
       </c>
@@ -11964,7 +11933,7 @@
         <f t="array" ref="E409">_xll.FDS(A409,"FF_EPS(QTR_R,0)")</f>
         <v>1.2573000000000001</v>
       </c>
-      <c r="F409" s="3" cm="1">
+      <c r="F409" cm="1">
         <f t="array" ref="F409">_xll.FDS(A409,"FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')")</f>
         <v>0.87</v>
       </c>
@@ -11988,7 +11957,7 @@
         <f t="array" ref="E410">_xll.FDS(A410,"FF_EPS(QTR_R,0)")</f>
         <v>1.92</v>
       </c>
-      <c r="F410" s="3" cm="1">
+      <c r="F410" cm="1">
         <f t="array" ref="F410">_xll.FDS(A410,"FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')")</f>
         <v>2.23</v>
       </c>
@@ -12012,7 +11981,7 @@
         <f t="array" ref="E411">_xll.FDS(A411,"FF_EPS(QTR_R,0)")</f>
         <v>2.2614999999999998</v>
       </c>
-      <c r="F411" s="3" cm="1">
+      <c r="F411" cm="1">
         <f t="array" ref="F411">_xll.FDS(A411,"FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')")</f>
         <v>2.1</v>
       </c>
@@ -12036,7 +12005,7 @@
         <f t="array" ref="E412">_xll.FDS(A412,"FF_EPS(QTR_R,0)")</f>
         <v>0.54530000000000001</v>
       </c>
-      <c r="F412" s="3" cm="1">
+      <c r="F412" cm="1">
         <f t="array" ref="F412">_xll.FDS(A412,"FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')")</f>
         <v>0.78</v>
       </c>
@@ -12060,7 +12029,7 @@
         <f t="array" ref="E413">_xll.FDS(A413,"FF_EPS(QTR_R,0)")</f>
         <v>0.60299999999999998</v>
       </c>
-      <c r="F413" s="3" cm="1">
+      <c r="F413" cm="1">
         <f t="array" ref="F413">_xll.FDS(A413,"FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')")</f>
         <v>0.69</v>
       </c>
@@ -12084,7 +12053,7 @@
         <f t="array" ref="E414">_xll.FDS(A414,"FF_EPS(QTR_R,0)")</f>
         <v>4.9375</v>
       </c>
-      <c r="F414" s="3" cm="1">
+      <c r="F414" cm="1">
         <f t="array" ref="F414">_xll.FDS(A414,"FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')")</f>
         <v>4.9400000000000004</v>
       </c>
@@ -12108,7 +12077,7 @@
         <f t="array" ref="E415">_xll.FDS(A415,"FF_EPS(QTR_R,0)")</f>
         <v>2.3929999999999998</v>
       </c>
-      <c r="F415" s="3" cm="1">
+      <c r="F415" cm="1">
         <f t="array" ref="F415">_xll.FDS(A415,"FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')")</f>
         <v>2.9</v>
       </c>
@@ -12126,15 +12095,15 @@
       </c>
       <c r="D416" s="2" cm="1">
         <f t="array" ref="D416">_xll.FDS(A416,"JULIAN(FF_EPS(QTR_R,0).dates)")</f>
-        <v>45930</v>
+        <v>46022</v>
       </c>
       <c r="E416" cm="1">
         <f t="array" ref="E416">_xll.FDS(A416,"FF_EPS(QTR_R,0)")</f>
-        <v>1.5414000000000001</v>
-      </c>
-      <c r="F416" s="3" cm="1">
+        <v>0.37190000000000001</v>
+      </c>
+      <c r="F416" cm="1">
         <f t="array" ref="F416">_xll.FDS(A416,"FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')")</f>
-        <v>1.6</v>
+        <v>0.55000000000000004</v>
       </c>
     </row>
     <row r="417" spans="1:6" x14ac:dyDescent="0.45">
@@ -12156,7 +12125,7 @@
         <f t="array" ref="E417">_xll.FDS(A417,"FF_EPS(QTR_R,0)")</f>
         <v>0.56010000000000004</v>
       </c>
-      <c r="F417" s="3" cm="1">
+      <c r="F417" cm="1">
         <f t="array" ref="F417">_xll.FDS(A417,"FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')")</f>
         <v>9.35</v>
       </c>
@@ -12180,7 +12149,7 @@
         <f t="array" ref="E418">_xll.FDS(A418,"FF_EPS(QTR_R,0)")</f>
         <v>3.7536999999999998</v>
       </c>
-      <c r="F418" s="3" cm="1">
+      <c r="F418" cm="1">
         <f t="array" ref="F418">_xll.FDS(A418,"FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')")</f>
         <v>4.3</v>
       </c>
@@ -12204,7 +12173,7 @@
         <f t="array" ref="E419">_xll.FDS(A419,"FF_EPS(QTR_R,0)")</f>
         <v>0.1177</v>
       </c>
-      <c r="F419" s="3" cm="1">
+      <c r="F419" cm="1">
         <f t="array" ref="F419">_xll.FDS(A419,"FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')")</f>
         <v>1.1100000000000001</v>
       </c>
@@ -12228,7 +12197,7 @@
         <f t="array" ref="E420">_xll.FDS(A420,"FF_EPS(QTR_R,0)")</f>
         <v>1.9563999999999999</v>
       </c>
-      <c r="F420" s="3" cm="1">
+      <c r="F420" cm="1">
         <f t="array" ref="F420">_xll.FDS(A420,"FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')")</f>
         <v>2.5299999999999998</v>
       </c>
@@ -12252,7 +12221,7 @@
         <f t="array" ref="E421">_xll.FDS(A421,"FF_EPS(QTR_R,0)")</f>
         <v>1.82</v>
       </c>
-      <c r="F421" s="3" cm="1">
+      <c r="F421" cm="1">
         <f t="array" ref="F421">_xll.FDS(A421,"FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')")</f>
         <v>1.82</v>
       </c>
@@ -12276,7 +12245,7 @@
         <f t="array" ref="E422">_xll.FDS(A422,"FF_EPS(QTR_R,0)")</f>
         <v>2.42</v>
       </c>
-      <c r="F422" s="3" cm="1">
+      <c r="F422" cm="1">
         <f t="array" ref="F422">_xll.FDS(A422,"FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')")</f>
         <v>2.97</v>
       </c>
@@ -12300,7 +12269,7 @@
         <f t="array" ref="E423">_xll.FDS(A423,"FF_EPS(QTR_R,0)")</f>
         <v>2.6009000000000002</v>
       </c>
-      <c r="F423" s="3" cm="1">
+      <c r="F423" cm="1">
         <f t="array" ref="F423">_xll.FDS(A423,"FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')")</f>
         <v>3.11</v>
       </c>
@@ -12324,7 +12293,7 @@
         <f t="array" ref="E424">_xll.FDS(A424,"FF_EPS(QTR_R,0)")</f>
         <v>2.8795000000000002</v>
       </c>
-      <c r="F424" s="3" cm="1">
+      <c r="F424" cm="1">
         <f t="array" ref="F424">_xll.FDS(A424,"FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')")</f>
         <v>3.06</v>
       </c>
@@ -12348,7 +12317,7 @@
         <f t="array" ref="E425">_xll.FDS(A425,"FF_EPS(QTR_R,0)")</f>
         <v>1.0398000000000001</v>
       </c>
-      <c r="F425" s="3" cm="1">
+      <c r="F425" cm="1">
         <f t="array" ref="F425">_xll.FDS(A425,"FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')")</f>
         <v>1.41</v>
       </c>
@@ -12372,7 +12341,7 @@
         <f t="array" ref="E426">_xll.FDS(A426,"FF_EPS(QTR_R,0)")</f>
         <v>0.5262</v>
       </c>
-      <c r="F426" s="3" cm="1">
+      <c r="F426" cm="1">
         <f t="array" ref="F426">_xll.FDS(A426,"FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')")</f>
         <v>1.54</v>
       </c>
@@ -12396,7 +12365,7 @@
         <f t="array" ref="E427">_xll.FDS(A427,"FF_EPS(QTR_R,0)")</f>
         <v>2.0413999999999999</v>
       </c>
-      <c r="F427" s="3" cm="1">
+      <c r="F427" cm="1">
         <f t="array" ref="F427">_xll.FDS(A427,"FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')")</f>
         <v>2.04</v>
       </c>
@@ -12420,7 +12389,7 @@
         <f t="array" ref="E428">_xll.FDS(A428,"FF_EPS(QTR_R,0)")</f>
         <v>2.1966000000000001</v>
       </c>
-      <c r="F428" s="3" cm="1">
+      <c r="F428" cm="1">
         <f t="array" ref="F428">_xll.FDS(A428,"FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')")</f>
         <v>4.47</v>
       </c>
@@ -12444,7 +12413,7 @@
         <f t="array" ref="E429">_xll.FDS(A429,"FF_EPS(QTR_R,0)")</f>
         <v>0.80930000000000002</v>
       </c>
-      <c r="F429" s="3" cm="1">
+      <c r="F429" cm="1">
         <f t="array" ref="F429">_xll.FDS(A429,"FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')")</f>
         <v>0.99</v>
       </c>
@@ -12468,7 +12437,7 @@
         <f t="array" ref="E430">_xll.FDS(A430,"FF_EPS(QTR_R,0)")</f>
         <v>0.52829999999999999</v>
       </c>
-      <c r="F430" s="3" cm="1">
+      <c r="F430" cm="1">
         <f t="array" ref="F430">_xll.FDS(A430,"FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')")</f>
         <v>0.52</v>
       </c>
@@ -12486,15 +12455,15 @@
       </c>
       <c r="D431" s="2" cm="1">
         <f t="array" ref="D431">_xll.FDS(A431,"JULIAN(FF_EPS(QTR_R,0).dates)")</f>
-        <v>45930</v>
+        <v>46022</v>
       </c>
       <c r="E431" cm="1">
         <f t="array" ref="E431">_xll.FDS(A431,"FF_EPS(QTR_R,0)")</f>
-        <v>-14.7933</v>
-      </c>
-      <c r="F431" s="3" cm="1">
+        <v>1.2177</v>
+      </c>
+      <c r="F431" cm="1">
         <f t="array" ref="F431">_xll.FDS(A431,"FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')")</f>
-        <v>1.67</v>
+        <v>1.21</v>
       </c>
     </row>
     <row r="432" spans="1:6" x14ac:dyDescent="0.45">
@@ -12516,7 +12485,7 @@
         <f t="array" ref="E432">_xll.FDS(A432,"FF_EPS(QTR_R,0)")</f>
         <v>6.6322999999999999</v>
       </c>
-      <c r="F432" s="3" cm="1">
+      <c r="F432" cm="1">
         <f t="array" ref="F432">_xll.FDS(A432,"FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')")</f>
         <v>8.23</v>
       </c>
@@ -12540,7 +12509,7 @@
         <f t="array" ref="E433">_xll.FDS(A433,"FF_EPS(QTR_R,0)")</f>
         <v>5.8390000000000004</v>
       </c>
-      <c r="F433" s="3" cm="1">
+      <c r="F433" cm="1">
         <f t="array" ref="F433">_xll.FDS(A433,"FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')")</f>
         <v>6.3</v>
       </c>
@@ -12564,7 +12533,7 @@
         <f t="array" ref="E434">_xll.FDS(A434,"FF_EPS(QTR_R,0)")</f>
         <v>0.24210000000000001</v>
       </c>
-      <c r="F434" s="3" cm="1">
+      <c r="F434" cm="1">
         <f t="array" ref="F434">_xll.FDS(A434,"FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')")</f>
         <v>0.46</v>
       </c>
@@ -12588,7 +12557,7 @@
         <f t="array" ref="E435">_xll.FDS(A435,"FF_EPS(QTR_R,0)")</f>
         <v>2.5253000000000001</v>
       </c>
-      <c r="F435" s="3" cm="1">
+      <c r="F435" cm="1">
         <f t="array" ref="F435">_xll.FDS(A435,"FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')")</f>
         <v>2.72</v>
       </c>
@@ -12612,7 +12581,7 @@
         <f t="array" ref="E436">_xll.FDS(A436,"FF_EPS(QTR_R,0)")</f>
         <v>1.63</v>
       </c>
-      <c r="F436" s="3" cm="1">
+      <c r="F436" cm="1">
         <f t="array" ref="F436">_xll.FDS(A436,"FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')")</f>
         <v>1.8</v>
       </c>
@@ -12636,7 +12605,7 @@
         <f t="array" ref="E437">_xll.FDS(A437,"FF_EPS(QTR_R,0)")</f>
         <v>1</v>
       </c>
-      <c r="F437" s="3" cm="1">
+      <c r="F437" cm="1">
         <f t="array" ref="F437">_xll.FDS(A437,"FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')")</f>
         <v>1</v>
       </c>
@@ -12660,7 +12629,7 @@
         <f t="array" ref="E438">_xll.FDS(A438,"FF_EPS(QTR_R,0)")</f>
         <v>-9.2431999999999999</v>
       </c>
-      <c r="F438" s="3" cm="1">
+      <c r="F438" cm="1">
         <f t="array" ref="F438">_xll.FDS(A438,"FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')")</f>
         <v>3.67</v>
       </c>
@@ -12684,7 +12653,7 @@
         <f t="array" ref="E439">_xll.FDS(A439,"FF_EPS(QTR_R,0)")</f>
         <v>1.5139</v>
       </c>
-      <c r="F439" s="3" cm="1">
+      <c r="F439" cm="1">
         <f t="array" ref="F439">_xll.FDS(A439,"FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')")</f>
         <v>1.78</v>
       </c>
@@ -12708,7 +12677,7 @@
         <f t="array" ref="E440">_xll.FDS(A440,"FF_EPS(QTR_R,0)")</f>
         <v>1.2806</v>
       </c>
-      <c r="F440" s="3" cm="1">
+      <c r="F440" cm="1">
         <f t="array" ref="F440">_xll.FDS(A440,"FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')")</f>
         <v>1.28</v>
       </c>
@@ -12732,7 +12701,7 @@
         <f t="array" ref="E441">_xll.FDS(A441,"FF_EPS(QTR_R,0)")</f>
         <v>5.21</v>
       </c>
-      <c r="F441" s="3" cm="1">
+      <c r="F441" cm="1">
         <f t="array" ref="F441">_xll.FDS(A441,"FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')")</f>
         <v>6.57</v>
       </c>
@@ -12756,7 +12725,7 @@
         <f t="array" ref="E442">_xll.FDS(A442,"FF_EPS(QTR_R,0)")</f>
         <v>1.8821000000000001</v>
       </c>
-      <c r="F442" s="3" cm="1">
+      <c r="F442" cm="1">
         <f t="array" ref="F442">_xll.FDS(A442,"FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')")</f>
         <v>1.88</v>
       </c>
@@ -12780,7 +12749,7 @@
         <f t="array" ref="E443">_xll.FDS(A443,"FF_EPS(QTR_R,0)")</f>
         <v>2.6753999999999998</v>
       </c>
-      <c r="F443" s="3" cm="1">
+      <c r="F443" cm="1">
         <f t="array" ref="F443">_xll.FDS(A443,"FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')")</f>
         <v>2.69</v>
       </c>
@@ -12798,15 +12767,15 @@
       </c>
       <c r="D444" s="2" cm="1">
         <f t="array" ref="D444">_xll.FDS(A444,"JULIAN(FF_EPS(QTR_R,0).dates)")</f>
-        <v>45930</v>
-      </c>
-      <c r="E444" cm="1">
+        <v>46022</v>
+      </c>
+      <c r="E444" t="e" cm="1">
         <f t="array" ref="E444">_xll.FDS(A444,"FF_EPS(QTR_R,0)")</f>
-        <v>2.2014</v>
-      </c>
-      <c r="F444" s="3" cm="1">
+        <v>#N/A</v>
+      </c>
+      <c r="F444" cm="1">
         <f t="array" ref="F444">_xll.FDS(A444,"FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')")</f>
-        <v>2.2125583</v>
+        <v>2.52</v>
       </c>
     </row>
     <row r="445" spans="1:6" x14ac:dyDescent="0.45">
@@ -12828,7 +12797,7 @@
         <f t="array" ref="E445">_xll.FDS(A445,"FF_EPS(QTR_R,0)")</f>
         <v>0.65</v>
       </c>
-      <c r="F445" s="3" cm="1">
+      <c r="F445" cm="1">
         <f t="array" ref="F445">_xll.FDS(A445,"FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')")</f>
         <v>1</v>
       </c>
@@ -12852,7 +12821,7 @@
         <f t="array" ref="E446">_xll.FDS(A446,"FF_EPS(QTR_R,0)")</f>
         <v>1.9881</v>
       </c>
-      <c r="F446" s="3" cm="1">
+      <c r="F446" cm="1">
         <f t="array" ref="F446">_xll.FDS(A446,"FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')")</f>
         <v>2.44</v>
       </c>
@@ -12876,7 +12845,7 @@
         <f t="array" ref="E447">_xll.FDS(A447,"FF_EPS(QTR_R,0)")</f>
         <v>11.058</v>
       </c>
-      <c r="F447" s="3" cm="1">
+      <c r="F447" cm="1">
         <f t="array" ref="F447">_xll.FDS(A447,"FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')")</f>
         <v>11.13</v>
       </c>
@@ -12900,7 +12869,7 @@
         <f t="array" ref="E448">_xll.FDS(A448,"FF_EPS(QTR_R,0)")</f>
         <v>0.43</v>
       </c>
-      <c r="F448" s="3" cm="1">
+      <c r="F448" cm="1">
         <f t="array" ref="F448">_xll.FDS(A448,"FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')")</f>
         <v>0.43</v>
       </c>
@@ -12924,7 +12893,7 @@
         <f t="array" ref="E449">_xll.FDS(A449,"FF_EPS(QTR_R,0)")</f>
         <v>0.2374</v>
       </c>
-      <c r="F449" s="3" cm="1">
+      <c r="F449" cm="1">
         <f t="array" ref="F449">_xll.FDS(A449,"FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')")</f>
         <v>0.5</v>
       </c>
@@ -12948,7 +12917,7 @@
         <f t="array" ref="E450">_xll.FDS(A450,"FF_EPS(QTR_R,0)")</f>
         <v>0.24640000000000001</v>
       </c>
-      <c r="F450" s="3" cm="1">
+      <c r="F450" cm="1">
         <f t="array" ref="F450">_xll.FDS(A450,"FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')")</f>
         <v>0.97</v>
       </c>
@@ -12972,7 +12941,7 @@
         <f t="array" ref="E451">_xll.FDS(A451,"FF_EPS(QTR_R,0)")</f>
         <v>2.6444999999999999</v>
       </c>
-      <c r="F451" s="3" cm="1">
+      <c r="F451" cm="1">
         <f t="array" ref="F451">_xll.FDS(A451,"FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')")</f>
         <v>2.86</v>
       </c>
@@ -12996,7 +12965,7 @@
         <f t="array" ref="E452">_xll.FDS(A452,"FF_EPS(QTR_R,0)")</f>
         <v>-0.50219999999999998</v>
       </c>
-      <c r="F452" s="3" cm="1">
+      <c r="F452" cm="1">
         <f t="array" ref="F452">_xll.FDS(A452,"FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')")</f>
         <v>1.2280473000000001</v>
       </c>
@@ -13020,7 +12989,7 @@
         <f t="array" ref="E453">_xll.FDS(A453,"FF_EPS(QTR_R,0)")</f>
         <v>1.2688999999999999</v>
       </c>
-      <c r="F453" s="3" cm="1">
+      <c r="F453" cm="1">
         <f t="array" ref="F453">_xll.FDS(A453,"FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')")</f>
         <v>1.27</v>
       </c>
@@ -13044,7 +13013,7 @@
         <f t="array" ref="E454">_xll.FDS(A454,"FF_EPS(QTR_R,0)")</f>
         <v>1.3268</v>
       </c>
-      <c r="F454" s="3" cm="1">
+      <c r="F454" cm="1">
         <f t="array" ref="F454">_xll.FDS(A454,"FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')")</f>
         <v>1.73</v>
       </c>
@@ -13066,9 +13035,9 @@
       </c>
       <c r="E455" cm="1">
         <f t="array" ref="E455">_xll.FDS(A455,"FF_EPS(QTR_R,0)")</f>
-        <v>1.5</v>
-      </c>
-      <c r="F455" s="3" cm="1">
+        <v>1.5049999999999999</v>
+      </c>
+      <c r="F455" cm="1">
         <f t="array" ref="F455">_xll.FDS(A455,"FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')")</f>
         <v>2.64</v>
       </c>
@@ -13092,7 +13061,7 @@
         <f t="array" ref="E456">_xll.FDS(A456,"FF_EPS(QTR_R,0)")</f>
         <v>3.1926999999999999</v>
       </c>
-      <c r="F456" s="3" cm="1">
+      <c r="F456" cm="1">
         <f t="array" ref="F456">_xll.FDS(A456,"FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')")</f>
         <v>3.1</v>
       </c>
@@ -13116,7 +13085,7 @@
         <f t="array" ref="E457">_xll.FDS(A457,"FF_EPS(QTR_R,0)")</f>
         <v>0.14199999999999999</v>
       </c>
-      <c r="F457" s="3" cm="1">
+      <c r="F457" cm="1">
         <f t="array" ref="F457">_xll.FDS(A457,"FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')")</f>
         <v>0.71</v>
       </c>
@@ -13140,7 +13109,7 @@
         <f t="array" ref="E458">_xll.FDS(A458,"FF_EPS(QTR_R,0)")</f>
         <v>0.66649999999999998</v>
       </c>
-      <c r="F458" s="3" cm="1">
+      <c r="F458" cm="1">
         <f t="array" ref="F458">_xll.FDS(A458,"FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')")</f>
         <v>0.67</v>
       </c>
@@ -13164,7 +13133,7 @@
         <f t="array" ref="E459">_xll.FDS(A459,"FF_EPS(QTR_R,0)")</f>
         <v>5.8582999999999998</v>
       </c>
-      <c r="F459" s="3" cm="1">
+      <c r="F459" cm="1">
         <f t="array" ref="F459">_xll.FDS(A459,"FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')")</f>
         <v>5.69</v>
       </c>
@@ -13188,7 +13157,7 @@
         <f t="array" ref="E460">_xll.FDS(A460,"FF_EPS(QTR_R,0)")</f>
         <v>5.1425999999999998</v>
       </c>
-      <c r="F460" s="3" cm="1">
+      <c r="F460" cm="1">
         <f t="array" ref="F460">_xll.FDS(A460,"FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')")</f>
         <v>5.14</v>
       </c>
@@ -13212,7 +13181,7 @@
         <f t="array" ref="E461">_xll.FDS(A461,"FF_EPS(QTR_R,0)")</f>
         <v>1.0999999999999999E-2</v>
       </c>
-      <c r="F461" s="3" cm="1">
+      <c r="F461" cm="1">
         <f t="array" ref="F461">_xll.FDS(A461,"FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')")</f>
         <v>2.11</v>
       </c>
@@ -13236,7 +13205,7 @@
         <f t="array" ref="E462">_xll.FDS(A462,"FF_EPS(QTR_R,0)")</f>
         <v>3.1137000000000001</v>
       </c>
-      <c r="F462" s="3" cm="1">
+      <c r="F462" cm="1">
         <f t="array" ref="F462">_xll.FDS(A462,"FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')")</f>
         <v>2.86</v>
       </c>
@@ -13258,9 +13227,9 @@
       </c>
       <c r="E463" cm="1">
         <f t="array" ref="E463">_xll.FDS(A463,"FF_EPS(QTR_R,0)")</f>
-        <v>2.1</v>
-      </c>
-      <c r="F463" s="3" cm="1">
+        <v>2.0996000000000001</v>
+      </c>
+      <c r="F463" cm="1">
         <f t="array" ref="F463">_xll.FDS(A463,"FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')")</f>
         <v>2.38</v>
       </c>
@@ -13284,7 +13253,7 @@
         <f t="array" ref="E464">_xll.FDS(A464,"FF_EPS(QTR_R,0)")</f>
         <v>10.267300000000001</v>
       </c>
-      <c r="F464" s="3" cm="1">
+      <c r="F464" cm="1">
         <f t="array" ref="F464">_xll.FDS(A464,"FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')")</f>
         <v>11.09</v>
       </c>
@@ -13308,7 +13277,7 @@
         <f t="array" ref="E465">_xll.FDS(A465,"FF_EPS(QTR_R,0)")</f>
         <v>1.2627999999999999</v>
       </c>
-      <c r="F465" s="3" cm="1">
+      <c r="F465" cm="1">
         <f t="array" ref="F465">_xll.FDS(A465,"FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')")</f>
         <v>1.26</v>
       </c>
@@ -13332,7 +13301,7 @@
         <f t="array" ref="E466">_xll.FDS(A466,"FF_EPS(QTR_R,0)")</f>
         <v>3.0021</v>
       </c>
-      <c r="F466" s="3" cm="1">
+      <c r="F466" cm="1">
         <f t="array" ref="F466">_xll.FDS(A466,"FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')")</f>
         <v>3.17</v>
       </c>
@@ -13356,7 +13325,7 @@
         <f t="array" ref="E467">_xll.FDS(A467,"FF_EPS(QTR_R,0)")</f>
         <v>0.71330000000000005</v>
       </c>
-      <c r="F467" s="3" cm="1">
+      <c r="F467" cm="1">
         <f t="array" ref="F467">_xll.FDS(A467,"FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')")</f>
         <v>0.71</v>
       </c>
@@ -13380,7 +13349,7 @@
         <f t="array" ref="E468">_xll.FDS(A468,"FF_EPS(QTR_R,0)")</f>
         <v>3.73</v>
       </c>
-      <c r="F468" s="3" cm="1">
+      <c r="F468" cm="1">
         <f t="array" ref="F468">_xll.FDS(A468,"FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')")</f>
         <v>3.82</v>
       </c>
@@ -13404,7 +13373,7 @@
         <f t="array" ref="E469">_xll.FDS(A469,"FF_EPS(QTR_R,0)")</f>
         <v>1.01</v>
       </c>
-      <c r="F469" s="3" cm="1">
+      <c r="F469" cm="1">
         <f t="array" ref="F469">_xll.FDS(A469,"FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')")</f>
         <v>1.04</v>
       </c>
@@ -13422,15 +13391,15 @@
       </c>
       <c r="D470" s="2" cm="1">
         <f t="array" ref="D470">_xll.FDS(A470,"JULIAN(FF_EPS(QTR_R,0).dates)")</f>
-        <v>45930</v>
+        <v>46022</v>
       </c>
       <c r="E470" cm="1">
         <f t="array" ref="E470">_xll.FDS(A470,"FF_EPS(QTR_R,0)")</f>
-        <v>2.8209</v>
-      </c>
-      <c r="F470" s="3" cm="1">
+        <v>1.9076</v>
+      </c>
+      <c r="F470" cm="1">
         <f t="array" ref="F470">_xll.FDS(A470,"FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')")</f>
-        <v>2.84</v>
+        <v>1.7</v>
       </c>
     </row>
     <row r="471" spans="1:6" x14ac:dyDescent="0.45">
@@ -13446,15 +13415,15 @@
       </c>
       <c r="D471" s="2" cm="1">
         <f t="array" ref="D471">_xll.FDS(A471,"JULIAN(FF_EPS(QTR_R,0).dates)")</f>
-        <v>45930</v>
+        <v>46022</v>
       </c>
       <c r="E471" cm="1">
         <f t="array" ref="E471">_xll.FDS(A471,"FF_EPS(QTR_R,0)")</f>
-        <v>1.6113999999999999</v>
-      </c>
-      <c r="F471" s="3" cm="1">
+        <v>1.4176</v>
+      </c>
+      <c r="F471" cm="1">
         <f t="array" ref="F471">_xll.FDS(A471,"FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')")</f>
-        <v>1.72</v>
+        <v>1.82</v>
       </c>
     </row>
     <row r="472" spans="1:6" x14ac:dyDescent="0.45">
@@ -13476,7 +13445,7 @@
         <f t="array" ref="E472">_xll.FDS(A472,"FF_EPS(QTR_R,0)")</f>
         <v>2.2267999999999999</v>
       </c>
-      <c r="F472" s="3" cm="1">
+      <c r="F472" cm="1">
         <f t="array" ref="F472">_xll.FDS(A472,"FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')")</f>
         <v>2.23</v>
       </c>
@@ -13500,7 +13469,7 @@
         <f t="array" ref="E473">_xll.FDS(A473,"FF_EPS(QTR_R,0)")</f>
         <v>4.6509</v>
       </c>
-      <c r="F473" s="3" cm="1">
+      <c r="F473" cm="1">
         <f t="array" ref="F473">_xll.FDS(A473,"FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')")</f>
         <v>5.03</v>
       </c>
@@ -13524,7 +13493,7 @@
         <f t="array" ref="E474">_xll.FDS(A474,"FF_EPS(QTR_R,0)")</f>
         <v>1.7505999999999999</v>
       </c>
-      <c r="F474" s="3" cm="1">
+      <c r="F474" cm="1">
         <f t="array" ref="F474">_xll.FDS(A474,"FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')")</f>
         <v>1.7472291</v>
       </c>
@@ -13548,7 +13517,7 @@
         <f t="array" ref="E475">_xll.FDS(A475,"FF_EPS(QTR_R,0)")</f>
         <v>0.14599999999999999</v>
       </c>
-      <c r="F475" s="3" cm="1">
+      <c r="F475" cm="1">
         <f t="array" ref="F475">_xll.FDS(A475,"FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')")</f>
         <v>0.15</v>
       </c>
@@ -13572,7 +13541,7 @@
         <f t="array" ref="E476">_xll.FDS(A476,"FF_EPS(QTR_R,0)")</f>
         <v>-0.1101</v>
       </c>
-      <c r="F476" s="3" cm="1">
+      <c r="F476" cm="1">
         <f t="array" ref="F476">_xll.FDS(A476,"FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')")</f>
         <v>0.67</v>
       </c>
@@ -13594,9 +13563,9 @@
       </c>
       <c r="E477" cm="1">
         <f t="array" ref="E477">_xll.FDS(A477,"FF_EPS(QTR_R,0)")</f>
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="F477" s="3" cm="1">
+        <v>0.55289999999999995</v>
+      </c>
+      <c r="F477" cm="1">
         <f t="array" ref="F477">_xll.FDS(A477,"FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')")</f>
         <v>1.0900000000000001</v>
       </c>
@@ -13620,7 +13589,7 @@
         <f t="array" ref="E478">_xll.FDS(A478,"FF_EPS(QTR_R,0)")</f>
         <v>1.1813</v>
       </c>
-      <c r="F478" s="3" cm="1">
+      <c r="F478" cm="1">
         <f t="array" ref="F478">_xll.FDS(A478,"FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')")</f>
         <v>2.1</v>
       </c>
@@ -13644,7 +13613,7 @@
         <f t="array" ref="E479">_xll.FDS(A479,"FF_EPS(QTR_R,0)")</f>
         <v>3.77</v>
       </c>
-      <c r="F479" s="3" cm="1">
+      <c r="F479" cm="1">
         <f t="array" ref="F479">_xll.FDS(A479,"FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')")</f>
         <v>4.53</v>
       </c>
@@ -13668,7 +13637,7 @@
         <f t="array" ref="E480">_xll.FDS(A480,"FF_EPS(QTR_R,0)")</f>
         <v>-0.20230000000000001</v>
       </c>
-      <c r="F480" s="3" t="e" cm="1">
+      <c r="F480" t="e" cm="1">
         <f t="array" ref="F480">_xll.FDS(A480,"FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')")</f>
         <v>#N/A</v>
       </c>
@@ -13692,7 +13661,7 @@
         <f t="array" ref="E481">_xll.FDS(A481,"FF_EPS(QTR_R,0)")</f>
         <v>-5.9700000000000003E-2</v>
       </c>
-      <c r="F481" s="3" cm="1">
+      <c r="F481" cm="1">
         <f t="array" ref="F481">_xll.FDS(A481,"FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')")</f>
         <v>-0.06</v>
       </c>
@@ -13716,7 +13685,7 @@
         <f t="array" ref="E482">_xll.FDS(A482,"FF_EPS(QTR_R,0)")</f>
         <v>4.7297000000000002</v>
       </c>
-      <c r="F482" s="3" cm="1">
+      <c r="F482" cm="1">
         <f t="array" ref="F482">_xll.FDS(A482,"FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')")</f>
         <v>2.13</v>
       </c>
@@ -13740,7 +13709,7 @@
         <f t="array" ref="E483">_xll.FDS(A483,"FF_EPS(QTR_R,0)")</f>
         <v>0.97</v>
       </c>
-      <c r="F483" s="3" cm="1">
+      <c r="F483" cm="1">
         <f t="array" ref="F483">_xll.FDS(A483,"FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')")</f>
         <v>1.42</v>
       </c>
@@ -13764,7 +13733,7 @@
         <f t="array" ref="E484">_xll.FDS(A484,"FF_EPS(QTR_R,0)")</f>
         <v>-1.859</v>
       </c>
-      <c r="F484" s="3" cm="1">
+      <c r="F484" cm="1">
         <f t="array" ref="F484">_xll.FDS(A484,"FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')")</f>
         <v>0.14000000000000001</v>
       </c>
@@ -13788,7 +13757,7 @@
         <f t="array" ref="E485">_xll.FDS(A485,"FF_EPS(QTR_R,0)")</f>
         <v>1.62</v>
       </c>
-      <c r="F485" s="3" cm="1">
+      <c r="F485" cm="1">
         <f t="array" ref="F485">_xll.FDS(A485,"FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')")</f>
         <v>1.62</v>
       </c>
@@ -13812,7 +13781,7 @@
         <f t="array" ref="E486">_xll.FDS(A486,"FF_EPS(QTR_R,0)")</f>
         <v>1.8344</v>
       </c>
-      <c r="F486" s="3" cm="1">
+      <c r="F486" cm="1">
         <f t="array" ref="F486">_xll.FDS(A486,"FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')")</f>
         <v>1.93</v>
       </c>
@@ -13836,7 +13805,7 @@
         <f t="array" ref="E487">_xll.FDS(A487,"FF_EPS(QTR_R,0)")</f>
         <v>#N/A</v>
       </c>
-      <c r="F487" s="3" cm="1">
+      <c r="F487" cm="1">
         <f t="array" ref="F487">_xll.FDS(A487,"FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')")</f>
         <v>0.55000000000000004</v>
       </c>
@@ -13854,15 +13823,15 @@
       </c>
       <c r="D488" s="2" cm="1">
         <f t="array" ref="D488">_xll.FDS(A488,"JULIAN(FF_EPS(QTR_R,0).dates)")</f>
-        <v>45961</v>
+        <v>46052</v>
       </c>
       <c r="E488" cm="1">
         <f t="array" ref="E488">_xll.FDS(A488,"FF_EPS(QTR_R,0)")</f>
-        <v>0.76680000000000004</v>
-      </c>
-      <c r="F488" s="3" cm="1">
+        <v>0.53</v>
+      </c>
+      <c r="F488" cm="1">
         <f t="array" ref="F488">_xll.FDS(A488,"FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')")</f>
-        <v>0.62</v>
+        <v>0.74</v>
       </c>
     </row>
     <row r="489" spans="1:6" x14ac:dyDescent="0.45">
@@ -13884,7 +13853,7 @@
         <f t="array" ref="E489">_xll.FDS(A489,"FF_EPS(QTR_R,0)")</f>
         <v>1.1299999999999999</v>
       </c>
-      <c r="F489" s="3" cm="1">
+      <c r="F489" cm="1">
         <f t="array" ref="F489">_xll.FDS(A489,"FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')")</f>
         <v>1.1299999999999999</v>
       </c>
@@ -13906,9 +13875,9 @@
       </c>
       <c r="E490" cm="1">
         <f t="array" ref="E490">_xll.FDS(A490,"FF_EPS(QTR_R,0)")</f>
-        <v>1.82</v>
-      </c>
-      <c r="F490" s="3" cm="1">
+        <v>1.8170999999999999</v>
+      </c>
+      <c r="F490" cm="1">
         <f t="array" ref="F490">_xll.FDS(A490,"FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')")</f>
         <v>2.04</v>
       </c>
@@ -13932,7 +13901,7 @@
         <f t="array" ref="E491">_xll.FDS(A491,"FF_EPS(QTR_R,0)")</f>
         <v>7.62</v>
       </c>
-      <c r="F491" s="3" cm="1">
+      <c r="F491" cm="1">
         <f t="array" ref="F491">_xll.FDS(A491,"FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')")</f>
         <v>8.1199999999999992</v>
       </c>
@@ -13956,7 +13925,7 @@
         <f t="array" ref="E492">_xll.FDS(A492,"FF_EPS(QTR_R,0)")</f>
         <v>0.10249999999999999</v>
       </c>
-      <c r="F492" s="3" cm="1">
+      <c r="F492" cm="1">
         <f t="array" ref="F492">_xll.FDS(A492,"FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')")</f>
         <v>-0.09</v>
       </c>
@@ -13980,7 +13949,7 @@
         <f t="array" ref="E493">_xll.FDS(A493,"FF_EPS(QTR_R,0)")</f>
         <v>0.82</v>
       </c>
-      <c r="F493" s="3" cm="1">
+      <c r="F493" cm="1">
         <f t="array" ref="F493">_xll.FDS(A493,"FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')")</f>
         <v>1.17</v>
       </c>
@@ -14004,7 +13973,7 @@
         <f t="array" ref="E494">_xll.FDS(A494,"FF_EPS(QTR_R,0)")</f>
         <v>0.95</v>
       </c>
-      <c r="F494" s="3" cm="1">
+      <c r="F494" cm="1">
         <f t="array" ref="F494">_xll.FDS(A494,"FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')")</f>
         <v>0.96</v>
       </c>
@@ -14026,9 +13995,9 @@
       </c>
       <c r="E495" cm="1">
         <f t="array" ref="E495">_xll.FDS(A495,"FF_EPS(QTR_R,0)")</f>
-        <v>1.53</v>
-      </c>
-      <c r="F495" s="3" cm="1">
+        <v>1.534</v>
+      </c>
+      <c r="F495" cm="1">
         <f t="array" ref="F495">_xll.FDS(A495,"FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')")</f>
         <v>1.71</v>
       </c>
@@ -14052,7 +14021,7 @@
         <f t="array" ref="E496">_xll.FDS(A496,"FF_EPS(QTR_R,0)")</f>
         <v>1.3717999999999999</v>
       </c>
-      <c r="F496" s="3" cm="1">
+      <c r="F496" cm="1">
         <f t="array" ref="F496">_xll.FDS(A496,"FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')")</f>
         <v>1.42</v>
       </c>
@@ -14076,7 +14045,7 @@
         <f t="array" ref="E497">_xll.FDS(A497,"FF_EPS(QTR_R,0)")</f>
         <v>1.91</v>
       </c>
-      <c r="F497" s="3" cm="1">
+      <c r="F497" cm="1">
         <f t="array" ref="F497">_xll.FDS(A497,"FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')")</f>
         <v>1.73</v>
       </c>
@@ -14100,7 +14069,7 @@
         <f t="array" ref="E498">_xll.FDS(A498,"FF_EPS(QTR_R,0)")</f>
         <v>0.7</v>
       </c>
-      <c r="F498" s="3" cm="1">
+      <c r="F498" cm="1">
         <f t="array" ref="F498">_xll.FDS(A498,"FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')")</f>
         <v>2.42</v>
       </c>
@@ -14124,7 +14093,7 @@
         <f t="array" ref="E499">_xll.FDS(A499,"FF_EPS(QTR_R,0)")</f>
         <v>1.3819999999999999</v>
       </c>
-      <c r="F499" s="3" cm="1">
+      <c r="F499" cm="1">
         <f t="array" ref="F499">_xll.FDS(A499,"FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')")</f>
         <v>4.33</v>
       </c>
@@ -14148,7 +14117,7 @@
         <f t="array" ref="E500">_xll.FDS(A500,"FF_EPS(QTR_R,0)")</f>
         <v>1.76</v>
       </c>
-      <c r="F500" s="3" cm="1">
+      <c r="F500" cm="1">
         <f t="array" ref="F500">_xll.FDS(A500,"FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')")</f>
         <v>1.76</v>
       </c>
@@ -14172,7 +14141,7 @@
         <f t="array" ref="E501">_xll.FDS(A501,"FF_EPS(QTR_R,0)")</f>
         <v>1.3748</v>
       </c>
-      <c r="F501" s="3" cm="1">
+      <c r="F501" cm="1">
         <f t="array" ref="F501">_xll.FDS(A501,"FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')")</f>
         <v>1.48</v>
       </c>
@@ -14183,11 +14152,11 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<FdsFormulaCache xmlns="urn:fdsformulacache" version="2" timestamp="1771242778"><![CDATA[{"ZTS^FF_EPS(QTR_R,0)":1.3748,"ZTS^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"ZION^FF_EPS(QTR_R,0)":1.76,"ZION^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"ZBRA^FF_EPS(QTR_R,0)":1.382,"ZBRA^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"ZBH^FF_EPS(QTR_R,0)":0.7,"ZBH^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"YUM^FF_EPS(QTR_R,0)":1.91,"YUM^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"XYL^FF_EPS(QTR_R,0)":1.3718,"XYL^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"XOM^FF_EPS(QTR_R,0)":1.53,"XOM^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"XEL^FF_EPS(QTR_R,0)":0.95,"XEL^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"WYNN^FF_EPS(QTR_R,0)":0.82,"WYNN^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"WY^FF_EPS(QTR_R,0)":0.1025,"WY^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"WTW^FF_EPS(QTR_R,0)":7.62,"WTW^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"WST^FF_EPS(QTR_R,0)":1.82,"WST^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"WRB^FF_EPS(QTR_R,0)":1.13,"WRB^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"WMT^FF_EPS(QTR_R,0)":0.7668,"WMT^JULIAN(FF_EPS(QTR_R,0).DATES)":45961,"WMB^FF_EPS(QTR_R,0)":null,"WMB^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"WM^FF_EPS(QTR_R,0)":1.8344,"WM^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"WFC^FF_EPS(QTR_R,0)":1.62,"WFC^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"WELL^FF_EPS(QTR_R,0)":-1.859,"WELL^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"WEC^FF_EPS(QTR_R,0)":0.97,"WEC^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"WDC^FF_EPS(QTR_R,0)":4.7297,"WDC^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"WBD^FF_EPS(QTR_R,0)":-0.0597,"WBD^JULIAN(FF_EPS(QTR_R,0).DATES)":45930,"WBA^FF_EPS(QTR_R,0)":-0.2023,"WBA^JULIAN(FF_EPS(QTR_R,0).DATES)":45807,"WAT^FF_EPS(QTR_R,0)":3.77,"WAT^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"WAB^FF_EPS(QTR_R,0)":1.1813,"WAB^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"VZ^FF_EPS(QTR_R,0)":0.55,"VZ^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"VTRS^FF_EPS(QTR_R,0)":-0.1101,"VTRS^JULIAN(FF_EPS(QTR_R,0).DATES)":45930,"VTR^FF_EPS(QTR_R,0)":0.146,"VTR^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"VST^FF_EPS(QTR_R,0)":1.7506,"VST^JULIAN(FF_EPS(QTR_R,0).DATES)":45930,"VRTX^FF_EPS(QTR_R,0)":4.6509,"VRTX^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"VRSN^FF_EPS(QTR_R,0)":2.2268,"VRSN^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"VRSK^FF_EPS(QTR_R,0)":1.6114,"VRSK^JULIAN(FF_EPS(QTR_R,0).DATES)":45930,"VMC^FF_EPS(QTR_R,0)":2.8209,"VMC^JULIAN(FF_EPS(QTR_R,0).DATES)":45930,"VLTO^FF_EPS(QTR_R,0)":1.01,"VLTO^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"VLO^FF_EPS(QTR_R,0)":3.73,"VLO^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"VICI^FF_EPS(QTR_R,0)":0.7133,"VICI^JULIAN(FF_EPS(QTR_R,0).DATES)":45930,"V^FF_EPS(QTR_R,0)":3.0021,"V^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"USB^FF_EPS(QTR_R,0)":1.2628,"USB^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"URI^FF_EPS(QTR_R,0)":10.2673,"URI^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"UPS^FF_EPS(QTR_R,0)":2.1,"UPS^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"UNP^FF_EPS(QTR_R,0)":3.1137,"UNP^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"UNH^FF_EPS(QTR_R,0)":0.011,"UNH^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"ULTA^FF_EPS(QTR_R,0)":5.1426,"ULTA^JULIAN(FF_EPS(QTR_R,0).DATES)":45961,"UHS^FF_EPS(QTR_R,0)":5.8583,"UHS^JULIAN(FF_EPS(QTR_R,0).DATES)":45930,"UDR^FF_EPS(QTR_R,0)":0.6665,"UDR^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"UBER^FF_EPS(QTR_R,0)":0.142,"UBER^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"UAL^FF_EPS(QTR_R,0)":3.1927,"UAL^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"TYL^FF_EPS(QTR_R,0)":1.5,"TYL^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"TXT^FF_EPS(QTR_R,0)":1.3268,"TXT^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"TXN^FF_EPS(QTR_R,0)":1.2689,"TXN^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"TTWO^FF_EPS(QTR_R,0)":-0.5022,"TTWO^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"TT^FF_EPS(QTR_R,0)":2.6445,"TT^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"TSN^FF_EPS(QTR_R,0)":0.2464,"TSN^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"TSLA^FF_EPS(QTR_R,0)":0.2374,"TSLA^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"TSCO^FF_EPS(QTR_R,0)":0.43,"TSCO^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"TRV^FF_EPS(QTR_R,0)":11.058,"TRV^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"TROW^FF_EPS(QTR_R,0)":1.9881,"TROW^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"TRMB^FF_EPS(QTR_R,0)":0.65,"TRMB^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"TRGP^FF_EPS(QTR_R,0)":2.2014,"TRGP^JULIAN(FF_EPS(QTR_R,0).DATES)":45930,"TPR^FF_EPS(QTR_R,0)":2.6753999999999998,"TPR^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"TMUS^FF_EPS(QTR_R,0)":1.8821,"TMUS^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"TMO^FF_EPS(QTR_R,0)":5.21,"TMO^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"TJX^FF_EPS(QTR_R,0)":1.2806,"TJX^JULIAN(FF_EPS(QTR_R,0).DATES)":45961,"TGT^FF_EPS(QTR_R,0)":1.5139,"TGT^JULIAN(FF_EPS(QTR_R,0).DATES)":45961,"TFX^FF_EPS(QTR_R,0)":-9.2432,"TFX^JULIAN(FF_EPS(QTR_R,0).DATES)":45930,"TFC^FF_EPS(QTR_R,0)":1.0,"TFC^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"TER^FF_EPS(QTR_R,0)":1.63,"TER^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"TEL^FF_EPS(QTR_R,0)":2.5253,"TEL^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"TECH^FF_EPS(QTR_R,0)":0.2421,"TECH^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"TDY^FF_EPS(QTR_R,0)":5.839,"TDY^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"TDG^FF_EPS(QTR_R,0)":6.6323,"TDG^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"TAP^FF_EPS(QTR_R,0)":-14.7933,"TAP^JULIAN(FF_EPS(QTR_R,0).DATES)":45930,"T^FF_EPS(QTR_R,0)":0.5283,"T^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"SYY^FF_EPS(QTR_R,0)":0.8093,"SYY^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"SYK^FF_EPS(QTR_R,0)":2.1966,"SYK^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"SYF^FF_EPS(QTR_R,0)":2.0414,"SYF^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"SWKS^FF_EPS(QTR_R,0)":0.5262,"SWKS^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"SWK^FF_EPS(QTR_R,0)":1.0398,"SWK^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"STZ^FF_EPS(QTR_R,0)":2.8795,"STZ^JULIAN(FF_EPS(QTR_R,0).DATES)":45989,"STX^FF_EPS(QTR_R,0)":2.6009,"STX^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"STT^FF_EPS(QTR_R,0)":2.42,"STT^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"STLD^FF_EPS(QTR_R,0)":1.82,"STLD^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"STE^FF_EPS(QTR_R,0)":1.9564,"STE^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"SRE^FF_EPS(QTR_R,0)":0.1177,"SRE^JULIAN(FF_EPS(QTR_R,0).DATES)":45930,"SPGI^FF_EPS(QTR_R,0)":3.7537,"SPGI^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"SPG^FF_EPS(QTR_R,0)":0.5601,"SPG^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"SO^FF_EPS(QTR_R,0)":1.5414,"SO^JULIAN(FF_EPS(QTR_R,0).DATES)":45930,"SNPS^FF_EPS(QTR_R,0)":2.393,"SNPS^JULIAN(FF_EPS(QTR_R,0).DATES)":45961,"SNA^FF_EPS(QTR_R,0)":4.9375,"SNA^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"SMCI^FF_EPS(QTR_R,0)":0.603,"SMCI^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"SLB^FF_EPS(QTR_R,0)":0.5453,"SLB^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"SJM^FF_EPS(QTR_R,0)":2.2615,"SJM^JULIAN(FF_EPS(QTR_R,0).DATES)":45961,"SHW^FF_EPS(QTR_R,0)":1.92,"SHW^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"SEE^FF_EPS(QTR_R,0)":1.2573,"SEE^JULIAN(FF_EPS(QTR_R,0).DATES)":45930,"SCHW^FF_EPS(QTR_R,0)":1.33,"SCHW^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"SBUX^FF_EPS(QTR_R,0)":0.2568,"SBUX^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"SBAC^FF_EPS(QTR_R,0)":2.2017,"SBAC^JULIAN(FF_EPS(QTR_R,0).DATES)":45930,"RVTY^FF_EPS(QTR_R,0)":0.8459,"RVTY^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"RTX^FF_EPS(QTR_R,0)":1.1912,"RTX^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"RSG^FF_EPS(QTR_R,0)":1.7628,"RSG^JULIAN(FF_EPS(QTR_R,0).DATES)":45930,"ROST^FF_EPS(QTR_R,0)":1.5835,"ROST^JULIAN(FF_EPS(QTR_R,0).DATES)":45961,"ROP^FF_EPS(QTR_R,0)":3.974,"ROP^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"ROL^FF_EPS(QTR_R,0)":0.2412,"ROL^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"ROK^FF_EPS(QTR_R,0)":2.6926,"ROK^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"RMD^FF_EPS(QTR_R,0)":2.6822,"RMD^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"RL^FF_EPS(QTR_R,0)":5.8135,"RL^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"RJF^FF_EPS(QTR_R,0)":2.7855,"RJF^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"RF^FF_EPS(QTR_R,0)":0.58,"RF^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"REGN^FF_EPS(QTR_R,0)":7.8567,"REGN^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"REG^FF_EPS(QTR_R,0)":1.0871,"REG^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"RE^FF_EPS(QTR_R,0)":10.77,"RE^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"RCL^FF_EPS(QTR_R,0)":2.7619,"RCL^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"QRVO^FF_EPS(QTR_R,0)":1.7533,"QRVO^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"QCOM^FF_EPS(QTR_R,0)":2.7841,"QCOM^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"PYPL^FF_EPS(QTR_R,0)":1.5304,"PYPL^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"PXD^FF_EPS(QTR_R,0)":4.5732,"PXD^JULIAN(FF_EPS(QTR_R,0).DATES)":45379,"PWR^FF_EPS(QTR_R,0)":2.2405,"PWR^JULIAN(FF_EPS(QTR_R,0).DATES)":45930,"PVH^FF_EPS(QTR_R,0)":0.0877,"PVH^JULIAN(FF_EPS(QTR_R,0).DATES)":45961,"PTC^FF_EPS(QTR_R,0)":1.3878,"PTC^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"PSX^FF_EPS(QTR_R,0)":7.17,"PSX^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"PSA^FF_EPS(QTR_R,0)":2.5986,"PSA^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"PRU^FF_EPS(QTR_R,0)":2.5506,"PRU^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"PPL^FF_EPS(QTR_R,0)":0.4272,"PPL^JULIAN(FF_EPS(QTR_R,0).DATES)":45930,"PPG^FF_EPS(QTR_R,0)":1.33,"PPG^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"POOL^FF_EPS(QTR_R,0)":3.3954,"POOL^JULIAN(FF_EPS(QTR_R,0).DATES)":45930,"PODD^FF_EPS(QTR_R,0)":1.2397,"PODD^JULIAN(FF_EPS(QTR_R,0).DATES)":45930,"PNW^FF_EPS(QTR_R,0)":3.3882,"PNW^JULIAN(FF_EPS(QTR_R,0).DATES)":45930,"PNR^FF_EPS(QTR_R,0)":1.01,"PNR^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"PNC^FF_EPS(QTR_R,0)":4.8782,"PNC^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"PM^FF_EPS(QTR_R,0)":1.3704,"PM^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"PLTR^FF_EPS(QTR_R,0)":0.24,"PLTR^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"PLD^FF_EPS(QTR_R,0)":1.4946,"PLD^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"PKG^FF_EPS(QTR_R,0)":1.1284,"PKG^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"PHM^FF_EPS(QTR_R,0)":2.5621,"PHM^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"PH^FF_EPS(QTR_R,0)":6.5964,"PH^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"PGR^FF_EPS(QTR_R,0)":null,"PGR^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"PG^FF_EPS(QTR_R,0)":1.7818,"PG^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"PFG^FF_EPS(QTR_R,0)":2.3246,"PFG^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"PFE^FF_EPS(QTR_R,0)":-0.2898,"PFE^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"PEP^FF_EPS(QTR_R,0)":1.8527,"PEP^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"PEG^FF_EPS(QTR_R,0)":1.2415,"PEG^JULIAN(FF_EPS(QTR_R,0).DATES)":45930,"PEAK^FF_EPS(QTR_R,0)":0.1638,"PEAK^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"PCG^FF_EPS(QTR_R,0)":0.2921,"PCG^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"PCAR^FF_EPS(QTR_R,0)":1.0571,"PCAR^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"PAYX^FF_EPS(QTR_R,0)":1.0971,"PAYX^JULIAN(FF_EPS(QTR_R,0).DATES)":45989,"PAYC^FF_EPS(QTR_R,0)":2.0653,"PAYC^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"PARA^FF_EPS(QTR_R,0)":-0.2341,"PARA^JULIAN(FF_EPS(QTR_R,0).DATES)":45930,"OXY^FF_EPS(QTR_R,0)":0.655,"OXY^JULIAN(FF_EPS(QTR_R,0).DATES)":45930,"OTIS^FF_EPS(QTR_R,0)":0.9546,"OTIS^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"ORLY^FF_EPS(QTR_R,0)":0.71,"ORLY^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"ORCL^FF_EPS(QTR_R,0)":2.0996,"ORCL^JULIAN(FF_EPS(QTR_R,0).DATES)":45989,"ON^FF_EPS(QTR_R,0)":0.4519,"ON^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"OMC^FF_EPS(QTR_R,0)":1.7512,"OMC^JULIAN(FF_EPS(QTR_R,0).DATES)":45930,"OKE^FF_EPS(QTR_R,0)":1.4869,"OKE^JULIAN(FF_EPS(QTR_R,0).DATES)":45930,"ODFL^FF_EPS(QTR_R,0)":1.09,"ODFL^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"O^FF_EPS(QTR_R,0)":0.345,"O^JULIAN(FF_EPS(QTR_R,0).DATES)":45930,"NXPI^FF_EPS(QTR_R,0)":1.8017,"NXPI^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"NWSA^FF_EPS(QTR_R,0)":0.3434,"NWSA^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"NWS^FF_EPS(QTR_R,0)":0.3434,"NWS^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"NVR^FF_EPS(QTR_R,0)":121.5553,"NVR^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"NVDA^FF_EPS(QTR_R,0)":1.3034,"NVDA^JULIAN(FF_EPS(QTR_R,0).DATES)":45961,"NUE^FF_EPS(QTR_R,0)":1.64,"NUE^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"NTRS^FF_EPS(QTR_R,0)":2.42,"NTRS^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"NTAP^FF_EPS(QTR_R,0)":1.5099,"NTAP^JULIAN(FF_EPS(QTR_R,0).DATES)":45961,"NSC^FF_EPS(QTR_R,0)":2.8652,"NSC^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"NRG^FF_EPS(QTR_R,0)":0.6923,"NRG^JULIAN(FF_EPS(QTR_R,0).DATES)":45930,"NOW^FF_EPS(QTR_R,0)":0.383,"NOW^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"NOC^FF_EPS(QTR_R,0)":10.0495,"NOC^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"NKE^FF_EPS(QTR_R,0)":0.5348,"NKE^JULIAN(FF_EPS(QTR_R,0).DATES)":45989,"NI^FF_EPS(QTR_R,0)":0.5349,"NI^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"NFLX^FF_EPS(QTR_R,0)":0.5602,"NFLX^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"NEM^FF_EPS(QTR_R,0)":1.6654,"NEM^JULIAN(FF_EPS(QTR_R,0).DATES)":45930,"NEE^FF_EPS(QTR_R,0)":0.7348,"NEE^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"NDSN^FF_EPS(QTR_R,0)":2.6877,"NDSN^JULIAN(FF_EPS(QTR_R,0).DATES)":45961,"NDAQ^FF_EPS(QTR_R,0)":0.9003,"NDAQ^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"NCLH^FF_EPS(QTR_R,0)":0.8458,"NCLH^JULIAN(FF_EPS(QTR_R,0).DATES)":45930,"MU^FF_EPS(QTR_R,0)":4.6046,"MU^JULIAN(FF_EPS(QTR_R,0).DATES)":45989,"MTD^FF_EPS(QTR_R,0)":13.9776,"MTD^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"MTCH^FF_EPS(QTR_R,0)":0.83,"MTCH^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"MTB^FF_EPS(QTR_R,0)":4.67,"MTB^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"MSI^FF_EPS(QTR_R,0)":3.8608,"MSI^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"MSFT^FF_EPS(QTR_R,0)":5.1552,"MSFT^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"MSCI^FF_EPS(QTR_R,0)":3.811,"MSCI^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"MS^FF_EPS(QTR_R,0)":2.68,"MS^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"MRO^FF_EPS(QTR_R,0)":0.5089,"MRO^JULIAN(FF_EPS(QTR_R,0).DATES)":45565,"MRNA^FF_EPS(QTR_R,0)":-2.1071,"MRNA^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"MRK^FF_EPS(QTR_R,0)":1.1909,"MRK^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"MPWR^FF_EPS(QTR_R,0)":3.46,"MPWR^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"MPC^FF_EPS(QTR_R,0)":5.12,"MPC^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"MOS^FF_EPS(QTR_R,0)":1.288,"MOS^JULIAN(FF_EPS(QTR_R,0).DATES)":45930,"MOH^FF_EPS(QTR_R,0)":-3.1372,"MOH^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"MO^FF_EPS(QTR_R,0)":0.6643,"MO^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"MNST^FF_EPS(QTR_R,0)":0.5325,"MNST^JULIAN(FF_EPS(QTR_R,0).DATES)":45930,"MMM^FF_EPS(QTR_R,0)":1.0705,"MMM^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"MMC^FF_EPS(QTR_R,0)":1.6755,"MMC^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"MLM^FF_EPS(QTR_R,0)":4.62,"MLM^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"MKTX^FF_EPS(QTR_R,0)":2.51,"MKTX^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"MKC^FF_EPS(QTR_R,0)":0.8414,"MKC^JULIAN(FF_EPS(QTR_R,0).DATES)":45989,"MHK^FF_EPS(QTR_R,0)":0.6785,"MHK^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"MGM^FF_EPS(QTR_R,0)":1.112,"MGM^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"META^FF_EPS(QTR_R,0)":8.8764,"META^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"MET^FF_EPS(QTR_R,0)":1.1749,"MET^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"MDT^FF_EPS(QTR_R,0)":1.0668,"MDT^JULIAN(FF_EPS(QTR_R,0).DATES)":45961,"MDLZ^FF_EPS(QTR_R,0)":0.5147,"MDLZ^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"MCO^FF_EPS(QTR_R,0)":3.5969,"MCO^JULIAN(FF_EPS(QTR_R,0).DATES)":45930,"MCK^FF_EPS(QTR_R,0)":9.5877,"MCK^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"MCHP^FF_EPS(QTR_R,0)":0.064,"MCHP^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"MCD^FF_EPS(QTR_R,0)":3.03,"MCD^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"MAS^FF_EPS(QTR_R,0)":0.7971,"MAS^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"MAR^FF_EPS(QTR_R,0)":1.6518,"MAR^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"MAA^FF_EPS(QTR_R,0)":0.4835,"MAA^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"MA^FF_EPS(QTR_R,0)":4.5212,"MA^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"LYV^FF_EPS(QTR_R,0)":0.731,"LYV^JULIAN(FF_EPS(QTR_R,0).DATES)":45930,"LYB^FF_EPS(QTR_R,0)":-0.4348,"LYB^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"LW^FF_EPS(QTR_R,0)":0.4448,"LW^JULIAN(FF_EPS(QTR_R,0).DATES)":45989,"LVS^FF_EPS(QTR_R,0)":0.5826,"LVS^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"LUV^FF_EPS(QTR_R,0)":0.6219,"LUV^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"LULU^FF_EPS(QTR_R,0)":2.5882,"LULU^JULIAN(FF_EPS(QTR_R,0).DATES)":45961,"LRCX^FF_EPS(QTR_R,0)":1.2633,"LRCX^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"LOW^FF_EPS(QTR_R,0)":2.8786,"LOW^JULIAN(FF_EPS(QTR_R,0).DATES)":45961,"LNT^FF_EPS(QTR_R,0)":1.09,"LNT^JULIAN(FF_EPS(QTR_R,0).DATES)":45930,"LMT^FF_EPS(QTR_R,0)":5.7956,"LMT^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"LLY^FF_EPS(QTR_R,0)":7.0237,"LLY^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"LKQ^FF_EPS(QTR_R,0)":0.6996,"LKQ^JULIAN(FF_EPS(QTR_R,0).DATES)":45930,"LIN^FF_EPS(QTR_R,0)":3.26,"LIN^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"LHX^FF_EPS(QTR_R,0)":1.594,"LHX^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"LH^FF_EPS(QTR_R,0)":3.1195,"LH^JULIAN(FF_EPS(QTR_R,0).DATES)":45930,"LEN^FF_EPS(QTR_R,0)":1.9278,"LEN^JULIAN(FF_EPS(QTR_R,0).DATES)":45989,"LDOS^FF_EPS(QTR_R,0)":2.8231,"LDOS^JULIAN(FF_EPS(QTR_R,0).DATES)":45930,"L^FF_EPS(QTR_R,0)":1.9439,"L^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"KVUE^FF_EPS(QTR_R,0)":0.207,"KVUE^JULIAN(FF_EPS(QTR_R,0).DATES)":45930,"KR^FF_EPS(QTR_R,0)":-2.0168,"KR^JULIAN(FF_EPS(QTR_R,0).DATES)":45961,"KO^FF_EPS(QTR_R,0)":0.5266,"KO^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"KMX^FF_EPS(QTR_R,0)":0.4265,"KMX^JULIAN(FF_EPS(QTR_R,0).DATES)":45989,"KMI^FF_EPS(QTR_R,0)":0.4454,"KMI^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"KMB^FF_EPS(QTR_R,0)":1.4981,"KMB^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"KLAC^FF_EPS(QTR_R,0)":8.7271,"KLAC^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"KIM^FF_EPS(QTR_R,0)":0.2121,"KIM^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"KHC^FF_EPS(QTR_R,0)":0.5484,"KHC^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"KEYS^FF_EPS(QTR_R,0)":1.3237,"KEYS^JULIAN(FF_EPS(QTR_R,0).DATES)":45961,"KEY^FF_EPS(QTR_R,0)":0.43,"KEY^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"KDP^FF_EPS(QTR_R,0)":0.4857,"KDP^JULIAN(FF_EPS(QTR_R,0).DATES)":45930,"K^FF_EPS(QTR_R,0)":0.8829,"K^JULIAN(FF_EPS(QTR_R,0).DATES)":45930,"JPM^FF_EPS(QTR_R,0)":4.6302,"JPM^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"JNPR^FF_EPS(QTR_R,0)":0.21,"JNPR^JULIAN(FF_EPS(QTR_R,0).DATES)":45838,"JNJ^FF_EPS(QTR_R,0)":2.0976,"JNJ^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"JKHY^FF_EPS(QTR_R,0)":1.7216,"JKHY^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"JCI^FF_EPS(QTR_R,0)":0.8534,"JCI^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"JBL^FF_EPS(QTR_R,0)":1.3481,"JBL^JULIAN(FF_EPS(QTR_R,0).DATES)":45989,"JBHT^FF_EPS(QTR_R,0)":1.8959,"JBHT^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"J^FF_EPS(QTR_R,0)":1.1192,"J^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"IVZ^FF_EPS(QTR_R,0)":-2.629,"IVZ^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"ITW^FF_EPS(QTR_R,0)":2.7223,"ITW^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"IT^FF_EPS(QTR_R,0)":3.3578,"IT^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"ISRG^FF_EPS(QTR_R,0)":2.2053,"ISRG^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"IRM^FF_EPS(QTR_R,0)":0.2992,"IRM^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"IR^FF_EPS(QTR_R,0)":0.67,"IR^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"IQV^FF_EPS(QTR_R,0)":2.99,"IQV^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"IPG^FF_EPS(QTR_R,0)":0.3375,"IPG^JULIAN(FF_EPS(QTR_R,0).DATES)":45930,"IP^FF_EPS(QTR_R,0)":-4.52,"IP^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"INVH^FF_EPS(QTR_R,0)":0.1484,"INVH^JULIAN(FF_EPS(QTR_R,0).DATES)":45930,"INTU^FF_EPS(QTR_R,0)":1.5872,"INTU^JULIAN(FF_EPS(QTR_R,0).DATES)":45961,"INTC^FF_EPS(QTR_R,0)":-0.1217,"INTC^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"INCY^FF_EPS(QTR_R,0)":1.4616,"INCY^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"ILMN^FF_EPS(QTR_R,0)":2.1688,"ILMN^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"IFF^FF_EPS(QTR_R,0)":0.07,"IFF^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"IEX^FF_EPS(QTR_R,0)":1.7152,"IEX^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"IDXX^FF_EPS(QTR_R,0)":3.08,"IDXX^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"ICE^FF_EPS(QTR_R,0)":1.4878,"ICE^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"IBM^FF_EPS(QTR_R,0)":5.88,"IBM^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"HWM^FF_EPS(QTR_R,0)":0.9208,"HWM^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"HUM^FF_EPS(QTR_R,0)":-6.6146,"HUM^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"HUBB^FF_EPS(QTR_R,0)":4.1832,"HUBB^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"HSY^FF_EPS(QTR_R,0)":1.57,"HSY^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"HST^FF_EPS(QTR_R,0)":0.2335,"HST^JULIAN(FF_EPS(QTR_R,0).DATES)":45930,"HSIC^FF_EPS(QTR_R,0)":0.8345,"HSIC^JULIAN(FF_EPS(QTR_R,0).DATES)":45930,"HRL^FF_EPS(QTR_R,0)":-0.102,"HRL^JULIAN(FF_EPS(QTR_R,0).DATES)":45961,"HPQ^FF_EPS(QTR_R,0)":0.8386,"HPQ^JULIAN(FF_EPS(QTR_R,0).DATES)":45961,"HPE^FF_EPS(QTR_R,0)":0.1073,"HPE^JULIAN(FF_EPS(QTR_R,0).DATES)":45961,"HON^FF_EPS(QTR_R,0)":0.462,"HON^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"HOLX^FF_EPS(QTR_R,0)":0.7929,"HOLX^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"HD^FF_EPS(QTR_R,0)":3.6191,"HD^JULIAN(FF_EPS(QTR_R,0).DATES)":45961,"HCA^FF_EPS(QTR_R,0)":8.1401,"HCA^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"HBAN^FF_EPS(QTR_R,0)":0.3032,"HBAN^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"HAS^FF_EPS(QTR_R,0)":1.41,"HAS^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"HAL^FF_EPS(QTR_R,0)":0.7012,"HAL^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"GWW^FF_EPS(QTR_R,0)":9.44,"GWW^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"GS^FF_EPS(QTR_R,0)":14.01,"GS^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"GRMN^FF_EPS(QTR_R,0)":2.0752,"GRMN^JULIAN(FF_EPS(QTR_R,0).DATES)":45930,"GPN^FF_EPS(QTR_R,0)":2.6448,"GPN^JULIAN(FF_EPS(QTR_R,0).DATES)":45930,"GPC^FF_EPS(QTR_R,0)":1.6224,"GPC^JULIAN(FF_EPS(QTR_R,0).DATES)":45930,"GOOGL^FF_EPS(QTR_R,0)":2.8177,"GOOGL^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"GOOG^FF_EPS(QTR_R,0)":2.8177,"GOOG^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"GNRC^FF_EPS(QTR_R,0)":-0.4196,"GNRC^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"GM^FF_EPS(QTR_R,0)":-3.6,"GM^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"GLW^FF_EPS(QTR_R,0)":0.62,"GLW^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"GL^FF_EPS(QTR_R,0)":3.29,"GL^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"GIS^FF_EPS(QTR_R,0)":0.7687,"GIS^JULIAN(FF_EPS(QTR_R,0).DATES)":45989,"GILD^FF_EPS(QTR_R,0)":1.74,"GILD^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"GEV^FF_EPS(QTR_R,0)":13.3723,"GEV^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"GEN^FF_EPS(QTR_R,0)":0.3107,"GEN^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"GEHC^FF_EPS(QTR_R,0)":1.2888,"GEHC^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"GE^FF_EPS(QTR_R,0)":2.3887,"GE^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"GDDY^FF_EPS(QTR_R,0)":1.5136,"GDDY^JULIAN(FF_EPS(QTR_R,0).DATES)":45930,"GD^FF_EPS(QTR_R,0)":4.1731,"GD^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"FTV^FF_EPS(QTR_R,0)":0.58,"FTV^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"FTNT^FF_EPS(QTR_R,0)":0.6765,"FTNT^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"FSLR^FF_EPS(QTR_R,0)":4.2398,"FSLR^JULIAN(FF_EPS(QTR_R,0).DATES)":45930,"FRT^FF_EPS(QTR_R,0)":1.4812,"FRT^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"FOXA^FF_EPS(QTR_R,0)":0.5193,"FOXA^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"FOX^FF_EPS(QTR_R,0)":0.5193,"FOX^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"FMC^FF_EPS(QTR_R,0)":-13.7444,"FMC^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"FLT^FF_EPS(QTR_R,0)":3.75,"FLT^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"FITB^FF_EPS(QTR_R,0)":1.0446,"FITB^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"FIS^FF_EPS(QTR_R,0)":0.5048,"FIS^JULIAN(FF_EPS(QTR_R,0).DATES)":45930,"FICO^FF_EPS(QTR_R,0)":6.6104,"FICO^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"FI^FF_EPS(QTR_R,0)":1.5102,"FI^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"FFIV^FF_EPS(QTR_R,0)":3.0956,"FFIV^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"FE^FF_EPS(QTR_R,0)":0.763,"FE^JULIAN(FF_EPS(QTR_R,0).DATES)":45930,"FDX^FF_EPS(QTR_R,0)":4.0466,"FDX^JULIAN(FF_EPS(QTR_R,0).DATES)":45989,"FDS^FF_EPS(QTR_R,0)":4.0564,"FDS^JULIAN(FF_EPS(QTR_R,0).DATES)":45989,"FCX^FF_EPS(QTR_R,0)":0.2814,"FCX^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"FCNCA^FF_EPS(QTR_R,0)":45.7817,"FCNCA^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"FAST^FF_EPS(QTR_R,0)":0.2556,"FAST^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"FANG^FF_EPS(QTR_R,0)":3.5108,"FANG^JULIAN(FF_EPS(QTR_R,0).DATES)":45930,"F^FF_EPS(QTR_R,0)":-2.6286,"F^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"EXR^FF_EPS(QTR_R,0)":0.7811,"EXR^JULIAN(FF_EPS(QTR_R,0).DATES)":45930,"EXPE^FF_EPS(QTR_R,0)":1.5986,"EXPE^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"EXPD^FF_EPS(QTR_R,0)":1.6429,"EXPD^JULIAN(FF_EPS(QTR_R,0).DATES)":45930,"EXC^FF_EPS(QTR_R,0)":0.5848,"EXC^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"EW^FF_EPS(QTR_R,0)":0.1568,"EW^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"EVRG^FF_EPS(QTR_R,0)":2.029,"EVRG^JULIAN(FF_EPS(QTR_R,0).DATES)":45930,"ETR^FF_EPS(QTR_R,0)":0.51,"ETR^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"ETN^FF_EPS(QTR_R,0)":2.91,"ETN^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"ESS^FF_EPS(QTR_R,0)":1.2507,"ESS^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"ES^FF_EPS(QTR_R,0)":1.12,"ES^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"EQT^FF_EPS(QTR_R,0)":0.5345,"EQT^JULIAN(FF_EPS(QTR_R,0).DATES)":45930,"EQR^FF_EPS(QTR_R,0)":0.982,"EQR^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"EQIX^FF_EPS(QTR_R,0)":2.6937,"EQIX^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"EPAM^FF_EPS(QTR_R,0)":1.9137,"EPAM^JULIAN(FF_EPS(QTR_R,0).DATES)":45930,"EOG^FF_EPS(QTR_R,0)":2.704,"EOG^JULIAN(FF_EPS(QTR_R,0).DATES)":45930,"ENPH^FF_EPS(QTR_R,0)":0.29,"ENPH^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"EMR^FF_EPS(QTR_R,0)":1.0725,"EMR^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"EMN^FF_EPS(QTR_R,0)":0.9138,"EMN^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"EL^FF_EPS(QTR_R,0)":0.4441,"EL^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"EIX^FF_EPS(QTR_R,0)":2.1554,"EIX^JULIAN(FF_EPS(QTR_R,0).DATES)":45930,"EFX^FF_EPS(QTR_R,0)":1.44,"EFX^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"ED^FF_EPS(QTR_R,0)":1.9011,"ED^JULIAN(FF_EPS(QTR_R,0).DATES)":45930,"ECL^FF_EPS(QTR_R,0)":1.98,"ECL^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"EBAY^FF_EPS(QTR_R,0)":1.3533,"EBAY^JULIAN(FF_EPS(QTR_R,0).DATES)":45930,"EA^FF_EPS(QTR_R,0)":0.3478,"EA^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"DXCM^FF_EPS(QTR_R,0)":0.6761,"DXCM^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"DVN^FF_EPS(QTR_R,0)":1.0922,"DVN^JULIAN(FF_EPS(QTR_R,0).DATES)":45930,"DVA^FF_EPS(QTR_R,0)":2.9359,"DVA^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"DUK^FF_EPS(QTR_R,0)":1.5026,"DUK^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"DTE^FF_EPS(QTR_R,0)":2.0193,"DTE^JULIAN(FF_EPS(QTR_R,0).DATES)":45930,"DRI^FF_EPS(QTR_R,0)":2.0326,"DRI^JULIAN(FF_EPS(QTR_R,0).DATES)":45989,"DPZ^FF_EPS(QTR_R,0)":4.08,"DPZ^JULIAN(FF_EPS(QTR_R,0).DATES)":45898,"DOW^FF_EPS(QTR_R,0)":-2.1512,"DOW^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"DOV^FF_EPS(QTR_R,0)":2.0616,"DOV^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"DLTR^FF_EPS(QTR_R,0)":1.2002,"DLTR^JULIAN(FF_EPS(QTR_R,0).DATES)":45961,"DIS^FF_EPS(QTR_R,0)":1.3396,"DIS^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"DHR^FF_EPS(QTR_R,0)":1.68,"DHR^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"DHI^FF_EPS(QTR_R,0)":2.028,"DHI^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"DGX^FF_EPS(QTR_R,0)":2.18,"DGX^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"DG^FF_EPS(QTR_R,0)":1.2792,"DG^JULIAN(FF_EPS(QTR_R,0).DATES)":45961,"DFS^FF_EPS(QTR_R,0)":4.2421,"DFS^JULIAN(FF_EPS(QTR_R,0).DATES)":45747,"DECK^FF_EPS(QTR_R,0)":3.3346,"DECK^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"DE^FF_EPS(QTR_R,0)":3.9284,"DE^JULIAN(FF_EPS(QTR_R,0).DATES)":45961,"DD^FF_EPS(QTR_R,0)":-0.3046,"DD^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"DAY^FF_EPS(QTR_R,0)":-1.2315,"DAY^JULIAN(FF_EPS(QTR_R,0).DATES)":45930,"DAL^FF_EPS(QTR_R,0)":1.8582,"DAL^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"D^FF_EPS(QTR_R,0)":1.1632,"D^JULIAN(FF_EPS(QTR_R,0).DATES)":45930,"CZR^FF_EPS(QTR_R,0)":-0.2657,"CZR^JULIAN(FF_EPS(QTR_R,0).DATES)":45930,"CVX^FF_EPS(QTR_R,0)":1.39,"CVX^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"CVS^FF_EPS(QTR_R,0)":2.3046,"CVS^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"CTVA^FF_EPS(QTR_R,0)":-0.8181,"CTVA^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"CTSH^FF_EPS(QTR_R,0)":1.3444,"CTSH^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"CTRA^FF_EPS(QTR_R,0)":0.4185,"CTRA^JULIAN(FF_EPS(QTR_R,0).DATES)":45930,"CTLT^FF_EPS(QTR_R,0)":-0.7088,"CTLT^JULIAN(FF_EPS(QTR_R,0).DATES)":45565,"CTAS^FF_EPS(QTR_R,0)":1.2148,"CTAS^JULIAN(FF_EPS(QTR_R,0).DATES)":45989,"CSX^FF_EPS(QTR_R,0)":0.3863,"CSX^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"CSGP^FF_EPS(QTR_R,0)":-0.0736,"CSGP^JULIAN(FF_EPS(QTR_R,0).DATES)":45930,"CSCO^FF_EPS(QTR_R,0)":0.8,"CSCO^JULIAN(FF_EPS(QTR_R,0).DATES)":46052,"CRWD^FF_EPS(QTR_R,0)":-0.1353,"CRWD^JULIAN(FF_EPS(QTR_R,0).DATES)":45961,"CRM^FF_EPS(QTR_R,0)":2.1912,"CRM^JULIAN(FF_EPS(QTR_R,0).DATES)":45961,"CRL^FF_EPS(QTR_R,0)":1.1011,"CRL^JULIAN(FF_EPS(QTR_R,0).DATES)":45930,"CPT^FF_EPS(QTR_R,0)":1.4335,"CPT^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"CPRT^FF_EPS(QTR_R,0)":0.4132,"CPRT^JULIAN(FF_EPS(QTR_R,0).DATES)":45961,"CPB^FF_EPS(QTR_R,0)":0.6488,"CPB^JULIAN(FF_EPS(QTR_R,0).DATES)":45961,"CPAY^FF_EPS(QTR_R,0)":3.75,"CPAY^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"COST^FF_EPS(QTR_R,0)":4.5015,"COST^JULIAN(FF_EPS(QTR_R,0).DATES)":45989,"COR^FF_EPS(QTR_R,0)":2.8653,"COR^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"COP^FF_EPS(QTR_R,0)":1.1686,"COP^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"COO^FF_EPS(QTR_R,0)":0.4271,"COO^JULIAN(FF_EPS(QTR_R,0).DATES)":45961,"COF^FF_EPS(QTR_R,0)":4.8257,"COF^JULIAN(FF_EPS(QTR_R,0).DATES)":45930,"CNP^FF_EPS(QTR_R,0)":0.4466,"CNP^JULIAN(FF_EPS(QTR_R,0).DATES)":45930,"CNC^FF_EPS(QTR_R,0)":-2.2399,"CNC^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"CMS^FF_EPS(QTR_R,0)":0.9352,"CMS^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"CMI^FF_EPS(QTR_R,0)":4.2662,"CMI^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"CMG^FF_EPS(QTR_R,0)":0.2507,"CMG^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"CME^FF_EPS(QTR_R,0)":3.24,"CME^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"CMCSA^FF_EPS(QTR_R,0)":0.5963,"CMCSA^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"CMA^FF_EPS(QTR_R,0)":1.27,"CMA^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"CLX^FF_EPS(QTR_R,0)":1.2878,"CLX^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"CL^FF_EPS(QTR_R,0)":-0.046,"CL^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"CINF^FF_EPS(QTR_R,0)":4.29,"CINF^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"CI^FF_EPS(QTR_R,0)":4.6444,"CI^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"CHTR^FF_EPS(QTR_R,0)":10.3314,"CHTR^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"CHRW^FF_EPS(QTR_R,0)":1.1205,"CHRW^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"CHD^FF_EPS(QTR_R,0)":0.5989,"CHD^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"CFG^FF_EPS(QTR_R,0)":1.1265,"CFG^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"CF^FF_EPS(QTR_R,0)":2.1898,"CF^JULIAN(FF_EPS(QTR_R,0).DATES)":45930,"CEG^FF_EPS(QTR_R,0)":2.9712,"CEG^JULIAN(FF_EPS(QTR_R,0).DATES)":45930,"CE^FF_EPS(QTR_R,0)":-12.3852,"CE^JULIAN(FF_EPS(QTR_R,0).DATES)":45930,"CDW^FF_EPS(QTR_R,0)":2.14,"CDW^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"CDNS^FF_EPS(QTR_R,0)":1.0487,"CDNS^JULIAN(FF_EPS(QTR_R,0).DATES)":45930,"CDAY^FF_EPS(QTR_R,0)":null,"CDAY^JULIAN(FF_EPS(QTR_R,0).DATES)":null,"CCL^FF_EPS(QTR_R,0)":0.3136,"CCL^JULIAN(FF_EPS(QTR_R,0).DATES)":45989,"CCI^FF_EPS(QTR_R,0)":1.2723,"CCI^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"CBRE^FF_EPS(QTR_R,0)":1.3873,"CBRE^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"CBOE^FF_EPS(QTR_R,0)":2.97,"CBOE^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"CB^FF_EPS(QTR_R,0)":8.0958,"CB^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"CAT^FF_EPS(QTR_R,0)":5.1215,"CAT^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"CARR^FF_EPS(QTR_R,0)":0.0626,"CARR^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"CAH^FF_EPS(QTR_R,0)":1.9705,"CAH^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"CAG^FF_EPS(QTR_R,0)":-1.3854,"CAG^JULIAN(FF_EPS(QTR_R,0).DATES)":45989,"C^FF_EPS(QTR_R,0)":1.1938,"C^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"BXP^FF_EPS(QTR_R,0)":1.5617,"BXP^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"BX^FF_EPS(QTR_R,0)":1.2962,"BX^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"BWA^FF_EPS(QTR_R,0)":-1.2654,"BWA^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"BSX^FF_EPS(QTR_R,0)":0.4493,"BSX^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"BRO^FF_EPS(QTR_R,0)":0.59,"BRO^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"BRK.B^FF_EPS(QTR_R,0)":14.275,"BRK.B^JULIAN(FF_EPS(QTR_R,0).DATES)":45930,"BR^FF_EPS(QTR_R,0)":2.418,"BR^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"BMY^FF_EPS(QTR_R,0)":0.5326,"BMY^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"BLK^FF_EPS(QTR_R,0)":7.16,"BLK^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"BLDR^FF_EPS(QTR_R,0)":1.1032,"BLDR^JULIAN(FF_EPS(QTR_R,0).DATES)":45930,"BKR^FF_EPS(QTR_R,0)":0.8813,"BKR^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"BKNG^FF_EPS(QTR_R,0)":84.4032,"BKNG^JULIAN(FF_EPS(QTR_R,0).DATES)":45930,"BK^FF_EPS(QTR_R,0)":2.02,"BK^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"BIO^FF_EPS(QTR_R,0)":26.6548,"BIO^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"BIIB^FF_EPS(QTR_R,0)":-0.3333,"BIIB^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"BG^FF_EPS(QTR_R,0)":0.4872,"BG^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"BF.B^FF_EPS(QTR_R,0)":0.474,"BF.B^JULIAN(FF_EPS(QTR_R,0).DATES)":45961,"BEN^FF_EPS(QTR_R,0)":0.4617,"BEN^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"BDX^FF_EPS(QTR_R,0)":1.3364,"BDX^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"BBY^FF_EPS(QTR_R,0)":0.6601,"BBY^JULIAN(FF_EPS(QTR_R,0).DATES)":45961,"BBWI^FF_EPS(QTR_R,0)":0.3738,"BBWI^JULIAN(FF_EPS(QTR_R,0).DATES)":45961,"BAX^FF_EPS(QTR_R,0)":-2.1595,"BAX^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"BAC^FF_EPS(QTR_R,0)":0.98,"BAC^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"BA^FF_EPS(QTR_R,0)":10.1182,"BA^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"AZO^FF_EPS(QTR_R,0)":31.0386,"AZO^JULIAN(FF_EPS(QTR_R,0).DATES)":45989,"AXP^FF_EPS(QTR_R,0)":3.5305,"AXP^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"AWK^FF_EPS(QTR_R,0)":1.9436,"AWK^JULIAN(FF_EPS(QTR_R,0).DATES)":45930,"AVY^FF_EPS(QTR_R,0)":2.1499,"AVY^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"AVGO^FF_EPS(QTR_R,0)":1.7423,"AVGO^JULIAN(FF_EPS(QTR_R,0).DATES)":45961,"AVB^FF_EPS(QTR_R,0)":1.1602,"AVB^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"ATVI^FF_EPS(QTR_R,0)":0.7393,"ATVI^JULIAN(FF_EPS(QTR_R,0).DATES)":45107,"ATO^FF_EPS(QTR_R,0)":2.4433,"ATO^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"ARE^FF_EPS(QTR_R,0)":-6.349,"ARE^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"APTV^FF_EPS(QTR_R,0)":-1.6329,"APTV^JULIAN(FF_EPS(QTR_R,0).DATES)":45930,"APH^FF_EPS(QTR_R,0)":0.9277,"APH^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"APD^FF_EPS(QTR_R,0)":3.0426,"APD^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"APA^FF_EPS(QTR_R,0)":0.5726,"APA^JULIAN(FF_EPS(QTR_R,0).DATES)":45930,"AOS^FF_EPS(QTR_R,0)":0.8961,"AOS^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"AON^FF_EPS(QTR_R,0)":7.8199,"AON^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"ANSS^FF_EPS(QTR_R,0)":0.5885,"ANSS^JULIAN(FF_EPS(QTR_R,0).DATES)":45747,"ANET^FF_EPS(QTR_R,0)":0.75,"ANET^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"AMZN^FF_EPS(QTR_R,0)":1.9508,"AMZN^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"AMT^FF_EPS(QTR_R,0)":1.8192,"AMT^JULIAN(FF_EPS(QTR_R,0).DATES)":45930,"AMP^FF_EPS(QTR_R,0)":10.47,"AMP^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"AMGN^FF_EPS(QTR_R,0)":2.4549,"AMGN^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"AME^FF_EPS(QTR_R,0)":1.73,"AME^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"AMD^FF_EPS(QTR_R,0)":0.9163,"AMD^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"AMCR^FF_EPS(QTR_R,0)":0.3816,"AMCR^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"AMAT^FF_EPS(QTR_R,0)":2.54,"AMAT^JULIAN(FF_EPS(QTR_R,0).DATES)":46052,"ALLE^FF_EPS(QTR_R,0)":2.178,"ALLE^JULIAN(FF_EPS(QTR_R,0).DATES)":45930,"ALL^FF_EPS(QTR_R,0)":14.3672,"ALL^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"ALGN^FF_EPS(QTR_R,0)":1.8919,"ALGN^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"ALB^FF_EPS(QTR_R,0)":-3.8731,"ALB^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"AKAM^FF_EPS(QTR_R,0)":0.968,"AKAM^JULIAN(FF_EPS(QTR_R,0).DATES)":45930,"AJG^FF_EPS(QTR_R,0)":0.5802,"AJG^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"AIZ^FF_EPS(QTR_R,0)":4.41,"AIZ^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"AIG^FF_EPS(QTR_R,0)":1.3452,"AIG^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"AFL^FF_EPS(QTR_R,0)":2.64,"AFL^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"AES^FF_EPS(QTR_R,0)":0.9398,"AES^JULIAN(FF_EPS(QTR_R,0).DATES)":45930,"AEP^FF_EPS(QTR_R,0)":1.0714,"AEP^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"AEE^FF_EPS(QTR_R,0)":0.92,"AEE^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"ADSK^FF_EPS(QTR_R,0)":1.5954,"ADSK^JULIAN(FF_EPS(QTR_R,0).DATES)":45961,"ADP^FF_EPS(QTR_R,0)":2.6242,"ADP^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"ADM^FF_EPS(QTR_R,0)":0.9422,"ADM^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"ADI^FF_EPS(QTR_R,0)":1.5971,"ADI^JULIAN(FF_EPS(QTR_R,0).DATES)":45961,"ADBE^FF_EPS(QTR_R,0)":4.4508,"ADBE^JULIAN(FF_EPS(QTR_R,0).DATES)":45989,"ACN^FF_EPS(QTR_R,0)":3.5359,"ACN^JULIAN(FF_EPS(QTR_R,0).DATES)":45989,"ACGL^FF_EPS(QTR_R,0)":3.3497,"ACGL^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"ABT^FF_EPS(QTR_R,0)":1.0166,"ABT^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"ABNB^FF_EPS(QTR_R,0)":0.5554,"ABNB^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"ABBV^FF_EPS(QTR_R,0)":1.0237,"ABBV^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"AAPL^FF_EPS(QTR_R,0)":2.8424,"AAPL^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"A^FF_EPS(QTR_R,0)":1.5282,"A^JULIAN(FF_EPS(QTR_R,0).DATES)":45961,"ZTS^FG_COMPANY_NAME":"Zoetis, Inc. Class A","ZION^FG_COMPANY_NAME":"Zions Bancorporation NA","ZBRA^FG_COMPANY_NAME":"Zebra Technologies Corporation Class A","ZBH^FG_COMPANY_NAME":"Zimmer Biomet Holdings, Inc.","YUM^FG_COMPANY_NAME":"Yum! Brands, Inc.","XYL^FG_COMPANY_NAME":"Xylem Inc.","XOM^FG_COMPANY_NAME":"Exxon Mobil Corporation","XEL^FG_COMPANY_NAME":"Xcel Energy Inc.","WYNN^FG_COMPANY_NAME":"Wynn Resorts, Limited","WY^FG_COMPANY_NAME":"Weyerhaeuser Company","WTW^FG_COMPANY_NAME":"Willis Towers Watson Public Limited Company","WST^FG_COMPANY_NAME":"West Pharmaceutical Services, Inc.","WRB^FG_COMPANY_NAME":"W. R. Berkley Corporation","WMT^FG_COMPANY_NAME":"Walmart Inc.","WMB^FG_COMPANY_NAME":"Williams Companies, Inc.","WM^FG_COMPANY_NAME":"Waste Management, Inc.","WFC^FG_COMPANY_NAME":"Wells Fargo & Company","WELL^FG_COMPANY_NAME":"Welltower Inc.","WEC^FG_COMPANY_NAME":"WEC Energy Group Inc","WDC^FG_COMPANY_NAME":"Western Digital Corporation","WBD^FG_COMPANY_NAME":"Warner Bros. Discovery, Inc. Series A","WBA^FG_COMPANY_NAME":"Walgreens Boots Alliance, Inc.","WAT^FG_COMPANY_NAME":"Waters Corporation","WAB^FG_COMPANY_NAME":"Westinghouse Air Brake Technologies Corporation","VZ^FG_COMPANY_NAME":"Verizon Communications Inc.","VTRS^FG_COMPANY_NAME":"Viatris, Inc.","VTR^FG_COMPANY_NAME":"Ventas, Inc.","VST^FG_COMPANY_NAME":"Vistra Corp.","VRTX^FG_COMPANY_NAME":"Vertex Pharmaceuticals Incorporated","VRSN^FG_COMPANY_NAME":"VeriSign, Inc.","VRSK^FG_COMPANY_NAME":"Verisk Analytics, Inc.","VMC^FG_COMPANY_NAME":"Vulcan Materials Company","VLTO^FG_COMPANY_NAME":"Veralto Corporation","VLO^FG_COMPANY_NAME":"Valero Energy Corporation","VICI^FG_COMPANY_NAME":"VICI Properties Inc","V^FG_COMPANY_NAME":"Visa Inc. Class A","USB^FG_COMPANY_NAME":"U.S. Bancorp","URI^FG_COMPANY_NAME":"United Rentals, Inc.","UPS^FG_COMPANY_NAME":"United Parcel Service, Inc. Class B","UNP^FG_COMPANY_NAME":"Union Pacific Corporation","UNH^FG_COMPANY_NAME":"UnitedHealth Group Incorporated","ULTA^FG_COMPANY_NAME":"Ulta Beauty Inc.","UHS^FG_COMPANY_NAME":"Universal Health Services, Inc. Class B","UDR^FG_COMPANY_NAME":"UDR, Inc.","UBER^FG_COMPANY_NAME":"Uber Technologies, Inc.","UAL^FG_COMPANY_NAME":"United Airlines Holdings, Inc.","TYL^FG_COMPANY_NAME":"Tyler Technologies, Inc.","TXT^FG_COMPANY_NAME":"Textron Inc.","TXN^FG_COMPANY_NAME":"Texas Instruments Incorporated","TTWO^FG_COMPANY_NAME":"Take-Two Interactive Software, Inc.","TT^FG_COMPANY_NAME":"Trane Technologies plc","TSN^FG_COMPANY_NAME":"Tyson Foods, Inc. Class A","TSLA^FG_COMPANY_NAME":"Tesla, Inc.","TSCO^FG_COMPANY_NAME":"Tractor Supply Company","TRV^FG_COMPANY_NAME":"Travelers Companies, Inc.","TROW^FG_COMPANY_NAME":"T. Rowe Price Group, Inc.","TRMB^FG_COMPANY_NAME":"Trimble Inc.","TRGP^FG_COMPANY_NAME":"Targa Resources Corp.","TPR^FG_COMPANY_NAME":"Tapestry, Inc.","TMUS^FG_COMPANY_NAME":"T-Mobile US, Inc.","TMO^FG_COMPANY_NAME":"Thermo Fisher Scientific Inc.","TJX^FG_COMPANY_NAME":"TJX Companies Inc","TGT^FG_COMPANY_NAME":"Target Corporation","TFX^FG_COMPANY_NAME":"Teleflex Incorporated","TFC^FG_COMPANY_NAME":"Truist Financial Corporation","TER^FG_COMPANY_NAME":"Teradyne, Inc.","TEL^FG_COMPANY_NAME":"TE Connectivity plc","TECH^FG_COMPANY_NAME":"Bio-Techne Corporation","TDY^FG_COMPANY_NAME":"Teledyne Technologies Incorporated","TDG^FG_COMPANY_NAME":"TransDigm Group Incorporated","TAP^FG_COMPANY_NAME":"Molson Coors Beverage Company Class B","T^FG_COMPANY_NAME":"AT&T Inc","SYY^FG_COMPANY_NAME":"Sysco Corporation","SYK^FG_COMPANY_NAME":"Stryker Corporation","SYF^FG_COMPANY_NAME":"Synchrony Financial","SWKS^FG_COMPANY_NAME":"Skyworks Solutions, Inc.","SWK^FG_COMPANY_NAME":"Stanley Black & Decker, Inc.","STZ^FG_COMPANY_NAME":"Constellation Brands, Inc. Class A","STX^FG_COMPANY_NAME":"Seagate Technology Holdings PLC","STT^FG_COMPANY_NAME":"State Street Corporation","STLD^FG_COMPANY_NAME":"Steel Dynamics, Inc.","STE^FG_COMPANY_NAME":"STERIS plc","SRE^FG_COMPANY_NAME":"Sempra","SPGI^FG_COMPANY_NAME":"S&P Global, Inc.","SPG^FG_COMPANY_NAME":"Simon Property Group, Inc.","SO^FG_COMPANY_NAME":"Southern Company","SNPS^FG_COMPANY_NAME":"Synopsys, Inc.","SNA^FG_COMPANY_NAME":"Snap-on Incorporated","SMCI^FG_COMPANY_NAME":"Super Micro Computer, Inc.","SLB^FG_COMPANY_NAME":"SLB Limited","SJM^FG_COMPANY_NAME":"J.M. Smucker Company","SHW^FG_COMPANY_NAME":"Sherwin-Williams Company","SEE^FG_COMPANY_NAME":"Sealed Air Corporation","SCHW^FG_COMPANY_NAME":"Charles Schwab Corp","SBUX^FG_COMPANY_NAME":"Starbucks Corporation","SBAC^FG_COMPANY_NAME":"SBA Communications Corp. Class A","RVTY^FG_COMPANY_NAME":"Revvity, Inc.","RTX^FG_COMPANY_NAME":"RTX Corporation","RSG^FG_COMPANY_NAME":"Republic Services, Inc.","ROST^FG_COMPANY_NAME":"Ross Stores, Inc.","ROP^FG_COMPANY_NAME":"Roper Technologies, Inc.","ROL^FG_COMPANY_NAME":"Rollins, Inc.","ROK^FG_COMPANY_NAME":"Rockwell Automation, Inc.","RMD^FG_COMPANY_NAME":"ResMed Inc.","RL^FG_COMPANY_NAME":"Ralph Lauren Corporation Class A","RJF^FG_COMPANY_NAME":"Raymond James Financial, Inc.","RF^FG_COMPANY_NAME":"Regions Financial Corporation","REGN^FG_COMPANY_NAME":"Regeneron Pharmaceuticals, Inc.","REG^FG_COMPANY_NAME":"Regency Centers Corporation","RE^FG_COMPANY_NAME":"Everest Group, Ltd.","RCL^FG_COMPANY_NAME":"Royal Caribbean Group","QRVO^FG_COMPANY_NAME":"Qorvo, Inc.","QCOM^FG_COMPANY_NAME":"QUALCOMM Incorporated","PYPL^FG_COMPANY_NAME":"PayPal Holdings, Inc.","PXD^FG_COMPANY_NAME":"Pioneer Natural Resources Company","PWR^FG_COMPANY_NAME":"Quanta Services, Inc.","PVH^FG_COMPANY_NAME":"PVH Corp.","PTC^FG_COMPANY_NAME":"PTC Inc.","PSX^FG_COMPANY_NAME":"Phillips 66","PSA^FG_COMPANY_NAME":"Public Storage","PRU^FG_COMPANY_NAME":"Prudential Financial, Inc.","PPL^FG_COMPANY_NAME":"PPL Corporation","PPG^FG_COMPANY_NAME":"PPG Industries, Inc.","POOL^FG_COMPANY_NAME":"Pool Corporation","PODD^FG_COMPANY_NAME":"Insulet Corporation","PNW^FG_COMPANY_NAME":"Pinnacle West Capital Corp","PNR^FG_COMPANY_NAME":"Pentair plc","PNC^FG_COMPANY_NAME":"PNC Financial Services Group, Inc.","PM^FG_COMPANY_NAME":"Philip Morris International Inc.","PLTR^FG_COMPANY_NAME":"Palantir Technologies Inc. Class A","PLD^FG_COMPANY_NAME":"Prologis, Inc.","PKG^FG_COMPANY_NAME":"Packaging Corporation of America","PHM^FG_COMPANY_NAME":"PulteGroup, Inc.","PH^FG_COMPANY_NAME":"Parker-Hannifin Corporation","PGR^FG_COMPANY_NAME":"Progressive Corporation","PG^FG_COMPANY_NAME":"Procter & Gamble Company","PFG^FG_COMPANY_NAME":"Principal Financial Group, Inc.","PFE^FG_COMPANY_NAME":"Pfizer Inc.","PEP^FG_COMPANY_NAME":"PepsiCo, Inc.","PEG^FG_COMPANY_NAME":"Public Service Enterprise Group Inc","PEAK^FG_COMPANY_NAME":"Healthpeak Properties, Inc.","PCG^FG_COMPANY_NAME":"PG&E Corporation","PCAR^FG_COMPANY_NAME":"PACCAR Inc","PAYX^FG_COMPANY_NAME":"Paychex, Inc.","PAYC^FG_COMPANY_NAME":"Paycom Software, Inc.","PARA^FG_COMPANY_NAME":"Paramount Skydance Corporation Class B","OXY^FG_COMPANY_NAME":"Occidental Petroleum Corporation","OTIS^FG_COMPANY_NAME":"Otis Worldwide Corporation","ORLY^FG_COMPANY_NAME":"O'Reilly Automotive, Inc.","ORCL^FG_COMPANY_NAME":"Oracle Corporation","ON^FG_COMPANY_NAME":"ON Semiconductor Corporation","OMC^FG_COMPANY_NAME":"Omnicom Group Inc","OKE^FG_COMPANY_NAME":"ONEOK, Inc.","ODFL^FG_COMPANY_NAME":"Old Dominion Freight Line, Inc.","O^FG_COMPANY_NAME":"Realty Income Corporation","NXPI^FG_COMPANY_NAME":"NXP Semiconductors NV","NWSA^FG_COMPANY_NAME":"News Corporation Class A","NWS^FG_COMPANY_NAME":"News Corporation Class B","NVR^FG_COMPANY_NAME":"NVR, Inc.","NVDA^FG_COMPANY_NAME":"NVIDIA Corporation","NUE^FG_COMPANY_NAME":"Nucor Corporation","NTRS^FG_COMPANY_NAME":"Northern Trust Corporation","NTAP^FG_COMPANY_NAME":"NetApp, Inc.","NSC^FG_COMPANY_NAME":"Norfolk Southern Corporation","NRG^FG_COMPANY_NAME":"NRG Energy, Inc.","NOW^FG_COMPANY_NAME":"ServiceNow, Inc.","NOC^FG_COMPANY_NAME":"Northrop Grumman Corp.","NKE^FG_COMPANY_NAME":"NIKE, Inc. Class B","NI^FG_COMPANY_NAME":"NiSource Inc","NFLX^FG_COMPANY_NAME":"Netflix, Inc.","NEM^FG_COMPANY_NAME":"Newmont Corporation","NEE^FG_COMPANY_NAME":"NextEra Energy, Inc.","NDSN^FG_COMPANY_NAME":"Nordson Corporation","NDAQ^FG_COMPANY_NAME":"Nasdaq, Inc.","NCLH^FG_COMPANY_NAME":"Norwegian Cruise Line Holdings Ltd.","MU^FG_COMPANY_NAME":"Micron Technology, Inc.","MTD^FG_COMPANY_NAME":"Mettler-Toledo International Inc.","MTCH^FG_COMPANY_NAME":"Match Group, Inc.","MTB^FG_COMPANY_NAME":"M&T Bank Corporation","MSI^FG_COMPANY_NAME":"Motorola Solutions, Inc.","MSFT^FG_COMPANY_NAME":"Microsoft Corporation","MSCI^FG_COMPANY_NAME":"MSCI Inc. Class A","MS^FG_COMPANY_NAME":"Morgan Stanley","MRO^FG_COMPANY_NAME":"Marathon Oil Corporation","MRNA^FG_COMPANY_NAME":"Moderna, Inc.","MRK^FG_COMPANY_NAME":"Merck & Co., Inc.","MPWR^FG_COMPANY_NAME":"Monolithic Power Systems, Inc.","MPC^FG_COMPANY_NAME":"Marathon Petroleum Corporation","MOS^FG_COMPANY_NAME":"Mosaic Company","MOH^FG_COMPANY_NAME":"Molina Healthcare, Inc.","MO^FG_COMPANY_NAME":"Altria Group, Inc.","MNST^FG_COMPANY_NAME":"Monster Beverage Corporation","MMM^FG_COMPANY_NAME":"3M Company","MMC^FG_COMPANY_NAME":"Marsh & McLennan Companies, Inc.","MLM^FG_COMPANY_NAME":"Martin Marietta Materials, Inc.","MKTX^FG_COMPANY_NAME":"MarketAxess Holdings Inc.","MKC^FG_COMPANY_NAME":"McCormick & Company, Incorporated","MHK^FG_COMPANY_NAME":"Mohawk Industries, Inc.","MGM^FG_COMPANY_NAME":"MGM Resorts International","META^FG_COMPANY_NAME":"Meta Platforms Inc Class A","MET^FG_COMPANY_NAME":"MetLife, Inc.","MDT^FG_COMPANY_NAME":"Medtronic Plc","MDLZ^FG_COMPANY_NAME":"Mondelez International, Inc. Class A","MCO^FG_COMPANY_NAME":"Moody's Corporation","MCK^FG_COMPANY_NAME":"McKesson Corporation","MCHP^FG_COMPANY_NAME":"Microchip Technology Incorporated","MCD^FG_COMPANY_NAME":"McDonald's Corporation","MAS^FG_COMPANY_NAME":"Masco Corporation","MAR^FG_COMPANY_NAME":"Marriott International, Inc. Class A","MAA^FG_COMPANY_NAME":"Mid-America Apartment Communities, Inc.","MA^FG_COMPANY_NAME":"Mastercard Incorporated Class A","LYV^FG_COMPANY_NAME":"Live Nation Entertainment, Inc.","LYB^FG_COMPANY_NAME":"LyondellBasell Industries NV","LW^FG_COMPANY_NAME":"Lamb Weston Holdings, Inc.","LVS^FG_COMPANY_NAME":"Las Vegas Sands Corp.","LUV^FG_COMPANY_NAME":"Southwest Airlines Co.","LULU^FG_COMPANY_NAME":"lululemon athletica inc.","LRCX^FG_COMPANY_NAME":"Lam Research Corporation","LOW^FG_COMPANY_NAME":"Lowe's Companies, Inc.","LNT^FG_COMPANY_NAME":"Alliant Energy Corporation","LMT^FG_COMPANY_NAME":"Lockheed Martin Corporation","LLY^FG_COMPANY_NAME":"Eli Lilly and Company","LKQ^FG_COMPANY_NAME":"LKQ Corporation","LIN^FG_COMPANY_NAME":"Linde plc","LHX^FG_COMPANY_NAME":"L3Harris Technologies Inc","LH^FG_COMPANY_NAME":"Labcorp Holdings Inc.","LEN^FG_COMPANY_NAME":"Lennar Corporation Class A","LDOS^FG_COMPANY_NAME":"Leidos Holdings, Inc.","L^FG_COMPANY_NAME":"Loews Corporation","KVUE^FG_COMPANY_NAME":"Kenvue, Inc.","KR^FG_COMPANY_NAME":"Kroger Co.","KO^FG_COMPANY_NAME":"Coca-Cola Company","KMX^FG_COMPANY_NAME":"CarMax, Inc.","KMI^FG_COMPANY_NAME":"Kinder Morgan Inc Class P","KMB^FG_COMPANY_NAME":"Kimberly-Clark Corporation","KLAC^FG_COMPANY_NAME":"KLA Corporation","KIM^FG_COMPANY_NAME":"Kimco Realty Corporation","KHC^FG_COMPANY_NAME":"Kraft Heinz Company","KEYS^FG_COMPANY_NAME":"Keysight Technologies Inc","KEY^FG_COMPANY_NAME":"KeyCorp","KDP^FG_COMPANY_NAME":"Keurig Dr Pepper Inc.","K^FG_COMPANY_NAME":"Kellanova","JPM^FG_COMPANY_NAME":"JPMorgan Chase & Co.","JNPR^FG_COMPANY_NAME":"Juniper Networks, Inc.","JNJ^FG_COMPANY_NAME":"Johnson & Johnson","JKHY^FG_COMPANY_NAME":"Jack Henry & Associates, Inc.","JCI^FG_COMPANY_NAME":"Johnson Controls International plc","JBL^FG_COMPANY_NAME":"Jabil Inc.","JBHT^FG_COMPANY_NAME":"J.B. Hunt Transport Services, Inc.","J^FG_COMPANY_NAME":"Jacobs Solutions Inc.","IVZ^FG_COMPANY_NAME":"Invesco Ltd.","ITW^FG_COMPANY_NAME":"Illinois Tool Works Inc.","IT^FG_COMPANY_NAME":"Gartner, Inc.","ISRG^FG_COMPANY_NAME":"Intuitive Surgical, Inc.","IRM^FG_COMPANY_NAME":"Iron Mountain, Inc.","IR^FG_COMPANY_NAME":"Ingersoll Rand Inc.","IQV^FG_COMPANY_NAME":"IQVIA Holdings Inc","IPG^FG_COMPANY_NAME":"Interpublic Group of Companies, Inc.","IP^FG_COMPANY_NAME":"International Paper Company","INVH^FG_COMPANY_NAME":"Invitation Homes, Inc.","INTU^FG_COMPANY_NAME":"Intuit Inc.","INTC^FG_COMPANY_NAME":"Intel Corporation","INCY^FG_COMPANY_NAME":"Incyte Corporation","ILMN^FG_COMPANY_NAME":"Illumina, Inc.","IFF^FG_COMPANY_NAME":"International Flavors & Fragrances Inc.","IEX^FG_COMPANY_NAME":"IDEX Corporation","IDXX^FG_COMPANY_NAME":"IDEXX Laboratories, Inc.","ICE^FG_COMPANY_NAME":"Intercontinental Exchange, Inc.","IBM^FG_COMPANY_NAME":"International Business Machines Corporation","HWM^FG_COMPANY_NAME":"Howmet Aerospace Inc.","HUM^FG_COMPANY_NAME":"Humana Inc.","HUBB^FG_COMPANY_NAME":"Hubbell Incorporated","HSY^FG_COMPANY_NAME":"Hershey Company","HST^FG_COMPANY_NAME":"Host Hotels & Resorts, Inc.","HSIC^FG_COMPANY_NAME":"Henry Schein, Inc.","HRL^FG_COMPANY_NAME":"Hormel Foods Corporation","HPQ^FG_COMPANY_NAME":"HP Inc.","HPE^FG_COMPANY_NAME":"Hewlett Packard Enterprise Co.","HON^FG_COMPANY_NAME":"Honeywell International Inc.","HOLX^FG_COMPANY_NAME":"Hologic, Inc.","HD^FG_COMPANY_NAME":"Home Depot, Inc.","HCA^FG_COMPANY_NAME":"HCA Healthcare Inc","HBAN^FG_COMPANY_NAME":"Huntington Bancshares Incorporated","HAS^FG_COMPANY_NAME":"Hasbro, Inc.","HAL^FG_COMPANY_NAME":"Halliburton Company","GWW^FG_COMPANY_NAME":"W.W. Grainger, Inc.","GS^FG_COMPANY_NAME":"Goldman Sachs Group, Inc.","GRMN^FG_COMPANY_NAME":"Garmin Ltd.","GPN^FG_COMPANY_NAME":"Global Payments Inc.","GPC^FG_COMPANY_NAME":"Genuine Parts Company","GOOGL^FG_COMPANY_NAME":"Alphabet Inc. Class A","GOOG^FG_COMPANY_NAME":"Alphabet Inc. Class C","GNRC^FG_COMPANY_NAME":"Generac Holdings Inc.","GM^FG_COMPANY_NAME":"General Motors Company","GLW^FG_COMPANY_NAME":"Corning Inc","GL^FG_COMPANY_NAME":"Globe Life Inc.","GIS^FG_COMPANY_NAME":"General Mills, Inc.","GILD^FG_COMPANY_NAME":"Gilead Sciences, Inc.","GEV^FG_COMPANY_NAME":"GE Vernova Inc.","GEN^FG_COMPANY_NAME":"Gen Digital Inc.","GEHC^FG_COMPANY_NAME":"GE Healthcare Technologies Inc.","GE^FG_COMPANY_NAME":"GE Aerospace","GDDY^FG_COMPANY_NAME":"GoDaddy, Inc. Class A","GD^FG_COMPANY_NAME":"General Dynamics Corporation","FTV^FG_COMPANY_NAME":"Fortive Corp.","FTNT^FG_COMPANY_NAME":"Fortinet, Inc.","FSLR^FG_COMPANY_NAME":"First Solar, Inc.","FRT^FG_COMPANY_NAME":"Federal Realty Investment Trust","FOXA^FG_COMPANY_NAME":"Fox Corporation Class A","FOX^FG_COMPANY_NAME":"Fox Corporation Class B","FMC^FG_COMPANY_NAME":"FMC Corporation","FLT^FG_COMPANY_NAME":"Corpay, Inc.","FITB^FG_COMPANY_NAME":"Fifth Third Bancorp","FIS^FG_COMPANY_NAME":"Fidelity National Information Services, Inc.","FICO^FG_COMPANY_NAME":"Fair Isaac Corporation","FI^FG_COMPANY_NAME":"Fiserv, Inc.","FFIV^FG_COMPANY_NAME":"F5, Inc.","FE^FG_COMPANY_NAME":"FirstEnergy Corp.","FDX^FG_COMPANY_NAME":"FedEx Corporation","FDS^FG_COMPANY_NAME":"FactSet Research Systems Inc.","FCX^FG_COMPANY_NAME":"Freeport-McMoRan, Inc.","FCNCA^FG_COMPANY_NAME":"First Citizens BancShares, Inc. Class A","FAST^FG_COMPANY_NAME":"Fastenal Company","FANG^FG_COMPANY_NAME":"Diamondback Energy, Inc.","F^FG_COMPANY_NAME":"Ford Motor Company","EXR^FG_COMPANY_NAME":"Extra Space Storage Inc.","EXPE^FG_COMPANY_NAME":"Expedia Group, Inc.","EXPD^FG_COMPANY_NAME":"Expeditors International of Washington, Inc.","EXC^FG_COMPANY_NAME":"Exelon Corporation","EW^FG_COMPANY_NAME":"Edwards Lifesciences Corporation","EVRG^FG_COMPANY_NAME":"Evergy, Inc.","ETR^FG_COMPANY_NAME":"Entergy Corporation","ETN^FG_COMPANY_NAME":"Eaton Corp. Plc","ESS^FG_COMPANY_NAME":"Essex Property Trust, Inc.","ES^FG_COMPANY_NAME":"Eversource Energy","EQT^FG_COMPANY_NAME":"EQT Corporation","EQR^FG_COMPANY_NAME":"Equity Residential","EQIX^FG_COMPANY_NAME":"Equinix, Inc.","EPAM^FG_COMPANY_NAME":"EPAM Systems, Inc.","EOG^FG_COMPANY_NAME":"EOG Resources, Inc.","ENPH^FG_COMPANY_NAME":"Enphase Energy, Inc.","EMR^FG_COMPANY_NAME":"Emerson Electric Co.","EMN^FG_COMPANY_NAME":"Eastman Chemical Company","EL^FG_COMPANY_NAME":"Estee Lauder Companies Inc. Class A","EIX^FG_COMPANY_NAME":"Edison International","EFX^FG_COMPANY_NAME":"Equifax Inc.","ED^FG_COMPANY_NAME":"Consolidated Edison, Inc.","ECL^FG_COMPANY_NAME":"Ecolab Inc.","EBAY^FG_COMPANY_NAME":"eBay Inc.","EA^FG_COMPANY_NAME":"Electronic Arts Inc.","DXCM^FG_COMPANY_NAME":"DexCom, Inc.","DVN^FG_COMPANY_NAME":"Devon Energy Corporation","DVA^FG_COMPANY_NAME":"DaVita Inc.","DUK^FG_COMPANY_NAME":"Duke Energy Corporation","DTE^FG_COMPANY_NAME":"DTE Energy Company","DRI^FG_COMPANY_NAME":"Darden Restaurants, Inc.","DPZ^FG_COMPANY_NAME":"Domino's Pizza, Inc.","DOW^FG_COMPANY_NAME":"Dow, Inc.","DOV^FG_COMPANY_NAME":"Dover Corporation","DLTR^FG_COMPANY_NAME":"Dollar Tree, Inc.","DIS^FG_COMPANY_NAME":"Walt Disney Company","DHR^FG_COMPANY_NAME":"Danaher Corporation","DHI^FG_COMPANY_NAME":"D.R. Horton, Inc.","DGX^FG_COMPANY_NAME":"Quest Diagnostics Incorporated","DG^FG_COMPANY_NAME":"Dollar General Corporation","DFS^FG_COMPANY_NAME":"Discover Financial Services","DECK^FG_COMPANY_NAME":"Deckers Outdoor Corporation","DE^FG_COMPANY_NAME":"Deere & Company","DD^FG_COMPANY_NAME":"DuPont de Nemours, Inc.","DAY^FG_COMPANY_NAME":"Dayforce, Inc.","DAL^FG_COMPANY_NAME":"Delta Air Lines, Inc.","D^FG_COMPANY_NAME":"Dominion Energy Inc","CZR^FG_COMPANY_NAME":"Caesars Entertainment, Inc.","CVX^FG_COMPANY_NAME":"Chevron Corporation","CVS^FG_COMPANY_NAME":"CVS Health Corporation","CTVA^FG_COMPANY_NAME":"Corteva Inc","CTSH^FG_COMPANY_NAME":"Cognizant Technology Solutions Corporation Class A","CTRA^FG_COMPANY_NAME":"Coterra Energy Inc.","CTLT^FG_COMPANY_NAME":"Catalent Inc","CTAS^FG_COMPANY_NAME":"Cintas Corporation","CSX^FG_COMPANY_NAME":"CSX Corporation","CSGP^FG_COMPANY_NAME":"CoStar Group, Inc.","CSCO^FG_COMPANY_NAME":"Cisco Systems, Inc.","CRWD^FG_COMPANY_NAME":"CrowdStrike Holdings, Inc. Class A","CRM^FG_COMPANY_NAME":"Salesforce, Inc.","CRL^FG_COMPANY_NAME":"Charles River Laboratories International, Inc.","CPT^FG_COMPANY_NAME":"Camden Property Trust","CPRT^FG_COMPANY_NAME":"Copart, Inc.","CPB^FG_COMPANY_NAME":"Campbell's Company","CPAY^FG_COMPANY_NAME":"Corpay, Inc.","COST^FG_COMPANY_NAME":"Costco Wholesale Corporation","COR^FG_COMPANY_NAME":"Cencora, Inc.","COP^FG_COMPANY_NAME":"ConocoPhillips","COO^FG_COMPANY_NAME":"Cooper Companies, Inc.","COF^FG_COMPANY_NAME":"Capital One Financial Corp","CNP^FG_COMPANY_NAME":"CenterPoint Energy, Inc.","CNC^FG_COMPANY_NAME":"Centene Corporation","CMS^FG_COMPANY_NAME":"CMS Energy Corporation","CMI^FG_COMPANY_NAME":"Cummins Inc.","CMG^FG_COMPANY_NAME":"Chipotle Mexican Grill, Inc.","CME^FG_COMPANY_NAME":"CME Group Inc. Class A","CMCSA^FG_COMPANY_NAME":"Comcast Corporation Class A","CMA^FG_COMPANY_NAME":"Comerica Incorporated","CLX^FG_COMPANY_NAME":"Clorox Company","CL^FG_COMPANY_NAME":"Colgate-Palmolive Company","CINF^FG_COMPANY_NAME":"Cincinnati Financial Corporation","CI^FG_COMPANY_NAME":"Cigna Group","CHTR^FG_COMPANY_NAME":"Charter Communications, Inc. Class A","CHRW^FG_COMPANY_NAME":"C.H. Robinson Worldwide, Inc.","CHD^FG_COMPANY_NAME":"Church & Dwight Co., Inc.","CFG^FG_COMPANY_NAME":"Citizens Financial Group, Inc.","CF^FG_COMPANY_NAME":"CF Industries Holdings, Inc.","CEG^FG_COMPANY_NAME":"Constellation Energy Corporation","CE^FG_COMPANY_NAME":"Celanese Corporation","CDW^FG_COMPANY_NAME":"CDW Corporation","CDNS^FG_COMPANY_NAME":"Cadence Design Systems, Inc.","CDAY^FG_COMPANY_NAME":null,"CCL^FG_COMPANY_NAME":"Carnival Corporation","CCI^FG_COMPANY_NAME":"Crown Castle Inc.","CBRE^FG_COMPANY_NAME":"CBRE Group, Inc. Class A","CBOE^FG_COMPANY_NAME":"Cboe Global Markets Inc","CB^FG_COMPANY_NAME":"Chubb Limited","CAT^FG_COMPANY_NAME":"Caterpillar Inc.","CARR^FG_COMPANY_NAME":"Carrier Global Corp.","CAH^FG_COMPANY_NAME":"Cardinal Health, Inc.","CAG^FG_COMPANY_NAME":"Conagra Brands, Inc.","C^FG_COMPANY_NAME":"Citigroup Inc.","BXP^FG_COMPANY_NAME":"BXP Inc","BX^FG_COMPANY_NAME":"Blackstone Inc.","BWA^FG_COMPANY_NAME":"BorgWarner Inc.","BSX^FG_COMPANY_NAME":"Boston Scientific Corporation","BRO^FG_COMPANY_NAME":"Brown & Brown, Inc.","BRK.B^FG_COMPANY_NAME":"Berkshire Hathaway Inc. Class B","BR^FG_COMPANY_NAME":"Broadridge Financial Solutions, Inc.","BMY^FG_COMPANY_NAME":"Bristol-Myers Squibb Company","BLK^FG_COMPANY_NAME":"BlackRock, Inc.","BLDR^FG_COMPANY_NAME":"Builders FirstSource, Inc.","BKR^FG_COMPANY_NAME":"Baker Hughes Company Class A","BKNG^FG_COMPANY_NAME":"Booking Holdings Inc.","BK^FG_COMPANY_NAME":"Bank of New York Mellon Corp","BIO^FG_COMPANY_NAME":"Bio-Rad Laboratories, Inc. Class A","BIIB^FG_COMPANY_NAME":"Biogen Inc.","BG^FG_COMPANY_NAME":"Bunge Global SA","BF.B^FG_COMPANY_NAME":"Brown-Forman Corporation Class B","BEN^FG_COMPANY_NAME":"Franklin Resources, Inc.","BDX^FG_COMPANY_NAME":"Becton, Dickinson and Company","BBY^FG_COMPANY_NAME":"Best Buy Co., Inc.","BBWI^FG_COMPANY_NAME":"Bath & Body Works, Inc.","BAX^FG_COMPANY_NAME":"Baxter International Inc.","BAC^FG_COMPANY_NAME":"Bank of America Corp","BA^FG_COMPANY_NAME":"Boeing Company","AZO^FG_COMPANY_NAME":"AutoZone, Inc.","AXP^FG_COMPANY_NAME":"American Express Company","AWK^FG_COMPANY_NAME":"American Water Works Company, Inc.","AVY^FG_COMPANY_NAME":"Avery Dennison Corporation","AVGO^FG_COMPANY_NAME":"Broadcom Inc.","AVB^FG_COMPANY_NAME":"AvalonBay Communities, Inc.","ATVI^FG_COMPANY_NAME":"Activision Blizzard, Inc.","ATO^FG_COMPANY_NAME":"Atmos Energy Corporation","ARE^FG_COMPANY_NAME":"Alexandria Real Estate Equities, Inc.","APTV^FG_COMPANY_NAME":"Aptiv PLC","APH^FG_COMPANY_NAME":"Amphenol Corporation Class A","APD^FG_COMPANY_NAME":"Air Products and Chemicals, Inc.","APA^FG_COMPANY_NAME":"APA Corporation","AOS^FG_COMPANY_NAME":"A. O. Smith Corporation","AON^FG_COMPANY_NAME":"Aon Plc Class A","ANSS^FG_COMPANY_NAME":"ANSYS, Inc.","ANET^FG_COMPANY_NAME":"Arista Networks, Inc.","AMZN^FG_COMPANY_NAME":"Amazon.com, Inc.","AMT^FG_COMPANY_NAME":"American Tower Corporation","AMP^FG_COMPANY_NAME":"Ameriprise Financial, Inc.","AMGN^FG_COMPANY_NAME":"Amgen Inc.","AME^FG_COMPANY_NAME":"AMETEK, Inc.","AMD^FG_COMPANY_NAME":"Advanced Micro Devices, Inc.","AMCR^FG_COMPANY_NAME":"Amcor PLC","AMAT^FG_COMPANY_NAME":"Applied Materials, Inc.","ALLE^FG_COMPANY_NAME":"Allegion Public Limited Company","ALL^FG_COMPANY_NAME":"Allstate Corporation","ALGN^FG_COMPANY_NAME":"Align Technology, Inc.","ALB^FG_COMPANY_NAME":"Albemarle Corporation","AKAM^FG_COMPANY_NAME":"Akamai Technologies, Inc.","AJG^FG_COMPANY_NAME":"Arthur J. Gallagher & Co.","AIZ^FG_COMPANY_NAME":"Assurant, Inc.","AIG^FG_COMPANY_NAME":"American International Group, Inc.","AFL^FG_COMPANY_NAME":"Aflac Incorporated","AES^FG_COMPANY_NAME":"AES Corporation","AEP^FG_COMPANY_NAME":"American Electric Power Company, Inc.","AEE^FG_COMPANY_NAME":"Ameren Corporation","ADSK^FG_COMPANY_NAME":"Autodesk, Inc.","ADP^FG_COMPANY_NAME":"Automatic Data Processing, Inc.","ADM^FG_COMPANY_NAME":"Archer-Daniels-Midland Company","ADI^FG_COMPANY_NAME":"Analog Devices, Inc.","ADBE^FG_COMPANY_NAME":"Adobe Inc.","ACN^FG_COMPANY_NAME":"Accenture Plc Class A","ACGL^FG_COMPANY_NAME":"Arch Capital Group Ltd.","ABT^FG_COMPANY_NAME":"Abbott Laboratories","ABNB^FG_COMPANY_NAME":"Airbnb, Inc. Class A","ABBV^FG_COMPANY_NAME":"AbbVie, Inc.","AAPL^FG_COMPANY_NAME":"Apple Inc.","A^FG_COMPANY_NAME":"Agilent Technologies, Inc.","CDNS^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,45930,,,'')":1.7886857,"CDW^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,46022,,,'')":2.4404464,"CE^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,45930,,,'')":1.2284882,"CEG^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,45930,,,'')":3.1021173,"CF^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,45930,,,'')":2.0216787,"CFG^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,46022,,,'')":1.1074862,"CHD^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,46022,,,'')":0.83661646,"CHRW^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,46022,,,'')":1.1178378,"CHTR^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,46022,,,'')":9.948052,"CI^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,46022,,,'')":7.8804274,"CINF^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,46022,,,'')":2.7139957,"CL^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,46022,,,'')":0.91472995,"CLX^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,46022,,,'')":1.4484395,"CMA^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,46022,,,'')":1.2929132,"CMCSA^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,46022,,,'')":0.71198916,"CME^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,46022,,,'')":2.7349758,"CMG^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,46022,,,'')":0.23879302,"CMI^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,46022,,,'')":4.99384,"CMS^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,46022,,,'')":0.95534796,"CNC^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,46022,,,'')":-1.2244978,"CNP^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,45930,,,'')":0.42568487,"COF^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,45930,,,'')":4.310988,"COO^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,45961,,,'')":1.1147298,"COP^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,46022,,,'')":1.3214356,"COR^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,46022,,,'')":4.0407853,"COST^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,45989,,,'')":4.2772923,"CPAY^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,46022,,,'')":5.9259033,"CPB^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,45961,,,'')":0.7401611,"CPRT^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,45961,,,'')":0.39564285,"CPT^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,46022,,,'')":0.34536937,"CRL^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,45930,,,'')":2.3403397,"CRM^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,45961,,,'')":2.8604867,"CRWD^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,45961,,,'')":0.93807566,"CSCO^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,46052,,,'')":1.0206699,"CSGP^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,45930,,,'')":0.17986444,"CSX^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,46022,,,'')":0.4291265,"CTAS^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,45989,,,'')":1.1989731,"CTLT^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,45565,,,'')":0.0451935,"CTRA^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,45930,,,'')":0.5183079,"CTSH^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,46022,,,'')":1.3204422,"CTVA^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,46022,,,'')":0.2193428,"CVS^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,46022,,,'')":0.9980993,"CVX^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,46022,,,'')":1.5760484,"CZR^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,45930,,,'')":0.03640632,"D^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,45930,,,'')":1.1389804,"DAL^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,46022,,,'')":1.5669245,"DAY^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,45930,,,'')":0.54837453,"DD^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,46022,,,'')":0.43219268,"DE^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,45961,,,'')":3.8450356,"DECK^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,46022,,,'')":2.758488,"DFS^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,45747,,,'')":3.350503,"DG^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,45961,,,'')":0.93249446,"DGX^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,46022,,,'')":2.3615596,"DHI^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,46022,,,'')":1.9533095,"DHR^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,46022,,,'')":2.1382906,"DIS^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,46022,,,'')":1.5741497,"DLTR^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,45961,,,'')":1.0844529,"DOV^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,46022,,,'')":2.483386,"DOW^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,46022,,,'')":-0.44776785,"DPZ^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,45898,,,'')":3.9898982,"DRI^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,45989,,,'')":2.1132088,"DTE^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,45930,,,'')":2.2583778,"DUK^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,46022,,,'')":1.4958827,"DVA^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,46022,,,'')":3.2419097,"DVN^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,45930,,,'')":0.9291371,"DXCM^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,46022,,,'')":0.6465793,"EA^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,46022,,,'')":4.757911,"EBAY^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,45930,,,'')":1.3281314,"ECL^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,46022,,,'')":2.0662205,"ED^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,45930,,,'')":1.7534811,"EFX^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,46022,,,'')":2.0453553,"EIX^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,45930,,,'')":1.55867,"EL^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,46022,,,'')":0.8261818,"EMN^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,46022,,,'')":0.76652694,"EMR^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,46022,,,'')":1.4149952,"ENPH^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,46022,,,'')":0.58141655,"EOG^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,45930,,,'')":2.3773432,"EPAM^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,45930,,,'')":3.0274475,"EQIX^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,46022,,,'')":3.7419565,"EQR^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,46022,,,'')":0.38011184,"EQT^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,45930,,,'')":0.45975122,"ES^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,46022,,,'')":1.1265937,"ESS^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,46022,,,'')":1.4375539,"ETN^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,46022,,,'')":3.356836,"ETR^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,46022,,,'')":0.54723483,"EVRG^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,45930,,,'')":2.1090457,"EW^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,46022,,,'')":0.6193891,"EXC^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,46022,,,'')":0.571651,"EXPD^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,45930,,,'')":1.3759228,"EXPE^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,46022,,,'')":3.2917314,"EXR^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,45930,,,'')":1.1920859,"F^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,46022,,,'')":0.08426199,"FANG^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,45930,,,'')":2.8601892,"FAST^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,46022,,,'')":0.25979877,"FCNCA^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,46022,,,'')":44.274242,"FCX^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,46022,,,'')":0.23863442,"FDS^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,45989,,,'')":4.343066,"FDX^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,45989,,,'')":4.03031,"FE^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,45930,,,'')":0.7742965,"FFIV^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,46022,,,'')":3.6500168,"FI^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,46022,,,'')":1.917103,"FICO^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,46022,,,'')":7.1077433,"FIS^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,45930,,,'')":1.4820855,"FITB^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,46022,,,'')":0.992989,"FLT^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,46022,,,'')":5.9259033,"FMC^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,46022,,,'')":1.2032044,"FOX^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,46022,,,'')":0.49171138,"FOXA^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,46022,,,'')":0.49107784,"FRT^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,46022,,,'')":0.73715365,"FSLR^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,45930,,,'')":4.311088,"FTNT^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,46022,,,'')":0.7412814,"FTV^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,46022,,,'')":0.83954066,"GD^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,46022,,,'')":4.117339,"GDDY^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,45930,,,'')":1.4756762,"GE^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,46022,,,'')":1.4481703,"GEHC^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,46022,,,'')":1.3875967,"GEN^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,46022,,,'')":0.633492,"GEV^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,46022,,,'')":2.9331658,"GILD^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,46022,,,'')":1.8634428,"GIS^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,45989,,,'')":1.0205809,"GL^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,46022,,,'')":3.4415,"GLW^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,46022,,,'')":0.704542,"GM^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,46022,,,'')":2.2171707,"GNRC^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,46022,,,'')":1.8071194,"GOOG^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,46022,,,'')":2.6305645,"GOOGL^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,46022,,,'')":2.6304195,"GPC^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,45930,,,'')":2.0102766,"GPN^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,45930,,,'')":3.2302158,"GRMN^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,45930,,,'')":1.9784982,"GS^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,46022,,,'')":11.521218,"GWW^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,46022,,,'')":9.43801,"HAL^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,46022,,,'')":0.5404127,"HAS^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,46022,,,'')":0.94781524,"HBAN^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,46022,,,'')":0.32988265,"HCA^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,46022,,,'')":7.4522195,"HD^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,45961,,,'')":3.8544588,"HOLX^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,46022,,,'')":1.0884485,"HON^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,46022,,,'')":2.5328736,"HPE^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,45961,,,'')":0.5807879,"HPQ^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,45961,,,'')":0.922069,"HRL^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,45961,,,'')":0.32722223,"HSIC^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,45930,,,'')":1.279341,"HST^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,45930,,,'')":0.037298143,"HSY^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,46022,,,'')":1.3916517,"HUBB^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,46022,,,'')":4.699473,"HUM^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,46022,,,'')":-4.0239515,"HWM^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,46022,,,'')":0.95869,"IBM^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,46022,,,'')":4.3181005,"ICE^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,46022,,,'')":1.6779475,"IDXX^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,46022,,,'')":2.9339643,"IEX^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,46022,,,'')":2.0421326,"IFF^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,46022,,,'')":0.8317844,"ILMN^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,46022,,,'')":1.2178773,"INCY^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,46022,,,'')":1.9263345,"INTC^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,46022,,,'')":0.08038661,"INTU^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,45961,,,'')":3.0936594,"INVH^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,45930,,,'')":0.18165788,"IP^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,46022,,,'')":0.28567535,"IPG^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,45930,,,'')":0.74028987,"IQV^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,46022,,,'')":3.3963647,"IR^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,46022,,,'')":0.90430015,"IRM^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,46022,,,'')":0.5876315,"ISRG^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,46022,,,'')":2.2487977,"IT^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,46022,,,'')":3.5124757,"ITW^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,46022,,,'')":2.6873014,"IVZ^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,46022,,,'')":0.5677456,"J^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,46022,,,'')":1.502879,"JBHT^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,46022,,,'')":1.7816582,"JBL^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,45989,,,'')":2.6949706,"JCI^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,46022,,,'')":0.8345939,"JKHY^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,46022,,,'')":1.4233906,"JNJ^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,46022,,,'')":2.522761,"JNPR^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,45838,,,'')":0.4866571,"JPM^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,46022,,,'')":4.965264,"K^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,45930,,,'')":0.87302566,"KDP^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,45930,,,'')":0.5383025,"KEY^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,46022,,,'')":0.38429275,"KEYS^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,45961,,,'')":1.8221956,"KHC^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,46022,,,'')":0.6127035,"KIM^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,46022,,,'')":0.17247322,"KLAC^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,46022,,,'')":8.794365,"KMB^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,46022,,,'')":1.8091729,"KMI^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,46022,,,'')":0.3655626,"KMX^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,45989,,,'')":0.33359665,"KO^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,46022,,,'')":0.56155556,"KR^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,45961,,,'')":1.0336485,"KVUE^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,45930,,,'')":0.2628097,"L^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,46022,,,'')":null,"LDOS^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,45930,,,'')":2.7021563,"LEN^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,45989,,,'')":2.2501302,"LH^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,45930,,,'')":4.1145377,"LHX^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,46022,,,'')":2.777793,"LIN^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,46022,,,'')":4.1742268,"LKQ^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,45930,,,'')":0.755,"LLY^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,46022,,,'')":7.159231,"LMT^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,46022,,,'')":6.4900913,"LNT^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,45930,,,'')":1.1667808,"LOW^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,45961,,,'')":2.9942176,"LRCX^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,46022,,,'')":1.1605608,"LULU^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,45961,,,'')":2.2105107,"LUV^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,46022,,,'')":0.5799313,"LVS^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,46022,,,'')":0.7562782,"LW^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,45989,,,'')":0.64424443,"LYB^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,46022,,,'')":0.27160177,"LYV^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,45930,,,'')":1.5898076,"MA^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,46022,,,'')":4.250696,"MAA^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,46022,,,'')":0.9306255,"MAR^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,46022,,,'')":2.6113253,"MAS^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,46022,,,'')":0.7947275,"MCD^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,46022,,,'')":3.0306966,"MCHP^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,46022,,,'')":0.38886774,"MCK^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,46022,,,'')":9.1615505,"MCO^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,45930,,,'')":3.4855804,"MDLZ^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,46022,,,'')":0.6998717,"MDT^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,45961,,,'')":1.3139782,"MET^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,46022,,,'')":2.3586466,"META^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,46022,,,'')":8.193526,"MGM^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,46022,,,'')":0.60244983,"MHK^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,46022,,,'')":1.9789584,"MKC^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,45989,,,'')":0.8747507,"MKTX^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,46022,,,'')":1.7400197,"MLM^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,46022,,,'')":4.841901,"MMC^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,46022,,,'')":1.9799153,"MMM^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,46022,,,'')":1.8057345,"MNST^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,45930,,,'')":0.47848895,"MO^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,46022,,,'')":1.3219452,"MOH^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,46022,,,'')":0.3386934,"MOS^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,45930,,,'')":1.132501,"MPC^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,46022,,,'')":3.3983128,"MPWR^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,46022,,,'')":4.7334146,"MRK^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,46022,,,'')":2.053202,"MRNA^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,46022,,,'')":-2.6305888,"MRO^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,45565,,,'')":0.7032796,"MS^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,46022,,,'')":2.3966267,"MSCI^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,46022,,,'')":4.5649056,"MSFT^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,46022,,,'')":3.9242039,"MSI^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,46022,,,'')":4.347039,"MTB^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,46022,,,'')":4.492139,"MTCH^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,46022,,,'')":0.7024559,"MTD^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,46022,,,'')":12.799413,"MU^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,45989,,,'')":3.794422,"NCLH^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,45930,,,'')":1.1568102,"NDAQ^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,46022,,,'')":0.91672003,"NDSN^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,45961,,,'')":2.930635,"NEE^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,46022,,,'')":0.5698826,"NEM^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,45930,,,'')":1.3762467,"NFLX^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,46022,,,'')":0.55269146,"NI^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,46022,,,'')":0.49603102,"NKE^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,45989,,,'')":0.36555436,"NOC^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,46022,,,'')":6.9857254,"NOW^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,46022,,,'')":0.8853681,"NRG^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,45930,,,'')":2.065378,"NSC^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,46022,,,'')":2.8517094,"NTAP^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,45961,,,'')":1.8858202,"NTRS^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,46022,,,'')":2.342672,"NUE^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,46022,,,'')":2.0564806,"NVDA^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,45961,,,'')":1.2464687,"NVR^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,46022,,,'')":106.21392,"NWS^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,46022,,,'')":0.36303246,"NWSA^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,46022,,,'')":0.35963896,"NXPI^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,46022,,,'')":3.2939475,"O^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,45930,,,'')":0.35825136,"ODFL^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,46022,,,'')":1.0604336,"OKE^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,45930,,,'')":1.4729878,"OMC^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,45930,,,'')":2.161949,"ON^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,46022,,,'')":0.62271297,"ORCL^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,45989,,,'')":1.6385494,"ORLY^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,46022,,,'')":0.7219494,"OTIS^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,46022,,,'')":1.0457371,"OXY^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,45930,,,'')":0.48354894,"PARA^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,45930,,,'')":0.41173348,"PAYC^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,46022,,,'')":2.4501297,"PAYX^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,45989,,,'')":1.2314965,"PCAR^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,46022,,,'')":1.0610667,"PCG^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,46022,,,'')":0.37346902,"PEAK^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,46022,,,'')":0.06874107,"PEG^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,45930,,,'')":1.0026195,"PEP^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,46022,,,'')":2.237599,"PFE^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,46022,,,'')":0.5664796,"PFG^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,46022,,,'')":2.2393818,"PG^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,46022,,,'')":1.8741784,"PGR^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,46022,,,'')":4.435026,"PH^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,46022,,,'')":7.136961,"PHM^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,46022,,,'')":2.820516,"PKG^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,46022,,,'')":2.4558027,"PLD^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,46022,,,'')":0.72926396,"PLTR^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,46022,,,'')":0.2296734,"PM^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,46022,,,'')":1.700704,"PNC^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,46022,,,'')":4.1663575,"PNR^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,46022,,,'')":1.1577307,"PNW^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,45930,,,'')":2.9847898,"PODD^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,45930,,,'')":1.1426888,"POOL^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,45930,,,'')":3.3899257,"PPG^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,46022,,,'')":1.5851833,"PPL^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,45930,,,'')":0.47038302,"PRU^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,46022,,,'')":3.3975348,"PSA^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,46022,,,'')":2.5040388,"PSX^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,46022,,,'')":2.4371586,"PTC^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,46022,,,'')":1.5573295,"PVH^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,45961,,,'')":2.5390682,"PWR^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,45930,,,'')":3.2571213,"PXD^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,45379,,,'')":4.7498255,"PYPL^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,46022,,,'')":1.2897654,"QCOM^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,46022,,,'')":3.393065,"QRVO^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,46022,,,'')":1.8584981,"RCL^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,46022,,,'')":2.7946541,"RE^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,46022,,,'')":13.082196,"REG^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,46022,,,'')":0.5727576,"REGN^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,46022,,,'')":10.705121,"RF^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,46022,,,'')":0.6110151,"RJF^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,46022,,,'')":2.9016213,"RL^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,46022,,,'')":5.7730694,"RMD^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,46022,,,'')":2.7222865,"ROK^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,46022,,,'')":2.4413993,"ROL^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,46022,,,'')":0.26487875,"ROP^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,46022,,,'')":5.142787,"ROST^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,45961,,,'')":1.4103104,"RSG^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,45930,,,'')":1.7839756,"RTX^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,46022,,,'')":1.4724902,"RVTY^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,46022,,,'')":1.5402023,"SBAC^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,45930,,,'')":2.1960828,"SBUX^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,46022,,,'')":0.59076923,"SCHW^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,46022,,,'')":1.3468467,"SEE^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,45930,,,'')":0.6987087,"SHW^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,46022,,,'')":2.160491,"SJM^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,45961,,,'')":2.0985324,"SLB^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,46022,,,'')":0.740231,"SMCI^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,46022,,,'')":0.489086,"SNA^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,46022,,,'')":4.93,"SNPS^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,45961,,,'')":2.781421,"SO^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,45930,,,'')":1.4876121,"SPG^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,46022,,,'')":1.8390862,"SPGI^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,46022,,,'')":4.2764034,"SRE^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,45930,,,'')":0.9146607,"STE^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,46022,,,'')":2.53,"STLD^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,46022,,,'')":2.0347185,"STT^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,46022,,,'')":2.8061507,"STX^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,46022,,,'')":2.7915044,"STZ^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,45989,,,'')":2.6470327,"SWK^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,46022,,,'')":1.3081363,"SWKS^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,46022,,,'')":1.3981518,"SYF^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,46022,,,'')":2.019001,"SYK^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,46022,,,'')":4.391759,"SYY^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,46022,,,'')":0.981201,"T^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,46022,,,'')":0.4635569,"TAP^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,45930,,,'')":1.7142882,"TDG^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,46022,,,'')":8.084774,"TDY^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,46022,,,'')":5.8493876,"TECH^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,46022,,,'')":0.43349347,"TEL^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,46022,,,'')":2.5424235,"TER^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,46022,,,'')":1.355208,"TFC^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,46022,,,'')":1.0903805,"TFX^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,45930,,,'')":3.3791666,"TGT^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,45961,,,'')":1.7493774,"TJX^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,45961,,,'')":1.2208302,"TMO^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,46022,,,'')":6.4476833,"TMUS^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,46022,,,'')":2.0796297,"TPR^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,46022,,,'')":2.1725547,"TRGP^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,45930,,,'')":2.067117,"TRMB^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,46022,,,'')":0.95966667,"TROW^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,46022,,,'')":2.4650104,"TRV^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,46022,,,'')":8.480643,"TSCO^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,46022,,,'')":0.4747725,"TSLA^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,46022,,,'')":0.4440281,"TSN^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,46022,,,'')":0.9489024,"TT^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,46022,,,'')":2.820442,"TTWO^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,46022,,,'')":0.8273507,"TXN^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,46022,,,'')":1.2819258,"TXT^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,46022,,,'')":1.741913,"TYL^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,46022,,,'')":2.7265,"UAL^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,46022,,,'')":2.967117,"UBER^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,46022,,,'')":0.79181135,"UDR^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,46022,,,'')":0.15143235,"UHS^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,45930,,,'')":4.6535373,"ULTA^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,45961,,,'')":4.5203834,"UNH^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,46022,,,'')":2.115459,"UNP^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,46022,,,'')":2.9093735,"UPS^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,46022,,,'')":2.1868563,"URI^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,46022,,,'')":11.771336,"USB^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,46022,,,'')":1.1817878,"V^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,46022,,,'')":3.1371896,"VICI^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,45930,,,'')":0.6894253,"VLO^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,46022,,,'')":3.1867843,"VLTO^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,46022,,,'')":0.9781046,"VMC^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,45930,,,'')":2.6826704,"VRSK^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,45930,,,'')":1.6984239,"VRSN^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,46022,,,'')":2.3457637,"VRTX^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,46022,,,'')":5.123389,"VST^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,45930,,,'')":3.4951138,"VTR^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,46022,,,'')":0.10073217,"VTRS^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,45930,,,'')":0.61967844,"VZ^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,46022,,,'')":1.0640094,"WAB^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,46022,,,'')":2.0852973,"WAT^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,46022,,,'')":4.513313,"WBA^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,45807,,,'')":0.3257608,"WBD^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,45930,,,'')":-0.09049152,"WDC^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,46022,,,'')":1.9037918,"WEC^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,46022,,,'')":1.3800256,"WELL^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,46022,,,'')":0.55523807,"WFC^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,46022,,,'')":1.6785387,"WM^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,46022,,,'')":1.9489739,"WMB^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,46022,,,'')":0.5691315,"WMT^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,45961,,,'')":0.59840196,"WRB^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,46022,,,'')":1.1364958,"WST^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,46022,,,'')":1.8344177,"WTW^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,46022,,,'')":7.958949,"WY^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,46022,,,'')":-0.124890216,"WYNN^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,46022,,,'')":1.4773923,"XEL^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,46022,,,'')":0.9617416,"XOM^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,46022,,,'')":1.6678938,"XYL^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,46022,,,'')":1.4107827,"YUM^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,46022,,,'')":1.7632424,"ZBH^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,46022,,,'')":2.3952546,"ZBRA^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,46022,,,'')":4.329131,"ZION^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,46022,,,'')":1.560317,"ZTS^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,46022,,,'')":1.4004004,"A^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,45961,,,'')":1.5840831,"AAPL^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,46022,,,'')":2.6625004,"ABBV^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,46022,,,'')":3.3511193,"ABNB^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,46022,,,'')":0.6609718,"ABT^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,46022,,,'')":1.4967096,"ACGL^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,46022,,,'')":2.3595505,"ACN^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,45989,,,'')":3.7341044,"ADBE^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,45989,,,'')":5.3975267,"ADI^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,45961,,,'')":2.2369838,"ADM^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,46022,,,'')":0.8068116,"ADP^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,46022,,,'')":2.567729,"ADSK^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,45961,,,'')":2.4963706,"AEE^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,46022,,,'')":0.7695301,"AEP^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,46022,,,'')":1.1441585,"AES^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,45930,,,'')":0.72946435,"AFL^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,46022,,,'')":1.7020967,"AIG^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,46022,,,'')":1.8891844,"AIZ^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,46022,,,'')":5.303068,"AJG^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,46022,,,'')":2.396513,"AKAM^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,45930,,,'')":1.6383251,"ALB^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,46022,,,'')":-0.5503643,"ALGN^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,46022,,,'')":2.9654894,"ALL^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,46022,,,'')":8.83377,"ALLE^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,45930,,,'')":2.2087595,"AMAT^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,46052,,,'')":2.2054536,"AMCR^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,46022,,,'')":0.84887564,"AMD^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,46022,,,'')":1.3108997,"AME^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,46022,,,'')":1.9409021,"AMGN^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,46022,,,'')":4.72625,"AMP^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,46022,,,'')":10.296391,"AMT^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,45930,,,'')":1.6481539,"AMZN^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,46022,,,'')":1.9506532,"ANET^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,46022,,,'')":0.75706756,"ANSS^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,45747,,,'')":1.7454401,"AON^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,46022,,,'')":4.7470226,"AOS^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,46022,,,'')":0.84305805,"APA^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,45930,,,'')":0.79334587,"APD^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,46022,,,'')":3.0397975,"APH^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,46022,,,'')":0.9191758,"APTV^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,45930,,,'')":1.7702016,"ARE^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,46022,,,'')":0.24690983,"ATO^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,46022,,,'')":2.408363,"ATVI^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,45107,,,'')":0.87631536,"AVB^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,46022,,,'')":1.2635863,"AVGO^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,45961,,,'')":1.8651475,"AVY^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,46022,,,'')":2.4084048,"AWK^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,45930,,,'')":1.8930573,"AXP^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,46022,,,'')":3.564134,"AZO^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,45989,,,'')":32.67411,"BA^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,46022,,,'')":-0.42995498,"BAC^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,46022,,,'')":0.9644544,"BAX^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,46022,,,'')":0.53507066,"BBWI^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,45961,,,'')":0.40561414,"BBY^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,45961,,,'')":1.2947387,"BDX^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,46022,,,'')":2.209034,"BEN^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,46022,,,'')":0.54821324,"BF.B^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,45961,,,'')":0.47667477,"BG^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,46022,,,'')":1.8980948,"BIIB^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,46022,,,'')":1.6508691,"BIO^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,46022,,,'')":2.7146823,"BK^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,46022,,,'')":1.9489464,"BKNG^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,45930,,,'')":95.339035,"BKR^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,46022,,,'')":0.67139256,"BLDR^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,45930,,,'')":1.6570252,"BLK^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,46022,,,'')":12.64784,"BMY^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,46022,,,'')":1.6181803,"BR^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,46022,,,'')":1.3581536,"BRK.B^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,45930,,,'')":5.514015,"BRO^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,46022,,,'')":0.9041772,"BSX^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,46022,,,'')":0.78072685,"BWA^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,46022,,,'')":1.1571455,"BX^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,46022,,,'')":1.5287622,"BXP^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,46022,,,'')":0.5021134,"C^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,46022,,,'')":1.7835945,"CAG^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,45989,,,'')":0.43963537,"CAH^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,46022,,,'')":2.2846022,"CARR^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,46022,,,'')":0.38951233,"CAT^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,46022,,,'')":4.6587725,"CB^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,46022,,,'')":6.4937325,"CBOE^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,46022,,,'')":2.7293184,"CBRE^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,46022,,,'')":2.6927774,"CCI^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,46022,,,'')":0.55252534,"CCL^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,45989,,,'')":0.24916178,"A^FF_EPS(ANN_R,0)":4.5719,"A^JULIAN(FF_EPS(ANN_R,0).DATES)":45961,"A^FF_EPS(QTR_R,45961)":1.5282,"A^JULIAN(FF_EPS(QTR_R,45961).DATES)":45961,"A^FF_EPS(QTR_R,46022)":1.5282,"A^JULIAN(FF_EPS(QTR_R,46022).DATES)":45961,"A^FE_ACTUAL(ACTUAL,EPS,ANN_ROLL,0,,,,'')":5.59,"A^JULIAN(FE_ACTUAL(ACTUAL,EPS,ANN_ROLL,0,,,,'').DATES)":46066,"A^FE_ACTUAL(ACTUAL,EPS,QTR_ROLL,0,,,,'')":1.59,"A^JULIAN(FE_ACTUAL(ACTUAL,EPS,QTR_ROLL,0,,,,'').DATES)":46066,"A^FE_ACTUAL(ACTUAL,EPS,QTR_ROLL,46022,,,,'')":null,"A^JULIAN(FE_ACTUAL(ACTUAL,EPS,QTR_ROLL,46022,,,,'').DATES)":46066,"A^FE_ESTIMATE(EPS,MEAN,ANN_ROLL,+1,NOW,,,'')":5.9341817,"A^JULIAN(FE_ESTIMATE(EPS,MEAN,ANN_ROLL,+1,NOW,,,'').DATES)":46066,"A^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,NOW,,,'')":1.3690103,"A^JULIAN(FE_ESTIMATE(EPS,MEAN,QTR_ROLL,+1,NOW,,,'').DATES)":46066,"A^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,46022,NOW,,,'')":null,"A^JULIAN(FE_ESTIMATE(EPS,MEAN,QTR_ROLL,46022,NOW,,,'').DATES)":46066,"A^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,0,NOW,,,'')":1.59,"A^JULIAN(FE_ESTIMATE(EPS,MEAN,QTR_ROLL,0,NOW,,,'').DATES)":46066,"A^FE_SURPRISE(AMOUNT,EPS,MEAN,ANN_ROLL,0,NOW,,,'')":0.016829174,"A^JULIAN(FE_SURPRISE(AMOUNT,EPS,MEAN,ANN_ROLL,0,NOW,,,'').DATES)":46066,"A^FE_ESTIMATE_DATE(DATE,,ANN_ROLL,+1,'YYYYMMDD',NOW,,,'')":"20260213","A^JULIAN(FE_ESTIMATE_DATE(DATE,,ANN_ROLL,+1,'YYYYMMDD',NOW,,,'').DATES)":"#NUM","A^FE_ESTIMATE_DATE(DATE,,QTR_ROLL,0,'YYYYMMDD',NOW,,,'')":"20260213","A^JULIAN(FE_ESTIMATE_DATE(DATE,,QTR_ROLL,0,'YYYYMMDD',NOW,,,'').DATES)":"#NUM","A^FE_ESTIMATE_DATE(DATE,,QTR_ROLL,0,'YYYYMMDD',0CQ,,,'')":"20251231","A^JULIAN(FE_ESTIMATE_DATE(DATE,,QTR_ROLL,0,'YYYYMMDD',0CQ,,,'').DATES)":"#NUM","A^FE_ESTIMATE_DATE(DATE,,QTR_ROLL,-1,'YYYYMMDD',0CQ,,,'')":"20251231","A^JULIAN(FE_ESTIMATE_DATE(DATE,,QTR_ROLL,-1,'YYYYMMDD',0CQ,,,'').DATES)":"#NUM","ZTS^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":1.48,"ZION^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":1.76,"ZBRA^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":4.33,"ZBH^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":2.42,"YUM^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":1.73,"XYL^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":1.42,"XOM^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":1.71,"XEL^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":0.96,"WYNN^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":1.17,"WY^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":-0.09,"WTW^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":8.12,"WST^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":2.04,"WRB^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":1.13,"WMT^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":0.62,"WMB^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":0.55,"WM^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":1.93,"WFC^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":1.62,"WELL^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":0.14,"WEC^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":1.42,"WDC^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":2.13,"WBD^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":-0.06,"WBA^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":null,"WAT^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":4.53,"WAB^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":2.1,"VZ^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":1.09,"VTRS^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":0.67,"VTR^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":0.15,"VST^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":1.7472291,"VRTX^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":5.03,"VRSN^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":2.23,"VRSK^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":1.72,"VMC^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":2.84,"VLTO^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":1.04,"VLO^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":3.82,"VICI^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":0.71,"V^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":3.17,"USB^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":1.26,"URI^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":11.09,"UPS^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":2.38,"UNP^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":2.86,"UNH^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":2.11,"ULTA^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":5.14,"UHS^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":5.69,"UDR^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":0.67,"UBER^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":0.71,"UAL^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":3.1,"TYL^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":2.64,"TXT^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":1.73,"TXN^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":1.27,"TTWO^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":1.2280473,"TT^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":2.86,"TSN^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":0.97,"TSLA^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":0.5,"TSCO^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":0.43,"TRV^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":11.13,"TROW^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":2.44,"TRMB^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":1.0,"TRGP^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":2.2125583,"TPR^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":2.69,"TMUS^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":1.88,"TMO^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":6.57,"TJX^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":1.28,"TGT^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":1.78,"TFX^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":3.67,"TFC^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":1.0,"TER^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":1.8,"TEL^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":2.72,"TECH^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":0.46,"TDY^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":6.3,"TDG^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":8.23,"TAP^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":1.67,"T^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":0.52,"SYY^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":0.99,"SYK^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":4.47,"SYF^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":2.04,"SWKS^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":1.54,"SWK^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":1.41,"STZ^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":3.06,"STX^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":3.11,"STT^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":2.97,"STLD^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":1.82,"STE^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":2.53,"SRE^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":1.11,"SPGI^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":4.3,"SPG^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":9.35,"SO^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":1.6,"SNPS^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":2.9,"SNA^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":4.94,"SMCI^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":0.69,"SLB^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":0.78,"SJM^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":2.1,"SHW^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":2.23,"SEE^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":0.87,"SCHW^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":1.39,"SBUX^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":0.56,"SBAC^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":2.2,"RVTY^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":1.7,"RTX^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":1.55,"RSG^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":1.9,"ROST^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":1.58,"ROP^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":5.21,"ROL^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":0.24,"ROK^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":2.75,"RMD^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":2.81,"RL^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":6.22,"RJF^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":2.86,"RF^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":0.57,"REGN^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":11.44,"REG^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":1.09,"RE^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":13.26,"RCL^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":2.8,"QRVO^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":2.17,"QCOM^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":3.5,"PYPL^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":1.23,"PXD^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":null,"PWR^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":3.33,"PVH^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":2.83,"PTC^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":1.92,"PSX^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":2.47,"PSA^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":2.6,"PRU^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":3.3,"PPL^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":0.48,"PPG^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":1.51,"POOL^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":3.39,"PODD^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":1.24,"PNW^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":3.39,"PNR^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":1.18,"PNC^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":4.88,"PM^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":1.7,"PLTR^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":0.25,"PLD^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":1.49,"PKG^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":2.32,"PHM^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":2.56,"PH^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":7.65,"PGR^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":4.582925,"PG^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":1.88,"PFG^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":2.19,"PFE^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":0.66,"PEP^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":2.26,"PEG^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":1.13,"PEAK^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":0.16,"PCG^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":0.36,"PCAR^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":1.06,"PAYX^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":1.26,"PAYC^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":2.45,"PARA^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":-0.05314813,"OXY^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":0.64,"OTIS^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":1.03,"ORLY^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":0.71,"ORCL^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":2.26,"ON^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":0.64,"OMC^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":2.24,"OKE^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":1.49,"ODFL^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":1.09,"O^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":0.35,"NXPI^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":3.35,"NWSA^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":0.4,"NWS^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":0.4,"NVR^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":121.54,"NVDA^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":1.3,"NUE^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":1.73,"NTRS^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":2.6365135,"NTAP^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":2.05,"NSC^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":3.22,"NRG^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":2.78,"NOW^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":0.92,"NOC^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":7.23,"NKE^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":0.53,"NI^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":0.51,"NFLX^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":0.56,"NEM^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":1.71,"NEE^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":0.54,"NDSN^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":3.03,"NDAQ^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":0.96,"NCLH^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":1.2,"MU^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":4.78,"MTD^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":13.36,"MTCH^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":0.83,"MTB^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":4.67,"MSI^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":4.59,"MSFT^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":4.14,"MSCI^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":4.66,"MS^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":2.68,"MRO^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":null,"MRNA^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":-2.11,"MRK^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":2.04,"MPWR^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":4.79,"MPC^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":4.07,"MOS^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":1.04,"MOH^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":-2.75,"MO^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":1.3,"MNST^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":0.56,"MMM^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":1.83,"MMC^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":2.12,"MLM^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":3.85,"MKTX^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":1.68,"MKC^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":0.86,"MHK^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":2.0,"MGM^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":1.6,"META^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":8.88,"MET^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":2.49,"MDT^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":1.36,"MDLZ^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":0.72,"MCO^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":3.92,"MCK^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":9.34,"MCHP^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":0.44,"MCD^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":3.12,"MAS^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":0.82,"MAR^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":2.58,"MAA^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":0.48,"MA^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":4.76,"LYV^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":0.73,"LYB^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":-0.26,"LW^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":0.69,"LVS^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":0.85,"LUV^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":0.58,"LULU^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":2.59,"LRCX^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":1.27,"LOW^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":3.06,"LNT^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":1.12,"LMT^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":5.8,"LLY^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":7.54,"LKQ^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":0.84,"LIN^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":4.20038,"LHX^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":2.86,"LH^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":4.18,"LEN^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":1.93,"LDOS^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":3.05,"L^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":2.138259,"KVUE^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":0.28,"KR^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":1.05,"KO^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":0.58,"KMX^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":0.43,"KMI^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":0.39,"KMB^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":1.86,"KLAC^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":8.85,"KIM^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":0.21,"KHC^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":0.67,"KEYS^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":1.91,"KEY^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":0.43,"KDP^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":0.54,"K^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":0.93,"JPM^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":4.63,"JNPR^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":null,"JNJ^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":2.46,"JKHY^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":1.72,"JCI^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":0.89,"JBL^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":2.85,"JBHT^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":1.9,"J^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":1.53,"IVZ^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":0.62,"ITW^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":2.72,"IT^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":3.94,"ISRG^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":2.53,"IRM^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":0.61,"IR^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":0.96,"IQV^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":3.42,"IPG^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":0.75,"IP^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":-0.08,"INVH^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":0.22,"INTU^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":3.34,"INTC^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":0.15,"INCY^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":1.8,"ILMN^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":1.35,"IFF^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":0.8,"IEX^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":2.1,"IDXX^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":3.08,"ICE^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":1.71,"IBM^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":4.52,"HWM^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":1.05,"HUM^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":-3.96,"HUBB^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":4.73,"HSY^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":1.71,"HST^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":0.23,"HSIC^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":1.38,"HRL^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":0.32,"HPQ^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":0.93,"HPE^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":0.62,"HON^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":2.59,"HOLX^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":1.04,"HD^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":3.74,"HCA^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":8.01,"HBAN^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":0.3,"HAS^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":1.51,"HAL^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":0.69,"GWW^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":9.44,"GS^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":14.01,"GRMN^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":1.99,"GPN^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":3.26,"GPC^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":1.98,"GOOGL^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":2.82,"GOOG^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":2.82,"GNRC^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":1.61,"GM^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":2.51,"GLW^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":0.72,"GL^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":3.39,"GIS^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":1.1,"GILD^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":1.86,"GEV^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":13.477591,"GEN^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":0.64,"GEHC^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":1.44,"GE^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":1.57,"GDDY^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":1.51,"GD^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":4.17,"FTV^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":0.9,"FTNT^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":0.81,"FSLR^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":4.24,"FRT^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":1.48,"FOXA^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":0.82,"FOX^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":0.82,"FMC^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":1.2,"FLT^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":6.04,"FITB^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":1.04,"FIS^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":1.51,"FICO^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":7.33,"FI^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":1.99,"FFIV^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":4.45,"FE^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":0.83,"FDX^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":4.82,"FDS^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":4.51,"FCX^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":0.47,"FCNCA^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":51.27,"FAST^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":0.26,"FANG^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":3.08,"F^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":0.13,"EXR^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":0.78,"EXPE^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":3.78,"EXPD^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":1.64,"EXC^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":0.59,"EW^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":0.58,"EVRG^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":2.03,"ETR^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":0.51,"ETN^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":3.33,"ESS^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":1.25,"ES^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":1.12,"EQT^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":0.52,"EQR^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":1.0,"EQIX^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":2.69,"EPAM^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":3.08,"EOG^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":2.71,"ENPH^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":0.71,"EMR^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":1.46,"EMN^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":0.75,"EL^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":0.87,"EIX^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":2.34,"EFX^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":2.09,"ED^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":1.9,"ECL^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":2.08,"EBAY^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":1.36,"EA^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":4.875692,"DXCM^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":0.68,"DVN^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":1.04,"DVA^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":3.4,"DUK^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":1.5,"DTE^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":2.25,"DRI^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":2.08,"DPZ^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":4.08,"DOW^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":-0.34,"DOV^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":2.51,"DLTR^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":1.21,"DIS^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":1.63,"DHR^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":2.23,"DHI^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":2.03,"DGX^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":2.42,"DG^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":1.28,"DFS^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":null,"DECK^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":3.33,"DE^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":3.93,"DD^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":0.46,"DAY^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":0.37,"DAL^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":1.55,"D^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":1.06,"CZR^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":-0.27,"CVX^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":1.52,"CVS^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":1.09,"CTVA^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":0.22,"CTSH^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":1.35,"CTRA^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":0.41,"CTLT^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":null,"CTAS^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":1.21,"CSX^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":0.39,"CSGP^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":0.23,"CSCO^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":1.04,"CRWD^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":0.96,"CRM^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":3.25,"CRL^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":2.43,"CPT^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":1.44,"CPRT^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":0.41,"CPB^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":0.77,"CPAY^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":6.04,"COST^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":4.5,"COR^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":4.08,"COP^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":1.02,"COO^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":1.15,"COF^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":3.86,"CNP^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":0.5,"CNC^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":-1.19,"CMS^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":0.95,"CMI^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":5.838345,"CMG^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":0.25,"CME^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":2.77,"CMCSA^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":0.84,"CMA^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":1.27,"CLX^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":1.39,"CL^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":0.95,"CINF^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":3.37,"CI^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":8.08,"CHTR^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":10.34,"CHRW^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":1.23,"CHD^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":0.86,"CFG^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":1.13,"CF^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":2.276849,"CEG^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":3.04,"CE^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":1.34,"CDW^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":2.57,"CDNS^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":1.93,"CCL^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":0.34,"CCI^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":0.67,"CBRE^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":2.73,"CBOE^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":3.06,"CB^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":7.52,"CAT^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":5.16,"CARR^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":0.34,"CAH^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":2.63,"CAG^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":0.45,"C^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":1.19,"BXP^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":1.56,"BX^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":1.75,"BWA^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":1.35,"BSX^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":0.8,"BRO^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":0.93,"BRK.B^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":6.255748,"BR^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":1.59,"BMY^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":1.26,"BLK^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":13.16,"BLDR^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":1.88,"BKR^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":0.78,"BKNG^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":99.5,"BK^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":2.02,"BIO^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":2.51,"BIIB^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":1.99,"BG^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":1.99,"BF.B^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":0.47,"BEN^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":0.7,"BDX^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":2.2868385,"BBY^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":1.4,"BBWI^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":0.35,"BAX^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":0.36,"BAC^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":0.98,"BA^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":9.92,"AZO^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":31.04,"AXP^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":3.53,"AWK^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":1.94,"AVY^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":2.45,"AVGO^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":1.95,"AVB^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":1.17,"ATVI^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":null,"ATO^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":2.44,"ARE^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":-6.35,"APTV^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":1.86,"APH^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":0.97,"APD^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":3.16,"APA^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":0.93,"AOS^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":0.9,"AON^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":4.85,"ANSS^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":null,"ANET^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":0.82,"AMZN^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":1.95,"AMT^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":1.82,"AMP^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":10.83,"AMGN^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":5.29,"AME^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":2.01,"AMD^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":1.53,"AMCR^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":0.86,"AMAT^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":2.38,"ALLE^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":2.3,"ALL^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":14.31,"ALGN^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":3.29,"ALB^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":-0.53,"AKAM^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":1.86,"AJG^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":2.38,"AIZ^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":5.61,"AIG^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":1.96,"AFL^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":1.57,"AES^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":0.75,"AEP^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":1.19,"AEE^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":0.78,"ADSK^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":2.67,"ADP^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":2.62,"ADM^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":0.87,"ADI^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":2.26,"ADBE^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":5.5,"ACN^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":3.94,"ACGL^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":2.98,"ABT^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":1.5,"ABNB^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":0.56,"ABBV^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":2.71,"AAPL^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":2.84,"A^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":1.59,"A^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,0,0,,,'')":1.59,"A^JULIAN(FE_ESTIMATE(EPS,MEAN,QTR_ROLL,0,0,,,'').DATES)":46066}]]></FdsFormulaCache>
+<FdsFormulaCache xmlns="urn:fdsformulacache" version="2" timestamp="1771582627"><![CDATA[{"ZTS^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":1.48,"ZBRA^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"XYL^FF_EPS(QTR_R,0)":1.3718,"WYNN^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":1.17,"WTW^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"WMT^FF_EPS(QTR_R,0)":0.53,"WFC^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":1.62,"WEC^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"WBA^FF_EPS(QTR_R,0)":-0.2023,"ZTS^FF_EPS(QTR_R,0)":1.3748,"ZBH^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":2.42,"XYL^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"WYNN^FF_EPS(QTR_R,0)":0.82,"WST^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":2.04,"WMT^JULIAN(FF_EPS(QTR_R,0).DATES)":46052,"WFC^FF_EPS(QTR_R,0)":1.62,"WDC^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":2.13,"WBA^JULIAN(FF_EPS(QTR_R,0).DATES)":45807,"VZ^FF_EPS(QTR_R,0)":0.5529,"VST^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":1.7472291,"VRSN^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"VLTO^FF_EPS(QTR_R,0)":1.01,"V^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":3.17,"ZTS^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"XEL^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"WRB^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":1.13,"WAB^FF_EPS(QTR_R,0)":1.1813,"VST^FF_EPS(QTR_R,0)":1.7506,"VRSK^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"VICI^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":0.71,"URI^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"ULTA^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":5.14,"TXT^FF_EPS(QTR_R,0)":1.3268,"TT^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"TRGP^FF_EPS(QTR_R,0)":null,"TFX^JULIAN(FF_EPS(QTR_R,0).DATES)":45930,"TECH^FF_EPS(QTR_R,0)":0.2421,"SYK^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"STLD^FF_EPS(QTR_R,0)":1.82,"SPGI^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"SJM^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":2.1,"SCHW^FF_EPS(QTR_R,0)":1.33,"ROP^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":5.21,"RF^FF_EPS(QTR_R,0)":0.58,"RCL^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":2.8,"PVH^FF_EPS(QTR_R,0)":0.0877,"POOL^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":0.84,"PNR^FF_EPS(QTR_R,0)":1.01,"PHM^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"PFG^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":2.19,"PCAR^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"ORCL^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":2.26,"OKE^JULIAN(FF_EPS(QTR_R,0).DATES)":45930,"NVDA^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":1.3,"NOW^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"NFLX^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":0.56,"MU^FF_EPS(QTR_R,0)":4.6046,"MTB^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"MRK^FF_EPS(QTR_R,0)":1.1909,"MNST^JULIAN(FF_EPS(QTR_R,0).DATES)":45930,"MKTX^FF_EPS(QTR_R,0)":2.51,"MDT^JULIAN(FF_EPS(QTR_R,0).DATES)":46052,"MAR^FF_EPS(QTR_R,0)":1.6518,"LYV^JULIAN(FF_EPS(QTR_R,0).DATES)":45930,"LOW^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":3.06,"LLY^FF_EPS(QTR_R,0)":7.0237,"YUM^FF_EPS(QTR_R,0)":1.91,"WYNN^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"WM^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"WBD^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":-0.06,"UPS^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":2.38,"UBER^FF_EPS(QTR_R,0)":0.142,"TSN^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":0.97,"TRV^FF_EPS(QTR_R,0)":11.058,"TMO^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"TFC^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":1.0,"TAP^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"STZ^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":3.06,"STLD^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"SNA^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":4.94,"SCHW^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"RTX^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":1.55,"RMD^FF_EPS(QTR_R,0)":2.6822,"RF^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"PYPL^FF_EPS(QTR_R,0)":1.5304,"PSA^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"POOL^FF_EPS(QTR_R,0)":0.85,"PLTR^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"PFG^FF_EPS(QTR_R,0)":2.3246,"PEG^JULIAN(FF_EPS(QTR_R,0).DATES)":45930,"OXY^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":0.31,"ORCL^FF_EPS(QTR_R,0)":2.0996,"NWSA^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":0.4,"NTAP^FF_EPS(QTR_R,0)":1.5099,"NOC^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":7.23,"NDSN^FF_EPS(QTR_R,0)":2.38,"MSI^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":4.59,"MS^FF_EPS(QTR_R,0)":2.68,"MOS^JULIAN(FF_EPS(QTR_R,0).DATES)":45930,"MMM^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":1.83,"MGM^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"MCHP^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":0.44,"MAR^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"LUV^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":0.58,"LLY^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"LH^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":4.07,"LDOS^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"KR^FF_EPS(QTR_R,0)":-2.0168,"KMI^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":0.39,"KLAC^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"KEYS^FF_EPS(QTR_R,0)":1.3237,"K^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":0.93,"JNPR^JULIAN(FF_EPS(QTR_R,0).DATES)":45838,"JCI^FF_EPS(QTR_R,0)":0.8534,"J^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":1.53,"ITW^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"IRM^FF_EPS(QTR_R,0)":0.2992,"IPG^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":0.75,"INVH^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"INCY^FF_EPS(QTR_R,0)":1.4616,"IEX^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":2.1,"ICE^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"HUM^FF_EPS(QTR_R,0)":-6.6146,"HST^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":0.2,"HRL^JULIAN(FF_EPS(QTR_R,0).DATES)":45961,"HON^FF_EPS(QTR_R,0)":0.462,"HCA^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":8.01,"HAS^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"GS^FF_EPS(QTR_R,0)":14.01,"GPC^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":1.55,"GOOG^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"GLW^FF_EPS(QTR_R,0)":0.62,"GILD^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":1.86,"GEN^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"GDDY^FF_EPS(QTR_R,0)":1.5136,"FTNT^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":0.81,"FRT^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"FMC^FF_EPS(QTR_R,0)":-13.7444,"FIS^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":1.51,"FI^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"FDX^FF_EPS(QTR_R,0)":4.0466,"FCNCA^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":51.27,"FANG^JULIAN(FF_EPS(QTR_R,0).DATES)":45930,"EXPE^FF_EPS(QTR_R,0)":1.5986,"EW^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":0.58,"ETR^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"ES^FF_EPS(QTR_R,0)":1.12,"EQIX^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":2.69,"EOG^JULIAN(FF_EPS(QTR_R,0).DATES)":45930,"EMN^FF_EPS(QTR_R,0)":0.9138,"EFX^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":2.09,"ZION^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":1.76,"WRB^FF_EPS(QTR_R,0)":1.13,"WFC^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"WAB^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"VST^JULIAN(FF_EPS(QTR_R,0).DATES)":45930,"VMC^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":1.7,"VICI^FF_EPS(QTR_R,0)":0.7133,"ULTA^FF_EPS(QTR_R,0)":5.1426,"TXT^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"TSN^FF_EPS(QTR_R,0)":0.2464,"TRGP^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"TFC^FF_EPS(QTR_R,0)":1.0,"TECH^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"SYF^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":2.04,"STZ^FF_EPS(QTR_R,0)":2.8795,"SPG^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":9.35,"SJM^FF_EPS(QTR_R,0)":2.2615,"SBUX^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":0.56,"ROP^FF_EPS(QTR_R,0)":3.97,"REGN^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":11.44,"RCL^FF_EPS(QTR_R,0)":2.7619,"PVH^JULIAN(FF_EPS(QTR_R,0).DATES)":45961,"PRU^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":3.3,"PNR^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"PH^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":7.65,"PFG^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"PAYX^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":1.26,"ORCL^JULIAN(FF_EPS(QTR_R,0).DATES)":45989,"ODFL^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":1.09,"NVDA^FF_EPS(QTR_R,0)":1.3034,"NTAP^JULIAN(FF_EPS(QTR_R,0).DATES)":45961,"NFLX^FF_EPS(QTR_R,0)":0.5602,"MU^JULIAN(FF_EPS(QTR_R,0).DATES)":45989,"MSI^FF_EPS(QTR_R,0)":3.8608,"MRK^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"MMM^FF_EPS(QTR_R,0)":1.0705,"MKTX^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"MDLZ^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":0.72,"MCHP^FF_EPS(QTR_R,0)":0.064,"LYB^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":-0.26,"LOW^FF_EPS(QTR_R,0)":2.8786,"LKQ^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":0.59,"XOM^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":1.71,"WTW^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":8.12,"WDC^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"VRTX^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"URI^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":11.09,"ULTA^JULIAN(FF_EPS(QTR_R,0).DATES)":45961,"UAL^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"TSCO^FF_EPS(QTR_R,0)":0.43,"TGT^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":1.78,"TER^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"TDG^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"SNPS^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":2.9,"SLB^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"SBUX^FF_EPS(QTR_R,0)":0.2568,"RSG^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":1.76,"PSX^FF_EPS(QTR_R,0)":7.17,"PPG^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":1.51,"PLD^FF_EPS(QTR_R,0)":1.4946,"PCAR^FF_EPS(QTR_R,0)":1.0571,"OXY^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"ON^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"O^FF_EPS(QTR_R,0)":0.345,"NSC^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":3.22,"NEM^JULIAN(FF_EPS(QTR_R,0).DATES)":45930,"NCLH^JULIAN(FF_EPS(QTR_R,0).DATES)":45930,"MTB^FF_EPS(QTR_R,0)":4.6711,"MRO^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":null,"MPC^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":4.07,"MLM^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"MCO^FF_EPS(QTR_R,0)":3.4135,"MAS^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":0.82,"LYV^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":0.73,"LUV^FF_EPS(QTR_R,0)":0.6219,"KR^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":1.05,"KMI^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"KDP^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":0.54,"IVZ^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":0.62,"IQV^FF_EPS(QTR_R,0)":2.9901,"INTU^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":3.34,"IDXX^FF_EPS(QTR_R,0)":3.08,"HSY^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"HPQ^FF_EPS(QTR_R,0)":0.8386,"HBAN^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"GNRC^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"GEN^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":0.64,"GDDY^JULIAN(FF_EPS(QTR_R,0).DATES)":45930,"FOX^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":0.82,"FI^FF_EPS(QTR_R,0)":1.5102,"FDS^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":4.51,"EXR^FF_EPS(QTR_R,0)":0.7811,"EQT^FF_EPS(QTR_R,0)":1.0769,"EMR^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"EFX^FF_EPS(QTR_R,0)":1.44,"EBAY^FF_EPS(QTR_R,0)":1.15,"DVN^FF_EPS(QTR_R,0)":0.9035,"DTE^FF_EPS(QTR_R,0)":1.7762,"DOW^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":-0.34,"DLTR^JULIAN(FF_EPS(QTR_R,0).DATES)":45961,"DHI^FF_EPS(QTR_R,0)":2.028,"DFS^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":null,"DE^JULIAN(FF_EPS(QTR_R,0).DATES)":46052,"DAL^FF_EPS(QTR_R,0)":1.8582,"CVX^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":1.52,"CTVA^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"CTLT^FF_EPS(QTR_R,0)":-0.7088,"CSGP^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":0.23,"CRWD^JULIAN(FF_EPS(QTR_R,0).DATES)":45961,"CPT^FF_EPS(QTR_R,0)":1.4335,"CPAY^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":6.04,"COR^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"COF^FF_EPS(QTR_R,0)":4.8257,"CMS^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":0.95,"CMG^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"CMA^FF_EPS(QTR_R,0)":1.27,"CINF^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":3.37,"CHTR^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"CFG^FF_EPS(QTR_R,0)":1.1265,"CE^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":0.67,"ZION^FF_EPS(QTR_R,0)":1.76,"WM^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":1.93,"WBD^FF_EPS(QTR_R,0)":-0.0597,"VTRS^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":0.67,"VLO^FF_EPS(QTR_R,0)":3.73,"URI^FF_EPS(QTR_R,0)":10.2673,"TYL^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":2.64,"TTWO^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"TSCO^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"TPR^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":2.69,"TAP^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":1.21,"STX^FF_EPS(QTR_R,0)":2.6009,"SRE^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":1.11,"ROK^FF_EPS(QTR_R,0)":2.6926,"RF^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":0.57,"RCL^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"PXD^FF_EPS(QTR_R,0)":4.5732,"PLD^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"PGR^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"PEP^FF_EPS(QTR_R,0)":1.8527,"OTIS^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":1.03,"O^JULIAN(FF_EPS(QTR_R,0).DATES)":45930,"NVR^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"NSC^FF_EPS(QTR_R,0)":2.8652,"NKE^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":0.53,"NEE^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":0.54,"MPC^FF_EPS(QTR_R,0)":5.12,"MNST^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":0.56,"MKTX^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":1.68,"META^FF_EPS(QTR_R,0)":8.8764,"LYV^FF_EPS(QTR_R,0)":0.731,"LNT^JULIAN(FF_EPS(QTR_R,0).DATES)":45930,"LIN^FF_EPS(QTR_R,0)":3.26,"LDOS^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":2.76,"KR^JULIAN(FF_EPS(QTR_R,0).DATES)":45961,"KHC^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":0.67,"JNPR^FF_EPS(QTR_R,0)":0.21,"JBL^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":2.85,"ISRG^FF_EPS(QTR_R,0)":2.2053,"ILMN^FF_EPS(QTR_R,0)":2.1688,"HWM^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"HST^FF_EPS(QTR_R,0)":0.1955,"HOLX^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"GS^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":14.01,"GPC^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"GIS^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":1.1,"FSLR^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":4.24,"FITB^FF_EPS(QTR_R,0)":1.0446,"FFIV^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":4.45,"FAST^FF_EPS(QTR_R,0)":0.2556,"EXC^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"ETN^FF_EPS(QTR_R,0)":2.91,"EPAM^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"XOM^FF_EPS(QTR_R,0)":1.534,"WTW^FF_EPS(QTR_R,0)":7.62,"VRSN^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":2.23,"UPS^FF_EPS(QTR_R,0)":2.0996,"UHS^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":5.69,"TRV^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":11.13,"TGT^FF_EPS(QTR_R,0)":1.5139,"TEL^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":2.72,"SYF^FF_EPS(QTR_R,0)":2.0414,"SNPS^FF_EPS(QTR_R,0)":2.393,"SJM^JULIAN(FF_EPS(QTR_R,0).DATES)":45961,"SBUX^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"RSG^FF_EPS(QTR_R,0)":1.7598,"PXD^JULIAN(FF_EPS(QTR_R,0).DATES)":45379,"PSX^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"PPG^FF_EPS(QTR_R,0)":1.33,"PNC^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":4.88,"PKG^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":2.32,"PEP^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"OTIS^FF_EPS(QTR_R,0)":0.9546,"OMC^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":2.59,"NXPI^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":3.35,"NEE^FF_EPS(QTR_R,0)":0.7348,"MU^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":4.78,"MSI^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"MRO^FF_EPS(QTR_R,0)":0.5089,"MCO^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"MAS^FF_EPS(QTR_R,0)":0.7971,"LUV^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"KMB^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":1.86,"KDP^FF_EPS(QTR_R,0)":0.4857,"JNJ^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":2.46,"IVZ^FF_EPS(QTR_R,0)":-2.629,"IQV^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"INTU^FF_EPS(QTR_R,0)":1.5872,"IDXX^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"HPQ^JULIAN(FF_EPS(QTR_R,0).DATES)":45961,"HAS^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":1.51,"GS^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"GM^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":2.51,"GEN^FF_EPS(QTR_R,0)":0.3107,"ZBRA^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":4.33,"WST^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"WELL^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":0.14,"WBA^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":null,"VTRS^JULIAN(FF_EPS(QTR_R,0).DATES)":45930,"VICI^JULIAN(FF_EPS(QTR_R,0).DATES)":45930,"UHS^JULIAN(FF_EPS(QTR_R,0).DATES)":45930,"TYL^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"TT^FF_EPS(QTR_R,0)":2.6445,"TROW^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":2.44,"TMUS^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":1.88,"TEL^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"SWKS^FF_EPS(QTR_R,0)":0.5262,"STT^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":2.97,"SPGI^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":4.3,"SNA^FF_EPS(QTR_R,0)":4.9375,"ROST^FF_EPS(QTR_R,0)":1.5835,"RMD^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":2.81,"REGN^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"QRVO^FF_EPS(QTR_R,0)":1.7533,"PKG^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"PG^FF_EPS(QTR_R,0)":1.7818,"PEAK^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":0.16,"PAYX^JULIAN(FF_EPS(QTR_R,0).DATES)":45989,"NXPI^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"NUE^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":1.73,"NRG^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":2.78,"NKE^JULIAN(FF_EPS(QTR_R,0).DATES)":45989,"MTD^FF_EPS(QTR_R,0)":13.9776,"MRNA^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":-2.11,"MOS^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":1.04,"MMM^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"MKC^FF_EPS(QTR_R,0)":0.8414,"MET^FF_EPS(QTR_R,0)":1.1749,"MAR^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":2.58,"LULU^JULIAN(FF_EPS(QTR_R,0).DATES)":45961,"LMT^FF_EPS(QTR_R,0)":5.7956,"LHX^FF_EPS(QTR_R,0)":1.594,"KO^FF_EPS(QTR_R,0)":0.5266,"KHC^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"K^FF_EPS(QTR_R,0)":0.8829,"JBL^JULIAN(FF_EPS(QTR_R,0).DATES)":45989,"IRM^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":0.61,"IPG^JULIAN(FF_EPS(QTR_R,0).DATES)":45930,"IFF^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":0.8,"HSIC^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":1.38,"HD^FF_EPS(QTR_R,0)":3.6191,"HAL^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":0.69,"GOOGL^FF_EPS(QTR_R,0)":2.8177,"GIS^JULIAN(FF_EPS(QTR_R,0).DATES)":45989,"GEHC^FF_EPS(QTR_R,0)":1.2888,"FSLR^JULIAN(FF_EPS(QTR_R,0).DATES)":45930,"FFIV^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"FANG^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":3.08,"EXPE^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"ESS^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":1.25,"EOG^FF_EPS(QTR_R,0)":2.704,"EL^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":0.87,"XEL^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":0.96,"WAT^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":4.53,"VRSK^FF_EPS(QTR_R,0)":1.4176,"V^FF_EPS(QTR_R,0)":3.0021,"UNP^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":2.86,"UDR^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":0.67,"TMUS^FF_EPS(QTR_R,0)":1.8821,"TFX^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":3.67,"TECH^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":0.46,"T^FF_EPS(QTR_R,0)":0.5283,"SPGI^FF_EPS(QTR_R,0)":3.7537,"SHW^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"SBAC^FF_EPS(QTR_R,0)":2.2017,"RMD^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"PWR^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"PSA^FF_EPS(QTR_R,0)":2.5986,"PODD^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":1.55,"PNC^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"PAYC^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":2.45,"ORLY^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":0.71,"OMC^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"NWSA^FF_EPS(QTR_R,0)":0.3434,"NUE^FF_EPS(QTR_R,0)":1.64,"NI^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":0.51,"NDSN^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":2.37,"MTD^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"MSFT^FF_EPS(QTR_R,0)":5.1552,"MRNA^FF_EPS(QTR_R,0)":-2.1071,"MET^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"MCK^FF_EPS(QTR_R,0)":9.5877,"MAA^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":0.48,"LYB^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"LHX^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"L^FF_EPS(QTR_R,0)":1.9439,"KMB^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"JNJ^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"ITW^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":2.72,"IRM^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"INTC^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":0.15,"ICE^FF_EPS(QTR_R,0)":1.4878,"HUBB^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":4.73,"HPE^FF_EPS(QTR_R,0)":0.1073,"GRMN^FF_EPS(QTR_R,0)":2.7283,"GM^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"GILD^FF_EPS(QTR_R,0)":1.74,"GD^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"FMC^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":1.2,"FIS^JULIAN(FF_EPS(QTR_R,0).DATES)":45930,"FCX^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":0.47,"EVRG^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":0.42,"EQR^FF_EPS(QTR_R,0)":0.982,"ENPH^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":0.71,"ED^FF_EPS(QTR_R,0)":1.9011,"EA^FF_EPS(QTR_R,0)":0.3478,"DVA^FF_EPS(QTR_R,0)":2.9359,"DRI^FF_EPS(QTR_R,0)":2.0326,"DOV^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":2.51,"DIS^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"DGX^FF_EPS(QTR_R,0)":2.18,"DECK^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":3.33,"DD^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"D^FF_EPS(QTR_R,0)":1.1632,"CVS^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":1.09,"CTSH^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"CTAS^FF_EPS(QTR_R,0)":1.2148,"CSCO^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":1.04,"CRM^JULIAN(FF_EPS(QTR_R,0).DATES)":45961,"CPRT^FF_EPS(QTR_R,0)":0.4132,"COST^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":4.5,"ZION^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"WY^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":-0.09,"WMB^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"VRTX^FF_EPS(QTR_R,0)":4.6509,"V^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"UNH^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"TXT^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":1.73,"TPR^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"TAP^FF_EPS(QTR_R,0)":1.2177,"STE^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"SMCI^FF_EPS(QTR_R,0)":0.603,"SCHW^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":1.39,"RJF^FF_EPS(QTR_R,0)":2.7855,"QRVO^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"PTC^FF_EPS(QTR_R,0)":1.3878,"POOL^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"PLTR^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":0.25,"PG^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":1.88,"OXY^FF_EPS(QTR_R,0)":-0.0688,"NEM^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":1.71,"MSCI^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"MMC^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"META^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"MCD^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":3.12,"MA^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"LRCX^FF_EPS(QTR_R,0)":1.2633,"L^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"KMX^JULIAN(FF_EPS(QTR_R,0).DATES)":45989,"KEYS^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":1.91,"IT^FF_EPS(QTR_R,0)":3.3578,"IPG^FF_EPS(QTR_R,0)":0.3375,"INTC^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"HPQ^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":0.93,"HCA^FF_EPS(QTR_R,0)":8.1401,"GWW^FF_EPS(QTR_R,0)":9.44,"GOOGL^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"FTV^FF_EPS(QTR_R,0)":0.58,"FOXA^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"FIS^FF_EPS(QTR_R,0)":0.5048,"EXPE^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":3.78,"EVRG^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"EQT^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":0.9,"ECL^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"DVN^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"DHR^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"DD^FF_EPS(QTR_R,0)":-0.3046,"D^JULIAN(FF_EPS(QTR_R,0).DATES)":45930,"CTLT^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":null,"CPB^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":0.77,"CCI^FF_EPS(QTR_R,0)":1.2723,"CB^FF_EPS(QTR_R,0)":8.0958,"BXP^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":1.56,"BRK.B^JULIAN(FF_EPS(QTR_R,0).DATES)":45930,"BKNG^FF_EPS(QTR_R,0)":44.2201,"WM^FF_EPS(QTR_R,0)":1.8344,"WAT^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"TSLA^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"TER^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":1.8,"T^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":0.52,"SWK^FF_EPS(QTR_R,0)":1.0398,"SRE^FF_EPS(QTR_R,0)":0.1177,"SMCI^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"QCOM^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":3.5,"PTC^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"PCG^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":0.36,"ODFL^FF_EPS(QTR_R,0)":1.09,"NVR^FF_EPS(QTR_R,0)":121.5553,"NRG^JULIAN(FF_EPS(QTR_R,0).DATES)":45930,"MTCH^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":0.83,"MS^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":2.68,"MOS^FF_EPS(QTR_R,0)":1.288,"MET^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":2.49,"LIN^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":4.200359,"KMI^FF_EPS(QTR_R,0)":0.4454,"KEYS^JULIAN(FF_EPS(QTR_R,0).DATES)":45961,"JPM^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"JBHT^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":1.9,"HUBB^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"GL^FF_EPS(QTR_R,0)":3.29,"GEHC^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"FE^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"FAST^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":0.26,"EXPD^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":1.64,"EIX^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":1.86,"EBAY^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":1.41,"DOV^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"DFS^FF_EPS(QTR_R,0)":4.2421,"CTVA^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":0.22,"CSGP^JULIAN(FF_EPS(QTR_R,0).DATES)":45930,"CRL^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":2.39,"COR^FF_EPS(QTR_R,0)":2.8653,"COF^JULIAN(FF_EPS(QTR_R,0).DATES)":45930,"CMS^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"CME^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"CLX^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"CI^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"CHD^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"CEG^JULIAN(FF_EPS(QTR_R,0).DATES)":45930,"CDNS^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"CCI^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"CAH^FF_EPS(QTR_R,0)":1.9705,"BSX^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":0.8,"BLK^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"BIIB^FF_EPS(QTR_R,0)":-0.3333,"BBWI^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":0.35,"AXP^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"ATO^FF_EPS(QTR_R,0)":2.4433,"APH^FF_EPS(QTR_R,0)":0.9277,"ANET^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":0.82,"AME^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"ALGN^FF_EPS(QTR_R,0)":1.8919,"AFL^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":1.57,"ADP^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"ABT^FF_EPS(QTR_R,0)":1.0166,"ZBH^FG_COMPANY_NAME":"Zimmer Biomet Holdings, Inc.","WRB^FG_COMPANY_NAME":"W. R. Berkley Corporation","VRSN^FG_COMPANY_NAME":"VeriSign, Inc.","TYL^FG_COMPANY_NAME":"Tyler Technologies, Inc.","TFX^FG_COMPANY_NAME":"Teleflex Incorporated","STLD^FG_COMPANY_NAME":"Steel Dynamics, Inc.","RTX^FG_COMPANY_NAME":"RTX Corporation","PXD^FG_COMPANY_NAME":"Pioneer Natural Resources Company","PKG^FG_COMPANY_NAME":"Packaging Corporation of America","PEAK^FG_COMPANY_NAME":"Healthpeak Properties, Inc.","NWS^FG_COMPANY_NAME":"News Corporation Class B","NCLH^FG_COMPANY_NAME":"Norwegian Cruise Line Holdings Ltd.","MNST^FG_COMPANY_NAME":"Monster Beverage Corporation","MAR^FG_COMPANY_NAME":"Marriott International, Inc. Class A","LH^FG_COMPANY_NAME":"Labcorp Holdings Inc.","JPM^FG_COMPANY_NAME":"JPMorgan Chase & Co.","INVH^FG_COMPANY_NAME":"Invitation Homes, Inc.","IBM^FG_COMPANY_NAME":"International Business Machines Corporation","GWW^FG_COMPANY_NAME":"W.W. Grainger, Inc.","GDDY^FG_COMPANY_NAME":"GoDaddy, Inc. Class A","ZBRA^FF_EPS(QTR_R,0)":1.382,"WY^FF_EPS(QTR_R,0)":0.1025,"VRSN^FF_EPS(QTR_R,0)":2.2268,"USB^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":1.26,"TXN^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":1.27,"TMUS^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"SRE^JULIAN(FF_EPS(QTR_R,0).DATES)":45930,"ROP^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"RJF^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"QCOM^FF_EPS(QTR_R,0)":2.7841,"PSX^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":2.47,"PODD^FF_EPS(QTR_R,0)":1.4406,"PLTR^FF_EPS(QTR_R,0)":0.2365,"PG^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"PCG^FF_EPS(QTR_R,0)":0.2921,"OTIS^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"NEM^FF_EPS(QTR_R,0)":1.6654,"MS^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"MOH^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":-2.75,"MLM^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":3.85,"MCD^FF_EPS(QTR_R,0)":3.03,"LYB^FF_EPS(QTR_R,0)":-0.4348,"LRCX^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"LIN^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"KVUE^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":0.27,"IT^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"IP^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":-0.08,"INCY^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":1.8,"ICE^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":1.71,"HCA^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"GWW^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"GOOG^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":2.82,"FTV^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"FOX^FF_EPS(QTR_R,0)":0.5193,"FICO^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":7.33,"ETR^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":0.51,"EQT^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"ENPH^FF_EPS(QTR_R,0)":0.2956,"DVA^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":3.4,"DRI^JULIAN(FF_EPS(QTR_R,0).DATES)":45989,"DHI^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":2.03,"CZR^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":-1.23,"CTLT^JULIAN(FF_EPS(QTR_R,0).DATES)":45565,"CPB^FF_EPS(QTR_R,0)":0.6488,"DAY^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":0.37,"CB^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"BXP^FF_EPS(QTR_R,0)":1.5617,"BR^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":1.59,"BKNG^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"BEN^FF_EPS(QTR_R,0)":0.4617,"BA^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":9.92,"AVGO^JULIAN(FF_EPS(QTR_R,0).DATES)":45961,"ATO^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"AOS^FF_EPS(QTR_R,0)":0.8961,"AMP^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":10.83,"AMAT^JULIAN(FF_EPS(QTR_R,0).DATES)":46052,"AJG^FF_EPS(QTR_R,0)":0.5802,"ZBH^FF_EPS(QTR_R,0)":0.7,"WELL^FF_EPS(QTR_R,0)":-1.859,"WAB^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":2.1,"VRSK^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":1.82,"TXN^FF_EPS(QTR_R,0)":1.2689,"TSCO^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":0.43,"TER^FF_EPS(QTR_R,0)":1.63,"T^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"SWK^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"SLB^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":0.78,"SBAC^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":2.2,"REGN^FF_EPS(QTR_R,0)":7.8567,"QCOM^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"PLD^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":1.49,"PCG^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"ODFL^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"NVDA^JULIAN(FF_EPS(QTR_R,0).DATES)":45961,"NOW^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":0.92,"MTCH^FF_EPS(QTR_R,0)":0.83,"MOH^FF_EPS(QTR_R,0)":-3.1372,"MDT^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":1.36,"LHX^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":2.86,"KEY^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":0.43,"JNPR^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":null,"JBHT^FF_EPS(QTR_R,0)":1.8959,"INCY^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"IBM^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":4.52,"HSY^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":1.71,"HPE^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":0.62,"GL^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"GE^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":1.57,"FTNT^FF_EPS(QTR_R,0)":0.6765,"FDX^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":4.82,"FAST^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"EXPD^FF_EPS(QTR_R,0)":1.6429,"EIX^FF_EPS(QTR_R,0)":4.8001,"EBAY^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"DLTR^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":1.21,"DFS^JULIAN(FF_EPS(QTR_R,0).DATES)":45747,"CTVA^FF_EPS(QTR_R,0)":-0.8181,"CRL^FF_EPS(QTR_R,0)":-5.6192,"WY^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"USB^FF_EPS(QTR_R,0)":1.2628,"UHS^FF_EPS(QTR_R,0)":5.8583,"ZBH^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"WELL^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"VZ^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":1.09,"UDR^FF_EPS(QTR_R,0)":0.6665,"SYY^FF_EPS(QTR_R,0)":0.8093,"STX^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":3.11,"SPG^FF_EPS(QTR_R,0)":0.5601,"SLB^FF_EPS(QTR_R,0)":0.5453,"SBAC^JULIAN(FF_EPS(QTR_R,0).DATES)":45930,"ROL^FF_EPS(QTR_R,0)":0.2412,"REG^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":1.09,"PYPL^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":1.23,"PSA^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":2.6,"PKG^FF_EPS(QTR_R,0)":1.1284,"O^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":0.35,"NOC^FF_EPS(QTR_R,0)":10.0495,"NDSN^JULIAN(FF_EPS(QTR_R,0).DATES)":46052,"MTCH^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"MRO^JULIAN(FF_EPS(QTR_R,0).DATES)":45565,"MO^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":1.3,"MKC^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":0.86,"MDT^FF_EPS(QTR_R,0)":0.89,"LW^FF_EPS(QTR_R,0)":0.4448,"LNT^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":1.12,"KEY^FF_EPS(QTR_R,0)":0.43,"JNJ^FF_EPS(QTR_R,0)":2.0976,"JBHT^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"ISRG^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"ILMN^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":1.35,"IBM^FF_EPS(QTR_R,0)":5.88,"HSY^FF_EPS(QTR_R,0)":1.575,"WST^FF_EPS(QTR_R,0)":1.8171,"VZ^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"VMC^FF_EPS(QTR_R,0)":1.9076,"USB^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"TTWO^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":1.2280473,"TROW^FF_EPS(QTR_R,0)":1.9881,"TMO^FF_EPS(QTR_R,0)":5.21,"TEL^FF_EPS(QTR_R,0)":2.5253,"SYY^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"STX^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"YUM^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":1.73,"WEC^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":1.42,"VTRS^FF_EPS(QTR_R,0)":-0.1101,"UDR^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"TJX^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":1.28,"SPG^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"SHW^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":2.23,"RVTY^FF_EPS(QTR_R,0)":0.8459,"ROK^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":2.75,"REG^FF_EPS(QTR_R,0)":1.0871,"PRU^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"PNW^FF_EPS(QTR_R,0)":3.3882,"PHM^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":2.56,"NXPI^FF_EPS(QTR_R,0)":1.8017,"NOC^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"NDAQ^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":0.96,"MTB^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":4.67,"MO^FF_EPS(QTR_R,0)":0.6643,"MKC^JULIAN(FF_EPS(QTR_R,0).DATES)":45989,"MAS^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"LVS^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":0.85,"LMT^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":5.8,"KEY^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"JKHY^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":1.72,"IBM^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"HST^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"HON^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":2.59,"GNRC^FF_EPS(QTR_R,0)":-0.4196,"GILD^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"GE^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"FSLR^FF_EPS(QTR_R,0)":4.2398,"FLT^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":6.04,"EXC^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":0.59,"ETN^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"EQIX^FF_EPS(QTR_R,0)":2.6937,"DUK^FF_EPS(QTR_R,0)":1.5026,"DIS^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":1.63,"DAY^JULIAN(FF_EPS(QTR_R,0).DATES)":45930,"CTSH^FF_EPS(QTR_R,0)":1.3444,"CTAS^JULIAN(FF_EPS(QTR_R,0).DATES)":45989,"CPT^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":1.44,"COP^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"CNP^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"CMI^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"CMCSA^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"CL^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"CHRW^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":1.23,"CF^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":2.724529,"CDW^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":2.57,"CBRE^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"CAG^FF_EPS(QTR_R,0)":-1.3854,"BRO^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":0.93,"BLDR^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"BG^FF_EPS(QTR_R,0)":0.4872,"BDX^FF_EPS(QTR_R,0)":1.3364,"AZO^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":31.04,"AVB^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"APD^FF_EPS(QTR_R,0)":3.0426,"AMZN^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":1.95,"XYL^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":1.42,"WDC^FF_EPS(QTR_R,0)":4.7297,"VLTO^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"UBER^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"TRMB^FF_EPS(QTR_R,0)":0.65,"TDY^FF_EPS(QTR_R,0)":5.839,"XOM^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"WMB^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":0.55,"WBD^JULIAN(FF_EPS(QTR_R,0).DATES)":45930,"VTR^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"XEL^FF_EPS(QTR_R,0)":0.95,"YUM^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"VTR^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":0.15,"UNP^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"SWKS^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"SO^FF_EPS(QTR_R,0)":0.3719,"RL^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"PXD^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":null,"PCAR^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":1.06,"NTRS^FF_EPS(QTR_R,0)":2.42,"NFLX^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"MSFT^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":4.14,"MOH^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"MGM^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":1.6,"LRCX^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":1.27,"LEN^FF_EPS(QTR_R,0)":1.9278,"KMB^FF_EPS(QTR_R,0)":1.4981,"J^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"IQV^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":3.42,"IFF^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"GRMN^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":2.79,"GM^FF_EPS(QTR_R,0)":-3.6,"GEHC^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":1.44,"FRT^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":1.48,"FDS^JULIAN(FF_EPS(QTR_R,0).DATES)":45989,"EIX^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"DXCM^FF_EPS(QTR_R,0)":0.6761,"DPZ^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":4.08,"DG^JULIAN(FF_EPS(QTR_R,0).DATES)":45961,"DAL^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":1.55,"CMCSA^FF_EPS(QTR_R,0)":0.5963,"CE^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"CCL^FF_EPS(QTR_R,0)":0.3136,"CAG^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":0.45,"BX^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"BRK.B^FF_EPS(QTR_R,0)":14.275,"BLDR^FF_EPS(QTR_R,0)":0.284,"BA^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"AOS^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"ALGN^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":3.29,"ADM^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"ACN^JULIAN(FF_EPS(QTR_R,0).DATES)":45989,"ABNB^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"A^JULIAN(FF_EPS(QTR_R,0).DATES)":45961,"WYNN^FG_COMPANY_NAME":"Wynn Resorts, Limited","WELL^FG_COMPANY_NAME":"Welltower Inc.","VTR^FG_COMPANY_NAME":"Ventas, Inc.","V^FG_COMPANY_NAME":"Visa Inc. Class A","SYY^FG_COMPANY_NAME":"Sysco Corporation","STE^FG_COMPANY_NAME":"STERIS plc","SJM^FG_COMPANY_NAME":"J.M. Smucker Company","ROST^FG_COMPANY_NAME":"Ross Stores, Inc.","NDSN^FG_COMPANY_NAME":"Nordson Corporation","MSCI^FG_COMPANY_NAME":"MSCI Inc. Class A","MO^FG_COMPANY_NAME":"Altria Group, Inc.","META^FG_COMPANY_NAME":"Meta Platforms Inc Class A","KIM^FG_COMPANY_NAME":"Kimco Realty Corporation","JKHY^FG_COMPANY_NAME":"Jack Henry & Associates, Inc.","IRM^FG_COMPANY_NAME":"Iron Mountain, Inc.","ILMN^FG_COMPANY_NAME":"Illumina, Inc.","HSY^FG_COMPANY_NAME":"Hershey Company","HCA^FG_COMPANY_NAME":"HCA Healthcare Inc","GOOGL^FG_COMPANY_NAME":"Alphabet Inc. Class A","GEN^FG_COMPANY_NAME":"Gen Digital Inc.","CB^FG_COMPANY_NAME":"Chubb Limited","BWA^FG_COMPANY_NAME":"BorgWarner Inc.","BDX^FG_COMPANY_NAME":"Becton, Dickinson and Company","APH^FG_COMPANY_NAME":"Amphenol Corporation Class A","ALL^FG_COMPANY_NAME":"Allstate Corporation","ACN^FG_COMPANY_NAME":"Accenture Plc Class A","DAL^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"ADI^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":2.46,"TFC^FG_COMPANY_NAME":"Truist Financial Corporation","SHW^FG_COMPANY_NAME":"Sherwin-Williams Company","VTR^FF_EPS(QTR_R,0)":0.146,"UNH^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":2.11,"TSLA^FF_EPS(QTR_R,0)":0.2374,"TFC^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"SO^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"RVTY^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":1.7,"PWR^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":3.16,"PPG^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"PH^FF_EPS(QTR_R,0)":6.5964,"PAYX^FF_EPS(QTR_R,0)":1.0971,"OMC^FF_EPS(QTR_R,0)":-4.02,"MAA^FF_EPS(QTR_R,0)":0.4835,"KLAC^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":8.85,"JPM^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":4.63,"IEX^FF_EPS(QTR_R,0)":1.7152,"HOLX^FF_EPS(QTR_R,0)":0.7929,"FITB^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"EXR^JULIAN(FF_EPS(QTR_R,0).DATES)":45930,"EPAM^FF_EPS(QTR_R,0)":1.98,"EFX^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"DXCM^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"CVS^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"CSX^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":0.39,"CRM^FF_EPS(QTR_R,0)":2.1912,"CPAY^FF_EPS(QTR_R,0)":3.75,"COO^FF_EPS(QTR_R,0)":0.4271,"CMS^FF_EPS(QTR_R,0)":0.9352,"CINF^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"CHD^FF_EPS(QTR_R,0)":0.5989,"CB^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":7.52,"BIO^FF_EPS(QTR_R,0)":26.6548,"BF.B^JULIAN(FF_EPS(QTR_R,0).DATES)":45961,"BBWI^FF_EPS(QTR_R,0)":0.3738,"AVY^FF_EPS(QTR_R,0)":2.1499,"ATVI^JULIAN(FF_EPS(QTR_R,0).DATES)":45107,"APH^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":0.97,"AMZN^FF_EPS(QTR_R,0)":1.9508,"AMGN^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"AMAT^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":2.38,"AJG^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"AFL^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"AEE^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"USB^FG_COMPANY_NAME":"U.S. Bancorp","UAL^FG_COMPANY_NAME":"United Airlines Holdings, Inc.","TRV^FG_COMPANY_NAME":"Travelers Companies, Inc.","ROP^FG_COMPANY_NAME":"Roper Technologies, Inc.","RE^FG_COMPANY_NAME":"Everest Group, Ltd.","PSX^FG_COMPANY_NAME":"Phillips 66","PNC^FG_COMPANY_NAME":"PNC Financial Services Group, Inc.","PFG^FG_COMPANY_NAME":"Principal Financial Group, Inc.","PARA^FG_COMPANY_NAME":"Paramount Skydance Corporation Class B","O^FG_COMPANY_NAME":"Realty Income Corporation","NSC^FG_COMPANY_NAME":"Norfolk Southern Corporation","MET^FG_COMPANY_NAME":"MetLife, Inc.","MAA^FG_COMPANY_NAME":"Mid-America Apartment Communities, Inc.","LOW^FG_COMPANY_NAME":"Lowe's Companies, Inc.","LDOS^FG_COMPANY_NAME":"Leidos Holdings, Inc.","GEHC^FG_COMPANY_NAME":"GE Healthcare Technologies Inc.","FOX^FG_COMPANY_NAME":"Fox Corporation Class B","FE^FG_COMPANY_NAME":"FirstEnergy Corp.","EXR^FG_COMPANY_NAME":"Extra Space Storage Inc.","ESS^FG_COMPANY_NAME":"Essex Property Trust, Inc.","EMR^FG_COMPANY_NAME":"Emerson Electric Co.","EA^FG_COMPANY_NAME":"Electronic Arts Inc.","DOW^FG_COMPANY_NAME":"Dow, Inc.","DFS^FG_COMPANY_NAME":"Discover Financial Services","CVX^FG_COMPANY_NAME":"Chevron Corporation","CSGP^FG_COMPANY_NAME":"CoStar Group, Inc.","CPAY^FG_COMPANY_NAME":"Corpay, Inc.","CMS^FG_COMPANY_NAME":"CMS Energy Corporation","CINF^FG_COMPANY_NAME":"Cincinnati Financial Corporation","CE^FG_COMPANY_NAME":"Celanese Corporation","BKR^FG_COMPANY_NAME":"Baker Hughes Company Class A","AWK^FG_COMPANY_NAME":"American Water Works Company, Inc.","AMT^FG_COMPANY_NAME":"American Tower Corporation","AES^FG_COMPANY_NAME":"AES Corporation","AME^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":2.01,"ADSK^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":2.67,"ACGL^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":2.98,"ZTS^FG_COMPANY_NAME":"Zoetis, Inc. Class A","WEC^FG_COMPANY_NAME":"WEC Energy Group Inc","TROW^FG_COMPANY_NAME":"T. Rowe Price Group, Inc.","SYK^FG_COMPANY_NAME":"Stryker Corporation","SRE^FG_COMPANY_NAME":"Sempra","NRG^FG_COMPANY_NAME":"NRG Energy, Inc.","NDAQ^FG_COMPANY_NAME":"Nasdaq, Inc.","UNH^FF_EPS(QTR_R,0)":0.011,"TRV^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"SWK^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":1.41,"RVTY^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"RJF^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":2.86,"PWR^FF_EPS(QTR_R,0)":2.08,"PODD^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"PH^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"PAYC^FF_EPS(QTR_R,0)":2.0653,"OKE^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":1.49,"NTRS^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"NEE^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"MSFT^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"MGM^FF_EPS(QTR_R,0)":1.112,"LOW^JULIAN(FF_EPS(QTR_R,0).DATES)":45961,"LEN^JULIAN(FF_EPS(QTR_R,0).DATES)":45989,"KLAC^FF_EPS(QTR_R,0)":8.7271,"IP^FF_EPS(QTR_R,0)":-4.52,"HD^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":3.74,"GRMN^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"GLW^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":0.72,"GE^FF_EPS(QTR_R,0)":2.3887,"FRT^FF_EPS(QTR_R,0)":1.4812,"FICO^FF_EPS(QTR_R,0)":6.6104,"FCX^FF_EPS(QTR_R,0)":0.2814,"ESS^FF_EPS(QTR_R,0)":1.2507,"ED^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":1.9,"DPZ^FF_EPS(QTR_R,0)":4.08,"DHR^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":2.23,"CPAY^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"CMI^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":5.838345,"CFG^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":1.13,"CCL^JULIAN(FF_EPS(QTR_R,0).DATES)":45989,"BWA^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":1.35,"APH^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"AON^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":4.85,"ALGN^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"ABBV^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":2.71,"WY^FG_COMPANY_NAME":"Weyerhaeuser Company","VST^FG_COMPANY_NAME":"Vistra Corp.","MS^FG_COMPANY_NAME":"Morgan Stanley","VRTX^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":5.03,"TROW^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"TDY^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":6.3,"STZ^JULIAN(FF_EPS(QTR_R,0).DATES)":45989,"SNPS^JULIAN(FF_EPS(QTR_R,0).DATES)":45961,"RTX^FF_EPS(QTR_R,0)":1.1912,"PNW^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":3.39,"PGR^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":4.582925,"PAYC^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"OKE^FF_EPS(QTR_R,0)":1.4869,"MO^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"META^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":8.88,"MAA^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"LNT^FF_EPS(QTR_R,0)":1.09,"LDOS^FF_EPS(QTR_R,0)":2.5349,"KIM^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":0.21,"JPM^FF_EPS(QTR_R,0)":4.6302,"IVZ^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"IP^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"IEX^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"HSIC^FF_EPS(QTR_R,0)":0.8345,"GPN^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":3.18,"GLW^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"FOXA^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":0.82,"EOG^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":2.71,"DVN^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":0.82,"DPZ^JULIAN(FF_EPS(QTR_R,0).DATES)":45898,"DECK^FF_EPS(QTR_R,0)":3.3346,"CTSH^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":1.35,"CSX^FF_EPS(QTR_R,0)":0.3863,"COO^JULIAN(FF_EPS(QTR_R,0).DATES)":45961,"CMA^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":1.27,"CI^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":8.08,"CDW^FF_EPS(QTR_R,0)":2.14,"CAT^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":5.16,"CAG^JULIAN(FF_EPS(QTR_R,0).DATES)":45989,"BWA^FF_EPS(QTR_R,0)":-1.2654,"BR^FF_EPS(QTR_R,0)":2.418,"BKR^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":0.78,"BIO^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"BEN^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":0.7,"BBWI^JULIAN(FF_EPS(QTR_R,0).DATES)":45961,"AZO^FF_EPS(QTR_R,0)":31.0386,"AVY^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"ATO^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":2.44,"AON^FF_EPS(QTR_R,0)":7.8199,"AMZN^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"AMAT^FF_EPS(QTR_R,0)":2.54,"AIZ^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":5.61,"AES^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":0.75,"VRTX^FG_COMPANY_NAME":"Vertex Pharmaceuticals Incorporated","URI^FG_COMPANY_NAME":"United Rentals, Inc.","SEE^FG_COMPANY_NAME":"Sealed Air Corporation","ROL^FG_COMPANY_NAME":"Rollins, Inc.","RCL^FG_COMPANY_NAME":"Royal Caribbean Group","PSA^FG_COMPANY_NAME":"Public Storage","PM^FG_COMPANY_NAME":"Philip Morris International Inc.","PFE^FG_COMPANY_NAME":"Pfizer Inc.","OXY^FG_COMPANY_NAME":"Occidental Petroleum Corporation","NXPI^FG_COMPANY_NAME":"NXP Semiconductors NV","MRO^FG_COMPANY_NAME":"Marathon Oil Corporation","MMM^FG_COMPANY_NAME":"3M Company","MDT^FG_COMPANY_NAME":"Medtronic Plc","MA^FG_COMPANY_NAME":"Mastercard Incorporated Class A","LNT^FG_COMPANY_NAME":"Alliant Energy Corporation","WRB^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"UBER^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":0.71,"TRMB^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":1.0,"STT^FF_EPS(QTR_R,0)":2.42,"SNA^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"PVH^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":2.83,"PNW^JULIAN(FF_EPS(QTR_R,0).DATES)":45930,"NTAP^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":2.05,"NDAQ^FF_EPS(QTR_R,0)":0.9003,"MSCI^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":4.66,"MNST^FF_EPS(QTR_R,0)":0.5325,"L^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":2.138259,"INVH^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":0.24,"HD^JULIAN(FF_EPS(QTR_R,0).DATES)":45961,"FICO^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"FCX^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"EXPD^JULIAN(FF_EPS(QTR_R,0).DATES)":45930,"ESS^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"ENPH^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"DHR^FF_EPS(QTR_R,0)":1.68,"DECK^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"D^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":1.06,"CRL^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"CMI^FF_EPS(QTR_R,0)":4.2662,"CFG^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"CCI^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":0.67,"BKR^FF_EPS(QTR_R,0)":0.8813,"BAX^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":0.36,"APD^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":3.16,"AME^FF_EPS(QTR_R,0)":1.7304,"ALB^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":-0.53,"AES^FF_EPS(QTR_R,0)":0.9398,"WMT^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":0.74,"TSLA^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":0.5,"TDG^FF_EPS(QTR_R,0)":6.6323,"ROST^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":1.58,"PNC^FF_EPS(QTR_R,0)":4.8782,"PEG^FF_EPS(QTR_R,0)":1.2415,"MSCI^FF_EPS(QTR_R,0)":3.811,"MLM^FF_EPS(QTR_R,0)":4.62,"LKQ^FF_EPS(QTR_R,0)":0.2578,"KMX^FF_EPS(QTR_R,0)":0.4265,"FOXA^FF_EPS(QTR_R,0)":0.5193,"FE^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":0.53,"EXR^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":0.78,"EQR^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":1.0,"EL^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"CVX^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"COF^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":3.86,"CINF^FF_EPS(QTR_R,0)":4.29,"CF^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"CCL^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":0.34,"CARR^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":0.34,"BX^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":1.75,"BAC^FF_EPS(QTR_R,0)":0.98,"AVGO^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":1.95,"AMCR^FF_EPS(QTR_R,0)":0.3816,"ALB^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"ADSK^JULIAN(FF_EPS(QTR_R,0).DATES)":45961,"ADBE^FF_EPS(QTR_R,0)":4.4508,"ABNB^FF_EPS(QTR_R,0)":0.5554,"ZBRA^FG_COMPANY_NAME":"Zebra Technologies Corporation Class A","WMB^FG_COMPANY_NAME":"Williams Companies, Inc.","VTRS^FG_COMPANY_NAME":"Viatris, Inc.","UNP^FG_COMPANY_NAME":"Union Pacific Corporation","TT^FG_COMPANY_NAME":"Trane Technologies plc","TRMB^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"SYY^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":0.99,"SO^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":0.55,"ROST^JULIAN(FF_EPS(QTR_R,0).DATES)":45961,"PM^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":1.7,"PEAK^FF_EPS(QTR_R,0)":0.1638,"NI^FF_EPS(QTR_R,0)":0.5349,"MA^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":4.76,"JKHY^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"IR^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"HON^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"GPN^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"GEV^FF_EPS(QTR_R,0)":13.3723,"DUK^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"DE^FF_EPS(QTR_R,0)":2.42,"CSGP^FF_EPS(QTR_R,0)":-0.0736,"CPRT^JULIAN(FF_EPS(QTR_R,0).DATES)":45961,"CNP^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":0.45,"CME^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":2.77,"CI^FF_EPS(QTR_R,0)":4.6444,"BX^FF_EPS(QTR_R,0)":1.2962,"BMY^FF_EPS(QTR_R,0)":0.5326,"BK^FF_EPS(QTR_R,0)":2.02,"BDX^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":2.2868385,"APTV^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":1.86,"AON^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"AMP^FF_EPS(QTR_R,0)":10.47,"AMCR^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"AKAM^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":1.86,"ADBE^JULIAN(FF_EPS(QTR_R,0).DATES)":45989,"TGT^FG_COMPANY_NAME":"Target Corporation","SWK^FG_COMPANY_NAME":"Stanley Black & Decker, Inc.","SNA^FG_COMPANY_NAME":"Snap-on Incorporated","QCOM^FG_COMPANY_NAME":"QUALCOMM Incorporated","PODD^FG_COMPANY_NAME":"Insulet Corporation","PG^FG_COMPANY_NAME":"Procter & Gamble Company","WMB^FF_EPS(QTR_R,0)":null,"SYK^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":4.47,"SMCI^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":0.69,"ROL^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":0.24,"PYPL^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"PM^FF_EPS(QTR_R,0)":1.3704,"NWSA^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"NI^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"MRNA^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"LKQ^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"KIM^FF_EPS(QTR_R,0)":0.2121,"HWM^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":1.05,"GPC^FF_EPS(QTR_R,0)":-4.3879,"FOX^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"FE^FF_EPS(QTR_R,0)":-0.0848,"EQR^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"ED^JULIAN(FF_EPS(QTR_R,0).DATES)":45930,"DIS^FF_EPS(QTR_R,0)":1.3396,"CSCO^FF_EPS(QTR_R,0)":0.7969,"CHTR^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":10.34,"CEG^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":3.04,"CARR^FF_EPS(QTR_R,0)":0.0626,"BMY^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"BK^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"BAC^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"AVGO^FF_EPS(QTR_R,0)":1.7423,"ALLE^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":1.94,"AFL^FF_EPS(QTR_R,0)":2.64,"ADP^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":2.62,"ABBV^FF_EPS(QTR_R,0)":1.0237,"YUM^FG_COMPANY_NAME":"Yum! Brands, Inc.","WM^FG_COMPANY_NAME":"Waste Management, Inc.","UNH^FG_COMPANY_NAME":"UnitedHealth Group Incorporated","TSN^FG_COMPANY_NAME":"Tyson Foods, Inc. Class A","TER^FG_COMPANY_NAME":"Teradyne, Inc.","MAS^FG_COMPANY_NAME":"Masco Corporation","LMT^FG_COMPANY_NAME":"Lockheed Martin Corporation","K^FG_COMPANY_NAME":"Kellanova","IFF^FG_COMPANY_NAME":"International Flavors & Fragrances Inc.","HSIC^FG_COMPANY_NAME":"Henry Schein, Inc.","GL^FG_COMPANY_NAME":"Globe Life Inc.","FTNT^FG_COMPANY_NAME":"Fortinet, Inc.","NTRS^FG_COMPANY_NAME":"Northern Trust Corporation","MU^FG_COMPANY_NAME":"Micron Technology, Inc.","MPWR^FG_COMPANY_NAME":"Monolithic Power Systems, Inc.","MHK^FG_COMPANY_NAME":"Mohawk Industries, Inc.","KO^FG_COMPANY_NAME":"Coca-Cola Company","UPS^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"TRGP^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":2.52,"ROL^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"PM^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"PEAK^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"MRK^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":2.04,"MHK^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":2.0,"MA^FF_EPS(QTR_R,0)":4.5212,"LH^FF_EPS(QTR_R,0)":1.98,"JCI^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":0.89,"HOLX^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":1.04,"GOOGL^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":2.82,"GEV^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"FMC^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"FDX^JULIAN(FF_EPS(QTR_R,0).DATES)":45989,"EXC^FF_EPS(QTR_R,0)":0.5848,"DTE^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":1.65,"DD^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":0.46,"CVS^FF_EPS(QTR_R,0)":2.3046,"CNP^FF_EPS(QTR_R,0)":0.4044,"CME^FF_EPS(QTR_R,0)":3.24,"CBRE^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":2.73,"BWA^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"BIO^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":2.51,"BDX^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"AVB^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":1.17,"APTV^FF_EPS(QTR_R,0)":-1.6329,"ANSS^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":null,"AMP^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"AKAM^FF_EPS(QTR_R,0)":0.968,"ACN^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":3.94,"TSLA^FG_COMPANY_NAME":"Tesla, Inc.","STZ^FG_COMPANY_NAME":"Constellation Brands, Inc. Class A","SMCI^FG_COMPANY_NAME":"Super Micro Computer, Inc.","ROK^FG_COMPANY_NAME":"Rockwell Automation, Inc.","PYPL^FG_COMPANY_NAME":"PayPal Holdings, Inc.","PNW^FG_COMPANY_NAME":"Pinnacle West Capital Corp","PEP^FG_COMPANY_NAME":"PepsiCo, Inc.","ON^FG_COMPANY_NAME":"ON Semiconductor Corporation","UNP^FF_EPS(QTR_R,0)":3.1137,"SYK^FF_EPS(QTR_R,0)":2.1966,"ROK^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"PARA^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":-0.05314813,"NWS^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":0.4,"MHK^FF_EPS(QTR_R,0)":0.6785,"LW^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":0.69,"LH^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"KIM^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"JCI^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"INVH^FF_EPS(QTR_R,0)":0.1466,"HWM^FF_EPS(QTR_R,0)":0.9208,"HBAN^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":0.3,"EW^FF_EPS(QTR_R,0)":0.1568,"EQIX^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"ECL^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":2.08,"DHI^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"CSCO^JULIAN(FF_EPS(QTR_R,0).DATES)":46052,"CPB^JULIAN(FF_EPS(QTR_R,0).DATES)":45961,"CMCSA^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":0.84,"CHTR^FF_EPS(QTR_R,0)":10.3314,"CEG^FF_EPS(QTR_R,0)":2.9712,"CARR^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"BSX^FF_EPS(QTR_R,0)":0.4493,"BLK^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":13.16,"BIIB^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":1.99,"BA^FF_EPS(QTR_R,0)":10.1182,"AMGN^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":5.29,"ALLE^FF_EPS(QTR_R,0)":1.7032,"AES^JULIAN(FF_EPS(QTR_R,0).DATES)":45930,"ADP^FF_EPS(QTR_R,0)":2.6242,"ACN^FF_EPS(QTR_R,0)":3.5359,"ABBV^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"XYL^FG_COMPANY_NAME":"Xylem Inc.","WFC^FG_COMPANY_NAME":"Wells Fargo & Company","VRSK^FG_COMPANY_NAME":"Verisk Analytics, Inc.","ULTA^FG_COMPANY_NAME":"Ulta Beauty Inc.","TEL^FG_COMPANY_NAME":"TE Connectivity plc","SLB^FG_COMPANY_NAME":"SLB Limited","LLY^FG_COMPANY_NAME":"Eli Lilly and Company","IEX^FG_COMPANY_NAME":"IDEX Corporation","HRL^FG_COMPANY_NAME":"Hormel Foods Corporation","GS^FG_COMPANY_NAME":"Goldman Sachs Group, Inc.","GIS^FG_COMPANY_NAME":"General Mills, Inc.","FSLR^FG_COMPANY_NAME":"First Solar, Inc.","AVB^FF_EPS(QTR_R,0)":1.1602,"ANSS^FF_EPS(QTR_R,0)":0.5885,"AKAM^JULIAN(FF_EPS(QTR_R,0).DATES)":45930,"TSCO^FG_COMPANY_NAME":"Tractor Supply Company","STX^FG_COMPANY_NAME":"Seagate Technology Holdings PLC","RMD^FG_COMPANY_NAME":"ResMed Inc.","PNR^FG_COMPANY_NAME":"Pentair plc","PEG^FG_COMPANY_NAME":"Public Service Enterprise Group Inc","OMC^FG_COMPANY_NAME":"Omnicom Group Inc","NTAP^FG_COMPANY_NAME":"NetApp, Inc.","MPC^FG_COMPANY_NAME":"Marathon Petroleum Corporation","KMX^FG_COMPANY_NAME":"CarMax, Inc.","HPQ^FG_COMPANY_NAME":"HP Inc.","FFIV^FG_COMPANY_NAME":"F5, Inc.","WEC^FF_EPS(QTR_R,0)":0.97,"TPR^FF_EPS(QTR_R,0)":2.6753999999999998,"SYF^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"SHW^FF_EPS(QTR_R,0)":1.92,"PTC^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":1.92,"NWS^FF_EPS(QTR_R,0)":0.3434,"NDAQ^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"MHK^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"LW^JULIAN(FF_EPS(QTR_R,0).DATES)":45989,"LEN^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":1.93,"KHC^FF_EPS(QTR_R,0)":0.5484,"JBL^FF_EPS(QTR_R,0)":1.3481,"HUM^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":-3.96,"GOOG^FF_EPS(QTR_R,0)":2.8177,"GDDY^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":1.51,"FDS^FF_EPS(QTR_R,0)":4.0564,"DTE^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"CRWD^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":0.96,"COST^FF_EPS(QTR_R,0)":4.5015,"CE^FF_EPS(QTR_R,0)":0.173,"CBRE^FF_EPS(QTR_R,0)":1.3873,"CAH^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":2.63,"BBY^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":1.4,"AZO^JULIAN(FF_EPS(QTR_R,0).DATES)":45989,"APTV^JULIAN(FF_EPS(QTR_R,0).DATES)":45930,"MTD^FG_COMPANY_NAME":"Mettler-Toledo International Inc.","MGM^FG_COMPANY_NAME":"MGM Resorts International","JNPR^FG_COMPANY_NAME":"Juniper Networks, Inc.","IR^FG_COMPANY_NAME":"Ingersoll Rand Inc.","TMO^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":6.57,"SWKS^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":1.54,"RL^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":6.22,"PARA^FF_EPS(QTR_R,0)":-0.2341,"NWS^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"NCLH^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":1.2,"MPWR^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":4.79,"INTU^JULIAN(FF_EPS(QTR_R,0).DATES)":45961,"HUM^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"HBAN^FF_EPS(QTR_R,0)":0.3032,"GNRC^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":1.61,"GD^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":4.17,"FLT^FF_EPS(QTR_R,0)":3.75,"FCNCA^FF_EPS(QTR_R,0)":45.7817,"EW^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"EPAM^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":3.26,"ECL^FF_EPS(QTR_R,0)":1.98,"DGX^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":2.42,"DAY^FF_EPS(QTR_R,0)":-1.2315,"CTRA^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":0.41,"CNC^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":-1.19,"CMA^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"CAH^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"UAL^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":3.1,"TJX^FF_EPS(QTR_R,0)":1.2806,"SEE^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":0.87,"RL^FF_EPS(QTR_R,0)":5.8135,"PRU^FF_EPS(QTR_R,0)":2.5506,"NVR^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":121.54,"MDLZ^FF_EPS(QTR_R,0)":0.5147,"LVS^FF_EPS(QTR_R,0)":0.5826,"J^FF_EPS(QTR_R,0)":1.1192,"DRI^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":2.08,"CRWD^FF_EPS(QTR_R,0)":-0.1353,"COST^JULIAN(FF_EPS(QTR_R,0).DATES)":45989,"CHRW^FF_EPS(QTR_R,0)":1.1205,"CDW^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"BLDR^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":1.12,"BBY^FF_EPS(QTR_R,0)":0.6601,"AXP^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":3.53,"AJG^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":2.38,"ADM^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":0.87,"AAPL^FF_EPS(QTR_R,0)":2.8424,"WBD^FG_COMPANY_NAME":"Warner Bros. Discovery, Inc. Series A","TDY^FG_COMPANY_NAME":"Teledyne Technologies Incorporated","STT^FG_COMPANY_NAME":"State Street Corporation","SCHW^FG_COMPANY_NAME":"Charles Schwab Corp","RL^FG_COMPANY_NAME":"Ralph Lauren Corporation Class A","PVH^FG_COMPANY_NAME":"PVH Corp.","PLTR^FG_COMPANY_NAME":"Palantir Technologies Inc. Class A","UAL^FF_EPS(QTR_R,0)":3.1927,"TJX^JULIAN(FF_EPS(QTR_R,0).DATES)":45961,"STT^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"PHM^FF_EPS(QTR_R,0)":2.5621,"PARA^JULIAN(FF_EPS(QTR_R,0).DATES)":45930,"NUE^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"NCLH^FF_EPS(QTR_R,0)":0.8458,"MPWR^FF_EPS(QTR_R,0)":3.46,"MDLZ^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"KVUE^FF_EPS(QTR_R,0)":0.17,"ITW^FF_EPS(QTR_R,0)":2.7223,"INTC^FF_EPS(QTR_R,0)":-0.1217,"HUBB^FF_EPS(QTR_R,0)":4.1832,"HAS^FF_EPS(QTR_R,0)":1.41,"GD^FF_EPS(QTR_R,0)":4.1731,"FLT^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"FCNCA^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"EVRG^FF_EPS(QTR_R,0)":0.3661,"EMR^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":1.46,"EA^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":4.875692,"DOW^FF_EPS(QTR_R,0)":-2.1512,"DGX^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"CTRA^FF_EPS(QTR_R,0)":0.4185,"CNC^FF_EPS(QTR_R,0)":-2.2399,"CLX^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":1.39,"CBOE^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":3.06,"C^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":1.19,"BG^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":1.99,"ATVI^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":null,"APD^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"ANET^FF_EPS(QTR_R,0)":0.75,"AMD^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":1.53,"ALL^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":14.31,"AIZ^FF_EPS(QTR_R,0)":4.41,"AEP^FF_EPS(QTR_R,0)":1.0714,"ACGL^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"AAPL^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"XEL^FG_COMPANY_NAME":"Xcel Energy Inc.","WBA^FG_COMPANY_NAME":"Walgreens Boots Alliance, Inc.","VLTO^FG_COMPANY_NAME":"Veralto Corporation","UDR^FG_COMPANY_NAME":"UDR, Inc.","TRGP^FG_COMPANY_NAME":"Targa Resources Corp.","MOH^FG_COMPANY_NAME":"Molina Healthcare, Inc.","LIN^FG_COMPANY_NAME":"Linde plc","KMB^FG_COMPANY_NAME":"Kimberly-Clark Corporation","JCI^FG_COMPANY_NAME":"Johnson Controls International plc","IPG^FG_COMPANY_NAME":"Interpublic Group of Companies, Inc.","ICE^FG_COMPANY_NAME":"Intercontinental Exchange, Inc.","HON^FG_COMPANY_NAME":"Honeywell International Inc.","GPN^FG_COMPANY_NAME":"Global Payments Inc.","GEV^FG_COMPANY_NAME":"GE Vernova Inc.","LW^FG_COMPANY_NAME":"Lamb Weston Holdings, Inc.","WAT^FF_EPS(QTR_R,0)":3.77,"TYL^FF_EPS(QTR_R,0)":1.505,"TGT^JULIAN(FF_EPS(QTR_R,0).DATES)":45961,"STLD^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":1.82,"SEE^FF_EPS(QTR_R,0)":1.2573,"PPL^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":0.48,"PGR^FF_EPS(QTR_R,0)":null,"ORLY^FF_EPS(QTR_R,0)":0.71,"NTRS^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":2.6365135,"MPWR^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"MCO^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":3.64,"LVS^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"KVUE^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"IT^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":3.94,"HSIC^JULIAN(FF_EPS(QTR_R,0).DATES)":45930,"HAL^FF_EPS(QTR_R,0)":0.7012,"EMR^FF_EPS(QTR_R,0)":1.0725,"CRM^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":3.25,"COR^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":4.08,"CHRW^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"CDNS^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":1.99,"BRO^FF_EPS(QTR_R,0)":0.59,"BBY^JULIAN(FF_EPS(QTR_R,0).DATES)":45961,"AXP^FF_EPS(QTR_R,0)":3.5305,"ALL^FF_EPS(QTR_R,0)":14.3672,"AIZ^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"ADM^FF_EPS(QTR_R,0)":0.9422,"UBER^FG_COMPANY_NAME":"Uber Technologies, Inc.","TDG^FG_COMPANY_NAME":"TransDigm Group Incorporated","SBUX^FG_COMPANY_NAME":"Starbucks Corporation","RJF^FG_COMPANY_NAME":"Raymond James Financial, Inc.","PTC^FG_COMPANY_NAME":"PTC Inc.","PLD^FG_COMPANY_NAME":"Prologis, Inc.","PCAR^FG_COMPANY_NAME":"PACCAR Inc","ODFL^FG_COMPANY_NAME":"Old Dominion Freight Line, Inc.","NKE^FG_COMPANY_NAME":"NIKE, Inc. Class B","MTB^FG_COMPANY_NAME":"M&T Bank Corporation","MDLZ^FG_COMPANY_NAME":"Mondelez International, Inc. Class A","STE^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":2.53,"REG^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"PFE^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":0.66,"ORLY^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"NSC^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"MPC^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"LULU^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":2.59,"KO^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":0.58,"GL^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":3.39,"FTV^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":0.9,"FITB^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":1.04,"FANG^FF_EPS(QTR_R,0)":3.5108,"ETR^FF_EPS(QTR_R,0)":0.51,"EA^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"DOW^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"DG^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":1.28,"CTRA^JULIAN(FF_EPS(QTR_R,0).DATES)":45930,"COP^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":1.02,"CNC^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"CLX^FF_EPS(QTR_R,0)":1.2878,"CBOE^FF_EPS(QTR_R,0)":2.97,"C^FF_EPS(QTR_R,0)":1.1938,"BKR^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"BG^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"BAX^FF_EPS(QTR_R,0)":-2.1595,"ATVI^FF_EPS(QTR_R,0)":0.7393,"APA^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":0.93,"ANET^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"AMD^FF_EPS(QTR_R,0)":0.9163,"AEP^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"ADI^FF_EPS(QTR_R,0)":1.6898,"ABT^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":1.5,"A^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":1.59,"WTW^FG_COMPANY_NAME":"Willis Towers Watson Public Limited Company","WAT^FG_COMPANY_NAME":"Waters Corporation","VLO^FG_COMPANY_NAME":"Valero Energy Corporation","TXT^FG_COMPANY_NAME":"Textron Inc.","TPR^FG_COMPANY_NAME":"Tapestry, Inc.","SPGI^FG_COMPANY_NAME":"S&P Global, Inc.","RF^FG_COMPANY_NAME":"Regions Financial Corporation","NWSA^FG_COMPANY_NAME":"News Corporation Class A","LHX^FG_COMPANY_NAME":"L3Harris Technologies Inc","KLAC^FG_COMPANY_NAME":"KLA Corporation","VMC^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"TXN^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"TFX^FF_EPS(QTR_R,0)":-9.2432,"SEE^JULIAN(FF_EPS(QTR_R,0).DATES)":45930,"PPL^FF_EPS(QTR_R,0)":0.4272,"PFE^FF_EPS(QTR_R,0)":-0.2898,"ON^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":0.64,"MTD^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":13.36,"MCK^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":9.34,"LULU^FF_EPS(QTR_R,0)":2.5882,"KDP^JULIAN(FF_EPS(QTR_R,0).DATES)":45930,"ISRG^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":2.53,"ILMN^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"HRL^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":0.32,"HAL^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"GIS^FF_EPS(QTR_R,0)":0.7687,"FI^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":1.99,"VLTO^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":1.04,"TTWO^FF_EPS(QTR_R,0)":-0.5022,"STE^FF_EPS(QTR_R,0)":1.9564,"RE^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":13.26,"PFE^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"NRG^FF_EPS(QTR_R,0)":0.6923,"MMC^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":2.12,"LMT^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"KO^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"K^JULIAN(FF_EPS(QTR_R,0).DATES)":45930,"IFF^FF_EPS(QTR_R,0)":0.07,"F^FF_EPS(QTR_R,0)":-2.6286,"EMN^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"DXCM^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":0.68,"DG^FF_EPS(QTR_R,0)":1.2792,"CTAS^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":1.21,"CPT^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"COP^FF_EPS(QTR_R,0)":1.1646,"CBOE^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"BRK.B^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":6.255748,"BKNG^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":48.8,"BF.B^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":0.47,"BAX^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"AWK^FF_EPS(QTR_R,0)":1.2205,"ARE^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":-6.35,"APA^FF_EPS(QTR_R,0)":0.5726,"AMT^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":1.82,"AMD^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"ADI^JULIAN(FF_EPS(QTR_R,0).DATES)":46052,"A^FF_EPS(QTR_R,0)":1.5282,"WST^FG_COMPANY_NAME":"West Pharmaceutical Services, Inc.","WAB^FG_COMPANY_NAME":"Westinghouse Air Brake Technologies Corporation","VICI^FG_COMPANY_NAME":"VICI Properties Inc","TXN^FG_COMPANY_NAME":"Texas Instruments Incorporated","TMUS^FG_COMPANY_NAME":"T-Mobile US, Inc.","REGN^FG_COMPANY_NAME":"Regeneron Pharmaceuticals, Inc.","MSFT^FG_COMPANY_NAME":"Microsoft Corporation","TT^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":2.86,"TDY^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"RTX^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"RE^FF_EPS(QTR_R,0)":10.77,"PPL^JULIAN(FF_EPS(QTR_R,0).DATES)":45930,"ON^FF_EPS(QTR_R,0)":0.4519,"NOW^FF_EPS(QTR_R,0)":0.383,"MCK^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"IR^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":0.96,"HRL^FF_EPS(QTR_R,0)":-0.102,"GWW^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":9.44,"FTNT^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"ES^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":1.12,"DOV^FF_EPS(QTR_R,0)":2.0616,"CZR^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"CMG^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":0.25,"VLO^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":3.82,"TSN^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"RE^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"PNR^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":1.18,"PEP^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":2.26,"MMC^FF_EPS(QTR_R,0)":1.6755,"MCHP^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"LLY^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":7.54,"KMX^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":0.43,"VLO^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"TDG^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":8.23,"RSG^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"QRVO^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":2.17,"PEG^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":1.13,"NKE^FF_EPS(QTR_R,0)":0.5348,"MCD^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"JKHY^FF_EPS(QTR_R,0)":1.7216,"IR^FF_EPS(QTR_R,0)":0.6723,"HPE^JULIAN(FF_EPS(QTR_R,0).DATES)":45961,"GPN^FF_EPS(QTR_R,0)":0.9169,"GEV^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":13.477591,"DUK^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":1.5,"DLTR^FF_EPS(QTR_R,0)":1.2002,"COO^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":1.15,"AVY^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":2.45,"AMGN^FF_EPS(QTR_R,0)":2.4549,"AEE^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":0.78,"UPS^FG_COMPANY_NAME":"United Parcel Service, Inc. Class B","SYF^FG_COMPANY_NAME":"Synchrony Financial","NUE^FG_COMPANY_NAME":"Nucor Corporation","MRK^FG_COMPANY_NAME":"Merck & Co., Inc.","IP^FG_COMPANY_NAME":"International Paper Company","HUBB^FG_COMPANY_NAME":"Hubbell Incorporated","F^FG_COMPANY_NAME":"Ford Motor Company","EQR^FG_COMPANY_NAME":"Equity Residential","ECL^FG_COMPANY_NAME":"Ecolab Inc.","DAY^FG_COMPANY_NAME":"Dayforce, Inc.","CLX^FG_COMPANY_NAME":"Clorox Company","C^FG_COMPANY_NAME":"Citigroup Inc.","BKNG^FG_COMPANY_NAME":"Booking Holdings Inc.","ARE^FG_COMPANY_NAME":"Alexandria Real Estate Equities, Inc.","AMGN^FG_COMPANY_NAME":"Amgen Inc.","AIZ^FG_COMPANY_NAME":"Assurant, Inc.","ACGL^FG_COMPANY_NAME":"Arch Capital Group Ltd.","GE^FG_COMPANY_NAME":"GE Aerospace","FIS^FG_COMPANY_NAME":"Fidelity National Information Services, Inc.","EQIX^FG_COMPANY_NAME":"Equinix, Inc.","DLTR^FG_COMPANY_NAME":"Dollar Tree, Inc.","DAL^FG_COMPANY_NAME":"Delta Air Lines, Inc.","CSCO^FG_COMPANY_NAME":"Cisco Systems, Inc.","CDNS^FG_COMPANY_NAME":"Cadence Design Systems, Inc.","BAC^FG_COMPANY_NAME":"Bank of America Corp","AME^FG_COMPANY_NAME":"AMETEK, Inc.","AIG^FG_COMPANY_NAME":"American International Group, Inc.","CZR^FG_COMPANY_NAME":"Caesars Entertainment, Inc.","BIO^FG_COMPANY_NAME":"Bio-Rad Laboratories, Inc. Class A","CL^FF_EPS(QTR_R,0)":-0.046,"PWR^FG_COMPANY_NAME":"Quanta Services, Inc.","JBHT^FG_COMPANY_NAME":"J.B. Hunt Transport Services, Inc.","HPE^FG_COMPANY_NAME":"Hewlett Packard Enterprise Co.","CVS^FG_COMPANY_NAME":"CVS Health Corporation","CNP^FG_COMPANY_NAME":"CenterPoint Energy, Inc.","AEP^FG_COMPANY_NAME":"American Electric Power Company, Inc.","CVX^FF_EPS(QTR_R,0)":1.39,"WMT^FG_COMPANY_NAME":"Walmart Inc.","MLM^FG_COMPANY_NAME":"Martin Marietta Materials, Inc.","CRL^FG_COMPANY_NAME":"Charles River Laboratories International, Inc.","BIIB^FG_COMPANY_NAME":"Biogen Inc.","AMAT^FG_COMPANY_NAME":"Applied Materials, Inc.","FFIV^FF_EPS(QTR_R,0)":3.0956,"FDS^FG_COMPANY_NAME":"FactSet Research Systems Inc.","F^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"APA^JULIAN(FF_EPS(QTR_R,0).DATES)":45930,"TMO^FG_COMPANY_NAME":"Thermo Fisher Scientific Inc.","MKC^FG_COMPANY_NAME":"McCormick & Company, Incorporated","KHC^FG_COMPANY_NAME":"Kraft Heinz Company","GM^FG_COMPANY_NAME":"General Motors Company","EMN^FG_COMPANY_NAME":"Eastman Chemical Company","CFG^FG_COMPANY_NAME":"Citizens Financial Group, Inc.","BF.B^FG_COMPANY_NAME":"Brown-Forman Corporation Class B","ADSK^FG_COMPANY_NAME":"Autodesk, Inc.","ITW^FG_COMPANY_NAME":"Illinois Tool Works Inc.","HD^FG_COMPANY_NAME":"Home Depot, Inc.","ETR^FG_COMPANY_NAME":"Entergy Corporation","DTE^FG_COMPANY_NAME":"DTE Energy Company","DECK^FG_COMPANY_NAME":"Deckers Outdoor Corporation","ANSS^JULIAN(FF_EPS(QTR_R,0).DATES)":45747,"VZ^FG_COMPANY_NAME":"Verizon Communications Inc.","RVTY^FG_COMPANY_NAME":"Revvity, Inc.","FMC^FG_COMPANY_NAME":"FMC Corporation","FCNCA^FG_COMPANY_NAME":"First Citizens BancShares, Inc. Class A","CME^FG_COMPANY_NAME":"CME Group Inc. Class A","EMN^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":0.75,"BMY^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":1.26,"PHM^FG_COMPANY_NAME":"PulteGroup, Inc.","LKQ^FG_COMPANY_NAME":"LKQ Corporation","CMCSA^FG_COMPANY_NAME":"Comcast Corporation Class A","ATVI^FG_COMPANY_NAME":"Activision Blizzard, Inc.","EL^FF_EPS(QTR_R,0)":0.4441,"AWK^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":1.22,"VMC^FG_COMPANY_NAME":"Vulcan Materials Company","IQV^FG_COMPANY_NAME":"IQVIA Holdings Inc","FLT^FG_COMPANY_NAME":"Corpay, Inc.","CTLT^FG_COMPANY_NAME":"Catalent Inc","BLK^FG_COMPANY_NAME":"BlackRock, Inc.","AKAM^FG_COMPANY_NAME":"Akamai Technologies, Inc.","AIG^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"AAPL^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":2.84,"TAP^FG_COMPANY_NAME":"Molson Coors Beverage Company Class B","MRNA^FG_COMPANY_NAME":"Moderna, Inc.","KDP^FG_COMPANY_NAME":"Keurig Dr Pepper Inc.","ED^FG_COMPANY_NAME":"Consolidated Edison, Inc.","ATO^FG_COMPANY_NAME":"Atmos Energy Corporation","DOV^FG_COMPANY_NAME":"Dover Corporation","CAT^FF_EPS(QTR_R,0)":5.1215,"BK^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":2.02,"AEE^FF_EPS(QTR_R,0)":0.9207,"ZION^FG_COMPANY_NAME":"Zions Bancorporation NA","REG^FG_COMPANY_NAME":"Regency Centers Corporation","NOW^FG_COMPANY_NAME":"ServiceNow, Inc.","MOS^FG_COMPANY_NAME":"Mosaic Company","MCD^FG_COMPANY_NAME":"McDonald's Corporation","LEN^FG_COMPANY_NAME":"Lennar Corporation Class A","JNJ^FG_COMPANY_NAME":"Johnson & Johnson","GRMN^FG_COMPANY_NAME":"Garmin Ltd.","EXPE^FG_COMPANY_NAME":"Expedia Group, Inc.","COO^FG_COMPANY_NAME":"Cooper Companies, Inc.","APA^FG_COMPANY_NAME":"APA Corporation","CZR^FF_EPS(QTR_R,0)":-1.2315,"FTV^FG_COMPANY_NAME":"Fortive Corp.","DVN^FG_COMPANY_NAME":"Devon Energy Corporation","ORLY^FG_COMPANY_NAME":"O'Reilly Automotive, Inc.","IDXX^FG_COMPANY_NAME":"IDEXX Laboratories, Inc.","CMG^FG_COMPANY_NAME":"Chipotle Mexican Grill, Inc.","CSX^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"OKE^FG_COMPANY_NAME":"ONEOK, Inc.","AIG^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":1.96,"DRI^FG_COMPANY_NAME":"Darden Restaurants, Inc.","CDNS^FF_EPS(QTR_R,0)":1.4221,"MCO^FG_COMPANY_NAME":"Moody's Corporation","IDXX^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":3.08,"CAT^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"BIIB^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"ADSK^FF_EPS(QTR_R,0)":1.5954,"UHS^FG_COMPANY_NAME":"Universal Health Services, Inc. Class B","SWKS^FG_COMPANY_NAME":"Skyworks Solutions, Inc.","PCG^FG_COMPANY_NAME":"PG&E Corporation","NOC^FG_COMPANY_NAME":"Northrop Grumman Corp.","L^FG_COMPANY_NAME":"Loews Corporation","INTU^FG_COMPANY_NAME":"Intuit Inc.","HST^FG_COMPANY_NAME":"Host Hotels & Resorts, Inc.","EBAY^FG_COMPANY_NAME":"eBay Inc.","D^FG_COMPANY_NAME":"Dominion Energy Inc","CRWD^FG_COMPANY_NAME":"CrowdStrike Holdings, Inc. Class A","CL^FG_COMPANY_NAME":"Colgate-Palmolive Company","BXP^FG_COMPANY_NAME":"BXP Inc","BK^FG_COMPANY_NAME":"Bank of New York Mellon Corp","APTV^FG_COMPANY_NAME":"Aptiv PLC","ABT^FG_COMPANY_NAME":"Abbott Laboratories","AFL^FG_COMPANY_NAME":"Aflac Incorporated","NFLX^FG_COMPANY_NAME":"Netflix, Inc.","LYB^FG_COMPANY_NAME":"LyondellBasell Industries NV","FI^FG_COMPANY_NAME":"Fiserv, Inc.","EXC^FG_COMPANY_NAME":"Exelon Corporation","DXCM^FG_COMPANY_NAME":"DexCom, Inc.","CRM^FG_COMPANY_NAME":"Salesforce, Inc.","AMCR^FG_COMPANY_NAME":"Amcor PLC","BF.B^FF_EPS(QTR_R,0)":0.474,"ARE^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"ALLE^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"TTWO^FG_COMPANY_NAME":"Take-Two Interactive Software, Inc.","LVS^FG_COMPANY_NAME":"Las Vegas Sands Corp.","BSX^FG_COMPANY_NAME":"Boston Scientific Corporation","BEN^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"GOOG^FG_COMPANY_NAME":"Alphabet Inc. Class C","EW^FG_COMPANY_NAME":"Edwards Lifesciences Corporation","AXP^FG_COMPANY_NAME":"American Express Company","ADBE^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":5.5,"PPL^FG_COMPANY_NAME":"PPL Corporation","KMI^FG_COMPANY_NAME":"Kinder Morgan Inc Class P","DVA^FG_COMPANY_NAME":"DaVita Inc.","CNC^FG_COMPANY_NAME":"Centene Corporation","AVY^FG_COMPANY_NAME":"Avery Dennison Corporation","AEE^FG_COMPANY_NAME":"Ameren Corporation","ALLE^FG_COMPANY_NAME":"Allegion Public Limited Company","PPG^FG_COMPANY_NAME":"PPG Industries, Inc.","IVZ^FG_COMPANY_NAME":"Invesco Ltd.","CTSH^FG_COMPANY_NAME":"Cognizant Technology Solutions Corporation Class A","BRK.B^FG_COMPANY_NAME":"Berkshire Hathaway Inc. Class B","AVGO^FG_COMPANY_NAME":"Broadcom Inc.","ETN^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":3.33,"BAC^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":0.98,"SBAC^FG_COMPANY_NAME":"SBA Communications Corp. Class A","MTCH^FG_COMPANY_NAME":"Match Group, Inc.","KEYS^FG_COMPANY_NAME":"Keysight Technologies Inc","BEN^FG_COMPANY_NAME":"Franklin Resources, Inc.","ALGN^FG_COMPANY_NAME":"Align Technology, Inc.","ES^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"ABT^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"CPB^FG_COMPANY_NAME":"Campbell's Company","AIG^FF_EPS(QTR_R,0)":1.3452,"NVR^FG_COMPANY_NAME":"NVR, Inc.","HWM^FG_COMPANY_NAME":"Howmet Aerospace Inc.","COST^FG_COMPANY_NAME":"Costco Wholesale Corporation","ALB^FG_COMPANY_NAME":"Albemarle Corporation","BLK^FF_EPS(QTR_R,0)":7.16,"MCK^FG_COMPANY_NAME":"McKesson Corporation","GILD^FG_COMPANY_NAME":"Gilead Sciences, Inc.","ES^FG_COMPANY_NAME":"Eversource Energy","EFX^FG_COMPANY_NAME":"Equifax Inc.","RSG^FG_COMPANY_NAME":"Republic Services, Inc.","EQT^FG_COMPANY_NAME":"EQT Corporation","CMA^FG_COMPANY_NAME":"Comerica Incorporated","CMG^FF_EPS(QTR_R,0)":0.2507,"AMCR^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":0.86,"XOM^FG_COMPANY_NAME":"Exxon Mobil Corporation","QRVO^FG_COMPANY_NAME":"Qorvo, Inc.","PAYX^FG_COMPANY_NAME":"Paychex, Inc.","NI^FG_COMPANY_NAME":"NiSource Inc","LYV^FG_COMPANY_NAME":"Live Nation Entertainment, Inc.","KVUE^FG_COMPANY_NAME":"Kenvue, Inc.","JBL^FG_COMPANY_NAME":"Jabil Inc.","FICO^FG_COMPANY_NAME":"Fair Isaac Corporation","EXPD^FG_COMPANY_NAME":"Expeditors International of Washington, Inc.","EPAM^FG_COMPANY_NAME":"EPAM Systems, Inc.","DIS^FG_COMPANY_NAME":"Walt Disney Company","COF^FG_COMPANY_NAME":"Capital One Financial Corp","CCL^FG_COMPANY_NAME":"Carnival Corporation","BX^FG_COMPANY_NAME":"Blackstone Inc.","BA^FG_COMPANY_NAME":"Boeing Company","APD^FG_COMPANY_NAME":"Air Products and Chemicals, Inc.","AMD^FG_COMPANY_NAME":"Advanced Micro Devices, Inc.","PAYC^FG_COMPANY_NAME":"Paycom Software, Inc.","MMC^FG_COMPANY_NAME":"Marsh & McLennan Companies, Inc.","INTC^FG_COMPANY_NAME":"Intel Corporation","GPC^FG_COMPANY_NAME":"Genuine Parts Company","GD^FG_COMPANY_NAME":"General Dynamics Corporation","DHR^FG_COMPANY_NAME":"Danaher Corporation","CI^FG_COMPANY_NAME":"Cigna Group","ABNB^FG_COMPANY_NAME":"Airbnb, Inc. Class A","SO^FG_COMPANY_NAME":"Southern Company","KR^FG_COMPANY_NAME":"Kroger Co.","CCI^FG_COMPANY_NAME":"Crown Castle Inc.","PRU^FG_COMPANY_NAME":"Prudential Financial, Inc.","OTIS^FG_COMPANY_NAME":"Otis Worldwide Corporation","FDX^FG_COMPANY_NAME":"FedEx Corporation","CHRW^FG_COMPANY_NAME":"C.H. Robinson Worldwide, Inc.","TRMB^FG_COMPANY_NAME":"Trimble Inc.","LUV^FG_COMPANY_NAME":"Southwest Airlines Co.","GNRC^FG_COMPANY_NAME":"Generac Holdings Inc.","DGX^FG_COMPANY_NAME":"Quest Diagnostics Incorporated","CTVA^FG_COMPANY_NAME":"Corteva Inc","AAPL^FG_COMPANY_NAME":"Apple Inc.","BRO^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"ANSS^FG_COMPANY_NAME":"ANSYS, Inc.","AOS^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":0.9,"EL^FG_COMPANY_NAME":"Estee Lauder Companies Inc. Class A","CPRT^FG_COMPANY_NAME":"Copart, Inc.","ADP^FG_COMPANY_NAME":"Automatic Data Processing, Inc.","BR^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"TJX^FG_COMPANY_NAME":"TJX Companies Inc","EIX^FG_COMPANY_NAME":"Edison International","BR^FG_COMPANY_NAME":"Broadridge Financial Solutions, Inc.","ADM^FG_COMPANY_NAME":"Archer-Daniels-Midland Company","ABNB^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":0.56,"KEY^FG_COMPANY_NAME":"KeyCorp","ISRG^FG_COMPANY_NAME":"Intuitive Surgical, Inc.","HBAN^FG_COMPANY_NAME":"Huntington Bancshares Incorporated","AJG^FG_COMPANY_NAME":"Arthur J. Gallagher & Co.","COP^FG_COMPANY_NAME":"ConocoPhillips","CAG^FG_COMPANY_NAME":"Conagra Brands, Inc.","DE^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":2.42,"CL^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":0.95,"C^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"ARE^FF_EPS(QTR_R,0)":-6.349,"SPG^FG_COMPANY_NAME":"Simon Property Group, Inc.","EOG^FG_COMPANY_NAME":"EOG Resources, Inc.","DHI^FG_COMPANY_NAME":"D.R. Horton, Inc.","CHTR^FG_COMPANY_NAME":"Charter Communications, Inc. Class A","AZO^FG_COMPANY_NAME":"AutoZone, Inc.","BXP^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"ALL^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"NEM^FG_COMPANY_NAME":"Newmont Corporation","INCY^FG_COMPANY_NAME":"Incyte Corporation","CBRE^FG_COMPANY_NAME":"CBRE Group, Inc. Class A","AOS^FG_COMPANY_NAME":"A. O. Smith Corporation","ABBV^FG_COMPANY_NAME":"AbbVie, Inc.","SNPS^FG_COMPANY_NAME":"Synopsys, Inc.","J^FG_COMPANY_NAME":"Jacobs Solutions Inc.","ENPH^FG_COMPANY_NAME":"Enphase Energy, Inc.","BRO^FG_COMPANY_NAME":"Brown & Brown, Inc.","AON^FG_COMPANY_NAME":"Aon Plc Class A","BG^FG_COMPANY_NAME":"Bunge Global SA","A^FG_COMPANY_NAME":"Agilent Technologies, Inc.","ACGL^FF_EPS(QTR_R,0)":3.3497,"LULU^FG_COMPANY_NAME":"lululemon athletica inc.","FRT^FG_COMPANY_NAME":"Federal Realty Investment Trust","CF^FF_EPS(QTR_R,0)":2.59,"LRCX^FG_COMPANY_NAME":"Lam Research Corporation","GLW^FG_COMPANY_NAME":"Corning Inc","FOXA^FG_COMPANY_NAME":"Fox Corporation Class A","CAT^FG_COMPANY_NAME":"Caterpillar Inc.","AVB^FG_COMPANY_NAME":"AvalonBay Communities, Inc.","MSI^FG_COMPANY_NAME":"Motorola Solutions, Inc.","CTRA^FG_COMPANY_NAME":"Coterra Energy Inc.","CPRT^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":0.41,"BBY^FG_COMPANY_NAME":"Best Buy Co., Inc.","TECH^FG_COMPANY_NAME":"Bio-Techne Corporation","PH^FG_COMPANY_NAME":"Parker-Hannifin Corporation","NVDA^FG_COMPANY_NAME":"NVIDIA Corporation","DD^FG_COMPANY_NAME":"DuPont de Nemours, Inc.","CAH^FG_COMPANY_NAME":"Cardinal Health, Inc.","FANG^FG_COMPANY_NAME":"Diamondback Energy, Inc.","BAX^FG_COMPANY_NAME":"Baxter International Inc.","ANET^FG_COMPANY_NAME":"Arista Networks, Inc.","ETN^FG_COMPANY_NAME":"Eaton Corp. Plc","BMY^FG_COMPANY_NAME":"Bristol-Myers Squibb Company","FAST^FG_COMPANY_NAME":"Fastenal Company","CEG^FG_COMPANY_NAME":"Constellation Energy Corporation","AMZN^FG_COMPANY_NAME":"Amazon.com, Inc.","HAS^FG_COMPANY_NAME":"Hasbro, Inc.","COR^FG_COMPANY_NAME":"Cencora, Inc.","CSX^FG_COMPANY_NAME":"CSX Corporation","F^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":0.13,"CHD^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":0.86,"BSX^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"ALB^FF_EPS(QTR_R,0)":-3.8731,"WDC^FG_COMPANY_NAME":"Western Digital Corporation","ORCL^FG_COMPANY_NAME":"Oracle Corporation","NEE^FG_COMPANY_NAME":"NextEra Energy, Inc.","MKTX^FG_COMPANY_NAME":"MarketAxess Holdings Inc.","HOLX^FG_COMPANY_NAME":"Hologic, Inc.","EVRG^FG_COMPANY_NAME":"Evergy, Inc.","DUK^FG_COMPANY_NAME":"Duke Energy Corporation","DG^FG_COMPANY_NAME":"Dollar General Corporation","CPT^FG_COMPANY_NAME":"Camden Property Trust","CMI^FG_COMPANY_NAME":"Cummins Inc.","CHD^FG_COMPANY_NAME":"Church & Dwight Co., Inc.","CBOE^FG_COMPANY_NAME":"Cboe Global Markets Inc","FCX^FG_COMPANY_NAME":"Freeport-McMoRan, Inc.","POOL^FG_COMPANY_NAME":"Pool Corporation","IT^FG_COMPANY_NAME":"Gartner, Inc.","CF^FG_COMPANY_NAME":"CF Industries Holdings, Inc.","DE^FG_COMPANY_NAME":"Deere & Company","CARR^FG_COMPANY_NAME":"Carrier Global Corp.","AMT^FF_EPS(QTR_R,0)":1.8192,"DPZ^FG_COMPANY_NAME":"Domino's Pizza, Inc.","BBWI^FG_COMPANY_NAME":"Bath & Body Works, Inc.","ADI^FG_COMPANY_NAME":"Analog Devices, Inc.","HUM^FG_COMPANY_NAME":"Humana Inc.","CTAS^FG_COMPANY_NAME":"Cintas Corporation","ADBE^FG_COMPANY_NAME":"Adobe Inc.","BLDR^FG_COMPANY_NAME":"Builders FirstSource, Inc.","DVA^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"AWK^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"AMT^JULIAN(FF_EPS(QTR_R,0).DATES)":45930,"AEP^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":1.19,"T^FG_COMPANY_NAME":"AT&T Inc","PGR^FG_COMPANY_NAME":"Progressive Corporation","MCHP^FG_COMPANY_NAME":"Microchip Technology Incorporated","HAL^FG_COMPANY_NAME":"Halliburton Company","FITB^FG_COMPANY_NAME":"Fifth Third Bancorp","CDW^FG_COMPANY_NAME":"CDW Corporation","AMP^FG_COMPANY_NAME":"Ameriprise Financial, Inc."}]]></FdsFormulaCache>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{41DDC1B7-C735-4673-81FC-2776D94629A9}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0B7F0578-BAE2-465A-9F7B-2C79F3E5CA21}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="urn:fdsformulacache"/>
   </ds:schemaRefs>

--- a/data/S_P500_DATA.xlsx
+++ b/data/S_P500_DATA.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\Weekly Refresh\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5AC2BD2-042D-462E-86C2-3ACECABF4369}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EB15E7D-8BA1-4D6B-9FCE-BDCF257823BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="13546" firstSheet="1" activeTab="1" xr2:uid="{19CD61F6-541F-45D6-8B66-0D7732FB4E79}"/>
+    <workbookView xWindow="25620" yWindow="-98" windowWidth="22140" windowHeight="11821" firstSheet="1" activeTab="1" xr2:uid="{19CD61F6-541F-45D6-8B66-0D7732FB4E79}"/>
   </bookViews>
   <sheets>
     <sheet name="__FDSCACHE__" sheetId="2" state="veryHidden" r:id="rId1"/>
@@ -40,7 +40,7 @@
     <author>Prasham Jain</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{81C7D75E-E639-4791-B49C-6BFD7FB610D4}">
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{3FC22C10-6138-4676-870B-DA7FCA6D1BC4}">
       <text>
         <r>
           <rPr>
@@ -50,11 +50,11 @@
             <rFont val="Tahoma"/>
             <charset val="1"/>
           </rPr>
-          <t>&lt;?xml version="1.0" encoding="utf-8"?&gt;&lt;Schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" Version="2" Timestamp="1771582627"&gt;&lt;FQL&gt;&lt;Q&gt;ZTS^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.48&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ZBRA^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;XYL^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.3718&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;WYNN^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.17&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;WTW^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;WMT^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.53&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;WFC^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.62&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;WEC^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;WBA^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;-0.2023&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ZTS^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.3748&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ZBH^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.42&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;XYL^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;WYNN^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.82&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;WST^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.04&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;WMT^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46052&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;WFC^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.62&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;WDC^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.13&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;WBA^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;45807&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;VZ^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.5529&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;VST^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.7472291&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;VRSN^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;VLTO^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.01&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;V^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;3.17&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ZTS^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;XEL^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;WRB^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.13&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;WAB^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.1813&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;VST^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.7506&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;VRSK^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;VICI^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.71&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;URI^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ULTA^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;5.14&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;TXT^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.3268&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;TT^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;TRGP^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;0&lt;/R&gt;&lt;C&gt;0&lt;/C&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;TFX^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;45930&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;TECH^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.2421&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;SYK^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;STLD^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.82&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;SPGI^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;SJM^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.1&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;SCHW^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.33&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ROP^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;5.21&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;RF^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.58&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;RCL^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.8&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;PVH^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.0877&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;POOL^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.84&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;PNR^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.01&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;PHM^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;PFG^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.19&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;PCAR^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ORCL^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.26&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;OKE^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;45930&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;NVDA^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.3&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;NOW^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;NFLX^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.56&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;MU^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;4.6046&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;MTB^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;MRK^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.1909&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;MNST^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;45930&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;MKTX^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.51&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;MDT^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46052&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;MAR^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.6518&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;LYV^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;45930&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;LOW^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;3.06&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;LLY^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;7.0237&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;YUM^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.91&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;WYNN^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;WM^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;WBD^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;-0.06&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;UPS^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.38&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;UBER^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.142&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;TSN^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.97&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;TRV^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;11.058&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;TMO^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;TFC^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;TAP^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;STZ^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;3.06&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;STLD^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;SNA^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;4.94&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;SCHW^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;RTX^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.55&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;RMD^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.6822&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;RF^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;PYPL^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.5304&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;PSA^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;POOL^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.85&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;PLTR^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;PFG^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.3246&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;PEG^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;45930&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;OXY^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.31&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ORCL^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.0996&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;NWSA^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.4&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;NTAP^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.5099&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;NOC^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;7.23&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;NDSN^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.38&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;MSI^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;4.59&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;MS^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.68&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;MOS^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;45930&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;MMM^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.83&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;MGM^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;MCHP^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.44&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;MAR^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;LUV^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.58&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;LLY^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;LH^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;4.07&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;LDOS^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;KR^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;-2.0168&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;KMI^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.39&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;KLAC^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;KEYS^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.3237&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;K^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.93&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;JNPR^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;45838&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;JCI^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.8534&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;J^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.53&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ITW^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;IRM^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.2992&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;IPG^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.75&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;INVH^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;INCY^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.4616&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;IEX^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.1&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ICE^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;HUM^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;-6.6146&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;HST^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.2&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;HRL^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;45961&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;HON^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.462&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;HCA^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;8.01&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;HAS^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;GS^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;14.01&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;GPC^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.55&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;GOOG^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;GLW^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.62&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;GILD^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.86&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;GEN^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;GDDY^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.5136&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;FTNT^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.81&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;FRT^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;FMC^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;-13.7444&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;FIS^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.51&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;FI^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;FDX^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;4.0466&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;FCNCA^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;51.27&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;FANG^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;45930&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;EXPE^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.5986&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;EW^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.58&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ETR^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ES^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.12&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;EQIX^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.69&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;EOG^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;45930&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;EMN^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.9138&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;EFX^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.09&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ZION^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.76&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;WRB^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.13&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;WFC^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;WAB^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;VST^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;45930&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;VMC^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.7&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;VICI^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.7133&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ULTA^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;5.1426&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;TXT^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;TSN^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.2464&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;TRGP^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;TFC^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;TECH^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;SYF^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.04&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;STZ^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.8795&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;SPG^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;9.35&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;SJM^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.2615&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;SBUX^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.56&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ROP^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;3.97&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;REGN^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;11.44&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;RCL^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.7619&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;PVH^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;45961&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;PRU^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;3.3&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;PNR^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;PH^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;7.65&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;PFG^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;PAYX^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.26&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ORCL^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;45989&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ODFL^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.09&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;NVDA^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.3034&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;NTAP^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;45961&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;NFLX^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.5602&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;MU^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;45989&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;MSI^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;3.8608&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;MRK^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;MMM^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.0705&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;MKTX^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;MDLZ^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.72&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;MCHP^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.064&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;LYB^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;-0.26&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;LOW^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.8786&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;LKQ^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.59&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;XOM^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.71&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;WTW^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;8.12&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;WDC^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;VRTX^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;URI^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;11.09&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ULTA^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;45961&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;UAL^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;TSCO^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.43&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;TGT^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.78&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;TER^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;TDG^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;SNPS^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.9&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;SLB^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;SBUX^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.2568&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;RSG^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.76&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;PSX^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;7.17&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;PPG^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.51&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;PLD^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.4946&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;PCAR^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.0571&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;OXY^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ON^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;O^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.345&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;NSC^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;3.22&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;NEM^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;45930&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;NCLH^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;45930&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;MTB^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;4.6711&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;MRO^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;0&lt;/R&gt;&lt;C&gt;0&lt;/C&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;MPC^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;4.07&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;MLM^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;MCO^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;3.4135&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;MAS^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.82&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;LYV^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.73&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;LUV^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.6219&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;KR^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.05&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;KMI^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;KDP^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.54&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;IVZ^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.62&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;IQV^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.9901&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;INTU^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;3.34&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;IDXX^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;3.08&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;HSY^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;HPQ^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.8386&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;HBAN^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;GNRC^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;GEN^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.64&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;GDDY^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;45930&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;FOX^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.82&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;FI^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.5102&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;FDS^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;4.51&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;EXR^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.7811&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;EQT^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.0769&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;EMR^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;EFX^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.44&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;EBAY^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.15&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;DVN^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.9035&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;DTE^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.7762&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;DOW^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;-0.34&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;DLTR^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;45961&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;DHI^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.028&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;DFS^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;0&lt;/R&gt;&lt;C&gt;0&lt;/C&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;DE^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46052&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;DAL^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.8582&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CVX^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.52&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CTVA^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CTLT^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;-0.7088&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CSGP^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.23&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CRWD^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;45961&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CPT^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.4335&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CPAY^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;6.04&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;COR^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;COF^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;4.8257&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CMS^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.95&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CMG^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CMA^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.27&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CINF^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;3.37&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CHTR^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CFG^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.1265&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CE^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.67&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ZION^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.76&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;WM^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.93&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;WBD^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;-0.0597&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;VTRS^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.67&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;VLO^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;3.73&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;URI^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;10.2673&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;TYL^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.64&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;TTWO^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;TSCO^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;TPR^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.69&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;TAP^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.21&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;STX^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.6009&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;SRE^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.11&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ROK^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.6926&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;RF^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.57&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;RCL^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;PXD^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;4.5732&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;PLD^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;PGR^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;PEP^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.8527&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;OTIS^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.03&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;O^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;45930&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;NVR^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;NSC^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.8652&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;NKE^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.53&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;NEE^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.54&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;MPC^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;5.12&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;MNST^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.56&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;MKTX^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.68&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;META^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;8.8764&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;LYV^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.731&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;LNT^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;45930&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;LIN^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;3.26&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;LDOS^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.76&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;KR^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;45961&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;KHC^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.67&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;JNPR^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.21&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;JBL^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.85&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ISRG^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.2053&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ILMN^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.1688&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;HWM^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;HST^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.1955&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;HOLX^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;GS^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;14.01&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;GPC^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;GIS^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.1&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;FSLR^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;4.24&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;FITB^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.0446&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;FFIV^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;4.45&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;FAST^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.2556&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;EXC^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ETN^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.91&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;EPAM^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;XOM^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.534&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;WTW^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;7.62&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;VRSN^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.23&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;UPS^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.0996&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;UHS^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;5.69&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;TRV^FE_ESTIMATE(</t>
+          <t>&lt;?xml version="1.0" encoding="utf-8"?&gt;&lt;Schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" Version="2" Timestamp="1772178800"&gt;&lt;FQL&gt;&lt;Q&gt;ZTS^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.48&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ZBRA^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;XYL^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.3753&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;WYNN^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.17&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;WTW^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;WMT^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.53&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;WFC^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.62&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;WEC^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;WBA^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;-0.2023&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;VZ^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.09&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;VTR^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;VRSN^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.2268&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;VLTO^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.04&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;VICI^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;URI^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;10.2673&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;UNH^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.11&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;UHS^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;UAL^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;3.1927&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;TXN^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.27&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;TT^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;TSCO^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.4289&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;TRMB^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;TPR^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;TJX^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.576&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;TFC^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;TEL^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;TDG^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;6.6323&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;SYY^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.99&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;SYF^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;STZ^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.8795&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;STLD^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.82&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;SRE^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;45930&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;SO^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.3719&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;SMCI^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.69&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;SJM^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;45961&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;SCHW^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.332&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;RVTY^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.7&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;RSG^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ROL^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.2412&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;RL^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;6.22&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;RF^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;RE^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;10.77&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;QCOM^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;3.5&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;PXD^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;45379&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;PTC^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.3878&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;PRU^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;3.3&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ZTS^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.3748&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;XOM^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;WMT^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.74&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;WFC^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;WAB^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.1&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;VLO^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;3.82&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;UNP^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;3.1137&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;UDR^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.67&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;TTWO^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;-0.5022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;TROW^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;TMUS^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.8821&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;TER^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;SWKS^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;SRE^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.28&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;SO^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ZBH^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;WTW^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;8.12&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;WMT^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46052&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;WBD^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;-0.1&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;VTR^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.146&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;VRSK^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.82&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;USB^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.2628&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;TYL^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.505&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;TSLA^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;TRMB^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.653&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ZTS^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;XEL^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.96&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;WELL^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.14&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;WAB^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.1813&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;VST^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.55&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;VLO^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;3.7294&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;YUM^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.73&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;WTW^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;7.5773&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;WMB^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.55&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;WBD^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;-0.0597&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;VRSK^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.4176&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;USB^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;UNH^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.011&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ZION^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.76&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;XEL^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.9498&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;WST^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.04&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;WELL^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;-1.859&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;WAB^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;VST^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.7506&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;VLO^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;UDR^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;TT^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.86&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;TSCO^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;TMO^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;6.57&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;TEL^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.5253&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;TAP^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.21&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;SWK^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.0398&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;SNPS^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.3405&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;SEE^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;45930&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;RVTY^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.8708&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ROK^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;RE^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;13.26&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;QCOM^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;PSA^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.6&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;PNW^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.126&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;OXY^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;NI^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.51&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;MOH^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;-3.1372&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;MA^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ZION^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.7605&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;XEL^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;WST^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.8171&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;WELL^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;VST^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;45930&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;VICI^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.57&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;URI^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;UBER^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.71&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;TT^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.6445&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;TRV^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;11.13&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;TMO^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;5.21&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;TAP^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.2177&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;SWK^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;STLD^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.82&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;SNPS^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46052&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;YUM^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;WYNN^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.82&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;WMB^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;WBA^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;0&lt;/R&gt;&lt;C&gt;0&lt;/C&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;VZ^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;VMC^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.7&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ULTA^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;5.14&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;TXT^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.3268&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;TSN^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.97&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;TRGP^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.5249&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;TFX^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;45930&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;TECH^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.2421&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;SYK^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;SPGI^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;XOM^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.534&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;WRB^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.13&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;WEC^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.97&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;VRSN^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;V^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ULTA^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;5.1426&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;TFC^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;SYK^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;4.47&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;STE^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;SCHW^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;RTX^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.55&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ROP^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;3.974&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;RMD^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;PSX^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.47&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;PPL^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.357&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;PNC^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;PGR^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;0&lt;/R&gt;&lt;C&gt;0&lt;/C&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;PFE^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;PAYC^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.0653&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ON^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;NWS^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.4&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;NSC^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;NEM^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.52&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;NDAQ^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.9003&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;MTD^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;MRO^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;0&lt;/R&gt;&lt;C&gt;0&lt;/C&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;MPWR^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;3.46&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;MMC^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.12&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;META^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;8.8764&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;MDLZ^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;MCD^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;3.12&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;LYB^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;-0.4441&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;LNT^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.6&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;LH^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.9796&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;KO^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.58&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;KMB^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.86&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;KEY^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;JKHY^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.7216&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ITW^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.72&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;IQV^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;INCY^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.4616&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;IBM^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;4.52&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;HST^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;HPQ^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46052&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;HBAN^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.3032&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ZION^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;WDC^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.13&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;VTRS^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.57&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;VRSK^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;TYL^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.64&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;TSN^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.2464&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;TROW^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.9881&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;TDY^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;SYK^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.1966&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;STX^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;3.11&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;SJM^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.38&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;RL^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;5.8135&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;REGN^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;QRVO^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.17&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;PXD^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;4.5732&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;PODD^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;PM^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.7&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;PKG^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.1284&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;PGR^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;PCG^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.36&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;OTIS^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;O^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.32&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;NWS^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.3434&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;NUE^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;NKE^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.53&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;NDAQ^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;MSFT^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;4.14&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;MRO^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.5089&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;MPWR^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;MO^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.3&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;MKC^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.8414&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;MCO^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;3.64&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;MAA^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.4835&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;LUV^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;LKQ^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.2578&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;L^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.9439&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;KO^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.5266&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;KHC^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.67&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;JPM^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;JBHT^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.8959&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;IRM^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.61&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;INVH^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;IEX^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.7152&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;HUBB^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;4.73&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;HSIC^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.34&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;HOLX^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;WRB^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;USB^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.26&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ULTA^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;45961&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;TMO^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;TER^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.8&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;TDG^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;8.23&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;SBUX^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.56&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;RTX^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.1912&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ROP^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;PWR^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;3.16&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;PSX^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;7.1826&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;PPL^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;PM^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.3704&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;PKG^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;PEP^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.26&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;PCG^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.2921&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;PAYC^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;OMC^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.59&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;NWS^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;NRG^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.03&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;NEM^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.1892&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;MTCH^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.83&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;MSFT^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;5.1552&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;MPC^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;4.07&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;MMC^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.6755&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;META^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;MCD^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;3.03&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;LYB^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;LULU^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.59&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;LNT^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.5487&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;LH^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;L^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;KMB^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.4981&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;KDP^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.6&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;JKHY^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ZBRA^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;4.33&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;WDC^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;4.7297&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;VTRS^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;-0.1101&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;VMC^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.9076&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;TYL^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;TSN^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;TDG^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;SYF^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.04&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;STX^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.6009&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;SRE^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.1177&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;SNA^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;4.94&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;SJM^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.2615&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;RL^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;REG^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.09&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;QRVO^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.7533&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;PNW^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.13&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;PM^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;PG^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.88&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;PCG^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ORLY^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.71&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;O^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.3206&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;NTRS^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.6365135&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;NKE^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.5348&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;NEM^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;NCLH^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.2&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;MTCH^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.83&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;MRO^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;45565&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;MO^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.6643&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;MKC^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;45989&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;MET^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.49&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;MCO^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;3.4135&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;MAA^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;LULU^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.5882&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;LKQ^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;LEN^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.93&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;KO^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;KHC^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.5484&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;WYNN^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;WMB^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.5979&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;URI^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;11.09&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;UHS^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;5.88&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;TXT^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.73&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;TRMB^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;TJX^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.43&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;TER^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.6316&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;SPGI^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;4.3&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;SHW^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.23&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;SBUX^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.2568&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;RTX^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ROL^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.24&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;PWR^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.0789&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;PSX^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;PPG^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.51&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;PNW^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;PHM^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.56&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;PEP^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.8527&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;PARA^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;-0.12&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;OMC^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;-4.02&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;O^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;NVR^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;121.54&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;NRG^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.2626&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;NEE^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.54&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;NCLH^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.8458&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;MSFT^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;MRNA</t>
         </r>
       </text>
     </comment>
-    <comment ref="A2" authorId="0" shapeId="0" xr:uid="{EE9F3909-3893-48FF-9F16-FD8FDB55DC61}">
+    <comment ref="A2" authorId="0" shapeId="0" xr:uid="{02CFC76D-19D9-4C1C-82A0-EACA0DDDB6BF}">
       <text>
         <r>
           <rPr>
@@ -64,11 +64,11 @@
             <rFont val="Tahoma"/>
             <charset val="1"/>
           </rPr>
-          <t>EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;11.13&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;TGT^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.5139&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;TEL^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.72&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;SYF^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.0414&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;SNPS^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.393&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;SJM^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;45961&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;SBUX^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;RSG^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.7598&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;PXD^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;45379&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;PSX^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;PPG^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.33&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;PNC^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;4.88&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;PKG^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.32&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;PEP^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;OTIS^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.9546&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;OMC^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.59&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;NXPI^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;3.35&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;NEE^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.7348&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;MU^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;4.78&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;MSI^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;MRO^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.5089&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;MCO^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;MAS^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.7971&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;LUV^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;KMB^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.86&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;KDP^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.4857&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;JNJ^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.46&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;IVZ^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;-2.629&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;IQV^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;INTU^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.5872&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;IDXX^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;HPQ^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;45961&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;HAS^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.51&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;GS^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;GM^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.51&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;GEN^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.3107&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ZBRA^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;4.33&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;WST^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;WELL^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.14&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;WBA^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;0&lt;/R&gt;&lt;C&gt;0&lt;/C&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;VTRS^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;45930&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;VICI^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;45930&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;UHS^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;45930&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;TYL^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;TT^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.6445&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;TROW^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.44&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;TMUS^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.88&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;TEL^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;SWKS^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.5262&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;STT^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.97&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;SPGI^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;4.3&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;SNA^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;4.9375&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ROST^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.5835&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;RMD^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.81&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;REGN^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;QRVO^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.7533&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;PKG^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;PG^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.7818&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;PEAK^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.16&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;PAYX^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;45989&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;NXPI^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;NUE^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.73&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;NRG^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.78&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;NKE^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;45989&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;MTD^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;13.9776&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;MRNA^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;-2.11&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;MOS^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.04&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;MMM^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;MKC^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.8414&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;MET^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.1749&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;MAR^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.58&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;LULU^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;45961&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;LMT^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;5.7956&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;LHX^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.594&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;KO^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.5266&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;KHC^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;K^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.8829&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;JBL^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;45989&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;IRM^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.61&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;IPG^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;45930&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;IFF^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.8&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;HSIC^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.38&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;HD^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;3.6191&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;HAL^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.69&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;GOOGL^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.8177&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;GIS^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;45989&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;GEHC^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.2888&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;FSLR^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;45930&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;FFIV^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;FANG^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;3.08&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;EXPE^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ESS^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.25&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;EOG^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.704&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;EL^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.87&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;XEL^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.96&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;WAT^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;4.53&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;VRSK^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.4176&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;V^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;3.0021&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;UNP^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.86&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;UDR^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.67&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;TMUS^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.8821&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;TFX^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;3.67&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;TECH^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.46&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;T^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.5283&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;SPGI^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;3.7537&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;SHW^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;SBAC^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.2017&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;RMD^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;PWR^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;PSA^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.5986&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;PODD^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.55&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;PNC^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;PAYC^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.45&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ORLY^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.71&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;OMC^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;NWSA^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.3434&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;NUE^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.64&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;NI^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.51&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;NDSN^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.37&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;MTD^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;MSFT^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;5.1552&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;MRNA^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;-2.1071&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;MET^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;MCK^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;9.5877&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;MAA^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.48&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;LYB^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;LHX^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;L^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.9439&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;KMB^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;JNJ^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ITW^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.72&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;IRM^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;INTC^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.15&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ICE^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.4878&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;HUBB^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;4.73&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;HPE^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.1073&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;GRMN^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.7283&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;GM^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;GILD^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.74&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;GD^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;FMC^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.2&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;FIS^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;45930&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;FCX^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.47&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;EVRG^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.42&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;EQR^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.982&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ENPH^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.71&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ED^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.9011&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;EA^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.3478&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;DVA^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.9359&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;DRI^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.0326&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;DOV^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.51&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;DIS^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;DGX^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.18&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;DECK^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;3.33&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;DD^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;D^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.1632&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CVS^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.09&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CTSH^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CTAS^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.2148&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CSCO^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.04&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CRM^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;45961&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CPRT^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.4132&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;COST^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;4.5&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ZION^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;WY^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;-0.09&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;WMB^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;VRTX^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;4.6509&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;V^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;UNH^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;TXT^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.73&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;TPR^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;TAP^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.2177&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;STE^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;SMCI^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.603&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;SCHW^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.39&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;RJF^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.7855&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;QRVO^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;PTC^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.3878&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;POOL^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;PLTR^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.25&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;PG^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.88&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;OXY^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;-0.0688&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;NEM^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.71&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;MSCI^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;MMC^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;META^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;MCD^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;3.12&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;MA^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;LRCX^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.2633&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;L^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;KMX^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;45989&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;KEYS^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.91&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;IT^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;3.3578&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;IPG^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.3375&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;INTC^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;HPQ^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.93&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;HCA^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;8.1401&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;GWW^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;9.44&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;GOOGL^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;FTV^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.58&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;FOXA^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;FIS^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.5048&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;EXPE^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;3.78&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;EVRG^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;EQT^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.9&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ECL^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;DVN^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;DHR^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;DD^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;-0.3046&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;D^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;45930&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CTLT^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;0&lt;/R&gt;&lt;C&gt;0&lt;/C&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CPB^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.77&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CCI^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.2723&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CB^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;8.0958&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;BXP^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.56&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;BRK.B^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;45930&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;BKNG^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;44.2201&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;WM^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.8344&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;WAT^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;TSLA^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;TER^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.8&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;T^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.52&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;SWK^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.0398&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;SRE^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.1177&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;SMCI^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;QCOM^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;3.5&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;PTC^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;PCG^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.36&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ODFL^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.09&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;NVR^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;121.5553&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;NRG^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;45930&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;MTCH^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.83&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;MS^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.68&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;MOS^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.288&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;MET^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.49&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;LIN^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;4.200359&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;KMI^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.4454&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;KEYS^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;45961&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;JPM^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;JBHT^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.9&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;HUBB^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;GL^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;3.29&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;GEHC^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;FE^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;FAST^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.26&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;EXPD^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.64&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;EIX^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.86&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;EBAY^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.41&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;DOV^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;DFS^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;4.2421&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CTVA^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.22&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CSGP^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;45930&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CRL^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.39&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;COR^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.8653&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;COF^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;45930&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CMS^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CME^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CLX^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CI^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CHD^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CEG^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;45930&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CDNS^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CCI^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CAH^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.9705&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;BSX^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.8&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;BLK^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;BIIB^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;-0.3333&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;BBWI^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.35&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;AXP^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ATO^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.4433&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;APH^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.9277&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ANET^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.82&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;AME^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ALGN^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.8919&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;AFL^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.57&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ADP^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ABT^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.0166&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ZBH^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Zimmer Biomet Holdings, Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;WRB^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;W. R. Berkley Corporation&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;VRSN^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;VeriSign, Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;TYL^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Tyler Technologies, Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;TFX^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Teleflex Incorporated&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;STLD^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Steel Dynamics, Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;RTX^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;RTX Corporation&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;PXD^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Pioneer Natural Resources Company&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;PKG^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Packaging Corporation of America&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;PEAK^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Healthpeak Properties, Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;NWS^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;News Corporation Class B&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;NCLH^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Norwegian Cruise Line Holdings Ltd.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;MNST^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Monster Beverage Corporation&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;MAR^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Marriott International, Inc. Class A&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;LH^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Labcorp Holdings Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;JPM^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;JPMorgan Chase &amp;amp; Co.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;INVH^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Invitation Homes, Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;IBM^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;International Business Machines Corporation&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;GWW^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;W.W. Grainger, Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;GDDY^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;GoDaddy, Inc. Class A&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ZBRA^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.382&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;WY^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.1025&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;VRSN^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.2268&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;USB^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.26&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;TXN^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.27&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;TMUS^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;SRE^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;45930&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ROP^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;RJF^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;QCOM^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.7841&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;PSX^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.47&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;PODD^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.4406&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;PLTR^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.2365&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;PG^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;PCG^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.2921&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;OTIS^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;NEM^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.6654&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;MS^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;MOH^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;-2.75&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;MLM^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;3.85&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;MCD^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;3.03&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;LYB^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;-0.4348&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;LRCX^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;LIN^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;KVUE^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.27&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;IT^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;IP^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;-0.08&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;INCY^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.8&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ICE^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.71&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;HCA^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;GWW^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;GOOG^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:</t>
+          <t>^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;-2.11&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;MPC^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;5.12&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;WBA^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;45807&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;VTR^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.15&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;UPS^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.0996&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;UDR^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.6665&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;TXN^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.2689&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;TSLA^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.2374&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;TRGP^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;TGT^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.78&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;TEL^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.72&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;SPG^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;9.35&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;SNA^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ROK^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.75&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;RJF^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.7855&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;REG^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;PVH^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.83&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;PSA^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.5986&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;POOL^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.84&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;PLTR^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.2365&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;PG^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;PCAR^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.0571&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ORLY^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;OKE^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.55&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;NXPI^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.8017&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;NTRS^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;NOW^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.92&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;NEE^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;XOM^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.71&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;WRB^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.13&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;WEC^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.42&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;V^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;3.0021&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;UNH^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;UAL^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;3.1&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;TFC^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.003&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;SYY^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;STZ^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;3.06&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;STE^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.9564&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;SLB^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.5453&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;RVTY^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ROP^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;5.21&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;RMD^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.6822&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;PTC^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;PPL^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.41&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;PNC^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;4.8782&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;PLD^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;PGR^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;4.582925&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;PEAK^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.1638&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;PAYX^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;45989&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ON^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.4519&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;NWSA^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;NUE^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.73&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;NSC^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.8652&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;NFLX^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;MTD^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;13.9776&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;MS^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;MOH^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;-2.75&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;MMM^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;META^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;8.88&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;MCHP^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;LYB^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;-0.26&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;LOW^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.7772&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;LH^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;4.07&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;KR^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;45961&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;KIM^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.2121&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;KEY^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.4294&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;JKHY^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.72&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;IVZ^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;IQV^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.9901&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;INCY^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.8&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ICE^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;HST^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.1955&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;HOLX^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.04&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;HBAN^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.3&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ZBRA^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.382&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;WAT^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;3.7684&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;UHS^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;7.0608&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;TMUS^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.88&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;SWKS^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.5262&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;SPGI^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;3.7537&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ROK^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.6926&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;PXD^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;0&lt;/R&gt;&lt;C&gt;0&lt;/C&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;PRU^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;PNR^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;PHM^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;PEP^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;PAYX^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.0971&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ORCL^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;45989&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;NXPI^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;NOC^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;MOS^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;-1.6367&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;MMC^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;MGM^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.6&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;MDLZ^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.5147&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;MAS^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.7971&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;LLY^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;7.0237&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;JPM^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;4.6302&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;JCI^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.8534&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;J^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;IPG^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.75&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;INTU^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.5872&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ZBH^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.42&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;TSLA^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.5&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;TECH^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;SLB^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;SBAC^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;45930&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;PEG^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.72&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;PAYC^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.45&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ON^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.64&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;NWSA^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.4&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;NTAP^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.05&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;NKE^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;45989&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;NDSN^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46052&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;MTB^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;4.6711&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;MRNA^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;-2.1071&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;MAS^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;LRCX^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.2633&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;LLY^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;LEN^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;45989&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ZBH^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.7032&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;WAT^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;VICI^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.566&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;TMUS^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;RE^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;PWR^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;PNC^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;4.88&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;PH^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;7.65&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;PEG^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.2415&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;NI^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.5349&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;NDAQ^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.96&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;MTB^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;MOS^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;MLM^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;3.85&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;MGM^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.112&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;MCO^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;MAR^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.58&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;LW^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.69&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;LKQ^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.59&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;JCI^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ISRG^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;IPG^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.3375&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;GWW^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;9.4748&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;GPN^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.8988&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;GOOG^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.8177&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;GLW^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.62&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;GILD^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.7422&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;GEHC^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.2888&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;GD^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;4.1731&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;FSLR^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;FOX^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;FITB^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;FI^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;FDX^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;45989&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;FCNCA^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;F^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;EXC^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.59&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ETR^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.51&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ES^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.12&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;EQIX^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.69&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ENPH^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.71&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;YUM^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.9107&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;WM^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.93&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;VZ^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.5529&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;V^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;3.17&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;UBER^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.142&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;TJX^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46052&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;TDY^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;6.3&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;SWK^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.41&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;SPG^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.5601&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;SHW^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.9164&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;RMD^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.81&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;PPG^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.341&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;PH^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;6.5964&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;PARA^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;-0.5172&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;NWSA^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.3434&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;NTAP^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.5099&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;NI^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;MSI^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;4.59&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;MRNA^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;MGM^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;MAR^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.6518&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;LW^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.4448&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;LRCX^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;LIN^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;4.200359&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;LDOS^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.76&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;KLAC^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;8.7271&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;KEY^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.43&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;JNPR^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.21&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;WM^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.8344&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;VTRS^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;45930&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;TSCO^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.43&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;TDY^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;5.839&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;SHW^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;RCL^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.8&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;PVH^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.0877&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;PPG^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;PH^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;PEG^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;45930&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;PARA^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;NTAP^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;45961&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;NCLH^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;45930&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;MOH^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;MLM^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;4.6116&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;MCK^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;9.34&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;LW^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;45989&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;XYL^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;WM^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;UPS^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.38&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;TRV^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;11.058&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;TGT^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.5139&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;TAP^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;STZ^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;45989&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;SEE^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.87&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;RSG^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.7598&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;RJF^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.86&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;RCL^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.7619&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;PVH^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;45961&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;POOL^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.85&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;WFC^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.6189&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;VRTX^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;5.03&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;UAL^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;TGT^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;45961&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;T^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.52&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;STX^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;SO^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.55&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ROST^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.58&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;RCL^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;PG^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.7818&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;NVR^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;121.5553&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;NFLX^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.5602&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;MRK^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.1909&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;MCK^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;LVS^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.5826&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;LOW^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46052&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;LIN^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;LDOS^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;KMX^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.4265&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;KIM^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.21&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;JNJ^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.46&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;JBL^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;45989&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;WAT^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;4.53&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;VLTO^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.014&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;SYF^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.0414&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;REGN^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;7.8567&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;PRU^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.5506&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;PNR^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.0085&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;PFE^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.66&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;PAYX^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.26&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ORCL^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.26&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;NUE^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.6376&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;MS^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.6797&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;MOS^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.22&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;MMM^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.0705&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;MHK^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;MAS^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.82&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;LULU^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;45961&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;KMI^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;K^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;45930&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;JCI^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.89&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;J^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.1192&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;INTU^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;3.34&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;GRMN^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.7283&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;GOOGL^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;GM^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;GIS^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;45989&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;GEN^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;GDDY^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;FTNT^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;FOXA^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;FITB^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.04&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;FI^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.99&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;FDX^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;4.82&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;FCNCA^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;51.27&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;F^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.13&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;EXPD^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.49&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;XYL^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.42&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;UBER^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;PLTR^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.25&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ORLY^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.71&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;NVDA^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.62&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;MTB^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;4.67&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;MPC^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;MKC^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.86&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;LVS^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.85&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;L^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.138259&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;KMI^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.4454&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;KDP^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.259&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;IVZ^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;-2.629&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;IRM^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;IP^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ILMN^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.35&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ICE^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.4878&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;GRMN^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.79&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;GILD^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;GE^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.3887&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;FTV^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;FOXA^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.82&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;FLT^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;3.75&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;FAST^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.26&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;EXR^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;EW^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.58&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;EQT^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.0769&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;EIX^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;DXCM^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.6761&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;DPZ^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;5.35&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;DLTR^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.21&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;DG^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;45961&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;DAL^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.8582&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CTSH^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.35&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;STT^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.97&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;VRTX^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;4.6509&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;TXT^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;TFX^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.93&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;STT^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.4157&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;RJF^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;PLTR^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;NVDA^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.7584&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;MSI^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;MHK^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;MCHP^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.064&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;LLY^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;7.54&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;KLAC^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;8.85&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;IR^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.96&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;INVH^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.24&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ILMN^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;IBM^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;5.8799&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;GRMN^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;GLW^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;GEV^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;13.39&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;GE^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;FT</t>
         </r>
       </text>
     </comment>
-    <comment ref="A3" authorId="0" shapeId="0" xr:uid="{F7505DB4-3348-4521-B935-806BDEB779E3}">
+    <comment ref="A3" authorId="0" shapeId="0" xr:uid="{C1A3163C-B8B7-43C0-BA51-CA63022AD10F}">
       <text>
         <r>
           <rPr>
@@ -78,11 +78,11 @@
             <rFont val="Tahoma"/>
             <charset val="1"/>
           </rPr>
-          <t>type="xsd:double"&gt;2.82&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;FTV^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;FOX^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.5193&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;FICO^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;7.33&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ETR^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.51&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;EQT^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ENPH^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.2956&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;DVA^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;3.4&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;DRI^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;45989&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;DHI^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.03&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CZR^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;-1.23&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CTLT^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;45565&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CPB^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.6488&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;DAY^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.37&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CB^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;BXP^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.5617&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;BR^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.59&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;BKNG^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;BEN^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.4617&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;BA^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;9.92&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;AVGO^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;45961&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ATO^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;AOS^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.8961&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;AMP^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;10.83&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;AMAT^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46052&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;AJG^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.5802&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ZBH^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.7&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;WELL^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;-1.859&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;WAB^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.1&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;VRSK^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.82&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;TXN^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.2689&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;TSCO^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.43&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;TER^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.63&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;T^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;SWK^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;SLB^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.78&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;SBAC^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.2&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;REGN^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;7.8567&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;QCOM^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;PLD^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.49&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;PCG^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ODFL^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;NVDA^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;45961&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;NOW^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.92&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;MTCH^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.83&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;MOH^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;-3.1372&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;MDT^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.36&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;LHX^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.86&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;KEY^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.43&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;JNPR^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;0&lt;/R&gt;&lt;C&gt;0&lt;/C&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;JBHT^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.8959&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;INCY^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;IBM^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;4.52&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;HSY^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.71&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;HPE^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.62&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;GL^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;GE^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.57&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;FTNT^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.6765&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;FDX^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;4.82&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;FAST^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;EXPD^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.6429&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;EIX^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;4.8001&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;EBAY^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;DLTR^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.21&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;DFS^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;45747&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CTVA^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;-0.8181&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CRL^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;-5.6192&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;WY^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;USB^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.2628&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;UHS^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;5.8583&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ZBH^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;WELL^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;VZ^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.09&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;UDR^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.6665&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;SYY^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.8093&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;STX^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;3.11&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;SPG^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.5601&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;SLB^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.5453&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;SBAC^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;45930&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ROL^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.2412&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;REG^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.09&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;PYPL^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.23&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;PSA^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.6&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;PKG^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.1284&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;O^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.35&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;NOC^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;10.0495&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;NDSN^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46052&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;MTCH^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;MRO^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;45565&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;MO^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.3&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;MKC^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.86&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;MDT^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.89&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;LW^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.4448&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;LNT^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.12&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;KEY^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.43&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;JNJ^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.0976&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;JBHT^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ISRG^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ILMN^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.35&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;IBM^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;5.88&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;HSY^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.575&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;WST^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.8171&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;VZ^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;VMC^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.9076&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;USB^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;TTWO^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.2280473&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;TROW^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.9881&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;TMO^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;5.21&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;TEL^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.5253&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;SYY^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;STX^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;YUM^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.73&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;WEC^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.42&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;VTRS^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;-0.1101&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;UDR^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;TJX^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.28&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;SPG^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;SHW^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.23&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;RVTY^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.8459&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ROK^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.75&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;REG^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.0871&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;PRU^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;PNW^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;3.3882&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;PHM^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.56&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;NXPI^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.8017&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;NOC^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;NDAQ^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.96&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;MTB^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;4.67&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;MO^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.6643&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;MKC^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;45989&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;MAS^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;LVS^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.85&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;LMT^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;5.8&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;KEY^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;JKHY^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.72&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;IBM^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;HST^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;HON^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.59&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;GNRC^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;-0.4196&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;GILD^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;GE^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;FSLR^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;4.2398&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;FLT^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;6.04&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;EXC^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.59&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ETN^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;EQIX^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.6937&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;DUK^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.5026&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;DIS^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.63&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;DAY^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;45930&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CTSH^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.3444&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CTAS^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;45989&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CPT^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.44&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;COP^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CNP^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CMI^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CMCSA^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CL^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CHRW^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.23&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CF^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.724529&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CDW^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.57&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CBRE^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CAG^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;-1.3854&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;BRO^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.93&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;BLDR^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;BG^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.4872&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;BDX^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.3364&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;AZO^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;31.04&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;AVB^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;APD^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;3.0426&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;AMZN^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.95&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;XYL^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.42&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;WDC^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;4.7297&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;VLTO^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;UBER^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;TRMB^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.65&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;TDY^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;5.839&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;XOM^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;WMB^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.55&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;WBD^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;45930&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;VTR^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;XEL^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.95&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;YUM^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;VTR^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.15&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;UNP^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;SWKS^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;SO^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.3719&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;RL^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;PXD^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;0&lt;/R&gt;&lt;C&gt;0&lt;/C&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;PCAR^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.06&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;NTRS^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.42&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;NFLX^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;MSFT^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;4.14&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;MOH^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;MGM^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.6&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;LRCX^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.27&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;LEN^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.9278&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;KMB^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.4981&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;J^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;IQV^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;3.42&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;IFF^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;GRMN^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.79&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;GM^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;-3.6&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;GEHC^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.44&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;FRT^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.48&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;FDS^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;45989&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;EIX^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;DXCM^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.6761&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;DPZ^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;4.08&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;DG^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;45961&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;DAL^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.55&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CMCSA^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.5963&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CE^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CCL^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.3136&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CAG^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.45&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;BX^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;BRK.B^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;14.275&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;BLDR^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.284&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;BA^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;AOS^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ALGN^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;3.29&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ADM^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ACN^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;45989&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ABNB^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;A^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;45961&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;WYNN^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Wynn Resorts, Limited&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;WELL^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Welltower Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;VTR^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Ventas, Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;V^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Visa Inc. Class A&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;SYY^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Sysco Corporation&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;STE^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;STERIS plc&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;SJM^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;J.M. Smucker Company&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ROST^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Ross Stores, Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;NDSN^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Nordson Corporation&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;MSCI^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;MSCI Inc. Class A&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;MO^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Altria Group, Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;META^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Meta Platforms Inc Class A&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;KIM^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Kimco Realty Corporation&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;JKHY^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Jack Henry &amp;amp; Associates, Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;IRM^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Iron Mountain, Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ILMN^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Illumina, Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;HSY^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Hershey Company&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;HCA^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;HCA Healthcare Inc&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;GOOGL^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Alphabet Inc. Class A&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;GEN^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Gen Digital Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CB^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Chubb Limited&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;BWA^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;BorgWarner Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;BDX^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Becton, Dickinson and Company&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;APH^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Amphenol Corporation Class A&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ALL^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Allstate Corporation&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ACN^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Accenture Plc Class A&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;DAL^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ADI^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.46&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;TFC^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Truist Financial Corporation&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;SHW^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Sherwin-Williams Company&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;VTR^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.146&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;UNH^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.11&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;TSLA^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.2374&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;TFC^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;SO^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;RVTY^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.7&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;PWR^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;3.16&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;PPG^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;PH^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;6.5964&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;PAYX^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.0971&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;OMC^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;-4.02&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;MAA^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.4835&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;KLAC^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;8.85&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;JPM^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;4.63&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;IEX^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.7152&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;HOLX^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.7929&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;FITB^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;EXR^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;45930&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;EPAM^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.98&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;EFX^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;DXCM^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CVS^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CSX^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.39&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CRM^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.1912&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CPAY^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;3.75&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;COO^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.4271&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CMS^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.9352&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CINF^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CHD^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.5989&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CB^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;7.52&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;BIO^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;26.6548&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;BF.B^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;45961&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;BBWI^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.3738&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;AVY^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.1499&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ATVI^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;45107&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;APH^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.97&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;AMZN^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.9508&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;AMGN^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;AMAT^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.38&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;AJG^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;AFL^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;AEE^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;USB^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;U.S. Bancorp&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;UAL^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;United Airlines Holdings, Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;TRV^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Travelers Companies, Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ROP^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Roper Technologies, Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;RE^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Everest Group, Ltd.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;PSX^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Phillips 66&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;PNC^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;PNC Financial Services Group, Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;PFG^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Principal Financial Group, Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;PARA^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Paramount Skydance Corporation Class B&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;O^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Realty Income Corporation&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;NSC^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Norfolk Southern Corporation&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;MET^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;MetLife, Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;MAA^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Mid-America Apartment Communities, Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;LOW^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Lowe's Companies, Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;LDOS^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Leidos Holdings, Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;GEHC^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;GE Healthcare Technologies Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;FOX^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Fox Corporation Class B&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;FE^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;FirstEnergy Corp.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;EXR^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Extra Space Storage Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ESS^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Essex Property Trust, Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;EMR^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Emerson Electric Co.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;EA^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Electronic Arts Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;DOW^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Dow, Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;DFS^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Discover Financial Services&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CVX^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Chevron Corporation&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CSGP^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;CoStar Group, Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CPAY^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Corpay, Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CMS^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;CMS Energy Corporation&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CINF^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Cincinnati Financial Corporation&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CE^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Celanese Corporation&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;BKR^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Baker Hughes Company Class A&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;AWK^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;American Water Works Company, Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;AMT^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/</t>
+          <t>NT^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.81&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;FOXA^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.5193&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;FDS^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;4.51&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;FAST^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;EXPE^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;3.78&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;EW^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.1104&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;EQR^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;EFX^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.09&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;DXCM^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;DUK^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;DLTR^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.2002&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;DFS^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;0&lt;/R&gt;&lt;C&gt;0&lt;/C&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;DAL^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CTSH^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.3444&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CSCO^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.04&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CPRT^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46052&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;COO^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.4271&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CNC^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;-2.2399&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CMA^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.27&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CHTR^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;WY^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;-0.09&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;TFX^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;-9.2432&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;STT^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;SCHW^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.39&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;RF^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.57&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;PEAK^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.16&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ORCL^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.0996&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;NEE^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.7348&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;MSCI^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;4.66&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;MHK^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.6785&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;LVS^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;KVUE^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.1719&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;K^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.93&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ITW^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.7223&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;IR^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.6723&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;WY^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.1025&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;VRSN^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.23&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;SBUX^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;RF^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.5841&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;PCAR^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.06&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;OKE^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.5478&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;NTRS^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.4234&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;MSCI^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;MNST^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.56&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;LUV^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.58&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;KVUE^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;K^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.8829&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;JBL^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.85&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ITW^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;IR^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;HWM^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.05&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;HSY^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;HPE^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.62&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;HD^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46052&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;HAL^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;FOX^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.5193&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;FDS^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;45989&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ESS^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.2507&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;EOG^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;EMN^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;EFX^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;DVN^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.9035&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;DOW^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;-0.34&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;DHI^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;DD^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;-0.3046&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CVS^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.09&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CTAS^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;45989&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CRL^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;-5.6192&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CPB^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.6488&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;COF^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;3.86&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CMG^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CINF^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;4.2921&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CF^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.724529&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;DAY^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;45930&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CAT^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;5.1215&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;BX^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.75&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;BRO^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.93&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;BLDR^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;BG^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.4872&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;BAX^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.36&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;AWK^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ARE^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;-6.349&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;AON^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;4.85&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;AMP^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;AMD^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ALB^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;-3.8731&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;AES^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.75&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ADM^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;WST^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;WY^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;UNP^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;T^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.5283&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;SLB^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.78&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;REG^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.0871&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;PODD^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.55&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;PFG^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ODFL^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.09&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;NOW^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;MTCH^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;MNST^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.5325&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;MDT^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.8864&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;LYV^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;LHX^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.594&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ISRG^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.53&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;IFF^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.07&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;HAL^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.69&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;GNRC^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;GILD^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.86&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;FICO^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;7.33&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;FDX^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;4.0466&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;FANG^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.74&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ETR^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.5141&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;EQT^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.9&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;EOG^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.3006&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;DUK^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.5026&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;DE^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.42&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;D^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.68&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CTLT^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;0&lt;/R&gt;&lt;C&gt;0&lt;/C&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CRM^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.067&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;COR^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;4.08&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;COF^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;4.8257&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CME^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CFG^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.1265&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CE^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.173&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;DAY^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;-1.2315&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CBRE^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.3873&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CAG^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;45989&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;BX^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;BRO^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;BMY^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;BKR^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;BIO^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;BF.B^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;45961&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;BBY^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;45961&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;AMZN^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.95&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ADBE^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;4.4508&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ABT^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.0303&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ZBH^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Zimmer Biomet Holdings, Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;WBD^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Warner Bros. Discovery, Inc. Series A&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;URI^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;United Rentals, Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;TRV^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Travelers Companies, Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;T^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;AT&amp;amp;T Inc&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;SMCI^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Super Micro Computer, Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;RTX^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;RTX Corporation&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;SEE^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.2573&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;PODD^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.4406&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;PFE^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;-0.2898&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;MSI^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;3.8608&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;MDT^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46052&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;KMX^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;45989&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;KDP^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;JBHT^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.9&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ISRG^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.2053&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;IFF^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;HWM^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;HSIC^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;HOLX^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.7929&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;HAL^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.7012&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;GPC^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.55&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;GM^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.51&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;FSLR^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;4.84&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;FMC^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;-13.7444&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;FICO^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;6.6104&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;FANG^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;-5.0807&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;EXPD^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.4908&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;EL^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.4441&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ED^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;DXCM^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.68&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;DOW^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;-2.1512&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;DIS^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;DG^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.28&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;DE^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46052&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;D^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.6325&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CVS^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CSGP^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.11&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;COR^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.8653&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CMS^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CL^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.95&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CHTR^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;10.3314&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CBRE^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CAT^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;BBWI^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.35&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;BA^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;9.92&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;AWK^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.22&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;AVB^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.17&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ARE^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;-6.35&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;APD^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;3.16&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;AMZN^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.9508&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;AMGN^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.4549&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;AMCR^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.3816&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ALL^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;14.3672&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;AKAM^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.5788&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;AIG^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.3452&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;TXN^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;T^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;QRVO^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;PEAK^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ODFL^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.0933&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;NOC^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;7.23&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;MSCI^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;3.811&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;MNST^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;45930&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;MDLZ^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.72&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;LHX^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;INVH^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.1466&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;IEX^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.1&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;HRL^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.34&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;HD^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.72&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;GWW^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;9.44&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;GM^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;-3.6&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;GDDY^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.8&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;FSLR^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;4.8384&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;FICO^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;EXPD^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ETR^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;EQT^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;DTE^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.65&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;DG^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.2792&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;DD^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.46&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CTVA^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.22&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CTLT^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;-0.7088&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CRM^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46052&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CPB^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.77&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;COF^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;45930&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CMCSA^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.84&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CL^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;-0.046&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CFG^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CE^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CARR^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.34&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;C^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.19&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;BWA^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.35&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;BRK.B^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;6.255748&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;BLK^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;13.16&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;BKNG^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;48.8&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;BIIB^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.99&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;BEN^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.7&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;APD^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;3.0426&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;AON^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;7.8199&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ADP^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ADBE^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;45989&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ABT^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;YUM^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Yum! Brands, Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;WBA^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Walgreens Boots Alliance, Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;UPS^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;United Parcel Service, Inc. Class B&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;TROW^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;T. Rowe Price Group, Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;SYY^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Sysco Corporation&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;STE^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;STERIS plc&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;RSG^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Republic Services, Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;PWR^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Quanta Services, Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;PHM^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;PulteGroup, Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ORCL^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Oracle Corporation&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;NOC^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Northrop Grumman Corp.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;MRO^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Marathon Oil Corporation&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;MET^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;MetLife, Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;MAA^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Mid-America Apartment Communities, Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;LEN^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Lennar Corporation Class A&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;JNPR^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Juniper Networks, Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;INTU^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Intuit Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;HPE^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Hewlett Packard Enterprise Co.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;GLW^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Corning Inc&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;FLT^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Corpay, Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;EXC^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Exelon Corporation&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;EQIX^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Equinix, Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;DTE^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;DTE Energy Company&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;D^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Dominion Energy Inc&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CPB^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Campbell's Company&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CINF^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Cincinnati Financial Corporation&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CAT^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Caterpillar Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;BK^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Bank of New York Mellon Corp&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;BBWI^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Bath &amp;amp; Body Works, Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;AVGO^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Broadcom Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;APA^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;APA Corporation&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;AMGN^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Amgen Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ALB^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Albemarle Corporation&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;TTWO^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.2280473&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;SYY^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.8093&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;SBAC^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.2&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;QCOM^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.7841&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;PNR^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.18&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ODFL^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;NOC^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;10.0495&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;MMM^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.83&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;LUV^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.6219&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;KMI^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.39&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;JBHT^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;IRM^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.2992&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;HUM^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;-3.96&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;HD^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.58&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;GPC^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;-4.3879&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;GDDY^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.7998&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;FMC^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;FDS^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;4.0564&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;FANG^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;EL^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ECL^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.08&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;DTE^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.7762&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;DOW^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;DHR^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.23&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;D^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CSGP^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CRL^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.39&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;COR^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CMI^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;5.838345&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CDW^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.57&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CCL^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.34&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CBOE^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;3.06&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;BEN^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.4617&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;BBWI^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.3738&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;BA^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;10.1182&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;AWK^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.2205&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;AVB^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.1602&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;AON^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;AMZN^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;AMGN^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;AMCR^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ALL^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;AKAM^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;AIG^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;AEP^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;AAPL^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;WMT^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Walmart Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;VRSK^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Verisk Analytics, Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;TXT^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Textron Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;TFC^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Truist Financial Corporation&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;SYK^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Stryker Corporation&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;SJM^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;J.M. Smucker Company&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;REGN^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Regeneron Pharmaceuticals, Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;PODD^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Insulet Corporation&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;WDC^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;TTWO^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;S</t>
         </r>
       </text>
     </comment>
-    <comment ref="A4" authorId="0" shapeId="0" xr:uid="{A0EA86A5-99D5-4BEA-9F86-B4D0A1AE3AFA}">
+    <comment ref="A4" authorId="0" shapeId="0" xr:uid="{0132AADB-C352-4DA8-9545-8294E68D459A}">
       <text>
         <r>
           <rPr>
@@ -92,11 +92,11 @@
             <rFont val="Tahoma"/>
             <charset val="1"/>
           </rPr>
-          <t>C&gt;&lt;D xsi:type="xsd:string"&gt;American Tower Corporation&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;AES^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;AES Corporation&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;AME^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.01&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ADSK^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.67&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ACGL^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.98&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ZTS^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Zoetis, Inc. Class A&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;WEC^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;WEC Energy Group Inc&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;TROW^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;T. Rowe Price Group, Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;SYK^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Stryker Corporation&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;SRE^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Sempra&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;NRG^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;NRG Energy, Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;NDAQ^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Nasdaq, Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;UNH^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.011&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;TRV^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;SWK^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.41&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;RVTY^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;RJF^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.86&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;PWR^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.08&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;PODD^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;PH^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;PAYC^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.0653&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;OKE^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.49&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;NTRS^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;NEE^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;MSFT^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;MGM^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.112&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;LOW^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;45961&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;LEN^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;45989&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;KLAC^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;8.7271&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;IP^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;-4.52&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;HD^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;3.74&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;GRMN^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;GLW^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.72&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;GE^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.3887&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;FRT^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.4812&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;FICO^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;6.6104&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;FCX^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.2814&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ESS^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.2507&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ED^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.9&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;DPZ^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;4.08&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;DHR^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.23&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CPAY^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CMI^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;5.838345&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CFG^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.13&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CCL^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;45989&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;BWA^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.35&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;APH^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;AON^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;4.85&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ALGN^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ABBV^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.71&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;WY^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Weyerhaeuser Company&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;VST^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Vistra Corp.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;MS^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Morgan Stanley&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;VRTX^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;5.03&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;TROW^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;TDY^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;6.3&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;STZ^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;45989&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;SNPS^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;45961&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;RTX^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.1912&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;PNW^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;3.39&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;PGR^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;4.582925&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;PAYC^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;OKE^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.4869&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;MO^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;META^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;8.88&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;MAA^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;LNT^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.09&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;LDOS^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.5349&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;KIM^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.21&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;JPM^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;4.6302&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;IVZ^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;IP^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;IEX^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;HSIC^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.8345&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;GPN^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;3.18&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;GLW^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;FOXA^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.82&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;EOG^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.71&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;DVN^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.82&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;DPZ^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;45898&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;DECK^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;3.3346&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CTSH^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.35&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CSX^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.3863&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;COO^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;45961&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CMA^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.27&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CI^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;8.08&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CDW^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.14&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CAT^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;5.16&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CAG^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;45989&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;BWA^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;-1.2654&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;BR^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.418&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;BKR^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.78&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;BIO^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;BEN^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.7&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;BBWI^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;45961&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;AZO^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;31.0386&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;AVY^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ATO^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.44&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;AON^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;7.8199&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;AMZN^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;AMAT^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.54&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;AIZ^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;5.61&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;AES^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.75&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;VRTX^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Vertex Pharmaceuticals Incorporated&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;URI^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;United Rentals, Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;SEE^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Sealed Air Corporation&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ROL^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Rollins, Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;RCL^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Royal Caribbean Group&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;PSA^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Public Storage&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;PM^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Philip Morris International Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;PFE^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Pfizer Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;OXY^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Occidental Petroleum Corporation&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;NXPI^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;NXP Semiconductors NV&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;MRO^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Marathon Oil Corporation&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;MMM^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;3M Company&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;MDT^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Medtronic Plc&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;MA^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Mastercard Incorporated Class A&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;LNT^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Alliant Energy Corporation&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;WRB^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;UBER^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.71&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;TRMB^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;STT^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.42&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;SNA^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;PVH^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.83&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;PNW^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;45930&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;NTAP^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.05&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;NDAQ^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.9003&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;MSCI^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;4.66&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;MNST^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.5325&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;L^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.138259&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;INVH^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.24&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;HD^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;45961&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;FICO^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;FCX^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;EXPD^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;45930&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ESS^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ENPH^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;DHR^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.68&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;DECK^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;D^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.06&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CRL^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CMI^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;4.2662&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CFG^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CCI^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.67&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;BKR^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.8813&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;BAX^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.36&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;APD^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;3.16&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;AME^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.7304&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ALB^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;-0.53&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;AES^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.9398&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;WMT^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.74&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;TSLA^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.5&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;TDG^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;6.6323&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ROST^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.58&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;PNC^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;4.8782&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;PEG^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.2415&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;MSCI^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;3.811&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;MLM^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;4.62&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;LKQ^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.2578&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;KMX^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.4265&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;FOXA^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.5193&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;FE^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.53&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;EXR^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.78&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;EQR^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;EL^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CVX^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;COF^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;3.86&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CINF^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;4.29&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CF^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CCL^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.34&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CARR^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.34&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;BX^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.75&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;BAC^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.98&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;AVGO^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.95&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;AMCR^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.3816&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ALB^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ADSK^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;45961&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ADBE^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;4.4508&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ABNB^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.5554&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ZBRA^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Zebra Technologies Corporation Class A&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;WMB^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Williams Companies, Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;VTRS^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Viatris, Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;UNP^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Union Pacific Corporation&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;TT^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Trane Technologies plc&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;TRMB^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;SYY^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.99&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;SO^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.55&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ROST^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;45961&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;PM^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.7&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;PEAK^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.1638&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;NI^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.5349&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;MA^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;4.76&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;JKHY^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;IR^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;HON^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;GPN^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;GEV^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;13.3723&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;DUK^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;DE^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.42&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CSGP^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;-0.0736&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CPRT^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;45961&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CNP^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.45&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CME^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.77&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CI^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;4.6444&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;BX^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.2962&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;BMY^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.5326&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;BK^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.02&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;BDX^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.2868385&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;APTV^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.86&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;AON^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;AMP^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;10.47&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;AMCR^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;AKAM^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.86&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ADBE^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;45989&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;TGT^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Target Corporation&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;SWK^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Stanley Black &amp;amp; Decker, Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;SNA^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Snap-on Incorporated&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;QCOM^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;QUALCOMM Incorporated&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;PODD^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Insulet Corporation&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;PG^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Procter &amp;amp; Gamble Company&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;WMB^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;0&lt;/R&gt;&lt;C&gt;0&lt;/C&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;SYK^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;4.47&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;SMCI^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.69&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ROL^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.24&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;PYPL^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;PM^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.3704&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;NWSA^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;NI^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;MRNA^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;LKQ^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;KIM^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.2121&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;HWM^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.05&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;GPC^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;-4.3879&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;FOX^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;FE^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;-0.0848&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;EQR^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ED^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;45930&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;DIS^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.3396&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CSCO^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.7969&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CHTR^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;10.34&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CEG^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;3.04&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CARR^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.0626&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;BMY^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;BK^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;BAC^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;AVGO^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.7423&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ALLE^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.94&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;AFL^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.64&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ADP^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.62&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ABBV^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.0237&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;YUM^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Yum! Brands, Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;WM^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Waste Management, Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;UNH^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;UnitedHealth Group Incorporated&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;TSN^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Tyson Foods, Inc. Class A&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;TER^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Teradyne, Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;MAS^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Masco Corporation&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;LMT^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Lockheed Martin Corporation&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;K^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Kellanova&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;IFF^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;International Flavors &amp;amp; Fragrances Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;HSIC^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Henry Schein, Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;GL^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Globe Life Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;FTNT^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Fortinet, Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;NTRS^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Northern Trust Corporation&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;MU^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Micron Technology, Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;MPWR^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Monolithic Power Systems, Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;MHK^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Mohawk Industries, Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;KO^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Coca-Cola Company&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;UPS^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;TRGP^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.52&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ROL^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;PM^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;PEAK^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;MRK^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.04&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;MHK^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;MA^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;4.5212&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;LH^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.98&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;JCI^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.89&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;HOLX^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.04&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;GOOGL^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.82&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;GEV^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;FMC^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;FDX^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;45989&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;EXC^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.5848&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;DTE^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.65&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;DD^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.46&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CVS^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.3046&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CNP^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.4044&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CME^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;3.24&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CBRE^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.73&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;BWA^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;BIO^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.51&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;BDX^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;AVB^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.17&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;APTV^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;-1.6329&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ANSS^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;0&lt;/R&gt;&lt;C&gt;0&lt;/C&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;AMP^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;AKAM^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.968&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ACN^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;3.94&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;TSLA^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Tesla, Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;STZ^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Constellation Brands, Inc. Class A&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;SMCI^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Super Micro Computer, Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ROK^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Rockwell Automation, Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;PYPL^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;PayPal Holdings, Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;PNW^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Pinnacle West Capital Corp&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;PEP^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;PepsiCo, Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ON^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;ON Semiconductor Corporation&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;UNP^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;3.1137&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;SYK^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.1966&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ROK^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;PARA^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;-0.05314813&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;NWS^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.4&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;MHK^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.6785&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;LW^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.69&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;LH^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;KIM^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;JCI^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;INVH^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.1466&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;HWM^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.9208&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;HBAN^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.3&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;EW^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.1568&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;EQIX^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ECL^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.08&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;DHI^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CSCO^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46052&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CPB^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;45961&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CMCSA^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.84&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CHTR^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;10.3314&lt;/D&gt;&lt;/FQL&gt;</t>
+          <t>BAC^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.2017&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;NXPI^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;3.35&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;NFLX^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.56&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;MS^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.68&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;MCK^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;9.5877&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;JPM^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;4.63&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;INTU^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;45961&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;IEX^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;HUM^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;-6.6146&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;HRL^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;-0.102&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;GWW^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;GEV^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;13.3723&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;FRT^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.48&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;FI^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.5102&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;FCX^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.47&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;EXC^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.5848&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ETN^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;3.33&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;EQR^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.982&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ENPH^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.2956&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;DVN^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.82&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CTVA^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;-0.8181&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CTLT^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;45565&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CPB^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;45961&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CNP^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.45&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CMCSA^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.5963&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CL^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CHRW^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.23&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CBOE^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.9733&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CARR^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.0626&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;C^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.1938&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;BWA^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;-1.2654&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;BRK.B^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;14.275&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;BLK^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;7.1584&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;BKNG^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;44.2201&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;BIIB^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;-0.3333&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;AVB^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ARE^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;APD^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;AEE^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.78&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ADM^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.87&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ACN^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;3.94&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ABNB^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.56&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;XYL^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Xylem Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;WAT^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Waters Corporation&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;UNP^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Union Pacific Corporation&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;TRMB^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Trimble Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;TER^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Teradyne, Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;SRE^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Sempra&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ROST^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Ross Stores, Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;PVH^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;PVH Corp.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;PH^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Parker-Hannifin Corporation&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ON^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;ON Semiconductor Corporation&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;NKE^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;NIKE, Inc. Class B&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;WBD^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;45930&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;TRV^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;SWKS^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.54&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;RSG^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.76&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;PYPL^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.23&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;PCAR^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;MLM^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;MCHP^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.44&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;LRCX^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.27&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;LEN^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.9278&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;KMB^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;JNPR^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;0&lt;/R&gt;&lt;C&gt;0&lt;/C&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;J^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.53&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;INTC^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.15&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;IDXX^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;3.08&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;HUM^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;HRL^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;45961&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;HCA^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;8.01&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;TROW^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.44&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;STLD^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;PLD^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.49&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;MKTX^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.68&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;MCD^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;KLAC^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;HUBB^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;4.1832&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;HPQ^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.81&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;GS^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;14.01&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;GEN^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.64&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;GD^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;4.17&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;FRT^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.4812&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;FFIV^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;4.45&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;FCX^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.2814&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;F^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;-2.6286&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;EXC^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ETN^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ENPH^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ECL^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;DHR^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;DFS^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;4.2421&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CZR^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;-1.2315&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CTVA^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CTAS^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.21&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CSCO^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.7969&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CPAY^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;6.04&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CNP^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.4044&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CCL^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;45989&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CBOE^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CARR^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;C^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;BWA^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;BRK.B^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;45930&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;BLK^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;BKNG^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;AZO^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;31.04&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;AVY^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.45&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ATVI^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;0&lt;/R&gt;&lt;C&gt;0&lt;/C&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;APTV^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.86&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;AFL^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.6393&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;UNP^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.86&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;TECH^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.46&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;POOL^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;PFG^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.3246&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;OMC^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;NRG^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;MTD^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;13.36&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;MO^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;MDT^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.36&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;LIN^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;3.2643&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;KMX^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.43&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;KEYS^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46052&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;IT^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;3.3578&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ILMN^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.1688&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;HAS^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.4137&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;GNRC^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;-0.4196&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;GEHC^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;FIS^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;FAST^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.2556&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;EXPE^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ES^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;EPAM^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;DPZ^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;DE^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.42&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CTRA^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;45930&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CRM^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;3.81&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;COST^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;4.5015&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CME^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;3.24&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CI^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CFG^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.13&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CE^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.67&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;DAY^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.37&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CBRE^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.73&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CAT^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;5.16&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CAG^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.45&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;BX^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.2962&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;BRO^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.59&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;BMY^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.5326&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;BKR^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.8813&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;BIO^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;26.6548&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;BF.B^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.474&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;BBY^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.6601&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;BAC^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.9698&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ABT^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.5&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ZBRA^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Zebra Technologies Corporation Class A&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;WDC^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Western Digital Corporation&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;USB^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;U.S. Bancorp&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;TSCO^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Tractor Supply Company&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;TAP^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Molson Coors Beverage Company Class B&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;SNA^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Snap-on Incorporated&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;RL^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Ralph Lauren Corporation Class A&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;PYPL^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;PayPal Holdings, Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;PLD^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Prologis, Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;OTIS^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Otis Worldwide Corporation&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;NRG^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;NRG Energy, Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;MSCI^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;MSCI Inc. Class A&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;MGM^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;MGM Resorts International&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;LUV^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Southwest Airlines Co.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;KMX^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;CarMax, Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;K^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Kellanova&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;IP^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;International Paper Company&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;HRL^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Hormel Foods Corporation&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;GNRC^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Generac Holdings Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;FOX^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Fox Corporation Class B&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;EXPE^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Expedia Group, Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;EL^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Estee Lauder Companies Inc. Class A&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;DIS^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Walt Disney Company&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;DAY^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Dayforce, Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CPT^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Camden Property Trust&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CLX^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Clorox Company&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CBOE^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Cboe Global Markets Inc&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;BKR^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Baker Hughes Company Class A&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;BDX^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Becton, Dickinson and Company&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;AWK^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;American Water Works Company, Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;APH^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Amphenol Corporation Class A&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;AMT^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;American Tower Corporation&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ALL^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Allstate Corporation&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;AES^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;AES Corporation&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ACN^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Accenture Plc Class A&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;SMCI^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;REGN^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;11.44&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;OKE^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;SPG^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;PSA^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;LHX^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.86&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;IT^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;IFF^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.8&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;HSIC^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.8535&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;HAS^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;GNRC^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.61&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;FRT^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;EVRG^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.42&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;EIX^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;4.8001&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;EA^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CSX^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CPT^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;COP^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CMI^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CLX^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CHD^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CDNS^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.4221&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CB^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;7.52&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;AXP^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;AMAT^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.38&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ALB^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;AES^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.9398&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;AAPL^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.8424&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;VLO^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Valero Energy Corporation&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;UBER^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Uber Technologies, Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;TPR^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Tapestry, Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;TDG^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;TransDigm Group Incorporated&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;SPGI^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;S&amp;amp;P Global, Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;SBUX^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Starbucks Corporation&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;RF^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Regions Financial Corporation&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;PSX^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Phillips 66&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;PLTR^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Palantir Technologies Inc. Class A&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;PEAK^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Healthpeak Properties, Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;OMC^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Omnicom Group Inc&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;MS^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Morgan Stanley&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;MMM^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;3M Company&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;MDLZ^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Mondelez International, Inc. Class A&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;LLY^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Eli Lilly and Company&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;KDP^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Keurig Dr Pepper Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;HUM^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Humana Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;GEN^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Gen Digital Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;EW^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Edwards Lifesciences Corporation&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;EBAY^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;eBay Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;DE^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Deere &amp;amp; Company&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CTRA^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Coterra Energy Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CPRT^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Copart, Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CMS^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;CMS Energy Corporation&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;C^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Citigroup Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;AVY^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Avery Dennison Corporation&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ADM^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Archer-Daniels-Midland Company&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;NDSN^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Nordson Corporation&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;MMC^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Marsh &amp;amp; McLennan Companies, Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;KO^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Coca-Cola Company&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ITW^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Illinois Tool Works Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;INTC^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Intel Corporation&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;HD^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Home Depot, Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;GOOGL^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Alphabet Inc. Class A&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;FDS^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;FactSet Research Systems Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CCL^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Carnival Corporation&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;AOS^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;A. O. Smith Corporation&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;AMD^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Advanced Micro Devices, Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;AIZ^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Assurant, Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;A^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Agilent Technologies, Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CME^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;CME Group Inc. Class A&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;COR^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Cencora, Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ATO^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Atmos Energy Corporation&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;VRTX^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;SNPS^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;3.77&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;MRK^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.04&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;LDOS^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.5349&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;JNPR^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;45838&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;IDXX^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;3.0838&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;HPQ^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.5848&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;GEHC^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.44&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;FFIV^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;3.0956&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;EVRG^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.3661&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;EQIX^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;DPZ^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;5.349&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;DGX^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.42&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CSGP^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.31&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CMG^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.25&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CINF^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;3.37&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;BKR^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.78&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;BG^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;BAX^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;-2.1595&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ATO^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.4433&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;AOS^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.9&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;AMT^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;AMAT^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.5357&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;AKAM^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.84&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ADM^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.9422&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ACGL^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;3.3497&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;A^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.36&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;WYNN^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Wynn Resorts, Limited&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;UAL^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;United Airlines Holdings, Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;REG^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Regency Centers Corporation&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;PCG^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;PG&amp;amp;E Corporation&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;NTAP^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;NetApp, Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;LYB^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;LyondellBasell Industries NV&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;EOG^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;EOG Resources, Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;DOV^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Dover Corporation&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CTLT^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Catalent Inc&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CHTR^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Charter Communications, Inc. Class A&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;BLDR^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Builders FirstSource, Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CZR^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Caesars Entertainment, Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;BAC^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Bank of America Corp&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ALLE^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Allegion Public Limited Company&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;VMC^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;SNA^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;4.9375&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;NVR^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;MAR^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;IQV^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;3.42&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;EVRG^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;DVN^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CPRT^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.36&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;COO^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.15&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CMG^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.2507&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CDNS^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CB^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;8.0958&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;BXP^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.56&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ATO^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;AJG^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.38&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;AES^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;45930&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;WY^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Weyerhaeuser Company&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;VICI^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;VICI Properties Inc&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;TYL^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Tyler Technologies, Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;TMUS^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;T-Mobile US, Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;SPG^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Simon Property Group, Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;SBAC^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;SBA Communications Corp. Class A&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;PSA</t>
         </r>
       </text>
     </comment>
-    <comment ref="A5" authorId="0" shapeId="0" xr:uid="{C23983E9-D20D-413F-922A-499BA965046E}">
+    <comment ref="A5" authorId="0" shapeId="0" xr:uid="{A7600560-5DAB-4CA6-89AA-976911F8508A}">
       <text>
         <r>
           <rPr>
@@ -106,11 +106,11 @@
             <rFont val="Tahoma"/>
             <charset val="1"/>
           </rPr>
-          <t>&lt;FQL&gt;&lt;Q&gt;CEG^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.9712&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CARR^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;BSX^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.4493&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;BLK^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;13.16&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;BIIB^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.99&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;BA^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;10.1182&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;AMGN^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;5.29&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ALLE^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.7032&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;AES^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;45930&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ADP^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.6242&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ACN^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;3.5359&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ABBV^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;XYL^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Xylem Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;WFC^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Wells Fargo &amp;amp; Company&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;VRSK^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Verisk Analytics, Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ULTA^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Ulta Beauty Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;TEL^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;TE Connectivity plc&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;SLB^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;SLB Limited&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;LLY^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Eli Lilly and Company&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;IEX^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;IDEX Corporation&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;HRL^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Hormel Foods Corporation&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;GS^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Goldman Sachs Group, Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;GIS^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;General Mills, Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;FSLR^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;First Solar, Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;AVB^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.1602&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ANSS^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.5885&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;AKAM^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;45930&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;TSCO^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Tractor Supply Company&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;STX^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Seagate Technology Holdings PLC&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;RMD^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;ResMed Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;PNR^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Pentair plc&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;PEG^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Public Service Enterprise Group Inc&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;OMC^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Omnicom Group Inc&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;NTAP^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;NetApp, Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;MPC^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Marathon Petroleum Corporation&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;KMX^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;CarMax, Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;HPQ^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;HP Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;FFIV^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;F5, Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;WEC^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.97&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;TPR^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.6753999999999998&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;SYF^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;SHW^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.92&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;PTC^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.92&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;NWS^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.3434&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;NDAQ^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;MHK^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;LW^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;45989&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;LEN^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.93&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;KHC^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.5484&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;JBL^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.3481&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;HUM^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;-3.96&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;GOOG^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.8177&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;GDDY^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.51&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;FDS^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;4.0564&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;DTE^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CRWD^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.96&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;COST^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;4.5015&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CE^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.173&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CBRE^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.3873&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CAH^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.63&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;BBY^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.4&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;AZO^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;45989&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;APTV^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;45930&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;MTD^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Mettler-Toledo International Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;MGM^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;MGM Resorts International&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;JNPR^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Juniper Networks, Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;IR^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Ingersoll Rand Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;TMO^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;6.57&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;SWKS^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.54&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;RL^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;6.22&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;PARA^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;-0.2341&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;NWS^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;NCLH^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.2&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;MPWR^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;4.79&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;INTU^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;45961&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;HUM^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;HBAN^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.3032&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;GNRC^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.61&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;GD^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;4.17&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;FLT^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;3.75&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;FCNCA^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;45.7817&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;EW^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;EPAM^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;3.26&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ECL^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.98&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;DGX^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.42&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;DAY^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;-1.2315&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CTRA^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.41&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CNC^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;-1.19&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CMA^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CAH^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;UAL^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;3.1&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;TJX^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.2806&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;SEE^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.87&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;RL^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;5.8135&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;PRU^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.5506&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;NVR^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;121.54&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;MDLZ^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.5147&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;LVS^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.5826&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;J^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.1192&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;DRI^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.08&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CRWD^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;-0.1353&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;COST^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;45989&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CHRW^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.1205&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CDW^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;BLDR^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.12&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;BBY^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.6601&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;AXP^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;3.53&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;AJG^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.38&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ADM^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.87&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;AAPL^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.8424&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;WBD^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Warner Bros. Discovery, Inc. Series A&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;TDY^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Teledyne Technologies Incorporated&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;STT^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;State Street Corporation&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;SCHW^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Charles Schwab Corp&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;RL^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Ralph Lauren Corporation Class A&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;PVH^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;PVH Corp.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;PLTR^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Palantir Technologies Inc. Class A&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;UAL^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;3.1927&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;TJX^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;45961&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;STT^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;PHM^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.5621&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;PARA^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;45930&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;NUE^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;NCLH^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.8458&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;MPWR^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;3.46&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;MDLZ^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;KVUE^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.17&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ITW^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.7223&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;INTC^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;-0.1217&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;HUBB^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;4.1832&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;HAS^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.41&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;GD^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;4.1731&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;FLT^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;FCNCA^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;EVRG^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.3661&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;EMR^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.46&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;EA^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;4.875692&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;DOW^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;-2.1512&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;DGX^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CTRA^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.4185&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CNC^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;-2.2399&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CLX^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.39&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CBOE^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;3.06&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;C^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.19&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;BG^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.99&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ATVI^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;0&lt;/R&gt;&lt;C&gt;0&lt;/C&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;APD^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ANET^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.75&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;AMD^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.53&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ALL^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;14.31&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;AIZ^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;4.41&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;AEP^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.0714&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ACGL^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;AAPL^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;XEL^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Xcel Energy Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;WBA^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Walgreens Boots Alliance, Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;VLTO^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Veralto Corporation&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;UDR^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;UDR, Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;TRGP^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Targa Resources Corp.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;MOH^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Molina Healthcare, Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;LIN^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Linde plc&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;KMB^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Kimberly-Clark Corporation&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;JCI^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Johnson Controls International plc&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;IPG^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Interpublic Group of Companies, Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ICE^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Intercontinental Exchange, Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;HON^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Honeywell International Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;GPN^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Global Payments Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;GEV^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;GE Vernova Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;LW^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Lamb Weston Holdings, Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;WAT^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;3.77&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;TYL^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.505&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;TGT^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;45961&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;STLD^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.82&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;SEE^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.2573&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;PPL^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.48&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;PGR^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;0&lt;/R&gt;&lt;C&gt;0&lt;/C&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ORLY^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.71&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;NTRS^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.6365135&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;MPWR^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;MCO^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;3.64&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;LVS^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;KVUE^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;IT^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;3.94&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;HSIC^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;45930&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;HAL^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.7012&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;EMR^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.0725&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CRM^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;3.25&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;COR^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;4.08&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CHRW^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CDNS^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.99&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;BRO^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.59&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;BBY^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;45961&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;AXP^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;3.5305&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ALL^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;14.3672&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;AIZ^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ADM^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.9422&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;UBER^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Uber Technologies, Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;TDG^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;TransDigm Group Incorporated&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;SBUX^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Starbucks Corporation&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;RJF^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Raymond James Financial, Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;PTC^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;PTC Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;PLD^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Prologis, Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;PCAR^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;PACCAR Inc&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ODFL^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Old Dominion Freight Line, Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;NKE^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;NIKE, Inc. Class B&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;MTB^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;M&amp;amp;T Bank Corporation&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;MDLZ^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Mondelez International, Inc. Class A&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;STE^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.53&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;REG^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;PFE^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.66&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ORLY^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;NSC^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;MPC^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;LULU^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.59&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;KO^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.58&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;GL^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;3.39&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;FTV^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.9&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;FITB^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.04&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;FANG^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;3.5108&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ETR^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.51&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;EA^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;DOW^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;DG^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.28&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CTRA^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;45930&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;COP^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.02&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CNC^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CLX^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.2878&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CBOE^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.97&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;C^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.1938&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;BKR^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;BG^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;BAX^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;-2.1595&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ATVI^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.7393&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;APA^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.93&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ANET^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;AMD^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.9163&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;AEP^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ADI^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.6898&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ABT^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.5&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;A^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.59&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;WTW^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Willis Towers Watson Public Limited Company&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;WAT^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Waters Corporation&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;VLO^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Valero Energy Corporation&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;TXT^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Textron Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;TPR^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Tapestry, Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;SPGI^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;S&amp;amp;P Global, Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;RF^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Regions Financial Corporation&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;NWSA^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;News Corporation Class A&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;LHX^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;L3Harris Technologies Inc&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;KLAC^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;KLA Corporation&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;VMC^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;TXN^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;TFX^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;-9.2432&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;SEE^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;45930&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;PPL^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.4272&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;PFE^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;-0.2898&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ON^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.64&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;MTD^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;13.36&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;MCK^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;9.34&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;LULU^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.5882&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;KDP^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;45930&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ISRG^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.53&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ILMN^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;HRL^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.32&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;HAL^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;GIS^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.7687&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;FI^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.99&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;VLTO^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.04&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;TTWO^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;-0.5022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;STE^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.9564&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;RE^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;13.26&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;PFE^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;NRG^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.6923&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;MMC^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.12&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;LMT^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;KO^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;K^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;45930&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;IFF^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.07&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;F^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;-2.6286&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;EMN^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;DXCM^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.68&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;DG^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.2792&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CTAS^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.21&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CPT^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;COP^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.1646&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CBOE^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;BRK.B^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;6.255748&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;BKNG^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;48.8&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;BF.B^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.47&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;BAX^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;AWK^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.2205&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ARE^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;-6.35&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;APA^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.5726&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;AMT^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.82&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;AMD^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ADI^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46052&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;A^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.5282&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;WST^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;West Pharmaceutical Services, Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;WAB^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Westinghouse Air Brake Technologies Corporation&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;VICI^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;VICI Properties Inc&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;TXN^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Texas Instruments Incorporated&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;TMUS^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;T-Mobile US, Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;REGN^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Regeneron Pharmaceuticals, Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;MSFT^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Microsoft Corporation&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;TT^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.86&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;TDY^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;RTX^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;RE^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;10.77&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;PPL^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;45930&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ON^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.4519&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;NOW^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.383&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;MCK^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;IR^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.96&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;HRL^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;-0.102&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;GWW^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;9.44&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;FTNT^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ES^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.12&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;DOV^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.0616&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CZR^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CMG^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.25&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;VLO^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;3.82&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;TSN^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;RE^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;PNR^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.18&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;PEP^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.26&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;MMC^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.6755&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;MCHP^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;LLY^FE_ESTIMATE(EPS,</t>
+          <t>^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Public Storage&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;PCAR^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;PACCAR Inc&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;OKE^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;ONEOK, Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;NDAQ^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Nasdaq, Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;MCO^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Moody's Corporation&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;LKQ^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;LKQ Corporation&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;JPM^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;JPMorgan Chase &amp;amp; Co.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;IT^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Gartner, Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;HUBB^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Hubbell Incorporated&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;HCA^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;HCA Healthcare Inc&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;GEHC^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;GE Healthcare Technologies Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;FMC^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;FMC Corporation&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;FCX^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Freeport-McMoRan, Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;EVRG^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Evergy, Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;EA^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Electronic Arts Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;DD^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;DuPont de Nemours, Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CMI^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Cummins Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;BXP^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;BXP Inc&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;BBY^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Best Buy Co., Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ADI^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Analog Devices, Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CHRW^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;C.H. Robinson Worldwide, Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;AVB^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;AvalonBay Communities, Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;AON^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Aon Plc Class A&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;AMCR^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Amcor PLC&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;AIG^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;American International Group, Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;PPL^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;PPL Corporation&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;KMB^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Kimberly-Clark Corporation&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;JNJ^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Johnson &amp;amp; Johnson&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;HST^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Host Hotels &amp;amp; Resorts, Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;FITB^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Fifth Third Bancorp&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;COST^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Costco Wholesale Corporation&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CBRE^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;CBRE Group, Inc. Class A&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ATVI^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Activision Blizzard, Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;VLTO^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;PLD^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.4946&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;MAA^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.48&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;KVUE^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.27&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;IDXX^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;HPE^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.1073&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;GS^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;14.0109&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;GLW^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.72&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;FFIV^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;EPAM^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;3.26&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;DOV^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.51&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;DGX^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.18&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CSCO^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46052&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CPRT^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.36&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CINF^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CF^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.5881&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;BF.B^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.47&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;BAX^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;AVY^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.1499&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;AOS^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.8961&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;AMP^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;10.83&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;AMAT^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46052&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;AJG^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.5802&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;AEP^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.19&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ACGL^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;A^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.07&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;WAB^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Westinghouse Air Brake Technologies Corporation&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;TXN^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Texas Instruments Incorporated&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;RVTY^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Revvity, Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;RE^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Everest Group, Ltd.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;PKG^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Packaging Corporation of America&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ODFL^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Old Dominion Freight Line, Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;NSC^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Norfolk Southern Corporation&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;MRNA^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Moderna, Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;MLM^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Martin Marietta Materials, Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;LW^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Lamb Weston Holdings, Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;KMI^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Kinder Morgan Inc Class P&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;INCY^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Incyte Corporation&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;GOOG^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Alphabet Inc. Class C&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;GE^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;GE Aerospace&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;FCNCA^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;First Citizens BancShares, Inc. Class A&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ENPH^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Enphase Energy, Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;DLTR^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Dollar Tree, Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CTAS^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Cintas Corporation&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CPAY^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Corpay, Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CCI^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Crown Castle Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;LHX^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;L3Harris Technologies Inc&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;FAST^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Fastenal Company&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;BWA^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;BorgWarner Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;AMAT^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Applied Materials, Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;PAYC^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Paycom Software, Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;FIS^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Fidelity National Information Services, Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CSGP^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;CoStar Group, Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;BSX^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Boston Scientific Corporation&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ANET^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Arista Networks, Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;SMCI^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.603&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;PKG^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.32&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;NVDA^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46052&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;MRK^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;MA^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;4.76&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;JNJ^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.0976&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ICE^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.71&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;HPE^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;45961&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;GE^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.57&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;FOX^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.82&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;FE^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.53&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;EXR^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.36&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ETN^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.91&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;EPAM^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.98&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;EFX^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.4374&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;DVA^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;3.4&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;DOV^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.0616&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;DGX^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;DAL^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.55&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CTSH^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CRWD^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.96&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;COO^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;45961&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CF^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CB^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;BXP^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.5617&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;BR^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.59&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;APTV^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;-1.6329&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;AOS^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;AJG^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;AEP^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.0714&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ADI^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.46&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;WTW^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Willis Towers Watson Public Limited Company&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;V^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Visa Inc. Class A&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;TTWO^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Take-Two Interactive Software, Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;TMO^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Thermo Fisher Scientific Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;SYF^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Synchrony Financial&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;SO^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Southern Company&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;PRU^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Prudential Financial, Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;PAYX^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Paychex, Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;NCLH^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Norwegian Cruise Line Holdings Ltd.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;MRK^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Merck &amp;amp; Co., Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;MCK^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;McKesson Corporation&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;LIN^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Linde plc&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ISRG^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Intuitive Surgical, Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;HSY^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Hershey Company&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;HBAN^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Huntington Bancshares Incorporated&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ETR^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Entergy Corporation&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;DXCM^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;DexCom, Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;DAL^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Delta Air Lines, Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CSX^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;CSX Corporation&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CMG^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Chipotle Mexican Grill, Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CHD^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Church &amp;amp; Dwight Co., Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;BX^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Blackstone Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;BKNG^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Booking Holdings Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ADBE^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Adobe Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;UPS^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ROST^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.5835&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;PHM^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.5621&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;NSC^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;3.22&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;MPWR^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;4.79&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;KR^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.05&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;JNJ^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;GS^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;GL^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;3.39&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;FE^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;-0.0848&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;EXR^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.2981&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ESS^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.25&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;EOG^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.27&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CTRA^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.41&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CME^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.77&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CI^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;8.08&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CCL^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.3136&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;BK^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.02&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;BAC^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.98&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;AVY^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ANSS^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;0&lt;/R&gt;&lt;C&gt;0&lt;/C&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;AMP^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;10.4673&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ALLE^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.94&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;A^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46052&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;WST^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;West Pharmaceutical Services, Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;VZ^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Verizon Communications Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;RCL^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Royal Caribbean Group&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;O^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Realty Income Corporation&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;MU^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Micron Technology, Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;MKTX^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;MarketAxess Holdings Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;LVS^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Las Vegas Sands Corp.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ILMN^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Illumina, Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;GDDY^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;GoDaddy, Inc. Class A&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;EMR^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Emerson Electric Co.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;DHR^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Danaher Corporation&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;BAX^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Baxter International Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ANSS^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;ANSYS, Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;AFL^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Aflac Incorporated&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;MTD^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Mettler-Toledo International Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;KLAC^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;KLA Corporation&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;IRM^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Iron Mountain, Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;HAS^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Hasbro, Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;DVN^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Devon Energy Corporation&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CFG^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Citizens Financial Group, Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;BIO^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Bio-Rad Laboratories, Inc. Class A&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ACGL^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Arch Capital Group Ltd.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ROST^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;45961&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;MA^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;4.5212&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;KR^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;-2.0168&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;IPG^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;45930&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;IBM^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;HON^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.59&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;GL^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;3.293&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;FMC^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.2&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ED^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.89&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;DVA^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.9359&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;DOV^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;DFS^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;45747&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CRWD^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;-0.1353&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CPAY^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;3.75&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CEG^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.3&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;BXP^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;BR^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.418&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;BEN^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;AVGO^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.95&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;APTV^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;45930&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ANSS^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.5885&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;AMGN^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;5.29&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ALLE^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.7032&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;AIZ^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;5.61&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;AEE^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.9207&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ADI^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.6898&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;WRB^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;W. R. Berkley Corporation&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;VTRS^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Viatris, Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;TT^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Trane Technologies plc&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;TJX^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;TJX Companies Inc&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;SWKS^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Skyworks Solutions, Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;SNPS^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Synopsys, Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ROP^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Roper Technologies, Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;PPG^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;PPG Industries, Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;PGR^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Progressive Corporation&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;NOW^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;ServiceNow, Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;MPWR^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Monolithic Power Systems, Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;MCHP^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Microchip Technology Incorporated&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;LH^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Labcorp Holdings Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;GM^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;General Motors Company&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;GD^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;General Dynamics Corporation&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ETN^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Eaton Corp. Plc&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CMCSA^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Comcast Corporation Class A&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;TRGP^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.542577&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;LYV^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;-1.06&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;IP^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;-0.08&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;HON^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.462&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;GL^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;GD^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;FLT^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;6.04&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;FE^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ESS^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ED^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.82&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CZR^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;-1.23&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CTRA^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.4185&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CI^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;4.6444&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CEG^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.3802&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CCI^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.67&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;BR^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;BK^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.0237&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;BDX^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.2868385&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;BAC^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;AME^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.01&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ALLE^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;AIZ^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;4.4448&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ABNB^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.5554&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ZTS^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Zoetis, Inc. Class A&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;WMB^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Williams Companies, Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;TGT^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Target Corporation&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;QRVO^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Qorvo, Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;PARA^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Paramount Skydance Corporation Class B&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;NXPI^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;NXP Semiconductors NV&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;MTCH^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Match Group, Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;MKC^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;McCormick &amp;amp; Company, Incorporated&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;JKHY^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Jack Henry &amp;amp; Associates, Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;IFF^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;International Flavors &amp;amp; Fragrances Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;HSIC^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Henry Schein, Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;HAL^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Halliburton Company&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;FANG^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Diamondback Energy, Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;EMN^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Eastman Chemical Company&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;DVA^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;DaVita Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;DHI^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;D.R. Horton, Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;TPR^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.69&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;NDSN^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.3764&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;MKTX^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;KIM^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;IVZ^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.62&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;HSY^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.71&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;HCA^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;GPC^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;GIS^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.7687&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;FTV^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.5814&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ES^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.12&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;EBAY^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.1478&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;DTE^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;DIS^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.63&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;DECK^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;3.3346&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CTAS^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.2148&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;COST^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;4.5&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CNC^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;-1.19&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CMA^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.27&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CHRW^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.1205&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;BIO^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.51&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;BDX^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;AZO^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;31.0386&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;APH^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.9277&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ANET^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.82&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;AME^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ALGN^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.8919&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;AIG^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.96&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;VST^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Vistra Corp.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ULTA^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Ulta Beauty Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;TSLA^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Tesla, Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;TEL^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;TE Connectivity plc&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;STZ^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Constellation Brands, Inc. Class A&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;SHW^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Sherwin-Williams Company&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ROK^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Rockwell Automation, Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;PFG^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Principal Financial Group, Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;NWS^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;News Corporation Class B&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;NI^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;NiSource Inc&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;MOS^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Mosaic Company&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;LOW^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Lowe's Companies, Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;KHC^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Kraft Heinz Company&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;IQV^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;IQVIA Holdings Inc&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;IDXX^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;IDEXX Laboratories, Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;HPQ^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;HP Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;GS^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Goldman Sachs Group, Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;FI^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Fiserv, Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ES^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Eversource Energy&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;EIX^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Edison International&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;DG^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Dollar General Corporation&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CRWD^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;CrowdStrike Holdings, Inc. Class A&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;COO^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Cooper Companies, Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;BRK.B^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D x</t>
         </r>
       </text>
     </comment>
-    <comment ref="A6" authorId="0" shapeId="0" xr:uid="{7661CA85-0F58-4BF7-BD8F-1AE3B560C5D2}">
+    <comment ref="A6" authorId="0" shapeId="0" xr:uid="{5F4F1721-CA27-4864-8F23-89FAF27C0847}">
       <text>
         <r>
           <rPr>
@@ -120,11 +120,11 @@
             <rFont val="Tahoma"/>
             <charset val="1"/>
           </rPr>
-          <t>MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;7.54&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;KMX^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.43&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;VLO^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;TDG^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;8.23&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;RSG^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;QRVO^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.17&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;PEG^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.13&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;NKE^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.5348&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;MCD^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;JKHY^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.7216&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;IR^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.6723&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;HPE^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;45961&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;GPN^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.9169&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;GEV^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;13.477591&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;DUK^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.5&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;DLTR^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.2002&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;COO^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.15&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;AVY^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.45&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;AMGN^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.4549&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;AEE^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.78&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;UPS^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;United Parcel Service, Inc. Class B&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;SYF^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Synchrony Financial&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;NUE^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Nucor Corporation&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;MRK^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Merck &amp;amp; Co., Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;IP^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;International Paper Company&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;HUBB^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Hubbell Incorporated&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;F^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Ford Motor Company&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;EQR^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Equity Residential&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ECL^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Ecolab Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;DAY^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Dayforce, Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CLX^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Clorox Company&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;C^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Citigroup Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;BKNG^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Booking Holdings Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ARE^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Alexandria Real Estate Equities, Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;AMGN^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Amgen Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;AIZ^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Assurant, Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ACGL^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Arch Capital Group Ltd.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;GE^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;GE Aerospace&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;FIS^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Fidelity National Information Services, Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;EQIX^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Equinix, Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;DLTR^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Dollar Tree, Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;DAL^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Delta Air Lines, Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CSCO^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Cisco Systems, Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CDNS^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Cadence Design Systems, Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;BAC^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Bank of America Corp&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;AME^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;AMETEK, Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;AIG^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;American International Group, Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CZR^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Caesars Entertainment, Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;BIO^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Bio-Rad Laboratories, Inc. Class A&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CL^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;-0.046&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;PWR^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Quanta Services, Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;JBHT^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;J.B. Hunt Transport Services, Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;HPE^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Hewlett Packard Enterprise Co.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CVS^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;CVS Health Corporation&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CNP^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;CenterPoint Energy, Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;AEP^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;American Electric Power Company, Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CVX^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.39&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;WMT^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Walmart Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;MLM^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Martin Marietta Materials, Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CRL^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Charles River Laboratories International, Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;BIIB^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Biogen Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;AMAT^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Applied Materials, Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;FFIV^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;3.0956&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;FDS^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;FactSet Research Systems Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;F^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;APA^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;45930&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;TMO^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Thermo Fisher Scientific Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;MKC^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;McCormick &amp;amp; Company, Incorporated&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;KHC^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Kraft Heinz Company&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;GM^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;General Motors Company&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;EMN^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Eastman Chemical Company&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CFG^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Citizens Financial Group, Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;BF.B^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Brown-Forman Corporation Class B&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ADSK^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Autodesk, Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ITW^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Illinois Tool Works Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;HD^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Home Depot, Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ETR^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Entergy Corporation&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;DTE^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;DTE Energy Company&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;DECK^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Deckers Outdoor Corporation&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ANSS^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;45747&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;VZ^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Verizon Communications Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;RVTY^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Revvity, Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;FMC^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;FMC Corporation&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;FCNCA^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;First Citizens BancShares, Inc. Class A&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CME^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;CME Group Inc. Class A&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;EMN^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.75&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;BMY^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.26&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;PHM^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;PulteGroup, Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;LKQ^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;LKQ Corporation&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CMCSA^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Comcast Corporation Class A&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ATVI^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Activision Blizzard, Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;EL^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.4441&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;AWK^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.22&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;VMC^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Vulcan Materials Company&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;IQV^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;IQVIA Holdings Inc&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;FLT^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Corpay, Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CTLT^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Catalent Inc&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;BLK^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;BlackRock, Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;AKAM^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Akamai Technologies, Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;AIG^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;AAPL^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.84&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;TAP^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Molson Coors Beverage Company Class B&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;MRNA^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Moderna, Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;KDP^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Keurig Dr Pepper Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ED^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Consolidated Edison, Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ATO^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Atmos Energy Corporation&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;DOV^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Dover Corporation&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CAT^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;5.1215&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;BK^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.02&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;AEE^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.9207&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ZION^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Zions Bancorporation NA&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;REG^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Regency Centers Corporation&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;NOW^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;ServiceNow, Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;MOS^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Mosaic Company&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;MCD^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;McDonald's Corporation&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;LEN^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Lennar Corporation Class A&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;JNJ^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Johnson &amp;amp; Johnson&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;GRMN^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Garmin Ltd.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;EXPE^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Expedia Group, Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;COO^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Cooper Companies, Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;APA^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;APA Corporation&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CZR^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;-1.2315&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;FTV^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Fortive Corp.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;DVN^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Devon Energy Corporation&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ORLY^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;O'Reilly Automotive, Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;IDXX^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;IDEXX Laboratories, Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CMG^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Chipotle Mexican Grill, Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CSX^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;OKE^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;ONEOK, Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;AIG^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.96&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;DRI^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Darden Restaurants, Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CDNS^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.4221&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;MCO^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Moody's Corporation&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;IDXX^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;3.08&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CAT^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;BIIB^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ADSK^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.5954&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;UHS^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Universal Health Services, Inc. Class B&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;SWKS^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Skyworks Solutions, Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;PCG^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;PG&amp;amp;E Corporation&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;NOC^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Northrop Grumman Corp.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;L^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Loews Corporation&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;INTU^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Intuit Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;HST^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Host Hotels &amp;amp; Resorts, Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;EBAY^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;eBay Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;D^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Dominion Energy Inc&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CRWD^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;CrowdStrike Holdings, Inc. Class A&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CL^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Colgate-Palmolive Company&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;BXP^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;BXP Inc&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;BK^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Bank of New York Mellon Corp&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;APTV^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Aptiv PLC&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ABT^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Abbott Laboratories&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;AFL^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Aflac Incorporated&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;NFLX^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Netflix, Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;LYB^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;LyondellBasell Industries NV&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;FI^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Fiserv, Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;EXC^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Exelon Corporation&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;DXCM^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;DexCom, Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CRM^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Salesforce, Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;AMCR^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Amcor PLC&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;BF.B^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.474&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ARE^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ALLE^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;TTWO^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Take-Two Interactive Software, Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;LVS^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Las Vegas Sands Corp.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;BSX^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Boston Scientific Corporation&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;BEN^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;GOOG^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Alphabet Inc. Class C&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;EW^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Edwards Lifesciences Corporation&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;AXP^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;American Express Company&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ADBE^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;5.5&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;PPL^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;PPL Corporation&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;KMI^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Kinder Morgan Inc Class P&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;DVA^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;DaVita Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CNC^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Centene Corporation&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;AVY^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Avery Dennison Corporation&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;AEE^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Ameren Corporation&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ALLE^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Allegion Public Limited Company&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;PPG^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;PPG Industries, Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;IVZ^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Invesco Ltd.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CTSH^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Cognizant Technology Solutions Corporation Class A&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;BRK.B^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Berkshire Hathaway Inc. Class B&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;AVGO^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Broadcom Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ETN^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;3.33&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;BAC^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.98&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;SBAC^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;SBA Communications Corp. Class A&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;MTCH^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Match Group, Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;KEYS^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Keysight Technologies Inc&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;BEN^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Franklin Resources, Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ALGN^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Align Technology, Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ES^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ABT^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CPB^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Campbell's Company&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;AIG^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.3452&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;NVR^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;NVR, Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;HWM^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Howmet Aerospace Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;COST^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Costco Wholesale Corporation&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ALB^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Albemarle Corporation&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;BLK^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;7.16&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;MCK^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;McKesson Corporation&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;GILD^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Gilead Sciences, Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ES^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Eversource Energy&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;EFX^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Equifax Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;RSG^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Republic Services, Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;EQT^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;EQT Corporation&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CMA^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Comerica Incorporated&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CMG^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.2507&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;AMCR^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.86&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;XOM^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Exxon Mobil Corporation&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;QRVO^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Qorvo, Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;PAYX^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Paychex, Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;NI^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;NiSource Inc&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;LYV^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Live Nation Entertainment, Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;KVUE^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Kenvue, Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;JBL^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Jabil Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;FICO^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Fair Isaac Corporation&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;EXPD^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Expeditors International of Washington, Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;EPAM^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;EPAM Systems, Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;DIS^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Walt Disney Company&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;COF^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Capital One Financial Corp&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CCL^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Carnival Corporation&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;BX^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Blackstone Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;BA^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Boeing Company&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;APD^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Air Products and Chemicals, Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;AMD^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Advanced Micro Devices, Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;PAYC^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Paycom Software, Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;MMC^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Marsh &amp;amp; McLennan Companies, Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;INTC^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Intel Corporation&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;GPC^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Genuine Parts Company&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;GD^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;General Dynamics Corporation&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;DHR^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Danaher Corporation&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CI^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Cigna Group&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ABNB^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Airbnb, Inc. Class A&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;SO^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Southern Company&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;KR^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Kroger Co.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CCI^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Crown Castle Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;PRU^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Prudential Financial, Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;OTIS^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Otis Worldwide Corporation&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;FDX^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;FedEx Corporation&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CHRW^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;C.H. Robinson Worldwide, Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;TRMB^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Trimble Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;LUV^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Southwest Airlines Co.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;GNRC^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Generac Holdings Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;DGX^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Quest Diagnostics Incorporated&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CTVA^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Corteva Inc&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;AAPL^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Apple Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;BRO^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ANSS^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;ANSYS, Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;AOS^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.9&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;EL^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Estee Lauder Companies Inc. Class A&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CPRT^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Copart, Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ADP^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Automatic Data Processing, Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;BR^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;TJX^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;TJX Companies Inc&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;EIX^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Edison International&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;BR^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Broadridge Financial Solutions, Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ADM^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Archer-Daniels-Midland Company&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ABNB^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.56&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;KEY^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;KeyCorp&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ISRG^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Intuitive Surgical, Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;HBAN^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Huntington Bancshares Incorporated&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;AJG^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Arthur J. Gallagher &amp;amp; Co.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;COP^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;ConocoPhillips&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CAG^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Conagra Brands, Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;DE^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.42&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CL^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.95&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;C^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ARE^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;-6.349&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;SPG^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Simon Property Group, Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;EOG^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;EOG Resources, Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;DHI^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;D.R. Horton, Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CHTR^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Charter Communications, Inc. Class A&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;AZO^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;AutoZone, Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;BXP^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ALL^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;NEM^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Newmont Corporation&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;INCY^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Incyte Corporation&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CBRE^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;CBRE Group, Inc. Class A&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;AOS^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;A. O. Smith Corporation&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ABBV^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;AbbVie, Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;SNPS^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Synopsys, Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;J^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Jacobs Solutions Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ENPH^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Enphase Energy, Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;BRO^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Brown &amp;amp; Brown, Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;AON^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Aon Plc Class A&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;BG^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Bunge Global SA&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;A^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Agilent Technologies, Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ACGL^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;3.3497&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;LULU^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;lululemon athletica inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;FRT^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Federal Realty Investment Trust&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CF^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.59&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;LRCX^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Lam Research Corporation&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;GLW^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Corning Inc&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;FOXA^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Fox Corporation Class A&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CAT^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Caterpillar Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;AVB^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;AvalonBay Communities, Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;MSI^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Motorola Solutions, Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CTRA^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Coterra Energy Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CPRT^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.41&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;BBY^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Best Buy Co., Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;TECH^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Bio-Techne Corporation&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;PH^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Parker-Hannifin Corporation&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;NVDA^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;NVIDIA Corporation&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;DD^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;DuPont de Nemours, Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CAH^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Cardinal Health, Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;FANG^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Diamondback Energy, Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;BAX^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Baxter International Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ANET^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Arista Networks, Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ETN^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Eaton Corp. Plc&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;BMY^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Bristol-Myers Squibb Company&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;FAST^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Fastenal Company&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CEG^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Constellation Energy Corporation&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;AMZN^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Amazon.com, Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;HAS^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Hasbro, Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;COR^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Cencora, Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CSX^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;CSX Corporation&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;F^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.13&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CHD^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.86&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;BSX^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQ</t>
+          <t>si:type="xsd:string"&gt;Berkshire Hathaway Inc. Class B&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ALGN^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Align Technology, Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;AEE^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Ameren Corporation&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;TPR^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.6753999999999998&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;LNT^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;OTIS^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.9546&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;INTC^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;-0.1217&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;HBAN^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;GEN^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.3107&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;EA^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;4.875692&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;COST^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;45989&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;BSX^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.8&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;BIIB^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;AXP^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;3.5305&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ALGN^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ADP^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.62&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ZION^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Zions Bancorporation NA&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;VRTX^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Vertex Pharmaceuticals Incorporated&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;QCOM^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;QUALCOMM Incorporated&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;NUE^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Nucor Corporation&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;MPC^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Marathon Petroleum Corporation&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;MAR^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Marriott International, Inc. Class A&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;KVUE^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Kenvue, Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;IVZ^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Invesco Ltd.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;GILD^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Gilead Sciences, Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;FE^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;FirstEnergy Corp.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CRL^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Charles River Laboratories International, Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CI^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Cigna Group&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;NOW^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.383&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;LMT^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;5.7956&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;INTC^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;DECK^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;3.33&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;COP^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.02&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CLX^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.2878&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CCI^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.2723&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;BG^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.99&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;AVGO^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.7423&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ALB^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;-0.53&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ADP^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.6242&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;VRSN^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;VeriSign, Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;TRGP^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Targa Resources Corp.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;PXD^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Pioneer Natural Resources Company&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;PEP^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;PepsiCo, Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;NTRS^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Northern Trust Corporation&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;IR^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Ingersoll Rand Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;FDX^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;FedEx Corporation&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;DFS^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Discover Financial Services&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CF^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;CF Industries Holdings, Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;BR^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Broadridge Financial Solutions, Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;AXP^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;American Express Company&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;AME^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;AMETEK, Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ABT^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Abbott Laboratories&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;APH^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.97&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;UHS^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Universal Health Services, Inc. Class B&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ROL^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Rollins, Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CB^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Chubb Limited&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CAH^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.9705&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CTVA^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Corteva Inc&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CMI^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;4.2662&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ABNB^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;UDR^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;UDR, Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;META^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Meta Platforms Inc Class A&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;HST^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.2&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;AEE^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;LDOS^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Leidos Holdings, Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CAG^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Conagra Brands, Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;OXY^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;-0.0688&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CVS^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.3046&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;STT^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;State Street Corporation&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;L^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Loews Corporation&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;AMP^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Ameriprise Financial, Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;NDSN^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.37&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;LMT^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;HAS^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.51&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;FTV^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.9&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;FCX^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;EQR^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;EA^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.3478&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;COP^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.1646&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CCI^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;BSX^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.4493&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;AVGO^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;45961&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ANET^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.75&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ADI^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46052&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;VMC^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Vulcan Materials Company&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;SLB^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;SLB Limited&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;PEG^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Public Service Enterprise Group Inc&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;MA^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Mastercard Incorporated Class A&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;KR^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Kroger Co.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;GEV^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;GE Vernova Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;EFX^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Equifax Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CEG^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Constellation Energy Corporation&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ABNB^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Airbnb, Inc. Class A&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;MU^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;4.78&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;DVA^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CSX^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.39&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CHTR^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;10.34&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;BDX^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.3364&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ANET^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ADBE^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;5.5&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;TFX^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Teleflex Incorporated&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;MOH^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Molina Healthcare, Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;KIM^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Kimco Realty Corporation&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;IPG^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Interpublic Group of Companies, Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;HON^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Honeywell International Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;F^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Ford Motor Company&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ED^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Consolidated Edison, Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;DECK^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Deckers Outdoor Corporation&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CE^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Celanese Corporation&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;BMY^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Bristol-Myers Squibb Company&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;UNH^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;UnitedHealth Group Incorporated&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;POOL^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Pool Corporation&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;KEYS^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Keysight Technologies Inc&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;FSLR^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;First Solar, Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CVX^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Chevron Corporation&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;HUBB^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;MHK^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Mohawk Industries, Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;KEY^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;KeyCorp&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;BG^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Bunge Global SA&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;AJG^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Arthur J. Gallagher &amp;amp; Co.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;AMD^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.53&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;WFC^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Wells Fargo &amp;amp; Company&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;DRI^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Darden Restaurants, Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;MET^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.1749&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;FITB^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.0446&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;EL^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.87&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CVX^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.52&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;WELL^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Welltower Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;MTB^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;M&amp;amp;T Bank Corporation&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ICE^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Intercontinental Exchange, Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CARR^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Carrier Global Corp.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;GIS^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.1&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;EIX^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.86&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CPT^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.4335&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CAH^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;APA^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.91&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;MSI^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Motorola Solutions, Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;JCI^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Johnson Controls International plc&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;FICO^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Fair Isaac Corporation&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CMA^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Comerica Incorporated&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;DIS^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.3396&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;BK^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ADSK^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.67&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;TSN^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Tyson Foods, Inc. Class A&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;PM^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Philip Morris International Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CAH^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Cardinal Health, Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;AMZN^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Amazon.com, Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;OXY^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.31&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;FIS^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.9846&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;EW^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;EQR^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Equity Residential&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;GEV^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CDNS^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.99&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;APA^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;MCD^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;McDonald's Corporation&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;BA^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Boeing Company&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;STE^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.53&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;MU^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;4.6046&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;INCY^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;GPN^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;3.18&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;EQIX^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.6937&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;DUK^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.5&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;DECK^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CSX^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.3863&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CNP^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CHRW^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;BSX^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ATVI^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.7393&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;AMT^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.75&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;XOM^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Exxon Mobil Corporation&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;VLTO^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Veralto Corporation&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;SEE^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Sealed Air Corporation&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;PTC^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;PTC Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;NFLX^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Netflix, Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;MO^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Altria Group, Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;LYV^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Live Nation Entertainment, Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;FTV^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Fortive Corp.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;EXR^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Extra Space Storage Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;COP^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;ConocoPhillips&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CDW^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;CDW Corporation&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ABBV^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;AbbVie, Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;MU^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;45989&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CRWD^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;45961&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;AME^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.7304&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ACN^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;45989&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;SCHW^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Charles Schwab Corp&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;MNST^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Monster Beverage Corporation&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;INVH^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Invitation Homes, Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CDNS^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Cadence Design Systems, Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;APTV^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Aptiv PLC&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;AKAM^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Akamai Technologies, Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;AAPL^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Apple Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ROL^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;GOOGL^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.8177&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;EMR^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ATO^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.44&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CVX^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.3871&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;GPC^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Genuine Parts Company&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ADSK^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Autodesk, Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;HON^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CMA^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;AZO^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;45989&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;RJF^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Raymond James Financial, Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;DHI^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.03&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ALGN^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;3.29&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;FFIV^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;F5, Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;KHC^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;GPN^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;FCNCA^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;45.7817&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;EMR^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.46&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;DRI^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.08&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;BMY^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.26&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ATVI^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;45107&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;AMT^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.752&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;AIZ^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ACN^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;3.5359&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;OXY^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Occidental Petroleum Corporation&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;LULU^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;lululemon athletica inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;HOLX^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Hologic, Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;FTNT^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Fortinet, Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ECL^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Ecolab Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;BLK^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;BlackRock, Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ARE^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Alexandria Real Estate Equities, Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;HWM^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.9208&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;GOOGL^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.82&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;FTNT^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.6765&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;EMR^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.0725&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;DD^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CHD^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.86&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;BBY^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.4&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;AFL^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.57&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;XEL^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Xcel Energy Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;TECH^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Bio-Techne Corporation&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;NEM^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Newmont Corporation&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;LRCX^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Lam Research Corporation&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;COF^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Capital One Financial Corp&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;DRI^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.0326&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CNC^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;PNW^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Pinnacle West Capital Corp&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;GWW^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;W.W. Grainger, Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;EXPD^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Expeditors International of Washington, Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CVS^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;CVS Health Corporation&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CNP^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;CenterPoint Energy, Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;EXPE^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.5986&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CMS^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.95&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;NEE^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;NextEra Energy, Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;BLDR^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.12&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CNC^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Centene Corporation&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;GOOG^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;FOXA^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Fox Corporation Class A&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;DLTR^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;45961&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ABBV^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.71&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;GPN^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Global Payments Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;DPZ^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Domino's Pizza, Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;PFG^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.19&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ECL^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.9842&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CDW^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.1401&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;AMCR^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.86&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;WEC^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;WEC Energy Group Inc&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;MDT^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Medtronic Plc&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CSCO^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Cisco Systems, Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;LYV^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;-1.0498&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;EBAY^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.41&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;DHR^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.6835&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CPAY^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CAG^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;-1.3854&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ALL^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;14.31&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;PG^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Procter &amp;amp; Gamble Company&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;MSFT^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Microsoft Corporation&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CL^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Colgate-Palmolive Company&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ABBV^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;NVDA^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;NVIDIA Corporation&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;DUK^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Duke Energy Corporation&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;BIIB^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Biogen Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CAH^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.63&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;AFL^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;TDY^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Teledyne Technologies Incorporated&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;BBWI^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;45961&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;AEP^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;American Electric Power Company, Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;APH^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;SWK^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Stanley Black &amp;amp; Decker, Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;MET^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;RMD^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;ResMed Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CTSH^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Cognizant Technology Solutions Corporation Class A&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CVX^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;BEN^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Franklin Resources, Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;IT^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;3.94&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;STX^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Seagate Technology Holdings PLC&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;HWM^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Howmet Aerospace Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;JBHT^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;J.B. Hunt Transport Services, Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;GL^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Globe Life Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;DGX^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Quest Diagnostics Incorporated&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;KEYS^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.17&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ORLY^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;O'Reilly Automotive, Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;WM^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Waste Management, Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;PNR^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Pentair plc&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;LNT^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Alliant Energy Corporation&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;FRT^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Federal Realty Investment Trust&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ESS^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Essex Property Trust, Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;BLDR^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.284&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;AMD^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.9163&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;IBM^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;International Business Machines Corporation&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CDW^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;EBAY^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ADP^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Automatic Data Processing, Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;PYPL^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.5304&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;MKTX^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.5144&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;KEYS^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.63&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;HSY^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.575&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;GOOG^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.82&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;EMN^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.75&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CRL^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CHD^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.5989&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ACGL^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.98&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;IEX^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;IDEX Corporation&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;GRMN^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Garmin Ltd.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;PTC^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.92&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;BA^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;BF.B^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Brown-Forman Corporation Class B&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;FIS^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.68&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;PYPL^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;JBL^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D</t>
         </r>
       </text>
     </comment>
-    <comment ref="A7" authorId="0" shapeId="0" xr:uid="{E5DB12F4-483B-4084-A42A-8B9C26D8D5C0}">
+    <comment ref="A7" authorId="0" shapeId="0" xr:uid="{AF75B560-C831-4E13-BD80-55C2C6D8FC4A}">
       <text>
         <r>
           <rPr>
@@ -134,7 +134,7 @@
             <rFont val="Tahoma"/>
             <charset val="1"/>
           </rPr>
-          <t>L&gt;&lt;Q&gt;ALB^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;-3.8731&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;WDC^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Western Digital Corporation&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ORCL^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Oracle Corporation&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;NEE^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;NextEra Energy, Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;MKTX^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;MarketAxess Holdings Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;HOLX^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Hologic, Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;EVRG^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Evergy, Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;DUK^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Duke Energy Corporation&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;DG^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Dollar General Corporation&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CPT^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Camden Property Trust&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CMI^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Cummins Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CHD^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Church &amp;amp; Dwight Co., Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CBOE^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Cboe Global Markets Inc&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;FCX^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Freeport-McMoRan, Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;POOL^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Pool Corporation&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;IT^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Gartner, Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CF^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;CF Industries Holdings, Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;DE^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Deere &amp;amp; Company&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CARR^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Carrier Global Corp.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;AMT^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.8192&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;DPZ^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Domino's Pizza, Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;BBWI^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Bath &amp;amp; Body Works, Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ADI^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Analog Devices, Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;HUM^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Humana Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CTAS^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Cintas Corporation&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ADBE^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Adobe Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;BLDR^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Builders FirstSource, Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;DVA^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;AWK^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;AMT^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;45930&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;AEP^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.19&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;T^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;AT&amp;amp;T Inc&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;PGR^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Progressive Corporation&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;MCHP^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Microchip Technology Incorporated&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;HAL^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Halliburton Company&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;FITB^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Fifth Third Bancorp&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CDW^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;CDW Corporation&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;AMP^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Ameriprise Financial, Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;/Schema&gt;</t>
+          <t xml:space="preserve"> xsi:type="xsd:double"&gt;1.3481&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;FLT^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;EMN^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.9138&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;DRI^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;45989&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CZR^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CPT^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.44&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CMS^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.9352&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;APD^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Air Products and Chemicals, Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CEG^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;PNC^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;PNC Financial Services Group, Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;LMT^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Lockheed Martin Corporation&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;NWSA^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;News Corporation Class A&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;EQT^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;EQT Corporation&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;JBL^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Jabil Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ABBV^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.018&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;NVR^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;NVR, Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;DOW^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Dow, Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;HCA^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;8.1401&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;OTIS^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.03&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;LMT^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;5.8&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;IP^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;-4.52&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;DHI^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.028&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CLX^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.39&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;AXP^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;3.53&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ANSS^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;45747&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ADSK^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;45961&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;AAPL^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;2.84&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;STLD^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Steel Dynamics, Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;PFE^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Pfizer Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;MAS^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Masco Corporation&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;J^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Jacobs Solutions Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;GIS^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;General Mills, Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;EPAM^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;EPAM Systems, Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CRM^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Salesforce, Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;BRO^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Brown &amp;amp; Brown, Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;AZO^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;AutoZone, Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;CMCSA^JULIAN(FF_EPS(QTR_R,0).DATES)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:long"&gt;46022&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;APA^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;0.7859&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;ADSK^FF_EPS(QTR_R,0)&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.5954&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;LOW^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:double"&gt;1.98&lt;/D&gt;&lt;/FQL&gt;&lt;FQL&gt;&lt;Q&gt;VTR^FG_COMPANY_NAME&lt;/Q&gt;&lt;R&gt;1&lt;/R&gt;&lt;C&gt;1&lt;/C&gt;&lt;D xsi:type="xsd:string"&gt;Ventas, Inc.&lt;/D&gt;&lt;/FQL&gt;&lt;/Schema&gt;</t>
         </r>
       </text>
     </comment>
@@ -2112,7 +2112,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F940355C-1FC9-483B-8E75-9638987B1AE2}">
   <dimension ref="A1:G501"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
@@ -2158,15 +2158,15 @@
       </c>
       <c r="D2" s="2" cm="1">
         <f t="array" ref="D2">_xll.FDS(A2,"JULIAN(FF_EPS(QTR_R,0).dates)")</f>
-        <v>45961</v>
+        <v>46052</v>
       </c>
       <c r="E2" cm="1">
         <f t="array" ref="E2">_xll.FDS(A2,"FF_EPS(QTR_R,0)")</f>
-        <v>1.5282</v>
+        <v>1.07</v>
       </c>
       <c r="F2" cm="1">
         <f t="array" ref="F2">_xll.FDS(A2,"FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')")</f>
-        <v>1.59</v>
+        <v>1.36</v>
       </c>
       <c r="G2" s="3"/>
     </row>
@@ -2211,7 +2211,7 @@
       </c>
       <c r="E4" cm="1">
         <f t="array" ref="E4">_xll.FDS(A4,"FF_EPS(QTR_R,0)")</f>
-        <v>1.0237000000000001</v>
+        <v>1.018</v>
       </c>
       <c r="F4" cm="1">
         <f t="array" ref="F4">_xll.FDS(A4,"FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')")</f>
@@ -2259,7 +2259,7 @@
       </c>
       <c r="E6" cm="1">
         <f t="array" ref="E6">_xll.FDS(A6,"FF_EPS(QTR_R,0)")</f>
-        <v>1.0165999999999999</v>
+        <v>1.0303</v>
       </c>
       <c r="F6" cm="1">
         <f t="array" ref="F6">_xll.FDS(A6,"FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')")</f>
@@ -2523,7 +2523,7 @@
       </c>
       <c r="E17" cm="1">
         <f t="array" ref="E17">_xll.FDS(A17,"FF_EPS(QTR_R,0)")</f>
-        <v>2.64</v>
+        <v>2.6393</v>
       </c>
       <c r="F17" cm="1">
         <f t="array" ref="F17">_xll.FDS(A17,"FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')")</f>
@@ -2571,7 +2571,7 @@
       </c>
       <c r="E19" cm="1">
         <f t="array" ref="E19">_xll.FDS(A19,"FF_EPS(QTR_R,0)")</f>
-        <v>4.41</v>
+        <v>4.4447999999999999</v>
       </c>
       <c r="F19" cm="1">
         <f t="array" ref="F19">_xll.FDS(A19,"FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')")</f>
@@ -2615,15 +2615,15 @@
       </c>
       <c r="D21" s="2" cm="1">
         <f t="array" ref="D21">_xll.FDS(A21,"JULIAN(FF_EPS(QTR_R,0).dates)")</f>
-        <v>45930</v>
+        <v>46022</v>
       </c>
       <c r="E21" cm="1">
         <f t="array" ref="E21">_xll.FDS(A21,"FF_EPS(QTR_R,0)")</f>
-        <v>0.96799999999999997</v>
+        <v>0.57879999999999998</v>
       </c>
       <c r="F21" cm="1">
         <f t="array" ref="F21">_xll.FDS(A21,"FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')")</f>
-        <v>1.86</v>
+        <v>1.84</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.45">
@@ -2739,7 +2739,7 @@
       </c>
       <c r="E26" cm="1">
         <f t="array" ref="E26">_xll.FDS(A26,"FF_EPS(QTR_R,0)")</f>
-        <v>2.54</v>
+        <v>2.5356999999999998</v>
       </c>
       <c r="F26" cm="1">
         <f t="array" ref="F26">_xll.FDS(A26,"FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')")</f>
@@ -2859,7 +2859,7 @@
       </c>
       <c r="E31" cm="1">
         <f t="array" ref="E31">_xll.FDS(A31,"FF_EPS(QTR_R,0)")</f>
-        <v>10.47</v>
+        <v>10.4673</v>
       </c>
       <c r="F31" cm="1">
         <f t="array" ref="F31">_xll.FDS(A31,"FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')")</f>
@@ -2879,15 +2879,15 @@
       </c>
       <c r="D32" s="2" cm="1">
         <f t="array" ref="D32">_xll.FDS(A32,"JULIAN(FF_EPS(QTR_R,0).dates)")</f>
-        <v>45930</v>
+        <v>46022</v>
       </c>
       <c r="E32" cm="1">
         <f t="array" ref="E32">_xll.FDS(A32,"FF_EPS(QTR_R,0)")</f>
-        <v>1.8191999999999999</v>
+        <v>1.752</v>
       </c>
       <c r="F32" cm="1">
         <f t="array" ref="F32">_xll.FDS(A32,"FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')")</f>
-        <v>1.82</v>
+        <v>1.75</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.45">
@@ -3023,15 +3023,15 @@
       </c>
       <c r="D38" s="2" cm="1">
         <f t="array" ref="D38">_xll.FDS(A38,"JULIAN(FF_EPS(QTR_R,0).dates)")</f>
-        <v>45930</v>
+        <v>46022</v>
       </c>
       <c r="E38" cm="1">
         <f t="array" ref="E38">_xll.FDS(A38,"FF_EPS(QTR_R,0)")</f>
-        <v>0.5726</v>
+        <v>0.78590000000000004</v>
       </c>
       <c r="F38" cm="1">
         <f t="array" ref="F38">_xll.FDS(A38,"FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')")</f>
-        <v>0.93</v>
+        <v>0.91</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.45">
@@ -3363,7 +3363,7 @@
       </c>
       <c r="E52" cm="1">
         <f t="array" ref="E52">_xll.FDS(A52,"FF_EPS(QTR_R,0)")</f>
-        <v>0.98</v>
+        <v>0.9698</v>
       </c>
       <c r="F52" cm="1">
         <f t="array" ref="F52">_xll.FDS(A52,"FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')")</f>
@@ -3603,7 +3603,7 @@
       </c>
       <c r="E62" cm="1">
         <f t="array" ref="E62">_xll.FDS(A62,"FF_EPS(QTR_R,0)")</f>
-        <v>2.02</v>
+        <v>2.0236999999999998</v>
       </c>
       <c r="F62" cm="1">
         <f t="array" ref="F62">_xll.FDS(A62,"FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')")</f>
@@ -3699,7 +3699,7 @@
       </c>
       <c r="E66" cm="1">
         <f t="array" ref="E66">_xll.FDS(A66,"FF_EPS(QTR_R,0)")</f>
-        <v>7.16</v>
+        <v>7.1584000000000003</v>
       </c>
       <c r="F66" cm="1">
         <f t="array" ref="F66">_xll.FDS(A66,"FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')")</f>
@@ -4059,7 +4059,7 @@
       </c>
       <c r="E81" cm="1">
         <f t="array" ref="E81">_xll.FDS(A81,"FF_EPS(QTR_R,0)")</f>
-        <v>2.97</v>
+        <v>2.9733000000000001</v>
       </c>
       <c r="F81" cm="1">
         <f t="array" ref="F81">_xll.FDS(A81,"FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')")</f>
@@ -4203,7 +4203,7 @@
       </c>
       <c r="E87" cm="1">
         <f t="array" ref="E87">_xll.FDS(A87,"FF_EPS(QTR_R,0)")</f>
-        <v>2.14</v>
+        <v>2.1400999999999999</v>
       </c>
       <c r="F87" cm="1">
         <f t="array" ref="F87">_xll.FDS(A87,"FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')")</f>
@@ -4247,15 +4247,15 @@
       </c>
       <c r="D89" s="2" cm="1">
         <f t="array" ref="D89">_xll.FDS(A89,"JULIAN(FF_EPS(QTR_R,0).dates)")</f>
-        <v>45930</v>
+        <v>46022</v>
       </c>
       <c r="E89" cm="1">
         <f t="array" ref="E89">_xll.FDS(A89,"FF_EPS(QTR_R,0)")</f>
-        <v>2.9712000000000001</v>
+        <v>1.3802000000000001</v>
       </c>
       <c r="F89" cm="1">
         <f t="array" ref="F89">_xll.FDS(A89,"FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')")</f>
-        <v>3.04</v>
+        <v>2.2999999999999998</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.45">
@@ -4275,7 +4275,7 @@
       </c>
       <c r="E90" cm="1">
         <f t="array" ref="E90">_xll.FDS(A90,"FF_EPS(QTR_R,0)")</f>
-        <v>2.59</v>
+        <v>2.5880999999999998</v>
       </c>
       <c r="F90" cm="1">
         <f t="array" ref="F90">_xll.FDS(A90,"FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')")</f>
@@ -4419,7 +4419,7 @@
       </c>
       <c r="E96" cm="1">
         <f t="array" ref="E96">_xll.FDS(A96,"FF_EPS(QTR_R,0)")</f>
-        <v>4.29</v>
+        <v>4.2920999999999996</v>
       </c>
       <c r="F96" cm="1">
         <f t="array" ref="F96">_xll.FDS(A96,"FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')")</f>
@@ -4847,15 +4847,15 @@
       </c>
       <c r="D114" s="2" cm="1">
         <f t="array" ref="D114">_xll.FDS(A114,"JULIAN(FF_EPS(QTR_R,0).dates)")</f>
-        <v>45961</v>
+        <v>46052</v>
       </c>
       <c r="E114" cm="1">
         <f t="array" ref="E114">_xll.FDS(A114,"FF_EPS(QTR_R,0)")</f>
-        <v>0.41320000000000001</v>
+        <v>0.36</v>
       </c>
       <c r="F114" cm="1">
         <f t="array" ref="F114">_xll.FDS(A114,"FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')")</f>
-        <v>0.41</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.45">
@@ -4919,15 +4919,15 @@
       </c>
       <c r="D117" s="2" cm="1">
         <f t="array" ref="D117">_xll.FDS(A117,"JULIAN(FF_EPS(QTR_R,0).dates)")</f>
-        <v>45961</v>
+        <v>46052</v>
       </c>
       <c r="E117" cm="1">
         <f t="array" ref="E117">_xll.FDS(A117,"FF_EPS(QTR_R,0)")</f>
-        <v>2.1911999999999998</v>
+        <v>2.0670000000000002</v>
       </c>
       <c r="F117" cm="1">
         <f t="array" ref="F117">_xll.FDS(A117,"FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')")</f>
-        <v>3.25</v>
+        <v>3.81</v>
       </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.45">
@@ -4991,15 +4991,15 @@
       </c>
       <c r="D120" s="2" cm="1">
         <f t="array" ref="D120">_xll.FDS(A120,"JULIAN(FF_EPS(QTR_R,0).dates)")</f>
-        <v>45930</v>
+        <v>46022</v>
       </c>
       <c r="E120" cm="1">
         <f t="array" ref="E120">_xll.FDS(A120,"FF_EPS(QTR_R,0)")</f>
-        <v>-7.3599999999999999E-2</v>
+        <v>0.11</v>
       </c>
       <c r="F120" cm="1">
         <f t="array" ref="F120">_xll.FDS(A120,"FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')")</f>
-        <v>0.23</v>
+        <v>0.31</v>
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.45">
@@ -5187,7 +5187,7 @@
       </c>
       <c r="E128" cm="1">
         <f t="array" ref="E128">_xll.FDS(A128,"FF_EPS(QTR_R,0)")</f>
-        <v>1.39</v>
+        <v>1.3871</v>
       </c>
       <c r="F128" cm="1">
         <f t="array" ref="F128">_xll.FDS(A128,"FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')")</f>
@@ -5231,15 +5231,15 @@
       </c>
       <c r="D130" s="2" cm="1">
         <f t="array" ref="D130">_xll.FDS(A130,"JULIAN(FF_EPS(QTR_R,0).dates)")</f>
-        <v>45930</v>
+        <v>46022</v>
       </c>
       <c r="E130" cm="1">
         <f t="array" ref="E130">_xll.FDS(A130,"FF_EPS(QTR_R,0)")</f>
-        <v>1.1632</v>
+        <v>0.63249999999999995</v>
       </c>
       <c r="F130" cm="1">
         <f t="array" ref="F130">_xll.FDS(A130,"FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')")</f>
-        <v>1.06</v>
+        <v>0.68</v>
       </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.45">
@@ -5475,7 +5475,7 @@
       </c>
       <c r="E140" cm="1">
         <f t="array" ref="E140">_xll.FDS(A140,"FF_EPS(QTR_R,0)")</f>
-        <v>1.68</v>
+        <v>1.6835</v>
       </c>
       <c r="F140" cm="1">
         <f t="array" ref="F140">_xll.FDS(A140,"FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')")</f>
@@ -5591,15 +5591,15 @@
       </c>
       <c r="D145" s="2" cm="1">
         <f t="array" ref="D145">_xll.FDS(A145,"JULIAN(FF_EPS(QTR_R,0).dates)")</f>
-        <v>45898</v>
+        <v>46022</v>
       </c>
       <c r="E145" cm="1">
         <f t="array" ref="E145">_xll.FDS(A145,"FF_EPS(QTR_R,0)")</f>
-        <v>4.08</v>
+        <v>5.3490000000000002</v>
       </c>
       <c r="F145" cm="1">
         <f t="array" ref="F145">_xll.FDS(A145,"FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')")</f>
-        <v>4.08</v>
+        <v>5.35</v>
       </c>
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.45">
@@ -5787,7 +5787,7 @@
       </c>
       <c r="E153" cm="1">
         <f t="array" ref="E153">_xll.FDS(A153,"FF_EPS(QTR_R,0)")</f>
-        <v>1.1499999999999999</v>
+        <v>1.1477999999999999</v>
       </c>
       <c r="F153" cm="1">
         <f t="array" ref="F153">_xll.FDS(A153,"FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')")</f>
@@ -5811,7 +5811,7 @@
       </c>
       <c r="E154" cm="1">
         <f t="array" ref="E154">_xll.FDS(A154,"FF_EPS(QTR_R,0)")</f>
-        <v>1.98</v>
+        <v>1.9842</v>
       </c>
       <c r="F154" cm="1">
         <f t="array" ref="F154">_xll.FDS(A154,"FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')")</f>
@@ -5831,15 +5831,15 @@
       </c>
       <c r="D155" s="2" cm="1">
         <f t="array" ref="D155">_xll.FDS(A155,"JULIAN(FF_EPS(QTR_R,0).dates)")</f>
-        <v>45930</v>
+        <v>46022</v>
       </c>
       <c r="E155" cm="1">
         <f t="array" ref="E155">_xll.FDS(A155,"FF_EPS(QTR_R,0)")</f>
-        <v>1.9011</v>
+        <v>0.82</v>
       </c>
       <c r="F155" cm="1">
         <f t="array" ref="F155">_xll.FDS(A155,"FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')")</f>
-        <v>1.9</v>
+        <v>0.89</v>
       </c>
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.45">
@@ -5859,7 +5859,7 @@
       </c>
       <c r="E156" cm="1">
         <f t="array" ref="E156">_xll.FDS(A156,"FF_EPS(QTR_R,0)")</f>
-        <v>1.44</v>
+        <v>1.4374</v>
       </c>
       <c r="F156" cm="1">
         <f t="array" ref="F156">_xll.FDS(A156,"FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')")</f>
@@ -5999,15 +5999,15 @@
       </c>
       <c r="D162" s="2" cm="1">
         <f t="array" ref="D162">_xll.FDS(A162,"JULIAN(FF_EPS(QTR_R,0).dates)")</f>
-        <v>45930</v>
+        <v>46022</v>
       </c>
       <c r="E162" cm="1">
         <f t="array" ref="E162">_xll.FDS(A162,"FF_EPS(QTR_R,0)")</f>
-        <v>2.7040000000000002</v>
+        <v>1.3006</v>
       </c>
       <c r="F162" cm="1">
         <f t="array" ref="F162">_xll.FDS(A162,"FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')")</f>
-        <v>2.71</v>
+        <v>2.27</v>
       </c>
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.45">
@@ -6195,7 +6195,7 @@
       </c>
       <c r="E170" cm="1">
         <f t="array" ref="E170">_xll.FDS(A170,"FF_EPS(QTR_R,0)")</f>
-        <v>0.51</v>
+        <v>0.5141</v>
       </c>
       <c r="F170" cm="1">
         <f t="array" ref="F170">_xll.FDS(A170,"FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')")</f>
@@ -6243,7 +6243,7 @@
       </c>
       <c r="E172" cm="1">
         <f t="array" ref="E172">_xll.FDS(A172,"FF_EPS(QTR_R,0)")</f>
-        <v>0.15679999999999999</v>
+        <v>0.1104</v>
       </c>
       <c r="F172" cm="1">
         <f t="array" ref="F172">_xll.FDS(A172,"FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')")</f>
@@ -6287,15 +6287,15 @@
       </c>
       <c r="D174" s="2" cm="1">
         <f t="array" ref="D174">_xll.FDS(A174,"JULIAN(FF_EPS(QTR_R,0).dates)")</f>
-        <v>45930</v>
+        <v>46022</v>
       </c>
       <c r="E174" cm="1">
         <f t="array" ref="E174">_xll.FDS(A174,"FF_EPS(QTR_R,0)")</f>
-        <v>1.6429</v>
+        <v>1.4907999999999999</v>
       </c>
       <c r="F174" cm="1">
         <f t="array" ref="F174">_xll.FDS(A174,"FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')")</f>
-        <v>1.64</v>
+        <v>1.49</v>
       </c>
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.45">
@@ -6335,15 +6335,15 @@
       </c>
       <c r="D176" s="2" cm="1">
         <f t="array" ref="D176">_xll.FDS(A176,"JULIAN(FF_EPS(QTR_R,0).dates)")</f>
-        <v>45930</v>
+        <v>46022</v>
       </c>
       <c r="E176" cm="1">
         <f t="array" ref="E176">_xll.FDS(A176,"FF_EPS(QTR_R,0)")</f>
-        <v>0.78110000000000002</v>
+        <v>1.2981</v>
       </c>
       <c r="F176" cm="1">
         <f t="array" ref="F176">_xll.FDS(A176,"FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')")</f>
-        <v>0.78</v>
+        <v>1.36</v>
       </c>
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.45">
@@ -6383,15 +6383,15 @@
       </c>
       <c r="D178" s="2" cm="1">
         <f t="array" ref="D178">_xll.FDS(A178,"JULIAN(FF_EPS(QTR_R,0).dates)")</f>
-        <v>45930</v>
+        <v>46022</v>
       </c>
       <c r="E178" cm="1">
         <f t="array" ref="E178">_xll.FDS(A178,"FF_EPS(QTR_R,0)")</f>
-        <v>3.5108000000000001</v>
+        <v>-5.0807000000000002</v>
       </c>
       <c r="F178" cm="1">
         <f t="array" ref="F178">_xll.FDS(A178,"FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')")</f>
-        <v>3.08</v>
+        <v>1.74</v>
       </c>
     </row>
     <row r="179" spans="1:6" x14ac:dyDescent="0.45">
@@ -6623,15 +6623,15 @@
       </c>
       <c r="D188" s="2" cm="1">
         <f t="array" ref="D188">_xll.FDS(A188,"JULIAN(FF_EPS(QTR_R,0).dates)")</f>
-        <v>45930</v>
+        <v>46022</v>
       </c>
       <c r="E188" cm="1">
         <f t="array" ref="E188">_xll.FDS(A188,"FF_EPS(QTR_R,0)")</f>
-        <v>0.50480000000000003</v>
+        <v>0.98460000000000003</v>
       </c>
       <c r="F188" cm="1">
         <f t="array" ref="F188">_xll.FDS(A188,"FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')")</f>
-        <v>1.51</v>
+        <v>1.68</v>
       </c>
     </row>
     <row r="189" spans="1:6" x14ac:dyDescent="0.45">
@@ -6791,15 +6791,15 @@
       </c>
       <c r="D195" s="2" cm="1">
         <f t="array" ref="D195">_xll.FDS(A195,"JULIAN(FF_EPS(QTR_R,0).dates)")</f>
-        <v>45930</v>
+        <v>46022</v>
       </c>
       <c r="E195" cm="1">
         <f t="array" ref="E195">_xll.FDS(A195,"FF_EPS(QTR_R,0)")</f>
-        <v>4.2397999999999998</v>
+        <v>4.8384</v>
       </c>
       <c r="F195" cm="1">
         <f t="array" ref="F195">_xll.FDS(A195,"FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')")</f>
-        <v>4.24</v>
+        <v>4.84</v>
       </c>
     </row>
     <row r="196" spans="1:6" x14ac:dyDescent="0.45">
@@ -6843,7 +6843,7 @@
       </c>
       <c r="E197" cm="1">
         <f t="array" ref="E197">_xll.FDS(A197,"FF_EPS(QTR_R,0)")</f>
-        <v>0.57999999999999996</v>
+        <v>0.58140000000000003</v>
       </c>
       <c r="F197" cm="1">
         <f t="array" ref="F197">_xll.FDS(A197,"FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')")</f>
@@ -6887,15 +6887,15 @@
       </c>
       <c r="D199" s="2" cm="1">
         <f t="array" ref="D199">_xll.FDS(A199,"JULIAN(FF_EPS(QTR_R,0).dates)")</f>
-        <v>45930</v>
+        <v>46022</v>
       </c>
       <c r="E199" cm="1">
         <f t="array" ref="E199">_xll.FDS(A199,"FF_EPS(QTR_R,0)")</f>
-        <v>1.5136000000000001</v>
+        <v>1.7998000000000001</v>
       </c>
       <c r="F199" cm="1">
         <f t="array" ref="F199">_xll.FDS(A199,"FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')")</f>
-        <v>1.51</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="200" spans="1:6" x14ac:dyDescent="0.45">
@@ -6991,7 +6991,7 @@
       </c>
       <c r="F203" cm="1">
         <f t="array" ref="F203">_xll.FDS(A203,"FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')")</f>
-        <v>13.477591</v>
+        <v>13.39</v>
       </c>
     </row>
     <row r="204" spans="1:6" x14ac:dyDescent="0.45">
@@ -7011,7 +7011,7 @@
       </c>
       <c r="E204" cm="1">
         <f t="array" ref="E204">_xll.FDS(A204,"FF_EPS(QTR_R,0)")</f>
-        <v>1.74</v>
+        <v>1.7422</v>
       </c>
       <c r="F204" cm="1">
         <f t="array" ref="F204">_xll.FDS(A204,"FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')")</f>
@@ -7059,7 +7059,7 @@
       </c>
       <c r="E206" cm="1">
         <f t="array" ref="E206">_xll.FDS(A206,"FF_EPS(QTR_R,0)")</f>
-        <v>3.29</v>
+        <v>3.2930000000000001</v>
       </c>
       <c r="F206" cm="1">
         <f t="array" ref="F206">_xll.FDS(A206,"FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')")</f>
@@ -7227,7 +7227,7 @@
       </c>
       <c r="E213" cm="1">
         <f t="array" ref="E213">_xll.FDS(A213,"FF_EPS(QTR_R,0)")</f>
-        <v>0.91690000000000005</v>
+        <v>0.89880000000000004</v>
       </c>
       <c r="F213" cm="1">
         <f t="array" ref="F213">_xll.FDS(A213,"FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')")</f>
@@ -7275,7 +7275,7 @@
       </c>
       <c r="E215" cm="1">
         <f t="array" ref="E215">_xll.FDS(A215,"FF_EPS(QTR_R,0)")</f>
-        <v>14.01</v>
+        <v>14.010899999999999</v>
       </c>
       <c r="F215" cm="1">
         <f t="array" ref="F215">_xll.FDS(A215,"FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')")</f>
@@ -7299,7 +7299,7 @@
       </c>
       <c r="E216" cm="1">
         <f t="array" ref="E216">_xll.FDS(A216,"FF_EPS(QTR_R,0)")</f>
-        <v>9.44</v>
+        <v>9.4748000000000001</v>
       </c>
       <c r="F216" cm="1">
         <f t="array" ref="F216">_xll.FDS(A216,"FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')")</f>
@@ -7347,7 +7347,7 @@
       </c>
       <c r="E218" cm="1">
         <f t="array" ref="E218">_xll.FDS(A218,"FF_EPS(QTR_R,0)")</f>
-        <v>1.41</v>
+        <v>1.4137</v>
       </c>
       <c r="F218" cm="1">
         <f t="array" ref="F218">_xll.FDS(A218,"FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')")</f>
@@ -7415,15 +7415,15 @@
       </c>
       <c r="D221" s="2" cm="1">
         <f t="array" ref="D221">_xll.FDS(A221,"JULIAN(FF_EPS(QTR_R,0).dates)")</f>
-        <v>45961</v>
+        <v>46052</v>
       </c>
       <c r="E221" cm="1">
         <f t="array" ref="E221">_xll.FDS(A221,"FF_EPS(QTR_R,0)")</f>
-        <v>3.6191</v>
+        <v>2.58</v>
       </c>
       <c r="F221" cm="1">
         <f t="array" ref="F221">_xll.FDS(A221,"FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')")</f>
-        <v>3.74</v>
+        <v>2.72</v>
       </c>
     </row>
     <row r="222" spans="1:6" x14ac:dyDescent="0.45">
@@ -7511,15 +7511,15 @@
       </c>
       <c r="D225" s="2" cm="1">
         <f t="array" ref="D225">_xll.FDS(A225,"JULIAN(FF_EPS(QTR_R,0).dates)")</f>
-        <v>45961</v>
+        <v>46052</v>
       </c>
       <c r="E225" cm="1">
         <f t="array" ref="E225">_xll.FDS(A225,"FF_EPS(QTR_R,0)")</f>
-        <v>0.83860000000000001</v>
+        <v>0.58479999999999999</v>
       </c>
       <c r="F225" cm="1">
         <f t="array" ref="F225">_xll.FDS(A225,"FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')")</f>
-        <v>0.93</v>
+        <v>0.81</v>
       </c>
     </row>
     <row r="226" spans="1:6" x14ac:dyDescent="0.45">
@@ -7543,7 +7543,7 @@
       </c>
       <c r="F226" cm="1">
         <f t="array" ref="F226">_xll.FDS(A226,"FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')")</f>
-        <v>0.32</v>
+        <v>0.34</v>
       </c>
     </row>
     <row r="227" spans="1:6" x14ac:dyDescent="0.45">
@@ -7559,15 +7559,15 @@
       </c>
       <c r="D227" s="2" cm="1">
         <f t="array" ref="D227">_xll.FDS(A227,"JULIAN(FF_EPS(QTR_R,0).dates)")</f>
-        <v>45930</v>
+        <v>46022</v>
       </c>
       <c r="E227" cm="1">
         <f t="array" ref="E227">_xll.FDS(A227,"FF_EPS(QTR_R,0)")</f>
-        <v>0.83450000000000002</v>
+        <v>0.85350000000000004</v>
       </c>
       <c r="F227" cm="1">
         <f t="array" ref="F227">_xll.FDS(A227,"FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')")</f>
-        <v>1.38</v>
+        <v>1.34</v>
       </c>
     </row>
     <row r="228" spans="1:6" x14ac:dyDescent="0.45">
@@ -7707,7 +7707,7 @@
       </c>
       <c r="E233" cm="1">
         <f t="array" ref="E233">_xll.FDS(A233,"FF_EPS(QTR_R,0)")</f>
-        <v>5.88</v>
+        <v>5.8799000000000001</v>
       </c>
       <c r="F233" cm="1">
         <f t="array" ref="F233">_xll.FDS(A233,"FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')")</f>
@@ -7755,7 +7755,7 @@
       </c>
       <c r="E235" cm="1">
         <f t="array" ref="E235">_xll.FDS(A235,"FF_EPS(QTR_R,0)")</f>
-        <v>3.08</v>
+        <v>3.0838000000000001</v>
       </c>
       <c r="F235" cm="1">
         <f t="array" ref="F235">_xll.FDS(A235,"FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')")</f>
@@ -8375,15 +8375,15 @@
       </c>
       <c r="D261" s="2" cm="1">
         <f t="array" ref="D261">_xll.FDS(A261,"JULIAN(FF_EPS(QTR_R,0).dates)")</f>
-        <v>45930</v>
+        <v>46022</v>
       </c>
       <c r="E261" cm="1">
         <f t="array" ref="E261">_xll.FDS(A261,"FF_EPS(QTR_R,0)")</f>
-        <v>0.48570000000000002</v>
+        <v>0.25900000000000001</v>
       </c>
       <c r="F261" cm="1">
         <f t="array" ref="F261">_xll.FDS(A261,"FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')")</f>
-        <v>0.54</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="262" spans="1:6" x14ac:dyDescent="0.45">
@@ -8403,7 +8403,7 @@
       </c>
       <c r="E262" cm="1">
         <f t="array" ref="E262">_xll.FDS(A262,"FF_EPS(QTR_R,0)")</f>
-        <v>0.43</v>
+        <v>0.4294</v>
       </c>
       <c r="F262" cm="1">
         <f t="array" ref="F262">_xll.FDS(A262,"FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')")</f>
@@ -8423,15 +8423,15 @@
       </c>
       <c r="D263" s="2" cm="1">
         <f t="array" ref="D263">_xll.FDS(A263,"JULIAN(FF_EPS(QTR_R,0).dates)")</f>
-        <v>45961</v>
+        <v>46052</v>
       </c>
       <c r="E263" cm="1">
         <f t="array" ref="E263">_xll.FDS(A263,"FF_EPS(QTR_R,0)")</f>
-        <v>1.3237000000000001</v>
+        <v>1.63</v>
       </c>
       <c r="F263" cm="1">
         <f t="array" ref="F263">_xll.FDS(A263,"FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')")</f>
-        <v>1.91</v>
+        <v>2.17</v>
       </c>
     </row>
     <row r="264" spans="1:6" x14ac:dyDescent="0.45">
@@ -8643,7 +8643,7 @@
       </c>
       <c r="E272" cm="1">
         <f t="array" ref="E272">_xll.FDS(A272,"FF_EPS(QTR_R,0)")</f>
-        <v>0.17</v>
+        <v>0.1719</v>
       </c>
       <c r="F272" cm="1">
         <f t="array" ref="F272">_xll.FDS(A272,"FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')")</f>
@@ -8739,7 +8739,7 @@
       </c>
       <c r="E276" cm="1">
         <f t="array" ref="E276">_xll.FDS(A276,"FF_EPS(QTR_R,0)")</f>
-        <v>1.98</v>
+        <v>1.9796</v>
       </c>
       <c r="F276" cm="1">
         <f t="array" ref="F276">_xll.FDS(A276,"FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')")</f>
@@ -8787,7 +8787,7 @@
       </c>
       <c r="E278" cm="1">
         <f t="array" ref="E278">_xll.FDS(A278,"FF_EPS(QTR_R,0)")</f>
-        <v>3.26</v>
+        <v>3.2643</v>
       </c>
       <c r="F278" cm="1">
         <f t="array" ref="F278">_xll.FDS(A278,"FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')")</f>
@@ -8879,15 +8879,15 @@
       </c>
       <c r="D282" s="2" cm="1">
         <f t="array" ref="D282">_xll.FDS(A282,"JULIAN(FF_EPS(QTR_R,0).dates)")</f>
-        <v>45930</v>
+        <v>46022</v>
       </c>
       <c r="E282" cm="1">
         <f t="array" ref="E282">_xll.FDS(A282,"FF_EPS(QTR_R,0)")</f>
-        <v>1.0900000000000001</v>
+        <v>0.54869999999999997</v>
       </c>
       <c r="F282" cm="1">
         <f t="array" ref="F282">_xll.FDS(A282,"FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')")</f>
-        <v>1.1200000000000001</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="283" spans="1:6" x14ac:dyDescent="0.45">
@@ -8903,15 +8903,15 @@
       </c>
       <c r="D283" s="2" cm="1">
         <f t="array" ref="D283">_xll.FDS(A283,"JULIAN(FF_EPS(QTR_R,0).dates)")</f>
-        <v>45961</v>
+        <v>46052</v>
       </c>
       <c r="E283" cm="1">
         <f t="array" ref="E283">_xll.FDS(A283,"FF_EPS(QTR_R,0)")</f>
-        <v>2.8786</v>
+        <v>1.7771999999999999</v>
       </c>
       <c r="F283" cm="1">
         <f t="array" ref="F283">_xll.FDS(A283,"FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')")</f>
-        <v>3.06</v>
+        <v>1.98</v>
       </c>
     </row>
     <row r="284" spans="1:6" x14ac:dyDescent="0.45">
@@ -9051,7 +9051,7 @@
       </c>
       <c r="E289" cm="1">
         <f t="array" ref="E289">_xll.FDS(A289,"FF_EPS(QTR_R,0)")</f>
-        <v>-0.43480000000000002</v>
+        <v>-0.44409999999999999</v>
       </c>
       <c r="F289" cm="1">
         <f t="array" ref="F289">_xll.FDS(A289,"FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')")</f>
@@ -9071,15 +9071,15 @@
       </c>
       <c r="D290" s="2" cm="1">
         <f t="array" ref="D290">_xll.FDS(A290,"JULIAN(FF_EPS(QTR_R,0).dates)")</f>
-        <v>45930</v>
+        <v>46022</v>
       </c>
       <c r="E290" cm="1">
         <f t="array" ref="E290">_xll.FDS(A290,"FF_EPS(QTR_R,0)")</f>
-        <v>0.73099999999999998</v>
+        <v>-1.0498000000000001</v>
       </c>
       <c r="F290" cm="1">
         <f t="array" ref="F290">_xll.FDS(A290,"FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')")</f>
-        <v>0.73</v>
+        <v>-1.06</v>
       </c>
     </row>
     <row r="291" spans="1:6" x14ac:dyDescent="0.45">
@@ -9315,7 +9315,7 @@
       </c>
       <c r="E300" cm="1">
         <f t="array" ref="E300">_xll.FDS(A300,"FF_EPS(QTR_R,0)")</f>
-        <v>0.89</v>
+        <v>0.88639999999999997</v>
       </c>
       <c r="F300" cm="1">
         <f t="array" ref="F300">_xll.FDS(A300,"FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')")</f>
@@ -9459,7 +9459,7 @@
       </c>
       <c r="E306" cm="1">
         <f t="array" ref="E306">_xll.FDS(A306,"FF_EPS(QTR_R,0)")</f>
-        <v>2.5099999999999998</v>
+        <v>2.5144000000000002</v>
       </c>
       <c r="F306" cm="1">
         <f t="array" ref="F306">_xll.FDS(A306,"FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')")</f>
@@ -9483,7 +9483,7 @@
       </c>
       <c r="E307" cm="1">
         <f t="array" ref="E307">_xll.FDS(A307,"FF_EPS(QTR_R,0)")</f>
-        <v>4.62</v>
+        <v>4.6116000000000001</v>
       </c>
       <c r="F307" cm="1">
         <f t="array" ref="F307">_xll.FDS(A307,"FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')")</f>
@@ -9623,15 +9623,15 @@
       </c>
       <c r="D313" s="2" cm="1">
         <f t="array" ref="D313">_xll.FDS(A313,"JULIAN(FF_EPS(QTR_R,0).dates)")</f>
-        <v>45930</v>
+        <v>46022</v>
       </c>
       <c r="E313" cm="1">
         <f t="array" ref="E313">_xll.FDS(A313,"FF_EPS(QTR_R,0)")</f>
-        <v>1.288</v>
+        <v>-1.6367</v>
       </c>
       <c r="F313" cm="1">
         <f t="array" ref="F313">_xll.FDS(A313,"FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')")</f>
-        <v>1.04</v>
+        <v>0.22</v>
       </c>
     </row>
     <row r="314" spans="1:6" x14ac:dyDescent="0.45">
@@ -9771,7 +9771,7 @@
       </c>
       <c r="E319" cm="1">
         <f t="array" ref="E319">_xll.FDS(A319,"FF_EPS(QTR_R,0)")</f>
-        <v>2.68</v>
+        <v>2.6797</v>
       </c>
       <c r="F319" cm="1">
         <f t="array" ref="F319">_xll.FDS(A319,"FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')")</f>
@@ -10011,7 +10011,7 @@
       </c>
       <c r="E329" cm="1">
         <f t="array" ref="E329">_xll.FDS(A329,"FF_EPS(QTR_R,0)")</f>
-        <v>2.38</v>
+        <v>2.3763999999999998</v>
       </c>
       <c r="F329" cm="1">
         <f t="array" ref="F329">_xll.FDS(A329,"FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')")</f>
@@ -10055,15 +10055,15 @@
       </c>
       <c r="D331" s="2" cm="1">
         <f t="array" ref="D331">_xll.FDS(A331,"JULIAN(FF_EPS(QTR_R,0).dates)")</f>
-        <v>45930</v>
+        <v>46022</v>
       </c>
       <c r="E331" cm="1">
         <f t="array" ref="E331">_xll.FDS(A331,"FF_EPS(QTR_R,0)")</f>
-        <v>1.6654</v>
+        <v>1.1892</v>
       </c>
       <c r="F331" cm="1">
         <f t="array" ref="F331">_xll.FDS(A331,"FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')")</f>
-        <v>1.71</v>
+        <v>2.52</v>
       </c>
     </row>
     <row r="332" spans="1:6" x14ac:dyDescent="0.45">
@@ -10199,15 +10199,15 @@
       </c>
       <c r="D337" s="2" cm="1">
         <f t="array" ref="D337">_xll.FDS(A337,"JULIAN(FF_EPS(QTR_R,0).dates)")</f>
-        <v>45930</v>
+        <v>46022</v>
       </c>
       <c r="E337" cm="1">
         <f t="array" ref="E337">_xll.FDS(A337,"FF_EPS(QTR_R,0)")</f>
-        <v>0.69230000000000003</v>
+        <v>0.2626</v>
       </c>
       <c r="F337" cm="1">
         <f t="array" ref="F337">_xll.FDS(A337,"FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')")</f>
-        <v>2.78</v>
+        <v>1.03</v>
       </c>
     </row>
     <row r="338" spans="1:6" x14ac:dyDescent="0.45">
@@ -10275,7 +10275,7 @@
       </c>
       <c r="E340" cm="1">
         <f t="array" ref="E340">_xll.FDS(A340,"FF_EPS(QTR_R,0)")</f>
-        <v>2.42</v>
+        <v>2.4234</v>
       </c>
       <c r="F340" cm="1">
         <f t="array" ref="F340">_xll.FDS(A340,"FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')")</f>
@@ -10299,7 +10299,7 @@
       </c>
       <c r="E341" cm="1">
         <f t="array" ref="E341">_xll.FDS(A341,"FF_EPS(QTR_R,0)")</f>
-        <v>1.64</v>
+        <v>1.6375999999999999</v>
       </c>
       <c r="F341" cm="1">
         <f t="array" ref="F341">_xll.FDS(A341,"FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')")</f>
@@ -10319,15 +10319,15 @@
       </c>
       <c r="D342" s="2" cm="1">
         <f t="array" ref="D342">_xll.FDS(A342,"JULIAN(FF_EPS(QTR_R,0).dates)")</f>
-        <v>45961</v>
+        <v>46052</v>
       </c>
       <c r="E342" cm="1">
         <f t="array" ref="E342">_xll.FDS(A342,"FF_EPS(QTR_R,0)")</f>
-        <v>1.3033999999999999</v>
+        <v>1.7584</v>
       </c>
       <c r="F342" cm="1">
         <f t="array" ref="F342">_xll.FDS(A342,"FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')")</f>
-        <v>1.3</v>
+        <v>1.62</v>
       </c>
     </row>
     <row r="343" spans="1:6" x14ac:dyDescent="0.45">
@@ -10439,15 +10439,15 @@
       </c>
       <c r="D347" s="2" cm="1">
         <f t="array" ref="D347">_xll.FDS(A347,"JULIAN(FF_EPS(QTR_R,0).dates)")</f>
-        <v>45930</v>
+        <v>46022</v>
       </c>
       <c r="E347" cm="1">
         <f t="array" ref="E347">_xll.FDS(A347,"FF_EPS(QTR_R,0)")</f>
-        <v>0.34499999999999997</v>
+        <v>0.3206</v>
       </c>
       <c r="F347" cm="1">
         <f t="array" ref="F347">_xll.FDS(A347,"FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')")</f>
-        <v>0.35</v>
+        <v>0.32</v>
       </c>
     </row>
     <row r="348" spans="1:6" x14ac:dyDescent="0.45">
@@ -10467,7 +10467,7 @@
       </c>
       <c r="E348" cm="1">
         <f t="array" ref="E348">_xll.FDS(A348,"FF_EPS(QTR_R,0)")</f>
-        <v>1.0900000000000001</v>
+        <v>1.0932999999999999</v>
       </c>
       <c r="F348" cm="1">
         <f t="array" ref="F348">_xll.FDS(A348,"FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')")</f>
@@ -10487,15 +10487,15 @@
       </c>
       <c r="D349" s="2" cm="1">
         <f t="array" ref="D349">_xll.FDS(A349,"JULIAN(FF_EPS(QTR_R,0).dates)")</f>
-        <v>45930</v>
+        <v>46022</v>
       </c>
       <c r="E349" cm="1">
         <f t="array" ref="E349">_xll.FDS(A349,"FF_EPS(QTR_R,0)")</f>
-        <v>1.4869000000000001</v>
+        <v>1.5478000000000001</v>
       </c>
       <c r="F349" cm="1">
         <f t="array" ref="F349">_xll.FDS(A349,"FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')")</f>
-        <v>1.49</v>
+        <v>1.55</v>
       </c>
     </row>
     <row r="350" spans="1:6" x14ac:dyDescent="0.45">
@@ -10655,15 +10655,15 @@
       </c>
       <c r="D356" s="2" cm="1">
         <f t="array" ref="D356">_xll.FDS(A356,"JULIAN(FF_EPS(QTR_R,0).dates)")</f>
-        <v>45930</v>
+        <v>46022</v>
       </c>
       <c r="E356" cm="1">
         <f t="array" ref="E356">_xll.FDS(A356,"FF_EPS(QTR_R,0)")</f>
-        <v>-0.2341</v>
+        <v>-0.51719999999999999</v>
       </c>
       <c r="F356" cm="1">
         <f t="array" ref="F356">_xll.FDS(A356,"FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')")</f>
-        <v>-5.3148130000000002E-2</v>
+        <v>-0.12</v>
       </c>
     </row>
     <row r="357" spans="1:6" x14ac:dyDescent="0.45">
@@ -10807,7 +10807,7 @@
       </c>
       <c r="F362" cm="1">
         <f t="array" ref="F362">_xll.FDS(A362,"FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')")</f>
-        <v>1.1299999999999999</v>
+        <v>0.72</v>
       </c>
     </row>
     <row r="363" spans="1:6" x14ac:dyDescent="0.45">
@@ -11115,7 +11115,7 @@
       </c>
       <c r="E375" cm="1">
         <f t="array" ref="E375">_xll.FDS(A375,"FF_EPS(QTR_R,0)")</f>
-        <v>1.01</v>
+        <v>1.0085</v>
       </c>
       <c r="F375" cm="1">
         <f t="array" ref="F375">_xll.FDS(A375,"FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')")</f>
@@ -11135,15 +11135,15 @@
       </c>
       <c r="D376" s="2" cm="1">
         <f t="array" ref="D376">_xll.FDS(A376,"JULIAN(FF_EPS(QTR_R,0).dates)")</f>
-        <v>45930</v>
+        <v>46022</v>
       </c>
       <c r="E376" cm="1">
         <f t="array" ref="E376">_xll.FDS(A376,"FF_EPS(QTR_R,0)")</f>
-        <v>3.3881999999999999</v>
+        <v>0.126</v>
       </c>
       <c r="F376" cm="1">
         <f t="array" ref="F376">_xll.FDS(A376,"FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')")</f>
-        <v>3.39</v>
+        <v>0.13</v>
       </c>
     </row>
     <row r="377" spans="1:6" x14ac:dyDescent="0.45">
@@ -11211,7 +11211,7 @@
       </c>
       <c r="E379" cm="1">
         <f t="array" ref="E379">_xll.FDS(A379,"FF_EPS(QTR_R,0)")</f>
-        <v>1.33</v>
+        <v>1.341</v>
       </c>
       <c r="F379" cm="1">
         <f t="array" ref="F379">_xll.FDS(A379,"FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')")</f>
@@ -11231,15 +11231,15 @@
       </c>
       <c r="D380" s="2" cm="1">
         <f t="array" ref="D380">_xll.FDS(A380,"JULIAN(FF_EPS(QTR_R,0).dates)")</f>
-        <v>45930</v>
+        <v>46022</v>
       </c>
       <c r="E380" cm="1">
         <f t="array" ref="E380">_xll.FDS(A380,"FF_EPS(QTR_R,0)")</f>
-        <v>0.42720000000000002</v>
+        <v>0.35699999999999998</v>
       </c>
       <c r="F380" cm="1">
         <f t="array" ref="F380">_xll.FDS(A380,"FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')")</f>
-        <v>0.48</v>
+        <v>0.41</v>
       </c>
     </row>
     <row r="381" spans="1:6" x14ac:dyDescent="0.45">
@@ -11307,7 +11307,7 @@
       </c>
       <c r="E383" cm="1">
         <f t="array" ref="E383">_xll.FDS(A383,"FF_EPS(QTR_R,0)")</f>
-        <v>7.17</v>
+        <v>7.1825999999999999</v>
       </c>
       <c r="F383" cm="1">
         <f t="array" ref="F383">_xll.FDS(A383,"FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')")</f>
@@ -11379,7 +11379,7 @@
       </c>
       <c r="E386" cm="1">
         <f t="array" ref="E386">_xll.FDS(A386,"FF_EPS(QTR_R,0)")</f>
-        <v>2.08</v>
+        <v>2.0789</v>
       </c>
       <c r="F386" cm="1">
         <f t="array" ref="F386">_xll.FDS(A386,"FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')")</f>
@@ -11595,7 +11595,7 @@
       </c>
       <c r="E395" cm="1">
         <f t="array" ref="E395">_xll.FDS(A395,"FF_EPS(QTR_R,0)")</f>
-        <v>0.57999999999999996</v>
+        <v>0.58409999999999995</v>
       </c>
       <c r="F395" cm="1">
         <f t="array" ref="F395">_xll.FDS(A395,"FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')")</f>
@@ -11739,7 +11739,7 @@
       </c>
       <c r="E401" cm="1">
         <f t="array" ref="E401">_xll.FDS(A401,"FF_EPS(QTR_R,0)")</f>
-        <v>3.97</v>
+        <v>3.9740000000000002</v>
       </c>
       <c r="F401" cm="1">
         <f t="array" ref="F401">_xll.FDS(A401,"FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')")</f>
@@ -11835,7 +11835,7 @@
       </c>
       <c r="E405" cm="1">
         <f t="array" ref="E405">_xll.FDS(A405,"FF_EPS(QTR_R,0)")</f>
-        <v>0.84589999999999999</v>
+        <v>0.87080000000000002</v>
       </c>
       <c r="F405" cm="1">
         <f t="array" ref="F405">_xll.FDS(A405,"FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')")</f>
@@ -11907,7 +11907,7 @@
       </c>
       <c r="E408" cm="1">
         <f t="array" ref="E408">_xll.FDS(A408,"FF_EPS(QTR_R,0)")</f>
-        <v>1.33</v>
+        <v>1.3320000000000001</v>
       </c>
       <c r="F408" cm="1">
         <f t="array" ref="F408">_xll.FDS(A408,"FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')")</f>
@@ -11955,7 +11955,7 @@
       </c>
       <c r="E410" cm="1">
         <f t="array" ref="E410">_xll.FDS(A410,"FF_EPS(QTR_R,0)")</f>
-        <v>1.92</v>
+        <v>1.9164000000000001</v>
       </c>
       <c r="F410" cm="1">
         <f t="array" ref="F410">_xll.FDS(A410,"FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')")</f>
@@ -11983,7 +11983,7 @@
       </c>
       <c r="F411" cm="1">
         <f t="array" ref="F411">_xll.FDS(A411,"FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')")</f>
-        <v>2.1</v>
+        <v>2.38</v>
       </c>
     </row>
     <row r="412" spans="1:6" x14ac:dyDescent="0.45">
@@ -12071,15 +12071,15 @@
       </c>
       <c r="D415" s="2" cm="1">
         <f t="array" ref="D415">_xll.FDS(A415,"JULIAN(FF_EPS(QTR_R,0).dates)")</f>
-        <v>45961</v>
+        <v>46052</v>
       </c>
       <c r="E415" cm="1">
         <f t="array" ref="E415">_xll.FDS(A415,"FF_EPS(QTR_R,0)")</f>
-        <v>2.3929999999999998</v>
+        <v>0.34050000000000002</v>
       </c>
       <c r="F415" cm="1">
         <f t="array" ref="F415">_xll.FDS(A415,"FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')")</f>
-        <v>2.9</v>
+        <v>3.77</v>
       </c>
     </row>
     <row r="416" spans="1:6" x14ac:dyDescent="0.45">
@@ -12175,7 +12175,7 @@
       </c>
       <c r="F419" cm="1">
         <f t="array" ref="F419">_xll.FDS(A419,"FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')")</f>
-        <v>1.1100000000000001</v>
+        <v>1.28</v>
       </c>
     </row>
     <row r="420" spans="1:6" x14ac:dyDescent="0.45">
@@ -12243,7 +12243,7 @@
       </c>
       <c r="E422" cm="1">
         <f t="array" ref="E422">_xll.FDS(A422,"FF_EPS(QTR_R,0)")</f>
-        <v>2.42</v>
+        <v>2.4157000000000002</v>
       </c>
       <c r="F422" cm="1">
         <f t="array" ref="F422">_xll.FDS(A422,"FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')")</f>
@@ -12579,7 +12579,7 @@
       </c>
       <c r="E436" cm="1">
         <f t="array" ref="E436">_xll.FDS(A436,"FF_EPS(QTR_R,0)")</f>
-        <v>1.63</v>
+        <v>1.6315999999999999</v>
       </c>
       <c r="F436" cm="1">
         <f t="array" ref="F436">_xll.FDS(A436,"FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')")</f>
@@ -12603,7 +12603,7 @@
       </c>
       <c r="E437" cm="1">
         <f t="array" ref="E437">_xll.FDS(A437,"FF_EPS(QTR_R,0)")</f>
-        <v>1</v>
+        <v>1.0029999999999999</v>
       </c>
       <c r="F437" cm="1">
         <f t="array" ref="F437">_xll.FDS(A437,"FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')")</f>
@@ -12631,7 +12631,7 @@
       </c>
       <c r="F438" cm="1">
         <f t="array" ref="F438">_xll.FDS(A438,"FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')")</f>
-        <v>3.67</v>
+        <v>1.93</v>
       </c>
     </row>
     <row r="439" spans="1:6" x14ac:dyDescent="0.45">
@@ -12671,15 +12671,15 @@
       </c>
       <c r="D440" s="2" cm="1">
         <f t="array" ref="D440">_xll.FDS(A440,"JULIAN(FF_EPS(QTR_R,0).dates)")</f>
-        <v>45961</v>
+        <v>46052</v>
       </c>
       <c r="E440" cm="1">
         <f t="array" ref="E440">_xll.FDS(A440,"FF_EPS(QTR_R,0)")</f>
-        <v>1.2806</v>
+        <v>1.5760000000000001</v>
       </c>
       <c r="F440" cm="1">
         <f t="array" ref="F440">_xll.FDS(A440,"FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')")</f>
-        <v>1.28</v>
+        <v>1.43</v>
       </c>
     </row>
     <row r="441" spans="1:6" x14ac:dyDescent="0.45">
@@ -12769,13 +12769,13 @@
         <f t="array" ref="D444">_xll.FDS(A444,"JULIAN(FF_EPS(QTR_R,0).dates)")</f>
         <v>46022</v>
       </c>
-      <c r="E444" t="e" cm="1">
+      <c r="E444" cm="1">
         <f t="array" ref="E444">_xll.FDS(A444,"FF_EPS(QTR_R,0)")</f>
-        <v>#N/A</v>
+        <v>2.5249000000000001</v>
       </c>
       <c r="F444" cm="1">
         <f t="array" ref="F444">_xll.FDS(A444,"FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')")</f>
-        <v>2.52</v>
+        <v>2.5425770000000001</v>
       </c>
     </row>
     <row r="445" spans="1:6" x14ac:dyDescent="0.45">
@@ -12795,7 +12795,7 @@
       </c>
       <c r="E445" cm="1">
         <f t="array" ref="E445">_xll.FDS(A445,"FF_EPS(QTR_R,0)")</f>
-        <v>0.65</v>
+        <v>0.65300000000000002</v>
       </c>
       <c r="F445" cm="1">
         <f t="array" ref="F445">_xll.FDS(A445,"FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')")</f>
@@ -12867,7 +12867,7 @@
       </c>
       <c r="E448" cm="1">
         <f t="array" ref="E448">_xll.FDS(A448,"FF_EPS(QTR_R,0)")</f>
-        <v>0.43</v>
+        <v>0.4289</v>
       </c>
       <c r="F448" cm="1">
         <f t="array" ref="F448">_xll.FDS(A448,"FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')")</f>
@@ -13127,15 +13127,15 @@
       </c>
       <c r="D459" s="2" cm="1">
         <f t="array" ref="D459">_xll.FDS(A459,"JULIAN(FF_EPS(QTR_R,0).dates)")</f>
-        <v>45930</v>
+        <v>46022</v>
       </c>
       <c r="E459" cm="1">
         <f t="array" ref="E459">_xll.FDS(A459,"FF_EPS(QTR_R,0)")</f>
-        <v>5.8582999999999998</v>
+        <v>7.0608000000000004</v>
       </c>
       <c r="F459" cm="1">
         <f t="array" ref="F459">_xll.FDS(A459,"FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')")</f>
-        <v>5.69</v>
+        <v>5.88</v>
       </c>
     </row>
     <row r="460" spans="1:6" x14ac:dyDescent="0.45">
@@ -13319,15 +13319,15 @@
       </c>
       <c r="D467" s="2" cm="1">
         <f t="array" ref="D467">_xll.FDS(A467,"JULIAN(FF_EPS(QTR_R,0).dates)")</f>
-        <v>45930</v>
+        <v>46022</v>
       </c>
       <c r="E467" cm="1">
         <f t="array" ref="E467">_xll.FDS(A467,"FF_EPS(QTR_R,0)")</f>
-        <v>0.71330000000000005</v>
+        <v>0.56599999999999995</v>
       </c>
       <c r="F467" cm="1">
         <f t="array" ref="F467">_xll.FDS(A467,"FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')")</f>
-        <v>0.71</v>
+        <v>0.56999999999999995</v>
       </c>
     </row>
     <row r="468" spans="1:6" x14ac:dyDescent="0.45">
@@ -13347,7 +13347,7 @@
       </c>
       <c r="E468" cm="1">
         <f t="array" ref="E468">_xll.FDS(A468,"FF_EPS(QTR_R,0)")</f>
-        <v>3.73</v>
+        <v>3.7294</v>
       </c>
       <c r="F468" cm="1">
         <f t="array" ref="F468">_xll.FDS(A468,"FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')")</f>
@@ -13371,7 +13371,7 @@
       </c>
       <c r="E469" cm="1">
         <f t="array" ref="E469">_xll.FDS(A469,"FF_EPS(QTR_R,0)")</f>
-        <v>1.01</v>
+        <v>1.014</v>
       </c>
       <c r="F469" cm="1">
         <f t="array" ref="F469">_xll.FDS(A469,"FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')")</f>
@@ -13495,7 +13495,7 @@
       </c>
       <c r="F474" cm="1">
         <f t="array" ref="F474">_xll.FDS(A474,"FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')")</f>
-        <v>1.7472291</v>
+        <v>0.55000000000000004</v>
       </c>
     </row>
     <row r="475" spans="1:6" x14ac:dyDescent="0.45">
@@ -13543,7 +13543,7 @@
       </c>
       <c r="F476" cm="1">
         <f t="array" ref="F476">_xll.FDS(A476,"FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')")</f>
-        <v>0.67</v>
+        <v>0.56999999999999995</v>
       </c>
     </row>
     <row r="477" spans="1:6" x14ac:dyDescent="0.45">
@@ -13611,7 +13611,7 @@
       </c>
       <c r="E479" cm="1">
         <f t="array" ref="E479">_xll.FDS(A479,"FF_EPS(QTR_R,0)")</f>
-        <v>3.77</v>
+        <v>3.7684000000000002</v>
       </c>
       <c r="F479" cm="1">
         <f t="array" ref="F479">_xll.FDS(A479,"FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')")</f>
@@ -13663,7 +13663,7 @@
       </c>
       <c r="F481" cm="1">
         <f t="array" ref="F481">_xll.FDS(A481,"FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')")</f>
-        <v>-0.06</v>
+        <v>-0.1</v>
       </c>
     </row>
     <row r="482" spans="1:6" x14ac:dyDescent="0.45">
@@ -13755,7 +13755,7 @@
       </c>
       <c r="E485" cm="1">
         <f t="array" ref="E485">_xll.FDS(A485,"FF_EPS(QTR_R,0)")</f>
-        <v>1.62</v>
+        <v>1.6189</v>
       </c>
       <c r="F485" cm="1">
         <f t="array" ref="F485">_xll.FDS(A485,"FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')")</f>
@@ -13801,9 +13801,9 @@
         <f t="array" ref="D487">_xll.FDS(A487,"JULIAN(FF_EPS(QTR_R,0).dates)")</f>
         <v>46022</v>
       </c>
-      <c r="E487" t="e" cm="1">
+      <c r="E487" cm="1">
         <f t="array" ref="E487">_xll.FDS(A487,"FF_EPS(QTR_R,0)")</f>
-        <v>#N/A</v>
+        <v>0.59789999999999999</v>
       </c>
       <c r="F487" cm="1">
         <f t="array" ref="F487">_xll.FDS(A487,"FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')")</f>
@@ -13899,7 +13899,7 @@
       </c>
       <c r="E491" cm="1">
         <f t="array" ref="E491">_xll.FDS(A491,"FF_EPS(QTR_R,0)")</f>
-        <v>7.62</v>
+        <v>7.5773000000000001</v>
       </c>
       <c r="F491" cm="1">
         <f t="array" ref="F491">_xll.FDS(A491,"FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')")</f>
@@ -13971,7 +13971,7 @@
       </c>
       <c r="E494" cm="1">
         <f t="array" ref="E494">_xll.FDS(A494,"FF_EPS(QTR_R,0)")</f>
-        <v>0.95</v>
+        <v>0.94979999999999998</v>
       </c>
       <c r="F494" cm="1">
         <f t="array" ref="F494">_xll.FDS(A494,"FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')")</f>
@@ -14019,7 +14019,7 @@
       </c>
       <c r="E496" cm="1">
         <f t="array" ref="E496">_xll.FDS(A496,"FF_EPS(QTR_R,0)")</f>
-        <v>1.3717999999999999</v>
+        <v>1.3753</v>
       </c>
       <c r="F496" cm="1">
         <f t="array" ref="F496">_xll.FDS(A496,"FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')")</f>
@@ -14043,7 +14043,7 @@
       </c>
       <c r="E497" cm="1">
         <f t="array" ref="E497">_xll.FDS(A497,"FF_EPS(QTR_R,0)")</f>
-        <v>1.91</v>
+        <v>1.9107000000000001</v>
       </c>
       <c r="F497" cm="1">
         <f t="array" ref="F497">_xll.FDS(A497,"FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')")</f>
@@ -14067,7 +14067,7 @@
       </c>
       <c r="E498" cm="1">
         <f t="array" ref="E498">_xll.FDS(A498,"FF_EPS(QTR_R,0)")</f>
-        <v>0.7</v>
+        <v>0.70320000000000005</v>
       </c>
       <c r="F498" cm="1">
         <f t="array" ref="F498">_xll.FDS(A498,"FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')")</f>
@@ -14115,7 +14115,7 @@
       </c>
       <c r="E500" cm="1">
         <f t="array" ref="E500">_xll.FDS(A500,"FF_EPS(QTR_R,0)")</f>
-        <v>1.76</v>
+        <v>1.7605</v>
       </c>
       <c r="F500" cm="1">
         <f t="array" ref="F500">_xll.FDS(A500,"FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')")</f>
@@ -14152,11 +14152,11 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<FdsFormulaCache xmlns="urn:fdsformulacache" version="2" timestamp="1771582627"><![CDATA[{"ZTS^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":1.48,"ZBRA^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"XYL^FF_EPS(QTR_R,0)":1.3718,"WYNN^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":1.17,"WTW^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"WMT^FF_EPS(QTR_R,0)":0.53,"WFC^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":1.62,"WEC^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"WBA^FF_EPS(QTR_R,0)":-0.2023,"ZTS^FF_EPS(QTR_R,0)":1.3748,"ZBH^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":2.42,"XYL^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"WYNN^FF_EPS(QTR_R,0)":0.82,"WST^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":2.04,"WMT^JULIAN(FF_EPS(QTR_R,0).DATES)":46052,"WFC^FF_EPS(QTR_R,0)":1.62,"WDC^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":2.13,"WBA^JULIAN(FF_EPS(QTR_R,0).DATES)":45807,"VZ^FF_EPS(QTR_R,0)":0.5529,"VST^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":1.7472291,"VRSN^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"VLTO^FF_EPS(QTR_R,0)":1.01,"V^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":3.17,"ZTS^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"XEL^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"WRB^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":1.13,"WAB^FF_EPS(QTR_R,0)":1.1813,"VST^FF_EPS(QTR_R,0)":1.7506,"VRSK^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"VICI^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":0.71,"URI^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"ULTA^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":5.14,"TXT^FF_EPS(QTR_R,0)":1.3268,"TT^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"TRGP^FF_EPS(QTR_R,0)":null,"TFX^JULIAN(FF_EPS(QTR_R,0).DATES)":45930,"TECH^FF_EPS(QTR_R,0)":0.2421,"SYK^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"STLD^FF_EPS(QTR_R,0)":1.82,"SPGI^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"SJM^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":2.1,"SCHW^FF_EPS(QTR_R,0)":1.33,"ROP^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":5.21,"RF^FF_EPS(QTR_R,0)":0.58,"RCL^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":2.8,"PVH^FF_EPS(QTR_R,0)":0.0877,"POOL^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":0.84,"PNR^FF_EPS(QTR_R,0)":1.01,"PHM^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"PFG^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":2.19,"PCAR^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"ORCL^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":2.26,"OKE^JULIAN(FF_EPS(QTR_R,0).DATES)":45930,"NVDA^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":1.3,"NOW^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"NFLX^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":0.56,"MU^FF_EPS(QTR_R,0)":4.6046,"MTB^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"MRK^FF_EPS(QTR_R,0)":1.1909,"MNST^JULIAN(FF_EPS(QTR_R,0).DATES)":45930,"MKTX^FF_EPS(QTR_R,0)":2.51,"MDT^JULIAN(FF_EPS(QTR_R,0).DATES)":46052,"MAR^FF_EPS(QTR_R,0)":1.6518,"LYV^JULIAN(FF_EPS(QTR_R,0).DATES)":45930,"LOW^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":3.06,"LLY^FF_EPS(QTR_R,0)":7.0237,"YUM^FF_EPS(QTR_R,0)":1.91,"WYNN^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"WM^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"WBD^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":-0.06,"UPS^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":2.38,"UBER^FF_EPS(QTR_R,0)":0.142,"TSN^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":0.97,"TRV^FF_EPS(QTR_R,0)":11.058,"TMO^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"TFC^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":1.0,"TAP^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"STZ^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":3.06,"STLD^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"SNA^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":4.94,"SCHW^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"RTX^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":1.55,"RMD^FF_EPS(QTR_R,0)":2.6822,"RF^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"PYPL^FF_EPS(QTR_R,0)":1.5304,"PSA^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"POOL^FF_EPS(QTR_R,0)":0.85,"PLTR^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"PFG^FF_EPS(QTR_R,0)":2.3246,"PEG^JULIAN(FF_EPS(QTR_R,0).DATES)":45930,"OXY^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":0.31,"ORCL^FF_EPS(QTR_R,0)":2.0996,"NWSA^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":0.4,"NTAP^FF_EPS(QTR_R,0)":1.5099,"NOC^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":7.23,"NDSN^FF_EPS(QTR_R,0)":2.38,"MSI^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":4.59,"MS^FF_EPS(QTR_R,0)":2.68,"MOS^JULIAN(FF_EPS(QTR_R,0).DATES)":45930,"MMM^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":1.83,"MGM^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"MCHP^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":0.44,"MAR^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"LUV^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":0.58,"LLY^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"LH^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":4.07,"LDOS^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"KR^FF_EPS(QTR_R,0)":-2.0168,"KMI^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":0.39,"KLAC^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"KEYS^FF_EPS(QTR_R,0)":1.3237,"K^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":0.93,"JNPR^JULIAN(FF_EPS(QTR_R,0).DATES)":45838,"JCI^FF_EPS(QTR_R,0)":0.8534,"J^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":1.53,"ITW^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"IRM^FF_EPS(QTR_R,0)":0.2992,"IPG^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":0.75,"INVH^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"INCY^FF_EPS(QTR_R,0)":1.4616,"IEX^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":2.1,"ICE^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"HUM^FF_EPS(QTR_R,0)":-6.6146,"HST^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":0.2,"HRL^JULIAN(FF_EPS(QTR_R,0).DATES)":45961,"HON^FF_EPS(QTR_R,0)":0.462,"HCA^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":8.01,"HAS^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"GS^FF_EPS(QTR_R,0)":14.01,"GPC^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":1.55,"GOOG^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"GLW^FF_EPS(QTR_R,0)":0.62,"GILD^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":1.86,"GEN^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"GDDY^FF_EPS(QTR_R,0)":1.5136,"FTNT^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":0.81,"FRT^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"FMC^FF_EPS(QTR_R,0)":-13.7444,"FIS^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":1.51,"FI^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"FDX^FF_EPS(QTR_R,0)":4.0466,"FCNCA^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":51.27,"FANG^JULIAN(FF_EPS(QTR_R,0).DATES)":45930,"EXPE^FF_EPS(QTR_R,0)":1.5986,"EW^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":0.58,"ETR^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"ES^FF_EPS(QTR_R,0)":1.12,"EQIX^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":2.69,"EOG^JULIAN(FF_EPS(QTR_R,0).DATES)":45930,"EMN^FF_EPS(QTR_R,0)":0.9138,"EFX^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":2.09,"ZION^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":1.76,"WRB^FF_EPS(QTR_R,0)":1.13,"WFC^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"WAB^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"VST^JULIAN(FF_EPS(QTR_R,0).DATES)":45930,"VMC^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":1.7,"VICI^FF_EPS(QTR_R,0)":0.7133,"ULTA^FF_EPS(QTR_R,0)":5.1426,"TXT^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"TSN^FF_EPS(QTR_R,0)":0.2464,"TRGP^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"TFC^FF_EPS(QTR_R,0)":1.0,"TECH^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"SYF^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":2.04,"STZ^FF_EPS(QTR_R,0)":2.8795,"SPG^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":9.35,"SJM^FF_EPS(QTR_R,0)":2.2615,"SBUX^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":0.56,"ROP^FF_EPS(QTR_R,0)":3.97,"REGN^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":11.44,"RCL^FF_EPS(QTR_R,0)":2.7619,"PVH^JULIAN(FF_EPS(QTR_R,0).DATES)":45961,"PRU^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":3.3,"PNR^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"PH^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":7.65,"PFG^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"PAYX^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":1.26,"ORCL^JULIAN(FF_EPS(QTR_R,0).DATES)":45989,"ODFL^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":1.09,"NVDA^FF_EPS(QTR_R,0)":1.3034,"NTAP^JULIAN(FF_EPS(QTR_R,0).DATES)":45961,"NFLX^FF_EPS(QTR_R,0)":0.5602,"MU^JULIAN(FF_EPS(QTR_R,0).DATES)":45989,"MSI^FF_EPS(QTR_R,0)":3.8608,"MRK^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"MMM^FF_EPS(QTR_R,0)":1.0705,"MKTX^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"MDLZ^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":0.72,"MCHP^FF_EPS(QTR_R,0)":0.064,"LYB^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":-0.26,"LOW^FF_EPS(QTR_R,0)":2.8786,"LKQ^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":0.59,"XOM^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":1.71,"WTW^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":8.12,"WDC^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"VRTX^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"URI^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":11.09,"ULTA^JULIAN(FF_EPS(QTR_R,0).DATES)":45961,"UAL^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"TSCO^FF_EPS(QTR_R,0)":0.43,"TGT^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":1.78,"TER^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"TDG^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"SNPS^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":2.9,"SLB^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"SBUX^FF_EPS(QTR_R,0)":0.2568,"RSG^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":1.76,"PSX^FF_EPS(QTR_R,0)":7.17,"PPG^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":1.51,"PLD^FF_EPS(QTR_R,0)":1.4946,"PCAR^FF_EPS(QTR_R,0)":1.0571,"OXY^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"ON^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"O^FF_EPS(QTR_R,0)":0.345,"NSC^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":3.22,"NEM^JULIAN(FF_EPS(QTR_R,0).DATES)":45930,"NCLH^JULIAN(FF_EPS(QTR_R,0).DATES)":45930,"MTB^FF_EPS(QTR_R,0)":4.6711,"MRO^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":null,"MPC^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":4.07,"MLM^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"MCO^FF_EPS(QTR_R,0)":3.4135,"MAS^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":0.82,"LYV^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":0.73,"LUV^FF_EPS(QTR_R,0)":0.6219,"KR^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":1.05,"KMI^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"KDP^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":0.54,"IVZ^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":0.62,"IQV^FF_EPS(QTR_R,0)":2.9901,"INTU^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":3.34,"IDXX^FF_EPS(QTR_R,0)":3.08,"HSY^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"HPQ^FF_EPS(QTR_R,0)":0.8386,"HBAN^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"GNRC^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"GEN^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":0.64,"GDDY^JULIAN(FF_EPS(QTR_R,0).DATES)":45930,"FOX^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":0.82,"FI^FF_EPS(QTR_R,0)":1.5102,"FDS^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":4.51,"EXR^FF_EPS(QTR_R,0)":0.7811,"EQT^FF_EPS(QTR_R,0)":1.0769,"EMR^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"EFX^FF_EPS(QTR_R,0)":1.44,"EBAY^FF_EPS(QTR_R,0)":1.15,"DVN^FF_EPS(QTR_R,0)":0.9035,"DTE^FF_EPS(QTR_R,0)":1.7762,"DOW^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":-0.34,"DLTR^JULIAN(FF_EPS(QTR_R,0).DATES)":45961,"DHI^FF_EPS(QTR_R,0)":2.028,"DFS^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":null,"DE^JULIAN(FF_EPS(QTR_R,0).DATES)":46052,"DAL^FF_EPS(QTR_R,0)":1.8582,"CVX^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":1.52,"CTVA^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"CTLT^FF_EPS(QTR_R,0)":-0.7088,"CSGP^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":0.23,"CRWD^JULIAN(FF_EPS(QTR_R,0).DATES)":45961,"CPT^FF_EPS(QTR_R,0)":1.4335,"CPAY^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":6.04,"COR^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"COF^FF_EPS(QTR_R,0)":4.8257,"CMS^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":0.95,"CMG^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"CMA^FF_EPS(QTR_R,0)":1.27,"CINF^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":3.37,"CHTR^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"CFG^FF_EPS(QTR_R,0)":1.1265,"CE^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":0.67,"ZION^FF_EPS(QTR_R,0)":1.76,"WM^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":1.93,"WBD^FF_EPS(QTR_R,0)":-0.0597,"VTRS^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":0.67,"VLO^FF_EPS(QTR_R,0)":3.73,"URI^FF_EPS(QTR_R,0)":10.2673,"TYL^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":2.64,"TTWO^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"TSCO^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"TPR^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":2.69,"TAP^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":1.21,"STX^FF_EPS(QTR_R,0)":2.6009,"SRE^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":1.11,"ROK^FF_EPS(QTR_R,0)":2.6926,"RF^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":0.57,"RCL^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"PXD^FF_EPS(QTR_R,0)":4.5732,"PLD^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"PGR^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"PEP^FF_EPS(QTR_R,0)":1.8527,"OTIS^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":1.03,"O^JULIAN(FF_EPS(QTR_R,0).DATES)":45930,"NVR^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"NSC^FF_EPS(QTR_R,0)":2.8652,"NKE^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":0.53,"NEE^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":0.54,"MPC^FF_EPS(QTR_R,0)":5.12,"MNST^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":0.56,"MKTX^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":1.68,"META^FF_EPS(QTR_R,0)":8.8764,"LYV^FF_EPS(QTR_R,0)":0.731,"LNT^JULIAN(FF_EPS(QTR_R,0).DATES)":45930,"LIN^FF_EPS(QTR_R,0)":3.26,"LDOS^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":2.76,"KR^JULIAN(FF_EPS(QTR_R,0).DATES)":45961,"KHC^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":0.67,"JNPR^FF_EPS(QTR_R,0)":0.21,"JBL^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":2.85,"ISRG^FF_EPS(QTR_R,0)":2.2053,"ILMN^FF_EPS(QTR_R,0)":2.1688,"HWM^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"HST^FF_EPS(QTR_R,0)":0.1955,"HOLX^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"GS^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":14.01,"GPC^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"GIS^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":1.1,"FSLR^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":4.24,"FITB^FF_EPS(QTR_R,0)":1.0446,"FFIV^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":4.45,"FAST^FF_EPS(QTR_R,0)":0.2556,"EXC^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"ETN^FF_EPS(QTR_R,0)":2.91,"EPAM^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"XOM^FF_EPS(QTR_R,0)":1.534,"WTW^FF_EPS(QTR_R,0)":7.62,"VRSN^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":2.23,"UPS^FF_EPS(QTR_R,0)":2.0996,"UHS^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":5.69,"TRV^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":11.13,"TGT^FF_EPS(QTR_R,0)":1.5139,"TEL^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":2.72,"SYF^FF_EPS(QTR_R,0)":2.0414,"SNPS^FF_EPS(QTR_R,0)":2.393,"SJM^JULIAN(FF_EPS(QTR_R,0).DATES)":45961,"SBUX^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"RSG^FF_EPS(QTR_R,0)":1.7598,"PXD^JULIAN(FF_EPS(QTR_R,0).DATES)":45379,"PSX^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"PPG^FF_EPS(QTR_R,0)":1.33,"PNC^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":4.88,"PKG^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":2.32,"PEP^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"OTIS^FF_EPS(QTR_R,0)":0.9546,"OMC^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":2.59,"NXPI^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":3.35,"NEE^FF_EPS(QTR_R,0)":0.7348,"MU^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":4.78,"MSI^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"MRO^FF_EPS(QTR_R,0)":0.5089,"MCO^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"MAS^FF_EPS(QTR_R,0)":0.7971,"LUV^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"KMB^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":1.86,"KDP^FF_EPS(QTR_R,0)":0.4857,"JNJ^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":2.46,"IVZ^FF_EPS(QTR_R,0)":-2.629,"IQV^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"INTU^FF_EPS(QTR_R,0)":1.5872,"IDXX^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"HPQ^JULIAN(FF_EPS(QTR_R,0).DATES)":45961,"HAS^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":1.51,"GS^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"GM^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":2.51,"GEN^FF_EPS(QTR_R,0)":0.3107,"ZBRA^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":4.33,"WST^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"WELL^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":0.14,"WBA^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":null,"VTRS^JULIAN(FF_EPS(QTR_R,0).DATES)":45930,"VICI^JULIAN(FF_EPS(QTR_R,0).DATES)":45930,"UHS^JULIAN(FF_EPS(QTR_R,0).DATES)":45930,"TYL^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"TT^FF_EPS(QTR_R,0)":2.6445,"TROW^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":2.44,"TMUS^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":1.88,"TEL^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"SWKS^FF_EPS(QTR_R,0)":0.5262,"STT^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":2.97,"SPGI^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":4.3,"SNA^FF_EPS(QTR_R,0)":4.9375,"ROST^FF_EPS(QTR_R,0)":1.5835,"RMD^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":2.81,"REGN^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"QRVO^FF_EPS(QTR_R,0)":1.7533,"PKG^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"PG^FF_EPS(QTR_R,0)":1.7818,"PEAK^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":0.16,"PAYX^JULIAN(FF_EPS(QTR_R,0).DATES)":45989,"NXPI^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"NUE^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":1.73,"NRG^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":2.78,"NKE^JULIAN(FF_EPS(QTR_R,0).DATES)":45989,"MTD^FF_EPS(QTR_R,0)":13.9776,"MRNA^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":-2.11,"MOS^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":1.04,"MMM^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"MKC^FF_EPS(QTR_R,0)":0.8414,"MET^FF_EPS(QTR_R,0)":1.1749,"MAR^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":2.58,"LULU^JULIAN(FF_EPS(QTR_R,0).DATES)":45961,"LMT^FF_EPS(QTR_R,0)":5.7956,"LHX^FF_EPS(QTR_R,0)":1.594,"KO^FF_EPS(QTR_R,0)":0.5266,"KHC^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"K^FF_EPS(QTR_R,0)":0.8829,"JBL^JULIAN(FF_EPS(QTR_R,0).DATES)":45989,"IRM^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":0.61,"IPG^JULIAN(FF_EPS(QTR_R,0).DATES)":45930,"IFF^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":0.8,"HSIC^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":1.38,"HD^FF_EPS(QTR_R,0)":3.6191,"HAL^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":0.69,"GOOGL^FF_EPS(QTR_R,0)":2.8177,"GIS^JULIAN(FF_EPS(QTR_R,0).DATES)":45989,"GEHC^FF_EPS(QTR_R,0)":1.2888,"FSLR^JULIAN(FF_EPS(QTR_R,0).DATES)":45930,"FFIV^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"FANG^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":3.08,"EXPE^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"ESS^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":1.25,"EOG^FF_EPS(QTR_R,0)":2.704,"EL^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":0.87,"XEL^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":0.96,"WAT^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":4.53,"VRSK^FF_EPS(QTR_R,0)":1.4176,"V^FF_EPS(QTR_R,0)":3.0021,"UNP^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":2.86,"UDR^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":0.67,"TMUS^FF_EPS(QTR_R,0)":1.8821,"TFX^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":3.67,"TECH^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":0.46,"T^FF_EPS(QTR_R,0)":0.5283,"SPGI^FF_EPS(QTR_R,0)":3.7537,"SHW^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"SBAC^FF_EPS(QTR_R,0)":2.2017,"RMD^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"PWR^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"PSA^FF_EPS(QTR_R,0)":2.5986,"PODD^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":1.55,"PNC^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"PAYC^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":2.45,"ORLY^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":0.71,"OMC^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"NWSA^FF_EPS(QTR_R,0)":0.3434,"NUE^FF_EPS(QTR_R,0)":1.64,"NI^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":0.51,"NDSN^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":2.37,"MTD^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"MSFT^FF_EPS(QTR_R,0)":5.1552,"MRNA^FF_EPS(QTR_R,0)":-2.1071,"MET^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"MCK^FF_EPS(QTR_R,0)":9.5877,"MAA^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":0.48,"LYB^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"LHX^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"L^FF_EPS(QTR_R,0)":1.9439,"KMB^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"JNJ^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"ITW^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":2.72,"IRM^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"INTC^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":0.15,"ICE^FF_EPS(QTR_R,0)":1.4878,"HUBB^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":4.73,"HPE^FF_EPS(QTR_R,0)":0.1073,"GRMN^FF_EPS(QTR_R,0)":2.7283,"GM^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"GILD^FF_EPS(QTR_R,0)":1.74,"GD^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"FMC^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":1.2,"FIS^JULIAN(FF_EPS(QTR_R,0).DATES)":45930,"FCX^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":0.47,"EVRG^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":0.42,"EQR^FF_EPS(QTR_R,0)":0.982,"ENPH^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":0.71,"ED^FF_EPS(QTR_R,0)":1.9011,"EA^FF_EPS(QTR_R,0)":0.3478,"DVA^FF_EPS(QTR_R,0)":2.9359,"DRI^FF_EPS(QTR_R,0)":2.0326,"DOV^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":2.51,"DIS^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"DGX^FF_EPS(QTR_R,0)":2.18,"DECK^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":3.33,"DD^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"D^FF_EPS(QTR_R,0)":1.1632,"CVS^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":1.09,"CTSH^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"CTAS^FF_EPS(QTR_R,0)":1.2148,"CSCO^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":1.04,"CRM^JULIAN(FF_EPS(QTR_R,0).DATES)":45961,"CPRT^FF_EPS(QTR_R,0)":0.4132,"COST^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":4.5,"ZION^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"WY^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":-0.09,"WMB^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"VRTX^FF_EPS(QTR_R,0)":4.6509,"V^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"UNH^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"TXT^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":1.73,"TPR^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"TAP^FF_EPS(QTR_R,0)":1.2177,"STE^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"SMCI^FF_EPS(QTR_R,0)":0.603,"SCHW^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":1.39,"RJF^FF_EPS(QTR_R,0)":2.7855,"QRVO^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"PTC^FF_EPS(QTR_R,0)":1.3878,"POOL^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"PLTR^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":0.25,"PG^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":1.88,"OXY^FF_EPS(QTR_R,0)":-0.0688,"NEM^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":1.71,"MSCI^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"MMC^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"META^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"MCD^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":3.12,"MA^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"LRCX^FF_EPS(QTR_R,0)":1.2633,"L^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"KMX^JULIAN(FF_EPS(QTR_R,0).DATES)":45989,"KEYS^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":1.91,"IT^FF_EPS(QTR_R,0)":3.3578,"IPG^FF_EPS(QTR_R,0)":0.3375,"INTC^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"HPQ^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":0.93,"HCA^FF_EPS(QTR_R,0)":8.1401,"GWW^FF_EPS(QTR_R,0)":9.44,"GOOGL^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"FTV^FF_EPS(QTR_R,0)":0.58,"FOXA^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"FIS^FF_EPS(QTR_R,0)":0.5048,"EXPE^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":3.78,"EVRG^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"EQT^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":0.9,"ECL^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"DVN^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"DHR^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"DD^FF_EPS(QTR_R,0)":-0.3046,"D^JULIAN(FF_EPS(QTR_R,0).DATES)":45930,"CTLT^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":null,"CPB^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":0.77,"CCI^FF_EPS(QTR_R,0)":1.2723,"CB^FF_EPS(QTR_R,0)":8.0958,"BXP^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":1.56,"BRK.B^JULIAN(FF_EPS(QTR_R,0).DATES)":45930,"BKNG^FF_EPS(QTR_R,0)":44.2201,"WM^FF_EPS(QTR_R,0)":1.8344,"WAT^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"TSLA^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"TER^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":1.8,"T^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":0.52,"SWK^FF_EPS(QTR_R,0)":1.0398,"SRE^FF_EPS(QTR_R,0)":0.1177,"SMCI^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"QCOM^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":3.5,"PTC^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"PCG^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":0.36,"ODFL^FF_EPS(QTR_R,0)":1.09,"NVR^FF_EPS(QTR_R,0)":121.5553,"NRG^JULIAN(FF_EPS(QTR_R,0).DATES)":45930,"MTCH^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":0.83,"MS^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":2.68,"MOS^FF_EPS(QTR_R,0)":1.288,"MET^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":2.49,"LIN^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":4.200359,"KMI^FF_EPS(QTR_R,0)":0.4454,"KEYS^JULIAN(FF_EPS(QTR_R,0).DATES)":45961,"JPM^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"JBHT^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":1.9,"HUBB^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"GL^FF_EPS(QTR_R,0)":3.29,"GEHC^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"FE^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"FAST^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":0.26,"EXPD^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":1.64,"EIX^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":1.86,"EBAY^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":1.41,"DOV^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"DFS^FF_EPS(QTR_R,0)":4.2421,"CTVA^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":0.22,"CSGP^JULIAN(FF_EPS(QTR_R,0).DATES)":45930,"CRL^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":2.39,"COR^FF_EPS(QTR_R,0)":2.8653,"COF^JULIAN(FF_EPS(QTR_R,0).DATES)":45930,"CMS^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"CME^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"CLX^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"CI^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"CHD^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"CEG^JULIAN(FF_EPS(QTR_R,0).DATES)":45930,"CDNS^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"CCI^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"CAH^FF_EPS(QTR_R,0)":1.9705,"BSX^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":0.8,"BLK^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"BIIB^FF_EPS(QTR_R,0)":-0.3333,"BBWI^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":0.35,"AXP^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"ATO^FF_EPS(QTR_R,0)":2.4433,"APH^FF_EPS(QTR_R,0)":0.9277,"ANET^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":0.82,"AME^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"ALGN^FF_EPS(QTR_R,0)":1.8919,"AFL^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":1.57,"ADP^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"ABT^FF_EPS(QTR_R,0)":1.0166,"ZBH^FG_COMPANY_NAME":"Zimmer Biomet Holdings, Inc.","WRB^FG_COMPANY_NAME":"W. R. Berkley Corporation","VRSN^FG_COMPANY_NAME":"VeriSign, Inc.","TYL^FG_COMPANY_NAME":"Tyler Technologies, Inc.","TFX^FG_COMPANY_NAME":"Teleflex Incorporated","STLD^FG_COMPANY_NAME":"Steel Dynamics, Inc.","RTX^FG_COMPANY_NAME":"RTX Corporation","PXD^FG_COMPANY_NAME":"Pioneer Natural Resources Company","PKG^FG_COMPANY_NAME":"Packaging Corporation of America","PEAK^FG_COMPANY_NAME":"Healthpeak Properties, Inc.","NWS^FG_COMPANY_NAME":"News Corporation Class B","NCLH^FG_COMPANY_NAME":"Norwegian Cruise Line Holdings Ltd.","MNST^FG_COMPANY_NAME":"Monster Beverage Corporation","MAR^FG_COMPANY_NAME":"Marriott International, Inc. Class A","LH^FG_COMPANY_NAME":"Labcorp Holdings Inc.","JPM^FG_COMPANY_NAME":"JPMorgan Chase & Co.","INVH^FG_COMPANY_NAME":"Invitation Homes, Inc.","IBM^FG_COMPANY_NAME":"International Business Machines Corporation","GWW^FG_COMPANY_NAME":"W.W. Grainger, Inc.","GDDY^FG_COMPANY_NAME":"GoDaddy, Inc. Class A","ZBRA^FF_EPS(QTR_R,0)":1.382,"WY^FF_EPS(QTR_R,0)":0.1025,"VRSN^FF_EPS(QTR_R,0)":2.2268,"USB^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":1.26,"TXN^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":1.27,"TMUS^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"SRE^JULIAN(FF_EPS(QTR_R,0).DATES)":45930,"ROP^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"RJF^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"QCOM^FF_EPS(QTR_R,0)":2.7841,"PSX^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":2.47,"PODD^FF_EPS(QTR_R,0)":1.4406,"PLTR^FF_EPS(QTR_R,0)":0.2365,"PG^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"PCG^FF_EPS(QTR_R,0)":0.2921,"OTIS^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"NEM^FF_EPS(QTR_R,0)":1.6654,"MS^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"MOH^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":-2.75,"MLM^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":3.85,"MCD^FF_EPS(QTR_R,0)":3.03,"LYB^FF_EPS(QTR_R,0)":-0.4348,"LRCX^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"LIN^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"KVUE^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":0.27,"IT^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"IP^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":-0.08,"INCY^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":1.8,"ICE^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":1.71,"HCA^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"GWW^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"GOOG^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":2.82,"FTV^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"FOX^FF_EPS(QTR_R,0)":0.5193,"FICO^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":7.33,"ETR^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":0.51,"EQT^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"ENPH^FF_EPS(QTR_R,0)":0.2956,"DVA^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":3.4,"DRI^JULIAN(FF_EPS(QTR_R,0).DATES)":45989,"DHI^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":2.03,"CZR^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":-1.23,"CTLT^JULIAN(FF_EPS(QTR_R,0).DATES)":45565,"CPB^FF_EPS(QTR_R,0)":0.6488,"DAY^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":0.37,"CB^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"BXP^FF_EPS(QTR_R,0)":1.5617,"BR^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":1.59,"BKNG^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"BEN^FF_EPS(QTR_R,0)":0.4617,"BA^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":9.92,"AVGO^JULIAN(FF_EPS(QTR_R,0).DATES)":45961,"ATO^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"AOS^FF_EPS(QTR_R,0)":0.8961,"AMP^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":10.83,"AMAT^JULIAN(FF_EPS(QTR_R,0).DATES)":46052,"AJG^FF_EPS(QTR_R,0)":0.5802,"ZBH^FF_EPS(QTR_R,0)":0.7,"WELL^FF_EPS(QTR_R,0)":-1.859,"WAB^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":2.1,"VRSK^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":1.82,"TXN^FF_EPS(QTR_R,0)":1.2689,"TSCO^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":0.43,"TER^FF_EPS(QTR_R,0)":1.63,"T^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"SWK^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"SLB^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":0.78,"SBAC^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":2.2,"REGN^FF_EPS(QTR_R,0)":7.8567,"QCOM^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"PLD^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":1.49,"PCG^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"ODFL^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"NVDA^JULIAN(FF_EPS(QTR_R,0).DATES)":45961,"NOW^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":0.92,"MTCH^FF_EPS(QTR_R,0)":0.83,"MOH^FF_EPS(QTR_R,0)":-3.1372,"MDT^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":1.36,"LHX^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":2.86,"KEY^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":0.43,"JNPR^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":null,"JBHT^FF_EPS(QTR_R,0)":1.8959,"INCY^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"IBM^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":4.52,"HSY^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":1.71,"HPE^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":0.62,"GL^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"GE^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":1.57,"FTNT^FF_EPS(QTR_R,0)":0.6765,"FDX^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":4.82,"FAST^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"EXPD^FF_EPS(QTR_R,0)":1.6429,"EIX^FF_EPS(QTR_R,0)":4.8001,"EBAY^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"DLTR^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":1.21,"DFS^JULIAN(FF_EPS(QTR_R,0).DATES)":45747,"CTVA^FF_EPS(QTR_R,0)":-0.8181,"CRL^FF_EPS(QTR_R,0)":-5.6192,"WY^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"USB^FF_EPS(QTR_R,0)":1.2628,"UHS^FF_EPS(QTR_R,0)":5.8583,"ZBH^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"WELL^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"VZ^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":1.09,"UDR^FF_EPS(QTR_R,0)":0.6665,"SYY^FF_EPS(QTR_R,0)":0.8093,"STX^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":3.11,"SPG^FF_EPS(QTR_R,0)":0.5601,"SLB^FF_EPS(QTR_R,0)":0.5453,"SBAC^JULIAN(FF_EPS(QTR_R,0).DATES)":45930,"ROL^FF_EPS(QTR_R,0)":0.2412,"REG^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":1.09,"PYPL^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":1.23,"PSA^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":2.6,"PKG^FF_EPS(QTR_R,0)":1.1284,"O^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":0.35,"NOC^FF_EPS(QTR_R,0)":10.0495,"NDSN^JULIAN(FF_EPS(QTR_R,0).DATES)":46052,"MTCH^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"MRO^JULIAN(FF_EPS(QTR_R,0).DATES)":45565,"MO^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":1.3,"MKC^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":0.86,"MDT^FF_EPS(QTR_R,0)":0.89,"LW^FF_EPS(QTR_R,0)":0.4448,"LNT^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":1.12,"KEY^FF_EPS(QTR_R,0)":0.43,"JNJ^FF_EPS(QTR_R,0)":2.0976,"JBHT^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"ISRG^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"ILMN^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":1.35,"IBM^FF_EPS(QTR_R,0)":5.88,"HSY^FF_EPS(QTR_R,0)":1.575,"WST^FF_EPS(QTR_R,0)":1.8171,"VZ^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"VMC^FF_EPS(QTR_R,0)":1.9076,"USB^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"TTWO^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":1.2280473,"TROW^FF_EPS(QTR_R,0)":1.9881,"TMO^FF_EPS(QTR_R,0)":5.21,"TEL^FF_EPS(QTR_R,0)":2.5253,"SYY^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"STX^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"YUM^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":1.73,"WEC^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":1.42,"VTRS^FF_EPS(QTR_R,0)":-0.1101,"UDR^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"TJX^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":1.28,"SPG^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"SHW^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":2.23,"RVTY^FF_EPS(QTR_R,0)":0.8459,"ROK^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":2.75,"REG^FF_EPS(QTR_R,0)":1.0871,"PRU^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"PNW^FF_EPS(QTR_R,0)":3.3882,"PHM^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":2.56,"NXPI^FF_EPS(QTR_R,0)":1.8017,"NOC^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"NDAQ^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":0.96,"MTB^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":4.67,"MO^FF_EPS(QTR_R,0)":0.6643,"MKC^JULIAN(FF_EPS(QTR_R,0).DATES)":45989,"MAS^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"LVS^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":0.85,"LMT^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":5.8,"KEY^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"JKHY^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":1.72,"IBM^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"HST^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"HON^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":2.59,"GNRC^FF_EPS(QTR_R,0)":-0.4196,"GILD^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"GE^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"FSLR^FF_EPS(QTR_R,0)":4.2398,"FLT^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":6.04,"EXC^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":0.59,"ETN^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"EQIX^FF_EPS(QTR_R,0)":2.6937,"DUK^FF_EPS(QTR_R,0)":1.5026,"DIS^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":1.63,"DAY^JULIAN(FF_EPS(QTR_R,0).DATES)":45930,"CTSH^FF_EPS(QTR_R,0)":1.3444,"CTAS^JULIAN(FF_EPS(QTR_R,0).DATES)":45989,"CPT^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":1.44,"COP^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"CNP^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"CMI^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"CMCSA^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"CL^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"CHRW^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":1.23,"CF^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":2.724529,"CDW^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":2.57,"CBRE^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"CAG^FF_EPS(QTR_R,0)":-1.3854,"BRO^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":0.93,"BLDR^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"BG^FF_EPS(QTR_R,0)":0.4872,"BDX^FF_EPS(QTR_R,0)":1.3364,"AZO^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":31.04,"AVB^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"APD^FF_EPS(QTR_R,0)":3.0426,"AMZN^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":1.95,"XYL^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":1.42,"WDC^FF_EPS(QTR_R,0)":4.7297,"VLTO^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"UBER^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"TRMB^FF_EPS(QTR_R,0)":0.65,"TDY^FF_EPS(QTR_R,0)":5.839,"XOM^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"WMB^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":0.55,"WBD^JULIAN(FF_EPS(QTR_R,0).DATES)":45930,"VTR^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"XEL^FF_EPS(QTR_R,0)":0.95,"YUM^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"VTR^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":0.15,"UNP^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"SWKS^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"SO^FF_EPS(QTR_R,0)":0.3719,"RL^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"PXD^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":null,"PCAR^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":1.06,"NTRS^FF_EPS(QTR_R,0)":2.42,"NFLX^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"MSFT^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":4.14,"MOH^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"MGM^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":1.6,"LRCX^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":1.27,"LEN^FF_EPS(QTR_R,0)":1.9278,"KMB^FF_EPS(QTR_R,0)":1.4981,"J^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"IQV^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":3.42,"IFF^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"GRMN^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":2.79,"GM^FF_EPS(QTR_R,0)":-3.6,"GEHC^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":1.44,"FRT^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":1.48,"FDS^JULIAN(FF_EPS(QTR_R,0).DATES)":45989,"EIX^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"DXCM^FF_EPS(QTR_R,0)":0.6761,"DPZ^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":4.08,"DG^JULIAN(FF_EPS(QTR_R,0).DATES)":45961,"DAL^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":1.55,"CMCSA^FF_EPS(QTR_R,0)":0.5963,"CE^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"CCL^FF_EPS(QTR_R,0)":0.3136,"CAG^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":0.45,"BX^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"BRK.B^FF_EPS(QTR_R,0)":14.275,"BLDR^FF_EPS(QTR_R,0)":0.284,"BA^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"AOS^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"ALGN^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":3.29,"ADM^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"ACN^JULIAN(FF_EPS(QTR_R,0).DATES)":45989,"ABNB^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"A^JULIAN(FF_EPS(QTR_R,0).DATES)":45961,"WYNN^FG_COMPANY_NAME":"Wynn Resorts, Limited","WELL^FG_COMPANY_NAME":"Welltower Inc.","VTR^FG_COMPANY_NAME":"Ventas, Inc.","V^FG_COMPANY_NAME":"Visa Inc. Class A","SYY^FG_COMPANY_NAME":"Sysco Corporation","STE^FG_COMPANY_NAME":"STERIS plc","SJM^FG_COMPANY_NAME":"J.M. Smucker Company","ROST^FG_COMPANY_NAME":"Ross Stores, Inc.","NDSN^FG_COMPANY_NAME":"Nordson Corporation","MSCI^FG_COMPANY_NAME":"MSCI Inc. Class A","MO^FG_COMPANY_NAME":"Altria Group, Inc.","META^FG_COMPANY_NAME":"Meta Platforms Inc Class A","KIM^FG_COMPANY_NAME":"Kimco Realty Corporation","JKHY^FG_COMPANY_NAME":"Jack Henry & Associates, Inc.","IRM^FG_COMPANY_NAME":"Iron Mountain, Inc.","ILMN^FG_COMPANY_NAME":"Illumina, Inc.","HSY^FG_COMPANY_NAME":"Hershey Company","HCA^FG_COMPANY_NAME":"HCA Healthcare Inc","GOOGL^FG_COMPANY_NAME":"Alphabet Inc. Class A","GEN^FG_COMPANY_NAME":"Gen Digital Inc.","CB^FG_COMPANY_NAME":"Chubb Limited","BWA^FG_COMPANY_NAME":"BorgWarner Inc.","BDX^FG_COMPANY_NAME":"Becton, Dickinson and Company","APH^FG_COMPANY_NAME":"Amphenol Corporation Class A","ALL^FG_COMPANY_NAME":"Allstate Corporation","ACN^FG_COMPANY_NAME":"Accenture Plc Class A","DAL^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"ADI^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":2.46,"TFC^FG_COMPANY_NAME":"Truist Financial Corporation","SHW^FG_COMPANY_NAME":"Sherwin-Williams Company","VTR^FF_EPS(QTR_R,0)":0.146,"UNH^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":2.11,"TSLA^FF_EPS(QTR_R,0)":0.2374,"TFC^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"SO^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"RVTY^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":1.7,"PWR^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":3.16,"PPG^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"PH^FF_EPS(QTR_R,0)":6.5964,"PAYX^FF_EPS(QTR_R,0)":1.0971,"OMC^FF_EPS(QTR_R,0)":-4.02,"MAA^FF_EPS(QTR_R,0)":0.4835,"KLAC^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":8.85,"JPM^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":4.63,"IEX^FF_EPS(QTR_R,0)":1.7152,"HOLX^FF_EPS(QTR_R,0)":0.7929,"FITB^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"EXR^JULIAN(FF_EPS(QTR_R,0).DATES)":45930,"EPAM^FF_EPS(QTR_R,0)":1.98,"EFX^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"DXCM^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"CVS^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"CSX^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":0.39,"CRM^FF_EPS(QTR_R,0)":2.1912,"CPAY^FF_EPS(QTR_R,0)":3.75,"COO^FF_EPS(QTR_R,0)":0.4271,"CMS^FF_EPS(QTR_R,0)":0.9352,"CINF^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"CHD^FF_EPS(QTR_R,0)":0.5989,"CB^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":7.52,"BIO^FF_EPS(QTR_R,0)":26.6548,"BF.B^JULIAN(FF_EPS(QTR_R,0).DATES)":45961,"BBWI^FF_EPS(QTR_R,0)":0.3738,"AVY^FF_EPS(QTR_R,0)":2.1499,"ATVI^JULIAN(FF_EPS(QTR_R,0).DATES)":45107,"APH^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":0.97,"AMZN^FF_EPS(QTR_R,0)":1.9508,"AMGN^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"AMAT^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":2.38,"AJG^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"AFL^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"AEE^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"USB^FG_COMPANY_NAME":"U.S. Bancorp","UAL^FG_COMPANY_NAME":"United Airlines Holdings, Inc.","TRV^FG_COMPANY_NAME":"Travelers Companies, Inc.","ROP^FG_COMPANY_NAME":"Roper Technologies, Inc.","RE^FG_COMPANY_NAME":"Everest Group, Ltd.","PSX^FG_COMPANY_NAME":"Phillips 66","PNC^FG_COMPANY_NAME":"PNC Financial Services Group, Inc.","PFG^FG_COMPANY_NAME":"Principal Financial Group, Inc.","PARA^FG_COMPANY_NAME":"Paramount Skydance Corporation Class B","O^FG_COMPANY_NAME":"Realty Income Corporation","NSC^FG_COMPANY_NAME":"Norfolk Southern Corporation","MET^FG_COMPANY_NAME":"MetLife, Inc.","MAA^FG_COMPANY_NAME":"Mid-America Apartment Communities, Inc.","LOW^FG_COMPANY_NAME":"Lowe's Companies, Inc.","LDOS^FG_COMPANY_NAME":"Leidos Holdings, Inc.","GEHC^FG_COMPANY_NAME":"GE Healthcare Technologies Inc.","FOX^FG_COMPANY_NAME":"Fox Corporation Class B","FE^FG_COMPANY_NAME":"FirstEnergy Corp.","EXR^FG_COMPANY_NAME":"Extra Space Storage Inc.","ESS^FG_COMPANY_NAME":"Essex Property Trust, Inc.","EMR^FG_COMPANY_NAME":"Emerson Electric Co.","EA^FG_COMPANY_NAME":"Electronic Arts Inc.","DOW^FG_COMPANY_NAME":"Dow, Inc.","DFS^FG_COMPANY_NAME":"Discover Financial Services","CVX^FG_COMPANY_NAME":"Chevron Corporation","CSGP^FG_COMPANY_NAME":"CoStar Group, Inc.","CPAY^FG_COMPANY_NAME":"Corpay, Inc.","CMS^FG_COMPANY_NAME":"CMS Energy Corporation","CINF^FG_COMPANY_NAME":"Cincinnati Financial Corporation","CE^FG_COMPANY_NAME":"Celanese Corporation","BKR^FG_COMPANY_NAME":"Baker Hughes Company Class A","AWK^FG_COMPANY_NAME":"American Water Works Company, Inc.","AMT^FG_COMPANY_NAME":"American Tower Corporation","AES^FG_COMPANY_NAME":"AES Corporation","AME^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":2.01,"ADSK^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":2.67,"ACGL^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":2.98,"ZTS^FG_COMPANY_NAME":"Zoetis, Inc. Class A","WEC^FG_COMPANY_NAME":"WEC Energy Group Inc","TROW^FG_COMPANY_NAME":"T. Rowe Price Group, Inc.","SYK^FG_COMPANY_NAME":"Stryker Corporation","SRE^FG_COMPANY_NAME":"Sempra","NRG^FG_COMPANY_NAME":"NRG Energy, Inc.","NDAQ^FG_COMPANY_NAME":"Nasdaq, Inc.","UNH^FF_EPS(QTR_R,0)":0.011,"TRV^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"SWK^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":1.41,"RVTY^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"RJF^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":2.86,"PWR^FF_EPS(QTR_R,0)":2.08,"PODD^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"PH^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"PAYC^FF_EPS(QTR_R,0)":2.0653,"OKE^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":1.49,"NTRS^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"NEE^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"MSFT^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"MGM^FF_EPS(QTR_R,0)":1.112,"LOW^JULIAN(FF_EPS(QTR_R,0).DATES)":45961,"LEN^JULIAN(FF_EPS(QTR_R,0).DATES)":45989,"KLAC^FF_EPS(QTR_R,0)":8.7271,"IP^FF_EPS(QTR_R,0)":-4.52,"HD^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":3.74,"GRMN^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"GLW^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":0.72,"GE^FF_EPS(QTR_R,0)":2.3887,"FRT^FF_EPS(QTR_R,0)":1.4812,"FICO^FF_EPS(QTR_R,0)":6.6104,"FCX^FF_EPS(QTR_R,0)":0.2814,"ESS^FF_EPS(QTR_R,0)":1.2507,"ED^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":1.9,"DPZ^FF_EPS(QTR_R,0)":4.08,"DHR^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":2.23,"CPAY^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"CMI^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":5.838345,"CFG^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":1.13,"CCL^JULIAN(FF_EPS(QTR_R,0).DATES)":45989,"BWA^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":1.35,"APH^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"AON^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":4.85,"ALGN^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"ABBV^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":2.71,"WY^FG_COMPANY_NAME":"Weyerhaeuser Company","VST^FG_COMPANY_NAME":"Vistra Corp.","MS^FG_COMPANY_NAME":"Morgan Stanley","VRTX^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":5.03,"TROW^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"TDY^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":6.3,"STZ^JULIAN(FF_EPS(QTR_R,0).DATES)":45989,"SNPS^JULIAN(FF_EPS(QTR_R,0).DATES)":45961,"RTX^FF_EPS(QTR_R,0)":1.1912,"PNW^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":3.39,"PGR^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":4.582925,"PAYC^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"OKE^FF_EPS(QTR_R,0)":1.4869,"MO^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"META^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":8.88,"MAA^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"LNT^FF_EPS(QTR_R,0)":1.09,"LDOS^FF_EPS(QTR_R,0)":2.5349,"KIM^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":0.21,"JPM^FF_EPS(QTR_R,0)":4.6302,"IVZ^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"IP^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"IEX^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"HSIC^FF_EPS(QTR_R,0)":0.8345,"GPN^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":3.18,"GLW^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"FOXA^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":0.82,"EOG^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":2.71,"DVN^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":0.82,"DPZ^JULIAN(FF_EPS(QTR_R,0).DATES)":45898,"DECK^FF_EPS(QTR_R,0)":3.3346,"CTSH^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":1.35,"CSX^FF_EPS(QTR_R,0)":0.3863,"COO^JULIAN(FF_EPS(QTR_R,0).DATES)":45961,"CMA^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":1.27,"CI^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":8.08,"CDW^FF_EPS(QTR_R,0)":2.14,"CAT^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":5.16,"CAG^JULIAN(FF_EPS(QTR_R,0).DATES)":45989,"BWA^FF_EPS(QTR_R,0)":-1.2654,"BR^FF_EPS(QTR_R,0)":2.418,"BKR^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":0.78,"BIO^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"BEN^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":0.7,"BBWI^JULIAN(FF_EPS(QTR_R,0).DATES)":45961,"AZO^FF_EPS(QTR_R,0)":31.0386,"AVY^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"ATO^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":2.44,"AON^FF_EPS(QTR_R,0)":7.8199,"AMZN^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"AMAT^FF_EPS(QTR_R,0)":2.54,"AIZ^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":5.61,"AES^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":0.75,"VRTX^FG_COMPANY_NAME":"Vertex Pharmaceuticals Incorporated","URI^FG_COMPANY_NAME":"United Rentals, Inc.","SEE^FG_COMPANY_NAME":"Sealed Air Corporation","ROL^FG_COMPANY_NAME":"Rollins, Inc.","RCL^FG_COMPANY_NAME":"Royal Caribbean Group","PSA^FG_COMPANY_NAME":"Public Storage","PM^FG_COMPANY_NAME":"Philip Morris International Inc.","PFE^FG_COMPANY_NAME":"Pfizer Inc.","OXY^FG_COMPANY_NAME":"Occidental Petroleum Corporation","NXPI^FG_COMPANY_NAME":"NXP Semiconductors NV","MRO^FG_COMPANY_NAME":"Marathon Oil Corporation","MMM^FG_COMPANY_NAME":"3M Company","MDT^FG_COMPANY_NAME":"Medtronic Plc","MA^FG_COMPANY_NAME":"Mastercard Incorporated Class A","LNT^FG_COMPANY_NAME":"Alliant Energy Corporation","WRB^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"UBER^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":0.71,"TRMB^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":1.0,"STT^FF_EPS(QTR_R,0)":2.42,"SNA^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"PVH^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":2.83,"PNW^JULIAN(FF_EPS(QTR_R,0).DATES)":45930,"NTAP^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":2.05,"NDAQ^FF_EPS(QTR_R,0)":0.9003,"MSCI^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":4.66,"MNST^FF_EPS(QTR_R,0)":0.5325,"L^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":2.138259,"INVH^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":0.24,"HD^JULIAN(FF_EPS(QTR_R,0).DATES)":45961,"FICO^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"FCX^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"EXPD^JULIAN(FF_EPS(QTR_R,0).DATES)":45930,"ESS^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"ENPH^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"DHR^FF_EPS(QTR_R,0)":1.68,"DECK^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"D^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":1.06,"CRL^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"CMI^FF_EPS(QTR_R,0)":4.2662,"CFG^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"CCI^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":0.67,"BKR^FF_EPS(QTR_R,0)":0.8813,"BAX^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":0.36,"APD^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":3.16,"AME^FF_EPS(QTR_R,0)":1.7304,"ALB^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":-0.53,"AES^FF_EPS(QTR_R,0)":0.9398,"WMT^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":0.74,"TSLA^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":0.5,"TDG^FF_EPS(QTR_R,0)":6.6323,"ROST^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":1.58,"PNC^FF_EPS(QTR_R,0)":4.8782,"PEG^FF_EPS(QTR_R,0)":1.2415,"MSCI^FF_EPS(QTR_R,0)":3.811,"MLM^FF_EPS(QTR_R,0)":4.62,"LKQ^FF_EPS(QTR_R,0)":0.2578,"KMX^FF_EPS(QTR_R,0)":0.4265,"FOXA^FF_EPS(QTR_R,0)":0.5193,"FE^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":0.53,"EXR^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":0.78,"EQR^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":1.0,"EL^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"CVX^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"COF^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":3.86,"CINF^FF_EPS(QTR_R,0)":4.29,"CF^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"CCL^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":0.34,"CARR^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":0.34,"BX^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":1.75,"BAC^FF_EPS(QTR_R,0)":0.98,"AVGO^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":1.95,"AMCR^FF_EPS(QTR_R,0)":0.3816,"ALB^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"ADSK^JULIAN(FF_EPS(QTR_R,0).DATES)":45961,"ADBE^FF_EPS(QTR_R,0)":4.4508,"ABNB^FF_EPS(QTR_R,0)":0.5554,"ZBRA^FG_COMPANY_NAME":"Zebra Technologies Corporation Class A","WMB^FG_COMPANY_NAME":"Williams Companies, Inc.","VTRS^FG_COMPANY_NAME":"Viatris, Inc.","UNP^FG_COMPANY_NAME":"Union Pacific Corporation","TT^FG_COMPANY_NAME":"Trane Technologies plc","TRMB^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"SYY^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":0.99,"SO^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":0.55,"ROST^JULIAN(FF_EPS(QTR_R,0).DATES)":45961,"PM^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":1.7,"PEAK^FF_EPS(QTR_R,0)":0.1638,"NI^FF_EPS(QTR_R,0)":0.5349,"MA^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":4.76,"JKHY^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"IR^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"HON^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"GPN^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"GEV^FF_EPS(QTR_R,0)":13.3723,"DUK^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"DE^FF_EPS(QTR_R,0)":2.42,"CSGP^FF_EPS(QTR_R,0)":-0.0736,"CPRT^JULIAN(FF_EPS(QTR_R,0).DATES)":45961,"CNP^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":0.45,"CME^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":2.77,"CI^FF_EPS(QTR_R,0)":4.6444,"BX^FF_EPS(QTR_R,0)":1.2962,"BMY^FF_EPS(QTR_R,0)":0.5326,"BK^FF_EPS(QTR_R,0)":2.02,"BDX^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":2.2868385,"APTV^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":1.86,"AON^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"AMP^FF_EPS(QTR_R,0)":10.47,"AMCR^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"AKAM^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":1.86,"ADBE^JULIAN(FF_EPS(QTR_R,0).DATES)":45989,"TGT^FG_COMPANY_NAME":"Target Corporation","SWK^FG_COMPANY_NAME":"Stanley Black & Decker, Inc.","SNA^FG_COMPANY_NAME":"Snap-on Incorporated","QCOM^FG_COMPANY_NAME":"QUALCOMM Incorporated","PODD^FG_COMPANY_NAME":"Insulet Corporation","PG^FG_COMPANY_NAME":"Procter & Gamble Company","WMB^FF_EPS(QTR_R,0)":null,"SYK^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":4.47,"SMCI^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":0.69,"ROL^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":0.24,"PYPL^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"PM^FF_EPS(QTR_R,0)":1.3704,"NWSA^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"NI^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"MRNA^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"LKQ^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"KIM^FF_EPS(QTR_R,0)":0.2121,"HWM^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":1.05,"GPC^FF_EPS(QTR_R,0)":-4.3879,"FOX^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"FE^FF_EPS(QTR_R,0)":-0.0848,"EQR^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"ED^JULIAN(FF_EPS(QTR_R,0).DATES)":45930,"DIS^FF_EPS(QTR_R,0)":1.3396,"CSCO^FF_EPS(QTR_R,0)":0.7969,"CHTR^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":10.34,"CEG^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":3.04,"CARR^FF_EPS(QTR_R,0)":0.0626,"BMY^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"BK^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"BAC^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"AVGO^FF_EPS(QTR_R,0)":1.7423,"ALLE^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":1.94,"AFL^FF_EPS(QTR_R,0)":2.64,"ADP^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":2.62,"ABBV^FF_EPS(QTR_R,0)":1.0237,"YUM^FG_COMPANY_NAME":"Yum! Brands, Inc.","WM^FG_COMPANY_NAME":"Waste Management, Inc.","UNH^FG_COMPANY_NAME":"UnitedHealth Group Incorporated","TSN^FG_COMPANY_NAME":"Tyson Foods, Inc. Class A","TER^FG_COMPANY_NAME":"Teradyne, Inc.","MAS^FG_COMPANY_NAME":"Masco Corporation","LMT^FG_COMPANY_NAME":"Lockheed Martin Corporation","K^FG_COMPANY_NAME":"Kellanova","IFF^FG_COMPANY_NAME":"International Flavors & Fragrances Inc.","HSIC^FG_COMPANY_NAME":"Henry Schein, Inc.","GL^FG_COMPANY_NAME":"Globe Life Inc.","FTNT^FG_COMPANY_NAME":"Fortinet, Inc.","NTRS^FG_COMPANY_NAME":"Northern Trust Corporation","MU^FG_COMPANY_NAME":"Micron Technology, Inc.","MPWR^FG_COMPANY_NAME":"Monolithic Power Systems, Inc.","MHK^FG_COMPANY_NAME":"Mohawk Industries, Inc.","KO^FG_COMPANY_NAME":"Coca-Cola Company","UPS^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"TRGP^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":2.52,"ROL^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"PM^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"PEAK^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"MRK^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":2.04,"MHK^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":2.0,"MA^FF_EPS(QTR_R,0)":4.5212,"LH^FF_EPS(QTR_R,0)":1.98,"JCI^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":0.89,"HOLX^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":1.04,"GOOGL^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":2.82,"GEV^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"FMC^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"FDX^JULIAN(FF_EPS(QTR_R,0).DATES)":45989,"EXC^FF_EPS(QTR_R,0)":0.5848,"DTE^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":1.65,"DD^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":0.46,"CVS^FF_EPS(QTR_R,0)":2.3046,"CNP^FF_EPS(QTR_R,0)":0.4044,"CME^FF_EPS(QTR_R,0)":3.24,"CBRE^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":2.73,"BWA^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"BIO^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":2.51,"BDX^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"AVB^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":1.17,"APTV^FF_EPS(QTR_R,0)":-1.6329,"ANSS^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":null,"AMP^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"AKAM^FF_EPS(QTR_R,0)":0.968,"ACN^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":3.94,"TSLA^FG_COMPANY_NAME":"Tesla, Inc.","STZ^FG_COMPANY_NAME":"Constellation Brands, Inc. Class A","SMCI^FG_COMPANY_NAME":"Super Micro Computer, Inc.","ROK^FG_COMPANY_NAME":"Rockwell Automation, Inc.","PYPL^FG_COMPANY_NAME":"PayPal Holdings, Inc.","PNW^FG_COMPANY_NAME":"Pinnacle West Capital Corp","PEP^FG_COMPANY_NAME":"PepsiCo, Inc.","ON^FG_COMPANY_NAME":"ON Semiconductor Corporation","UNP^FF_EPS(QTR_R,0)":3.1137,"SYK^FF_EPS(QTR_R,0)":2.1966,"ROK^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"PARA^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":-0.05314813,"NWS^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":0.4,"MHK^FF_EPS(QTR_R,0)":0.6785,"LW^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":0.69,"LH^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"KIM^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"JCI^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"INVH^FF_EPS(QTR_R,0)":0.1466,"HWM^FF_EPS(QTR_R,0)":0.9208,"HBAN^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":0.3,"EW^FF_EPS(QTR_R,0)":0.1568,"EQIX^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"ECL^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":2.08,"DHI^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"CSCO^JULIAN(FF_EPS(QTR_R,0).DATES)":46052,"CPB^JULIAN(FF_EPS(QTR_R,0).DATES)":45961,"CMCSA^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":0.84,"CHTR^FF_EPS(QTR_R,0)":10.3314,"CEG^FF_EPS(QTR_R,0)":2.9712,"CARR^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"BSX^FF_EPS(QTR_R,0)":0.4493,"BLK^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":13.16,"BIIB^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":1.99,"BA^FF_EPS(QTR_R,0)":10.1182,"AMGN^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":5.29,"ALLE^FF_EPS(QTR_R,0)":1.7032,"AES^JULIAN(FF_EPS(QTR_R,0).DATES)":45930,"ADP^FF_EPS(QTR_R,0)":2.6242,"ACN^FF_EPS(QTR_R,0)":3.5359,"ABBV^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"XYL^FG_COMPANY_NAME":"Xylem Inc.","WFC^FG_COMPANY_NAME":"Wells Fargo & Company","VRSK^FG_COMPANY_NAME":"Verisk Analytics, Inc.","ULTA^FG_COMPANY_NAME":"Ulta Beauty Inc.","TEL^FG_COMPANY_NAME":"TE Connectivity plc","SLB^FG_COMPANY_NAME":"SLB Limited","LLY^FG_COMPANY_NAME":"Eli Lilly and Company","IEX^FG_COMPANY_NAME":"IDEX Corporation","HRL^FG_COMPANY_NAME":"Hormel Foods Corporation","GS^FG_COMPANY_NAME":"Goldman Sachs Group, Inc.","GIS^FG_COMPANY_NAME":"General Mills, Inc.","FSLR^FG_COMPANY_NAME":"First Solar, Inc.","AVB^FF_EPS(QTR_R,0)":1.1602,"ANSS^FF_EPS(QTR_R,0)":0.5885,"AKAM^JULIAN(FF_EPS(QTR_R,0).DATES)":45930,"TSCO^FG_COMPANY_NAME":"Tractor Supply Company","STX^FG_COMPANY_NAME":"Seagate Technology Holdings PLC","RMD^FG_COMPANY_NAME":"ResMed Inc.","PNR^FG_COMPANY_NAME":"Pentair plc","PEG^FG_COMPANY_NAME":"Public Service Enterprise Group Inc","OMC^FG_COMPANY_NAME":"Omnicom Group Inc","NTAP^FG_COMPANY_NAME":"NetApp, Inc.","MPC^FG_COMPANY_NAME":"Marathon Petroleum Corporation","KMX^FG_COMPANY_NAME":"CarMax, Inc.","HPQ^FG_COMPANY_NAME":"HP Inc.","FFIV^FG_COMPANY_NAME":"F5, Inc.","WEC^FF_EPS(QTR_R,0)":0.97,"TPR^FF_EPS(QTR_R,0)":2.6753999999999998,"SYF^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"SHW^FF_EPS(QTR_R,0)":1.92,"PTC^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":1.92,"NWS^FF_EPS(QTR_R,0)":0.3434,"NDAQ^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"MHK^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"LW^JULIAN(FF_EPS(QTR_R,0).DATES)":45989,"LEN^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":1.93,"KHC^FF_EPS(QTR_R,0)":0.5484,"JBL^FF_EPS(QTR_R,0)":1.3481,"HUM^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":-3.96,"GOOG^FF_EPS(QTR_R,0)":2.8177,"GDDY^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":1.51,"FDS^FF_EPS(QTR_R,0)":4.0564,"DTE^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"CRWD^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":0.96,"COST^FF_EPS(QTR_R,0)":4.5015,"CE^FF_EPS(QTR_R,0)":0.173,"CBRE^FF_EPS(QTR_R,0)":1.3873,"CAH^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":2.63,"BBY^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":1.4,"AZO^JULIAN(FF_EPS(QTR_R,0).DATES)":45989,"APTV^JULIAN(FF_EPS(QTR_R,0).DATES)":45930,"MTD^FG_COMPANY_NAME":"Mettler-Toledo International Inc.","MGM^FG_COMPANY_NAME":"MGM Resorts International","JNPR^FG_COMPANY_NAME":"Juniper Networks, Inc.","IR^FG_COMPANY_NAME":"Ingersoll Rand Inc.","TMO^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":6.57,"SWKS^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":1.54,"RL^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":6.22,"PARA^FF_EPS(QTR_R,0)":-0.2341,"NWS^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"NCLH^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":1.2,"MPWR^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":4.79,"INTU^JULIAN(FF_EPS(QTR_R,0).DATES)":45961,"HUM^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"HBAN^FF_EPS(QTR_R,0)":0.3032,"GNRC^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":1.61,"GD^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":4.17,"FLT^FF_EPS(QTR_R,0)":3.75,"FCNCA^FF_EPS(QTR_R,0)":45.7817,"EW^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"EPAM^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":3.26,"ECL^FF_EPS(QTR_R,0)":1.98,"DGX^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":2.42,"DAY^FF_EPS(QTR_R,0)":-1.2315,"CTRA^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":0.41,"CNC^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":-1.19,"CMA^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"CAH^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"UAL^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":3.1,"TJX^FF_EPS(QTR_R,0)":1.2806,"SEE^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":0.87,"RL^FF_EPS(QTR_R,0)":5.8135,"PRU^FF_EPS(QTR_R,0)":2.5506,"NVR^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":121.54,"MDLZ^FF_EPS(QTR_R,0)":0.5147,"LVS^FF_EPS(QTR_R,0)":0.5826,"J^FF_EPS(QTR_R,0)":1.1192,"DRI^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":2.08,"CRWD^FF_EPS(QTR_R,0)":-0.1353,"COST^JULIAN(FF_EPS(QTR_R,0).DATES)":45989,"CHRW^FF_EPS(QTR_R,0)":1.1205,"CDW^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"BLDR^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":1.12,"BBY^FF_EPS(QTR_R,0)":0.6601,"AXP^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":3.53,"AJG^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":2.38,"ADM^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":0.87,"AAPL^FF_EPS(QTR_R,0)":2.8424,"WBD^FG_COMPANY_NAME":"Warner Bros. Discovery, Inc. Series A","TDY^FG_COMPANY_NAME":"Teledyne Technologies Incorporated","STT^FG_COMPANY_NAME":"State Street Corporation","SCHW^FG_COMPANY_NAME":"Charles Schwab Corp","RL^FG_COMPANY_NAME":"Ralph Lauren Corporation Class A","PVH^FG_COMPANY_NAME":"PVH Corp.","PLTR^FG_COMPANY_NAME":"Palantir Technologies Inc. Class A","UAL^FF_EPS(QTR_R,0)":3.1927,"TJX^JULIAN(FF_EPS(QTR_R,0).DATES)":45961,"STT^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"PHM^FF_EPS(QTR_R,0)":2.5621,"PARA^JULIAN(FF_EPS(QTR_R,0).DATES)":45930,"NUE^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"NCLH^FF_EPS(QTR_R,0)":0.8458,"MPWR^FF_EPS(QTR_R,0)":3.46,"MDLZ^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"KVUE^FF_EPS(QTR_R,0)":0.17,"ITW^FF_EPS(QTR_R,0)":2.7223,"INTC^FF_EPS(QTR_R,0)":-0.1217,"HUBB^FF_EPS(QTR_R,0)":4.1832,"HAS^FF_EPS(QTR_R,0)":1.41,"GD^FF_EPS(QTR_R,0)":4.1731,"FLT^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"FCNCA^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"EVRG^FF_EPS(QTR_R,0)":0.3661,"EMR^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":1.46,"EA^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":4.875692,"DOW^FF_EPS(QTR_R,0)":-2.1512,"DGX^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"CTRA^FF_EPS(QTR_R,0)":0.4185,"CNC^FF_EPS(QTR_R,0)":-2.2399,"CLX^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":1.39,"CBOE^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":3.06,"C^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":1.19,"BG^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":1.99,"ATVI^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":null,"APD^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"ANET^FF_EPS(QTR_R,0)":0.75,"AMD^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":1.53,"ALL^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":14.31,"AIZ^FF_EPS(QTR_R,0)":4.41,"AEP^FF_EPS(QTR_R,0)":1.0714,"ACGL^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"AAPL^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"XEL^FG_COMPANY_NAME":"Xcel Energy Inc.","WBA^FG_COMPANY_NAME":"Walgreens Boots Alliance, Inc.","VLTO^FG_COMPANY_NAME":"Veralto Corporation","UDR^FG_COMPANY_NAME":"UDR, Inc.","TRGP^FG_COMPANY_NAME":"Targa Resources Corp.","MOH^FG_COMPANY_NAME":"Molina Healthcare, Inc.","LIN^FG_COMPANY_NAME":"Linde plc","KMB^FG_COMPANY_NAME":"Kimberly-Clark Corporation","JCI^FG_COMPANY_NAME":"Johnson Controls International plc","IPG^FG_COMPANY_NAME":"Interpublic Group of Companies, Inc.","ICE^FG_COMPANY_NAME":"Intercontinental Exchange, Inc.","HON^FG_COMPANY_NAME":"Honeywell International Inc.","GPN^FG_COMPANY_NAME":"Global Payments Inc.","GEV^FG_COMPANY_NAME":"GE Vernova Inc.","LW^FG_COMPANY_NAME":"Lamb Weston Holdings, Inc.","WAT^FF_EPS(QTR_R,0)":3.77,"TYL^FF_EPS(QTR_R,0)":1.505,"TGT^JULIAN(FF_EPS(QTR_R,0).DATES)":45961,"STLD^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":1.82,"SEE^FF_EPS(QTR_R,0)":1.2573,"PPL^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":0.48,"PGR^FF_EPS(QTR_R,0)":null,"ORLY^FF_EPS(QTR_R,0)":0.71,"NTRS^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":2.6365135,"MPWR^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"MCO^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":3.64,"LVS^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"KVUE^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"IT^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":3.94,"HSIC^JULIAN(FF_EPS(QTR_R,0).DATES)":45930,"HAL^FF_EPS(QTR_R,0)":0.7012,"EMR^FF_EPS(QTR_R,0)":1.0725,"CRM^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":3.25,"COR^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":4.08,"CHRW^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"CDNS^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":1.99,"BRO^FF_EPS(QTR_R,0)":0.59,"BBY^JULIAN(FF_EPS(QTR_R,0).DATES)":45961,"AXP^FF_EPS(QTR_R,0)":3.5305,"ALL^FF_EPS(QTR_R,0)":14.3672,"AIZ^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"ADM^FF_EPS(QTR_R,0)":0.9422,"UBER^FG_COMPANY_NAME":"Uber Technologies, Inc.","TDG^FG_COMPANY_NAME":"TransDigm Group Incorporated","SBUX^FG_COMPANY_NAME":"Starbucks Corporation","RJF^FG_COMPANY_NAME":"Raymond James Financial, Inc.","PTC^FG_COMPANY_NAME":"PTC Inc.","PLD^FG_COMPANY_NAME":"Prologis, Inc.","PCAR^FG_COMPANY_NAME":"PACCAR Inc","ODFL^FG_COMPANY_NAME":"Old Dominion Freight Line, Inc.","NKE^FG_COMPANY_NAME":"NIKE, Inc. Class B","MTB^FG_COMPANY_NAME":"M&T Bank Corporation","MDLZ^FG_COMPANY_NAME":"Mondelez International, Inc. Class A","STE^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":2.53,"REG^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"PFE^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":0.66,"ORLY^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"NSC^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"MPC^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"LULU^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":2.59,"KO^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":0.58,"GL^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":3.39,"FTV^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":0.9,"FITB^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":1.04,"FANG^FF_EPS(QTR_R,0)":3.5108,"ETR^FF_EPS(QTR_R,0)":0.51,"EA^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"DOW^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"DG^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":1.28,"CTRA^JULIAN(FF_EPS(QTR_R,0).DATES)":45930,"COP^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":1.02,"CNC^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"CLX^FF_EPS(QTR_R,0)":1.2878,"CBOE^FF_EPS(QTR_R,0)":2.97,"C^FF_EPS(QTR_R,0)":1.1938,"BKR^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"BG^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"BAX^FF_EPS(QTR_R,0)":-2.1595,"ATVI^FF_EPS(QTR_R,0)":0.7393,"APA^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":0.93,"ANET^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"AMD^FF_EPS(QTR_R,0)":0.9163,"AEP^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"ADI^FF_EPS(QTR_R,0)":1.6898,"ABT^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":1.5,"A^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":1.59,"WTW^FG_COMPANY_NAME":"Willis Towers Watson Public Limited Company","WAT^FG_COMPANY_NAME":"Waters Corporation","VLO^FG_COMPANY_NAME":"Valero Energy Corporation","TXT^FG_COMPANY_NAME":"Textron Inc.","TPR^FG_COMPANY_NAME":"Tapestry, Inc.","SPGI^FG_COMPANY_NAME":"S&P Global, Inc.","RF^FG_COMPANY_NAME":"Regions Financial Corporation","NWSA^FG_COMPANY_NAME":"News Corporation Class A","LHX^FG_COMPANY_NAME":"L3Harris Technologies Inc","KLAC^FG_COMPANY_NAME":"KLA Corporation","VMC^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"TXN^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"TFX^FF_EPS(QTR_R,0)":-9.2432,"SEE^JULIAN(FF_EPS(QTR_R,0).DATES)":45930,"PPL^FF_EPS(QTR_R,0)":0.4272,"PFE^FF_EPS(QTR_R,0)":-0.2898,"ON^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":0.64,"MTD^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":13.36,"MCK^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":9.34,"LULU^FF_EPS(QTR_R,0)":2.5882,"KDP^JULIAN(FF_EPS(QTR_R,0).DATES)":45930,"ISRG^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":2.53,"ILMN^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"HRL^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":0.32,"HAL^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"GIS^FF_EPS(QTR_R,0)":0.7687,"FI^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":1.99,"VLTO^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":1.04,"TTWO^FF_EPS(QTR_R,0)":-0.5022,"STE^FF_EPS(QTR_R,0)":1.9564,"RE^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":13.26,"PFE^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"NRG^FF_EPS(QTR_R,0)":0.6923,"MMC^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":2.12,"LMT^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"KO^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"K^JULIAN(FF_EPS(QTR_R,0).DATES)":45930,"IFF^FF_EPS(QTR_R,0)":0.07,"F^FF_EPS(QTR_R,0)":-2.6286,"EMN^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"DXCM^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":0.68,"DG^FF_EPS(QTR_R,0)":1.2792,"CTAS^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":1.21,"CPT^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"COP^FF_EPS(QTR_R,0)":1.1646,"CBOE^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"BRK.B^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":6.255748,"BKNG^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":48.8,"BF.B^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":0.47,"BAX^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"AWK^FF_EPS(QTR_R,0)":1.2205,"ARE^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":-6.35,"APA^FF_EPS(QTR_R,0)":0.5726,"AMT^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":1.82,"AMD^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"ADI^JULIAN(FF_EPS(QTR_R,0).DATES)":46052,"A^FF_EPS(QTR_R,0)":1.5282,"WST^FG_COMPANY_NAME":"West Pharmaceutical Services, Inc.","WAB^FG_COMPANY_NAME":"Westinghouse Air Brake Technologies Corporation","VICI^FG_COMPANY_NAME":"VICI Properties Inc","TXN^FG_COMPANY_NAME":"Texas Instruments Incorporated","TMUS^FG_COMPANY_NAME":"T-Mobile US, Inc.","REGN^FG_COMPANY_NAME":"Regeneron Pharmaceuticals, Inc.","MSFT^FG_COMPANY_NAME":"Microsoft Corporation","TT^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":2.86,"TDY^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"RTX^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"RE^FF_EPS(QTR_R,0)":10.77,"PPL^JULIAN(FF_EPS(QTR_R,0).DATES)":45930,"ON^FF_EPS(QTR_R,0)":0.4519,"NOW^FF_EPS(QTR_R,0)":0.383,"MCK^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"IR^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":0.96,"HRL^FF_EPS(QTR_R,0)":-0.102,"GWW^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":9.44,"FTNT^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"ES^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":1.12,"DOV^FF_EPS(QTR_R,0)":2.0616,"CZR^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"CMG^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":0.25,"VLO^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":3.82,"TSN^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"RE^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"PNR^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":1.18,"PEP^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":2.26,"MMC^FF_EPS(QTR_R,0)":1.6755,"MCHP^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"LLY^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":7.54,"KMX^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":0.43,"VLO^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"TDG^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":8.23,"RSG^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"QRVO^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":2.17,"PEG^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":1.13,"NKE^FF_EPS(QTR_R,0)":0.5348,"MCD^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"JKHY^FF_EPS(QTR_R,0)":1.7216,"IR^FF_EPS(QTR_R,0)":0.6723,"HPE^JULIAN(FF_EPS(QTR_R,0).DATES)":45961,"GPN^FF_EPS(QTR_R,0)":0.9169,"GEV^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":13.477591,"DUK^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":1.5,"DLTR^FF_EPS(QTR_R,0)":1.2002,"COO^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":1.15,"AVY^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":2.45,"AMGN^FF_EPS(QTR_R,0)":2.4549,"AEE^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":0.78,"UPS^FG_COMPANY_NAME":"United Parcel Service, Inc. Class B","SYF^FG_COMPANY_NAME":"Synchrony Financial","NUE^FG_COMPANY_NAME":"Nucor Corporation","MRK^FG_COMPANY_NAME":"Merck & Co., Inc.","IP^FG_COMPANY_NAME":"International Paper Company","HUBB^FG_COMPANY_NAME":"Hubbell Incorporated","F^FG_COMPANY_NAME":"Ford Motor Company","EQR^FG_COMPANY_NAME":"Equity Residential","ECL^FG_COMPANY_NAME":"Ecolab Inc.","DAY^FG_COMPANY_NAME":"Dayforce, Inc.","CLX^FG_COMPANY_NAME":"Clorox Company","C^FG_COMPANY_NAME":"Citigroup Inc.","BKNG^FG_COMPANY_NAME":"Booking Holdings Inc.","ARE^FG_COMPANY_NAME":"Alexandria Real Estate Equities, Inc.","AMGN^FG_COMPANY_NAME":"Amgen Inc.","AIZ^FG_COMPANY_NAME":"Assurant, Inc.","ACGL^FG_COMPANY_NAME":"Arch Capital Group Ltd.","GE^FG_COMPANY_NAME":"GE Aerospace","FIS^FG_COMPANY_NAME":"Fidelity National Information Services, Inc.","EQIX^FG_COMPANY_NAME":"Equinix, Inc.","DLTR^FG_COMPANY_NAME":"Dollar Tree, Inc.","DAL^FG_COMPANY_NAME":"Delta Air Lines, Inc.","CSCO^FG_COMPANY_NAME":"Cisco Systems, Inc.","CDNS^FG_COMPANY_NAME":"Cadence Design Systems, Inc.","BAC^FG_COMPANY_NAME":"Bank of America Corp","AME^FG_COMPANY_NAME":"AMETEK, Inc.","AIG^FG_COMPANY_NAME":"American International Group, Inc.","CZR^FG_COMPANY_NAME":"Caesars Entertainment, Inc.","BIO^FG_COMPANY_NAME":"Bio-Rad Laboratories, Inc. Class A","CL^FF_EPS(QTR_R,0)":-0.046,"PWR^FG_COMPANY_NAME":"Quanta Services, Inc.","JBHT^FG_COMPANY_NAME":"J.B. Hunt Transport Services, Inc.","HPE^FG_COMPANY_NAME":"Hewlett Packard Enterprise Co.","CVS^FG_COMPANY_NAME":"CVS Health Corporation","CNP^FG_COMPANY_NAME":"CenterPoint Energy, Inc.","AEP^FG_COMPANY_NAME":"American Electric Power Company, Inc.","CVX^FF_EPS(QTR_R,0)":1.39,"WMT^FG_COMPANY_NAME":"Walmart Inc.","MLM^FG_COMPANY_NAME":"Martin Marietta Materials, Inc.","CRL^FG_COMPANY_NAME":"Charles River Laboratories International, Inc.","BIIB^FG_COMPANY_NAME":"Biogen Inc.","AMAT^FG_COMPANY_NAME":"Applied Materials, Inc.","FFIV^FF_EPS(QTR_R,0)":3.0956,"FDS^FG_COMPANY_NAME":"FactSet Research Systems Inc.","F^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"APA^JULIAN(FF_EPS(QTR_R,0).DATES)":45930,"TMO^FG_COMPANY_NAME":"Thermo Fisher Scientific Inc.","MKC^FG_COMPANY_NAME":"McCormick & Company, Incorporated","KHC^FG_COMPANY_NAME":"Kraft Heinz Company","GM^FG_COMPANY_NAME":"General Motors Company","EMN^FG_COMPANY_NAME":"Eastman Chemical Company","CFG^FG_COMPANY_NAME":"Citizens Financial Group, Inc.","BF.B^FG_COMPANY_NAME":"Brown-Forman Corporation Class B","ADSK^FG_COMPANY_NAME":"Autodesk, Inc.","ITW^FG_COMPANY_NAME":"Illinois Tool Works Inc.","HD^FG_COMPANY_NAME":"Home Depot, Inc.","ETR^FG_COMPANY_NAME":"Entergy Corporation","DTE^FG_COMPANY_NAME":"DTE Energy Company","DECK^FG_COMPANY_NAME":"Deckers Outdoor Corporation","ANSS^JULIAN(FF_EPS(QTR_R,0).DATES)":45747,"VZ^FG_COMPANY_NAME":"Verizon Communications Inc.","RVTY^FG_COMPANY_NAME":"Revvity, Inc.","FMC^FG_COMPANY_NAME":"FMC Corporation","FCNCA^FG_COMPANY_NAME":"First Citizens BancShares, Inc. Class A","CME^FG_COMPANY_NAME":"CME Group Inc. Class A","EMN^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":0.75,"BMY^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":1.26,"PHM^FG_COMPANY_NAME":"PulteGroup, Inc.","LKQ^FG_COMPANY_NAME":"LKQ Corporation","CMCSA^FG_COMPANY_NAME":"Comcast Corporation Class A","ATVI^FG_COMPANY_NAME":"Activision Blizzard, Inc.","EL^FF_EPS(QTR_R,0)":0.4441,"AWK^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":1.22,"VMC^FG_COMPANY_NAME":"Vulcan Materials Company","IQV^FG_COMPANY_NAME":"IQVIA Holdings Inc","FLT^FG_COMPANY_NAME":"Corpay, Inc.","CTLT^FG_COMPANY_NAME":"Catalent Inc","BLK^FG_COMPANY_NAME":"BlackRock, Inc.","AKAM^FG_COMPANY_NAME":"Akamai Technologies, Inc.","AIG^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"AAPL^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":2.84,"TAP^FG_COMPANY_NAME":"Molson Coors Beverage Company Class B","MRNA^FG_COMPANY_NAME":"Moderna, Inc.","KDP^FG_COMPANY_NAME":"Keurig Dr Pepper Inc.","ED^FG_COMPANY_NAME":"Consolidated Edison, Inc.","ATO^FG_COMPANY_NAME":"Atmos Energy Corporation","DOV^FG_COMPANY_NAME":"Dover Corporation","CAT^FF_EPS(QTR_R,0)":5.1215,"BK^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":2.02,"AEE^FF_EPS(QTR_R,0)":0.9207,"ZION^FG_COMPANY_NAME":"Zions Bancorporation NA","REG^FG_COMPANY_NAME":"Regency Centers Corporation","NOW^FG_COMPANY_NAME":"ServiceNow, Inc.","MOS^FG_COMPANY_NAME":"Mosaic Company","MCD^FG_COMPANY_NAME":"McDonald's Corporation","LEN^FG_COMPANY_NAME":"Lennar Corporation Class A","JNJ^FG_COMPANY_NAME":"Johnson & Johnson","GRMN^FG_COMPANY_NAME":"Garmin Ltd.","EXPE^FG_COMPANY_NAME":"Expedia Group, Inc.","COO^FG_COMPANY_NAME":"Cooper Companies, Inc.","APA^FG_COMPANY_NAME":"APA Corporation","CZR^FF_EPS(QTR_R,0)":-1.2315,"FTV^FG_COMPANY_NAME":"Fortive Corp.","DVN^FG_COMPANY_NAME":"Devon Energy Corporation","ORLY^FG_COMPANY_NAME":"O'Reilly Automotive, Inc.","IDXX^FG_COMPANY_NAME":"IDEXX Laboratories, Inc.","CMG^FG_COMPANY_NAME":"Chipotle Mexican Grill, Inc.","CSX^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"OKE^FG_COMPANY_NAME":"ONEOK, Inc.","AIG^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":1.96,"DRI^FG_COMPANY_NAME":"Darden Restaurants, Inc.","CDNS^FF_EPS(QTR_R,0)":1.4221,"MCO^FG_COMPANY_NAME":"Moody's Corporation","IDXX^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":3.08,"CAT^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"BIIB^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"ADSK^FF_EPS(QTR_R,0)":1.5954,"UHS^FG_COMPANY_NAME":"Universal Health Services, Inc. Class B","SWKS^FG_COMPANY_NAME":"Skyworks Solutions, Inc.","PCG^FG_COMPANY_NAME":"PG&E Corporation","NOC^FG_COMPANY_NAME":"Northrop Grumman Corp.","L^FG_COMPANY_NAME":"Loews Corporation","INTU^FG_COMPANY_NAME":"Intuit Inc.","HST^FG_COMPANY_NAME":"Host Hotels & Resorts, Inc.","EBAY^FG_COMPANY_NAME":"eBay Inc.","D^FG_COMPANY_NAME":"Dominion Energy Inc","CRWD^FG_COMPANY_NAME":"CrowdStrike Holdings, Inc. Class A","CL^FG_COMPANY_NAME":"Colgate-Palmolive Company","BXP^FG_COMPANY_NAME":"BXP Inc","BK^FG_COMPANY_NAME":"Bank of New York Mellon Corp","APTV^FG_COMPANY_NAME":"Aptiv PLC","ABT^FG_COMPANY_NAME":"Abbott Laboratories","AFL^FG_COMPANY_NAME":"Aflac Incorporated","NFLX^FG_COMPANY_NAME":"Netflix, Inc.","LYB^FG_COMPANY_NAME":"LyondellBasell Industries NV","FI^FG_COMPANY_NAME":"Fiserv, Inc.","EXC^FG_COMPANY_NAME":"Exelon Corporation","DXCM^FG_COMPANY_NAME":"DexCom, Inc.","CRM^FG_COMPANY_NAME":"Salesforce, Inc.","AMCR^FG_COMPANY_NAME":"Amcor PLC","BF.B^FF_EPS(QTR_R,0)":0.474,"ARE^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"ALLE^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"TTWO^FG_COMPANY_NAME":"Take-Two Interactive Software, Inc.","LVS^FG_COMPANY_NAME":"Las Vegas Sands Corp.","BSX^FG_COMPANY_NAME":"Boston Scientific Corporation","BEN^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"GOOG^FG_COMPANY_NAME":"Alphabet Inc. Class C","EW^FG_COMPANY_NAME":"Edwards Lifesciences Corporation","AXP^FG_COMPANY_NAME":"American Express Company","ADBE^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":5.5,"PPL^FG_COMPANY_NAME":"PPL Corporation","KMI^FG_COMPANY_NAME":"Kinder Morgan Inc Class P","DVA^FG_COMPANY_NAME":"DaVita Inc.","CNC^FG_COMPANY_NAME":"Centene Corporation","AVY^FG_COMPANY_NAME":"Avery Dennison Corporation","AEE^FG_COMPANY_NAME":"Ameren Corporation","ALLE^FG_COMPANY_NAME":"Allegion Public Limited Company","PPG^FG_COMPANY_NAME":"PPG Industries, Inc.","IVZ^FG_COMPANY_NAME":"Invesco Ltd.","CTSH^FG_COMPANY_NAME":"Cognizant Technology Solutions Corporation Class A","BRK.B^FG_COMPANY_NAME":"Berkshire Hathaway Inc. Class B","AVGO^FG_COMPANY_NAME":"Broadcom Inc.","ETN^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":3.33,"BAC^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":0.98,"SBAC^FG_COMPANY_NAME":"SBA Communications Corp. Class A","MTCH^FG_COMPANY_NAME":"Match Group, Inc.","KEYS^FG_COMPANY_NAME":"Keysight Technologies Inc","BEN^FG_COMPANY_NAME":"Franklin Resources, Inc.","ALGN^FG_COMPANY_NAME":"Align Technology, Inc.","ES^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"ABT^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"CPB^FG_COMPANY_NAME":"Campbell's Company","AIG^FF_EPS(QTR_R,0)":1.3452,"NVR^FG_COMPANY_NAME":"NVR, Inc.","HWM^FG_COMPANY_NAME":"Howmet Aerospace Inc.","COST^FG_COMPANY_NAME":"Costco Wholesale Corporation","ALB^FG_COMPANY_NAME":"Albemarle Corporation","BLK^FF_EPS(QTR_R,0)":7.16,"MCK^FG_COMPANY_NAME":"McKesson Corporation","GILD^FG_COMPANY_NAME":"Gilead Sciences, Inc.","ES^FG_COMPANY_NAME":"Eversource Energy","EFX^FG_COMPANY_NAME":"Equifax Inc.","RSG^FG_COMPANY_NAME":"Republic Services, Inc.","EQT^FG_COMPANY_NAME":"EQT Corporation","CMA^FG_COMPANY_NAME":"Comerica Incorporated","CMG^FF_EPS(QTR_R,0)":0.2507,"AMCR^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":0.86,"XOM^FG_COMPANY_NAME":"Exxon Mobil Corporation","QRVO^FG_COMPANY_NAME":"Qorvo, Inc.","PAYX^FG_COMPANY_NAME":"Paychex, Inc.","NI^FG_COMPANY_NAME":"NiSource Inc","LYV^FG_COMPANY_NAME":"Live Nation Entertainment, Inc.","KVUE^FG_COMPANY_NAME":"Kenvue, Inc.","JBL^FG_COMPANY_NAME":"Jabil Inc.","FICO^FG_COMPANY_NAME":"Fair Isaac Corporation","EXPD^FG_COMPANY_NAME":"Expeditors International of Washington, Inc.","EPAM^FG_COMPANY_NAME":"EPAM Systems, Inc.","DIS^FG_COMPANY_NAME":"Walt Disney Company","COF^FG_COMPANY_NAME":"Capital One Financial Corp","CCL^FG_COMPANY_NAME":"Carnival Corporation","BX^FG_COMPANY_NAME":"Blackstone Inc.","BA^FG_COMPANY_NAME":"Boeing Company","APD^FG_COMPANY_NAME":"Air Products and Chemicals, Inc.","AMD^FG_COMPANY_NAME":"Advanced Micro Devices, Inc.","PAYC^FG_COMPANY_NAME":"Paycom Software, Inc.","MMC^FG_COMPANY_NAME":"Marsh & McLennan Companies, Inc.","INTC^FG_COMPANY_NAME":"Intel Corporation","GPC^FG_COMPANY_NAME":"Genuine Parts Company","GD^FG_COMPANY_NAME":"General Dynamics Corporation","DHR^FG_COMPANY_NAME":"Danaher Corporation","CI^FG_COMPANY_NAME":"Cigna Group","ABNB^FG_COMPANY_NAME":"Airbnb, Inc. Class A","SO^FG_COMPANY_NAME":"Southern Company","KR^FG_COMPANY_NAME":"Kroger Co.","CCI^FG_COMPANY_NAME":"Crown Castle Inc.","PRU^FG_COMPANY_NAME":"Prudential Financial, Inc.","OTIS^FG_COMPANY_NAME":"Otis Worldwide Corporation","FDX^FG_COMPANY_NAME":"FedEx Corporation","CHRW^FG_COMPANY_NAME":"C.H. Robinson Worldwide, Inc.","TRMB^FG_COMPANY_NAME":"Trimble Inc.","LUV^FG_COMPANY_NAME":"Southwest Airlines Co.","GNRC^FG_COMPANY_NAME":"Generac Holdings Inc.","DGX^FG_COMPANY_NAME":"Quest Diagnostics Incorporated","CTVA^FG_COMPANY_NAME":"Corteva Inc","AAPL^FG_COMPANY_NAME":"Apple Inc.","BRO^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"ANSS^FG_COMPANY_NAME":"ANSYS, Inc.","AOS^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":0.9,"EL^FG_COMPANY_NAME":"Estee Lauder Companies Inc. Class A","CPRT^FG_COMPANY_NAME":"Copart, Inc.","ADP^FG_COMPANY_NAME":"Automatic Data Processing, Inc.","BR^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"TJX^FG_COMPANY_NAME":"TJX Companies Inc","EIX^FG_COMPANY_NAME":"Edison International","BR^FG_COMPANY_NAME":"Broadridge Financial Solutions, Inc.","ADM^FG_COMPANY_NAME":"Archer-Daniels-Midland Company","ABNB^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":0.56,"KEY^FG_COMPANY_NAME":"KeyCorp","ISRG^FG_COMPANY_NAME":"Intuitive Surgical, Inc.","HBAN^FG_COMPANY_NAME":"Huntington Bancshares Incorporated","AJG^FG_COMPANY_NAME":"Arthur J. Gallagher & Co.","COP^FG_COMPANY_NAME":"ConocoPhillips","CAG^FG_COMPANY_NAME":"Conagra Brands, Inc.","DE^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":2.42,"CL^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":0.95,"C^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"ARE^FF_EPS(QTR_R,0)":-6.349,"SPG^FG_COMPANY_NAME":"Simon Property Group, Inc.","EOG^FG_COMPANY_NAME":"EOG Resources, Inc.","DHI^FG_COMPANY_NAME":"D.R. Horton, Inc.","CHTR^FG_COMPANY_NAME":"Charter Communications, Inc. Class A","AZO^FG_COMPANY_NAME":"AutoZone, Inc.","BXP^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"ALL^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"NEM^FG_COMPANY_NAME":"Newmont Corporation","INCY^FG_COMPANY_NAME":"Incyte Corporation","CBRE^FG_COMPANY_NAME":"CBRE Group, Inc. Class A","AOS^FG_COMPANY_NAME":"A. O. Smith Corporation","ABBV^FG_COMPANY_NAME":"AbbVie, Inc.","SNPS^FG_COMPANY_NAME":"Synopsys, Inc.","J^FG_COMPANY_NAME":"Jacobs Solutions Inc.","ENPH^FG_COMPANY_NAME":"Enphase Energy, Inc.","BRO^FG_COMPANY_NAME":"Brown & Brown, Inc.","AON^FG_COMPANY_NAME":"Aon Plc Class A","BG^FG_COMPANY_NAME":"Bunge Global SA","A^FG_COMPANY_NAME":"Agilent Technologies, Inc.","ACGL^FF_EPS(QTR_R,0)":3.3497,"LULU^FG_COMPANY_NAME":"lululemon athletica inc.","FRT^FG_COMPANY_NAME":"Federal Realty Investment Trust","CF^FF_EPS(QTR_R,0)":2.59,"LRCX^FG_COMPANY_NAME":"Lam Research Corporation","GLW^FG_COMPANY_NAME":"Corning Inc","FOXA^FG_COMPANY_NAME":"Fox Corporation Class A","CAT^FG_COMPANY_NAME":"Caterpillar Inc.","AVB^FG_COMPANY_NAME":"AvalonBay Communities, Inc.","MSI^FG_COMPANY_NAME":"Motorola Solutions, Inc.","CTRA^FG_COMPANY_NAME":"Coterra Energy Inc.","CPRT^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":0.41,"BBY^FG_COMPANY_NAME":"Best Buy Co., Inc.","TECH^FG_COMPANY_NAME":"Bio-Techne Corporation","PH^FG_COMPANY_NAME":"Parker-Hannifin Corporation","NVDA^FG_COMPANY_NAME":"NVIDIA Corporation","DD^FG_COMPANY_NAME":"DuPont de Nemours, Inc.","CAH^FG_COMPANY_NAME":"Cardinal Health, Inc.","FANG^FG_COMPANY_NAME":"Diamondback Energy, Inc.","BAX^FG_COMPANY_NAME":"Baxter International Inc.","ANET^FG_COMPANY_NAME":"Arista Networks, Inc.","ETN^FG_COMPANY_NAME":"Eaton Corp. Plc","BMY^FG_COMPANY_NAME":"Bristol-Myers Squibb Company","FAST^FG_COMPANY_NAME":"Fastenal Company","CEG^FG_COMPANY_NAME":"Constellation Energy Corporation","AMZN^FG_COMPANY_NAME":"Amazon.com, Inc.","HAS^FG_COMPANY_NAME":"Hasbro, Inc.","COR^FG_COMPANY_NAME":"Cencora, Inc.","CSX^FG_COMPANY_NAME":"CSX Corporation","F^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":0.13,"CHD^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":0.86,"BSX^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"ALB^FF_EPS(QTR_R,0)":-3.8731,"WDC^FG_COMPANY_NAME":"Western Digital Corporation","ORCL^FG_COMPANY_NAME":"Oracle Corporation","NEE^FG_COMPANY_NAME":"NextEra Energy, Inc.","MKTX^FG_COMPANY_NAME":"MarketAxess Holdings Inc.","HOLX^FG_COMPANY_NAME":"Hologic, Inc.","EVRG^FG_COMPANY_NAME":"Evergy, Inc.","DUK^FG_COMPANY_NAME":"Duke Energy Corporation","DG^FG_COMPANY_NAME":"Dollar General Corporation","CPT^FG_COMPANY_NAME":"Camden Property Trust","CMI^FG_COMPANY_NAME":"Cummins Inc.","CHD^FG_COMPANY_NAME":"Church & Dwight Co., Inc.","CBOE^FG_COMPANY_NAME":"Cboe Global Markets Inc","FCX^FG_COMPANY_NAME":"Freeport-McMoRan, Inc.","POOL^FG_COMPANY_NAME":"Pool Corporation","IT^FG_COMPANY_NAME":"Gartner, Inc.","CF^FG_COMPANY_NAME":"CF Industries Holdings, Inc.","DE^FG_COMPANY_NAME":"Deere & Company","CARR^FG_COMPANY_NAME":"Carrier Global Corp.","AMT^FF_EPS(QTR_R,0)":1.8192,"DPZ^FG_COMPANY_NAME":"Domino's Pizza, Inc.","BBWI^FG_COMPANY_NAME":"Bath & Body Works, Inc.","ADI^FG_COMPANY_NAME":"Analog Devices, Inc.","HUM^FG_COMPANY_NAME":"Humana Inc.","CTAS^FG_COMPANY_NAME":"Cintas Corporation","ADBE^FG_COMPANY_NAME":"Adobe Inc.","BLDR^FG_COMPANY_NAME":"Builders FirstSource, Inc.","DVA^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"AWK^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"AMT^JULIAN(FF_EPS(QTR_R,0).DATES)":45930,"AEP^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":1.19,"T^FG_COMPANY_NAME":"AT&T Inc","PGR^FG_COMPANY_NAME":"Progressive Corporation","MCHP^FG_COMPANY_NAME":"Microchip Technology Incorporated","HAL^FG_COMPANY_NAME":"Halliburton Company","FITB^FG_COMPANY_NAME":"Fifth Third Bancorp","CDW^FG_COMPANY_NAME":"CDW Corporation","AMP^FG_COMPANY_NAME":"Ameriprise Financial, Inc."}]]></FdsFormulaCache>
+<FdsFormulaCache xmlns="urn:fdsformulacache" version="2" timestamp="1772178800"><![CDATA[{"ZTS^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":1.48,"ZBRA^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"XYL^FF_EPS(QTR_R,0)":1.3753,"WYNN^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":1.17,"WTW^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"WMT^FF_EPS(QTR_R,0)":0.53,"WFC^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":1.62,"WEC^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"WBA^FF_EPS(QTR_R,0)":-0.2023,"VZ^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":1.09,"VTR^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"VRSN^FF_EPS(QTR_R,0)":2.2268,"VLTO^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":1.04,"VICI^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"URI^FF_EPS(QTR_R,0)":10.2673,"UNH^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":2.11,"UHS^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"UAL^FF_EPS(QTR_R,0)":3.1927,"TXN^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":1.27,"TT^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"TSCO^FF_EPS(QTR_R,0)":0.4289,"TRMB^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":1.0,"TPR^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"TJX^FF_EPS(QTR_R,0)":1.576,"TFC^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":1.0,"TEL^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"TDG^FF_EPS(QTR_R,0)":6.6323,"SYY^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":0.99,"SYF^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"STZ^FF_EPS(QTR_R,0)":2.8795,"STLD^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":1.82,"SRE^JULIAN(FF_EPS(QTR_R,0).DATES)":45930,"SO^FF_EPS(QTR_R,0)":0.3719,"SMCI^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":0.69,"SJM^JULIAN(FF_EPS(QTR_R,0).DATES)":45961,"SCHW^FF_EPS(QTR_R,0)":1.332,"RVTY^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":1.7,"RSG^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"ROL^FF_EPS(QTR_R,0)":0.2412,"RL^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":6.22,"RF^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"RE^FF_EPS(QTR_R,0)":10.77,"QCOM^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":3.5,"PXD^JULIAN(FF_EPS(QTR_R,0).DATES)":45379,"PTC^FF_EPS(QTR_R,0)":1.3878,"PRU^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":3.3,"ZTS^FF_EPS(QTR_R,0)":1.3748,"XOM^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"WMT^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":0.74,"WFC^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"WAB^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":2.1,"VLO^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":3.82,"UNP^FF_EPS(QTR_R,0)":3.1137,"UDR^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":0.67,"TTWO^FF_EPS(QTR_R,0)":-0.5022,"TROW^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"TMUS^FF_EPS(QTR_R,0)":1.8821,"TER^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"SWKS^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"SRE^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":1.28,"SO^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"ZBH^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"WTW^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":8.12,"WMT^JULIAN(FF_EPS(QTR_R,0).DATES)":46052,"WBD^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":-0.1,"VTR^FF_EPS(QTR_R,0)":0.146,"VRSK^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":1.82,"USB^FF_EPS(QTR_R,0)":1.2628,"TYL^FF_EPS(QTR_R,0)":1.505,"TSLA^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"TRMB^FF_EPS(QTR_R,0)":0.653,"ZTS^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"XEL^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":0.96,"WELL^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":0.14,"WAB^FF_EPS(QTR_R,0)":1.1813,"VST^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":0.55,"VLO^FF_EPS(QTR_R,0)":3.7294,"YUM^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":1.73,"WTW^FF_EPS(QTR_R,0)":7.5773,"WMB^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":0.55,"WBD^FF_EPS(QTR_R,0)":-0.0597,"VRSK^FF_EPS(QTR_R,0)":1.4176,"USB^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"UNH^FF_EPS(QTR_R,0)":0.011,"ZION^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":1.76,"XEL^FF_EPS(QTR_R,0)":0.9498,"WST^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":2.04,"WELL^FF_EPS(QTR_R,0)":-1.859,"WAB^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"VST^FF_EPS(QTR_R,0)":1.7506,"VLO^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"UDR^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"TT^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":2.86,"TSCO^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"TMO^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":6.57,"TEL^FF_EPS(QTR_R,0)":2.5253,"TAP^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":1.21,"SWK^FF_EPS(QTR_R,0)":1.0398,"SNPS^FF_EPS(QTR_R,0)":0.3405,"SEE^JULIAN(FF_EPS(QTR_R,0).DATES)":45930,"RVTY^FF_EPS(QTR_R,0)":0.8708,"ROK^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"RE^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":13.26,"QCOM^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"PSA^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":2.6,"PNW^FF_EPS(QTR_R,0)":0.126,"OXY^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"NI^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":0.51,"MOH^FF_EPS(QTR_R,0)":-3.1372,"MA^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"ZION^FF_EPS(QTR_R,0)":1.7605,"XEL^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"WST^FF_EPS(QTR_R,0)":1.8171,"WELL^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"VST^JULIAN(FF_EPS(QTR_R,0).DATES)":45930,"VICI^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":0.57,"URI^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"UBER^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":0.71,"TT^FF_EPS(QTR_R,0)":2.6445,"TRV^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":11.13,"TMO^FF_EPS(QTR_R,0)":5.21,"TAP^FF_EPS(QTR_R,0)":1.2177,"SWK^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"STLD^FF_EPS(QTR_R,0)":1.82,"SNPS^JULIAN(FF_EPS(QTR_R,0).DATES)":46052,"YUM^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"WYNN^FF_EPS(QTR_R,0)":0.82,"WMB^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"WBA^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":null,"VZ^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"VMC^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":1.7,"ULTA^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":5.14,"TXT^FF_EPS(QTR_R,0)":1.3268,"TSN^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":0.97,"TRGP^FF_EPS(QTR_R,0)":2.5249,"TFX^JULIAN(FF_EPS(QTR_R,0).DATES)":45930,"TECH^FF_EPS(QTR_R,0)":0.2421,"SYK^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"SPGI^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"XOM^FF_EPS(QTR_R,0)":1.534,"WRB^FF_EPS(QTR_R,0)":1.13,"WEC^FF_EPS(QTR_R,0)":0.97,"VRSN^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"V^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"ULTA^FF_EPS(QTR_R,0)":5.1426,"TFC^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"SYK^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":4.47,"STE^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"SCHW^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"RTX^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":1.55,"ROP^FF_EPS(QTR_R,0)":3.974,"RMD^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"PSX^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":2.47,"PPL^FF_EPS(QTR_R,0)":0.357,"PNC^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"PGR^FF_EPS(QTR_R,0)":null,"PFE^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"PAYC^FF_EPS(QTR_R,0)":2.0653,"ON^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"NWS^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":0.4,"NSC^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"NEM^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":2.52,"NDAQ^FF_EPS(QTR_R,0)":0.9003,"MTD^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"MRO^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":null,"MPWR^FF_EPS(QTR_R,0)":3.46,"MMC^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":2.12,"META^FF_EPS(QTR_R,0)":8.8764,"MDLZ^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"MCD^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":3.12,"LYB^FF_EPS(QTR_R,0)":-0.4441,"LNT^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":0.6,"LH^FF_EPS(QTR_R,0)":1.9796,"KO^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":0.58,"KMB^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":1.86,"KEY^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"JKHY^FF_EPS(QTR_R,0)":1.7216,"ITW^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":2.72,"IQV^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"INCY^FF_EPS(QTR_R,0)":1.4616,"IBM^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":4.52,"HST^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"HPQ^JULIAN(FF_EPS(QTR_R,0).DATES)":46052,"HBAN^FF_EPS(QTR_R,0)":0.3032,"ZION^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"WDC^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":2.13,"VTRS^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":0.57,"VRSK^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"TYL^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":2.64,"TSN^FF_EPS(QTR_R,0)":0.2464,"TROW^FF_EPS(QTR_R,0)":1.9881,"TDY^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"SYK^FF_EPS(QTR_R,0)":2.1966,"STX^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":3.11,"SJM^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":2.38,"RL^FF_EPS(QTR_R,0)":5.8135,"REGN^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"QRVO^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":2.17,"PXD^FF_EPS(QTR_R,0)":4.5732,"PODD^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"PM^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":1.7,"PKG^FF_EPS(QTR_R,0)":1.1284,"PGR^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"PCG^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":0.36,"OTIS^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"O^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":0.32,"NWS^FF_EPS(QTR_R,0)":0.3434,"NUE^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"NKE^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":0.53,"NDAQ^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"MSFT^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":4.14,"MRO^FF_EPS(QTR_R,0)":0.5089,"MPWR^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"MO^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":1.3,"MKC^FF_EPS(QTR_R,0)":0.8414,"MCO^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":3.64,"MAA^FF_EPS(QTR_R,0)":0.4835,"LUV^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"LKQ^FF_EPS(QTR_R,0)":0.2578,"L^FF_EPS(QTR_R,0)":1.9439,"KO^FF_EPS(QTR_R,0)":0.5266,"KHC^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":0.67,"JPM^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"JBHT^FF_EPS(QTR_R,0)":1.8959,"IRM^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":0.61,"INVH^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"IEX^FF_EPS(QTR_R,0)":1.7152,"HUBB^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":4.73,"HSIC^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":1.34,"HOLX^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"WRB^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"USB^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":1.26,"ULTA^JULIAN(FF_EPS(QTR_R,0).DATES)":45961,"TMO^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"TER^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":1.8,"TDG^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":8.23,"SBUX^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":0.56,"RTX^FF_EPS(QTR_R,0)":1.1912,"ROP^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"PWR^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":3.16,"PSX^FF_EPS(QTR_R,0)":7.1826,"PPL^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"PM^FF_EPS(QTR_R,0)":1.3704,"PKG^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"PEP^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":2.26,"PCG^FF_EPS(QTR_R,0)":0.2921,"PAYC^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"OMC^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":2.59,"NWS^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"NRG^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":1.03,"NEM^FF_EPS(QTR_R,0)":1.1892,"MTCH^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":0.83,"MSFT^FF_EPS(QTR_R,0)":5.1552,"MPC^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":4.07,"MMC^FF_EPS(QTR_R,0)":1.6755,"META^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"MCD^FF_EPS(QTR_R,0)":3.03,"LYB^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"LULU^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":2.59,"LNT^FF_EPS(QTR_R,0)":0.5487,"LH^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"L^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"KMB^FF_EPS(QTR_R,0)":1.4981,"KDP^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":0.6,"JKHY^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"ZBRA^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":4.33,"WDC^FF_EPS(QTR_R,0)":4.7297,"VTRS^FF_EPS(QTR_R,0)":-0.1101,"VMC^FF_EPS(QTR_R,0)":1.9076,"TYL^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"TSN^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"TDG^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"SYF^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":2.04,"STX^FF_EPS(QTR_R,0)":2.6009,"SRE^FF_EPS(QTR_R,0)":0.1177,"SNA^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":4.94,"SJM^FF_EPS(QTR_R,0)":2.2615,"RL^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"REG^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":1.09,"QRVO^FF_EPS(QTR_R,0)":1.7533,"PNW^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":0.13,"PM^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"PG^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":1.88,"PCG^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"ORLY^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":0.71,"O^FF_EPS(QTR_R,0)":0.3206,"NTRS^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":2.6365135,"NKE^FF_EPS(QTR_R,0)":0.5348,"NEM^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"NCLH^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":1.2,"MTCH^FF_EPS(QTR_R,0)":0.83,"MRO^JULIAN(FF_EPS(QTR_R,0).DATES)":45565,"MO^FF_EPS(QTR_R,0)":0.6643,"MKC^JULIAN(FF_EPS(QTR_R,0).DATES)":45989,"MET^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":2.49,"MCO^FF_EPS(QTR_R,0)":3.4135,"MAA^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"LULU^FF_EPS(QTR_R,0)":2.5882,"LKQ^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"LEN^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":1.93,"KO^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"KHC^FF_EPS(QTR_R,0)":0.5484,"WYNN^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"WMB^FF_EPS(QTR_R,0)":0.5979,"URI^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":11.09,"UHS^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":5.88,"TXT^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":1.73,"TRMB^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"TJX^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":1.43,"TER^FF_EPS(QTR_R,0)":1.6316,"SPGI^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":4.3,"SHW^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":2.23,"SBUX^FF_EPS(QTR_R,0)":0.2568,"RTX^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"ROL^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":0.24,"PWR^FF_EPS(QTR_R,0)":2.0789,"PSX^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"PPG^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":1.51,"PNW^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"PHM^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":2.56,"PEP^FF_EPS(QTR_R,0)":1.8527,"PARA^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":-0.12,"OMC^FF_EPS(QTR_R,0)":-4.02,"O^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"NVR^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":121.54,"NRG^FF_EPS(QTR_R,0)":0.2626,"NEE^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":0.54,"NCLH^FF_EPS(QTR_R,0)":0.8458,"MSFT^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"MRNA^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":-2.11,"MPC^FF_EPS(QTR_R,0)":5.12,"WBA^JULIAN(FF_EPS(QTR_R,0).DATES)":45807,"VTR^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":0.15,"UPS^FF_EPS(QTR_R,0)":2.0996,"UDR^FF_EPS(QTR_R,0)":0.6665,"TXN^FF_EPS(QTR_R,0)":1.2689,"TSLA^FF_EPS(QTR_R,0)":0.2374,"TRGP^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"TGT^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":1.78,"TEL^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":2.72,"SPG^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":9.35,"SNA^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"ROK^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":2.75,"RJF^FF_EPS(QTR_R,0)":2.7855,"REG^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"PVH^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":2.83,"PSA^FF_EPS(QTR_R,0)":2.5986,"POOL^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":0.84,"PLTR^FF_EPS(QTR_R,0)":0.2365,"PG^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"PCAR^FF_EPS(QTR_R,0)":1.0571,"ORLY^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"OKE^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":1.55,"NXPI^FF_EPS(QTR_R,0)":1.8017,"NTRS^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"NOW^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":0.92,"NEE^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"XOM^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":1.71,"WRB^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":1.13,"WEC^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":1.42,"V^FF_EPS(QTR_R,0)":3.0021,"UNH^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"UAL^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":3.1,"TFC^FF_EPS(QTR_R,0)":1.003,"SYY^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"STZ^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":3.06,"STE^FF_EPS(QTR_R,0)":1.9564,"SLB^FF_EPS(QTR_R,0)":0.5453,"RVTY^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"ROP^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":5.21,"RMD^FF_EPS(QTR_R,0)":2.6822,"PTC^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"PPL^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":0.41,"PNC^FF_EPS(QTR_R,0)":4.8782,"PLD^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"PGR^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":4.582925,"PEAK^FF_EPS(QTR_R,0)":0.1638,"PAYX^JULIAN(FF_EPS(QTR_R,0).DATES)":45989,"ON^FF_EPS(QTR_R,0)":0.4519,"NWSA^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"NUE^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":1.73,"NSC^FF_EPS(QTR_R,0)":2.8652,"NFLX^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"MTD^FF_EPS(QTR_R,0)":13.9776,"MS^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"MOH^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":-2.75,"MMM^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"META^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":8.88,"MCHP^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"LYB^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":-0.26,"LOW^FF_EPS(QTR_R,0)":1.7772,"LH^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":4.07,"KR^JULIAN(FF_EPS(QTR_R,0).DATES)":45961,"KIM^FF_EPS(QTR_R,0)":0.2121,"KEY^FF_EPS(QTR_R,0)":0.4294,"JKHY^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":1.72,"IVZ^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"IQV^FF_EPS(QTR_R,0)":2.9901,"INCY^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":1.8,"ICE^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"HST^FF_EPS(QTR_R,0)":0.1955,"HOLX^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":1.04,"HBAN^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":0.3,"ZBRA^FF_EPS(QTR_R,0)":1.382,"WAT^FF_EPS(QTR_R,0)":3.7684,"UHS^FF_EPS(QTR_R,0)":7.0608,"TMUS^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":1.88,"SWKS^FF_EPS(QTR_R,0)":0.5262,"SPGI^FF_EPS(QTR_R,0)":3.7537,"ROK^FF_EPS(QTR_R,0)":2.6926,"PXD^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":null,"PRU^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"PNR^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"PHM^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"PEP^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"PAYX^FF_EPS(QTR_R,0)":1.0971,"ORCL^JULIAN(FF_EPS(QTR_R,0).DATES)":45989,"NXPI^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"NOC^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"MOS^FF_EPS(QTR_R,0)":-1.6367,"MMC^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"MGM^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":1.6,"MDLZ^FF_EPS(QTR_R,0)":0.5147,"MAS^FF_EPS(QTR_R,0)":0.7971,"LLY^FF_EPS(QTR_R,0)":7.0237,"JPM^FF_EPS(QTR_R,0)":4.6302,"JCI^FF_EPS(QTR_R,0)":0.8534,"J^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"IPG^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":0.75,"INTU^FF_EPS(QTR_R,0)":1.5872,"ZBH^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":2.42,"TSLA^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":0.5,"TECH^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"SLB^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"SBAC^JULIAN(FF_EPS(QTR_R,0).DATES)":45930,"PEG^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":0.72,"PAYC^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":2.45,"ON^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":0.64,"NWSA^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":0.4,"NTAP^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":2.05,"NKE^JULIAN(FF_EPS(QTR_R,0).DATES)":45989,"NDSN^JULIAN(FF_EPS(QTR_R,0).DATES)":46052,"MTB^FF_EPS(QTR_R,0)":4.6711,"MRNA^FF_EPS(QTR_R,0)":-2.1071,"MAS^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"LRCX^FF_EPS(QTR_R,0)":1.2633,"LLY^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"LEN^JULIAN(FF_EPS(QTR_R,0).DATES)":45989,"ZBH^FF_EPS(QTR_R,0)":0.7032,"WAT^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"VICI^FF_EPS(QTR_R,0)":0.566,"TMUS^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"RE^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"PWR^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"PNC^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":4.88,"PH^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":7.65,"PEG^FF_EPS(QTR_R,0)":1.2415,"NI^FF_EPS(QTR_R,0)":0.5349,"NDAQ^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":0.96,"MTB^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"MOS^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"MLM^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":3.85,"MGM^FF_EPS(QTR_R,0)":1.112,"MCO^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"MAR^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":2.58,"LW^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":0.69,"LKQ^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":0.59,"JCI^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"ISRG^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"IPG^FF_EPS(QTR_R,0)":0.3375,"GWW^FF_EPS(QTR_R,0)":9.4748,"GPN^FF_EPS(QTR_R,0)":0.8988,"GOOG^FF_EPS(QTR_R,0)":2.8177,"GLW^FF_EPS(QTR_R,0)":0.62,"GILD^FF_EPS(QTR_R,0)":1.7422,"GEHC^FF_EPS(QTR_R,0)":1.2888,"GD^FF_EPS(QTR_R,0)":4.1731,"FSLR^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"FOX^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"FITB^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"FI^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"FDX^JULIAN(FF_EPS(QTR_R,0).DATES)":45989,"FCNCA^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"F^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"EXC^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":0.59,"ETR^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":0.51,"ES^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":1.12,"EQIX^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":2.69,"ENPH^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":0.71,"YUM^FF_EPS(QTR_R,0)":1.9107,"WM^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":1.93,"VZ^FF_EPS(QTR_R,0)":0.5529,"V^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":3.17,"UBER^FF_EPS(QTR_R,0)":0.142,"TJX^JULIAN(FF_EPS(QTR_R,0).DATES)":46052,"TDY^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":6.3,"SWK^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":1.41,"SPG^FF_EPS(QTR_R,0)":0.5601,"SHW^FF_EPS(QTR_R,0)":1.9164,"RMD^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":2.81,"PPG^FF_EPS(QTR_R,0)":1.341,"PH^FF_EPS(QTR_R,0)":6.5964,"PARA^FF_EPS(QTR_R,0)":-0.5172,"NWSA^FF_EPS(QTR_R,0)":0.3434,"NTAP^FF_EPS(QTR_R,0)":1.5099,"NI^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"MSI^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":4.59,"MRNA^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"MGM^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"MAR^FF_EPS(QTR_R,0)":1.6518,"LW^FF_EPS(QTR_R,0)":0.4448,"LRCX^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"LIN^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":4.200359,"LDOS^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":2.76,"KLAC^FF_EPS(QTR_R,0)":8.7271,"KEY^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":0.43,"JNPR^FF_EPS(QTR_R,0)":0.21,"WM^FF_EPS(QTR_R,0)":1.8344,"VTRS^JULIAN(FF_EPS(QTR_R,0).DATES)":45930,"TSCO^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":0.43,"TDY^FF_EPS(QTR_R,0)":5.839,"SHW^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"RCL^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":2.8,"PVH^FF_EPS(QTR_R,0)":0.0877,"PPG^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"PH^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"PEG^JULIAN(FF_EPS(QTR_R,0).DATES)":45930,"PARA^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"NTAP^JULIAN(FF_EPS(QTR_R,0).DATES)":45961,"NCLH^JULIAN(FF_EPS(QTR_R,0).DATES)":45930,"MOH^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"MLM^FF_EPS(QTR_R,0)":4.6116,"MCK^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":9.34,"LW^JULIAN(FF_EPS(QTR_R,0).DATES)":45989,"XYL^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"WM^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"UPS^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":2.38,"TRV^FF_EPS(QTR_R,0)":11.058,"TGT^FF_EPS(QTR_R,0)":1.5139,"TAP^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"STZ^JULIAN(FF_EPS(QTR_R,0).DATES)":45989,"SEE^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":0.87,"RSG^FF_EPS(QTR_R,0)":1.7598,"RJF^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":2.86,"RCL^FF_EPS(QTR_R,0)":2.7619,"PVH^JULIAN(FF_EPS(QTR_R,0).DATES)":45961,"POOL^FF_EPS(QTR_R,0)":0.85,"WFC^FF_EPS(QTR_R,0)":1.6189,"VRTX^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":5.03,"UAL^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"TGT^JULIAN(FF_EPS(QTR_R,0).DATES)":45961,"T^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":0.52,"STX^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"SO^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":0.55,"ROST^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":1.58,"RCL^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"PG^FF_EPS(QTR_R,0)":1.7818,"NVR^FF_EPS(QTR_R,0)":121.5553,"NFLX^FF_EPS(QTR_R,0)":0.5602,"MRK^FF_EPS(QTR_R,0)":1.1909,"MCK^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"LVS^FF_EPS(QTR_R,0)":0.5826,"LOW^JULIAN(FF_EPS(QTR_R,0).DATES)":46052,"LIN^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"LDOS^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"KMX^FF_EPS(QTR_R,0)":0.4265,"KIM^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":0.21,"JNJ^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":2.46,"JBL^JULIAN(FF_EPS(QTR_R,0).DATES)":45989,"WAT^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":4.53,"VLTO^FF_EPS(QTR_R,0)":1.014,"SYF^FF_EPS(QTR_R,0)":2.0414,"REGN^FF_EPS(QTR_R,0)":7.8567,"PRU^FF_EPS(QTR_R,0)":2.5506,"PNR^FF_EPS(QTR_R,0)":1.0085,"PFE^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":0.66,"PAYX^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":1.26,"ORCL^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":2.26,"NUE^FF_EPS(QTR_R,0)":1.6376,"MS^FF_EPS(QTR_R,0)":2.6797,"MOS^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":0.22,"MMM^FF_EPS(QTR_R,0)":1.0705,"MHK^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"MAS^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":0.82,"LULU^JULIAN(FF_EPS(QTR_R,0).DATES)":45961,"KMI^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"K^JULIAN(FF_EPS(QTR_R,0).DATES)":45930,"JCI^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":0.89,"J^FF_EPS(QTR_R,0)":1.1192,"INTU^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":3.34,"GRMN^FF_EPS(QTR_R,0)":2.7283,"GOOGL^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"GM^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"GIS^JULIAN(FF_EPS(QTR_R,0).DATES)":45989,"GEN^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"GDDY^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"FTNT^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"FOXA^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"FITB^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":1.04,"FI^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":1.99,"FDX^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":4.82,"FCNCA^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":51.27,"F^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":0.13,"EXPD^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":1.49,"XYL^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":1.42,"UBER^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"PLTR^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":0.25,"ORLY^FF_EPS(QTR_R,0)":0.71,"NVDA^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":1.62,"MTB^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":4.67,"MPC^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"MKC^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":0.86,"LVS^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":0.85,"L^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":2.138259,"KMI^FF_EPS(QTR_R,0)":0.4454,"KDP^FF_EPS(QTR_R,0)":0.259,"IVZ^FF_EPS(QTR_R,0)":-2.629,"IRM^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"IP^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"ILMN^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":1.35,"ICE^FF_EPS(QTR_R,0)":1.4878,"GRMN^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":2.79,"GILD^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"GE^FF_EPS(QTR_R,0)":2.3887,"FTV^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"FOXA^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":0.82,"FLT^FF_EPS(QTR_R,0)":3.75,"FAST^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":0.26,"EXR^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"EW^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":0.58,"EQT^FF_EPS(QTR_R,0)":1.0769,"EIX^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"DXCM^FF_EPS(QTR_R,0)":0.6761,"DPZ^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":5.35,"DLTR^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":1.21,"DG^JULIAN(FF_EPS(QTR_R,0).DATES)":45961,"DAL^FF_EPS(QTR_R,0)":1.8582,"CTSH^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":1.35,"STT^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":2.97,"VRTX^FF_EPS(QTR_R,0)":4.6509,"TXT^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"TFX^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":1.93,"STT^FF_EPS(QTR_R,0)":2.4157,"RJF^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"PLTR^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"NVDA^FF_EPS(QTR_R,0)":1.7584,"MSI^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"MHK^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":2.0,"MCHP^FF_EPS(QTR_R,0)":0.064,"LLY^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":7.54,"KLAC^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":8.85,"IR^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":0.96,"INVH^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":0.24,"ILMN^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"IBM^FF_EPS(QTR_R,0)":5.8799,"GRMN^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"GLW^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"GEV^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":13.39,"GE^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"FTNT^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":0.81,"FOXA^FF_EPS(QTR_R,0)":0.5193,"FDS^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":4.51,"FAST^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"EXPE^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":3.78,"EW^FF_EPS(QTR_R,0)":0.1104,"EQR^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":1.0,"EFX^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":2.09,"DXCM^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"DUK^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"DLTR^FF_EPS(QTR_R,0)":1.2002,"DFS^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":null,"DAL^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"CTSH^FF_EPS(QTR_R,0)":1.3444,"CSCO^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":1.04,"CPRT^JULIAN(FF_EPS(QTR_R,0).DATES)":46052,"COO^FF_EPS(QTR_R,0)":0.4271,"CNC^FF_EPS(QTR_R,0)":-2.2399,"CMA^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":1.27,"CHTR^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"WY^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":-0.09,"TFX^FF_EPS(QTR_R,0)":-9.2432,"STT^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"SCHW^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":1.39,"RF^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":0.57,"PEAK^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":0.16,"ORCL^FF_EPS(QTR_R,0)":2.0996,"NEE^FF_EPS(QTR_R,0)":0.7348,"MSCI^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":4.66,"MHK^FF_EPS(QTR_R,0)":0.6785,"LVS^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"KVUE^FF_EPS(QTR_R,0)":0.1719,"K^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":0.93,"ITW^FF_EPS(QTR_R,0)":2.7223,"IR^FF_EPS(QTR_R,0)":0.6723,"WY^FF_EPS(QTR_R,0)":0.1025,"VRSN^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":2.23,"SBUX^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"RF^FF_EPS(QTR_R,0)":0.5841,"PCAR^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":1.06,"OKE^FF_EPS(QTR_R,0)":1.5478,"NTRS^FF_EPS(QTR_R,0)":2.4234,"MSCI^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"MNST^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":0.56,"LUV^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":0.58,"KVUE^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"K^FF_EPS(QTR_R,0)":0.8829,"JBL^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":2.85,"ITW^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"IR^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"HWM^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":1.05,"HSY^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"HPE^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":0.62,"HD^JULIAN(FF_EPS(QTR_R,0).DATES)":46052,"HAL^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"FOX^FF_EPS(QTR_R,0)":0.5193,"FDS^JULIAN(FF_EPS(QTR_R,0).DATES)":45989,"ESS^FF_EPS(QTR_R,0)":1.2507,"EOG^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"EMN^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"EFX^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"DVN^FF_EPS(QTR_R,0)":0.9035,"DOW^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":-0.34,"DHI^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"DD^FF_EPS(QTR_R,0)":-0.3046,"CVS^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":1.09,"CTAS^JULIAN(FF_EPS(QTR_R,0).DATES)":45989,"CRL^FF_EPS(QTR_R,0)":-5.6192,"CPB^FF_EPS(QTR_R,0)":0.6488,"COF^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":3.86,"CMG^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"CINF^FF_EPS(QTR_R,0)":4.2921,"CF^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":2.724529,"DAY^JULIAN(FF_EPS(QTR_R,0).DATES)":45930,"CAT^FF_EPS(QTR_R,0)":5.1215,"BX^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":1.75,"BRO^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":0.93,"BLDR^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"BG^FF_EPS(QTR_R,0)":0.4872,"BAX^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":0.36,"AWK^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"ARE^FF_EPS(QTR_R,0)":-6.349,"AON^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":4.85,"AMP^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"AMD^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"ALB^FF_EPS(QTR_R,0)":-3.8731,"AES^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":0.75,"ADM^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"WST^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"WY^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"UNP^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"T^FF_EPS(QTR_R,0)":0.5283,"SLB^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":0.78,"REG^FF_EPS(QTR_R,0)":1.0871,"PODD^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":1.55,"PFG^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"ODFL^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":1.09,"NOW^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"MTCH^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"MNST^FF_EPS(QTR_R,0)":0.5325,"MDT^FF_EPS(QTR_R,0)":0.8864,"LYV^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"LHX^FF_EPS(QTR_R,0)":1.594,"ISRG^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":2.53,"IFF^FF_EPS(QTR_R,0)":0.07,"HAL^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":0.69,"GNRC^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"GILD^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":1.86,"FICO^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":7.33,"FDX^FF_EPS(QTR_R,0)":4.0466,"FANG^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":1.74,"ETR^FF_EPS(QTR_R,0)":0.5141,"EQT^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":0.9,"EOG^FF_EPS(QTR_R,0)":1.3006,"DUK^FF_EPS(QTR_R,0)":1.5026,"DE^FF_EPS(QTR_R,0)":2.42,"D^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":0.68,"CTLT^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":null,"CRM^FF_EPS(QTR_R,0)":2.067,"COR^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":4.08,"COF^FF_EPS(QTR_R,0)":4.8257,"CME^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"CFG^FF_EPS(QTR_R,0)":1.1265,"CE^FF_EPS(QTR_R,0)":0.173,"DAY^FF_EPS(QTR_R,0)":-1.2315,"CBRE^FF_EPS(QTR_R,0)":1.3873,"CAG^JULIAN(FF_EPS(QTR_R,0).DATES)":45989,"BX^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"BRO^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"BMY^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"BKR^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"BIO^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"BF.B^JULIAN(FF_EPS(QTR_R,0).DATES)":45961,"BBY^JULIAN(FF_EPS(QTR_R,0).DATES)":45961,"AMZN^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":1.95,"ADBE^FF_EPS(QTR_R,0)":4.4508,"ABT^FF_EPS(QTR_R,0)":1.0303,"ZBH^FG_COMPANY_NAME":"Zimmer Biomet Holdings, Inc.","WBD^FG_COMPANY_NAME":"Warner Bros. Discovery, Inc. Series A","URI^FG_COMPANY_NAME":"United Rentals, Inc.","TRV^FG_COMPANY_NAME":"Travelers Companies, Inc.","T^FG_COMPANY_NAME":"AT&T Inc","SMCI^FG_COMPANY_NAME":"Super Micro Computer, Inc.","RTX^FG_COMPANY_NAME":"RTX Corporation","SEE^FF_EPS(QTR_R,0)":1.2573,"PODD^FF_EPS(QTR_R,0)":1.4406,"PFE^FF_EPS(QTR_R,0)":-0.2898,"MSI^FF_EPS(QTR_R,0)":3.8608,"MDT^JULIAN(FF_EPS(QTR_R,0).DATES)":46052,"KMX^JULIAN(FF_EPS(QTR_R,0).DATES)":45989,"KDP^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"JBHT^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":1.9,"ISRG^FF_EPS(QTR_R,0)":2.2053,"IFF^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"HWM^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"HSIC^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"HOLX^FF_EPS(QTR_R,0)":0.7929,"HAL^FF_EPS(QTR_R,0)":0.7012,"GPC^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":1.55,"GM^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":2.51,"FSLR^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":4.84,"FMC^FF_EPS(QTR_R,0)":-13.7444,"FICO^FF_EPS(QTR_R,0)":6.6104,"FANG^FF_EPS(QTR_R,0)":-5.0807,"EXPD^FF_EPS(QTR_R,0)":1.4908,"EL^FF_EPS(QTR_R,0)":0.4441,"ED^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"DXCM^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":0.68,"DOW^FF_EPS(QTR_R,0)":-2.1512,"DIS^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"DG^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":1.28,"DE^JULIAN(FF_EPS(QTR_R,0).DATES)":46052,"D^FF_EPS(QTR_R,0)":0.6325,"CVS^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"CSGP^FF_EPS(QTR_R,0)":0.11,"COR^FF_EPS(QTR_R,0)":2.8653,"CMS^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"CL^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":0.95,"CHTR^FF_EPS(QTR_R,0)":10.3314,"CBRE^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"CAT^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"BBWI^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":0.35,"BA^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":9.92,"AWK^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":1.22,"AVB^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":1.17,"ARE^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":-6.35,"APD^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":3.16,"AMZN^FF_EPS(QTR_R,0)":1.9508,"AMGN^FF_EPS(QTR_R,0)":2.4549,"AMCR^FF_EPS(QTR_R,0)":0.3816,"ALL^FF_EPS(QTR_R,0)":14.3672,"AKAM^FF_EPS(QTR_R,0)":0.5788,"AIG^FF_EPS(QTR_R,0)":1.3452,"TXN^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"T^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"QRVO^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"PEAK^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"ODFL^FF_EPS(QTR_R,0)":1.0933,"NOC^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":7.23,"MSCI^FF_EPS(QTR_R,0)":3.811,"MNST^JULIAN(FF_EPS(QTR_R,0).DATES)":45930,"MDLZ^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":0.72,"LHX^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"INVH^FF_EPS(QTR_R,0)":0.1466,"IEX^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":2.1,"HRL^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":0.34,"HD^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":2.72,"GWW^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":9.44,"GM^FF_EPS(QTR_R,0)":-3.6,"GDDY^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":1.8,"FSLR^FF_EPS(QTR_R,0)":4.8384,"FICO^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"EXPD^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"ETR^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"EQT^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"DTE^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":1.65,"DG^FF_EPS(QTR_R,0)":1.2792,"DD^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":0.46,"CTVA^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":0.22,"CTLT^FF_EPS(QTR_R,0)":-0.7088,"CRM^JULIAN(FF_EPS(QTR_R,0).DATES)":46052,"CPB^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":0.77,"COF^JULIAN(FF_EPS(QTR_R,0).DATES)":45930,"CMCSA^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":0.84,"CL^FF_EPS(QTR_R,0)":-0.046,"CFG^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"CE^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"CARR^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":0.34,"C^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":1.19,"BWA^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":1.35,"BRK.B^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":6.255748,"BLK^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":13.16,"BKNG^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":48.8,"BIIB^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":1.99,"BEN^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":0.7,"APD^FF_EPS(QTR_R,0)":3.0426,"AON^FF_EPS(QTR_R,0)":7.8199,"ADP^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"ADBE^JULIAN(FF_EPS(QTR_R,0).DATES)":45989,"ABT^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"YUM^FG_COMPANY_NAME":"Yum! Brands, Inc.","WBA^FG_COMPANY_NAME":"Walgreens Boots Alliance, Inc.","UPS^FG_COMPANY_NAME":"United Parcel Service, Inc. Class B","TROW^FG_COMPANY_NAME":"T. Rowe Price Group, Inc.","SYY^FG_COMPANY_NAME":"Sysco Corporation","STE^FG_COMPANY_NAME":"STERIS plc","RSG^FG_COMPANY_NAME":"Republic Services, Inc.","PWR^FG_COMPANY_NAME":"Quanta Services, Inc.","PHM^FG_COMPANY_NAME":"PulteGroup, Inc.","ORCL^FG_COMPANY_NAME":"Oracle Corporation","NOC^FG_COMPANY_NAME":"Northrop Grumman Corp.","MRO^FG_COMPANY_NAME":"Marathon Oil Corporation","MET^FG_COMPANY_NAME":"MetLife, Inc.","MAA^FG_COMPANY_NAME":"Mid-America Apartment Communities, Inc.","LEN^FG_COMPANY_NAME":"Lennar Corporation Class A","JNPR^FG_COMPANY_NAME":"Juniper Networks, Inc.","INTU^FG_COMPANY_NAME":"Intuit Inc.","HPE^FG_COMPANY_NAME":"Hewlett Packard Enterprise Co.","GLW^FG_COMPANY_NAME":"Corning Inc","FLT^FG_COMPANY_NAME":"Corpay, Inc.","EXC^FG_COMPANY_NAME":"Exelon Corporation","EQIX^FG_COMPANY_NAME":"Equinix, Inc.","DTE^FG_COMPANY_NAME":"DTE Energy Company","D^FG_COMPANY_NAME":"Dominion Energy Inc","CPB^FG_COMPANY_NAME":"Campbell's Company","CINF^FG_COMPANY_NAME":"Cincinnati Financial Corporation","CAT^FG_COMPANY_NAME":"Caterpillar Inc.","BK^FG_COMPANY_NAME":"Bank of New York Mellon Corp","BBWI^FG_COMPANY_NAME":"Bath & Body Works, Inc.","AVGO^FG_COMPANY_NAME":"Broadcom Inc.","APA^FG_COMPANY_NAME":"APA Corporation","AMGN^FG_COMPANY_NAME":"Amgen Inc.","ALB^FG_COMPANY_NAME":"Albemarle Corporation","TTWO^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":1.2280473,"SYY^FF_EPS(QTR_R,0)":0.8093,"SBAC^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":2.2,"QCOM^FF_EPS(QTR_R,0)":2.7841,"PNR^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":1.18,"ODFL^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"NOC^FF_EPS(QTR_R,0)":10.0495,"MMM^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":1.83,"LUV^FF_EPS(QTR_R,0)":0.6219,"KMI^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":0.39,"JBHT^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"IRM^FF_EPS(QTR_R,0)":0.2992,"HUM^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":-3.96,"HD^FF_EPS(QTR_R,0)":2.58,"GPC^FF_EPS(QTR_R,0)":-4.3879,"GDDY^FF_EPS(QTR_R,0)":1.7998,"FMC^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"FDS^FF_EPS(QTR_R,0)":4.0564,"FANG^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"EL^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"ECL^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":2.08,"DTE^FF_EPS(QTR_R,0)":1.7762,"DOW^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"DHR^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":2.23,"D^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"CSGP^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"CRL^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":2.39,"COR^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"CMI^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":5.838345,"CDW^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":2.57,"CCL^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":0.34,"CBOE^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":3.06,"BEN^FF_EPS(QTR_R,0)":0.4617,"BBWI^FF_EPS(QTR_R,0)":0.3738,"BA^FF_EPS(QTR_R,0)":10.1182,"AWK^FF_EPS(QTR_R,0)":1.2205,"AVB^FF_EPS(QTR_R,0)":1.1602,"AON^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"AMZN^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"AMGN^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"AMCR^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"ALL^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"AKAM^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"AIG^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"AEP^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"AAPL^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"WMT^FG_COMPANY_NAME":"Walmart Inc.","VRSK^FG_COMPANY_NAME":"Verisk Analytics, Inc.","TXT^FG_COMPANY_NAME":"Textron Inc.","TFC^FG_COMPANY_NAME":"Truist Financial Corporation","SYK^FG_COMPANY_NAME":"Stryker Corporation","SJM^FG_COMPANY_NAME":"J.M. Smucker Company","REGN^FG_COMPANY_NAME":"Regeneron Pharmaceuticals, Inc.","PODD^FG_COMPANY_NAME":"Insulet Corporation","WDC^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"TTWO^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"SBAC^FF_EPS(QTR_R,0)":2.2017,"NXPI^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":3.35,"NFLX^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":0.56,"MS^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":2.68,"MCK^FF_EPS(QTR_R,0)":9.5877,"JPM^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":4.63,"INTU^JULIAN(FF_EPS(QTR_R,0).DATES)":45961,"IEX^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"HUM^FF_EPS(QTR_R,0)":-6.6146,"HRL^FF_EPS(QTR_R,0)":-0.102,"GWW^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"GEV^FF_EPS(QTR_R,0)":13.3723,"FRT^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":1.48,"FI^FF_EPS(QTR_R,0)":1.5102,"FCX^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":0.47,"EXC^FF_EPS(QTR_R,0)":0.5848,"ETN^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":3.33,"EQR^FF_EPS(QTR_R,0)":0.982,"ENPH^FF_EPS(QTR_R,0)":0.2956,"DVN^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":0.82,"CTVA^FF_EPS(QTR_R,0)":-0.8181,"CTLT^JULIAN(FF_EPS(QTR_R,0).DATES)":45565,"CPB^JULIAN(FF_EPS(QTR_R,0).DATES)":45961,"CNP^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":0.45,"CMCSA^FF_EPS(QTR_R,0)":0.5963,"CL^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"CHRW^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":1.23,"CBOE^FF_EPS(QTR_R,0)":2.9733,"CARR^FF_EPS(QTR_R,0)":0.0626,"C^FF_EPS(QTR_R,0)":1.1938,"BWA^FF_EPS(QTR_R,0)":-1.2654,"BRK.B^FF_EPS(QTR_R,0)":14.275,"BLK^FF_EPS(QTR_R,0)":7.1584,"BKNG^FF_EPS(QTR_R,0)":44.2201,"BIIB^FF_EPS(QTR_R,0)":-0.3333,"AVB^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"ARE^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"APD^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"AEE^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":0.78,"ADM^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":0.87,"ACN^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":3.94,"ABNB^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":0.56,"XYL^FG_COMPANY_NAME":"Xylem Inc.","WAT^FG_COMPANY_NAME":"Waters Corporation","UNP^FG_COMPANY_NAME":"Union Pacific Corporation","TRMB^FG_COMPANY_NAME":"Trimble Inc.","TER^FG_COMPANY_NAME":"Teradyne, Inc.","SRE^FG_COMPANY_NAME":"Sempra","ROST^FG_COMPANY_NAME":"Ross Stores, Inc.","PVH^FG_COMPANY_NAME":"PVH Corp.","PH^FG_COMPANY_NAME":"Parker-Hannifin Corporation","ON^FG_COMPANY_NAME":"ON Semiconductor Corporation","NKE^FG_COMPANY_NAME":"NIKE, Inc. Class B","WBD^JULIAN(FF_EPS(QTR_R,0).DATES)":45930,"TRV^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"SWKS^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":1.54,"RSG^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":1.76,"PYPL^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":1.23,"PCAR^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"MLM^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"MCHP^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":0.44,"LRCX^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":1.27,"LEN^FF_EPS(QTR_R,0)":1.9278,"KMB^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"JNPR^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":null,"J^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":1.53,"INTC^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":0.15,"IDXX^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":3.08,"HUM^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"HRL^JULIAN(FF_EPS(QTR_R,0).DATES)":45961,"HCA^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":8.01,"TROW^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":2.44,"STLD^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"PLD^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":1.49,"MKTX^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":1.68,"MCD^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"KLAC^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"HUBB^FF_EPS(QTR_R,0)":4.1832,"HPQ^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":0.81,"GS^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":14.01,"GEN^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":0.64,"GD^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":4.17,"FRT^FF_EPS(QTR_R,0)":1.4812,"FFIV^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":4.45,"FCX^FF_EPS(QTR_R,0)":0.2814,"F^FF_EPS(QTR_R,0)":-2.6286,"EXC^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"ETN^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"ENPH^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"ECL^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"DHR^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"DFS^FF_EPS(QTR_R,0)":4.2421,"CZR^FF_EPS(QTR_R,0)":-1.2315,"CTVA^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"CTAS^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":1.21,"CSCO^FF_EPS(QTR_R,0)":0.7969,"CPAY^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":6.04,"CNP^FF_EPS(QTR_R,0)":0.4044,"CCL^JULIAN(FF_EPS(QTR_R,0).DATES)":45989,"CBOE^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"CARR^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"C^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"BWA^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"BRK.B^JULIAN(FF_EPS(QTR_R,0).DATES)":45930,"BLK^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"BKNG^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"AZO^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":31.04,"AVY^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":2.45,"ATVI^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":null,"APTV^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":1.86,"AFL^FF_EPS(QTR_R,0)":2.6393,"UNP^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":2.86,"TECH^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":0.46,"POOL^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"PFG^FF_EPS(QTR_R,0)":2.3246,"OMC^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"NRG^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"MTD^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":13.36,"MO^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"MDT^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":1.36,"LIN^FF_EPS(QTR_R,0)":3.2643,"KMX^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":0.43,"KEYS^JULIAN(FF_EPS(QTR_R,0).DATES)":46052,"IT^FF_EPS(QTR_R,0)":3.3578,"ILMN^FF_EPS(QTR_R,0)":2.1688,"HAS^FF_EPS(QTR_R,0)":1.4137,"GNRC^FF_EPS(QTR_R,0)":-0.4196,"GEHC^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"FIS^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"FAST^FF_EPS(QTR_R,0)":0.2556,"EXPE^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"ES^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"EPAM^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"DPZ^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"DE^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":2.42,"CTRA^JULIAN(FF_EPS(QTR_R,0).DATES)":45930,"CRM^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":3.81,"COST^FF_EPS(QTR_R,0)":4.5015,"CME^FF_EPS(QTR_R,0)":3.24,"CI^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"CFG^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":1.13,"CE^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":0.67,"DAY^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":0.37,"CBRE^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":2.73,"CAT^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":5.16,"CAG^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":0.45,"BX^FF_EPS(QTR_R,0)":1.2962,"BRO^FF_EPS(QTR_R,0)":0.59,"BMY^FF_EPS(QTR_R,0)":0.5326,"BKR^FF_EPS(QTR_R,0)":0.8813,"BIO^FF_EPS(QTR_R,0)":26.6548,"BF.B^FF_EPS(QTR_R,0)":0.474,"BBY^FF_EPS(QTR_R,0)":0.6601,"BAC^FF_EPS(QTR_R,0)":0.9698,"ABT^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":1.5,"ZBRA^FG_COMPANY_NAME":"Zebra Technologies Corporation Class A","WDC^FG_COMPANY_NAME":"Western Digital Corporation","USB^FG_COMPANY_NAME":"U.S. Bancorp","TSCO^FG_COMPANY_NAME":"Tractor Supply Company","TAP^FG_COMPANY_NAME":"Molson Coors Beverage Company Class B","SNA^FG_COMPANY_NAME":"Snap-on Incorporated","RL^FG_COMPANY_NAME":"Ralph Lauren Corporation Class A","PYPL^FG_COMPANY_NAME":"PayPal Holdings, Inc.","PLD^FG_COMPANY_NAME":"Prologis, Inc.","OTIS^FG_COMPANY_NAME":"Otis Worldwide Corporation","NRG^FG_COMPANY_NAME":"NRG Energy, Inc.","MSCI^FG_COMPANY_NAME":"MSCI Inc. Class A","MGM^FG_COMPANY_NAME":"MGM Resorts International","LUV^FG_COMPANY_NAME":"Southwest Airlines Co.","KMX^FG_COMPANY_NAME":"CarMax, Inc.","K^FG_COMPANY_NAME":"Kellanova","IP^FG_COMPANY_NAME":"International Paper Company","HRL^FG_COMPANY_NAME":"Hormel Foods Corporation","GNRC^FG_COMPANY_NAME":"Generac Holdings Inc.","FOX^FG_COMPANY_NAME":"Fox Corporation Class B","EXPE^FG_COMPANY_NAME":"Expedia Group, Inc.","EL^FG_COMPANY_NAME":"Estee Lauder Companies Inc. Class A","DIS^FG_COMPANY_NAME":"Walt Disney Company","DAY^FG_COMPANY_NAME":"Dayforce, Inc.","CPT^FG_COMPANY_NAME":"Camden Property Trust","CLX^FG_COMPANY_NAME":"Clorox Company","CBOE^FG_COMPANY_NAME":"Cboe Global Markets Inc","BKR^FG_COMPANY_NAME":"Baker Hughes Company Class A","BDX^FG_COMPANY_NAME":"Becton, Dickinson and Company","AWK^FG_COMPANY_NAME":"American Water Works Company, Inc.","APH^FG_COMPANY_NAME":"Amphenol Corporation Class A","AMT^FG_COMPANY_NAME":"American Tower Corporation","ALL^FG_COMPANY_NAME":"Allstate Corporation","AES^FG_COMPANY_NAME":"AES Corporation","ACN^FG_COMPANY_NAME":"Accenture Plc Class A","SMCI^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"REGN^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":11.44,"OKE^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"SPG^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"PSA^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"LHX^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":2.86,"IT^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"IFF^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":0.8,"HSIC^FF_EPS(QTR_R,0)":0.8535,"HAS^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"GNRC^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":1.61,"FRT^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"EVRG^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":0.42,"EIX^FF_EPS(QTR_R,0)":4.8001,"EA^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"CSX^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"CPT^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"COP^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"CMI^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"CLX^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"CHD^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"CDNS^FF_EPS(QTR_R,0)":1.4221,"CB^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":7.52,"AXP^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"AMAT^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":2.38,"ALB^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"AES^FF_EPS(QTR_R,0)":0.9398,"AAPL^FF_EPS(QTR_R,0)":2.8424,"VLO^FG_COMPANY_NAME":"Valero Energy Corporation","UBER^FG_COMPANY_NAME":"Uber Technologies, Inc.","TPR^FG_COMPANY_NAME":"Tapestry, Inc.","TDG^FG_COMPANY_NAME":"TransDigm Group Incorporated","SPGI^FG_COMPANY_NAME":"S&P Global, Inc.","SBUX^FG_COMPANY_NAME":"Starbucks Corporation","RF^FG_COMPANY_NAME":"Regions Financial Corporation","PSX^FG_COMPANY_NAME":"Phillips 66","PLTR^FG_COMPANY_NAME":"Palantir Technologies Inc. Class A","PEAK^FG_COMPANY_NAME":"Healthpeak Properties, Inc.","OMC^FG_COMPANY_NAME":"Omnicom Group Inc","MS^FG_COMPANY_NAME":"Morgan Stanley","MMM^FG_COMPANY_NAME":"3M Company","MDLZ^FG_COMPANY_NAME":"Mondelez International, Inc. Class A","LLY^FG_COMPANY_NAME":"Eli Lilly and Company","KDP^FG_COMPANY_NAME":"Keurig Dr Pepper Inc.","HUM^FG_COMPANY_NAME":"Humana Inc.","GEN^FG_COMPANY_NAME":"Gen Digital Inc.","EW^FG_COMPANY_NAME":"Edwards Lifesciences Corporation","EBAY^FG_COMPANY_NAME":"eBay Inc.","DE^FG_COMPANY_NAME":"Deere & Company","CTRA^FG_COMPANY_NAME":"Coterra Energy Inc.","CPRT^FG_COMPANY_NAME":"Copart, Inc.","CMS^FG_COMPANY_NAME":"CMS Energy Corporation","C^FG_COMPANY_NAME":"Citigroup Inc.","AVY^FG_COMPANY_NAME":"Avery Dennison Corporation","ADM^FG_COMPANY_NAME":"Archer-Daniels-Midland Company","NDSN^FG_COMPANY_NAME":"Nordson Corporation","MMC^FG_COMPANY_NAME":"Marsh & McLennan Companies, Inc.","KO^FG_COMPANY_NAME":"Coca-Cola Company","ITW^FG_COMPANY_NAME":"Illinois Tool Works Inc.","INTC^FG_COMPANY_NAME":"Intel Corporation","HD^FG_COMPANY_NAME":"Home Depot, Inc.","GOOGL^FG_COMPANY_NAME":"Alphabet Inc. Class A","FDS^FG_COMPANY_NAME":"FactSet Research Systems Inc.","CCL^FG_COMPANY_NAME":"Carnival Corporation","AOS^FG_COMPANY_NAME":"A. O. Smith Corporation","AMD^FG_COMPANY_NAME":"Advanced Micro Devices, Inc.","AIZ^FG_COMPANY_NAME":"Assurant, Inc.","A^FG_COMPANY_NAME":"Agilent Technologies, Inc.","CME^FG_COMPANY_NAME":"CME Group Inc. Class A","COR^FG_COMPANY_NAME":"Cencora, Inc.","ATO^FG_COMPANY_NAME":"Atmos Energy Corporation","VRTX^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"SNPS^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":3.77,"MRK^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":2.04,"LDOS^FF_EPS(QTR_R,0)":2.5349,"JNPR^JULIAN(FF_EPS(QTR_R,0).DATES)":45838,"IDXX^FF_EPS(QTR_R,0)":3.0838,"HPQ^FF_EPS(QTR_R,0)":0.5848,"GEHC^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":1.44,"FFIV^FF_EPS(QTR_R,0)":3.0956,"EVRG^FF_EPS(QTR_R,0)":0.3661,"EQIX^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"DPZ^FF_EPS(QTR_R,0)":5.349,"DGX^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":2.42,"CSGP^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":0.31,"CMG^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":0.25,"CINF^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":3.37,"BKR^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":0.78,"BG^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"BAX^FF_EPS(QTR_R,0)":-2.1595,"ATO^FF_EPS(QTR_R,0)":2.4433,"AOS^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":0.9,"AMT^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"AMAT^FF_EPS(QTR_R,0)":2.5357,"AKAM^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":1.84,"ADM^FF_EPS(QTR_R,0)":0.9422,"ACGL^FF_EPS(QTR_R,0)":3.3497,"A^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":1.36,"WYNN^FG_COMPANY_NAME":"Wynn Resorts, Limited","UAL^FG_COMPANY_NAME":"United Airlines Holdings, Inc.","REG^FG_COMPANY_NAME":"Regency Centers Corporation","PCG^FG_COMPANY_NAME":"PG&E Corporation","NTAP^FG_COMPANY_NAME":"NetApp, Inc.","LYB^FG_COMPANY_NAME":"LyondellBasell Industries NV","EOG^FG_COMPANY_NAME":"EOG Resources, Inc.","DOV^FG_COMPANY_NAME":"Dover Corporation","CTLT^FG_COMPANY_NAME":"Catalent Inc","CHTR^FG_COMPANY_NAME":"Charter Communications, Inc. Class A","BLDR^FG_COMPANY_NAME":"Builders FirstSource, Inc.","CZR^FG_COMPANY_NAME":"Caesars Entertainment, Inc.","BAC^FG_COMPANY_NAME":"Bank of America Corp","ALLE^FG_COMPANY_NAME":"Allegion Public Limited Company","VMC^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"SNA^FF_EPS(QTR_R,0)":4.9375,"NVR^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"MAR^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"IQV^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":3.42,"EVRG^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"DVN^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"CPRT^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":0.36,"COO^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":1.15,"CMG^FF_EPS(QTR_R,0)":0.2507,"CDNS^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"CB^FF_EPS(QTR_R,0)":8.0958,"BXP^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":1.56,"ATO^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"AJG^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":2.38,"AES^JULIAN(FF_EPS(QTR_R,0).DATES)":45930,"WY^FG_COMPANY_NAME":"Weyerhaeuser Company","VICI^FG_COMPANY_NAME":"VICI Properties Inc","TYL^FG_COMPANY_NAME":"Tyler Technologies, Inc.","TMUS^FG_COMPANY_NAME":"T-Mobile US, Inc.","SPG^FG_COMPANY_NAME":"Simon Property Group, Inc.","SBAC^FG_COMPANY_NAME":"SBA Communications Corp. Class A","PSA^FG_COMPANY_NAME":"Public Storage","PCAR^FG_COMPANY_NAME":"PACCAR Inc","OKE^FG_COMPANY_NAME":"ONEOK, Inc.","NDAQ^FG_COMPANY_NAME":"Nasdaq, Inc.","MCO^FG_COMPANY_NAME":"Moody's Corporation","LKQ^FG_COMPANY_NAME":"LKQ Corporation","JPM^FG_COMPANY_NAME":"JPMorgan Chase & Co.","IT^FG_COMPANY_NAME":"Gartner, Inc.","HUBB^FG_COMPANY_NAME":"Hubbell Incorporated","HCA^FG_COMPANY_NAME":"HCA Healthcare Inc","GEHC^FG_COMPANY_NAME":"GE Healthcare Technologies Inc.","FMC^FG_COMPANY_NAME":"FMC Corporation","FCX^FG_COMPANY_NAME":"Freeport-McMoRan, Inc.","EVRG^FG_COMPANY_NAME":"Evergy, Inc.","EA^FG_COMPANY_NAME":"Electronic Arts Inc.","DD^FG_COMPANY_NAME":"DuPont de Nemours, Inc.","CMI^FG_COMPANY_NAME":"Cummins Inc.","BXP^FG_COMPANY_NAME":"BXP Inc","BBY^FG_COMPANY_NAME":"Best Buy Co., Inc.","ADI^FG_COMPANY_NAME":"Analog Devices, Inc.","CHRW^FG_COMPANY_NAME":"C.H. Robinson Worldwide, Inc.","AVB^FG_COMPANY_NAME":"AvalonBay Communities, Inc.","AON^FG_COMPANY_NAME":"Aon Plc Class A","AMCR^FG_COMPANY_NAME":"Amcor PLC","AIG^FG_COMPANY_NAME":"American International Group, Inc.","PPL^FG_COMPANY_NAME":"PPL Corporation","KMB^FG_COMPANY_NAME":"Kimberly-Clark Corporation","JNJ^FG_COMPANY_NAME":"Johnson & Johnson","HST^FG_COMPANY_NAME":"Host Hotels & Resorts, Inc.","FITB^FG_COMPANY_NAME":"Fifth Third Bancorp","COST^FG_COMPANY_NAME":"Costco Wholesale Corporation","CBRE^FG_COMPANY_NAME":"CBRE Group, Inc. Class A","ATVI^FG_COMPANY_NAME":"Activision Blizzard, Inc.","VLTO^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"PLD^FF_EPS(QTR_R,0)":1.4946,"MAA^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":0.48,"KVUE^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":0.27,"IDXX^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"HPE^FF_EPS(QTR_R,0)":0.1073,"GS^FF_EPS(QTR_R,0)":14.0109,"GLW^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":0.72,"FFIV^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"EPAM^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":3.26,"DOV^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":2.51,"DGX^FF_EPS(QTR_R,0)":2.18,"CSCO^JULIAN(FF_EPS(QTR_R,0).DATES)":46052,"CPRT^FF_EPS(QTR_R,0)":0.36,"CINF^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"CF^FF_EPS(QTR_R,0)":2.5881,"BF.B^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":0.47,"BAX^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"AVY^FF_EPS(QTR_R,0)":2.1499,"AOS^FF_EPS(QTR_R,0)":0.8961,"AMP^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":10.83,"AMAT^JULIAN(FF_EPS(QTR_R,0).DATES)":46052,"AJG^FF_EPS(QTR_R,0)":0.5802,"AEP^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":1.19,"ACGL^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"A^FF_EPS(QTR_R,0)":1.07,"WAB^FG_COMPANY_NAME":"Westinghouse Air Brake Technologies Corporation","TXN^FG_COMPANY_NAME":"Texas Instruments Incorporated","RVTY^FG_COMPANY_NAME":"Revvity, Inc.","RE^FG_COMPANY_NAME":"Everest Group, Ltd.","PKG^FG_COMPANY_NAME":"Packaging Corporation of America","ODFL^FG_COMPANY_NAME":"Old Dominion Freight Line, Inc.","NSC^FG_COMPANY_NAME":"Norfolk Southern Corporation","MRNA^FG_COMPANY_NAME":"Moderna, Inc.","MLM^FG_COMPANY_NAME":"Martin Marietta Materials, Inc.","LW^FG_COMPANY_NAME":"Lamb Weston Holdings, Inc.","KMI^FG_COMPANY_NAME":"Kinder Morgan Inc Class P","INCY^FG_COMPANY_NAME":"Incyte Corporation","GOOG^FG_COMPANY_NAME":"Alphabet Inc. Class C","GE^FG_COMPANY_NAME":"GE Aerospace","FCNCA^FG_COMPANY_NAME":"First Citizens BancShares, Inc. Class A","ENPH^FG_COMPANY_NAME":"Enphase Energy, Inc.","DLTR^FG_COMPANY_NAME":"Dollar Tree, Inc.","CTAS^FG_COMPANY_NAME":"Cintas Corporation","CPAY^FG_COMPANY_NAME":"Corpay, Inc.","CCI^FG_COMPANY_NAME":"Crown Castle Inc.","LHX^FG_COMPANY_NAME":"L3Harris Technologies Inc","FAST^FG_COMPANY_NAME":"Fastenal Company","BWA^FG_COMPANY_NAME":"BorgWarner Inc.","AMAT^FG_COMPANY_NAME":"Applied Materials, Inc.","PAYC^FG_COMPANY_NAME":"Paycom Software, Inc.","FIS^FG_COMPANY_NAME":"Fidelity National Information Services, Inc.","CSGP^FG_COMPANY_NAME":"CoStar Group, Inc.","BSX^FG_COMPANY_NAME":"Boston Scientific Corporation","ANET^FG_COMPANY_NAME":"Arista Networks, Inc.","SMCI^FF_EPS(QTR_R,0)":0.603,"PKG^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":2.32,"NVDA^JULIAN(FF_EPS(QTR_R,0).DATES)":46052,"MRK^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"MA^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":4.76,"JNJ^FF_EPS(QTR_R,0)":2.0976,"ICE^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":1.71,"HPE^JULIAN(FF_EPS(QTR_R,0).DATES)":45961,"GE^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":1.57,"FOX^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":0.82,"FE^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":0.53,"EXR^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":1.36,"ETN^FF_EPS(QTR_R,0)":2.91,"EPAM^FF_EPS(QTR_R,0)":1.98,"EFX^FF_EPS(QTR_R,0)":1.4374,"DVA^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":3.4,"DOV^FF_EPS(QTR_R,0)":2.0616,"DGX^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"DAL^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":1.55,"CTSH^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"CRWD^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":0.96,"COO^JULIAN(FF_EPS(QTR_R,0).DATES)":45961,"CF^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"CB^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"BXP^FF_EPS(QTR_R,0)":1.5617,"BR^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":1.59,"APTV^FF_EPS(QTR_R,0)":-1.6329,"AOS^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"AJG^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"AEP^FF_EPS(QTR_R,0)":1.0714,"ADI^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":2.46,"WTW^FG_COMPANY_NAME":"Willis Towers Watson Public Limited Company","V^FG_COMPANY_NAME":"Visa Inc. Class A","TTWO^FG_COMPANY_NAME":"Take-Two Interactive Software, Inc.","TMO^FG_COMPANY_NAME":"Thermo Fisher Scientific Inc.","SYF^FG_COMPANY_NAME":"Synchrony Financial","SO^FG_COMPANY_NAME":"Southern Company","PRU^FG_COMPANY_NAME":"Prudential Financial, Inc.","PAYX^FG_COMPANY_NAME":"Paychex, Inc.","NCLH^FG_COMPANY_NAME":"Norwegian Cruise Line Holdings Ltd.","MRK^FG_COMPANY_NAME":"Merck & Co., Inc.","MCK^FG_COMPANY_NAME":"McKesson Corporation","LIN^FG_COMPANY_NAME":"Linde plc","ISRG^FG_COMPANY_NAME":"Intuitive Surgical, Inc.","HSY^FG_COMPANY_NAME":"Hershey Company","HBAN^FG_COMPANY_NAME":"Huntington Bancshares Incorporated","ETR^FG_COMPANY_NAME":"Entergy Corporation","DXCM^FG_COMPANY_NAME":"DexCom, Inc.","DAL^FG_COMPANY_NAME":"Delta Air Lines, Inc.","CSX^FG_COMPANY_NAME":"CSX Corporation","CMG^FG_COMPANY_NAME":"Chipotle Mexican Grill, Inc.","CHD^FG_COMPANY_NAME":"Church & Dwight Co., Inc.","BX^FG_COMPANY_NAME":"Blackstone Inc.","BKNG^FG_COMPANY_NAME":"Booking Holdings Inc.","ADBE^FG_COMPANY_NAME":"Adobe Inc.","UPS^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"ROST^FF_EPS(QTR_R,0)":1.5835,"PHM^FF_EPS(QTR_R,0)":2.5621,"NSC^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":3.22,"MPWR^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":4.79,"KR^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":1.05,"JNJ^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"GS^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"GL^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":3.39,"FE^FF_EPS(QTR_R,0)":-0.0848,"EXR^FF_EPS(QTR_R,0)":1.2981,"ESS^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":1.25,"EOG^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":2.27,"CTRA^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":0.41,"CME^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":2.77,"CI^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":8.08,"CCL^FF_EPS(QTR_R,0)":0.3136,"BK^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":2.02,"BAC^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":0.98,"AVY^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"ANSS^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":null,"AMP^FF_EPS(QTR_R,0)":10.4673,"ALLE^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":1.94,"A^JULIAN(FF_EPS(QTR_R,0).DATES)":46052,"WST^FG_COMPANY_NAME":"West Pharmaceutical Services, Inc.","VZ^FG_COMPANY_NAME":"Verizon Communications Inc.","RCL^FG_COMPANY_NAME":"Royal Caribbean Group","O^FG_COMPANY_NAME":"Realty Income Corporation","MU^FG_COMPANY_NAME":"Micron Technology, Inc.","MKTX^FG_COMPANY_NAME":"MarketAxess Holdings Inc.","LVS^FG_COMPANY_NAME":"Las Vegas Sands Corp.","ILMN^FG_COMPANY_NAME":"Illumina, Inc.","GDDY^FG_COMPANY_NAME":"GoDaddy, Inc. Class A","EMR^FG_COMPANY_NAME":"Emerson Electric Co.","DHR^FG_COMPANY_NAME":"Danaher Corporation","BAX^FG_COMPANY_NAME":"Baxter International Inc.","ANSS^FG_COMPANY_NAME":"ANSYS, Inc.","AFL^FG_COMPANY_NAME":"Aflac Incorporated","MTD^FG_COMPANY_NAME":"Mettler-Toledo International Inc.","KLAC^FG_COMPANY_NAME":"KLA Corporation","IRM^FG_COMPANY_NAME":"Iron Mountain, Inc.","HAS^FG_COMPANY_NAME":"Hasbro, Inc.","DVN^FG_COMPANY_NAME":"Devon Energy Corporation","CFG^FG_COMPANY_NAME":"Citizens Financial Group, Inc.","BIO^FG_COMPANY_NAME":"Bio-Rad Laboratories, Inc. Class A","ACGL^FG_COMPANY_NAME":"Arch Capital Group Ltd.","ROST^JULIAN(FF_EPS(QTR_R,0).DATES)":45961,"MA^FF_EPS(QTR_R,0)":4.5212,"KR^FF_EPS(QTR_R,0)":-2.0168,"IPG^JULIAN(FF_EPS(QTR_R,0).DATES)":45930,"IBM^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"HON^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":2.59,"GL^FF_EPS(QTR_R,0)":3.293,"FMC^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":1.2,"ED^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":0.89,"DVA^FF_EPS(QTR_R,0)":2.9359,"DOV^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"DFS^JULIAN(FF_EPS(QTR_R,0).DATES)":45747,"CRWD^FF_EPS(QTR_R,0)":-0.1353,"CPAY^FF_EPS(QTR_R,0)":3.75,"CEG^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":2.3,"BXP^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"BR^FF_EPS(QTR_R,0)":2.418,"BEN^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"AVGO^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":1.95,"APTV^JULIAN(FF_EPS(QTR_R,0).DATES)":45930,"ANSS^FF_EPS(QTR_R,0)":0.5885,"AMGN^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":5.29,"ALLE^FF_EPS(QTR_R,0)":1.7032,"AIZ^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":5.61,"AEE^FF_EPS(QTR_R,0)":0.9207,"ADI^FF_EPS(QTR_R,0)":1.6898,"WRB^FG_COMPANY_NAME":"W. R. Berkley Corporation","VTRS^FG_COMPANY_NAME":"Viatris, Inc.","TT^FG_COMPANY_NAME":"Trane Technologies plc","TJX^FG_COMPANY_NAME":"TJX Companies Inc","SWKS^FG_COMPANY_NAME":"Skyworks Solutions, Inc.","SNPS^FG_COMPANY_NAME":"Synopsys, Inc.","ROP^FG_COMPANY_NAME":"Roper Technologies, Inc.","PPG^FG_COMPANY_NAME":"PPG Industries, Inc.","PGR^FG_COMPANY_NAME":"Progressive Corporation","NOW^FG_COMPANY_NAME":"ServiceNow, Inc.","MPWR^FG_COMPANY_NAME":"Monolithic Power Systems, Inc.","MCHP^FG_COMPANY_NAME":"Microchip Technology Incorporated","LH^FG_COMPANY_NAME":"Labcorp Holdings Inc.","GM^FG_COMPANY_NAME":"General Motors Company","GD^FG_COMPANY_NAME":"General Dynamics Corporation","ETN^FG_COMPANY_NAME":"Eaton Corp. Plc","CMCSA^FG_COMPANY_NAME":"Comcast Corporation Class A","TRGP^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":2.542577,"LYV^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":-1.06,"IP^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":-0.08,"HON^FF_EPS(QTR_R,0)":0.462,"GL^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"GD^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"FLT^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":6.04,"FE^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"ESS^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"ED^FF_EPS(QTR_R,0)":0.82,"CZR^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":-1.23,"CTRA^FF_EPS(QTR_R,0)":0.4185,"CI^FF_EPS(QTR_R,0)":4.6444,"CEG^FF_EPS(QTR_R,0)":1.3802,"CCI^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":0.67,"BR^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"BK^FF_EPS(QTR_R,0)":2.0237,"BDX^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":2.2868385,"BAC^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"AME^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":2.01,"ALLE^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"AIZ^FF_EPS(QTR_R,0)":4.4448,"ABNB^FF_EPS(QTR_R,0)":0.5554,"ZTS^FG_COMPANY_NAME":"Zoetis, Inc. Class A","WMB^FG_COMPANY_NAME":"Williams Companies, Inc.","TGT^FG_COMPANY_NAME":"Target Corporation","QRVO^FG_COMPANY_NAME":"Qorvo, Inc.","PARA^FG_COMPANY_NAME":"Paramount Skydance Corporation Class B","NXPI^FG_COMPANY_NAME":"NXP Semiconductors NV","MTCH^FG_COMPANY_NAME":"Match Group, Inc.","MKC^FG_COMPANY_NAME":"McCormick & Company, Incorporated","JKHY^FG_COMPANY_NAME":"Jack Henry & Associates, Inc.","IFF^FG_COMPANY_NAME":"International Flavors & Fragrances Inc.","HSIC^FG_COMPANY_NAME":"Henry Schein, Inc.","HAL^FG_COMPANY_NAME":"Halliburton Company","FANG^FG_COMPANY_NAME":"Diamondback Energy, Inc.","EMN^FG_COMPANY_NAME":"Eastman Chemical Company","DVA^FG_COMPANY_NAME":"DaVita Inc.","DHI^FG_COMPANY_NAME":"D.R. Horton, Inc.","TPR^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":2.69,"NDSN^FF_EPS(QTR_R,0)":2.3764,"MKTX^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"KIM^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"IVZ^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":0.62,"HSY^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":1.71,"HCA^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"GPC^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"GIS^FF_EPS(QTR_R,0)":0.7687,"FTV^FF_EPS(QTR_R,0)":0.5814,"ES^FF_EPS(QTR_R,0)":1.12,"EBAY^FF_EPS(QTR_R,0)":1.1478,"DTE^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"DIS^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":1.63,"DECK^FF_EPS(QTR_R,0)":3.3346,"CTAS^FF_EPS(QTR_R,0)":1.2148,"COST^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":4.5,"CNC^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":-1.19,"CMA^FF_EPS(QTR_R,0)":1.27,"CHRW^FF_EPS(QTR_R,0)":1.1205,"BIO^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":2.51,"BDX^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"AZO^FF_EPS(QTR_R,0)":31.0386,"APH^FF_EPS(QTR_R,0)":0.9277,"ANET^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":0.82,"AME^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"ALGN^FF_EPS(QTR_R,0)":1.8919,"AIG^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":1.96,"VST^FG_COMPANY_NAME":"Vistra Corp.","ULTA^FG_COMPANY_NAME":"Ulta Beauty Inc.","TSLA^FG_COMPANY_NAME":"Tesla, Inc.","TEL^FG_COMPANY_NAME":"TE Connectivity plc","STZ^FG_COMPANY_NAME":"Constellation Brands, Inc. Class A","SHW^FG_COMPANY_NAME":"Sherwin-Williams Company","ROK^FG_COMPANY_NAME":"Rockwell Automation, Inc.","PFG^FG_COMPANY_NAME":"Principal Financial Group, Inc.","NWS^FG_COMPANY_NAME":"News Corporation Class B","NI^FG_COMPANY_NAME":"NiSource Inc","MOS^FG_COMPANY_NAME":"Mosaic Company","LOW^FG_COMPANY_NAME":"Lowe's Companies, Inc.","KHC^FG_COMPANY_NAME":"Kraft Heinz Company","IQV^FG_COMPANY_NAME":"IQVIA Holdings Inc","IDXX^FG_COMPANY_NAME":"IDEXX Laboratories, Inc.","HPQ^FG_COMPANY_NAME":"HP Inc.","GS^FG_COMPANY_NAME":"Goldman Sachs Group, Inc.","FI^FG_COMPANY_NAME":"Fiserv, Inc.","ES^FG_COMPANY_NAME":"Eversource Energy","EIX^FG_COMPANY_NAME":"Edison International","DG^FG_COMPANY_NAME":"Dollar General Corporation","CRWD^FG_COMPANY_NAME":"CrowdStrike Holdings, Inc. Class A","COO^FG_COMPANY_NAME":"Cooper Companies, Inc.","BRK.B^FG_COMPANY_NAME":"Berkshire Hathaway Inc. Class B","ALGN^FG_COMPANY_NAME":"Align Technology, Inc.","AEE^FG_COMPANY_NAME":"Ameren Corporation","TPR^FF_EPS(QTR_R,0)":2.6753999999999998,"LNT^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"OTIS^FF_EPS(QTR_R,0)":0.9546,"INTC^FF_EPS(QTR_R,0)":-0.1217,"HBAN^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"GEN^FF_EPS(QTR_R,0)":0.3107,"EA^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":4.875692,"COST^JULIAN(FF_EPS(QTR_R,0).DATES)":45989,"BSX^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":0.8,"BIIB^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"AXP^FF_EPS(QTR_R,0)":3.5305,"ALGN^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"ADP^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":2.62,"ZION^FG_COMPANY_NAME":"Zions Bancorporation NA","VRTX^FG_COMPANY_NAME":"Vertex Pharmaceuticals Incorporated","QCOM^FG_COMPANY_NAME":"QUALCOMM Incorporated","NUE^FG_COMPANY_NAME":"Nucor Corporation","MPC^FG_COMPANY_NAME":"Marathon Petroleum Corporation","MAR^FG_COMPANY_NAME":"Marriott International, Inc. Class A","KVUE^FG_COMPANY_NAME":"Kenvue, Inc.","IVZ^FG_COMPANY_NAME":"Invesco Ltd.","GILD^FG_COMPANY_NAME":"Gilead Sciences, Inc.","FE^FG_COMPANY_NAME":"FirstEnergy Corp.","CRL^FG_COMPANY_NAME":"Charles River Laboratories International, Inc.","CI^FG_COMPANY_NAME":"Cigna Group","NOW^FF_EPS(QTR_R,0)":0.383,"LMT^FF_EPS(QTR_R,0)":5.7956,"INTC^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"DECK^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":3.33,"COP^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":1.02,"CLX^FF_EPS(QTR_R,0)":1.2878,"CCI^FF_EPS(QTR_R,0)":1.2723,"BG^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":1.99,"AVGO^FF_EPS(QTR_R,0)":1.7423,"ALB^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":-0.53,"ADP^FF_EPS(QTR_R,0)":2.6242,"VRSN^FG_COMPANY_NAME":"VeriSign, Inc.","TRGP^FG_COMPANY_NAME":"Targa Resources Corp.","PXD^FG_COMPANY_NAME":"Pioneer Natural Resources Company","PEP^FG_COMPANY_NAME":"PepsiCo, Inc.","NTRS^FG_COMPANY_NAME":"Northern Trust Corporation","IR^FG_COMPANY_NAME":"Ingersoll Rand Inc.","FDX^FG_COMPANY_NAME":"FedEx Corporation","DFS^FG_COMPANY_NAME":"Discover Financial Services","CF^FG_COMPANY_NAME":"CF Industries Holdings, Inc.","BR^FG_COMPANY_NAME":"Broadridge Financial Solutions, Inc.","AXP^FG_COMPANY_NAME":"American Express Company","AME^FG_COMPANY_NAME":"AMETEK, Inc.","ABT^FG_COMPANY_NAME":"Abbott Laboratories","APH^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":0.97,"UHS^FG_COMPANY_NAME":"Universal Health Services, Inc. Class B","ROL^FG_COMPANY_NAME":"Rollins, Inc.","CB^FG_COMPANY_NAME":"Chubb Limited","CAH^FF_EPS(QTR_R,0)":1.9705,"CTVA^FG_COMPANY_NAME":"Corteva Inc","CMI^FF_EPS(QTR_R,0)":4.2662,"ABNB^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"UDR^FG_COMPANY_NAME":"UDR, Inc.","META^FG_COMPANY_NAME":"Meta Platforms Inc Class A","HST^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":0.2,"AEE^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"LDOS^FG_COMPANY_NAME":"Leidos Holdings, Inc.","CAG^FG_COMPANY_NAME":"Conagra Brands, Inc.","OXY^FF_EPS(QTR_R,0)":-0.0688,"CVS^FF_EPS(QTR_R,0)":2.3046,"STT^FG_COMPANY_NAME":"State Street Corporation","L^FG_COMPANY_NAME":"Loews Corporation","AMP^FG_COMPANY_NAME":"Ameriprise Financial, Inc.","NDSN^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":2.37,"LMT^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"HAS^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":1.51,"FTV^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":0.9,"FCX^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"EQR^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"EA^FF_EPS(QTR_R,0)":0.3478,"COP^FF_EPS(QTR_R,0)":1.1646,"CCI^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"BSX^FF_EPS(QTR_R,0)":0.4493,"AVGO^JULIAN(FF_EPS(QTR_R,0).DATES)":45961,"ANET^FF_EPS(QTR_R,0)":0.75,"ADI^JULIAN(FF_EPS(QTR_R,0).DATES)":46052,"VMC^FG_COMPANY_NAME":"Vulcan Materials Company","SLB^FG_COMPANY_NAME":"SLB Limited","PEG^FG_COMPANY_NAME":"Public Service Enterprise Group Inc","MA^FG_COMPANY_NAME":"Mastercard Incorporated Class A","KR^FG_COMPANY_NAME":"Kroger Co.","GEV^FG_COMPANY_NAME":"GE Vernova Inc.","EFX^FG_COMPANY_NAME":"Equifax Inc.","CEG^FG_COMPANY_NAME":"Constellation Energy Corporation","ABNB^FG_COMPANY_NAME":"Airbnb, Inc. Class A","MU^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":4.78,"DVA^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"CSX^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":0.39,"CHTR^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":10.34,"BDX^FF_EPS(QTR_R,0)":1.3364,"ANET^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"ADBE^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":5.5,"TFX^FG_COMPANY_NAME":"Teleflex Incorporated","MOH^FG_COMPANY_NAME":"Molina Healthcare, Inc.","KIM^FG_COMPANY_NAME":"Kimco Realty Corporation","IPG^FG_COMPANY_NAME":"Interpublic Group of Companies, Inc.","HON^FG_COMPANY_NAME":"Honeywell International Inc.","F^FG_COMPANY_NAME":"Ford Motor Company","ED^FG_COMPANY_NAME":"Consolidated Edison, Inc.","DECK^FG_COMPANY_NAME":"Deckers Outdoor Corporation","CE^FG_COMPANY_NAME":"Celanese Corporation","BMY^FG_COMPANY_NAME":"Bristol-Myers Squibb Company","UNH^FG_COMPANY_NAME":"UnitedHealth Group Incorporated","POOL^FG_COMPANY_NAME":"Pool Corporation","KEYS^FG_COMPANY_NAME":"Keysight Technologies Inc","FSLR^FG_COMPANY_NAME":"First Solar, Inc.","CVX^FG_COMPANY_NAME":"Chevron Corporation","HUBB^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"MHK^FG_COMPANY_NAME":"Mohawk Industries, Inc.","KEY^FG_COMPANY_NAME":"KeyCorp","BG^FG_COMPANY_NAME":"Bunge Global SA","AJG^FG_COMPANY_NAME":"Arthur J. Gallagher & Co.","AMD^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":1.53,"WFC^FG_COMPANY_NAME":"Wells Fargo & Company","DRI^FG_COMPANY_NAME":"Darden Restaurants, Inc.","MET^FF_EPS(QTR_R,0)":1.1749,"FITB^FF_EPS(QTR_R,0)":1.0446,"EL^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":0.87,"CVX^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":1.52,"WELL^FG_COMPANY_NAME":"Welltower Inc.","MTB^FG_COMPANY_NAME":"M&T Bank Corporation","ICE^FG_COMPANY_NAME":"Intercontinental Exchange, Inc.","CARR^FG_COMPANY_NAME":"Carrier Global Corp.","GIS^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":1.1,"EIX^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":1.86,"CPT^FF_EPS(QTR_R,0)":1.4335,"CAH^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"APA^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":0.91,"MSI^FG_COMPANY_NAME":"Motorola Solutions, Inc.","JCI^FG_COMPANY_NAME":"Johnson Controls International plc","FICO^FG_COMPANY_NAME":"Fair Isaac Corporation","CMA^FG_COMPANY_NAME":"Comerica Incorporated","DIS^FF_EPS(QTR_R,0)":1.3396,"BK^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"ADSK^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":2.67,"TSN^FG_COMPANY_NAME":"Tyson Foods, Inc. Class A","PM^FG_COMPANY_NAME":"Philip Morris International Inc.","CAH^FG_COMPANY_NAME":"Cardinal Health, Inc.","AMZN^FG_COMPANY_NAME":"Amazon.com, Inc.","OXY^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":0.31,"FIS^FF_EPS(QTR_R,0)":0.9846,"EW^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"EQR^FG_COMPANY_NAME":"Equity Residential","GEV^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"CDNS^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":1.99,"APA^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"MCD^FG_COMPANY_NAME":"McDonald's Corporation","BA^FG_COMPANY_NAME":"Boeing Company","STE^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":2.53,"MU^FF_EPS(QTR_R,0)":4.6046,"INCY^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"GPN^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":3.18,"EQIX^FF_EPS(QTR_R,0)":2.6937,"DUK^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":1.5,"DECK^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"CSX^FF_EPS(QTR_R,0)":0.3863,"CNP^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"CHRW^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"BSX^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"ATVI^FF_EPS(QTR_R,0)":0.7393,"AMT^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":1.75,"XOM^FG_COMPANY_NAME":"Exxon Mobil Corporation","VLTO^FG_COMPANY_NAME":"Veralto Corporation","SEE^FG_COMPANY_NAME":"Sealed Air Corporation","PTC^FG_COMPANY_NAME":"PTC Inc.","NFLX^FG_COMPANY_NAME":"Netflix, Inc.","MO^FG_COMPANY_NAME":"Altria Group, Inc.","LYV^FG_COMPANY_NAME":"Live Nation Entertainment, Inc.","FTV^FG_COMPANY_NAME":"Fortive Corp.","EXR^FG_COMPANY_NAME":"Extra Space Storage Inc.","COP^FG_COMPANY_NAME":"ConocoPhillips","CDW^FG_COMPANY_NAME":"CDW Corporation","ABBV^FG_COMPANY_NAME":"AbbVie, Inc.","MU^JULIAN(FF_EPS(QTR_R,0).DATES)":45989,"CRWD^JULIAN(FF_EPS(QTR_R,0).DATES)":45961,"AME^FF_EPS(QTR_R,0)":1.7304,"ACN^JULIAN(FF_EPS(QTR_R,0).DATES)":45989,"SCHW^FG_COMPANY_NAME":"Charles Schwab Corp","MNST^FG_COMPANY_NAME":"Monster Beverage Corporation","INVH^FG_COMPANY_NAME":"Invitation Homes, Inc.","CDNS^FG_COMPANY_NAME":"Cadence Design Systems, Inc.","APTV^FG_COMPANY_NAME":"Aptiv PLC","AKAM^FG_COMPANY_NAME":"Akamai Technologies, Inc.","AAPL^FG_COMPANY_NAME":"Apple Inc.","ROL^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"GOOGL^FF_EPS(QTR_R,0)":2.8177,"EMR^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"ATO^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":2.44,"CVX^FF_EPS(QTR_R,0)":1.3871,"GPC^FG_COMPANY_NAME":"Genuine Parts Company","ADSK^FG_COMPANY_NAME":"Autodesk, Inc.","HON^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"CMA^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"AZO^JULIAN(FF_EPS(QTR_R,0).DATES)":45989,"RJF^FG_COMPANY_NAME":"Raymond James Financial, Inc.","DHI^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":2.03,"ALGN^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":3.29,"FFIV^FG_COMPANY_NAME":"F5, Inc.","KHC^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"GPN^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"FCNCA^FF_EPS(QTR_R,0)":45.7817,"EMR^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":1.46,"DRI^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":2.08,"BMY^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":1.26,"ATVI^JULIAN(FF_EPS(QTR_R,0).DATES)":45107,"AMT^FF_EPS(QTR_R,0)":1.752,"AIZ^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"ACN^FF_EPS(QTR_R,0)":3.5359,"OXY^FG_COMPANY_NAME":"Occidental Petroleum Corporation","LULU^FG_COMPANY_NAME":"lululemon athletica inc.","HOLX^FG_COMPANY_NAME":"Hologic, Inc.","FTNT^FG_COMPANY_NAME":"Fortinet, Inc.","ECL^FG_COMPANY_NAME":"Ecolab Inc.","BLK^FG_COMPANY_NAME":"BlackRock, Inc.","ARE^FG_COMPANY_NAME":"Alexandria Real Estate Equities, Inc.","HWM^FF_EPS(QTR_R,0)":0.9208,"GOOGL^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":2.82,"FTNT^FF_EPS(QTR_R,0)":0.6765,"EMR^FF_EPS(QTR_R,0)":1.0725,"DD^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"CHD^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":0.86,"BBY^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":1.4,"AFL^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":1.57,"XEL^FG_COMPANY_NAME":"Xcel Energy Inc.","TECH^FG_COMPANY_NAME":"Bio-Techne Corporation","NEM^FG_COMPANY_NAME":"Newmont Corporation","LRCX^FG_COMPANY_NAME":"Lam Research Corporation","COF^FG_COMPANY_NAME":"Capital One Financial Corp","DRI^FF_EPS(QTR_R,0)":2.0326,"CNC^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"PNW^FG_COMPANY_NAME":"Pinnacle West Capital Corp","GWW^FG_COMPANY_NAME":"W.W. Grainger, Inc.","EXPD^FG_COMPANY_NAME":"Expeditors International of Washington, Inc.","CVS^FG_COMPANY_NAME":"CVS Health Corporation","CNP^FG_COMPANY_NAME":"CenterPoint Energy, Inc.","EXPE^FF_EPS(QTR_R,0)":1.5986,"CMS^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":0.95,"NEE^FG_COMPANY_NAME":"NextEra Energy, Inc.","BLDR^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":1.12,"CNC^FG_COMPANY_NAME":"Centene Corporation","GOOG^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"FOXA^FG_COMPANY_NAME":"Fox Corporation Class A","DLTR^JULIAN(FF_EPS(QTR_R,0).DATES)":45961,"ABBV^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":2.71,"GPN^FG_COMPANY_NAME":"Global Payments Inc.","DPZ^FG_COMPANY_NAME":"Domino's Pizza, Inc.","PFG^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":2.19,"ECL^FF_EPS(QTR_R,0)":1.9842,"CDW^FF_EPS(QTR_R,0)":2.1401,"AMCR^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":0.86,"WEC^FG_COMPANY_NAME":"WEC Energy Group Inc","MDT^FG_COMPANY_NAME":"Medtronic Plc","CSCO^FG_COMPANY_NAME":"Cisco Systems, Inc.","LYV^FF_EPS(QTR_R,0)":-1.0498,"EBAY^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":1.41,"DHR^FF_EPS(QTR_R,0)":1.6835,"CPAY^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"CAG^FF_EPS(QTR_R,0)":-1.3854,"ALL^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":14.31,"PG^FG_COMPANY_NAME":"Procter & Gamble Company","MSFT^FG_COMPANY_NAME":"Microsoft Corporation","CL^FG_COMPANY_NAME":"Colgate-Palmolive Company","ABBV^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"NVDA^FG_COMPANY_NAME":"NVIDIA Corporation","DUK^FG_COMPANY_NAME":"Duke Energy Corporation","BIIB^FG_COMPANY_NAME":"Biogen Inc.","CAH^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":2.63,"AFL^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"TDY^FG_COMPANY_NAME":"Teledyne Technologies Incorporated","BBWI^JULIAN(FF_EPS(QTR_R,0).DATES)":45961,"AEP^FG_COMPANY_NAME":"American Electric Power Company, Inc.","APH^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"SWK^FG_COMPANY_NAME":"Stanley Black & Decker, Inc.","MET^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"RMD^FG_COMPANY_NAME":"ResMed Inc.","CTSH^FG_COMPANY_NAME":"Cognizant Technology Solutions Corporation Class A","CVX^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"BEN^FG_COMPANY_NAME":"Franklin Resources, Inc.","IT^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":3.94,"STX^FG_COMPANY_NAME":"Seagate Technology Holdings PLC","HWM^FG_COMPANY_NAME":"Howmet Aerospace Inc.","JBHT^FG_COMPANY_NAME":"J.B. Hunt Transport Services, Inc.","GL^FG_COMPANY_NAME":"Globe Life Inc.","DGX^FG_COMPANY_NAME":"Quest Diagnostics Incorporated","KEYS^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":2.17,"ORLY^FG_COMPANY_NAME":"O'Reilly Automotive, Inc.","WM^FG_COMPANY_NAME":"Waste Management, Inc.","PNR^FG_COMPANY_NAME":"Pentair plc","LNT^FG_COMPANY_NAME":"Alliant Energy Corporation","FRT^FG_COMPANY_NAME":"Federal Realty Investment Trust","ESS^FG_COMPANY_NAME":"Essex Property Trust, Inc.","BLDR^FF_EPS(QTR_R,0)":0.284,"AMD^FF_EPS(QTR_R,0)":0.9163,"IBM^FG_COMPANY_NAME":"International Business Machines Corporation","CDW^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"EBAY^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"ADP^FG_COMPANY_NAME":"Automatic Data Processing, Inc.","PYPL^FF_EPS(QTR_R,0)":1.5304,"MKTX^FF_EPS(QTR_R,0)":2.5144,"KEYS^FF_EPS(QTR_R,0)":1.63,"HSY^FF_EPS(QTR_R,0)":1.575,"GOOG^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":2.82,"EMN^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":0.75,"CRL^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"CHD^FF_EPS(QTR_R,0)":0.5989,"ACGL^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":2.98,"IEX^FG_COMPANY_NAME":"IDEX Corporation","GRMN^FG_COMPANY_NAME":"Garmin Ltd.","PTC^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":1.92,"BA^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"BF.B^FG_COMPANY_NAME":"Brown-Forman Corporation Class B","FIS^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":1.68,"PYPL^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"JBL^FF_EPS(QTR_R,0)":1.3481,"FLT^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"EMN^FF_EPS(QTR_R,0)":0.9138,"DRI^JULIAN(FF_EPS(QTR_R,0).DATES)":45989,"CZR^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"CPT^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":1.44,"CMS^FF_EPS(QTR_R,0)":0.9352,"APD^FG_COMPANY_NAME":"Air Products and Chemicals, Inc.","CEG^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"PNC^FG_COMPANY_NAME":"PNC Financial Services Group, Inc.","LMT^FG_COMPANY_NAME":"Lockheed Martin Corporation","NWSA^FG_COMPANY_NAME":"News Corporation Class A","EQT^FG_COMPANY_NAME":"EQT Corporation","JBL^FG_COMPANY_NAME":"Jabil Inc.","ABBV^FF_EPS(QTR_R,0)":1.018,"NVR^FG_COMPANY_NAME":"NVR, Inc.","DOW^FG_COMPANY_NAME":"Dow, Inc.","HCA^FF_EPS(QTR_R,0)":8.1401,"OTIS^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":1.03,"LMT^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":5.8,"IP^FF_EPS(QTR_R,0)":-4.52,"DHI^FF_EPS(QTR_R,0)":2.028,"CLX^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":1.39,"AXP^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":3.53,"ANSS^JULIAN(FF_EPS(QTR_R,0).DATES)":45747,"ADSK^JULIAN(FF_EPS(QTR_R,0).DATES)":45961,"AAPL^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":2.84,"STLD^FG_COMPANY_NAME":"Steel Dynamics, Inc.","PFE^FG_COMPANY_NAME":"Pfizer Inc.","MAS^FG_COMPANY_NAME":"Masco Corporation","J^FG_COMPANY_NAME":"Jacobs Solutions Inc.","GIS^FG_COMPANY_NAME":"General Mills, Inc.","EPAM^FG_COMPANY_NAME":"EPAM Systems, Inc.","CRM^FG_COMPANY_NAME":"Salesforce, Inc.","BRO^FG_COMPANY_NAME":"Brown & Brown, Inc.","AZO^FG_COMPANY_NAME":"AutoZone, Inc.","CMCSA^JULIAN(FF_EPS(QTR_R,0).DATES)":46022,"APA^FF_EPS(QTR_R,0)":0.7859,"ADSK^FF_EPS(QTR_R,0)":1.5954,"LOW^FE_ESTIMATE(EPS,MEAN,QTR_ROLL,-0,0,,,'')":1.98,"VTR^FG_COMPANY_NAME":"Ventas, Inc."}]]></FdsFormulaCache>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0B7F0578-BAE2-465A-9F7B-2C79F3E5CA21}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4344176E-AE7F-4263-A673-AA48CDAB01DF}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="urn:fdsformulacache"/>
   </ds:schemaRefs>
